--- a/bicc_template.xlsx
+++ b/bicc_template.xlsx
@@ -6144,8 +6144,8 @@
   </sheetPr>
   <dimension ref="A1:L259"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="68" zoomScaleNormal="68" zoomScalePageLayoutView="68" workbookViewId="0">
-      <selection activeCell="I194" sqref="I194"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A188" zoomScale="68" zoomScaleNormal="68" zoomScalePageLayoutView="68" workbookViewId="0">
+      <selection activeCell="G195" sqref="G195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9501,7 +9501,7 @@
       </c>
       <c r="I194" s="232"/>
     </row>
-    <row r="195" spans="1:9" s="24" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:9" s="24" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="303"/>
       <c r="B195" s="304" t="s">
         <v>151</v>

--- a/bicc_template.xlsx
+++ b/bicc_template.xlsx
@@ -90,14 +90,18 @@
     <definedName function="false" hidden="false" name="YN_2" vbProcedure="false">#REF!</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">Summary!$A$1:$L$49</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0" vbProcedure="false">Summary!$A$1:$L$49</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0" vbProcedure="false">Summary!$A$1:$L$49</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area" vbProcedure="false">'Finance &amp; Benefits'!$A$1:$I$197</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area_0" vbProcedure="false">'Finance &amp; Benefits'!$A$1:$I$197</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area_0_0" vbProcedure="false">'Finance &amp; Benefits'!$A$1:$I$197</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Area" vbProcedure="false">Resource!$A$1:$M$39</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Area_0" vbProcedure="false">Resource!$A$1:$M$39</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Area_0_0" vbProcedure="false">Resource!$A$1:$M$39</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="Concept" vbProcedure="false">Dropdown!$AD$2:$AD$19</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="Other" vbProcedure="false">Dropdown!$AD$2:$AD$19</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm.Print_Area" vbProcedure="false">'Approval &amp; Project milestones'!$A$1:$L$42</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm.Print_Area_0" vbProcedure="false">'Approval &amp; Project milestones'!$A$1:$L$42</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm.Print_Area_0_0" vbProcedure="false">'Approval &amp; Project milestones'!$A$1:$L$42</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -4923,9 +4927,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1882800</xdr:colOff>
+      <xdr:colOff>1882440</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>1034640</xdr:rowOff>
+      <xdr:rowOff>1034280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4939,7 +4943,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="322200" y="83880"/>
-          <a:ext cx="1560600" cy="950760"/>
+          <a:ext cx="1560240" cy="950400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4965,9 +4969,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1560600</xdr:colOff>
+      <xdr:colOff>1560240</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>997920</xdr:rowOff>
+      <xdr:rowOff>997560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4981,7 +4985,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="1560600" cy="997920"/>
+          <a:ext cx="1560240" cy="997560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5007,9 +5011,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1550160</xdr:colOff>
+      <xdr:colOff>1549800</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>960480</xdr:rowOff>
+      <xdr:rowOff>960120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5023,7 +5027,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="1550160" cy="960480"/>
+          <a:ext cx="1549800" cy="960120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5049,9 +5053,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1560600</xdr:colOff>
+      <xdr:colOff>1560240</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>960480</xdr:rowOff>
+      <xdr:rowOff>960120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5065,7 +5069,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="1560600" cy="960480"/>
+          <a:ext cx="1560240" cy="960120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5091,9 +5095,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1560600</xdr:colOff>
+      <xdr:colOff>1560240</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>960480</xdr:rowOff>
+      <xdr:rowOff>960120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5107,7 +5111,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="1560600" cy="960480"/>
+          <a:ext cx="1560240" cy="960120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6085,7 +6089,7 @@
   <dataValidations count="22">
     <dataValidation allowBlank="true" operator="lessThan" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="H35:K35 I36:K38 C47:K47" type="textLength">
       <formula1>7001</formula1>
-      <formula2> </formula2>
+      <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" operator="lessThan" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B26:C26 G26:G27 K27" type="textLength">
       <formula1>5001</formula1>
@@ -9766,10 +9770,6 @@
       <formula1>Dropdown!$X$2:$X$90</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B192" type="list">
-      <formula1>Dropdown!$AG$2:$AG$11</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
     <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D15" type="list">
       <formula1>Dropdown!$V$2:$V$3</formula1>
       <formula2>0</formula2>
@@ -9784,6 +9784,10 @@
     </dataValidation>
     <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B193" type="none">
       <formula1>0</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B192" type="list">
+      <formula1>Dropdown!$AG$2:$AG$11</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -12026,7 +12030,7 @@
   </sheetPr>
   <dimension ref="A1:AR90"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="AE1" colorId="64" zoomScale="100" zoomScaleNormal="87" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="AE10" colorId="64" zoomScale="100" zoomScaleNormal="87" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="AF2" activeCellId="0" sqref="AF2"/>
     </sheetView>
   </sheetViews>

--- a/bicc_template.xlsx
+++ b/bicc_template.xlsx
@@ -91,17 +91,45 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">Summary!$A$1:$L$49</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0" vbProcedure="false">Summary!$A$1:$L$49</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0" vbProcedure="false">Summary!$A$1:$L$49</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0" vbProcedure="false">Summary!$A$1:$L$49</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0_0" vbProcedure="false">Summary!$A$1:$L$49</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0_0_0" vbProcedure="false">Summary!$A$1:$L$49</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0_0_0_0" vbProcedure="false">Summary!$A$1:$L$49</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0_0_0_0_0" vbProcedure="false">Summary!$A$1:$L$49</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0_0_0_0_0_0" vbProcedure="false">Summary!$A$1:$L$49</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0_0_0_0_0_0_0" vbProcedure="false">Summary!$A$1:$L$49</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area" vbProcedure="false">'Finance &amp; Benefits'!$A$1:$I$197</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area_0" vbProcedure="false">'Finance &amp; Benefits'!$A$1:$I$197</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area_0_0" vbProcedure="false">'Finance &amp; Benefits'!$A$1:$I$197</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area_0_0_0" vbProcedure="false">'Finance &amp; Benefits'!$A$1:$I$197</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area_0_0_0_0" vbProcedure="false">'Finance &amp; Benefits'!$A$1:$I$197</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area_0_0_0_0_0" vbProcedure="false">'Finance &amp; Benefits'!$A$1:$I$197</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area_0_0_0_0_0_0" vbProcedure="false">'Finance &amp; Benefits'!$A$1:$I$197</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area_0_0_0_0_0_0_0" vbProcedure="false">'Finance &amp; Benefits'!$A$1:$I$197</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area_0_0_0_0_0_0_0_0" vbProcedure="false">'Finance &amp; Benefits'!$A$1:$I$197</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Finance &amp; Benefits'!$A$1:$I$197</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Area" vbProcedure="false">Resource!$A$1:$M$39</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Area_0" vbProcedure="false">Resource!$A$1:$M$39</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Area_0_0" vbProcedure="false">Resource!$A$1:$M$39</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Area_0_0_0" vbProcedure="false">Resource!$A$1:$M$39</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Area_0_0_0_0" vbProcedure="false">Resource!$A$1:$M$39</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Area_0_0_0_0_0" vbProcedure="false">Resource!$A$1:$M$39</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Area_0_0_0_0_0_0" vbProcedure="false">Resource!$A$1:$M$39</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Area_0_0_0_0_0_0_0" vbProcedure="false">Resource!$A$1:$M$39</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Area_0_0_0_0_0_0_0_0" vbProcedure="false">Resource!$A$1:$M$39</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Area_0_0_0_0_0_0_0_0_0" vbProcedure="false">Resource!$A$1:$M$39</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="Concept" vbProcedure="false">Dropdown!$AD$2:$AD$19</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="Other" vbProcedure="false">Dropdown!$AD$2:$AD$19</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm.Print_Area" vbProcedure="false">'Approval &amp; Project milestones'!$A$1:$L$42</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm.Print_Area_0" vbProcedure="false">'Approval &amp; Project milestones'!$A$1:$L$42</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm.Print_Area_0_0" vbProcedure="false">'Approval &amp; Project milestones'!$A$1:$L$42</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm.Print_Area_0_0_0" vbProcedure="false">'Approval &amp; Project milestones'!$A$1:$L$42</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm.Print_Area_0_0_0_0" vbProcedure="false">'Approval &amp; Project milestones'!$A$1:$L$42</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm.Print_Area_0_0_0_0_0" vbProcedure="false">'Approval &amp; Project milestones'!$A$1:$L$42</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm.Print_Area_0_0_0_0_0_0" vbProcedure="false">'Approval &amp; Project milestones'!$A$1:$L$42</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm.Print_Area_0_0_0_0_0_0_0" vbProcedure="false">'Approval &amp; Project milestones'!$A$1:$L$42</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm.Print_Area_0_0_0_0_0_0_0_0" vbProcedure="false">'Approval &amp; Project milestones'!$A$1:$L$42</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm.Print_Area_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Approval &amp; Project milestones'!$A$1:$L$42</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -3707,7 +3735,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="277">
+  <cellXfs count="275">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -4184,10 +4212,6 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="13" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
     <xf numFmtId="167" fontId="0" fillId="13" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
@@ -4243,10 +4267,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="25" fillId="13" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="20" fillId="15" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
@@ -4927,9 +4947,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1882440</xdr:colOff>
+      <xdr:colOff>1879920</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>1034280</xdr:rowOff>
+      <xdr:rowOff>1031760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4943,7 +4963,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="322200" y="83880"/>
-          <a:ext cx="1560240" cy="950400"/>
+          <a:ext cx="1557720" cy="947880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4969,9 +4989,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1560240</xdr:colOff>
+      <xdr:colOff>1557720</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>997560</xdr:rowOff>
+      <xdr:rowOff>995040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4985,7 +5005,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="1560240" cy="997560"/>
+          <a:ext cx="1557720" cy="995040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5011,9 +5031,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1549800</xdr:colOff>
+      <xdr:colOff>1547280</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>960120</xdr:rowOff>
+      <xdr:rowOff>957600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5027,7 +5047,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="1549800" cy="960120"/>
+          <a:ext cx="1547280" cy="957600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5053,9 +5073,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1560240</xdr:colOff>
+      <xdr:colOff>1557720</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>960120</xdr:rowOff>
+      <xdr:rowOff>957600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5069,7 +5089,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="1560240" cy="960120"/>
+          <a:ext cx="1557720" cy="957600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5095,9 +5115,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1560240</xdr:colOff>
+      <xdr:colOff>1557720</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>960120</xdr:rowOff>
+      <xdr:rowOff>957600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5111,7 +5131,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="1560240" cy="960120"/>
+          <a:ext cx="1557720" cy="957600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6198,8 +6218,8 @@
   </sheetPr>
   <dimension ref="A1:L198"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A179" colorId="64" zoomScale="68" zoomScaleNormal="68" zoomScalePageLayoutView="68" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B192" activeCellId="0" sqref="B192"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="E157" colorId="64" zoomScale="68" zoomScaleNormal="68" zoomScalePageLayoutView="68" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G188" activeCellId="0" sqref="G188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6331,7 +6351,7 @@
       <c r="H9" s="10"/>
       <c r="I9" s="10"/>
     </row>
-    <row r="10" s="19" customFormat="true" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" s="19" customFormat="true" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="22"/>
       <c r="B10" s="41" t="s">
         <v>72</v>
@@ -6437,7 +6457,7 @@
       <c r="H17" s="10"/>
       <c r="I17" s="10"/>
     </row>
-    <row r="18" s="19" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" s="19" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="41" t="s">
         <v>81</v>
       </c>
@@ -6474,7 +6494,7 @@
       <c r="H19" s="10"/>
       <c r="I19" s="10"/>
     </row>
-    <row r="20" s="19" customFormat="true" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" s="19" customFormat="true" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="41" t="s">
         <v>86</v>
       </c>
@@ -7463,14 +7483,14 @@
       <c r="A77" s="41" t="s">
         <v>133</v>
       </c>
-      <c r="B77" s="119"/>
-      <c r="C77" s="119"/>
-      <c r="D77" s="119"/>
-      <c r="E77" s="119"/>
-      <c r="F77" s="119"/>
-      <c r="G77" s="119"/>
-      <c r="H77" s="119"/>
-      <c r="I77" s="119"/>
+      <c r="B77" s="39"/>
+      <c r="C77" s="39"/>
+      <c r="D77" s="39"/>
+      <c r="E77" s="39"/>
+      <c r="F77" s="39"/>
+      <c r="G77" s="39"/>
+      <c r="H77" s="39"/>
+      <c r="I77" s="39"/>
     </row>
     <row r="78" customFormat="false" ht="6.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="10"/>
@@ -7698,14 +7718,14 @@
       <c r="B91" s="77" t="s">
         <v>108</v>
       </c>
-      <c r="C91" s="120"/>
-      <c r="D91" s="121"/>
-      <c r="E91" s="121"/>
-      <c r="F91" s="122" t="n">
+      <c r="C91" s="119"/>
+      <c r="D91" s="120"/>
+      <c r="E91" s="120"/>
+      <c r="F91" s="121" t="n">
         <f aca="false">SUM(C91:E91)</f>
         <v>0</v>
       </c>
-      <c r="G91" s="123" t="s">
+      <c r="G91" s="122" t="s">
         <v>139</v>
       </c>
       <c r="H91" s="10"/>
@@ -7716,14 +7736,14 @@
       <c r="B92" s="77" t="s">
         <v>113</v>
       </c>
-      <c r="C92" s="124"/>
+      <c r="C92" s="123"/>
       <c r="D92" s="78"/>
       <c r="E92" s="78"/>
       <c r="F92" s="95" t="n">
         <f aca="false">SUM(C92:E92)</f>
         <v>0</v>
       </c>
-      <c r="G92" s="123"/>
+      <c r="G92" s="122"/>
       <c r="H92" s="10"/>
       <c r="I92" s="10"/>
     </row>
@@ -7734,14 +7754,14 @@
       <c r="B93" s="77" t="s">
         <v>108</v>
       </c>
-      <c r="C93" s="124"/>
+      <c r="C93" s="123"/>
       <c r="D93" s="78"/>
       <c r="E93" s="78"/>
       <c r="F93" s="95" t="n">
         <f aca="false">SUM(C93:E93)</f>
         <v>0</v>
       </c>
-      <c r="G93" s="123"/>
+      <c r="G93" s="122"/>
       <c r="H93" s="10"/>
       <c r="I93" s="10"/>
     </row>
@@ -7750,14 +7770,14 @@
       <c r="B94" s="77" t="s">
         <v>113</v>
       </c>
-      <c r="C94" s="124"/>
+      <c r="C94" s="123"/>
       <c r="D94" s="78"/>
       <c r="E94" s="78"/>
       <c r="F94" s="95" t="n">
         <f aca="false">SUM(C94:E94)</f>
         <v>0</v>
       </c>
-      <c r="G94" s="123"/>
+      <c r="G94" s="122"/>
       <c r="H94" s="10"/>
       <c r="I94" s="10"/>
     </row>
@@ -7768,14 +7788,14 @@
       <c r="B95" s="77" t="s">
         <v>108</v>
       </c>
-      <c r="C95" s="124"/>
+      <c r="C95" s="123"/>
       <c r="D95" s="78"/>
       <c r="E95" s="78"/>
       <c r="F95" s="95" t="n">
         <f aca="false">SUM(C95:E95)</f>
         <v>0</v>
       </c>
-      <c r="G95" s="123"/>
+      <c r="G95" s="122"/>
       <c r="H95" s="10"/>
       <c r="I95" s="10"/>
     </row>
@@ -7784,14 +7804,14 @@
       <c r="B96" s="77" t="s">
         <v>113</v>
       </c>
-      <c r="C96" s="124"/>
+      <c r="C96" s="123"/>
       <c r="D96" s="78"/>
       <c r="E96" s="78"/>
       <c r="F96" s="95" t="n">
         <f aca="false">SUM(C96:E96)</f>
         <v>0</v>
       </c>
-      <c r="G96" s="123"/>
+      <c r="G96" s="122"/>
       <c r="H96" s="10"/>
       <c r="I96" s="10"/>
     </row>
@@ -7802,14 +7822,14 @@
       <c r="B97" s="77" t="s">
         <v>108</v>
       </c>
-      <c r="C97" s="124"/>
+      <c r="C97" s="123"/>
       <c r="D97" s="78"/>
       <c r="E97" s="78"/>
       <c r="F97" s="95" t="n">
         <f aca="false">SUM(C97:E97)</f>
         <v>0</v>
       </c>
-      <c r="G97" s="123"/>
+      <c r="G97" s="122"/>
       <c r="H97" s="10"/>
       <c r="I97" s="10"/>
     </row>
@@ -7818,14 +7838,14 @@
       <c r="B98" s="77" t="s">
         <v>113</v>
       </c>
-      <c r="C98" s="124"/>
+      <c r="C98" s="123"/>
       <c r="D98" s="78"/>
       <c r="E98" s="78"/>
       <c r="F98" s="95" t="n">
         <f aca="false">SUM(C98:E98)</f>
         <v>0</v>
       </c>
-      <c r="G98" s="123"/>
+      <c r="G98" s="122"/>
       <c r="H98" s="10"/>
       <c r="I98" s="10"/>
     </row>
@@ -7836,14 +7856,14 @@
       <c r="B99" s="77" t="s">
         <v>108</v>
       </c>
-      <c r="C99" s="124"/>
+      <c r="C99" s="123"/>
       <c r="D99" s="78"/>
       <c r="E99" s="78"/>
       <c r="F99" s="95" t="n">
         <f aca="false">SUM(C99:E99)</f>
         <v>0</v>
       </c>
-      <c r="G99" s="123"/>
+      <c r="G99" s="122"/>
       <c r="H99" s="10"/>
       <c r="I99" s="10"/>
     </row>
@@ -7852,14 +7872,14 @@
       <c r="B100" s="77" t="s">
         <v>113</v>
       </c>
-      <c r="C100" s="124"/>
+      <c r="C100" s="123"/>
       <c r="D100" s="78"/>
       <c r="E100" s="78"/>
       <c r="F100" s="95" t="n">
         <f aca="false">SUM(C100:E100)</f>
         <v>0</v>
       </c>
-      <c r="G100" s="123"/>
+      <c r="G100" s="122"/>
       <c r="H100" s="10"/>
       <c r="I100" s="10"/>
     </row>
@@ -7870,14 +7890,14 @@
       <c r="B101" s="77" t="s">
         <v>108</v>
       </c>
-      <c r="C101" s="124"/>
+      <c r="C101" s="123"/>
       <c r="D101" s="78"/>
       <c r="E101" s="78"/>
       <c r="F101" s="95" t="n">
         <f aca="false">SUM(C101:E101)</f>
         <v>0</v>
       </c>
-      <c r="G101" s="123"/>
+      <c r="G101" s="122"/>
       <c r="H101" s="10"/>
       <c r="I101" s="10"/>
     </row>
@@ -7886,14 +7906,14 @@
       <c r="B102" s="77" t="s">
         <v>113</v>
       </c>
-      <c r="C102" s="124"/>
+      <c r="C102" s="123"/>
       <c r="D102" s="78"/>
       <c r="E102" s="78"/>
       <c r="F102" s="95" t="n">
         <f aca="false">SUM(C102:E102)</f>
         <v>0</v>
       </c>
-      <c r="G102" s="123"/>
+      <c r="G102" s="122"/>
       <c r="H102" s="10"/>
       <c r="I102" s="10"/>
     </row>
@@ -7904,14 +7924,14 @@
       <c r="B103" s="77" t="s">
         <v>108</v>
       </c>
-      <c r="C103" s="124"/>
+      <c r="C103" s="123"/>
       <c r="D103" s="78"/>
       <c r="E103" s="78"/>
       <c r="F103" s="95" t="n">
         <f aca="false">SUM(C103:E103)</f>
         <v>0</v>
       </c>
-      <c r="G103" s="123"/>
+      <c r="G103" s="122"/>
       <c r="H103" s="10"/>
       <c r="I103" s="10"/>
     </row>
@@ -7920,14 +7940,14 @@
       <c r="B104" s="77" t="s">
         <v>113</v>
       </c>
-      <c r="C104" s="125"/>
-      <c r="D104" s="126"/>
-      <c r="E104" s="126"/>
-      <c r="F104" s="127" t="n">
+      <c r="C104" s="124"/>
+      <c r="D104" s="125"/>
+      <c r="E104" s="125"/>
+      <c r="F104" s="126" t="n">
         <f aca="false">SUM(C104:E104)</f>
         <v>0</v>
       </c>
-      <c r="G104" s="123"/>
+      <c r="G104" s="122"/>
       <c r="H104" s="10"/>
       <c r="I104" s="10"/>
     </row>
@@ -7938,10 +7958,10 @@
       <c r="B105" s="77" t="s">
         <v>108</v>
       </c>
-      <c r="C105" s="128"/>
-      <c r="D105" s="129"/>
-      <c r="E105" s="129"/>
-      <c r="F105" s="130" t="n">
+      <c r="C105" s="127"/>
+      <c r="D105" s="128"/>
+      <c r="E105" s="128"/>
+      <c r="F105" s="129" t="n">
         <f aca="false">SUM(C105:E105)</f>
         <v>0</v>
       </c>
@@ -7957,7 +7977,7 @@
       <c r="C106" s="78"/>
       <c r="D106" s="78"/>
       <c r="E106" s="78"/>
-      <c r="F106" s="130" t="n">
+      <c r="F106" s="129" t="n">
         <f aca="false">SUM(C106:E106)</f>
         <v>0</v>
       </c>
@@ -7975,7 +7995,7 @@
       <c r="C107" s="78"/>
       <c r="D107" s="78"/>
       <c r="E107" s="78"/>
-      <c r="F107" s="130" t="n">
+      <c r="F107" s="129" t="n">
         <f aca="false">SUM(C107:E107)</f>
         <v>0</v>
       </c>
@@ -7991,7 +8011,7 @@
       <c r="C108" s="78"/>
       <c r="D108" s="78"/>
       <c r="E108" s="78"/>
-      <c r="F108" s="130" t="n">
+      <c r="F108" s="129" t="n">
         <f aca="false">SUM(C108:E108)</f>
         <v>0</v>
       </c>
@@ -8009,7 +8029,7 @@
       <c r="C109" s="78"/>
       <c r="D109" s="78"/>
       <c r="E109" s="78"/>
-      <c r="F109" s="130" t="n">
+      <c r="F109" s="129" t="n">
         <f aca="false">SUM(C109:E109)</f>
         <v>0</v>
       </c>
@@ -8025,7 +8045,7 @@
       <c r="C110" s="78"/>
       <c r="D110" s="78"/>
       <c r="E110" s="78"/>
-      <c r="F110" s="130" t="n">
+      <c r="F110" s="129" t="n">
         <f aca="false">SUM(C110:E110)</f>
         <v>0</v>
       </c>
@@ -8043,7 +8063,7 @@
       <c r="C111" s="78"/>
       <c r="D111" s="78"/>
       <c r="E111" s="78"/>
-      <c r="F111" s="130" t="n">
+      <c r="F111" s="129" t="n">
         <f aca="false">SUM(C111:E111)</f>
         <v>0</v>
       </c>
@@ -8059,13 +8079,13 @@
       <c r="C112" s="78"/>
       <c r="D112" s="78"/>
       <c r="E112" s="78"/>
-      <c r="F112" s="130" t="n">
+      <c r="F112" s="129" t="n">
         <f aca="false">SUM(C112:E112)</f>
         <v>0</v>
       </c>
-      <c r="G112" s="131"/>
-      <c r="H112" s="131"/>
-      <c r="I112" s="131"/>
+      <c r="G112" s="130"/>
+      <c r="H112" s="130"/>
+      <c r="I112" s="130"/>
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A113" s="83" t="s">
@@ -8077,13 +8097,13 @@
       <c r="C113" s="78"/>
       <c r="D113" s="78"/>
       <c r="E113" s="78"/>
-      <c r="F113" s="130" t="n">
+      <c r="F113" s="129" t="n">
         <f aca="false">SUM(C113:E113)</f>
         <v>0</v>
       </c>
-      <c r="G113" s="132"/>
-      <c r="H113" s="131"/>
-      <c r="I113" s="131"/>
+      <c r="G113" s="131"/>
+      <c r="H113" s="130"/>
+      <c r="I113" s="130"/>
       <c r="J113" s="5"/>
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8094,13 +8114,13 @@
       <c r="C114" s="78"/>
       <c r="D114" s="78"/>
       <c r="E114" s="78"/>
-      <c r="F114" s="130" t="n">
+      <c r="F114" s="129" t="n">
         <f aca="false">SUM(C114:E114)</f>
         <v>0</v>
       </c>
-      <c r="G114" s="132"/>
-      <c r="H114" s="132"/>
-      <c r="I114" s="132"/>
+      <c r="G114" s="131"/>
+      <c r="H114" s="131"/>
+      <c r="I114" s="131"/>
       <c r="J114" s="5"/>
     </row>
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8113,13 +8133,13 @@
       <c r="C115" s="78"/>
       <c r="D115" s="78"/>
       <c r="E115" s="78"/>
-      <c r="F115" s="130" t="n">
+      <c r="F115" s="129" t="n">
         <f aca="false">SUM(C115:E115)</f>
         <v>0</v>
       </c>
-      <c r="G115" s="132"/>
-      <c r="H115" s="132"/>
-      <c r="I115" s="132"/>
+      <c r="G115" s="131"/>
+      <c r="H115" s="131"/>
+      <c r="I115" s="131"/>
       <c r="J115" s="5"/>
     </row>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8130,13 +8150,13 @@
       <c r="C116" s="78"/>
       <c r="D116" s="78"/>
       <c r="E116" s="78"/>
-      <c r="F116" s="130" t="n">
+      <c r="F116" s="129" t="n">
         <f aca="false">SUM(C116:E116)</f>
         <v>0</v>
       </c>
-      <c r="G116" s="132"/>
-      <c r="H116" s="132"/>
-      <c r="I116" s="132"/>
+      <c r="G116" s="131"/>
+      <c r="H116" s="131"/>
+      <c r="I116" s="131"/>
       <c r="J116" s="5"/>
     </row>
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8149,13 +8169,13 @@
       <c r="C117" s="78"/>
       <c r="D117" s="78"/>
       <c r="E117" s="78"/>
-      <c r="F117" s="130" t="n">
+      <c r="F117" s="129" t="n">
         <f aca="false">SUM(C117:E117)</f>
         <v>0</v>
       </c>
-      <c r="G117" s="131"/>
-      <c r="H117" s="132"/>
-      <c r="I117" s="132"/>
+      <c r="G117" s="130"/>
+      <c r="H117" s="131"/>
+      <c r="I117" s="131"/>
     </row>
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="83"/>
@@ -8165,7 +8185,7 @@
       <c r="C118" s="78"/>
       <c r="D118" s="78"/>
       <c r="E118" s="78"/>
-      <c r="F118" s="130" t="n">
+      <c r="F118" s="129" t="n">
         <f aca="false">SUM(C118:E118)</f>
         <v>0</v>
       </c>
@@ -8183,13 +8203,13 @@
       <c r="C119" s="78"/>
       <c r="D119" s="78"/>
       <c r="E119" s="78"/>
-      <c r="F119" s="130" t="n">
+      <c r="F119" s="129" t="n">
         <f aca="false">SUM(C119:E119)</f>
         <v>0</v>
       </c>
-      <c r="G119" s="133"/>
-      <c r="H119" s="133"/>
-      <c r="I119" s="133"/>
+      <c r="G119" s="132"/>
+      <c r="H119" s="132"/>
+      <c r="I119" s="132"/>
     </row>
     <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="83"/>
@@ -8199,7 +8219,7 @@
       <c r="C120" s="78"/>
       <c r="D120" s="78"/>
       <c r="E120" s="78"/>
-      <c r="F120" s="130" t="n">
+      <c r="F120" s="129" t="n">
         <f aca="false">SUM(C120:E120)</f>
         <v>0</v>
       </c>
@@ -8217,7 +8237,7 @@
       <c r="C121" s="78"/>
       <c r="D121" s="78"/>
       <c r="E121" s="78"/>
-      <c r="F121" s="130" t="n">
+      <c r="F121" s="129" t="n">
         <f aca="false">SUM(C121:E121)</f>
         <v>0</v>
       </c>
@@ -8233,7 +8253,7 @@
       <c r="C122" s="78"/>
       <c r="D122" s="78"/>
       <c r="E122" s="78"/>
-      <c r="F122" s="130" t="n">
+      <c r="F122" s="129" t="n">
         <f aca="false">SUM(C122:E122)</f>
         <v>0</v>
       </c>
@@ -8251,7 +8271,7 @@
       <c r="C123" s="78"/>
       <c r="D123" s="78"/>
       <c r="E123" s="78"/>
-      <c r="F123" s="130" t="n">
+      <c r="F123" s="129" t="n">
         <f aca="false">SUM(C123:E123)</f>
         <v>0</v>
       </c>
@@ -8267,7 +8287,7 @@
       <c r="C124" s="78"/>
       <c r="D124" s="78"/>
       <c r="E124" s="78"/>
-      <c r="F124" s="130" t="n">
+      <c r="F124" s="129" t="n">
         <f aca="false">SUM(C124:E124)</f>
         <v>0</v>
       </c>
@@ -8374,14 +8394,14 @@
       <c r="A130" s="41" t="s">
         <v>140</v>
       </c>
-      <c r="B130" s="134"/>
-      <c r="C130" s="134"/>
-      <c r="D130" s="134"/>
-      <c r="E130" s="134"/>
-      <c r="F130" s="134"/>
-      <c r="G130" s="134"/>
-      <c r="H130" s="134"/>
-      <c r="I130" s="134"/>
+      <c r="B130" s="39"/>
+      <c r="C130" s="39"/>
+      <c r="D130" s="39"/>
+      <c r="E130" s="39"/>
+      <c r="F130" s="39"/>
+      <c r="G130" s="39"/>
+      <c r="H130" s="39"/>
+      <c r="I130" s="39"/>
     </row>
     <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="10"/>
@@ -8397,133 +8417,133 @@
     <row r="132" s="19" customFormat="true" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A132" s="10"/>
       <c r="B132" s="10"/>
-      <c r="C132" s="135" t="s">
+      <c r="C132" s="133" t="s">
         <v>141</v>
       </c>
-      <c r="D132" s="135" t="s">
+      <c r="D132" s="133" t="s">
         <v>142</v>
       </c>
-      <c r="E132" s="135" t="s">
+      <c r="E132" s="133" t="s">
         <v>143</v>
       </c>
       <c r="F132" s="10"/>
-      <c r="G132" s="135" t="s">
+      <c r="G132" s="133" t="s">
         <v>144</v>
       </c>
-      <c r="H132" s="135" t="s">
+      <c r="H132" s="133" t="s">
         <v>141</v>
       </c>
-      <c r="I132" s="135" t="s">
+      <c r="I132" s="133" t="s">
         <v>113</v>
       </c>
-      <c r="J132" s="136"/>
-      <c r="K132" s="136"/>
-      <c r="L132" s="136"/>
+      <c r="J132" s="134"/>
+      <c r="K132" s="134"/>
+      <c r="L132" s="134"/>
     </row>
     <row r="133" s="19" customFormat="true" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A133" s="137" t="s">
+      <c r="A133" s="135" t="s">
         <v>145</v>
       </c>
-      <c r="B133" s="137"/>
-      <c r="C133" s="138" t="n">
+      <c r="B133" s="135"/>
+      <c r="C133" s="136" t="n">
         <f aca="false">F72</f>
         <v>0</v>
       </c>
-      <c r="D133" s="138" t="n">
+      <c r="D133" s="136" t="n">
         <f aca="false">F73</f>
         <v>0</v>
       </c>
-      <c r="E133" s="138" t="n">
+      <c r="E133" s="136" t="n">
         <f aca="false">D133-C133</f>
         <v>0</v>
       </c>
       <c r="F133" s="10"/>
-      <c r="G133" s="137" t="s">
+      <c r="G133" s="135" t="s">
         <v>145</v>
       </c>
-      <c r="H133" s="138" t="n">
+      <c r="H133" s="136" t="n">
         <f aca="false">SUM(F38,F42,F46)</f>
         <v>0</v>
       </c>
-      <c r="I133" s="138" t="n">
+      <c r="I133" s="136" t="n">
         <f aca="false">SUM(F39,F43,F47)</f>
         <v>0</v>
       </c>
-      <c r="J133" s="136"/>
-      <c r="K133" s="136"/>
-      <c r="L133" s="136"/>
+      <c r="J133" s="134"/>
+      <c r="K133" s="134"/>
+      <c r="L133" s="134"/>
     </row>
     <row r="134" s="19" customFormat="true" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A134" s="137" t="s">
+      <c r="A134" s="135" t="s">
         <v>146</v>
       </c>
-      <c r="B134" s="137"/>
-      <c r="C134" s="138" t="n">
+      <c r="B134" s="135"/>
+      <c r="C134" s="136" t="n">
         <f aca="false">F125</f>
         <v>0</v>
       </c>
-      <c r="D134" s="138" t="n">
+      <c r="D134" s="136" t="n">
         <f aca="false">F126</f>
         <v>0</v>
       </c>
-      <c r="E134" s="138" t="n">
+      <c r="E134" s="136" t="n">
         <f aca="false">D134-C134</f>
         <v>0</v>
       </c>
       <c r="F134" s="10"/>
-      <c r="G134" s="137" t="s">
+      <c r="G134" s="135" t="s">
         <v>146</v>
       </c>
-      <c r="H134" s="138" t="n">
+      <c r="H134" s="136" t="n">
         <f aca="false">SUM(F91,F95,F99,F103)</f>
         <v>0</v>
       </c>
-      <c r="I134" s="138" t="n">
+      <c r="I134" s="136" t="n">
         <f aca="false">SUM(F92,F96,F100,F104)</f>
         <v>0</v>
       </c>
-      <c r="J134" s="136"/>
-      <c r="K134" s="136"/>
-      <c r="L134" s="136"/>
+      <c r="J134" s="134"/>
+      <c r="K134" s="134"/>
+      <c r="L134" s="134"/>
     </row>
     <row r="135" s="19" customFormat="true" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A135" s="137" t="s">
+      <c r="A135" s="135" t="s">
         <v>147</v>
       </c>
-      <c r="B135" s="137"/>
-      <c r="C135" s="138" t="n">
+      <c r="B135" s="135"/>
+      <c r="C135" s="136" t="n">
         <f aca="false">H72</f>
         <v>0</v>
       </c>
-      <c r="D135" s="138" t="n">
+      <c r="D135" s="136" t="n">
         <f aca="false">H73</f>
         <v>0</v>
       </c>
-      <c r="E135" s="138" t="n">
+      <c r="E135" s="136" t="n">
         <f aca="false">D135-C135</f>
         <v>0</v>
       </c>
       <c r="F135" s="10"/>
-      <c r="G135" s="139" t="s">
+      <c r="G135" s="137" t="s">
         <v>147</v>
       </c>
-      <c r="H135" s="138" t="n">
+      <c r="H135" s="136" t="n">
         <f aca="false">SUM(H38,H42,H46,H50)</f>
         <v>0</v>
       </c>
-      <c r="I135" s="138" t="n">
+      <c r="I135" s="136" t="n">
         <f aca="false">SUM(H39,H43,H47,H51)</f>
         <v>0</v>
       </c>
-      <c r="J135" s="136"/>
-      <c r="K135" s="136"/>
-      <c r="L135" s="136"/>
+      <c r="J135" s="134"/>
+      <c r="K135" s="134"/>
+      <c r="L135" s="134"/>
     </row>
     <row r="136" s="19" customFormat="true" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A136" s="137" t="s">
+      <c r="A136" s="135" t="s">
         <v>148</v>
       </c>
-      <c r="B136" s="137"/>
+      <c r="B136" s="135"/>
       <c r="C136" s="113" t="n">
         <f aca="false">SUM(C133:C135)</f>
         <v>0</v>
@@ -8537,20 +8557,20 @@
         <v>0</v>
       </c>
       <c r="F136" s="10"/>
-      <c r="G136" s="137" t="s">
+      <c r="G136" s="135" t="s">
         <v>148</v>
       </c>
-      <c r="H136" s="138" t="n">
+      <c r="H136" s="136" t="n">
         <f aca="false">SUM(H133:H135)</f>
         <v>0</v>
       </c>
-      <c r="I136" s="138" t="n">
+      <c r="I136" s="136" t="n">
         <f aca="false">SUM(I133:I135)</f>
         <v>0</v>
       </c>
-      <c r="J136" s="136"/>
-      <c r="K136" s="136"/>
-      <c r="L136" s="136"/>
+      <c r="J136" s="134"/>
+      <c r="K136" s="134"/>
+      <c r="L136" s="134"/>
     </row>
     <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="10"/>
@@ -8564,7 +8584,7 @@
       <c r="I137" s="10"/>
     </row>
     <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="140" t="s">
+      <c r="A138" s="138" t="s">
         <v>149</v>
       </c>
       <c r="B138" s="10"/>
@@ -8577,7 +8597,7 @@
       <c r="I138" s="10"/>
     </row>
     <row r="139" s="19" customFormat="true" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A139" s="141" t="s">
+      <c r="A139" s="139" t="s">
         <v>150</v>
       </c>
       <c r="B139" s="10"/>
@@ -8586,7 +8606,7 @@
       <c r="E139" s="41" t="s">
         <v>151</v>
       </c>
-      <c r="F139" s="142"/>
+      <c r="F139" s="140"/>
       <c r="G139" s="29" t="str">
         <f aca="false">IF(F139="","Please complete using dropdown","")</f>
         <v>Please complete using dropdown</v>
@@ -8602,7 +8622,7 @@
       <c r="E140" s="41" t="s">
         <v>152</v>
       </c>
-      <c r="F140" s="142"/>
+      <c r="F140" s="140"/>
       <c r="G140" s="29" t="str">
         <f aca="false">IF(F140="","Please complete using dropdown","")</f>
         <v>Please complete using dropdown</v>
@@ -8611,10 +8631,10 @@
       <c r="I140" s="10"/>
     </row>
     <row r="141" s="19" customFormat="true" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A141" s="143" t="s">
+      <c r="A141" s="141" t="s">
         <v>153</v>
       </c>
-      <c r="B141" s="143"/>
+      <c r="B141" s="141"/>
       <c r="C141" s="18"/>
       <c r="D141" s="66" t="str">
         <f aca="false">IF(C141="","Please complete using dropdown","")</f>
@@ -8623,7 +8643,7 @@
       <c r="E141" s="41" t="s">
         <v>154</v>
       </c>
-      <c r="F141" s="142"/>
+      <c r="F141" s="140"/>
       <c r="G141" s="29" t="str">
         <f aca="false">IF(F141="","Please complete using dropdown","")</f>
         <v>Please complete using dropdown</v>
@@ -8671,7 +8691,7 @@
       <c r="A144" s="76" t="s">
         <v>101</v>
       </c>
-      <c r="B144" s="144" t="s">
+      <c r="B144" s="142" t="s">
         <v>102</v>
       </c>
       <c r="C144" s="78"/>
@@ -8687,7 +8707,7 @@
     </row>
     <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A145" s="76"/>
-      <c r="B145" s="144" t="s">
+      <c r="B145" s="142" t="s">
         <v>103</v>
       </c>
       <c r="C145" s="78"/>
@@ -8705,7 +8725,7 @@
       <c r="A146" s="76" t="s">
         <v>104</v>
       </c>
-      <c r="B146" s="144" t="s">
+      <c r="B146" s="142" t="s">
         <v>102</v>
       </c>
       <c r="C146" s="78"/>
@@ -8721,7 +8741,7 @@
     </row>
     <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A147" s="76"/>
-      <c r="B147" s="144" t="s">
+      <c r="B147" s="142" t="s">
         <v>103</v>
       </c>
       <c r="C147" s="78"/>
@@ -8739,7 +8759,7 @@
       <c r="A148" s="76" t="s">
         <v>105</v>
       </c>
-      <c r="B148" s="144" t="s">
+      <c r="B148" s="142" t="s">
         <v>102</v>
       </c>
       <c r="C148" s="78"/>
@@ -8755,7 +8775,7 @@
     </row>
     <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A149" s="76"/>
-      <c r="B149" s="144" t="s">
+      <c r="B149" s="142" t="s">
         <v>103</v>
       </c>
       <c r="C149" s="78"/>
@@ -8773,7 +8793,7 @@
       <c r="A150" s="76" t="s">
         <v>106</v>
       </c>
-      <c r="B150" s="144" t="s">
+      <c r="B150" s="142" t="s">
         <v>102</v>
       </c>
       <c r="C150" s="78"/>
@@ -8789,7 +8809,7 @@
     </row>
     <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A151" s="76"/>
-      <c r="B151" s="144" t="s">
+      <c r="B151" s="142" t="s">
         <v>103</v>
       </c>
       <c r="C151" s="78"/>
@@ -8807,7 +8827,7 @@
       <c r="A152" s="83" t="s">
         <v>107</v>
       </c>
-      <c r="B152" s="144" t="s">
+      <c r="B152" s="142" t="s">
         <v>102</v>
       </c>
       <c r="C152" s="78"/>
@@ -8823,7 +8843,7 @@
     </row>
     <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="83"/>
-      <c r="B153" s="144" t="s">
+      <c r="B153" s="142" t="s">
         <v>103</v>
       </c>
       <c r="C153" s="78"/>
@@ -8841,7 +8861,7 @@
       <c r="A154" s="83" t="s">
         <v>111</v>
       </c>
-      <c r="B154" s="144" t="s">
+      <c r="B154" s="142" t="s">
         <v>102</v>
       </c>
       <c r="C154" s="78"/>
@@ -8857,7 +8877,7 @@
     </row>
     <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="83"/>
-      <c r="B155" s="144" t="s">
+      <c r="B155" s="142" t="s">
         <v>113</v>
       </c>
       <c r="C155" s="78"/>
@@ -8875,7 +8895,7 @@
       <c r="A156" s="83" t="s">
         <v>114</v>
       </c>
-      <c r="B156" s="144" t="s">
+      <c r="B156" s="142" t="s">
         <v>108</v>
       </c>
       <c r="C156" s="78"/>
@@ -8891,7 +8911,7 @@
     </row>
     <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="83"/>
-      <c r="B157" s="144" t="s">
+      <c r="B157" s="142" t="s">
         <v>103</v>
       </c>
       <c r="C157" s="78"/>
@@ -8909,7 +8929,7 @@
       <c r="A158" s="83" t="s">
         <v>115</v>
       </c>
-      <c r="B158" s="144" t="s">
+      <c r="B158" s="142" t="s">
         <v>102</v>
       </c>
       <c r="C158" s="78"/>
@@ -8925,7 +8945,7 @@
     </row>
     <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="83"/>
-      <c r="B159" s="144" t="s">
+      <c r="B159" s="142" t="s">
         <v>113</v>
       </c>
       <c r="C159" s="78"/>
@@ -8943,7 +8963,7 @@
       <c r="A160" s="83" t="s">
         <v>116</v>
       </c>
-      <c r="B160" s="144" t="s">
+      <c r="B160" s="142" t="s">
         <v>108</v>
       </c>
       <c r="C160" s="78"/>
@@ -8959,7 +8979,7 @@
     </row>
     <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="83"/>
-      <c r="B161" s="144" t="s">
+      <c r="B161" s="142" t="s">
         <v>103</v>
       </c>
       <c r="C161" s="78"/>
@@ -8977,7 +8997,7 @@
       <c r="A162" s="83" t="s">
         <v>117</v>
       </c>
-      <c r="B162" s="144" t="s">
+      <c r="B162" s="142" t="s">
         <v>102</v>
       </c>
       <c r="C162" s="78"/>
@@ -8993,7 +9013,7 @@
     </row>
     <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="83"/>
-      <c r="B163" s="144" t="s">
+      <c r="B163" s="142" t="s">
         <v>113</v>
       </c>
       <c r="C163" s="78"/>
@@ -9011,13 +9031,13 @@
       <c r="A164" s="83" t="s">
         <v>118</v>
       </c>
-      <c r="B164" s="144" t="s">
+      <c r="B164" s="142" t="s">
         <v>108</v>
       </c>
-      <c r="C164" s="129"/>
-      <c r="D164" s="129"/>
-      <c r="E164" s="129"/>
-      <c r="F164" s="129"/>
+      <c r="C164" s="128"/>
+      <c r="D164" s="128"/>
+      <c r="E164" s="128"/>
+      <c r="F164" s="128"/>
       <c r="G164" s="79" t="n">
         <f aca="false">SUM(C164:E164)</f>
         <v>0</v>
@@ -9027,13 +9047,13 @@
     </row>
     <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="83"/>
-      <c r="B165" s="144" t="s">
+      <c r="B165" s="142" t="s">
         <v>103</v>
       </c>
-      <c r="C165" s="129"/>
-      <c r="D165" s="129"/>
-      <c r="E165" s="129"/>
-      <c r="F165" s="129"/>
+      <c r="C165" s="128"/>
+      <c r="D165" s="128"/>
+      <c r="E165" s="128"/>
+      <c r="F165" s="128"/>
       <c r="G165" s="79" t="n">
         <f aca="false">SUM(C165:E165)</f>
         <v>0</v>
@@ -9045,14 +9065,14 @@
       <c r="A166" s="83" t="s">
         <v>119</v>
       </c>
-      <c r="B166" s="144" t="s">
+      <c r="B166" s="142" t="s">
         <v>102</v>
       </c>
-      <c r="C166" s="129"/>
-      <c r="D166" s="129"/>
-      <c r="E166" s="129"/>
-      <c r="F166" s="129"/>
-      <c r="G166" s="145" t="n">
+      <c r="C166" s="128"/>
+      <c r="D166" s="128"/>
+      <c r="E166" s="128"/>
+      <c r="F166" s="128"/>
+      <c r="G166" s="143" t="n">
         <f aca="false">SUM(C166:E166)</f>
         <v>0</v>
       </c>
@@ -9061,7 +9081,7 @@
     </row>
     <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="83"/>
-      <c r="B167" s="144" t="s">
+      <c r="B167" s="142" t="s">
         <v>113</v>
       </c>
       <c r="C167" s="78"/>
@@ -9079,7 +9099,7 @@
       <c r="A168" s="83" t="s">
         <v>120</v>
       </c>
-      <c r="B168" s="144" t="s">
+      <c r="B168" s="142" t="s">
         <v>102</v>
       </c>
       <c r="C168" s="78"/>
@@ -9095,7 +9115,7 @@
     </row>
     <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="83"/>
-      <c r="B169" s="144" t="s">
+      <c r="B169" s="142" t="s">
         <v>103</v>
       </c>
       <c r="C169" s="78"/>
@@ -9113,7 +9133,7 @@
       <c r="A170" s="83" t="s">
         <v>121</v>
       </c>
-      <c r="B170" s="144" t="s">
+      <c r="B170" s="142" t="s">
         <v>102</v>
       </c>
       <c r="C170" s="78"/>
@@ -9129,7 +9149,7 @@
     </row>
     <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="83"/>
-      <c r="B171" s="144" t="s">
+      <c r="B171" s="142" t="s">
         <v>113</v>
       </c>
       <c r="C171" s="78"/>
@@ -9147,7 +9167,7 @@
       <c r="A172" s="83" t="s">
         <v>122</v>
       </c>
-      <c r="B172" s="144" t="s">
+      <c r="B172" s="142" t="s">
         <v>102</v>
       </c>
       <c r="C172" s="78"/>
@@ -9163,7 +9183,7 @@
     </row>
     <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="83"/>
-      <c r="B173" s="144" t="s">
+      <c r="B173" s="142" t="s">
         <v>103</v>
       </c>
       <c r="C173" s="78"/>
@@ -9181,7 +9201,7 @@
       <c r="A174" s="83" t="s">
         <v>123</v>
       </c>
-      <c r="B174" s="144" t="s">
+      <c r="B174" s="142" t="s">
         <v>102</v>
       </c>
       <c r="C174" s="78"/>
@@ -9197,7 +9217,7 @@
     </row>
     <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="83"/>
-      <c r="B175" s="144" t="s">
+      <c r="B175" s="142" t="s">
         <v>103</v>
       </c>
       <c r="C175" s="78"/>
@@ -9215,7 +9235,7 @@
       <c r="A176" s="83" t="s">
         <v>124</v>
       </c>
-      <c r="B176" s="144" t="s">
+      <c r="B176" s="142" t="s">
         <v>102</v>
       </c>
       <c r="C176" s="78"/>
@@ -9231,7 +9251,7 @@
     </row>
     <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="83"/>
-      <c r="B177" s="144" t="s">
+      <c r="B177" s="142" t="s">
         <v>113</v>
       </c>
       <c r="C177" s="78"/>
@@ -9249,7 +9269,7 @@
       <c r="A178" s="83" t="s">
         <v>125</v>
       </c>
-      <c r="B178" s="144" t="s">
+      <c r="B178" s="142" t="s">
         <v>102</v>
       </c>
       <c r="C178" s="78"/>
@@ -9265,7 +9285,7 @@
     </row>
     <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="83"/>
-      <c r="B179" s="144" t="s">
+      <c r="B179" s="142" t="s">
         <v>113</v>
       </c>
       <c r="C179" s="78"/>
@@ -9283,7 +9303,7 @@
       <c r="A180" s="83" t="s">
         <v>126</v>
       </c>
-      <c r="B180" s="144" t="s">
+      <c r="B180" s="142" t="s">
         <v>102</v>
       </c>
       <c r="C180" s="78"/>
@@ -9299,7 +9319,7 @@
     </row>
     <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="83"/>
-      <c r="B181" s="144" t="s">
+      <c r="B181" s="142" t="s">
         <v>113</v>
       </c>
       <c r="C181" s="78"/>
@@ -9317,7 +9337,7 @@
       <c r="A182" s="83" t="s">
         <v>127</v>
       </c>
-      <c r="B182" s="144" t="s">
+      <c r="B182" s="142" t="s">
         <v>102</v>
       </c>
       <c r="C182" s="78"/>
@@ -9333,7 +9353,7 @@
     </row>
     <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="83"/>
-      <c r="B183" s="144" t="s">
+      <c r="B183" s="142" t="s">
         <v>113</v>
       </c>
       <c r="C183" s="78"/>
@@ -9351,7 +9371,7 @@
       <c r="A184" s="83" t="s">
         <v>128</v>
       </c>
-      <c r="B184" s="144" t="s">
+      <c r="B184" s="142" t="s">
         <v>102</v>
       </c>
       <c r="C184" s="78"/>
@@ -9367,7 +9387,7 @@
     </row>
     <row r="185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="83"/>
-      <c r="B185" s="144" t="s">
+      <c r="B185" s="142" t="s">
         <v>113</v>
       </c>
       <c r="C185" s="78"/>
@@ -9385,7 +9405,7 @@
       <c r="A186" s="83" t="s">
         <v>161</v>
       </c>
-      <c r="B186" s="144" t="s">
+      <c r="B186" s="142" t="s">
         <v>102</v>
       </c>
       <c r="C186" s="78"/>
@@ -9401,7 +9421,7 @@
     </row>
     <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="83"/>
-      <c r="B187" s="144" t="s">
+      <c r="B187" s="142" t="s">
         <v>113</v>
       </c>
       <c r="C187" s="78"/>
@@ -9419,7 +9439,7 @@
       <c r="A188" s="111" t="s">
         <v>130</v>
       </c>
-      <c r="B188" s="146" t="s">
+      <c r="B188" s="144" t="s">
         <v>102</v>
       </c>
       <c r="C188" s="79" t="n">
@@ -9445,9 +9465,9 @@
       <c r="H188" s="10"/>
       <c r="I188" s="10"/>
     </row>
-    <row r="189" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="111"/>
-      <c r="B189" s="147" t="s">
+      <c r="B189" s="145" t="s">
         <v>162</v>
       </c>
       <c r="C189" s="79" t="n">
@@ -9489,117 +9509,117 @@
         <v>163</v>
       </c>
       <c r="B191" s="13"/>
-      <c r="C191" s="148"/>
+      <c r="C191" s="146"/>
       <c r="D191" s="83" t="s">
         <v>164</v>
       </c>
       <c r="E191" s="110" t="s">
         <v>165</v>
       </c>
-      <c r="F191" s="149"/>
+      <c r="F191" s="147"/>
       <c r="G191" s="15"/>
-      <c r="H191" s="150" t="s">
+      <c r="H191" s="148" t="s">
         <v>166</v>
       </c>
-      <c r="I191" s="149"/>
+      <c r="I191" s="147"/>
     </row>
     <row r="192" s="19" customFormat="true" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A192" s="83" t="s">
         <v>167</v>
       </c>
-      <c r="B192" s="151"/>
+      <c r="B192" s="149"/>
       <c r="C192" s="29" t="str">
         <f aca="false">IF(AND(OR(C191="",B192="")),"Please complete using dropdown","")</f>
         <v>Please complete using dropdown</v>
       </c>
       <c r="D192" s="83"/>
-      <c r="E192" s="152" t="s">
+      <c r="E192" s="150" t="s">
         <v>168</v>
       </c>
-      <c r="F192" s="151"/>
+      <c r="F192" s="149"/>
       <c r="G192" s="15"/>
-      <c r="H192" s="150" t="s">
+      <c r="H192" s="148" t="s">
         <v>169</v>
       </c>
-      <c r="I192" s="151"/>
+      <c r="I192" s="149"/>
     </row>
     <row r="193" s="19" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A193" s="83"/>
-      <c r="B193" s="153"/>
+      <c r="B193" s="151"/>
       <c r="C193" s="10"/>
-      <c r="D193" s="154"/>
-      <c r="E193" s="155"/>
-      <c r="F193" s="156"/>
+      <c r="D193" s="152"/>
+      <c r="E193" s="153"/>
+      <c r="F193" s="154"/>
       <c r="G193" s="10"/>
-      <c r="H193" s="157"/>
-      <c r="I193" s="158"/>
+      <c r="H193" s="155"/>
+      <c r="I193" s="156"/>
     </row>
     <row r="194" s="19" customFormat="true" ht="47.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A194" s="159" t="s">
+      <c r="A194" s="157" t="s">
         <v>170</v>
       </c>
-      <c r="B194" s="160" t="s">
+      <c r="B194" s="158" t="s">
         <v>171</v>
       </c>
       <c r="C194" s="67"/>
-      <c r="D194" s="160" t="s">
+      <c r="D194" s="158" t="s">
         <v>172</v>
       </c>
       <c r="E194" s="67"/>
-      <c r="F194" s="160" t="s">
+      <c r="F194" s="158" t="s">
         <v>173</v>
       </c>
       <c r="G194" s="67"/>
-      <c r="H194" s="160" t="s">
+      <c r="H194" s="158" t="s">
         <v>174</v>
       </c>
       <c r="I194" s="67"/>
     </row>
     <row r="195" s="19" customFormat="true" ht="50.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A195" s="159"/>
-      <c r="B195" s="160" t="s">
+      <c r="A195" s="157"/>
+      <c r="B195" s="158" t="s">
         <v>175</v>
       </c>
       <c r="C195" s="67"/>
-      <c r="D195" s="160" t="s">
+      <c r="D195" s="158" t="s">
         <v>176</v>
       </c>
       <c r="E195" s="67"/>
-      <c r="F195" s="160" t="s">
+      <c r="F195" s="158" t="s">
         <v>177</v>
       </c>
       <c r="G195" s="67"/>
-      <c r="H195" s="160" t="s">
+      <c r="H195" s="158" t="s">
         <v>178</v>
       </c>
       <c r="I195" s="67"/>
     </row>
     <row r="196" s="19" customFormat="true" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A196" s="161"/>
+      <c r="A196" s="159"/>
       <c r="B196" s="33"/>
       <c r="C196" s="10"/>
-      <c r="D196" s="154"/>
-      <c r="E196" s="155"/>
-      <c r="F196" s="156"/>
+      <c r="D196" s="152"/>
+      <c r="E196" s="153"/>
+      <c r="F196" s="154"/>
       <c r="G196" s="10"/>
-      <c r="H196" s="157"/>
-      <c r="I196" s="158"/>
+      <c r="H196" s="155"/>
+      <c r="I196" s="156"/>
     </row>
     <row r="197" s="19" customFormat="true" ht="153.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A197" s="162" t="s">
+      <c r="A197" s="160" t="s">
         <v>179</v>
       </c>
-      <c r="B197" s="119"/>
-      <c r="C197" s="119"/>
-      <c r="D197" s="119"/>
-      <c r="E197" s="119"/>
-      <c r="F197" s="119"/>
-      <c r="G197" s="119"/>
-      <c r="H197" s="119"/>
-      <c r="I197" s="119"/>
+      <c r="B197" s="39"/>
+      <c r="C197" s="39"/>
+      <c r="D197" s="39"/>
+      <c r="E197" s="39"/>
+      <c r="F197" s="39"/>
+      <c r="G197" s="39"/>
+      <c r="H197" s="39"/>
+      <c r="I197" s="39"/>
     </row>
     <row r="198" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A198" s="150"/>
+      <c r="A198" s="148"/>
       <c r="B198" s="33"/>
       <c r="C198" s="33"/>
       <c r="D198" s="33"/>
@@ -9721,7 +9741,7 @@
     <cfRule type="beginsWith" priority="3" operator="beginsWith" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="Amber" dxfId="0"/>
     <cfRule type="beginsWith" priority="4" operator="beginsWith" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="Red" dxfId="0"/>
   </conditionalFormatting>
-  <dataValidations count="17">
+  <dataValidations count="36">
     <dataValidation allowBlank="true" operator="greaterThan" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C27:E36 H27:I28 H30:I31 H33:I34 H36:I36 C38:E71 H38:I71 C80:E89 C91:E124 C144:E187" type="decimal">
       <formula1>-1</formula1>
       <formula2>0</formula2>
@@ -9738,47 +9758,19 @@
       <formula1>1</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C128:D128" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D128" type="list">
       <formula1>$W$2:$W$154</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C18 E18" type="list">
-      <formula1>Dropdown!$R$2:$R$3</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C6 C141" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C141" type="list">
       <formula1>Dropdown!$J$2:$J$4</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C9 E9:E10" type="list">
-      <formula1>Dropdown!$P$2:$P$11</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B20" type="list">
-      <formula1>Dropdown!$T$2:$T$32</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B21" type="list">
-      <formula1>Dropdown!$U$2:$U$6</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C75:D75" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D75" type="list">
       <formula1>Dropdown!$W$2:$W$90</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C191" type="list">
-      <formula1>Dropdown!$X$2:$X$90</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D15" type="list">
-      <formula1>Dropdown!$V$2:$V$3</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="greaterThan" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C194:C195 E194:E195 G194:G195 I194:I195" type="list">
-      <formula1>dropdown!#ref!</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="greaterThan" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="H29:I29 C37:F37 H37:I37 C90:F90 F139:F141" type="list">
+    <dataValidation allowBlank="true" operator="greaterThan" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="H29:I29 C37:F37 H37:I37 F90" type="list">
       <formula1>Dropdown!$V$2:$V$3</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -9788,6 +9780,110 @@
     </dataValidation>
     <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B192" type="list">
       <formula1>Dropdown!$AG$2:$AG$11</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C6" type="none">
+      <formula1>Dropdown!$J$2:$J$4</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C9" type="none">
+      <formula1>Dropdown!$P$2:$P$11</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E9" type="none">
+      <formula1>Dropdown!$P$2:$P$11</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E10" type="none">
+      <formula1>Dropdown!$P$2:$P$11</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D15" type="none">
+      <formula1>Dropdown!$V$2:$V$3</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C18" type="none">
+      <formula1>Dropdown!$R$2:$R$3</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E18" type="none">
+      <formula1>Dropdown!$R$2:$R$3</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B20" type="none">
+      <formula1>Dropdown!$T$2:$T$32</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B21" type="none">
+      <formula1>Dropdown!$U$2:$U$6</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C75" type="none">
+      <formula1>Dropdown!$W$2:$W$90</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C128" type="none">
+      <formula1>$W$2:$W$154</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="greaterThan" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="F139" type="none">
+      <formula1>Dropdown!$V$2:$V$3</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="greaterThan" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="F140" type="none">
+      <formula1>Dropdown!$V$2:$V$3</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="greaterThan" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="F141" type="none">
+      <formula1>Dropdown!$V$2:$V$3</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C191" type="none">
+      <formula1>Dropdown!$X$2:$X$90</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="greaterThan" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C194" type="none">
+      <formula1>dropdown #ref!</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="greaterThan" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C195" type="none">
+      <formula1>dropdown #ref!</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="greaterThan" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E194" type="none">
+      <formula1>dropdown #ref!</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="greaterThan" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="G194" type="none">
+      <formula1>dropdown #ref!</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="greaterThan" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="I194" type="none">
+      <formula1>dropdown #ref!</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="greaterThan" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="I195" type="none">
+      <formula1>dropdown #ref!</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="greaterThan" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="G195" type="none">
+      <formula1>dropdown #ref!</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="greaterThan" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E195" type="none">
+      <formula1>dropdown #ref!</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="greaterThan" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C90" type="none">
+      <formula1>Dropdown!$V$2:$V$3</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="greaterThan" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D90" type="none">
+      <formula1>Dropdown!$V$2:$V$3</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="greaterThan" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E90" type="none">
+      <formula1>Dropdown!$V$2:$V$3</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -9835,30 +9931,30 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="77.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="163" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="163"/>
-      <c r="C1" s="163"/>
-      <c r="D1" s="163"/>
-      <c r="E1" s="163"/>
-      <c r="F1" s="163"/>
-      <c r="G1" s="163"/>
-      <c r="H1" s="163"/>
-      <c r="I1" s="163"/>
-      <c r="J1" s="163"/>
-      <c r="K1" s="163"/>
-      <c r="L1" s="163"/>
+      <c r="A1" s="161" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="161"/>
+      <c r="C1" s="161"/>
+      <c r="D1" s="161"/>
+      <c r="E1" s="161"/>
+      <c r="F1" s="161"/>
+      <c r="G1" s="161"/>
+      <c r="H1" s="161"/>
+      <c r="I1" s="161"/>
+      <c r="J1" s="161"/>
+      <c r="K1" s="161"/>
+      <c r="L1" s="161"/>
       <c r="M1" s="58" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="164" t="s">
+      <c r="A2" s="162" t="s">
         <v>180</v>
       </c>
-      <c r="B2" s="164"/>
-      <c r="C2" s="164"/>
+      <c r="B2" s="162"/>
+      <c r="C2" s="162"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
@@ -9871,11 +9967,11 @@
       <c r="M2" s="5"/>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="165" t="s">
+      <c r="A3" s="163" t="s">
         <v>181</v>
       </c>
-      <c r="B3" s="165"/>
-      <c r="C3" s="165"/>
+      <c r="B3" s="163"/>
+      <c r="C3" s="163"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
@@ -9902,43 +9998,43 @@
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
     </row>
-    <row r="5" s="168" customFormat="true" ht="58.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="166" t="s">
+    <row r="5" s="166" customFormat="true" ht="58.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="164" t="s">
         <v>182</v>
       </c>
-      <c r="B5" s="167"/>
-      <c r="C5" s="166" t="s">
+      <c r="B5" s="165"/>
+      <c r="C5" s="164" t="s">
         <v>183</v>
       </c>
-      <c r="D5" s="167"/>
-      <c r="E5" s="166" t="s">
+      <c r="D5" s="165"/>
+      <c r="E5" s="164" t="s">
         <v>184</v>
       </c>
-      <c r="F5" s="167"/>
-      <c r="G5" s="166" t="s">
+      <c r="F5" s="165"/>
+      <c r="G5" s="164" t="s">
         <v>185</v>
       </c>
-      <c r="H5" s="167"/>
-      <c r="I5" s="139" t="s">
+      <c r="H5" s="165"/>
+      <c r="I5" s="137" t="s">
         <v>186</v>
       </c>
-      <c r="J5" s="167"/>
-      <c r="K5" s="167"/>
-      <c r="L5" s="167"/>
-      <c r="M5" s="167"/>
+      <c r="J5" s="165"/>
+      <c r="K5" s="165"/>
+      <c r="L5" s="165"/>
+      <c r="M5" s="165"/>
     </row>
     <row r="6" s="19" customFormat="true" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="166" t="s">
+      <c r="A6" s="164" t="s">
         <v>187</v>
       </c>
-      <c r="B6" s="169"/>
-      <c r="C6" s="170"/>
-      <c r="D6" s="169"/>
-      <c r="E6" s="170"/>
-      <c r="F6" s="169"/>
-      <c r="G6" s="170"/>
-      <c r="H6" s="169"/>
-      <c r="I6" s="171" t="n">
+      <c r="B6" s="167"/>
+      <c r="C6" s="168"/>
+      <c r="D6" s="167"/>
+      <c r="E6" s="168"/>
+      <c r="F6" s="167"/>
+      <c r="G6" s="168"/>
+      <c r="H6" s="167"/>
+      <c r="I6" s="169" t="n">
         <f aca="false">SUM(G6,E6,C6)</f>
         <v>0</v>
       </c>
@@ -9948,17 +10044,17 @@
       <c r="M6" s="4"/>
     </row>
     <row r="7" s="19" customFormat="true" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="166" t="s">
+      <c r="A7" s="164" t="s">
         <v>188</v>
       </c>
-      <c r="B7" s="169"/>
-      <c r="C7" s="170"/>
-      <c r="D7" s="169"/>
-      <c r="E7" s="170"/>
-      <c r="F7" s="169"/>
-      <c r="G7" s="170"/>
-      <c r="H7" s="169"/>
-      <c r="I7" s="171" t="n">
+      <c r="B7" s="167"/>
+      <c r="C7" s="168"/>
+      <c r="D7" s="167"/>
+      <c r="E7" s="168"/>
+      <c r="F7" s="167"/>
+      <c r="G7" s="168"/>
+      <c r="H7" s="167"/>
+      <c r="I7" s="169" t="n">
         <f aca="false">SUM(G7,E7,C7)</f>
         <v>0</v>
       </c>
@@ -9968,17 +10064,17 @@
       <c r="M7" s="4"/>
     </row>
     <row r="8" s="19" customFormat="true" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="166" t="s">
+      <c r="A8" s="164" t="s">
         <v>189</v>
       </c>
-      <c r="B8" s="169"/>
-      <c r="C8" s="170"/>
-      <c r="D8" s="169"/>
-      <c r="E8" s="170"/>
-      <c r="F8" s="169"/>
-      <c r="G8" s="170"/>
-      <c r="H8" s="169"/>
-      <c r="I8" s="171" t="n">
+      <c r="B8" s="167"/>
+      <c r="C8" s="168"/>
+      <c r="D8" s="167"/>
+      <c r="E8" s="168"/>
+      <c r="F8" s="167"/>
+      <c r="G8" s="168"/>
+      <c r="H8" s="167"/>
+      <c r="I8" s="169" t="n">
         <f aca="false">SUM(G8,E8,C8)</f>
         <v>0</v>
       </c>
@@ -9988,17 +10084,17 @@
       <c r="M8" s="4"/>
     </row>
     <row r="9" s="19" customFormat="true" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="166" t="s">
+      <c r="A9" s="164" t="s">
         <v>190</v>
       </c>
-      <c r="B9" s="169"/>
-      <c r="C9" s="170"/>
-      <c r="D9" s="169"/>
-      <c r="E9" s="170"/>
-      <c r="F9" s="169"/>
-      <c r="G9" s="170"/>
-      <c r="H9" s="169"/>
-      <c r="I9" s="171" t="n">
+      <c r="B9" s="167"/>
+      <c r="C9" s="168"/>
+      <c r="D9" s="167"/>
+      <c r="E9" s="168"/>
+      <c r="F9" s="167"/>
+      <c r="G9" s="168"/>
+      <c r="H9" s="167"/>
+      <c r="I9" s="169" t="n">
         <f aca="false">SUM(G9,E9,C9)</f>
         <v>0</v>
       </c>
@@ -10008,17 +10104,17 @@
       <c r="M9" s="4"/>
     </row>
     <row r="10" s="19" customFormat="true" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="166" t="s">
+      <c r="A10" s="164" t="s">
         <v>191</v>
       </c>
-      <c r="B10" s="169"/>
-      <c r="C10" s="170"/>
-      <c r="D10" s="169"/>
-      <c r="E10" s="170"/>
-      <c r="F10" s="169"/>
-      <c r="G10" s="170"/>
-      <c r="H10" s="169"/>
-      <c r="I10" s="171" t="n">
+      <c r="B10" s="167"/>
+      <c r="C10" s="168"/>
+      <c r="D10" s="167"/>
+      <c r="E10" s="168"/>
+      <c r="F10" s="167"/>
+      <c r="G10" s="168"/>
+      <c r="H10" s="167"/>
+      <c r="I10" s="169" t="n">
         <f aca="false">SUM(G10,E10,C10)</f>
         <v>0</v>
       </c>
@@ -10028,17 +10124,17 @@
       <c r="M10" s="4"/>
     </row>
     <row r="11" s="19" customFormat="true" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="166" t="s">
+      <c r="A11" s="164" t="s">
         <v>192</v>
       </c>
-      <c r="B11" s="169"/>
-      <c r="C11" s="170"/>
-      <c r="D11" s="169"/>
-      <c r="E11" s="170"/>
-      <c r="F11" s="169"/>
-      <c r="G11" s="170"/>
-      <c r="H11" s="169"/>
-      <c r="I11" s="171" t="n">
+      <c r="B11" s="167"/>
+      <c r="C11" s="168"/>
+      <c r="D11" s="167"/>
+      <c r="E11" s="168"/>
+      <c r="F11" s="167"/>
+      <c r="G11" s="168"/>
+      <c r="H11" s="167"/>
+      <c r="I11" s="169" t="n">
         <f aca="false">SUM(G11,E11,C11)</f>
         <v>0</v>
       </c>
@@ -10048,17 +10144,17 @@
       <c r="M11" s="4"/>
     </row>
     <row r="12" s="19" customFormat="true" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="166" t="s">
+      <c r="A12" s="164" t="s">
         <v>193</v>
       </c>
-      <c r="B12" s="169"/>
-      <c r="C12" s="170"/>
-      <c r="D12" s="169"/>
-      <c r="E12" s="170"/>
-      <c r="F12" s="169"/>
-      <c r="G12" s="170"/>
-      <c r="H12" s="169"/>
-      <c r="I12" s="171" t="n">
+      <c r="B12" s="167"/>
+      <c r="C12" s="168"/>
+      <c r="D12" s="167"/>
+      <c r="E12" s="168"/>
+      <c r="F12" s="167"/>
+      <c r="G12" s="168"/>
+      <c r="H12" s="167"/>
+      <c r="I12" s="169" t="n">
         <f aca="false">SUM(G12,E12,C12)</f>
         <v>0</v>
       </c>
@@ -10068,17 +10164,17 @@
       <c r="M12" s="4"/>
     </row>
     <row r="13" s="19" customFormat="true" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="166" t="s">
+      <c r="A13" s="164" t="s">
         <v>194</v>
       </c>
-      <c r="B13" s="169"/>
-      <c r="C13" s="170"/>
-      <c r="D13" s="169"/>
-      <c r="E13" s="170"/>
-      <c r="F13" s="169"/>
-      <c r="G13" s="170"/>
-      <c r="H13" s="169"/>
-      <c r="I13" s="171" t="n">
+      <c r="B13" s="167"/>
+      <c r="C13" s="168"/>
+      <c r="D13" s="167"/>
+      <c r="E13" s="168"/>
+      <c r="F13" s="167"/>
+      <c r="G13" s="168"/>
+      <c r="H13" s="167"/>
+      <c r="I13" s="169" t="n">
         <f aca="false">SUM(G13,E13,C13)</f>
         <v>0</v>
       </c>
@@ -10088,17 +10184,17 @@
       <c r="M13" s="4"/>
     </row>
     <row r="14" s="19" customFormat="true" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="166" t="s">
+      <c r="A14" s="164" t="s">
         <v>195</v>
       </c>
-      <c r="B14" s="169"/>
-      <c r="C14" s="170"/>
-      <c r="D14" s="169"/>
-      <c r="E14" s="170"/>
-      <c r="F14" s="169"/>
-      <c r="G14" s="170"/>
-      <c r="H14" s="169"/>
-      <c r="I14" s="171" t="n">
+      <c r="B14" s="167"/>
+      <c r="C14" s="168"/>
+      <c r="D14" s="167"/>
+      <c r="E14" s="168"/>
+      <c r="F14" s="167"/>
+      <c r="G14" s="168"/>
+      <c r="H14" s="167"/>
+      <c r="I14" s="169" t="n">
         <f aca="false">SUM(G14,E14,C14)</f>
         <v>0</v>
       </c>
@@ -10108,17 +10204,17 @@
       <c r="M14" s="4"/>
     </row>
     <row r="15" s="19" customFormat="true" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="166" t="s">
+      <c r="A15" s="164" t="s">
         <v>196</v>
       </c>
-      <c r="B15" s="169"/>
-      <c r="C15" s="170"/>
-      <c r="D15" s="169"/>
-      <c r="E15" s="170"/>
-      <c r="F15" s="169"/>
-      <c r="G15" s="170"/>
-      <c r="H15" s="169"/>
-      <c r="I15" s="171" t="n">
+      <c r="B15" s="167"/>
+      <c r="C15" s="168"/>
+      <c r="D15" s="167"/>
+      <c r="E15" s="168"/>
+      <c r="F15" s="167"/>
+      <c r="G15" s="168"/>
+      <c r="H15" s="167"/>
+      <c r="I15" s="169" t="n">
         <f aca="false">SUM(G15,E15,C15)</f>
         <v>0</v>
       </c>
@@ -10128,17 +10224,17 @@
       <c r="M15" s="4"/>
     </row>
     <row r="16" s="19" customFormat="true" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="166" t="s">
+      <c r="A16" s="164" t="s">
         <v>197</v>
       </c>
-      <c r="B16" s="169"/>
-      <c r="C16" s="170"/>
-      <c r="D16" s="169"/>
-      <c r="E16" s="170"/>
-      <c r="F16" s="169"/>
-      <c r="G16" s="170"/>
-      <c r="H16" s="169"/>
-      <c r="I16" s="171" t="n">
+      <c r="B16" s="167"/>
+      <c r="C16" s="168"/>
+      <c r="D16" s="167"/>
+      <c r="E16" s="168"/>
+      <c r="F16" s="167"/>
+      <c r="G16" s="168"/>
+      <c r="H16" s="167"/>
+      <c r="I16" s="169" t="n">
         <f aca="false">SUM(G16,E16,C16)</f>
         <v>0</v>
       </c>
@@ -10148,26 +10244,26 @@
       <c r="M16" s="4"/>
     </row>
     <row r="17" s="19" customFormat="true" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="172" t="s">
+      <c r="A17" s="170" t="s">
         <v>130</v>
       </c>
-      <c r="B17" s="169"/>
-      <c r="C17" s="171" t="n">
+      <c r="B17" s="167"/>
+      <c r="C17" s="169" t="n">
         <f aca="false">SUM(C6:C16)</f>
         <v>0</v>
       </c>
-      <c r="D17" s="169"/>
-      <c r="E17" s="171" t="n">
+      <c r="D17" s="167"/>
+      <c r="E17" s="169" t="n">
         <f aca="false">SUM(E6:E16)</f>
         <v>0</v>
       </c>
-      <c r="F17" s="169"/>
-      <c r="G17" s="171" t="n">
+      <c r="F17" s="167"/>
+      <c r="G17" s="169" t="n">
         <f aca="false">SUM(G6:G16)</f>
         <v>0</v>
       </c>
-      <c r="H17" s="169"/>
-      <c r="I17" s="173" t="n">
+      <c r="H17" s="167"/>
+      <c r="I17" s="171" t="n">
         <f aca="false">SUM(G17:H17,E17,C17)</f>
         <v>0</v>
       </c>
@@ -10187,18 +10283,18 @@
       <c r="M18" s="4"/>
     </row>
     <row r="19" s="19" customFormat="true" ht="260.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="166" t="s">
+      <c r="A19" s="164" t="s">
         <v>198</v>
       </c>
       <c r="B19" s="4"/>
-      <c r="C19" s="174"/>
-      <c r="D19" s="174"/>
-      <c r="E19" s="174"/>
-      <c r="F19" s="174"/>
-      <c r="G19" s="174"/>
-      <c r="H19" s="174"/>
-      <c r="I19" s="174"/>
-      <c r="J19" s="174"/>
+      <c r="C19" s="172"/>
+      <c r="D19" s="172"/>
+      <c r="E19" s="172"/>
+      <c r="F19" s="172"/>
+      <c r="G19" s="172"/>
+      <c r="H19" s="172"/>
+      <c r="I19" s="172"/>
+      <c r="J19" s="172"/>
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
@@ -10219,21 +10315,21 @@
       <c r="M20" s="4"/>
     </row>
     <row r="21" s="19" customFormat="true" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="175" t="s">
+      <c r="A21" s="173" t="s">
         <v>199</v>
       </c>
       <c r="B21" s="4"/>
-      <c r="C21" s="176" t="s">
+      <c r="C21" s="174" t="s">
         <v>200</v>
       </c>
-      <c r="D21" s="176"/>
-      <c r="E21" s="176"/>
-      <c r="F21" s="176"/>
-      <c r="G21" s="176"/>
-      <c r="I21" s="176" t="s">
+      <c r="D21" s="174"/>
+      <c r="E21" s="174"/>
+      <c r="F21" s="174"/>
+      <c r="G21" s="174"/>
+      <c r="I21" s="174" t="s">
         <v>201</v>
       </c>
-      <c r="J21" s="176"/>
+      <c r="J21" s="174"/>
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
       <c r="M21" s="4"/>
@@ -10245,25 +10341,25 @@
       <c r="M22" s="4"/>
     </row>
     <row r="23" s="19" customFormat="true" ht="50.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="177" t="s">
+      <c r="A23" s="175" t="s">
         <v>202</v>
       </c>
       <c r="B23" s="4"/>
-      <c r="C23" s="166" t="s">
+      <c r="C23" s="164" t="s">
         <v>183</v>
       </c>
-      <c r="D23" s="168"/>
-      <c r="E23" s="166" t="s">
+      <c r="D23" s="166"/>
+      <c r="E23" s="164" t="s">
         <v>184</v>
       </c>
-      <c r="F23" s="168"/>
-      <c r="G23" s="166" t="s">
+      <c r="F23" s="166"/>
+      <c r="G23" s="164" t="s">
         <v>203</v>
       </c>
-      <c r="I23" s="178" t="s">
+      <c r="I23" s="176" t="s">
         <v>204</v>
       </c>
-      <c r="J23" s="178" t="s">
+      <c r="J23" s="176" t="s">
         <v>205</v>
       </c>
       <c r="K23" s="4"/>
@@ -10286,247 +10382,247 @@
       <c r="M24" s="4"/>
     </row>
     <row r="25" s="19" customFormat="true" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="166" t="s">
+      <c r="A25" s="164" t="s">
         <v>206</v>
       </c>
       <c r="B25" s="4"/>
-      <c r="C25" s="170"/>
-      <c r="D25" s="169"/>
-      <c r="E25" s="170"/>
-      <c r="F25" s="169"/>
-      <c r="G25" s="170"/>
-      <c r="H25" s="169"/>
-      <c r="I25" s="170"/>
-      <c r="J25" s="179"/>
-      <c r="K25" s="180" t="s">
+      <c r="C25" s="168"/>
+      <c r="D25" s="167"/>
+      <c r="E25" s="168"/>
+      <c r="F25" s="167"/>
+      <c r="G25" s="168"/>
+      <c r="H25" s="167"/>
+      <c r="I25" s="168"/>
+      <c r="J25" s="177"/>
+      <c r="K25" s="178" t="s">
         <v>207</v>
       </c>
-      <c r="L25" s="181" t="s">
+      <c r="L25" s="179" t="s">
         <v>208</v>
       </c>
-      <c r="M25" s="181"/>
+      <c r="M25" s="179"/>
     </row>
     <row r="26" s="19" customFormat="true" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="166" t="s">
+      <c r="A26" s="164" t="s">
         <v>209</v>
       </c>
       <c r="B26" s="4"/>
-      <c r="C26" s="170"/>
-      <c r="D26" s="169"/>
-      <c r="E26" s="170"/>
-      <c r="F26" s="169"/>
-      <c r="G26" s="170"/>
-      <c r="H26" s="169"/>
-      <c r="I26" s="170"/>
-      <c r="J26" s="179"/>
-      <c r="K26" s="182" t="s">
+      <c r="C26" s="168"/>
+      <c r="D26" s="167"/>
+      <c r="E26" s="168"/>
+      <c r="F26" s="167"/>
+      <c r="G26" s="168"/>
+      <c r="H26" s="167"/>
+      <c r="I26" s="168"/>
+      <c r="J26" s="177"/>
+      <c r="K26" s="180" t="s">
         <v>210</v>
       </c>
-      <c r="L26" s="181" t="s">
+      <c r="L26" s="179" t="s">
         <v>211</v>
       </c>
-      <c r="M26" s="181"/>
+      <c r="M26" s="179"/>
     </row>
     <row r="27" s="19" customFormat="true" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="166" t="s">
+      <c r="A27" s="164" t="s">
         <v>212</v>
       </c>
       <c r="B27" s="4"/>
-      <c r="C27" s="170"/>
-      <c r="D27" s="169"/>
-      <c r="E27" s="170"/>
-      <c r="F27" s="169"/>
-      <c r="G27" s="170"/>
-      <c r="H27" s="169"/>
-      <c r="I27" s="170"/>
-      <c r="J27" s="179"/>
-      <c r="K27" s="183" t="s">
+      <c r="C27" s="168"/>
+      <c r="D27" s="167"/>
+      <c r="E27" s="168"/>
+      <c r="F27" s="167"/>
+      <c r="G27" s="168"/>
+      <c r="H27" s="167"/>
+      <c r="I27" s="168"/>
+      <c r="J27" s="177"/>
+      <c r="K27" s="181" t="s">
         <v>213</v>
       </c>
-      <c r="L27" s="181" t="s">
+      <c r="L27" s="179" t="s">
         <v>214</v>
       </c>
-      <c r="M27" s="181"/>
+      <c r="M27" s="179"/>
     </row>
     <row r="28" s="19" customFormat="true" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="166" t="s">
+      <c r="A28" s="164" t="s">
         <v>215</v>
       </c>
       <c r="B28" s="4"/>
-      <c r="C28" s="170"/>
-      <c r="D28" s="169"/>
-      <c r="E28" s="170"/>
-      <c r="F28" s="169"/>
-      <c r="G28" s="170"/>
-      <c r="H28" s="169"/>
-      <c r="I28" s="170"/>
-      <c r="J28" s="179"/>
-      <c r="K28" s="184" t="s">
+      <c r="C28" s="168"/>
+      <c r="D28" s="167"/>
+      <c r="E28" s="168"/>
+      <c r="F28" s="167"/>
+      <c r="G28" s="168"/>
+      <c r="H28" s="167"/>
+      <c r="I28" s="168"/>
+      <c r="J28" s="177"/>
+      <c r="K28" s="182" t="s">
         <v>216</v>
       </c>
-      <c r="L28" s="181" t="s">
+      <c r="L28" s="179" t="s">
         <v>217</v>
       </c>
-      <c r="M28" s="181"/>
+      <c r="M28" s="179"/>
     </row>
     <row r="29" s="19" customFormat="true" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="166" t="s">
+      <c r="A29" s="164" t="s">
         <v>218</v>
       </c>
       <c r="B29" s="4"/>
-      <c r="C29" s="170"/>
-      <c r="D29" s="169"/>
-      <c r="E29" s="170"/>
-      <c r="F29" s="169"/>
-      <c r="G29" s="170"/>
-      <c r="H29" s="169"/>
-      <c r="I29" s="170"/>
-      <c r="J29" s="170"/>
+      <c r="C29" s="168"/>
+      <c r="D29" s="167"/>
+      <c r="E29" s="168"/>
+      <c r="F29" s="167"/>
+      <c r="G29" s="168"/>
+      <c r="H29" s="167"/>
+      <c r="I29" s="168"/>
+      <c r="J29" s="168"/>
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
       <c r="M29" s="4"/>
     </row>
     <row r="30" s="19" customFormat="true" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="166" t="s">
+      <c r="A30" s="164" t="s">
         <v>219</v>
       </c>
       <c r="B30" s="4"/>
-      <c r="C30" s="170"/>
-      <c r="D30" s="169"/>
-      <c r="E30" s="170"/>
-      <c r="F30" s="169"/>
-      <c r="G30" s="170"/>
-      <c r="H30" s="169"/>
-      <c r="I30" s="170"/>
-      <c r="J30" s="170"/>
+      <c r="C30" s="168"/>
+      <c r="D30" s="167"/>
+      <c r="E30" s="168"/>
+      <c r="F30" s="167"/>
+      <c r="G30" s="168"/>
+      <c r="H30" s="167"/>
+      <c r="I30" s="168"/>
+      <c r="J30" s="168"/>
       <c r="K30" s="4"/>
       <c r="L30" s="4"/>
       <c r="M30" s="4"/>
     </row>
     <row r="31" s="19" customFormat="true" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="166" t="s">
+      <c r="A31" s="164" t="s">
         <v>220</v>
       </c>
       <c r="B31" s="4"/>
-      <c r="C31" s="170"/>
-      <c r="D31" s="169"/>
-      <c r="E31" s="170"/>
-      <c r="F31" s="169"/>
-      <c r="G31" s="170"/>
-      <c r="H31" s="169"/>
-      <c r="I31" s="170"/>
-      <c r="J31" s="170"/>
+      <c r="C31" s="168"/>
+      <c r="D31" s="167"/>
+      <c r="E31" s="168"/>
+      <c r="F31" s="167"/>
+      <c r="G31" s="168"/>
+      <c r="H31" s="167"/>
+      <c r="I31" s="168"/>
+      <c r="J31" s="168"/>
       <c r="K31" s="4"/>
       <c r="L31" s="4"/>
       <c r="M31" s="4"/>
     </row>
     <row r="32" s="19" customFormat="true" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="166" t="s">
+      <c r="A32" s="164" t="s">
         <v>221</v>
       </c>
       <c r="B32" s="4"/>
-      <c r="C32" s="170"/>
-      <c r="D32" s="169"/>
-      <c r="E32" s="170"/>
-      <c r="F32" s="169"/>
-      <c r="G32" s="170"/>
-      <c r="H32" s="169"/>
-      <c r="I32" s="170"/>
-      <c r="J32" s="170"/>
+      <c r="C32" s="168"/>
+      <c r="D32" s="167"/>
+      <c r="E32" s="168"/>
+      <c r="F32" s="167"/>
+      <c r="G32" s="168"/>
+      <c r="H32" s="167"/>
+      <c r="I32" s="168"/>
+      <c r="J32" s="168"/>
       <c r="K32" s="4"/>
       <c r="L32" s="4"/>
       <c r="M32" s="4"/>
     </row>
     <row r="33" s="19" customFormat="true" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="166" t="s">
+      <c r="A33" s="164" t="s">
         <v>222</v>
       </c>
       <c r="B33" s="4"/>
-      <c r="C33" s="170"/>
-      <c r="D33" s="169"/>
-      <c r="E33" s="170"/>
-      <c r="F33" s="169"/>
-      <c r="G33" s="170"/>
-      <c r="H33" s="169"/>
-      <c r="I33" s="170"/>
-      <c r="J33" s="170"/>
+      <c r="C33" s="168"/>
+      <c r="D33" s="167"/>
+      <c r="E33" s="168"/>
+      <c r="F33" s="167"/>
+      <c r="G33" s="168"/>
+      <c r="H33" s="167"/>
+      <c r="I33" s="168"/>
+      <c r="J33" s="168"/>
       <c r="K33" s="4"/>
       <c r="L33" s="4"/>
       <c r="M33" s="4"/>
     </row>
     <row r="34" s="19" customFormat="true" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="166" t="s">
+      <c r="A34" s="164" t="s">
         <v>223</v>
       </c>
       <c r="B34" s="4"/>
-      <c r="C34" s="170"/>
-      <c r="D34" s="169"/>
-      <c r="E34" s="170"/>
-      <c r="F34" s="169"/>
-      <c r="G34" s="170"/>
-      <c r="H34" s="169"/>
-      <c r="I34" s="170"/>
-      <c r="J34" s="170"/>
+      <c r="C34" s="168"/>
+      <c r="D34" s="167"/>
+      <c r="E34" s="168"/>
+      <c r="F34" s="167"/>
+      <c r="G34" s="168"/>
+      <c r="H34" s="167"/>
+      <c r="I34" s="168"/>
+      <c r="J34" s="168"/>
       <c r="K34" s="4"/>
       <c r="L34" s="4"/>
       <c r="M34" s="4"/>
     </row>
     <row r="35" s="19" customFormat="true" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="185" t="s">
+      <c r="A35" s="183" t="s">
         <v>224</v>
       </c>
       <c r="B35" s="4"/>
-      <c r="C35" s="170"/>
-      <c r="D35" s="169"/>
-      <c r="E35" s="170"/>
-      <c r="F35" s="169"/>
-      <c r="G35" s="170"/>
-      <c r="H35" s="169"/>
-      <c r="I35" s="170"/>
-      <c r="J35" s="170"/>
+      <c r="C35" s="168"/>
+      <c r="D35" s="167"/>
+      <c r="E35" s="168"/>
+      <c r="F35" s="167"/>
+      <c r="G35" s="168"/>
+      <c r="H35" s="167"/>
+      <c r="I35" s="168"/>
+      <c r="J35" s="168"/>
       <c r="K35" s="4"/>
       <c r="L35" s="4"/>
       <c r="M35" s="4"/>
     </row>
     <row r="36" s="19" customFormat="true" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="185" t="s">
+      <c r="A36" s="183" t="s">
         <v>224</v>
       </c>
       <c r="B36" s="4"/>
-      <c r="C36" s="170"/>
-      <c r="D36" s="169"/>
-      <c r="E36" s="170"/>
-      <c r="F36" s="169"/>
-      <c r="G36" s="170"/>
-      <c r="H36" s="169"/>
-      <c r="I36" s="170"/>
-      <c r="J36" s="170"/>
+      <c r="C36" s="168"/>
+      <c r="D36" s="167"/>
+      <c r="E36" s="168"/>
+      <c r="F36" s="167"/>
+      <c r="G36" s="168"/>
+      <c r="H36" s="167"/>
+      <c r="I36" s="168"/>
+      <c r="J36" s="168"/>
       <c r="K36" s="4"/>
       <c r="L36" s="4"/>
       <c r="M36" s="4"/>
     </row>
     <row r="37" s="19" customFormat="true" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="186" t="s">
+      <c r="A37" s="184" t="s">
         <v>130</v>
       </c>
       <c r="B37" s="4"/>
-      <c r="C37" s="187" t="n">
+      <c r="C37" s="185" t="n">
         <f aca="false">SUM(C25:C36)</f>
         <v>0</v>
       </c>
-      <c r="D37" s="169"/>
-      <c r="E37" s="187" t="n">
+      <c r="D37" s="167"/>
+      <c r="E37" s="185" t="n">
         <f aca="false">SUM(E25:E36)</f>
         <v>0</v>
       </c>
-      <c r="F37" s="169"/>
-      <c r="G37" s="188" t="n">
+      <c r="F37" s="167"/>
+      <c r="G37" s="186" t="n">
         <f aca="false">SUM(G25:G36)</f>
         <v>0</v>
       </c>
-      <c r="H37" s="169"/>
-      <c r="I37" s="169"/>
-      <c r="J37" s="169"/>
+      <c r="H37" s="167"/>
+      <c r="I37" s="167"/>
+      <c r="J37" s="167"/>
       <c r="K37" s="4"/>
       <c r="L37" s="4"/>
       <c r="M37" s="4"/>
@@ -10534,35 +10630,35 @@
     <row r="38" s="19" customFormat="true" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
-      <c r="C38" s="189" t="s">
+      <c r="C38" s="187" t="s">
         <v>225</v>
       </c>
-      <c r="D38" s="189"/>
-      <c r="E38" s="189"/>
+      <c r="D38" s="187"/>
+      <c r="E38" s="187"/>
       <c r="F38" s="4"/>
-      <c r="G38" s="178" t="s">
+      <c r="G38" s="176" t="s">
         <v>226</v>
       </c>
       <c r="H38" s="4"/>
-      <c r="I38" s="170"/>
-      <c r="J38" s="170"/>
+      <c r="I38" s="168"/>
+      <c r="J38" s="168"/>
       <c r="K38" s="4"/>
       <c r="L38" s="4"/>
       <c r="M38" s="4"/>
     </row>
     <row r="39" s="19" customFormat="true" ht="259.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="166" t="s">
+      <c r="A39" s="164" t="s">
         <v>198</v>
       </c>
       <c r="B39" s="4"/>
-      <c r="C39" s="190"/>
-      <c r="D39" s="190"/>
-      <c r="E39" s="190"/>
-      <c r="F39" s="190"/>
-      <c r="G39" s="190"/>
-      <c r="H39" s="190"/>
-      <c r="I39" s="190"/>
-      <c r="J39" s="190"/>
+      <c r="C39" s="188"/>
+      <c r="D39" s="188"/>
+      <c r="E39" s="188"/>
+      <c r="F39" s="188"/>
+      <c r="G39" s="188"/>
+      <c r="H39" s="188"/>
+      <c r="I39" s="188"/>
+      <c r="J39" s="188"/>
       <c r="K39" s="4"/>
       <c r="L39" s="4"/>
       <c r="M39" s="4"/>
@@ -10623,28 +10719,28 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="77.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="163" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="163"/>
-      <c r="C1" s="163"/>
-      <c r="D1" s="163"/>
-      <c r="E1" s="163"/>
-      <c r="F1" s="163"/>
-      <c r="G1" s="191" t="s">
+      <c r="A1" s="161" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="161"/>
+      <c r="C1" s="161"/>
+      <c r="D1" s="161"/>
+      <c r="E1" s="161"/>
+      <c r="F1" s="161"/>
+      <c r="G1" s="189" t="s">
         <v>65</v>
       </c>
-      <c r="H1" s="191"/>
-      <c r="I1" s="192"/>
-      <c r="J1" s="193"/>
-      <c r="K1" s="193"/>
+      <c r="H1" s="189"/>
+      <c r="I1" s="190"/>
+      <c r="J1" s="191"/>
+      <c r="K1" s="191"/>
     </row>
     <row r="2" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="164" t="s">
+      <c r="A2" s="162" t="s">
         <v>227</v>
       </c>
-      <c r="B2" s="164"/>
-      <c r="C2" s="164"/>
+      <c r="B2" s="162"/>
+      <c r="C2" s="162"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
@@ -10656,11 +10752,11 @@
       <c r="L2" s="5"/>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="194" t="s">
+      <c r="A3" s="192" t="s">
         <v>228</v>
       </c>
-      <c r="B3" s="194"/>
-      <c r="C3" s="194"/>
+      <c r="B3" s="192"/>
+      <c r="C3" s="192"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
@@ -10686,24 +10782,24 @@
       <c r="L4" s="5"/>
     </row>
     <row r="5" s="19" customFormat="true" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="178" t="s">
+      <c r="A5" s="176" t="s">
         <v>229</v>
       </c>
-      <c r="B5" s="195"/>
-      <c r="C5" s="178" t="s">
+      <c r="B5" s="193"/>
+      <c r="C5" s="176" t="s">
         <v>230</v>
       </c>
-      <c r="D5" s="196"/>
-      <c r="E5" s="197" t="str">
+      <c r="D5" s="194"/>
+      <c r="E5" s="195" t="str">
         <f aca="false">IF(B5="","Please refer to guidance and ensure that project stage is consistent with latest Business Case approval stage","")</f>
         <v>Please refer to guidance and ensure that project stage is consistent with latest Business Case approval stage</v>
       </c>
-      <c r="F5" s="197"/>
-      <c r="G5" s="197"/>
-      <c r="H5" s="197"/>
-      <c r="I5" s="197"/>
-      <c r="J5" s="197"/>
-      <c r="K5" s="197"/>
+      <c r="F5" s="195"/>
+      <c r="G5" s="195"/>
+      <c r="H5" s="195"/>
+      <c r="I5" s="195"/>
+      <c r="J5" s="195"/>
+      <c r="K5" s="195"/>
     </row>
     <row r="6" s="19" customFormat="true" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="4"/>
@@ -10719,41 +10815,41 @@
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
     </row>
-    <row r="7" s="199" customFormat="true" ht="64.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="178" t="s">
+    <row r="7" s="197" customFormat="true" ht="64.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="176" t="s">
         <v>231</v>
       </c>
-      <c r="B7" s="198" t="s">
+      <c r="B7" s="196" t="s">
         <v>232</v>
       </c>
-      <c r="C7" s="198" t="s">
+      <c r="C7" s="196" t="s">
         <v>233</v>
       </c>
-      <c r="D7" s="198" t="s">
+      <c r="D7" s="196" t="s">
         <v>234</v>
       </c>
-      <c r="E7" s="198" t="s">
+      <c r="E7" s="196" t="s">
         <v>235</v>
       </c>
-      <c r="F7" s="177" t="s">
+      <c r="F7" s="175" t="s">
         <v>236</v>
       </c>
-      <c r="G7" s="193"/>
-      <c r="H7" s="193"/>
-      <c r="I7" s="193"/>
-      <c r="J7" s="193"/>
-      <c r="K7" s="193"/>
-      <c r="L7" s="193"/>
+      <c r="G7" s="191"/>
+      <c r="H7" s="191"/>
+      <c r="I7" s="191"/>
+      <c r="J7" s="191"/>
+      <c r="K7" s="191"/>
+      <c r="L7" s="191"/>
     </row>
     <row r="8" s="19" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="200" t="s">
+      <c r="A8" s="198" t="s">
         <v>237</v>
       </c>
-      <c r="B8" s="201"/>
-      <c r="C8" s="202"/>
-      <c r="D8" s="202"/>
-      <c r="E8" s="202"/>
-      <c r="F8" s="203"/>
+      <c r="B8" s="199"/>
+      <c r="C8" s="200"/>
+      <c r="D8" s="200"/>
+      <c r="E8" s="200"/>
+      <c r="F8" s="201"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
@@ -10762,324 +10858,324 @@
       <c r="L8" s="4"/>
     </row>
     <row r="9" s="19" customFormat="true" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="204" t="s">
+      <c r="A9" s="202" t="s">
         <v>238</v>
       </c>
-      <c r="B9" s="205"/>
-      <c r="C9" s="205"/>
-      <c r="D9" s="205"/>
-      <c r="E9" s="206"/>
-      <c r="F9" s="207"/>
-      <c r="G9" s="208" t="str">
+      <c r="B9" s="203"/>
+      <c r="C9" s="203"/>
+      <c r="D9" s="203"/>
+      <c r="E9" s="204"/>
+      <c r="F9" s="205"/>
+      <c r="G9" s="206" t="str">
         <f aca="false">IF(OR(B9="",D9=""),"Please add Original Baseline and/or Forecast date if either is missing",IF(B9=C9,"Please delete Rebaseline as same as Original Baseline",IF(D9=B9,"",IF(AND(D9&lt;&gt;B9,G183=""),CONCATENATE(D9-B9," / ",IF(C9&lt;&gt;"",D9-C9,"-")," days change from the Original Baseline / Rebaseline - please provide reason if considered significant change. If Rebaselined, please provide reason"),IF(C9="",CONCATENATE(D9-B9," days change from the Original Baseline"),CONCATENATE(D9-B9," days change from the Original Baseline; ",D9-C9," days change from the rebaseline"))))))</f>
         <v>Please add Original Baseline and/or Forecast date if either is missing</v>
       </c>
-      <c r="H9" s="208"/>
-      <c r="I9" s="208"/>
-      <c r="J9" s="208"/>
-      <c r="K9" s="208"/>
-      <c r="L9" s="208"/>
+      <c r="H9" s="206"/>
+      <c r="I9" s="206"/>
+      <c r="J9" s="206"/>
+      <c r="K9" s="206"/>
+      <c r="L9" s="206"/>
     </row>
     <row r="10" s="19" customFormat="true" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="204" t="s">
+      <c r="A10" s="202" t="s">
         <v>239</v>
       </c>
-      <c r="B10" s="205"/>
-      <c r="C10" s="205"/>
-      <c r="D10" s="205"/>
-      <c r="E10" s="196" t="s">
+      <c r="B10" s="203"/>
+      <c r="C10" s="203"/>
+      <c r="D10" s="203"/>
+      <c r="E10" s="194" t="s">
         <v>240</v>
       </c>
-      <c r="F10" s="207"/>
-      <c r="G10" s="208" t="str">
+      <c r="F10" s="205"/>
+      <c r="G10" s="206" t="str">
         <f aca="false">IF(OR(B10="",D10=""),"Please add Original Baseline and/or Forecast date if either is missing",IF(B10=C10,"Please delete Rebaseline as same as Original Baseline",IF(D10=B10,"",IF(AND(D10&lt;&gt;B10,G184=""),CONCATENATE(D10-B10," / ",IF(C10&lt;&gt;"",D10-C10,"-")," days change from the Original Baseline / Rebaseline - please provide reason if considered significant change. If Rebaselined, please provide reason"),IF(C10="",CONCATENATE(D10-B10," days change from the Original Baseline"),CONCATENATE(D10-B10," days change from the Original Baseline; ",D10-C10," days change from the rebaseline"))))))</f>
         <v>Please add Original Baseline and/or Forecast date if either is missing</v>
       </c>
-      <c r="H10" s="208"/>
-      <c r="I10" s="208"/>
-      <c r="J10" s="208"/>
-      <c r="K10" s="208"/>
-      <c r="L10" s="208"/>
+      <c r="H10" s="206"/>
+      <c r="I10" s="206"/>
+      <c r="J10" s="206"/>
+      <c r="K10" s="206"/>
+      <c r="L10" s="206"/>
     </row>
     <row r="11" s="19" customFormat="true" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="204" t="s">
+      <c r="A11" s="202" t="s">
         <v>241</v>
       </c>
-      <c r="B11" s="205"/>
-      <c r="C11" s="205"/>
-      <c r="D11" s="205"/>
-      <c r="E11" s="206"/>
-      <c r="F11" s="207"/>
-      <c r="G11" s="208" t="str">
+      <c r="B11" s="203"/>
+      <c r="C11" s="203"/>
+      <c r="D11" s="203"/>
+      <c r="E11" s="204"/>
+      <c r="F11" s="205"/>
+      <c r="G11" s="206" t="str">
         <f aca="false">IF(OR(B11="",D11=""),"Please add Original Baseline and/or Forecast date if either is missing",IF(B11=C11,"Please delete Rebaseline as same as Original Baseline",IF(D11=B11,"",IF(AND(D11&lt;&gt;B11,G185=""),CONCATENATE(D11-B11," / ",IF(C11&lt;&gt;"",D11-C11,"-")," days change from the Original Baseline / Rebaseline - please provide reason if considered significant change. If Rebaselined, please provide reason"),IF(C11="",CONCATENATE(D11-B11," days change from the Original Baseline"),CONCATENATE(D11-B11," days change from the Original Baseline; ",D11-C11," days change from the rebaseline"))))))</f>
         <v>Please add Original Baseline and/or Forecast date if either is missing</v>
       </c>
-      <c r="H11" s="208"/>
-      <c r="I11" s="208"/>
-      <c r="J11" s="208"/>
-      <c r="K11" s="208"/>
-      <c r="L11" s="208"/>
+      <c r="H11" s="206"/>
+      <c r="I11" s="206"/>
+      <c r="J11" s="206"/>
+      <c r="K11" s="206"/>
+      <c r="L11" s="206"/>
     </row>
     <row r="12" s="19" customFormat="true" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="204" t="s">
+      <c r="A12" s="202" t="s">
         <v>242</v>
       </c>
-      <c r="B12" s="205"/>
-      <c r="C12" s="205"/>
-      <c r="D12" s="205"/>
-      <c r="E12" s="196" t="s">
+      <c r="B12" s="203"/>
+      <c r="C12" s="203"/>
+      <c r="D12" s="203"/>
+      <c r="E12" s="194" t="s">
         <v>243</v>
       </c>
-      <c r="F12" s="207"/>
-      <c r="G12" s="208" t="str">
+      <c r="F12" s="205"/>
+      <c r="G12" s="206" t="str">
         <f aca="false">IF(OR(B12="",D12=""),"Please add Original Baseline and/or Forecast date if either is missing",IF(B12=C12,"Please delete Rebaseline as same as Original Baseline",IF(D12=B12,"",IF(AND(D12&lt;&gt;B12,G186=""),CONCATENATE(D12-B12," / ",IF(C12&lt;&gt;"",D12-C12,"-")," days change from the Original Baseline / Rebaseline - please provide reason if considered significant change. If Rebaselined, please provide reason"),IF(C12="",CONCATENATE(D12-B12," days change from the Original Baseline"),CONCATENATE(D12-B12," days change from the Original Baseline; ",D12-C12," days change from the rebaseline"))))))</f>
         <v>Please add Original Baseline and/or Forecast date if either is missing</v>
       </c>
-      <c r="H12" s="208"/>
-      <c r="I12" s="208"/>
-      <c r="J12" s="208"/>
-      <c r="K12" s="208"/>
-      <c r="L12" s="208"/>
+      <c r="H12" s="206"/>
+      <c r="I12" s="206"/>
+      <c r="J12" s="206"/>
+      <c r="K12" s="206"/>
+      <c r="L12" s="206"/>
     </row>
     <row r="13" s="19" customFormat="true" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="204" t="s">
+      <c r="A13" s="202" t="s">
         <v>244</v>
       </c>
-      <c r="B13" s="205"/>
-      <c r="C13" s="205"/>
-      <c r="D13" s="205"/>
-      <c r="E13" s="206"/>
-      <c r="F13" s="207"/>
-      <c r="G13" s="208" t="str">
+      <c r="B13" s="203"/>
+      <c r="C13" s="203"/>
+      <c r="D13" s="203"/>
+      <c r="E13" s="204"/>
+      <c r="F13" s="205"/>
+      <c r="G13" s="206" t="str">
         <f aca="false">IF(OR(B13="",D13=""),"Please add Original Baseline and/or Forecast date if either is missing",IF(B13=C13,"Please delete Rebaseline as same as Original Baseline",IF(D13=B13,"",IF(AND(D13&lt;&gt;B13,G187=""),CONCATENATE(D13-B13," / ",IF(C13&lt;&gt;"",D13-C13,"-")," days change from the Original Baseline / Rebaseline - please provide reason if considered significant change. If Rebaselined, please provide reason"),IF(C13="",CONCATENATE(D13-B13," days change from the Original Baseline"),CONCATENATE(D13-B13," days change from the Original Baseline; ",D13-C13," days change from the rebaseline"))))))</f>
         <v>Please add Original Baseline and/or Forecast date if either is missing</v>
       </c>
-      <c r="H13" s="208"/>
-      <c r="I13" s="208"/>
-      <c r="J13" s="208"/>
-      <c r="K13" s="208"/>
-      <c r="L13" s="208"/>
+      <c r="H13" s="206"/>
+      <c r="I13" s="206"/>
+      <c r="J13" s="206"/>
+      <c r="K13" s="206"/>
+      <c r="L13" s="206"/>
     </row>
     <row r="14" s="19" customFormat="true" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="204" t="s">
+      <c r="A14" s="202" t="s">
         <v>245</v>
       </c>
-      <c r="B14" s="205"/>
-      <c r="C14" s="205"/>
-      <c r="D14" s="205"/>
-      <c r="E14" s="206"/>
-      <c r="F14" s="207"/>
-      <c r="G14" s="208" t="str">
+      <c r="B14" s="203"/>
+      <c r="C14" s="203"/>
+      <c r="D14" s="203"/>
+      <c r="E14" s="204"/>
+      <c r="F14" s="205"/>
+      <c r="G14" s="206" t="str">
         <f aca="false">IF(OR(B14="",D14=""),"Please add Original Baseline and/or Forecast date if either is missing",IF(B14=C14,"Please delete Rebaseline as same as Original Baseline",IF(D14=B14,"",IF(AND(D14&lt;&gt;B14,G188=""),CONCATENATE(D14-B14," / ",IF(C14&lt;&gt;"",D14-C14,"-")," days change from the Original Baseline / Rebaseline - please provide reason if considered significant change. If Rebaselined, please provide reason"),IF(C14="",CONCATENATE(D14-B14," days change from the Original Baseline"),CONCATENATE(D14-B14," days change from the Original Baseline; ",D14-C14," days change from the rebaseline"))))))</f>
         <v>Please add Original Baseline and/or Forecast date if either is missing</v>
       </c>
-      <c r="H14" s="208"/>
-      <c r="I14" s="208"/>
-      <c r="J14" s="208"/>
-      <c r="K14" s="208"/>
-      <c r="L14" s="208"/>
+      <c r="H14" s="206"/>
+      <c r="I14" s="206"/>
+      <c r="J14" s="206"/>
+      <c r="K14" s="206"/>
+      <c r="L14" s="206"/>
     </row>
     <row r="15" s="19" customFormat="true" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="204" t="s">
+      <c r="A15" s="202" t="s">
         <v>246</v>
       </c>
-      <c r="B15" s="205"/>
-      <c r="C15" s="205"/>
-      <c r="D15" s="205"/>
-      <c r="E15" s="206"/>
-      <c r="F15" s="207"/>
-      <c r="G15" s="208" t="str">
+      <c r="B15" s="203"/>
+      <c r="C15" s="203"/>
+      <c r="D15" s="203"/>
+      <c r="E15" s="204"/>
+      <c r="F15" s="205"/>
+      <c r="G15" s="206" t="str">
         <f aca="false">IF(OR(B15="",D15=""),"Please add Original Baseline and/or Forecast date if either is missing",IF(B15=C15,"Please delete Rebaseline as same as Original Baseline",IF(D15=B15,"",IF(AND(D15&lt;&gt;B15,G189=""),CONCATENATE(D15-B15," / ",IF(C15&lt;&gt;"",D15-C15,"-")," days change from the Original Baseline / Rebaseline - please provide reason if considered significant change. If Rebaselined, please provide reason"),IF(C15="",CONCATENATE(D15-B15," days change from the Original Baseline"),CONCATENATE(D15-B15," days change from the Original Baseline; ",D15-C15," days change from the rebaseline"))))))</f>
         <v>Please add Original Baseline and/or Forecast date if either is missing</v>
       </c>
-      <c r="H15" s="208"/>
-      <c r="I15" s="208"/>
-      <c r="J15" s="208"/>
-      <c r="K15" s="208"/>
-      <c r="L15" s="208"/>
+      <c r="H15" s="206"/>
+      <c r="I15" s="206"/>
+      <c r="J15" s="206"/>
+      <c r="K15" s="206"/>
+      <c r="L15" s="206"/>
     </row>
     <row r="16" s="19" customFormat="true" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="204" t="s">
+      <c r="A16" s="202" t="s">
         <v>247</v>
       </c>
-      <c r="B16" s="205"/>
-      <c r="C16" s="205"/>
-      <c r="D16" s="205"/>
-      <c r="E16" s="206"/>
-      <c r="F16" s="207"/>
-      <c r="G16" s="208" t="str">
+      <c r="B16" s="203"/>
+      <c r="C16" s="203"/>
+      <c r="D16" s="203"/>
+      <c r="E16" s="204"/>
+      <c r="F16" s="205"/>
+      <c r="G16" s="206" t="str">
         <f aca="false">IF(OR(B16="",D16=""),"Please add Original Baseline and/or Forecast date if either is missing",IF(B16=C16,"Please delete Rebaseline as same as Original Baseline",IF(D16=B16,"",IF(AND(D16&lt;&gt;B16,G190=""),CONCATENATE(D16-B16," / ",IF(C16&lt;&gt;"",D16-C16,"-")," days change from the Original Baseline / Rebaseline - please provide reason if considered significant change. If Rebaselined, please provide reason"),IF(C16="",CONCATENATE(D16-B16," days change from the Original Baseline"),CONCATENATE(D16-B16," days change from the Original Baseline; ",D16-C16," days change from the rebaseline"))))))</f>
         <v>Please add Original Baseline and/or Forecast date if either is missing</v>
       </c>
-      <c r="H16" s="208"/>
-      <c r="I16" s="208"/>
-      <c r="J16" s="208"/>
-      <c r="K16" s="208"/>
-      <c r="L16" s="208"/>
+      <c r="H16" s="206"/>
+      <c r="I16" s="206"/>
+      <c r="J16" s="206"/>
+      <c r="K16" s="206"/>
+      <c r="L16" s="206"/>
     </row>
     <row r="17" s="19" customFormat="true" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="204" t="s">
+      <c r="A17" s="202" t="s">
         <v>248</v>
       </c>
-      <c r="B17" s="205"/>
-      <c r="C17" s="205"/>
-      <c r="D17" s="205"/>
-      <c r="E17" s="206"/>
-      <c r="F17" s="207"/>
-      <c r="G17" s="208" t="str">
+      <c r="B17" s="203"/>
+      <c r="C17" s="203"/>
+      <c r="D17" s="203"/>
+      <c r="E17" s="204"/>
+      <c r="F17" s="205"/>
+      <c r="G17" s="206" t="str">
         <f aca="false">IF(OR(B17="",D17=""),"Please add Original Baseline and/or Forecast date if either is missing",IF(B17=C17,"Please delete Rebaseline as same as Original Baseline",IF(D17=B17,"",IF(AND(D17&lt;&gt;B17,G191=""),CONCATENATE(D17-B17," / ",IF(C17&lt;&gt;"",D17-C17,"-")," days change from the Original Baseline / Rebaseline - please provide reason if considered significant change. If Rebaselined, please provide reason"),IF(C17="",CONCATENATE(D17-B17," days change from the Original Baseline"),CONCATENATE(D17-B17," days change from the Original Baseline; ",D17-C17," days change from the rebaseline"))))))</f>
         <v>Please add Original Baseline and/or Forecast date if either is missing</v>
       </c>
-      <c r="H17" s="208"/>
-      <c r="I17" s="208"/>
-      <c r="J17" s="208"/>
-      <c r="K17" s="208"/>
-      <c r="L17" s="208"/>
+      <c r="H17" s="206"/>
+      <c r="I17" s="206"/>
+      <c r="J17" s="206"/>
+      <c r="K17" s="206"/>
+      <c r="L17" s="206"/>
     </row>
     <row r="18" s="19" customFormat="true" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="204" t="s">
+      <c r="A18" s="202" t="s">
         <v>249</v>
       </c>
-      <c r="B18" s="205"/>
-      <c r="C18" s="205"/>
-      <c r="D18" s="205"/>
-      <c r="E18" s="206"/>
-      <c r="F18" s="207"/>
-      <c r="G18" s="208" t="str">
+      <c r="B18" s="203"/>
+      <c r="C18" s="203"/>
+      <c r="D18" s="203"/>
+      <c r="E18" s="204"/>
+      <c r="F18" s="205"/>
+      <c r="G18" s="206" t="str">
         <f aca="false">IF(OR(B18="",D18=""),"Please add Original Baseline and/or Forecast date if either is missing",IF(B18=C18,"Please delete Rebaseline as same as Original Baseline",IF(D18=B18,"",IF(AND(D18&lt;&gt;B18,G192=""),CONCATENATE(D18-B18," / ",IF(C18&lt;&gt;"",D18-C18,"-")," days change from the Original Baseline / Rebaseline - please provide reason if considered significant change. If Rebaselined, please provide reason"),IF(C18="",CONCATENATE(D18-B18," days change from the Original Baseline"),CONCATENATE(D18-B18," days change from the Original Baseline; ",D18-C18," days change from the rebaseline"))))))</f>
         <v>Please add Original Baseline and/or Forecast date if either is missing</v>
       </c>
-      <c r="H18" s="208"/>
-      <c r="I18" s="208"/>
-      <c r="J18" s="208"/>
-      <c r="K18" s="208"/>
-      <c r="L18" s="208"/>
+      <c r="H18" s="206"/>
+      <c r="I18" s="206"/>
+      <c r="J18" s="206"/>
+      <c r="K18" s="206"/>
+      <c r="L18" s="206"/>
     </row>
     <row r="19" s="19" customFormat="true" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="204" t="s">
+      <c r="A19" s="202" t="s">
         <v>250</v>
       </c>
-      <c r="B19" s="205"/>
-      <c r="C19" s="205"/>
-      <c r="D19" s="205"/>
-      <c r="E19" s="196" t="s">
+      <c r="B19" s="203"/>
+      <c r="C19" s="203"/>
+      <c r="D19" s="203"/>
+      <c r="E19" s="194" t="s">
         <v>251</v>
       </c>
-      <c r="F19" s="207"/>
-      <c r="G19" s="208" t="str">
+      <c r="F19" s="205"/>
+      <c r="G19" s="206" t="str">
         <f aca="false">IF(OR(B19="",D19=""),"Please add Original Baseline and/or Forecast date if either is missing",IF(B19=C19,"Please delete Rebaseline as same as Original Baseline",IF(D19=B19,"",IF(AND(D19&lt;&gt;B19,G193=""),CONCATENATE(D19-B19," / ",IF(C19&lt;&gt;"",D19-C19,"-")," days change from the Original Baseline / Rebaseline - please provide reason if considered significant change. If Rebaselined, please provide reason"),IF(C19="",CONCATENATE(D19-B19," days change from the Original Baseline"),CONCATENATE(D19-B19," days change from the Original Baseline; ",D19-C19," days change from the rebaseline"))))))</f>
         <v>Please add Original Baseline and/or Forecast date if either is missing</v>
       </c>
-      <c r="H19" s="208"/>
-      <c r="I19" s="208"/>
-      <c r="J19" s="208"/>
-      <c r="K19" s="208"/>
-      <c r="L19" s="208"/>
+      <c r="H19" s="206"/>
+      <c r="I19" s="206"/>
+      <c r="J19" s="206"/>
+      <c r="K19" s="206"/>
+      <c r="L19" s="206"/>
     </row>
     <row r="20" s="19" customFormat="true" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="209" t="s">
+      <c r="A20" s="207" t="s">
         <v>252</v>
       </c>
-      <c r="B20" s="205"/>
-      <c r="C20" s="205"/>
-      <c r="D20" s="205"/>
-      <c r="E20" s="206"/>
-      <c r="F20" s="207"/>
-      <c r="G20" s="208" t="str">
+      <c r="B20" s="203"/>
+      <c r="C20" s="203"/>
+      <c r="D20" s="203"/>
+      <c r="E20" s="204"/>
+      <c r="F20" s="205"/>
+      <c r="G20" s="206" t="str">
         <f aca="false">IF(OR(B20="",D20=""),"Please add Original Baseline and/or Forecast date if either is missing",IF(B20=C20,"Please delete Rebaseline as same as Original Baseline",IF(D20=B20,"",IF(AND(D20&lt;&gt;B20,G194=""),CONCATENATE(D20-B20," / ",IF(C20&lt;&gt;"",D20-C20,"-")," days change from the Original Baseline / Rebaseline - please provide reason if considered significant change. If Rebaselined, please provide reason"),IF(C20="",CONCATENATE(D20-B20," days change from the Original Baseline"),CONCATENATE(D20-B20," days change from the Original Baseline; ",D20-C20," days change from the rebaseline"))))))</f>
         <v>Please add Original Baseline and/or Forecast date if either is missing</v>
       </c>
-      <c r="H20" s="208"/>
-      <c r="I20" s="208"/>
-      <c r="J20" s="208"/>
-      <c r="K20" s="208"/>
-      <c r="L20" s="208"/>
+      <c r="H20" s="206"/>
+      <c r="I20" s="206"/>
+      <c r="J20" s="206"/>
+      <c r="K20" s="206"/>
+      <c r="L20" s="206"/>
     </row>
     <row r="21" s="19" customFormat="true" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="209" t="s">
+      <c r="A21" s="207" t="s">
         <v>253</v>
       </c>
-      <c r="B21" s="205"/>
-      <c r="C21" s="205"/>
-      <c r="D21" s="205"/>
-      <c r="E21" s="206"/>
-      <c r="F21" s="207"/>
-      <c r="G21" s="208" t="str">
+      <c r="B21" s="203"/>
+      <c r="C21" s="203"/>
+      <c r="D21" s="203"/>
+      <c r="E21" s="204"/>
+      <c r="F21" s="205"/>
+      <c r="G21" s="206" t="str">
         <f aca="false">IF(OR(B21="",D21=""),"Please add Original Baseline and/or Forecast date if either is missing",IF(B21=C21,"Please delete Rebaseline as same as Original Baseline",IF(D21=B21,"",IF(AND(D21&lt;&gt;B21,G195=""),CONCATENATE(D21-B21," / ",IF(C21&lt;&gt;"",D21-C21,"-")," days change from the Original Baseline / Rebaseline - please provide reason if considered significant change. If Rebaselined, please provide reason"),IF(C21="",CONCATENATE(D21-B21," days change from the Original Baseline"),CONCATENATE(D21-B21," days change from the Original Baseline; ",D21-C21," days change from the rebaseline"))))))</f>
         <v>Please add Original Baseline and/or Forecast date if either is missing</v>
       </c>
-      <c r="H21" s="208"/>
-      <c r="I21" s="208"/>
-      <c r="J21" s="208"/>
-      <c r="K21" s="208"/>
-      <c r="L21" s="208"/>
+      <c r="H21" s="206"/>
+      <c r="I21" s="206"/>
+      <c r="J21" s="206"/>
+      <c r="K21" s="206"/>
+      <c r="L21" s="206"/>
     </row>
     <row r="22" s="19" customFormat="true" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="209" t="s">
+      <c r="A22" s="207" t="s">
         <v>254</v>
       </c>
-      <c r="B22" s="205"/>
-      <c r="C22" s="205"/>
-      <c r="D22" s="205"/>
-      <c r="E22" s="206"/>
-      <c r="F22" s="207"/>
-      <c r="G22" s="208" t="str">
+      <c r="B22" s="203"/>
+      <c r="C22" s="203"/>
+      <c r="D22" s="203"/>
+      <c r="E22" s="204"/>
+      <c r="F22" s="205"/>
+      <c r="G22" s="206" t="str">
         <f aca="false">IF(OR(B22="",D22=""),"Please add Original Baseline and/or Forecast date if either is missing",IF(B22=C22,"Please delete Rebaseline as same as Original Baseline",IF(D22=B22,"",IF(AND(D22&lt;&gt;B22,G196=""),CONCATENATE(D22-B22," / ",IF(C22&lt;&gt;"",D22-C22,"-")," days change from the Original Baseline / Rebaseline - please provide reason if considered significant change. If Rebaselined, please provide reason"),IF(C22="",CONCATENATE(D22-B22," days change from the Original Baseline"),CONCATENATE(D22-B22," days change from the Original Baseline; ",D22-C22," days change from the rebaseline"))))))</f>
         <v>Please add Original Baseline and/or Forecast date if either is missing</v>
       </c>
-      <c r="H22" s="208"/>
-      <c r="I22" s="208"/>
-      <c r="J22" s="208"/>
-      <c r="K22" s="208"/>
-      <c r="L22" s="208"/>
+      <c r="H22" s="206"/>
+      <c r="I22" s="206"/>
+      <c r="J22" s="206"/>
+      <c r="K22" s="206"/>
+      <c r="L22" s="206"/>
     </row>
     <row r="23" s="19" customFormat="true" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="209" t="s">
+      <c r="A23" s="207" t="s">
         <v>255</v>
       </c>
-      <c r="B23" s="205"/>
-      <c r="C23" s="205"/>
-      <c r="D23" s="205"/>
-      <c r="E23" s="206"/>
-      <c r="F23" s="207"/>
-      <c r="G23" s="208" t="str">
+      <c r="B23" s="203"/>
+      <c r="C23" s="203"/>
+      <c r="D23" s="203"/>
+      <c r="E23" s="204"/>
+      <c r="F23" s="205"/>
+      <c r="G23" s="206" t="str">
         <f aca="false">IF(OR(B23="",D23=""),"Please add Original Baseline and/or Forecast date if either is missing",IF(B23=C23,"Please delete Rebaseline as same as Original Baseline",IF(D23=B23,"",IF(AND(D23&lt;&gt;B23,G197=""),CONCATENATE(D23-B23," / ",IF(C23&lt;&gt;"",D23-C23,"-")," days change from the Original Baseline / Rebaseline - please provide reason if considered significant change. If Rebaselined, please provide reason"),IF(C23="",CONCATENATE(D23-B23," days change from the Original Baseline"),CONCATENATE(D23-B23," days change from the Original Baseline; ",D23-C23," days change from the rebaseline"))))))</f>
         <v>Please add Original Baseline and/or Forecast date if either is missing</v>
       </c>
-      <c r="H23" s="208"/>
-      <c r="I23" s="208"/>
-      <c r="J23" s="208"/>
-      <c r="K23" s="208"/>
-      <c r="L23" s="208"/>
+      <c r="H23" s="206"/>
+      <c r="I23" s="206"/>
+      <c r="J23" s="206"/>
+      <c r="K23" s="206"/>
+      <c r="L23" s="206"/>
     </row>
     <row r="24" s="19" customFormat="true" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="209" t="s">
+      <c r="A24" s="207" t="s">
         <v>256</v>
       </c>
-      <c r="B24" s="205"/>
-      <c r="C24" s="205"/>
-      <c r="D24" s="205"/>
-      <c r="E24" s="206"/>
-      <c r="F24" s="207"/>
-      <c r="G24" s="208" t="str">
+      <c r="B24" s="203"/>
+      <c r="C24" s="203"/>
+      <c r="D24" s="203"/>
+      <c r="E24" s="204"/>
+      <c r="F24" s="205"/>
+      <c r="G24" s="206" t="str">
         <f aca="false">IF(OR(B24="",D24=""),"Please add Original Baseline and/or Forecast date if either is missing",IF(B24=C24,"Please delete Rebaseline as same as Original Baseline",IF(D24=B24,"",IF(AND(D24&lt;&gt;B24,G198=""),CONCATENATE(D24-B24," / ",IF(C24&lt;&gt;"",D24-C24,"-")," days change from the Original Baseline / Rebaseline - please provide reason if considered significant change. If Rebaselined, please provide reason"),IF(C24="",CONCATENATE(D24-B24," days change from the Original Baseline"),CONCATENATE(D24-B24," days change from the Original Baseline; ",D24-C24," days change from the rebaseline"))))))</f>
         <v>Please add Original Baseline and/or Forecast date if either is missing</v>
       </c>
-      <c r="H24" s="208"/>
-      <c r="I24" s="208"/>
-      <c r="J24" s="208"/>
-      <c r="K24" s="208"/>
-      <c r="L24" s="208"/>
+      <c r="H24" s="206"/>
+      <c r="I24" s="206"/>
+      <c r="J24" s="206"/>
+      <c r="K24" s="206"/>
+      <c r="L24" s="206"/>
     </row>
     <row r="25" s="19" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="200" t="s">
+      <c r="A25" s="198" t="s">
         <v>257</v>
       </c>
-      <c r="B25" s="201"/>
-      <c r="C25" s="202"/>
-      <c r="D25" s="202"/>
-      <c r="E25" s="202"/>
-      <c r="F25" s="210"/>
+      <c r="B25" s="199"/>
+      <c r="C25" s="200"/>
+      <c r="D25" s="200"/>
+      <c r="E25" s="200"/>
+      <c r="F25" s="208"/>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
@@ -11088,295 +11184,295 @@
       <c r="L25" s="4"/>
     </row>
     <row r="26" s="19" customFormat="true" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="211" t="s">
+      <c r="A26" s="209" t="s">
         <v>258</v>
       </c>
-      <c r="B26" s="205"/>
-      <c r="C26" s="205"/>
-      <c r="D26" s="205"/>
-      <c r="E26" s="196" t="s">
+      <c r="B26" s="203"/>
+      <c r="C26" s="203"/>
+      <c r="D26" s="203"/>
+      <c r="E26" s="194" t="s">
         <v>259</v>
       </c>
-      <c r="F26" s="207"/>
-      <c r="G26" s="208" t="str">
+      <c r="F26" s="205"/>
+      <c r="G26" s="206" t="str">
         <f aca="false">IF(OR(B26="",D26=""),"Please add Original Baseline and/or Forecast date if either is missing",IF(B26=C26,"Please delete Rebaseline as same as Original Baseline",IF(D26=B26,"",IF(AND(D26&lt;&gt;B26,G200=""),CONCATENATE(D26-B26," / ",IF(C26&lt;&gt;"",D26-C26,"-")," days change from the Original Baseline / Rebaseline - please provide reason if considered significant change. If Rebaselined, please provide reason"),IF(C26="",CONCATENATE(D26-B26," days change from the Original Baseline"),CONCATENATE(D26-B26," days change from the Original Baseline; ",D26-C26," days change from the rebaseline"))))))</f>
         <v>Please add Original Baseline and/or Forecast date if either is missing</v>
       </c>
-      <c r="H26" s="208"/>
-      <c r="I26" s="208"/>
-      <c r="J26" s="208"/>
-      <c r="K26" s="208"/>
-      <c r="L26" s="208"/>
+      <c r="H26" s="206"/>
+      <c r="I26" s="206"/>
+      <c r="J26" s="206"/>
+      <c r="K26" s="206"/>
+      <c r="L26" s="206"/>
     </row>
     <row r="27" s="19" customFormat="true" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="211" t="s">
+      <c r="A27" s="209" t="s">
         <v>260</v>
       </c>
-      <c r="B27" s="205"/>
-      <c r="C27" s="205"/>
-      <c r="D27" s="205"/>
-      <c r="E27" s="206"/>
-      <c r="F27" s="207"/>
-      <c r="G27" s="208" t="str">
+      <c r="B27" s="203"/>
+      <c r="C27" s="203"/>
+      <c r="D27" s="203"/>
+      <c r="E27" s="204"/>
+      <c r="F27" s="205"/>
+      <c r="G27" s="206" t="str">
         <f aca="false">IF(OR(B27="",D27=""),"Please add Original Baseline and/or Forecast date if either is missing",IF(B27=C27,"Please delete Rebaseline as same as Original Baseline",IF(D27=B27,"",IF(AND(D27&lt;&gt;B27,G201=""),CONCATENATE(D27-B27," / ",IF(C27&lt;&gt;"",D27-C27,"-")," days change from the Original Baseline / Rebaseline - please provide reason if considered significant change. If Rebaselined, please provide reason"),IF(C27="",CONCATENATE(D27-B27," days change from the Original Baseline"),CONCATENATE(D27-B27," days change from the Original Baseline; ",D27-C27," days change from the rebaseline"))))))</f>
         <v>Please add Original Baseline and/or Forecast date if either is missing</v>
       </c>
-      <c r="H27" s="208"/>
-      <c r="I27" s="208"/>
-      <c r="J27" s="208"/>
-      <c r="K27" s="208"/>
-      <c r="L27" s="208"/>
+      <c r="H27" s="206"/>
+      <c r="I27" s="206"/>
+      <c r="J27" s="206"/>
+      <c r="K27" s="206"/>
+      <c r="L27" s="206"/>
     </row>
     <row r="28" s="19" customFormat="true" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="211" t="s">
+      <c r="A28" s="209" t="s">
         <v>261</v>
       </c>
-      <c r="B28" s="205"/>
-      <c r="C28" s="205"/>
-      <c r="D28" s="205"/>
-      <c r="E28" s="206"/>
-      <c r="F28" s="207"/>
-      <c r="G28" s="208" t="str">
+      <c r="B28" s="203"/>
+      <c r="C28" s="203"/>
+      <c r="D28" s="203"/>
+      <c r="E28" s="204"/>
+      <c r="F28" s="205"/>
+      <c r="G28" s="206" t="str">
         <f aca="false">IF(OR(B28="",D28=""),"Please add Original Baseline and/or Forecast date if either is missing",IF(B28=C28,"Please delete Rebaseline as same as Original Baseline",IF(D28=B28,"",IF(AND(D28&lt;&gt;B28,G202=""),CONCATENATE(D28-B28," / ",IF(C28&lt;&gt;"",D28-C28,"-")," days change from the Original Baseline / Rebaseline - please provide reason if considered significant change. If Rebaselined, please provide reason"),IF(C28="",CONCATENATE(D28-B28," days change from the Original Baseline"),CONCATENATE(D28-B28," days change from the Original Baseline; ",D28-C28," days change from the rebaseline"))))))</f>
         <v>Please add Original Baseline and/or Forecast date if either is missing</v>
       </c>
-      <c r="H28" s="208"/>
-      <c r="I28" s="208"/>
-      <c r="J28" s="208"/>
-      <c r="K28" s="208"/>
-      <c r="L28" s="208"/>
+      <c r="H28" s="206"/>
+      <c r="I28" s="206"/>
+      <c r="J28" s="206"/>
+      <c r="K28" s="206"/>
+      <c r="L28" s="206"/>
     </row>
     <row r="29" s="19" customFormat="true" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="211" t="s">
+      <c r="A29" s="209" t="s">
         <v>262</v>
       </c>
-      <c r="B29" s="205"/>
-      <c r="C29" s="205"/>
-      <c r="D29" s="205"/>
-      <c r="E29" s="196" t="s">
+      <c r="B29" s="203"/>
+      <c r="C29" s="203"/>
+      <c r="D29" s="203"/>
+      <c r="E29" s="194" t="s">
         <v>262</v>
       </c>
-      <c r="F29" s="207"/>
-      <c r="G29" s="208" t="str">
+      <c r="F29" s="205"/>
+      <c r="G29" s="206" t="str">
         <f aca="false">IF(OR(B29="",D29=""),"Please add Original Baseline and/or Forecast date if either is missing",IF(B29=C29,"Please delete Rebaseline as same as Original Baseline",IF(D29=B29,"",IF(AND(D29&lt;&gt;B29,G203=""),CONCATENATE(D29-B29," / ",IF(C29&lt;&gt;"",D29-C29,"-")," days change from the Original Baseline / Rebaseline - please provide reason if considered significant change. If Rebaselined, please provide reason"),IF(C29="",CONCATENATE(D29-B29," days change from the Original Baseline"),CONCATENATE(D29-B29," days change from the Original Baseline; ",D29-C29," days change from the rebaseline"))))))</f>
         <v>Please add Original Baseline and/or Forecast date if either is missing</v>
       </c>
-      <c r="H29" s="208"/>
-      <c r="I29" s="208"/>
-      <c r="J29" s="208"/>
-      <c r="K29" s="208"/>
-      <c r="L29" s="208"/>
+      <c r="H29" s="206"/>
+      <c r="I29" s="206"/>
+      <c r="J29" s="206"/>
+      <c r="K29" s="206"/>
+      <c r="L29" s="206"/>
     </row>
     <row r="30" s="19" customFormat="true" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="211" t="s">
+      <c r="A30" s="209" t="s">
         <v>263</v>
       </c>
-      <c r="B30" s="205"/>
-      <c r="C30" s="205"/>
-      <c r="D30" s="205"/>
-      <c r="E30" s="196" t="s">
+      <c r="B30" s="203"/>
+      <c r="C30" s="203"/>
+      <c r="D30" s="203"/>
+      <c r="E30" s="194" t="s">
         <v>263</v>
       </c>
-      <c r="F30" s="207"/>
-      <c r="G30" s="208" t="str">
+      <c r="F30" s="205"/>
+      <c r="G30" s="206" t="str">
         <f aca="false">IF(OR(B30="",D30=""),"Please add Original Baseline and/or Forecast date if either is missing",IF(B30=C30,"Please delete Rebaseline as same as Original Baseline",IF(D30=B30,"",IF(AND(D30&lt;&gt;B30,G204=""),CONCATENATE(D30-B30," / ",IF(C30&lt;&gt;"",D30-C30,"-")," days change from the Original Baseline / Rebaseline - please provide reason if considered significant change. If Rebaselined, please provide reason"),IF(C30="",CONCATENATE(D30-B30," days change from the Original Baseline"),CONCATENATE(D30-B30," days change from the Original Baseline; ",D30-C30," days change from the rebaseline"))))))</f>
         <v>Please add Original Baseline and/or Forecast date if either is missing</v>
       </c>
-      <c r="H30" s="208"/>
-      <c r="I30" s="208"/>
-      <c r="J30" s="208"/>
-      <c r="K30" s="208"/>
-      <c r="L30" s="208"/>
+      <c r="H30" s="206"/>
+      <c r="I30" s="206"/>
+      <c r="J30" s="206"/>
+      <c r="K30" s="206"/>
+      <c r="L30" s="206"/>
     </row>
     <row r="31" s="19" customFormat="true" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="212" t="s">
+      <c r="A31" s="210" t="s">
         <v>264</v>
       </c>
-      <c r="B31" s="205"/>
-      <c r="C31" s="205"/>
-      <c r="D31" s="205"/>
-      <c r="E31" s="206"/>
-      <c r="F31" s="207"/>
-      <c r="G31" s="208" t="str">
+      <c r="B31" s="203"/>
+      <c r="C31" s="203"/>
+      <c r="D31" s="203"/>
+      <c r="E31" s="204"/>
+      <c r="F31" s="205"/>
+      <c r="G31" s="206" t="str">
         <f aca="false">IF(OR(B31="",D31=""),"Please add Original Baseline and/or Forecast date if either is missing",IF(B31=C31,"Please delete Rebaseline as same as Original Baseline",IF(D31=B31,"",IF(AND(D31&lt;&gt;B31,G205=""),CONCATENATE(D31-B31," / ",IF(C31&lt;&gt;"",D31-C31,"-")," days change from the Original Baseline / Rebaseline - please provide reason if considered significant change. If Rebaselined, please provide reason"),IF(C31="",CONCATENATE(D31-B31," days change from the Original Baseline"),CONCATENATE(D31-B31," days change from the Original Baseline; ",D31-C31," days change from the rebaseline"))))))</f>
         <v>Please add Original Baseline and/or Forecast date if either is missing</v>
       </c>
-      <c r="H31" s="208"/>
-      <c r="I31" s="208"/>
-      <c r="J31" s="208"/>
-      <c r="K31" s="208"/>
-      <c r="L31" s="208"/>
+      <c r="H31" s="206"/>
+      <c r="I31" s="206"/>
+      <c r="J31" s="206"/>
+      <c r="K31" s="206"/>
+      <c r="L31" s="206"/>
     </row>
     <row r="32" s="19" customFormat="true" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="212" t="s">
+      <c r="A32" s="210" t="s">
         <v>265</v>
       </c>
-      <c r="B32" s="205"/>
-      <c r="C32" s="205"/>
-      <c r="D32" s="205"/>
-      <c r="E32" s="206"/>
-      <c r="F32" s="207"/>
-      <c r="G32" s="208" t="str">
+      <c r="B32" s="203"/>
+      <c r="C32" s="203"/>
+      <c r="D32" s="203"/>
+      <c r="E32" s="204"/>
+      <c r="F32" s="205"/>
+      <c r="G32" s="206" t="str">
         <f aca="false">IF(OR(B32="",D32=""),"Please add Original Baseline and/or Forecast date if either is missing",IF(B32=C32,"Please delete Rebaseline as same as Original Baseline",IF(D32=B32,"",IF(AND(D32&lt;&gt;B32,G206=""),CONCATENATE(D32-B32," / ",IF(C32&lt;&gt;"",D32-C32,"-")," days change from the Original Baseline / Rebaseline - please provide reason if considered significant change. If Rebaselined, please provide reason"),IF(C32="",CONCATENATE(D32-B32," days change from the Original Baseline"),CONCATENATE(D32-B32," days change from the Original Baseline; ",D32-C32," days change from the rebaseline"))))))</f>
         <v>Please add Original Baseline and/or Forecast date if either is missing</v>
       </c>
-      <c r="H32" s="208"/>
-      <c r="I32" s="208"/>
-      <c r="J32" s="208"/>
-      <c r="K32" s="208"/>
-      <c r="L32" s="208"/>
+      <c r="H32" s="206"/>
+      <c r="I32" s="206"/>
+      <c r="J32" s="206"/>
+      <c r="K32" s="206"/>
+      <c r="L32" s="206"/>
     </row>
     <row r="33" s="19" customFormat="true" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="212" t="s">
+      <c r="A33" s="210" t="s">
         <v>266</v>
       </c>
-      <c r="B33" s="205"/>
-      <c r="C33" s="205"/>
-      <c r="D33" s="205"/>
-      <c r="E33" s="206"/>
-      <c r="F33" s="207"/>
-      <c r="G33" s="208" t="str">
+      <c r="B33" s="203"/>
+      <c r="C33" s="203"/>
+      <c r="D33" s="203"/>
+      <c r="E33" s="204"/>
+      <c r="F33" s="205"/>
+      <c r="G33" s="206" t="str">
         <f aca="false">IF(OR(B33="",D33=""),"Please add Original Baseline and/or Forecast date if either is missing",IF(B33=C33,"Please delete Rebaseline as same as Original Baseline",IF(D33=B33,"",IF(AND(D33&lt;&gt;B33,G207=""),CONCATENATE(D33-B33," / ",IF(C33&lt;&gt;"",D33-C33,"-")," days change from the Original Baseline / Rebaseline - please provide reason if considered significant change. If Rebaselined, please provide reason"),IF(C33="",CONCATENATE(D33-B33," days change from the Original Baseline"),CONCATENATE(D33-B33," days change from the Original Baseline; ",D33-C33," days change from the rebaseline"))))))</f>
         <v>Please add Original Baseline and/or Forecast date if either is missing</v>
       </c>
-      <c r="H33" s="208"/>
-      <c r="I33" s="208"/>
-      <c r="J33" s="208"/>
-      <c r="K33" s="208"/>
-      <c r="L33" s="208"/>
+      <c r="H33" s="206"/>
+      <c r="I33" s="206"/>
+      <c r="J33" s="206"/>
+      <c r="K33" s="206"/>
+      <c r="L33" s="206"/>
     </row>
     <row r="34" s="19" customFormat="true" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="212" t="s">
+      <c r="A34" s="210" t="s">
         <v>267</v>
       </c>
-      <c r="B34" s="205"/>
-      <c r="C34" s="205"/>
-      <c r="D34" s="205"/>
-      <c r="E34" s="206"/>
-      <c r="F34" s="207"/>
-      <c r="G34" s="208" t="str">
+      <c r="B34" s="203"/>
+      <c r="C34" s="203"/>
+      <c r="D34" s="203"/>
+      <c r="E34" s="204"/>
+      <c r="F34" s="205"/>
+      <c r="G34" s="206" t="str">
         <f aca="false">IF(OR(B34="",D34=""),"Please add Original Baseline and/or Forecast date if either is missing",IF(B34=C34,"Please delete Rebaseline as same as Original Baseline",IF(D34=B34,"",IF(AND(D34&lt;&gt;B34,G208=""),CONCATENATE(D34-B34," / ",IF(C34&lt;&gt;"",D34-C34,"-")," days change from the Original Baseline / Rebaseline - please provide reason if considered significant change. If Rebaselined, please provide reason"),IF(C34="",CONCATENATE(D34-B34," days change from the Original Baseline"),CONCATENATE(D34-B34," days change from the Original Baseline; ",D34-C34," days change from the rebaseline"))))))</f>
         <v>Please add Original Baseline and/or Forecast date if either is missing</v>
       </c>
-      <c r="H34" s="208"/>
-      <c r="I34" s="208"/>
-      <c r="J34" s="208"/>
-      <c r="K34" s="208"/>
-      <c r="L34" s="208"/>
+      <c r="H34" s="206"/>
+      <c r="I34" s="206"/>
+      <c r="J34" s="206"/>
+      <c r="K34" s="206"/>
+      <c r="L34" s="206"/>
     </row>
     <row r="35" s="19" customFormat="true" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="212" t="s">
+      <c r="A35" s="210" t="s">
         <v>268</v>
       </c>
-      <c r="B35" s="205"/>
-      <c r="C35" s="205"/>
-      <c r="D35" s="205"/>
-      <c r="E35" s="206"/>
-      <c r="F35" s="207"/>
-      <c r="G35" s="208" t="str">
+      <c r="B35" s="203"/>
+      <c r="C35" s="203"/>
+      <c r="D35" s="203"/>
+      <c r="E35" s="204"/>
+      <c r="F35" s="205"/>
+      <c r="G35" s="206" t="str">
         <f aca="false">IF(OR(B35="",D35=""),"Please add Original Baseline and/or Forecast date if either is missing",IF(B35=C35,"Please delete Rebaseline as same as Original Baseline",IF(D35=B35,"",IF(AND(D35&lt;&gt;B35,G209=""),CONCATENATE(D35-B35," / ",IF(C35&lt;&gt;"",D35-C35,"-")," days change from the Original Baseline / Rebaseline - please provide reason if considered significant change. If Rebaselined, please provide reason"),IF(C35="",CONCATENATE(D35-B35," days change from the Original Baseline"),CONCATENATE(D35-B35," days change from the Original Baseline; ",D35-C35," days change from the rebaseline"))))))</f>
         <v>Please add Original Baseline and/or Forecast date if either is missing</v>
       </c>
-      <c r="H35" s="208"/>
-      <c r="I35" s="208"/>
-      <c r="J35" s="208"/>
-      <c r="K35" s="208"/>
-      <c r="L35" s="208"/>
+      <c r="H35" s="206"/>
+      <c r="I35" s="206"/>
+      <c r="J35" s="206"/>
+      <c r="K35" s="206"/>
+      <c r="L35" s="206"/>
     </row>
     <row r="36" s="19" customFormat="true" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="212" t="s">
+      <c r="A36" s="210" t="s">
         <v>269</v>
       </c>
-      <c r="B36" s="205"/>
-      <c r="C36" s="205"/>
-      <c r="D36" s="205"/>
-      <c r="E36" s="206"/>
-      <c r="F36" s="207"/>
-      <c r="G36" s="208" t="str">
+      <c r="B36" s="203"/>
+      <c r="C36" s="203"/>
+      <c r="D36" s="203"/>
+      <c r="E36" s="204"/>
+      <c r="F36" s="205"/>
+      <c r="G36" s="206" t="str">
         <f aca="false">IF(OR(B36="",D36=""),"Please add Original Baseline and/or Forecast date if either is missing",IF(B36=C36,"Please delete Rebaseline as same as Original Baseline",IF(D36=B36,"",IF(AND(D36&lt;&gt;B36,G210=""),CONCATENATE(D36-B36," / ",IF(C36&lt;&gt;"",D36-C36,"-")," days change from the Original Baseline / Rebaseline - please provide reason if considered significant change. If Rebaselined, please provide reason"),IF(C36="",CONCATENATE(D36-B36," days change from the Original Baseline"),CONCATENATE(D36-B36," days change from the Original Baseline; ",D36-C36," days change from the rebaseline"))))))</f>
         <v>Please add Original Baseline and/or Forecast date if either is missing</v>
       </c>
-      <c r="H36" s="208"/>
-      <c r="I36" s="208"/>
-      <c r="J36" s="208"/>
-      <c r="K36" s="208"/>
-      <c r="L36" s="208"/>
+      <c r="H36" s="206"/>
+      <c r="I36" s="206"/>
+      <c r="J36" s="206"/>
+      <c r="K36" s="206"/>
+      <c r="L36" s="206"/>
     </row>
     <row r="37" s="19" customFormat="true" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="212" t="s">
+      <c r="A37" s="210" t="s">
         <v>270</v>
       </c>
-      <c r="B37" s="205"/>
-      <c r="C37" s="205"/>
-      <c r="D37" s="205"/>
-      <c r="E37" s="206"/>
-      <c r="F37" s="207"/>
-      <c r="G37" s="208" t="str">
+      <c r="B37" s="203"/>
+      <c r="C37" s="203"/>
+      <c r="D37" s="203"/>
+      <c r="E37" s="204"/>
+      <c r="F37" s="205"/>
+      <c r="G37" s="206" t="str">
         <f aca="false">IF(OR(B37="",D37=""),"Please add Original Baseline and/or Forecast date if either is missing",IF(B37=C37,"Please delete Rebaseline as same as Original Baseline",IF(D37=B37,"",IF(AND(D37&lt;&gt;B37,G211=""),CONCATENATE(D37-B37," / ",IF(C37&lt;&gt;"",D37-C37,"-")," days change from the Original Baseline / Rebaseline - please provide reason if considered significant change. If Rebaselined, please provide reason"),IF(C37="",CONCATENATE(D37-B37," days change from the Original Baseline"),CONCATENATE(D37-B37," days change from the Original Baseline; ",D37-C37," days change from the rebaseline"))))))</f>
         <v>Please add Original Baseline and/or Forecast date if either is missing</v>
       </c>
-      <c r="H37" s="208"/>
-      <c r="I37" s="208"/>
-      <c r="J37" s="208"/>
-      <c r="K37" s="208"/>
-      <c r="L37" s="208"/>
+      <c r="H37" s="206"/>
+      <c r="I37" s="206"/>
+      <c r="J37" s="206"/>
+      <c r="K37" s="206"/>
+      <c r="L37" s="206"/>
     </row>
     <row r="38" s="19" customFormat="true" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="212" t="s">
+      <c r="A38" s="210" t="s">
         <v>271</v>
       </c>
-      <c r="B38" s="205"/>
-      <c r="C38" s="205"/>
-      <c r="D38" s="205"/>
-      <c r="E38" s="206"/>
-      <c r="F38" s="207"/>
-      <c r="G38" s="208" t="str">
+      <c r="B38" s="203"/>
+      <c r="C38" s="203"/>
+      <c r="D38" s="203"/>
+      <c r="E38" s="204"/>
+      <c r="F38" s="205"/>
+      <c r="G38" s="206" t="str">
         <f aca="false">IF(OR(B38="",D38=""),"Please add Original Baseline and/or Forecast date if either is missing",IF(B38=C38,"Please delete Rebaseline as same as Original Baseline",IF(D38=B38,"",IF(AND(D38&lt;&gt;B38,G212=""),CONCATENATE(D38-B38," / ",IF(C38&lt;&gt;"",D38-C38,"-")," days change from the Original Baseline / Rebaseline - please provide reason if considered significant change. If Rebaselined, please provide reason"),IF(C38="",CONCATENATE(D38-B38," days change from the Original Baseline"),CONCATENATE(D38-B38," days change from the Original Baseline; ",D38-C38," days change from the rebaseline"))))))</f>
         <v>Please add Original Baseline and/or Forecast date if either is missing</v>
       </c>
-      <c r="H38" s="208"/>
-      <c r="I38" s="208"/>
-      <c r="J38" s="208"/>
-      <c r="K38" s="208"/>
-      <c r="L38" s="208"/>
+      <c r="H38" s="206"/>
+      <c r="I38" s="206"/>
+      <c r="J38" s="206"/>
+      <c r="K38" s="206"/>
+      <c r="L38" s="206"/>
     </row>
     <row r="39" s="19" customFormat="true" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="212" t="s">
+      <c r="A39" s="210" t="s">
         <v>272</v>
       </c>
-      <c r="B39" s="205"/>
-      <c r="C39" s="205"/>
-      <c r="D39" s="205"/>
-      <c r="E39" s="206"/>
-      <c r="F39" s="207"/>
-      <c r="G39" s="208" t="str">
+      <c r="B39" s="203"/>
+      <c r="C39" s="203"/>
+      <c r="D39" s="203"/>
+      <c r="E39" s="204"/>
+      <c r="F39" s="205"/>
+      <c r="G39" s="206" t="str">
         <f aca="false">IF(OR(B39="",D39=""),"Please add Original Baseline and/or Forecast date if either is missing",IF(B39=C39,"Please delete Rebaseline as same as Original Baseline",IF(D39=B39,"",IF(AND(D39&lt;&gt;B39,G213=""),CONCATENATE(D39-B39," / ",IF(C39&lt;&gt;"",D39-C39,"-")," days change from the Original Baseline / Rebaseline - please provide reason if considered significant change. If Rebaselined, please provide reason"),IF(C39="",CONCATENATE(D39-B39," days change from the Original Baseline"),CONCATENATE(D39-B39," days change from the Original Baseline; ",D39-C39," days change from the rebaseline"))))))</f>
         <v>Please add Original Baseline and/or Forecast date if either is missing</v>
       </c>
-      <c r="H39" s="208"/>
-      <c r="I39" s="208"/>
-      <c r="J39" s="208"/>
-      <c r="K39" s="208"/>
-      <c r="L39" s="208"/>
+      <c r="H39" s="206"/>
+      <c r="I39" s="206"/>
+      <c r="J39" s="206"/>
+      <c r="K39" s="206"/>
+      <c r="L39" s="206"/>
     </row>
     <row r="40" s="19" customFormat="true" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="212" t="s">
+      <c r="A40" s="210" t="s">
         <v>273</v>
       </c>
-      <c r="B40" s="205"/>
-      <c r="C40" s="205"/>
-      <c r="D40" s="205"/>
-      <c r="E40" s="206"/>
-      <c r="F40" s="207"/>
-      <c r="G40" s="208" t="str">
+      <c r="B40" s="203"/>
+      <c r="C40" s="203"/>
+      <c r="D40" s="203"/>
+      <c r="E40" s="204"/>
+      <c r="F40" s="205"/>
+      <c r="G40" s="206" t="str">
         <f aca="false">IF(OR(B40="",D40=""),"Please add Original Baseline and/or Forecast date if either is missing",IF(B40=C40,"Please delete Rebaseline as same as Original Baseline",IF(D40=B40,"",IF(AND(D40&lt;&gt;B40,G214=""),CONCATENATE(D40-B40," / ",IF(C40&lt;&gt;"",D40-C40,"-")," days change from the Original Baseline / Rebaseline - please provide reason if considered significant change. If Rebaselined, please provide reason"),IF(C40="",CONCATENATE(D40-B40," days change from the Original Baseline"),CONCATENATE(D40-B40," days change from the Original Baseline; ",D40-C40," days change from the rebaseline"))))))</f>
         <v>Please add Original Baseline and/or Forecast date if either is missing</v>
       </c>
-      <c r="H40" s="208"/>
-      <c r="I40" s="208"/>
-      <c r="J40" s="208"/>
-      <c r="K40" s="208"/>
-      <c r="L40" s="208"/>
+      <c r="H40" s="206"/>
+      <c r="I40" s="206"/>
+      <c r="J40" s="206"/>
+      <c r="K40" s="206"/>
+      <c r="L40" s="206"/>
     </row>
     <row r="41" s="19" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="4"/>
@@ -11385,28 +11481,28 @@
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
-      <c r="G41" s="208"/>
-      <c r="H41" s="208"/>
-      <c r="I41" s="208"/>
-      <c r="J41" s="208"/>
-      <c r="K41" s="208"/>
-      <c r="L41" s="208"/>
+      <c r="G41" s="206"/>
+      <c r="H41" s="206"/>
+      <c r="I41" s="206"/>
+      <c r="J41" s="206"/>
+      <c r="K41" s="206"/>
+      <c r="L41" s="206"/>
     </row>
     <row r="42" s="19" customFormat="true" ht="190.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="178" t="s">
+      <c r="A42" s="176" t="s">
         <v>274</v>
       </c>
-      <c r="B42" s="207"/>
-      <c r="C42" s="207"/>
-      <c r="D42" s="207"/>
-      <c r="E42" s="207"/>
-      <c r="F42" s="207"/>
-      <c r="G42" s="208"/>
-      <c r="H42" s="208"/>
-      <c r="I42" s="208"/>
-      <c r="J42" s="208"/>
-      <c r="K42" s="208"/>
-      <c r="L42" s="208"/>
+      <c r="B42" s="205"/>
+      <c r="C42" s="205"/>
+      <c r="D42" s="205"/>
+      <c r="E42" s="205"/>
+      <c r="F42" s="205"/>
+      <c r="G42" s="206"/>
+      <c r="H42" s="206"/>
+      <c r="I42" s="206"/>
+      <c r="J42" s="206"/>
+      <c r="K42" s="206"/>
+      <c r="L42" s="206"/>
     </row>
   </sheetData>
   <mergeCells count="39">
@@ -11499,474 +11595,474 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="77.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="213" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="213"/>
-      <c r="C1" s="213"/>
-      <c r="D1" s="213"/>
-      <c r="E1" s="213"/>
-      <c r="F1" s="213"/>
-      <c r="G1" s="213"/>
-      <c r="H1" s="213"/>
-      <c r="I1" s="213"/>
-      <c r="J1" s="176" t="s">
+      <c r="A1" s="211" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="211"/>
+      <c r="C1" s="211"/>
+      <c r="D1" s="211"/>
+      <c r="E1" s="211"/>
+      <c r="F1" s="211"/>
+      <c r="G1" s="211"/>
+      <c r="H1" s="211"/>
+      <c r="I1" s="211"/>
+      <c r="J1" s="174" t="s">
         <v>65</v>
       </c>
-      <c r="K1" s="176"/>
+      <c r="K1" s="174"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="214" t="s">
+      <c r="A2" s="212" t="s">
         <v>275</v>
       </c>
-      <c r="B2" s="214"/>
-      <c r="C2" s="214"/>
+      <c r="B2" s="212"/>
+      <c r="C2" s="212"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="215" t="s">
+      <c r="A3" s="213" t="s">
         <v>276</v>
       </c>
-      <c r="B3" s="216"/>
-      <c r="C3" s="216"/>
+      <c r="B3" s="214"/>
+      <c r="C3" s="214"/>
     </row>
     <row r="4" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="178" t="s">
+      <c r="A4" s="176" t="s">
         <v>277</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>278</v>
       </c>
-      <c r="C4" s="217"/>
-      <c r="D4" s="178" t="s">
+      <c r="C4" s="215"/>
+      <c r="D4" s="176" t="s">
         <v>279</v>
       </c>
-      <c r="E4" s="195"/>
+      <c r="E4" s="193"/>
     </row>
     <row r="5" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B5" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="C5" s="217"/>
+      <c r="C5" s="215"/>
     </row>
     <row r="7" customFormat="false" ht="87" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="178" t="s">
+      <c r="A7" s="176" t="s">
         <v>231</v>
       </c>
-      <c r="B7" s="198" t="s">
+      <c r="B7" s="196" t="s">
         <v>281</v>
       </c>
-      <c r="C7" s="198" t="s">
+      <c r="C7" s="196" t="s">
         <v>233</v>
       </c>
-      <c r="D7" s="198" t="s">
+      <c r="D7" s="196" t="s">
         <v>234</v>
       </c>
-      <c r="E7" s="198" t="s">
+      <c r="E7" s="196" t="s">
         <v>282</v>
       </c>
-      <c r="F7" s="177" t="s">
+      <c r="F7" s="175" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="218" t="s">
+      <c r="A8" s="216" t="s">
         <v>283</v>
       </c>
-      <c r="B8" s="219"/>
-      <c r="C8" s="219"/>
-      <c r="D8" s="219"/>
-      <c r="E8" s="220"/>
-      <c r="F8" s="195"/>
-      <c r="G8" s="221" t="str">
+      <c r="B8" s="217"/>
+      <c r="C8" s="217"/>
+      <c r="D8" s="217"/>
+      <c r="E8" s="218"/>
+      <c r="F8" s="193"/>
+      <c r="G8" s="219" t="str">
         <f aca="false">IF(OR(B9="",D9=""),"Please add Original Baseline and/or Forecast date if either is missing",IF(B9=C9,"Please delete Rebaseline as same as Original Baseline",IF(D9=B9,"",IF(AND(D9&lt;&gt;B9,G141=""),CONCATENATE(D9-B9," / ",IF(C9&lt;&gt;"",D9-C9,"-")," days change from the Original Baseline / Rebaseline - please provide reason if considered significant change. If Rebaselined, please provide reason"),IF(C9="",CONCATENATE(D9-B9," days change from the Original Baseline"),CONCATENATE(D9-B9," days change from the Original Baseline; ",D9-C9," days change from the rebaseline"))))))</f>
         <v>Please add Original Baseline and/or Forecast date if either is missing</v>
       </c>
-      <c r="H8" s="221"/>
-      <c r="I8" s="221"/>
-      <c r="J8" s="221"/>
+      <c r="H8" s="219"/>
+      <c r="I8" s="219"/>
+      <c r="J8" s="219"/>
     </row>
     <row r="9" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="218" t="s">
+      <c r="A9" s="216" t="s">
         <v>284</v>
       </c>
-      <c r="B9" s="219"/>
-      <c r="C9" s="219"/>
-      <c r="D9" s="219"/>
-      <c r="E9" s="220"/>
-      <c r="F9" s="195"/>
-      <c r="G9" s="221" t="str">
+      <c r="B9" s="217"/>
+      <c r="C9" s="217"/>
+      <c r="D9" s="217"/>
+      <c r="E9" s="218"/>
+      <c r="F9" s="193"/>
+      <c r="G9" s="219" t="str">
         <f aca="false">IF(OR(B10="",D10=""),"Please add Original Baseline and/or Forecast date if either is missing",IF(B10=C10,"Please delete Rebaseline as same as Original Baseline",IF(D10=B10,"",IF(AND(D10&lt;&gt;B10,G142=""),CONCATENATE(D10-B10," / ",IF(C10&lt;&gt;"",D10-C10,"-")," days change from the Original Baseline / Rebaseline - please provide reason if considered significant change. If Rebaselined, please provide reason"),IF(C10="",CONCATENATE(D10-B10," days change from the Original Baseline"),CONCATENATE(D10-B10," days change from the Original Baseline; ",D10-C10," days change from the rebaseline"))))))</f>
         <v>Please add Original Baseline and/or Forecast date if either is missing</v>
       </c>
-      <c r="H9" s="221"/>
-      <c r="I9" s="221"/>
-      <c r="J9" s="221"/>
+      <c r="H9" s="219"/>
+      <c r="I9" s="219"/>
+      <c r="J9" s="219"/>
     </row>
     <row r="10" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="218" t="s">
+      <c r="A10" s="216" t="s">
         <v>285</v>
       </c>
-      <c r="B10" s="219"/>
-      <c r="C10" s="219"/>
-      <c r="D10" s="219"/>
-      <c r="E10" s="220"/>
-      <c r="F10" s="195"/>
-      <c r="G10" s="221" t="str">
+      <c r="B10" s="217"/>
+      <c r="C10" s="217"/>
+      <c r="D10" s="217"/>
+      <c r="E10" s="218"/>
+      <c r="F10" s="193"/>
+      <c r="G10" s="219" t="str">
         <f aca="false">IF(OR(B11="",D11=""),"Please add Original Baseline and/or Forecast date if either is missing",IF(B11=C11,"Please delete Rebaseline as same as Original Baseline",IF(D11=B11,"",IF(AND(D11&lt;&gt;B11,G143=""),CONCATENATE(D11-B11," / ",IF(C11&lt;&gt;"",D11-C11,"-")," days change from the Original Baseline / Rebaseline - please provide reason if considered significant change. If Rebaselined, please provide reason"),IF(C11="",CONCATENATE(D11-B11," days change from the Original Baseline"),CONCATENATE(D11-B11," days change from the Original Baseline; ",D11-C11," days change from the rebaseline"))))))</f>
         <v>Please add Original Baseline and/or Forecast date if either is missing</v>
       </c>
-      <c r="H10" s="221"/>
-      <c r="I10" s="221"/>
-      <c r="J10" s="221"/>
+      <c r="H10" s="219"/>
+      <c r="I10" s="219"/>
+      <c r="J10" s="219"/>
     </row>
     <row r="11" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="218" t="s">
+      <c r="A11" s="216" t="s">
         <v>286</v>
       </c>
-      <c r="B11" s="219"/>
-      <c r="C11" s="219"/>
-      <c r="D11" s="219"/>
-      <c r="E11" s="220"/>
-      <c r="F11" s="195"/>
-      <c r="G11" s="221" t="str">
+      <c r="B11" s="217"/>
+      <c r="C11" s="217"/>
+      <c r="D11" s="217"/>
+      <c r="E11" s="218"/>
+      <c r="F11" s="193"/>
+      <c r="G11" s="219" t="str">
         <f aca="false">IF(OR(B12="",D12=""),"Please add Original Baseline and/or Forecast date if either is missing",IF(B12=C12,"Please delete Rebaseline as same as Original Baseline",IF(D12=B12,"",IF(AND(D12&lt;&gt;B12,G144=""),CONCATENATE(D12-B12," / ",IF(C12&lt;&gt;"",D12-C12,"-")," days change from the Original Baseline / Rebaseline - please provide reason if considered significant change. If Rebaselined, please provide reason"),IF(C12="",CONCATENATE(D12-B12," days change from the Original Baseline"),CONCATENATE(D12-B12," days change from the Original Baseline; ",D12-C12," days change from the rebaseline"))))))</f>
         <v>Please add Original Baseline and/or Forecast date if either is missing</v>
       </c>
-      <c r="H11" s="221"/>
-      <c r="I11" s="221"/>
-      <c r="J11" s="221"/>
+      <c r="H11" s="219"/>
+      <c r="I11" s="219"/>
+      <c r="J11" s="219"/>
     </row>
     <row r="12" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="218" t="s">
+      <c r="A12" s="216" t="s">
         <v>287</v>
       </c>
-      <c r="B12" s="219"/>
-      <c r="C12" s="219"/>
-      <c r="D12" s="219"/>
-      <c r="E12" s="220"/>
-      <c r="F12" s="195"/>
-      <c r="G12" s="221" t="str">
+      <c r="B12" s="217"/>
+      <c r="C12" s="217"/>
+      <c r="D12" s="217"/>
+      <c r="E12" s="218"/>
+      <c r="F12" s="193"/>
+      <c r="G12" s="219" t="str">
         <f aca="false">IF(OR(B13="",D13=""),"Please add Original Baseline and/or Forecast date if either is missing",IF(B13=C13,"Please delete Rebaseline as same as Original Baseline",IF(D13=B13,"",IF(AND(D13&lt;&gt;B13,G145=""),CONCATENATE(D13-B13," / ",IF(C13&lt;&gt;"",D13-C13,"-")," days change from the Original Baseline / Rebaseline - please provide reason if considered significant change. If Rebaselined, please provide reason"),IF(C13="",CONCATENATE(D13-B13," days change from the Original Baseline"),CONCATENATE(D13-B13," days change from the Original Baseline; ",D13-C13," days change from the rebaseline"))))))</f>
         <v>Please add Original Baseline and/or Forecast date if either is missing</v>
       </c>
-      <c r="H12" s="221"/>
-      <c r="I12" s="221"/>
-      <c r="J12" s="221"/>
+      <c r="H12" s="219"/>
+      <c r="I12" s="219"/>
+      <c r="J12" s="219"/>
     </row>
     <row r="13" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="218" t="s">
+      <c r="A13" s="216" t="s">
         <v>288</v>
       </c>
-      <c r="B13" s="219"/>
-      <c r="C13" s="219"/>
-      <c r="D13" s="219"/>
-      <c r="E13" s="220"/>
-      <c r="F13" s="195"/>
-      <c r="G13" s="221" t="str">
+      <c r="B13" s="217"/>
+      <c r="C13" s="217"/>
+      <c r="D13" s="217"/>
+      <c r="E13" s="218"/>
+      <c r="F13" s="193"/>
+      <c r="G13" s="219" t="str">
         <f aca="false">IF(OR(B14="",D14=""),"Please add Original Baseline and/or Forecast date if either is missing",IF(B14=C14,"Please delete Rebaseline as same as Original Baseline",IF(D14=B14,"",IF(AND(D14&lt;&gt;B14,G146=""),CONCATENATE(D14-B14," / ",IF(C14&lt;&gt;"",D14-C14,"-")," days change from the Original Baseline / Rebaseline - please provide reason if considered significant change. If Rebaselined, please provide reason"),IF(C14="",CONCATENATE(D14-B14," days change from the Original Baseline"),CONCATENATE(D14-B14," days change from the Original Baseline; ",D14-C14," days change from the rebaseline"))))))</f>
         <v>Please add Original Baseline and/or Forecast date if either is missing</v>
       </c>
-      <c r="H13" s="221"/>
-      <c r="I13" s="221"/>
-      <c r="J13" s="221"/>
+      <c r="H13" s="219"/>
+      <c r="I13" s="219"/>
+      <c r="J13" s="219"/>
     </row>
     <row r="14" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="218" t="s">
+      <c r="A14" s="216" t="s">
         <v>289</v>
       </c>
-      <c r="B14" s="219"/>
-      <c r="C14" s="219"/>
-      <c r="D14" s="219"/>
-      <c r="E14" s="220"/>
-      <c r="F14" s="195"/>
-      <c r="G14" s="221" t="str">
+      <c r="B14" s="217"/>
+      <c r="C14" s="217"/>
+      <c r="D14" s="217"/>
+      <c r="E14" s="218"/>
+      <c r="F14" s="193"/>
+      <c r="G14" s="219" t="str">
         <f aca="false">IF(OR(B15="",D15=""),"Please add Original Baseline and/or Forecast date if either is missing",IF(B15=C15,"Please delete Rebaseline as same as Original Baseline",IF(D15=B15,"",IF(AND(D15&lt;&gt;B15,G147=""),CONCATENATE(D15-B15," / ",IF(C15&lt;&gt;"",D15-C15,"-")," days change from the Original Baseline / Rebaseline - please provide reason if considered significant change. If Rebaselined, please provide reason"),IF(C15="",CONCATENATE(D15-B15," days change from the Original Baseline"),CONCATENATE(D15-B15," days change from the Original Baseline; ",D15-C15," days change from the rebaseline"))))))</f>
         <v>Please add Original Baseline and/or Forecast date if either is missing</v>
       </c>
-      <c r="H14" s="221"/>
-      <c r="I14" s="221"/>
-      <c r="J14" s="221"/>
+      <c r="H14" s="219"/>
+      <c r="I14" s="219"/>
+      <c r="J14" s="219"/>
     </row>
     <row r="15" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="218" t="s">
+      <c r="A15" s="216" t="s">
         <v>290</v>
       </c>
-      <c r="B15" s="219"/>
-      <c r="C15" s="219"/>
-      <c r="D15" s="219"/>
-      <c r="E15" s="220"/>
-      <c r="F15" s="195"/>
-      <c r="G15" s="221" t="str">
+      <c r="B15" s="217"/>
+      <c r="C15" s="217"/>
+      <c r="D15" s="217"/>
+      <c r="E15" s="218"/>
+      <c r="F15" s="193"/>
+      <c r="G15" s="219" t="str">
         <f aca="false">IF(OR(B16="",D16=""),"Please add Original Baseline and/or Forecast date if either is missing",IF(B16=C16,"Please delete Rebaseline as same as Original Baseline",IF(D16=B16,"",IF(AND(D16&lt;&gt;B16,G148=""),CONCATENATE(D16-B16," / ",IF(C16&lt;&gt;"",D16-C16,"-")," days change from the Original Baseline / Rebaseline - please provide reason if considered significant change. If Rebaselined, please provide reason"),IF(C16="",CONCATENATE(D16-B16," days change from the Original Baseline"),CONCATENATE(D16-B16," days change from the Original Baseline; ",D16-C16," days change from the rebaseline"))))))</f>
         <v>Please add Original Baseline and/or Forecast date if either is missing</v>
       </c>
-      <c r="H15" s="221"/>
-      <c r="I15" s="221"/>
-      <c r="J15" s="221"/>
+      <c r="H15" s="219"/>
+      <c r="I15" s="219"/>
+      <c r="J15" s="219"/>
     </row>
     <row r="16" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="212" t="s">
+      <c r="A16" s="210" t="s">
         <v>291</v>
       </c>
-      <c r="B16" s="219"/>
-      <c r="C16" s="219"/>
-      <c r="D16" s="219"/>
-      <c r="E16" s="220"/>
-      <c r="F16" s="195"/>
-      <c r="G16" s="221" t="str">
+      <c r="B16" s="217"/>
+      <c r="C16" s="217"/>
+      <c r="D16" s="217"/>
+      <c r="E16" s="218"/>
+      <c r="F16" s="193"/>
+      <c r="G16" s="219" t="str">
         <f aca="false">IF(OR(B17="",D17=""),"Please add Original Baseline and/or Forecast date if either is missing",IF(B17=C17,"Please delete Rebaseline as same as Original Baseline",IF(D17=B17,"",IF(AND(D17&lt;&gt;B17,G149=""),CONCATENATE(D17-B17," / ",IF(C17&lt;&gt;"",D17-C17,"-")," days change from the Original Baseline / Rebaseline - please provide reason if considered significant change. If Rebaselined, please provide reason"),IF(C17="",CONCATENATE(D17-B17," days change from the Original Baseline"),CONCATENATE(D17-B17," days change from the Original Baseline; ",D17-C17," days change from the rebaseline"))))))</f>
         <v>Please add Original Baseline and/or Forecast date if either is missing</v>
       </c>
-      <c r="H16" s="221"/>
-      <c r="I16" s="221"/>
-      <c r="J16" s="221"/>
+      <c r="H16" s="219"/>
+      <c r="I16" s="219"/>
+      <c r="J16" s="219"/>
     </row>
     <row r="17" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="212" t="s">
+      <c r="A17" s="210" t="s">
         <v>292</v>
       </c>
-      <c r="B17" s="219"/>
-      <c r="C17" s="219"/>
-      <c r="D17" s="219"/>
-      <c r="E17" s="220"/>
-      <c r="F17" s="195"/>
-      <c r="G17" s="221" t="str">
+      <c r="B17" s="217"/>
+      <c r="C17" s="217"/>
+      <c r="D17" s="217"/>
+      <c r="E17" s="218"/>
+      <c r="F17" s="193"/>
+      <c r="G17" s="219" t="str">
         <f aca="false">IF(OR(B18="",D18=""),"Please add Original Baseline and/or Forecast date if either is missing",IF(B18=C18,"Please delete Rebaseline as same as Original Baseline",IF(D18=B18,"",IF(AND(D18&lt;&gt;B18,G150=""),CONCATENATE(D18-B18," / ",IF(C18&lt;&gt;"",D18-C18,"-")," days change from the Original Baseline / Rebaseline - please provide reason if considered significant change. If Rebaselined, please provide reason"),IF(C18="",CONCATENATE(D18-B18," days change from the Original Baseline"),CONCATENATE(D18-B18," days change from the Original Baseline; ",D18-C18," days change from the rebaseline"))))))</f>
         <v>Please add Original Baseline and/or Forecast date if either is missing</v>
       </c>
-      <c r="H17" s="221"/>
-      <c r="I17" s="221"/>
-      <c r="J17" s="221"/>
+      <c r="H17" s="219"/>
+      <c r="I17" s="219"/>
+      <c r="J17" s="219"/>
     </row>
     <row r="18" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="212" t="s">
+      <c r="A18" s="210" t="s">
         <v>293</v>
       </c>
-      <c r="B18" s="219"/>
-      <c r="C18" s="219"/>
-      <c r="D18" s="219"/>
-      <c r="E18" s="220"/>
-      <c r="F18" s="195"/>
-      <c r="G18" s="221" t="str">
+      <c r="B18" s="217"/>
+      <c r="C18" s="217"/>
+      <c r="D18" s="217"/>
+      <c r="E18" s="218"/>
+      <c r="F18" s="193"/>
+      <c r="G18" s="219" t="str">
         <f aca="false">IF(OR(B19="",D19=""),"Please add Original Baseline and/or Forecast date if either is missing",IF(B19=C19,"Please delete Rebaseline as same as Original Baseline",IF(D19=B19,"",IF(AND(D19&lt;&gt;B19,G151=""),CONCATENATE(D19-B19," / ",IF(C19&lt;&gt;"",D19-C19,"-")," days change from the Original Baseline / Rebaseline - please provide reason if considered significant change. If Rebaselined, please provide reason"),IF(C19="",CONCATENATE(D19-B19," days change from the Original Baseline"),CONCATENATE(D19-B19," days change from the Original Baseline; ",D19-C19," days change from the rebaseline"))))))</f>
         <v>Please add Original Baseline and/or Forecast date if either is missing</v>
       </c>
-      <c r="H18" s="221"/>
-      <c r="I18" s="221"/>
-      <c r="J18" s="221"/>
+      <c r="H18" s="219"/>
+      <c r="I18" s="219"/>
+      <c r="J18" s="219"/>
     </row>
     <row r="19" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="212" t="s">
+      <c r="A19" s="210" t="s">
         <v>294</v>
       </c>
-      <c r="B19" s="219"/>
-      <c r="C19" s="219"/>
-      <c r="D19" s="219"/>
-      <c r="E19" s="220"/>
-      <c r="F19" s="195"/>
-      <c r="G19" s="221" t="str">
+      <c r="B19" s="217"/>
+      <c r="C19" s="217"/>
+      <c r="D19" s="217"/>
+      <c r="E19" s="218"/>
+      <c r="F19" s="193"/>
+      <c r="G19" s="219" t="str">
         <f aca="false">IF(OR(B20="",D20=""),"Please add Original Baseline and/or Forecast date if either is missing",IF(B20=C20,"Please delete Rebaseline as same as Original Baseline",IF(D20=B20,"",IF(AND(D20&lt;&gt;B20,G152=""),CONCATENATE(D20-B20," / ",IF(C20&lt;&gt;"",D20-C20,"-")," days change from the Original Baseline / Rebaseline - please provide reason if considered significant change. If Rebaselined, please provide reason"),IF(C20="",CONCATENATE(D20-B20," days change from the Original Baseline"),CONCATENATE(D20-B20," days change from the Original Baseline; ",D20-C20," days change from the rebaseline"))))))</f>
         <v>Please add Original Baseline and/or Forecast date if either is missing</v>
       </c>
-      <c r="H19" s="221"/>
-      <c r="I19" s="221"/>
-      <c r="J19" s="221"/>
+      <c r="H19" s="219"/>
+      <c r="I19" s="219"/>
+      <c r="J19" s="219"/>
     </row>
     <row r="20" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="212" t="s">
+      <c r="A20" s="210" t="s">
         <v>295</v>
       </c>
-      <c r="B20" s="219"/>
-      <c r="C20" s="219"/>
-      <c r="D20" s="219"/>
-      <c r="E20" s="220"/>
-      <c r="F20" s="195"/>
-      <c r="G20" s="221" t="str">
+      <c r="B20" s="217"/>
+      <c r="C20" s="217"/>
+      <c r="D20" s="217"/>
+      <c r="E20" s="218"/>
+      <c r="F20" s="193"/>
+      <c r="G20" s="219" t="str">
         <f aca="false">IF(OR(B21="",D21=""),"Please add Original Baseline and/or Forecast date if either is missing",IF(B21=C21,"Please delete Rebaseline as same as Original Baseline",IF(D21=B21,"",IF(AND(D21&lt;&gt;B21,G153=""),CONCATENATE(D21-B21," / ",IF(C21&lt;&gt;"",D21-C21,"-")," days change from the Original Baseline / Rebaseline - please provide reason if considered significant change. If Rebaselined, please provide reason"),IF(C21="",CONCATENATE(D21-B21," days change from the Original Baseline"),CONCATENATE(D21-B21," days change from the Original Baseline; ",D21-C21," days change from the rebaseline"))))))</f>
         <v>Please add Original Baseline and/or Forecast date if either is missing</v>
       </c>
-      <c r="H20" s="221"/>
-      <c r="I20" s="221"/>
-      <c r="J20" s="221"/>
+      <c r="H20" s="219"/>
+      <c r="I20" s="219"/>
+      <c r="J20" s="219"/>
     </row>
     <row r="21" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="212" t="s">
+      <c r="A21" s="210" t="s">
         <v>296</v>
       </c>
-      <c r="B21" s="219"/>
-      <c r="C21" s="219"/>
-      <c r="D21" s="219"/>
-      <c r="E21" s="220"/>
-      <c r="F21" s="195"/>
-      <c r="G21" s="221" t="str">
+      <c r="B21" s="217"/>
+      <c r="C21" s="217"/>
+      <c r="D21" s="217"/>
+      <c r="E21" s="218"/>
+      <c r="F21" s="193"/>
+      <c r="G21" s="219" t="str">
         <f aca="false">IF(OR(B22="",D22=""),"Please add Original Baseline and/or Forecast date if either is missing",IF(B22=C22,"Please delete Rebaseline as same as Original Baseline",IF(D22=B22,"",IF(AND(D22&lt;&gt;B22,G154=""),CONCATENATE(D22-B22," / ",IF(C22&lt;&gt;"",D22-C22,"-")," days change from the Original Baseline / Rebaseline - please provide reason if considered significant change. If Rebaselined, please provide reason"),IF(C22="",CONCATENATE(D22-B22," days change from the Original Baseline"),CONCATENATE(D22-B22," days change from the Original Baseline; ",D22-C22," days change from the rebaseline"))))))</f>
         <v>Please add Original Baseline and/or Forecast date if either is missing</v>
       </c>
-      <c r="H21" s="221"/>
-      <c r="I21" s="221"/>
-      <c r="J21" s="221"/>
+      <c r="H21" s="219"/>
+      <c r="I21" s="219"/>
+      <c r="J21" s="219"/>
     </row>
     <row r="22" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="212" t="s">
+      <c r="A22" s="210" t="s">
         <v>297</v>
       </c>
-      <c r="B22" s="219"/>
-      <c r="C22" s="219"/>
-      <c r="D22" s="219"/>
-      <c r="E22" s="220"/>
-      <c r="F22" s="195"/>
-      <c r="G22" s="221" t="str">
+      <c r="B22" s="217"/>
+      <c r="C22" s="217"/>
+      <c r="D22" s="217"/>
+      <c r="E22" s="218"/>
+      <c r="F22" s="193"/>
+      <c r="G22" s="219" t="str">
         <f aca="false">IF(OR(B23="",D23=""),"Please add Original Baseline and/or Forecast date if either is missing",IF(B23=C23,"Please delete Rebaseline as same as Original Baseline",IF(D23=B23,"",IF(AND(D23&lt;&gt;B23,G155=""),CONCATENATE(D23-B23," / ",IF(C23&lt;&gt;"",D23-C23,"-")," days change from the Original Baseline / Rebaseline - please provide reason if considered significant change. If Rebaselined, please provide reason"),IF(C23="",CONCATENATE(D23-B23," days change from the Original Baseline"),CONCATENATE(D23-B23," days change from the Original Baseline; ",D23-C23," days change from the rebaseline"))))))</f>
         <v>Please add Original Baseline and/or Forecast date if either is missing</v>
       </c>
-      <c r="H22" s="221"/>
-      <c r="I22" s="221"/>
-      <c r="J22" s="221"/>
+      <c r="H22" s="219"/>
+      <c r="I22" s="219"/>
+      <c r="J22" s="219"/>
     </row>
     <row r="23" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="212" t="s">
+      <c r="A23" s="210" t="s">
         <v>298</v>
       </c>
-      <c r="B23" s="219"/>
-      <c r="C23" s="219"/>
-      <c r="D23" s="219"/>
-      <c r="E23" s="220"/>
-      <c r="F23" s="195"/>
-      <c r="G23" s="221" t="str">
+      <c r="B23" s="217"/>
+      <c r="C23" s="217"/>
+      <c r="D23" s="217"/>
+      <c r="E23" s="218"/>
+      <c r="F23" s="193"/>
+      <c r="G23" s="219" t="str">
         <f aca="false">IF(OR(B24="",D24=""),"Please add Original Baseline and/or Forecast date if either is missing",IF(B24=C24,"Please delete Rebaseline as same as Original Baseline",IF(D24=B24,"",IF(AND(D24&lt;&gt;B24,G156=""),CONCATENATE(D24-B24," / ",IF(C24&lt;&gt;"",D24-C24,"-")," days change from the Original Baseline / Rebaseline - please provide reason if considered significant change. If Rebaselined, please provide reason"),IF(C24="",CONCATENATE(D24-B24," days change from the Original Baseline"),CONCATENATE(D24-B24," days change from the Original Baseline; ",D24-C24," days change from the rebaseline"))))))</f>
         <v>Please add Original Baseline and/or Forecast date if either is missing</v>
       </c>
-      <c r="H23" s="221"/>
-      <c r="I23" s="221"/>
-      <c r="J23" s="221"/>
+      <c r="H23" s="219"/>
+      <c r="I23" s="219"/>
+      <c r="J23" s="219"/>
     </row>
     <row r="24" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="212" t="s">
+      <c r="A24" s="210" t="s">
         <v>299</v>
       </c>
-      <c r="B24" s="219"/>
-      <c r="C24" s="219"/>
-      <c r="D24" s="219"/>
-      <c r="E24" s="220"/>
-      <c r="F24" s="195"/>
-      <c r="G24" s="221" t="str">
+      <c r="B24" s="217"/>
+      <c r="C24" s="217"/>
+      <c r="D24" s="217"/>
+      <c r="E24" s="218"/>
+      <c r="F24" s="193"/>
+      <c r="G24" s="219" t="str">
         <f aca="false">IF(OR(B25="",D25=""),"Please add Original Baseline and/or Forecast date if either is missing",IF(B25=C25,"Please delete Rebaseline as same as Original Baseline",IF(D25=B25,"",IF(AND(D25&lt;&gt;B25,G157=""),CONCATENATE(D25-B25," / ",IF(C25&lt;&gt;"",D25-C25,"-")," days change from the Original Baseline / Rebaseline - please provide reason if considered significant change. If Rebaselined, please provide reason"),IF(C25="",CONCATENATE(D25-B25," days change from the Original Baseline"),CONCATENATE(D25-B25," days change from the Original Baseline; ",D25-C25," days change from the rebaseline"))))))</f>
         <v>Please add Original Baseline and/or Forecast date if either is missing</v>
       </c>
-      <c r="H24" s="221"/>
-      <c r="I24" s="221"/>
-      <c r="J24" s="221"/>
+      <c r="H24" s="219"/>
+      <c r="I24" s="219"/>
+      <c r="J24" s="219"/>
     </row>
     <row r="25" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="212" t="s">
+      <c r="A25" s="210" t="s">
         <v>300</v>
       </c>
-      <c r="B25" s="219"/>
-      <c r="C25" s="219"/>
-      <c r="D25" s="219"/>
-      <c r="E25" s="220"/>
-      <c r="F25" s="195"/>
-      <c r="G25" s="221" t="str">
+      <c r="B25" s="217"/>
+      <c r="C25" s="217"/>
+      <c r="D25" s="217"/>
+      <c r="E25" s="218"/>
+      <c r="F25" s="193"/>
+      <c r="G25" s="219" t="str">
         <f aca="false">IF(OR(B26="",D26=""),"Please add Original Baseline and/or Forecast date if either is missing",IF(B26=C26,"Please delete Rebaseline as same as Original Baseline",IF(D26=B26,"",IF(AND(D26&lt;&gt;B26,G158=""),CONCATENATE(D26-B26," / ",IF(C26&lt;&gt;"",D26-C26,"-")," days change from the Original Baseline / Rebaseline - please provide reason if considered significant change. If Rebaselined, please provide reason"),IF(C26="",CONCATENATE(D26-B26," days change from the Original Baseline"),CONCATENATE(D26-B26," days change from the Original Baseline; ",D26-C26," days change from the rebaseline"))))))</f>
         <v>Please add Original Baseline and/or Forecast date if either is missing</v>
       </c>
-      <c r="H25" s="221"/>
-      <c r="I25" s="221"/>
-      <c r="J25" s="221"/>
+      <c r="H25" s="219"/>
+      <c r="I25" s="219"/>
+      <c r="J25" s="219"/>
     </row>
     <row r="27" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="222" t="s">
+      <c r="A27" s="220" t="s">
         <v>301</v>
       </c>
-      <c r="B27" s="222"/>
-      <c r="C27" s="222"/>
+      <c r="B27" s="220"/>
+      <c r="C27" s="220"/>
     </row>
     <row r="28" customFormat="false" ht="47.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="223" t="s">
+      <c r="A28" s="221" t="s">
         <v>302</v>
       </c>
-      <c r="B28" s="223"/>
-      <c r="C28" s="223"/>
-      <c r="D28" s="223"/>
-      <c r="E28" s="223"/>
-      <c r="F28" s="223"/>
+      <c r="B28" s="221"/>
+      <c r="C28" s="221"/>
+      <c r="D28" s="221"/>
+      <c r="E28" s="221"/>
+      <c r="F28" s="221"/>
     </row>
     <row r="30" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B30" s="224" t="s">
+      <c r="B30" s="222" t="s">
         <v>303</v>
       </c>
-      <c r="C30" s="224"/>
-      <c r="D30" s="195"/>
-      <c r="E30" s="195"/>
-      <c r="F30" s="195"/>
+      <c r="C30" s="222"/>
+      <c r="D30" s="193"/>
+      <c r="E30" s="193"/>
+      <c r="F30" s="193"/>
     </row>
     <row r="31" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="178" t="s">
+      <c r="A31" s="176" t="s">
         <v>304</v>
       </c>
-      <c r="B31" s="178" t="s">
+      <c r="B31" s="176" t="s">
         <v>305</v>
       </c>
-      <c r="C31" s="220"/>
-      <c r="D31" s="195"/>
-      <c r="E31" s="195"/>
-      <c r="F31" s="195"/>
+      <c r="C31" s="218"/>
+      <c r="D31" s="193"/>
+      <c r="E31" s="193"/>
+      <c r="F31" s="193"/>
     </row>
     <row r="32" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="178"/>
-      <c r="B32" s="178" t="s">
+      <c r="A32" s="176"/>
+      <c r="B32" s="176" t="s">
         <v>306</v>
       </c>
-      <c r="C32" s="220"/>
-      <c r="D32" s="195"/>
-      <c r="E32" s="195"/>
-      <c r="F32" s="195"/>
+      <c r="C32" s="218"/>
+      <c r="D32" s="193"/>
+      <c r="E32" s="193"/>
+      <c r="F32" s="193"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D33" s="225"/>
-      <c r="E33" s="226"/>
-      <c r="F33" s="227"/>
+      <c r="D33" s="223"/>
+      <c r="E33" s="224"/>
+      <c r="F33" s="225"/>
     </row>
     <row r="34" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="223" t="s">
+      <c r="A34" s="221" t="s">
         <v>307</v>
       </c>
-      <c r="B34" s="223"/>
-      <c r="C34" s="223"/>
-      <c r="D34" s="223"/>
-      <c r="E34" s="223"/>
-      <c r="F34" s="223"/>
+      <c r="B34" s="221"/>
+      <c r="C34" s="221"/>
+      <c r="D34" s="221"/>
+      <c r="E34" s="221"/>
+      <c r="F34" s="221"/>
     </row>
     <row r="35" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B35" s="178" t="s">
+      <c r="B35" s="176" t="s">
         <v>303</v>
       </c>
-      <c r="C35" s="178"/>
-      <c r="D35" s="228"/>
-      <c r="E35" s="228"/>
-      <c r="F35" s="228"/>
+      <c r="C35" s="176"/>
+      <c r="D35" s="226"/>
+      <c r="E35" s="226"/>
+      <c r="F35" s="226"/>
     </row>
     <row r="36" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="178" t="s">
+      <c r="A36" s="176" t="s">
         <v>304</v>
       </c>
-      <c r="B36" s="178" t="s">
+      <c r="B36" s="176" t="s">
         <v>305</v>
       </c>
-      <c r="C36" s="220"/>
-      <c r="D36" s="228"/>
-      <c r="E36" s="228"/>
-      <c r="F36" s="228"/>
+      <c r="C36" s="218"/>
+      <c r="D36" s="226"/>
+      <c r="E36" s="226"/>
+      <c r="F36" s="226"/>
     </row>
     <row r="37" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="178"/>
-      <c r="B37" s="178" t="s">
+      <c r="A37" s="176"/>
+      <c r="B37" s="176" t="s">
         <v>306</v>
       </c>
-      <c r="C37" s="220"/>
-      <c r="D37" s="228"/>
-      <c r="E37" s="228"/>
-      <c r="F37" s="228"/>
+      <c r="C37" s="218"/>
+      <c r="D37" s="226"/>
+      <c r="E37" s="226"/>
+      <c r="F37" s="226"/>
     </row>
     <row r="38" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
@@ -12036,2186 +12132,2186 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="229" width="9.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="229" width="10.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="229" width="9.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="229" width="9.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="229" width="14.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="229" width="9.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="229" width="13.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="229" width="14.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="229" width="13.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="229" width="10.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="13" style="229" width="14.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="229" width="10.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="16" style="229" width="18.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="18" style="229" width="6.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="229" width="10.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="229" width="9.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="229" width="7.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="229" width="9.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="229" width="11.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="230" width="9.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="230" width="6.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="229" width="12.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="229" width="20.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="229" width="6.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="229" width="9.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="229" width="18.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="229" width="6.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="231" width="6.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="231" width="9.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="227" width="9.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="227" width="10.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="227" width="9.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="227" width="9.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="227" width="14.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="227" width="9.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="227" width="13.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="227" width="14.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="227" width="13.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="227" width="10.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="13" style="227" width="14.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="227" width="10.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="16" style="227" width="18.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="18" style="227" width="6.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="227" width="10.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="227" width="9.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="227" width="7.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="227" width="9.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="227" width="11.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="228" width="9.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="228" width="6.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="227" width="12.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="227" width="20.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="227" width="6.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="227" width="9.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="227" width="18.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="227" width="6.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="229" width="6.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="229" width="9.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="0" width="6.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="231" width="9.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="37" style="231" width="6.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="231" width="14.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="44" style="229" width="6.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="229" width="9.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="37" style="229" width="6.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="229" width="14.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="44" style="227" width="6.88"/>
   </cols>
   <sheetData>
-    <row r="1" s="232" customFormat="true" ht="97" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="232" t="s">
+    <row r="1" s="230" customFormat="true" ht="97" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="230" t="s">
         <v>308</v>
       </c>
-      <c r="B1" s="232" t="s">
+      <c r="B1" s="230" t="s">
         <v>309</v>
       </c>
-      <c r="C1" s="232" t="s">
+      <c r="C1" s="230" t="s">
         <v>310</v>
       </c>
-      <c r="D1" s="232" t="s">
+      <c r="D1" s="230" t="s">
         <v>311</v>
       </c>
-      <c r="E1" s="232" t="s">
+      <c r="E1" s="230" t="s">
         <v>312</v>
       </c>
-      <c r="F1" s="232" t="s">
+      <c r="F1" s="230" t="s">
         <v>313</v>
       </c>
-      <c r="G1" s="232" t="s">
+      <c r="G1" s="230" t="s">
         <v>314</v>
       </c>
-      <c r="H1" s="232" t="s">
+      <c r="H1" s="230" t="s">
         <v>315</v>
       </c>
-      <c r="I1" s="232" t="s">
+      <c r="I1" s="230" t="s">
         <v>316</v>
       </c>
-      <c r="J1" s="232" t="s">
+      <c r="J1" s="230" t="s">
         <v>317</v>
       </c>
-      <c r="K1" s="232" t="s">
+      <c r="K1" s="230" t="s">
         <v>318</v>
       </c>
-      <c r="L1" s="232" t="s">
+      <c r="L1" s="230" t="s">
         <v>319</v>
       </c>
-      <c r="M1" s="232" t="s">
+      <c r="M1" s="230" t="s">
         <v>320</v>
       </c>
-      <c r="N1" s="232" t="s">
+      <c r="N1" s="230" t="s">
         <v>321</v>
       </c>
-      <c r="O1" s="232" t="s">
+      <c r="O1" s="230" t="s">
         <v>322</v>
       </c>
-      <c r="P1" s="232" t="s">
+      <c r="P1" s="230" t="s">
         <v>323</v>
       </c>
-      <c r="Q1" s="232" t="s">
+      <c r="Q1" s="230" t="s">
         <v>324</v>
       </c>
-      <c r="R1" s="232" t="s">
+      <c r="R1" s="230" t="s">
         <v>325</v>
       </c>
-      <c r="S1" s="232" t="s">
+      <c r="S1" s="230" t="s">
         <v>326</v>
       </c>
-      <c r="T1" s="232" t="s">
+      <c r="T1" s="230" t="s">
         <v>327</v>
       </c>
-      <c r="U1" s="232" t="s">
+      <c r="U1" s="230" t="s">
         <v>328</v>
       </c>
-      <c r="V1" s="232" t="s">
+      <c r="V1" s="230" t="s">
         <v>110</v>
       </c>
-      <c r="W1" s="232" t="s">
+      <c r="W1" s="230" t="s">
         <v>329</v>
       </c>
-      <c r="X1" s="232" t="s">
+      <c r="X1" s="230" t="s">
         <v>330</v>
       </c>
-      <c r="Y1" s="232" t="s">
+      <c r="Y1" s="230" t="s">
         <v>331</v>
       </c>
-      <c r="Z1" s="232" t="s">
+      <c r="Z1" s="230" t="s">
         <v>332</v>
       </c>
-      <c r="AA1" s="232" t="s">
+      <c r="AA1" s="230" t="s">
         <v>333</v>
       </c>
-      <c r="AB1" s="232" t="s">
+      <c r="AB1" s="230" t="s">
         <v>334</v>
       </c>
-      <c r="AC1" s="232" t="s">
+      <c r="AC1" s="230" t="s">
         <v>335</v>
       </c>
-      <c r="AD1" s="232" t="s">
+      <c r="AD1" s="230" t="s">
         <v>336</v>
       </c>
-      <c r="AE1" s="232" t="s">
+      <c r="AE1" s="230" t="s">
         <v>337</v>
       </c>
-      <c r="AF1" s="232" t="s">
+      <c r="AF1" s="230" t="s">
         <v>338</v>
       </c>
-      <c r="AG1" s="233" t="s">
+      <c r="AG1" s="231" t="s">
         <v>339</v>
       </c>
-      <c r="AH1" s="234" t="s">
+      <c r="AH1" s="232" t="s">
         <v>12</v>
       </c>
-      <c r="AI1" s="233" t="s">
+      <c r="AI1" s="231" t="s">
         <v>16</v>
       </c>
-      <c r="AJ1" s="233" t="s">
+      <c r="AJ1" s="231" t="s">
         <v>340</v>
       </c>
-      <c r="AK1" s="234" t="s">
+      <c r="AK1" s="232" t="s">
         <v>341</v>
       </c>
-      <c r="AL1" s="233" t="s">
+      <c r="AL1" s="231" t="s">
         <v>13</v>
       </c>
-      <c r="AM1" s="233" t="s">
+      <c r="AM1" s="231" t="s">
         <v>342</v>
       </c>
-      <c r="AN1" s="233" t="s">
+      <c r="AN1" s="231" t="s">
         <v>343</v>
       </c>
-      <c r="AO1" s="233" t="s">
+      <c r="AO1" s="231" t="s">
         <v>344</v>
       </c>
-      <c r="AP1" s="233" t="s">
+      <c r="AP1" s="231" t="s">
         <v>345</v>
       </c>
-      <c r="AQ1" s="233" t="s">
+      <c r="AQ1" s="231" t="s">
         <v>346</v>
       </c>
-      <c r="AR1" s="235" t="s">
+      <c r="AR1" s="233" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="57" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="229" t="s">
+      <c r="A2" s="227" t="s">
         <v>348</v>
       </c>
-      <c r="B2" s="229" t="s">
+      <c r="B2" s="227" t="s">
         <v>349</v>
       </c>
-      <c r="C2" s="229" t="s">
+      <c r="C2" s="227" t="s">
         <v>350</v>
       </c>
-      <c r="D2" s="229" t="s">
+      <c r="D2" s="227" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="229" t="s">
+      <c r="E2" s="227" t="s">
         <v>56</v>
       </c>
-      <c r="F2" s="229" t="s">
+      <c r="F2" s="227" t="s">
         <v>351</v>
       </c>
-      <c r="G2" s="229" t="s">
+      <c r="G2" s="227" t="s">
         <v>352</v>
       </c>
-      <c r="H2" s="229" t="s">
+      <c r="H2" s="227" t="s">
         <v>353</v>
       </c>
-      <c r="I2" s="229" t="s">
+      <c r="I2" s="227" t="s">
         <v>213</v>
       </c>
-      <c r="J2" s="229" t="s">
+      <c r="J2" s="227" t="s">
         <v>213</v>
       </c>
-      <c r="K2" s="229" t="s">
+      <c r="K2" s="227" t="s">
         <v>354</v>
       </c>
-      <c r="L2" s="229" t="s">
+      <c r="L2" s="227" t="s">
         <v>213</v>
       </c>
-      <c r="M2" s="229" t="s">
+      <c r="M2" s="227" t="s">
         <v>355</v>
       </c>
-      <c r="N2" s="229" t="s">
+      <c r="N2" s="227" t="s">
         <v>356</v>
       </c>
-      <c r="O2" s="229" t="s">
+      <c r="O2" s="227" t="s">
         <v>357</v>
       </c>
-      <c r="P2" s="229" t="s">
+      <c r="P2" s="227" t="s">
         <v>358</v>
       </c>
-      <c r="Q2" s="229" t="s">
+      <c r="Q2" s="227" t="s">
         <v>51</v>
       </c>
-      <c r="R2" s="229" t="s">
+      <c r="R2" s="227" t="s">
         <v>83</v>
       </c>
-      <c r="S2" s="229" t="n">
+      <c r="S2" s="227" t="n">
         <v>1995</v>
       </c>
-      <c r="T2" s="236" t="n">
+      <c r="T2" s="234" t="n">
         <v>0.02</v>
       </c>
-      <c r="U2" s="229" t="s">
+      <c r="U2" s="227" t="s">
         <v>359</v>
       </c>
-      <c r="V2" s="229" t="s">
+      <c r="V2" s="227" t="s">
         <v>360</v>
       </c>
-      <c r="W2" s="237" t="s">
+      <c r="W2" s="235" t="s">
         <v>361</v>
       </c>
-      <c r="X2" s="237" t="s">
+      <c r="X2" s="235" t="s">
         <v>362</v>
       </c>
-      <c r="Y2" s="238" t="n">
+      <c r="Y2" s="236" t="n">
         <v>42551</v>
       </c>
-      <c r="Z2" s="239" t="n">
+      <c r="Z2" s="237" t="n">
         <v>0.05</v>
       </c>
-      <c r="AA2" s="229" t="s">
+      <c r="AA2" s="227" t="s">
         <v>363</v>
       </c>
-      <c r="AB2" s="229" t="s">
+      <c r="AB2" s="227" t="s">
         <v>357</v>
       </c>
-      <c r="AC2" s="229" t="s">
+      <c r="AC2" s="227" t="s">
         <v>364</v>
       </c>
-      <c r="AD2" s="229" t="s">
+      <c r="AD2" s="227" t="s">
         <v>357</v>
       </c>
-      <c r="AE2" s="240" t="n">
+      <c r="AE2" s="238" t="n">
         <v>42460</v>
       </c>
-      <c r="AF2" s="241" t="n">
+      <c r="AF2" s="239" t="n">
         <v>3</v>
       </c>
-      <c r="AG2" s="231" t="s">
+      <c r="AG2" s="229" t="s">
         <v>365</v>
       </c>
-      <c r="AH2" s="242" t="s">
+      <c r="AH2" s="240" t="s">
         <v>341</v>
       </c>
-      <c r="AI2" s="231" t="s">
+      <c r="AI2" s="229" t="s">
         <v>366</v>
       </c>
-      <c r="AJ2" s="231" t="s">
+      <c r="AJ2" s="229" t="s">
         <v>367</v>
       </c>
-      <c r="AK2" s="231" t="s">
+      <c r="AK2" s="229" t="s">
         <v>366</v>
       </c>
-      <c r="AL2" s="231" t="s">
+      <c r="AL2" s="229" t="s">
         <v>368</v>
       </c>
-      <c r="AM2" s="231" t="s">
+      <c r="AM2" s="229" t="s">
         <v>369</v>
       </c>
-      <c r="AN2" s="231" t="s">
+      <c r="AN2" s="229" t="s">
         <v>370</v>
       </c>
-      <c r="AO2" s="231" t="s">
+      <c r="AO2" s="229" t="s">
         <v>371</v>
       </c>
-      <c r="AQ2" s="231" t="s">
+      <c r="AQ2" s="229" t="s">
         <v>363</v>
       </c>
-      <c r="AR2" s="242" t="s">
+      <c r="AR2" s="240" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="229" t="s">
+      <c r="A3" s="227" t="s">
         <v>373</v>
       </c>
-      <c r="B3" s="243" t="s">
+      <c r="B3" s="241" t="s">
         <v>374</v>
       </c>
-      <c r="C3" s="229" t="s">
+      <c r="C3" s="227" t="s">
         <v>375</v>
       </c>
-      <c r="D3" s="229" t="s">
+      <c r="D3" s="227" t="s">
         <v>376</v>
       </c>
-      <c r="E3" s="229" t="s">
+      <c r="E3" s="227" t="s">
         <v>377</v>
       </c>
-      <c r="F3" s="229" t="s">
+      <c r="F3" s="227" t="s">
         <v>206</v>
       </c>
-      <c r="G3" s="229" t="s">
+      <c r="G3" s="227" t="s">
         <v>378</v>
       </c>
-      <c r="H3" s="229" t="s">
+      <c r="H3" s="227" t="s">
         <v>379</v>
       </c>
-      <c r="I3" s="229" t="s">
+      <c r="I3" s="227" t="s">
         <v>380</v>
       </c>
-      <c r="J3" s="229" t="s">
+      <c r="J3" s="227" t="s">
         <v>210</v>
       </c>
-      <c r="K3" s="229" t="s">
+      <c r="K3" s="227" t="s">
         <v>381</v>
       </c>
-      <c r="L3" s="229" t="s">
+      <c r="L3" s="227" t="s">
         <v>210</v>
       </c>
-      <c r="M3" s="229" t="s">
+      <c r="M3" s="227" t="s">
         <v>382</v>
       </c>
-      <c r="N3" s="229" t="s">
+      <c r="N3" s="227" t="s">
         <v>383</v>
       </c>
-      <c r="O3" s="229" t="s">
+      <c r="O3" s="227" t="s">
         <v>384</v>
       </c>
-      <c r="P3" s="229" t="s">
+      <c r="P3" s="227" t="s">
         <v>385</v>
       </c>
-      <c r="Q3" s="229" t="s">
+      <c r="Q3" s="227" t="s">
         <v>386</v>
       </c>
-      <c r="R3" s="229" t="s">
+      <c r="R3" s="227" t="s">
         <v>387</v>
       </c>
-      <c r="S3" s="229" t="n">
+      <c r="S3" s="227" t="n">
         <v>1996</v>
       </c>
-      <c r="T3" s="236" t="n">
+      <c r="T3" s="234" t="n">
         <v>0.021</v>
       </c>
-      <c r="U3" s="229" t="s">
+      <c r="U3" s="227" t="s">
         <v>388</v>
       </c>
-      <c r="V3" s="229" t="s">
+      <c r="V3" s="227" t="s">
         <v>352</v>
       </c>
-      <c r="W3" s="237" t="s">
+      <c r="W3" s="235" t="s">
         <v>389</v>
       </c>
-      <c r="X3" s="237" t="s">
+      <c r="X3" s="235" t="s">
         <v>390</v>
       </c>
-      <c r="Y3" s="238" t="n">
+      <c r="Y3" s="236" t="n">
         <v>42643</v>
       </c>
-      <c r="Z3" s="239" t="n">
+      <c r="Z3" s="237" t="n">
         <v>0.1</v>
       </c>
-      <c r="AA3" s="229" t="s">
+      <c r="AA3" s="227" t="s">
         <v>391</v>
       </c>
-      <c r="AB3" s="229" t="s">
+      <c r="AB3" s="227" t="s">
         <v>384</v>
       </c>
-      <c r="AC3" s="229" t="s">
+      <c r="AC3" s="227" t="s">
         <v>392</v>
       </c>
-      <c r="AD3" s="229" t="s">
+      <c r="AD3" s="227" t="s">
         <v>384</v>
       </c>
-      <c r="AE3" s="244" t="n">
+      <c r="AE3" s="242" t="n">
         <v>42461</v>
       </c>
-      <c r="AF3" s="245" t="n">
+      <c r="AF3" s="243" t="n">
         <v>4</v>
       </c>
-      <c r="AG3" s="231" t="s">
+      <c r="AG3" s="229" t="s">
         <v>393</v>
       </c>
-      <c r="AH3" s="242" t="s">
+      <c r="AH3" s="240" t="s">
         <v>13</v>
       </c>
-      <c r="AI3" s="231" t="s">
+      <c r="AI3" s="229" t="s">
         <v>394</v>
       </c>
-      <c r="AJ3" s="231" t="s">
+      <c r="AJ3" s="229" t="s">
         <v>395</v>
       </c>
-      <c r="AK3" s="231" t="s">
+      <c r="AK3" s="229" t="s">
         <v>394</v>
       </c>
-      <c r="AL3" s="231" t="s">
+      <c r="AL3" s="229" t="s">
         <v>396</v>
       </c>
-      <c r="AM3" s="231" t="s">
+      <c r="AM3" s="229" t="s">
         <v>397</v>
       </c>
-      <c r="AN3" s="231" t="s">
+      <c r="AN3" s="229" t="s">
         <v>398</v>
       </c>
-      <c r="AQ3" s="231" t="s">
+      <c r="AQ3" s="229" t="s">
         <v>391</v>
       </c>
-      <c r="AR3" s="242" t="s">
+      <c r="AR3" s="240" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="64.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="229" t="s">
+      <c r="A4" s="227" t="s">
         <v>400</v>
       </c>
-      <c r="B4" s="243" t="s">
+      <c r="B4" s="241" t="s">
         <v>401</v>
       </c>
-      <c r="C4" s="229" t="s">
+      <c r="C4" s="227" t="s">
         <v>402</v>
       </c>
-      <c r="D4" s="229" t="s">
+      <c r="D4" s="227" t="s">
         <v>336</v>
       </c>
-      <c r="E4" s="229" t="s">
+      <c r="E4" s="227" t="s">
         <v>403</v>
       </c>
-      <c r="F4" s="246" t="s">
+      <c r="F4" s="244" t="s">
         <v>404</v>
       </c>
-      <c r="G4" s="229" t="s">
+      <c r="G4" s="227" t="s">
         <v>405</v>
       </c>
-      <c r="H4" s="229" t="s">
+      <c r="H4" s="227" t="s">
         <v>216</v>
       </c>
-      <c r="I4" s="229" t="s">
+      <c r="I4" s="227" t="s">
         <v>210</v>
       </c>
-      <c r="J4" s="229" t="s">
+      <c r="J4" s="227" t="s">
         <v>207</v>
       </c>
-      <c r="K4" s="229" t="s">
+      <c r="K4" s="227" t="s">
         <v>406</v>
       </c>
-      <c r="L4" s="229" t="s">
+      <c r="L4" s="227" t="s">
         <v>207</v>
       </c>
-      <c r="M4" s="229" t="s">
+      <c r="M4" s="227" t="s">
         <v>407</v>
       </c>
-      <c r="N4" s="229" t="s">
+      <c r="N4" s="227" t="s">
         <v>408</v>
       </c>
-      <c r="O4" s="229" t="s">
+      <c r="O4" s="227" t="s">
         <v>409</v>
       </c>
-      <c r="P4" s="229" t="s">
+      <c r="P4" s="227" t="s">
         <v>410</v>
       </c>
-      <c r="Q4" s="229" t="s">
+      <c r="Q4" s="227" t="s">
         <v>411</v>
       </c>
-      <c r="S4" s="229" t="n">
+      <c r="S4" s="227" t="n">
         <v>1997</v>
       </c>
-      <c r="T4" s="236" t="n">
+      <c r="T4" s="234" t="n">
         <v>0.022</v>
       </c>
-      <c r="U4" s="229" t="s">
+      <c r="U4" s="227" t="s">
         <v>412</v>
       </c>
-      <c r="V4" s="229" t="s">
+      <c r="V4" s="227" t="s">
         <v>413</v>
       </c>
-      <c r="W4" s="237" t="s">
+      <c r="W4" s="235" t="s">
         <v>414</v>
       </c>
-      <c r="X4" s="237" t="s">
+      <c r="X4" s="235" t="s">
         <v>414</v>
       </c>
-      <c r="Y4" s="238" t="n">
+      <c r="Y4" s="236" t="n">
         <v>42735</v>
       </c>
-      <c r="Z4" s="239" t="n">
+      <c r="Z4" s="237" t="n">
         <v>0.15</v>
       </c>
-      <c r="AA4" s="229" t="s">
+      <c r="AA4" s="227" t="s">
         <v>415</v>
       </c>
-      <c r="AB4" s="229" t="s">
+      <c r="AB4" s="227" t="s">
         <v>409</v>
       </c>
-      <c r="AC4" s="229" t="s">
+      <c r="AC4" s="227" t="s">
         <v>416</v>
       </c>
-      <c r="AD4" s="229" t="s">
+      <c r="AD4" s="227" t="s">
         <v>409</v>
       </c>
-      <c r="AE4" s="247" t="n">
+      <c r="AE4" s="245" t="n">
         <v>42825</v>
       </c>
-      <c r="AF4" s="248" t="n">
+      <c r="AF4" s="246" t="n">
         <v>5</v>
       </c>
-      <c r="AG4" s="231" t="s">
+      <c r="AG4" s="229" t="s">
         <v>406</v>
       </c>
-      <c r="AH4" s="249" t="s">
+      <c r="AH4" s="247" t="s">
         <v>342</v>
       </c>
-      <c r="AI4" s="231" t="s">
+      <c r="AI4" s="229" t="s">
         <v>417</v>
       </c>
-      <c r="AJ4" s="250" t="s">
+      <c r="AJ4" s="248" t="s">
         <v>418</v>
       </c>
-      <c r="AK4" s="231" t="s">
+      <c r="AK4" s="229" t="s">
         <v>417</v>
       </c>
-      <c r="AL4" s="231" t="s">
+      <c r="AL4" s="229" t="s">
         <v>419</v>
       </c>
-      <c r="AM4" s="231" t="s">
+      <c r="AM4" s="229" t="s">
         <v>420</v>
       </c>
-      <c r="AN4" s="231" t="s">
+      <c r="AN4" s="229" t="s">
         <v>421</v>
       </c>
-      <c r="AQ4" s="231" t="s">
+      <c r="AQ4" s="229" t="s">
         <v>415</v>
       </c>
-      <c r="AR4" s="242" t="s">
+      <c r="AR4" s="240" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="57" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="229" t="s">
+      <c r="A5" s="227" t="s">
         <v>423</v>
       </c>
-      <c r="B5" s="229" t="s">
+      <c r="B5" s="227" t="s">
         <v>424</v>
       </c>
-      <c r="E5" s="229" t="s">
+      <c r="E5" s="227" t="s">
         <v>425</v>
       </c>
-      <c r="F5" s="246" t="s">
+      <c r="F5" s="244" t="s">
         <v>426</v>
       </c>
-      <c r="I5" s="229" t="s">
+      <c r="I5" s="227" t="s">
         <v>427</v>
       </c>
-      <c r="L5" s="229" t="s">
+      <c r="L5" s="227" t="s">
         <v>216</v>
       </c>
-      <c r="M5" s="229" t="s">
+      <c r="M5" s="227" t="s">
         <v>428</v>
       </c>
-      <c r="N5" s="229" t="s">
+      <c r="N5" s="227" t="s">
         <v>429</v>
       </c>
-      <c r="O5" s="229" t="s">
+      <c r="O5" s="227" t="s">
         <v>430</v>
       </c>
-      <c r="P5" s="229" t="s">
+      <c r="P5" s="227" t="s">
         <v>431</v>
       </c>
-      <c r="S5" s="229" t="n">
+      <c r="S5" s="227" t="n">
         <v>1998</v>
       </c>
-      <c r="T5" s="236" t="n">
+      <c r="T5" s="234" t="n">
         <v>0.023</v>
       </c>
-      <c r="U5" s="229" t="s">
+      <c r="U5" s="227" t="s">
         <v>432</v>
       </c>
-      <c r="W5" s="237" t="s">
+      <c r="W5" s="235" t="s">
         <v>105</v>
       </c>
-      <c r="X5" s="237" t="s">
+      <c r="X5" s="235" t="s">
         <v>105</v>
       </c>
-      <c r="Y5" s="238" t="n">
+      <c r="Y5" s="236" t="n">
         <v>42825</v>
       </c>
-      <c r="Z5" s="239" t="n">
+      <c r="Z5" s="237" t="n">
         <v>0.2</v>
       </c>
-      <c r="AA5" s="229" t="s">
+      <c r="AA5" s="227" t="s">
         <v>433</v>
       </c>
-      <c r="AB5" s="229" t="s">
+      <c r="AB5" s="227" t="s">
         <v>430</v>
       </c>
-      <c r="AC5" s="229" t="s">
+      <c r="AC5" s="227" t="s">
         <v>434</v>
       </c>
-      <c r="AD5" s="229" t="s">
+      <c r="AD5" s="227" t="s">
         <v>430</v>
       </c>
-      <c r="AE5" s="244" t="n">
+      <c r="AE5" s="242" t="n">
         <v>42826</v>
       </c>
-      <c r="AF5" s="245" t="n">
+      <c r="AF5" s="243" t="n">
         <v>6</v>
       </c>
-      <c r="AG5" s="231" t="s">
+      <c r="AG5" s="229" t="s">
         <v>381</v>
       </c>
-      <c r="AH5" s="242" t="s">
+      <c r="AH5" s="240" t="s">
         <v>343</v>
       </c>
-      <c r="AI5" s="231" t="s">
+      <c r="AI5" s="229" t="s">
         <v>368</v>
       </c>
-      <c r="AJ5" s="231" t="s">
+      <c r="AJ5" s="229" t="s">
         <v>435</v>
       </c>
-      <c r="AM5" s="231" t="s">
+      <c r="AM5" s="229" t="s">
         <v>436</v>
       </c>
-      <c r="AQ5" s="231" t="s">
+      <c r="AQ5" s="229" t="s">
         <v>433</v>
       </c>
-      <c r="AR5" s="242" t="s">
+      <c r="AR5" s="240" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="83.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="229" t="s">
+      <c r="A6" s="227" t="s">
         <v>438</v>
       </c>
-      <c r="B6" s="243" t="s">
+      <c r="B6" s="241" t="s">
         <v>439</v>
       </c>
-      <c r="E6" s="229" t="s">
+      <c r="E6" s="227" t="s">
         <v>440</v>
       </c>
-      <c r="F6" s="229" t="s">
+      <c r="F6" s="227" t="s">
         <v>441</v>
       </c>
-      <c r="I6" s="229" t="s">
+      <c r="I6" s="227" t="s">
         <v>207</v>
       </c>
-      <c r="M6" s="229" t="s">
+      <c r="M6" s="227" t="s">
         <v>442</v>
       </c>
-      <c r="N6" s="229" t="s">
+      <c r="N6" s="227" t="s">
         <v>443</v>
       </c>
-      <c r="O6" s="229" t="s">
+      <c r="O6" s="227" t="s">
         <v>444</v>
       </c>
-      <c r="P6" s="229" t="s">
+      <c r="P6" s="227" t="s">
         <v>445</v>
       </c>
-      <c r="S6" s="229" t="n">
+      <c r="S6" s="227" t="n">
         <v>1999</v>
       </c>
-      <c r="T6" s="236" t="n">
+      <c r="T6" s="234" t="n">
         <v>0.024</v>
       </c>
-      <c r="U6" s="229" t="s">
+      <c r="U6" s="227" t="s">
         <v>336</v>
       </c>
-      <c r="W6" s="237" t="s">
+      <c r="W6" s="235" t="s">
         <v>106</v>
       </c>
-      <c r="X6" s="237" t="s">
+      <c r="X6" s="235" t="s">
         <v>106</v>
       </c>
-      <c r="Y6" s="238" t="n">
+      <c r="Y6" s="236" t="n">
         <v>42916</v>
       </c>
-      <c r="Z6" s="239" t="n">
+      <c r="Z6" s="237" t="n">
         <v>0.25</v>
       </c>
-      <c r="AB6" s="229" t="s">
+      <c r="AB6" s="227" t="s">
         <v>446</v>
       </c>
-      <c r="AC6" s="229" t="s">
+      <c r="AC6" s="227" t="s">
         <v>447</v>
       </c>
-      <c r="AD6" s="229" t="s">
+      <c r="AD6" s="227" t="s">
         <v>446</v>
       </c>
-      <c r="AE6" s="247" t="n">
+      <c r="AE6" s="245" t="n">
         <v>43190</v>
       </c>
-      <c r="AF6" s="248" t="n">
+      <c r="AF6" s="246" t="n">
         <v>7</v>
       </c>
-      <c r="AG6" s="231" t="s">
+      <c r="AG6" s="229" t="s">
         <v>354</v>
       </c>
-      <c r="AH6" s="242" t="s">
+      <c r="AH6" s="240" t="s">
         <v>344</v>
       </c>
-      <c r="AI6" s="231" t="s">
+      <c r="AI6" s="229" t="s">
         <v>396</v>
       </c>
-      <c r="AJ6" s="231" t="s">
+      <c r="AJ6" s="229" t="s">
         <v>448</v>
       </c>
-      <c r="AR6" s="242"/>
+      <c r="AR6" s="240"/>
     </row>
     <row r="7" customFormat="false" ht="71.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="229" t="s">
+      <c r="A7" s="227" t="s">
         <v>449</v>
       </c>
-      <c r="B7" s="229" t="s">
+      <c r="B7" s="227" t="s">
         <v>450</v>
       </c>
-      <c r="E7" s="229" t="s">
+      <c r="E7" s="227" t="s">
         <v>451</v>
       </c>
-      <c r="F7" s="229" t="s">
+      <c r="F7" s="227" t="s">
         <v>452</v>
       </c>
-      <c r="I7" s="229" t="s">
+      <c r="I7" s="227" t="s">
         <v>453</v>
       </c>
-      <c r="M7" s="229" t="s">
+      <c r="M7" s="227" t="s">
         <v>454</v>
       </c>
-      <c r="N7" s="229" t="s">
+      <c r="N7" s="227" t="s">
         <v>455</v>
       </c>
-      <c r="O7" s="229" t="s">
+      <c r="O7" s="227" t="s">
         <v>456</v>
       </c>
-      <c r="P7" s="229" t="s">
+      <c r="P7" s="227" t="s">
         <v>457</v>
       </c>
-      <c r="S7" s="229" t="n">
+      <c r="S7" s="227" t="n">
         <v>2000</v>
       </c>
-      <c r="T7" s="236" t="n">
+      <c r="T7" s="234" t="n">
         <v>0.025</v>
       </c>
-      <c r="W7" s="237" t="s">
+      <c r="W7" s="235" t="s">
         <v>111</v>
       </c>
-      <c r="X7" s="237" t="s">
+      <c r="X7" s="235" t="s">
         <v>111</v>
       </c>
-      <c r="Y7" s="238" t="n">
+      <c r="Y7" s="236" t="n">
         <v>43008</v>
       </c>
-      <c r="Z7" s="239" t="n">
+      <c r="Z7" s="237" t="n">
         <v>0.3</v>
       </c>
-      <c r="AB7" s="229" t="s">
+      <c r="AB7" s="227" t="s">
         <v>456</v>
       </c>
-      <c r="AC7" s="229" t="s">
+      <c r="AC7" s="227" t="s">
         <v>336</v>
       </c>
-      <c r="AD7" s="229" t="s">
+      <c r="AD7" s="227" t="s">
         <v>456</v>
       </c>
-      <c r="AE7" s="244" t="n">
+      <c r="AE7" s="242" t="n">
         <v>43191</v>
       </c>
-      <c r="AF7" s="245" t="n">
+      <c r="AF7" s="243" t="n">
         <v>8</v>
       </c>
-      <c r="AG7" s="231" t="s">
+      <c r="AG7" s="229" t="s">
         <v>458</v>
       </c>
-      <c r="AH7" s="242" t="s">
+      <c r="AH7" s="240" t="s">
         <v>459</v>
       </c>
-      <c r="AI7" s="231" t="s">
+      <c r="AI7" s="229" t="s">
         <v>419</v>
       </c>
-      <c r="AJ7" s="231" t="s">
+      <c r="AJ7" s="229" t="s">
         <v>460</v>
       </c>
-      <c r="AR7" s="242"/>
+      <c r="AR7" s="240"/>
     </row>
     <row r="8" customFormat="false" ht="77.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="229" t="s">
+      <c r="A8" s="227" t="s">
         <v>461</v>
       </c>
-      <c r="B8" s="229" t="s">
+      <c r="B8" s="227" t="s">
         <v>462</v>
       </c>
-      <c r="E8" s="251"/>
-      <c r="F8" s="229" t="s">
+      <c r="E8" s="249"/>
+      <c r="F8" s="227" t="s">
         <v>433</v>
       </c>
-      <c r="M8" s="229" t="s">
+      <c r="M8" s="227" t="s">
         <v>463</v>
       </c>
-      <c r="N8" s="229" t="s">
+      <c r="N8" s="227" t="s">
         <v>464</v>
       </c>
-      <c r="O8" s="229" t="s">
+      <c r="O8" s="227" t="s">
         <v>465</v>
       </c>
-      <c r="P8" s="229" t="s">
+      <c r="P8" s="227" t="s">
         <v>466</v>
       </c>
-      <c r="S8" s="229" t="n">
+      <c r="S8" s="227" t="n">
         <v>2001</v>
       </c>
-      <c r="T8" s="236" t="n">
+      <c r="T8" s="234" t="n">
         <v>0.026</v>
       </c>
-      <c r="W8" s="237" t="s">
+      <c r="W8" s="235" t="s">
         <v>115</v>
       </c>
-      <c r="X8" s="237" t="s">
+      <c r="X8" s="235" t="s">
         <v>115</v>
       </c>
-      <c r="Y8" s="238" t="n">
+      <c r="Y8" s="236" t="n">
         <v>43100</v>
       </c>
-      <c r="Z8" s="239" t="n">
+      <c r="Z8" s="237" t="n">
         <v>0.35</v>
       </c>
-      <c r="AB8" s="229" t="s">
+      <c r="AB8" s="227" t="s">
         <v>465</v>
       </c>
-      <c r="AD8" s="229" t="s">
+      <c r="AD8" s="227" t="s">
         <v>465</v>
       </c>
-      <c r="AE8" s="247" t="n">
+      <c r="AE8" s="245" t="n">
         <v>43555</v>
       </c>
-      <c r="AF8" s="248" t="n">
+      <c r="AF8" s="246" t="n">
         <v>9</v>
       </c>
-      <c r="AG8" s="231" t="s">
+      <c r="AG8" s="229" t="s">
         <v>467</v>
       </c>
-      <c r="AI8" s="231" t="s">
+      <c r="AI8" s="229" t="s">
         <v>369</v>
       </c>
-      <c r="AJ8" s="231" t="s">
+      <c r="AJ8" s="229" t="s">
         <v>468</v>
       </c>
-      <c r="AQ8" s="242"/>
+      <c r="AQ8" s="240"/>
     </row>
     <row r="9" customFormat="false" ht="71.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="229" t="s">
+      <c r="A9" s="227" t="s">
         <v>469</v>
       </c>
-      <c r="B9" s="243" t="s">
+      <c r="B9" s="241" t="s">
         <v>470</v>
       </c>
-      <c r="F9" s="229" t="s">
+      <c r="F9" s="227" t="s">
         <v>386</v>
       </c>
-      <c r="M9" s="229" t="s">
+      <c r="M9" s="227" t="s">
         <v>471</v>
       </c>
-      <c r="N9" s="229" t="s">
+      <c r="N9" s="227" t="s">
         <v>472</v>
       </c>
-      <c r="O9" s="229" t="s">
+      <c r="O9" s="227" t="s">
         <v>473</v>
       </c>
-      <c r="P9" s="229" t="s">
+      <c r="P9" s="227" t="s">
         <v>474</v>
       </c>
-      <c r="Q9" s="246"/>
-      <c r="S9" s="229" t="n">
+      <c r="Q9" s="244"/>
+      <c r="S9" s="227" t="n">
         <v>2002</v>
       </c>
-      <c r="T9" s="236" t="n">
+      <c r="T9" s="234" t="n">
         <v>0.027</v>
       </c>
-      <c r="W9" s="237" t="s">
+      <c r="W9" s="235" t="s">
         <v>117</v>
       </c>
-      <c r="X9" s="237" t="s">
+      <c r="X9" s="235" t="s">
         <v>117</v>
       </c>
-      <c r="Y9" s="238" t="n">
+      <c r="Y9" s="236" t="n">
         <v>43190</v>
       </c>
-      <c r="Z9" s="239" t="n">
+      <c r="Z9" s="237" t="n">
         <v>0.4</v>
       </c>
-      <c r="AB9" s="229" t="s">
+      <c r="AB9" s="227" t="s">
         <v>473</v>
       </c>
-      <c r="AD9" s="229" t="s">
+      <c r="AD9" s="227" t="s">
         <v>473</v>
       </c>
-      <c r="AE9" s="244" t="n">
+      <c r="AE9" s="242" t="n">
         <v>43556</v>
       </c>
-      <c r="AF9" s="245" t="n">
+      <c r="AF9" s="243" t="n">
         <v>10</v>
       </c>
-      <c r="AG9" s="231" t="s">
+      <c r="AG9" s="229" t="s">
         <v>475</v>
       </c>
-      <c r="AI9" s="231" t="s">
+      <c r="AI9" s="229" t="s">
         <v>397</v>
       </c>
-      <c r="AJ9" s="231" t="s">
+      <c r="AJ9" s="229" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="69.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="229" t="s">
+      <c r="A10" s="227" t="s">
         <v>477</v>
       </c>
-      <c r="B10" s="229" t="s">
+      <c r="B10" s="227" t="s">
         <v>478</v>
       </c>
-      <c r="F10" s="246" t="s">
+      <c r="F10" s="244" t="s">
         <v>479</v>
       </c>
-      <c r="M10" s="229" t="s">
+      <c r="M10" s="227" t="s">
         <v>480</v>
       </c>
-      <c r="N10" s="229" t="s">
+      <c r="N10" s="227" t="s">
         <v>481</v>
       </c>
-      <c r="O10" s="229" t="s">
+      <c r="O10" s="227" t="s">
         <v>336</v>
       </c>
-      <c r="P10" s="229" t="s">
+      <c r="P10" s="227" t="s">
         <v>482</v>
       </c>
-      <c r="S10" s="229" t="n">
+      <c r="S10" s="227" t="n">
         <v>2003</v>
       </c>
-      <c r="T10" s="236" t="n">
+      <c r="T10" s="234" t="n">
         <v>0.028</v>
       </c>
-      <c r="W10" s="252" t="s">
+      <c r="W10" s="250" t="s">
         <v>119</v>
       </c>
-      <c r="X10" s="252" t="s">
+      <c r="X10" s="250" t="s">
         <v>119</v>
       </c>
-      <c r="Z10" s="239" t="n">
+      <c r="Z10" s="237" t="n">
         <v>0.45</v>
       </c>
-      <c r="AB10" s="229" t="s">
+      <c r="AB10" s="227" t="s">
         <v>336</v>
       </c>
-      <c r="AD10" s="229" t="s">
+      <c r="AD10" s="227" t="s">
         <v>364</v>
       </c>
-      <c r="AE10" s="247" t="n">
+      <c r="AE10" s="245" t="n">
         <v>43921</v>
       </c>
-      <c r="AF10" s="248" t="n">
+      <c r="AF10" s="246" t="n">
         <v>11</v>
       </c>
-      <c r="AG10" s="231" t="s">
+      <c r="AG10" s="229" t="s">
         <v>483</v>
       </c>
-      <c r="AI10" s="231" t="s">
+      <c r="AI10" s="229" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="229" t="s">
+      <c r="A11" s="227" t="s">
         <v>484</v>
       </c>
-      <c r="B11" s="229" t="s">
+      <c r="B11" s="227" t="s">
         <v>485</v>
       </c>
-      <c r="F11" s="229" t="s">
+      <c r="F11" s="227" t="s">
         <v>336</v>
       </c>
-      <c r="M11" s="229" t="s">
+      <c r="M11" s="227" t="s">
         <v>486</v>
       </c>
-      <c r="N11" s="229" t="s">
+      <c r="N11" s="227" t="s">
         <v>487</v>
       </c>
-      <c r="P11" s="229" t="s">
+      <c r="P11" s="227" t="s">
         <v>488</v>
       </c>
-      <c r="S11" s="229" t="n">
+      <c r="S11" s="227" t="n">
         <v>2004</v>
       </c>
-      <c r="T11" s="236" t="n">
+      <c r="T11" s="234" t="n">
         <v>0.029</v>
       </c>
-      <c r="W11" s="252" t="s">
+      <c r="W11" s="250" t="s">
         <v>121</v>
       </c>
-      <c r="X11" s="252" t="s">
+      <c r="X11" s="250" t="s">
         <v>121</v>
       </c>
-      <c r="Z11" s="239" t="n">
+      <c r="Z11" s="237" t="n">
         <v>0.5</v>
       </c>
-      <c r="AD11" s="229" t="s">
+      <c r="AD11" s="227" t="s">
         <v>392</v>
       </c>
-      <c r="AE11" s="244" t="n">
+      <c r="AE11" s="242" t="n">
         <v>43922</v>
       </c>
-      <c r="AF11" s="245" t="n">
+      <c r="AF11" s="243" t="n">
         <v>12</v>
       </c>
-      <c r="AG11" s="231" t="s">
+      <c r="AG11" s="229" t="s">
         <v>216</v>
       </c>
-      <c r="AI11" s="231" t="s">
+      <c r="AI11" s="229" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="229" t="s">
+      <c r="A12" s="227" t="s">
         <v>489</v>
       </c>
-      <c r="B12" s="229" t="s">
+      <c r="B12" s="227" t="s">
         <v>490</v>
       </c>
-      <c r="M12" s="229" t="s">
+      <c r="M12" s="227" t="s">
         <v>491</v>
       </c>
-      <c r="N12" s="229" t="s">
+      <c r="N12" s="227" t="s">
         <v>492</v>
       </c>
-      <c r="S12" s="229" t="n">
+      <c r="S12" s="227" t="n">
         <v>2005</v>
       </c>
-      <c r="T12" s="236" t="n">
+      <c r="T12" s="234" t="n">
         <v>0.03</v>
       </c>
-      <c r="W12" s="252" t="s">
+      <c r="W12" s="250" t="s">
         <v>123</v>
       </c>
-      <c r="X12" s="252" t="s">
+      <c r="X12" s="250" t="s">
         <v>123</v>
       </c>
-      <c r="Z12" s="239" t="n">
+      <c r="Z12" s="237" t="n">
         <v>0.55</v>
       </c>
-      <c r="AD12" s="229" t="s">
+      <c r="AD12" s="227" t="s">
         <v>416</v>
       </c>
-      <c r="AE12" s="247" t="n">
+      <c r="AE12" s="245" t="n">
         <v>44286</v>
       </c>
-      <c r="AF12" s="248" t="n">
+      <c r="AF12" s="246" t="n">
         <v>13</v>
       </c>
-      <c r="AI12" s="231" t="s">
+      <c r="AI12" s="229" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="229" t="s">
+      <c r="A13" s="227" t="s">
         <v>493</v>
       </c>
-      <c r="B13" s="243" t="s">
+      <c r="B13" s="241" t="s">
         <v>494</v>
       </c>
-      <c r="M13" s="229" t="s">
+      <c r="M13" s="227" t="s">
         <v>495</v>
       </c>
-      <c r="N13" s="229" t="s">
+      <c r="N13" s="227" t="s">
         <v>496</v>
       </c>
-      <c r="S13" s="229" t="n">
+      <c r="S13" s="227" t="n">
         <v>2006</v>
       </c>
-      <c r="T13" s="236" t="n">
+      <c r="T13" s="234" t="n">
         <v>0.031</v>
       </c>
-      <c r="W13" s="252" t="s">
+      <c r="W13" s="250" t="s">
         <v>124</v>
       </c>
-      <c r="X13" s="252" t="s">
+      <c r="X13" s="250" t="s">
         <v>124</v>
       </c>
-      <c r="Z13" s="239" t="n">
+      <c r="Z13" s="237" t="n">
         <v>0.6</v>
       </c>
-      <c r="AD13" s="229" t="s">
+      <c r="AD13" s="227" t="s">
         <v>434</v>
       </c>
-      <c r="AE13" s="244" t="n">
+      <c r="AE13" s="242" t="n">
         <v>44287</v>
       </c>
-      <c r="AF13" s="245" t="n">
+      <c r="AF13" s="243" t="n">
         <v>14</v>
       </c>
-      <c r="AI13" s="231" t="s">
+      <c r="AI13" s="229" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="64.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="229" t="s">
+      <c r="A14" s="227" t="s">
         <v>497</v>
       </c>
-      <c r="B14" s="252" t="s">
+      <c r="B14" s="250" t="s">
         <v>498</v>
       </c>
-      <c r="M14" s="229" t="s">
+      <c r="M14" s="227" t="s">
         <v>499</v>
       </c>
-      <c r="N14" s="229" t="s">
+      <c r="N14" s="227" t="s">
         <v>500</v>
       </c>
-      <c r="S14" s="229" t="n">
+      <c r="S14" s="227" t="n">
         <v>2007</v>
       </c>
-      <c r="T14" s="236" t="n">
+      <c r="T14" s="234" t="n">
         <v>0.032</v>
       </c>
-      <c r="W14" s="252" t="s">
+      <c r="W14" s="250" t="s">
         <v>125</v>
       </c>
-      <c r="X14" s="252" t="s">
+      <c r="X14" s="250" t="s">
         <v>125</v>
       </c>
-      <c r="Z14" s="239" t="n">
+      <c r="Z14" s="237" t="n">
         <v>0.65</v>
       </c>
-      <c r="AD14" s="229" t="s">
+      <c r="AD14" s="227" t="s">
         <v>447</v>
       </c>
-      <c r="AE14" s="247" t="n">
+      <c r="AE14" s="245" t="n">
         <v>44651</v>
       </c>
-      <c r="AF14" s="248" t="n">
+      <c r="AF14" s="246" t="n">
         <v>15</v>
       </c>
-      <c r="AI14" s="231" t="s">
+      <c r="AI14" s="229" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="51.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="229" t="s">
+      <c r="A15" s="227" t="s">
         <v>501</v>
       </c>
-      <c r="B15" s="252" t="s">
+      <c r="B15" s="250" t="s">
         <v>502</v>
       </c>
-      <c r="M15" s="229" t="s">
+      <c r="M15" s="227" t="s">
         <v>503</v>
       </c>
-      <c r="N15" s="229" t="s">
+      <c r="N15" s="227" t="s">
         <v>504</v>
       </c>
-      <c r="S15" s="229" t="n">
+      <c r="S15" s="227" t="n">
         <v>2008</v>
       </c>
-      <c r="T15" s="236" t="n">
+      <c r="T15" s="234" t="n">
         <v>0.033</v>
       </c>
-      <c r="W15" s="252" t="s">
+      <c r="W15" s="250" t="s">
         <v>126</v>
       </c>
-      <c r="X15" s="252" t="s">
+      <c r="X15" s="250" t="s">
         <v>126</v>
       </c>
-      <c r="Z15" s="239" t="n">
+      <c r="Z15" s="237" t="n">
         <v>0.7</v>
       </c>
-      <c r="AD15" s="229" t="s">
+      <c r="AD15" s="227" t="s">
         <v>336</v>
       </c>
-      <c r="AE15" s="244" t="n">
+      <c r="AE15" s="242" t="n">
         <v>44652</v>
       </c>
-      <c r="AF15" s="245" t="n">
+      <c r="AF15" s="243" t="n">
         <v>16</v>
       </c>
-      <c r="AI15" s="231" t="s">
+      <c r="AI15" s="229" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="229" t="s">
+      <c r="A16" s="227" t="s">
         <v>505</v>
       </c>
-      <c r="B16" s="253" t="s">
+      <c r="B16" s="251" t="s">
         <v>506</v>
       </c>
-      <c r="C16" s="237"/>
-      <c r="M16" s="229" t="s">
+      <c r="C16" s="235"/>
+      <c r="M16" s="227" t="s">
         <v>507</v>
       </c>
-      <c r="N16" s="229" t="s">
+      <c r="N16" s="227" t="s">
         <v>508</v>
       </c>
-      <c r="S16" s="229" t="n">
+      <c r="S16" s="227" t="n">
         <v>2009</v>
       </c>
-      <c r="T16" s="236" t="n">
+      <c r="T16" s="234" t="n">
         <v>0.034</v>
       </c>
-      <c r="W16" s="252" t="s">
+      <c r="W16" s="250" t="s">
         <v>127</v>
       </c>
-      <c r="X16" s="252" t="s">
+      <c r="X16" s="250" t="s">
         <v>127</v>
       </c>
-      <c r="Z16" s="239" t="n">
+      <c r="Z16" s="237" t="n">
         <v>0.75</v>
       </c>
-      <c r="AD16" s="229" t="s">
+      <c r="AD16" s="227" t="s">
         <v>509</v>
       </c>
-      <c r="AE16" s="247" t="n">
+      <c r="AE16" s="245" t="n">
         <v>45016</v>
       </c>
-      <c r="AF16" s="248" t="n">
+      <c r="AF16" s="246" t="n">
         <v>17</v>
       </c>
-      <c r="AI16" s="229"/>
+      <c r="AI16" s="227"/>
     </row>
     <row r="17" customFormat="false" ht="57" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="229" t="s">
+      <c r="A17" s="227" t="s">
         <v>510</v>
       </c>
-      <c r="B17" s="253" t="s">
+      <c r="B17" s="251" t="s">
         <v>511</v>
       </c>
-      <c r="M17" s="229" t="s">
+      <c r="M17" s="227" t="s">
         <v>512</v>
       </c>
-      <c r="N17" s="229" t="s">
+      <c r="N17" s="227" t="s">
         <v>513</v>
       </c>
-      <c r="S17" s="229" t="n">
+      <c r="S17" s="227" t="n">
         <v>2010</v>
       </c>
-      <c r="T17" s="236" t="n">
+      <c r="T17" s="234" t="n">
         <v>0.035</v>
       </c>
-      <c r="W17" s="252" t="s">
+      <c r="W17" s="250" t="s">
         <v>128</v>
       </c>
-      <c r="X17" s="252" t="s">
+      <c r="X17" s="250" t="s">
         <v>128</v>
       </c>
-      <c r="Z17" s="239" t="n">
+      <c r="Z17" s="237" t="n">
         <v>0.8</v>
       </c>
-      <c r="AD17" s="229" t="s">
+      <c r="AD17" s="227" t="s">
         <v>514</v>
       </c>
-      <c r="AE17" s="254" t="n">
+      <c r="AE17" s="252" t="n">
         <v>45017</v>
       </c>
-      <c r="AF17" s="229" t="n">
+      <c r="AF17" s="227" t="n">
         <v>18</v>
       </c>
-      <c r="AI17" s="229"/>
+      <c r="AI17" s="227"/>
     </row>
     <row r="18" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="229" t="s">
+      <c r="B18" s="227" t="s">
         <v>348</v>
       </c>
-      <c r="C18" s="237"/>
-      <c r="M18" s="229" t="s">
+      <c r="C18" s="235"/>
+      <c r="M18" s="227" t="s">
         <v>515</v>
       </c>
-      <c r="N18" s="229" t="s">
+      <c r="N18" s="227" t="s">
         <v>516</v>
       </c>
-      <c r="S18" s="229" t="n">
+      <c r="S18" s="227" t="n">
         <v>2011</v>
       </c>
-      <c r="T18" s="236" t="n">
+      <c r="T18" s="234" t="n">
         <v>0.036</v>
       </c>
-      <c r="W18" s="252" t="s">
+      <c r="W18" s="250" t="s">
         <v>517</v>
       </c>
-      <c r="X18" s="252" t="s">
+      <c r="X18" s="250" t="s">
         <v>517</v>
       </c>
-      <c r="Z18" s="239" t="n">
+      <c r="Z18" s="237" t="n">
         <v>0.85</v>
       </c>
-      <c r="AD18" s="229" t="s">
+      <c r="AD18" s="227" t="s">
         <v>518</v>
       </c>
-      <c r="AE18" s="254" t="n">
+      <c r="AE18" s="252" t="n">
         <v>45382</v>
       </c>
-      <c r="AF18" s="229" t="n">
+      <c r="AF18" s="227" t="n">
         <v>19</v>
       </c>
-      <c r="AI18" s="229"/>
+      <c r="AI18" s="227"/>
     </row>
     <row r="19" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="229" t="s">
+      <c r="B19" s="227" t="s">
         <v>373</v>
       </c>
-      <c r="M19" s="229" t="s">
+      <c r="M19" s="227" t="s">
         <v>519</v>
       </c>
-      <c r="N19" s="229" t="s">
+      <c r="N19" s="227" t="s">
         <v>520</v>
       </c>
-      <c r="S19" s="229" t="n">
+      <c r="S19" s="227" t="n">
         <v>2012</v>
       </c>
-      <c r="T19" s="236" t="n">
+      <c r="T19" s="234" t="n">
         <v>0.037</v>
       </c>
-      <c r="W19" s="252" t="s">
+      <c r="W19" s="250" t="s">
         <v>521</v>
       </c>
-      <c r="X19" s="252" t="s">
+      <c r="X19" s="250" t="s">
         <v>521</v>
       </c>
-      <c r="Z19" s="239" t="n">
+      <c r="Z19" s="237" t="n">
         <v>0.9</v>
       </c>
-      <c r="AD19" s="229" t="s">
+      <c r="AD19" s="227" t="s">
         <v>522</v>
       </c>
-      <c r="AE19" s="254" t="n">
+      <c r="AE19" s="252" t="n">
         <v>45383</v>
       </c>
-      <c r="AF19" s="229" t="n">
+      <c r="AF19" s="227" t="n">
         <v>20</v>
       </c>
-      <c r="AI19" s="229"/>
+      <c r="AI19" s="227"/>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="229" t="s">
+      <c r="B20" s="227" t="s">
         <v>400</v>
       </c>
-      <c r="M20" s="229" t="s">
+      <c r="M20" s="227" t="s">
         <v>523</v>
       </c>
-      <c r="N20" s="229" t="s">
+      <c r="N20" s="227" t="s">
         <v>524</v>
       </c>
-      <c r="S20" s="229" t="n">
+      <c r="S20" s="227" t="n">
         <v>2013</v>
       </c>
-      <c r="T20" s="236" t="n">
+      <c r="T20" s="234" t="n">
         <v>0.038</v>
       </c>
-      <c r="W20" s="252" t="s">
+      <c r="W20" s="250" t="s">
         <v>525</v>
       </c>
-      <c r="X20" s="252" t="s">
+      <c r="X20" s="250" t="s">
         <v>525</v>
       </c>
-      <c r="Z20" s="239" t="n">
+      <c r="Z20" s="237" t="n">
         <v>0.95</v>
       </c>
-      <c r="AE20" s="254" t="n">
+      <c r="AE20" s="252" t="n">
         <v>45747</v>
       </c>
-      <c r="AF20" s="229" t="n">
+      <c r="AF20" s="227" t="n">
         <v>21</v>
       </c>
-      <c r="AI20" s="229"/>
+      <c r="AI20" s="227"/>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="229" t="s">
+      <c r="B21" s="227" t="s">
         <v>423</v>
       </c>
-      <c r="M21" s="229" t="s">
+      <c r="M21" s="227" t="s">
         <v>526</v>
       </c>
-      <c r="N21" s="229" t="s">
+      <c r="N21" s="227" t="s">
         <v>527</v>
       </c>
-      <c r="S21" s="229" t="n">
+      <c r="S21" s="227" t="n">
         <v>2014</v>
       </c>
-      <c r="T21" s="236" t="n">
+      <c r="T21" s="234" t="n">
         <v>0.039</v>
       </c>
-      <c r="W21" s="252" t="s">
+      <c r="W21" s="250" t="s">
         <v>528</v>
       </c>
-      <c r="X21" s="252" t="s">
+      <c r="X21" s="250" t="s">
         <v>528</v>
       </c>
-      <c r="Z21" s="239" t="n">
+      <c r="Z21" s="237" t="n">
         <v>1</v>
       </c>
-      <c r="AE21" s="254" t="n">
+      <c r="AE21" s="252" t="n">
         <v>45748</v>
       </c>
-      <c r="AF21" s="229" t="n">
+      <c r="AF21" s="227" t="n">
         <v>22</v>
       </c>
-      <c r="AI21" s="229"/>
+      <c r="AI21" s="227"/>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="229" t="s">
+      <c r="B22" s="227" t="s">
         <v>438</v>
       </c>
-      <c r="M22" s="229" t="s">
+      <c r="M22" s="227" t="s">
         <v>529</v>
       </c>
-      <c r="N22" s="229" t="s">
+      <c r="N22" s="227" t="s">
         <v>530</v>
       </c>
-      <c r="S22" s="229" t="n">
+      <c r="S22" s="227" t="n">
         <v>2015</v>
       </c>
-      <c r="T22" s="236" t="n">
+      <c r="T22" s="234" t="n">
         <v>0.04</v>
       </c>
-      <c r="W22" s="229" t="s">
+      <c r="W22" s="227" t="s">
         <v>531</v>
       </c>
-      <c r="X22" s="229" t="s">
+      <c r="X22" s="227" t="s">
         <v>531</v>
       </c>
-      <c r="Z22" s="239"/>
-      <c r="AE22" s="254" t="n">
+      <c r="Z22" s="237"/>
+      <c r="AE22" s="252" t="n">
         <v>46112</v>
       </c>
-      <c r="AF22" s="229" t="n">
+      <c r="AF22" s="227" t="n">
         <v>23</v>
       </c>
-      <c r="AI22" s="229"/>
+      <c r="AI22" s="227"/>
     </row>
     <row r="23" customFormat="false" ht="57" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="229" t="s">
+      <c r="B23" s="227" t="s">
         <v>449</v>
       </c>
-      <c r="M23" s="229" t="s">
+      <c r="M23" s="227" t="s">
         <v>532</v>
       </c>
-      <c r="N23" s="229" t="s">
+      <c r="N23" s="227" t="s">
         <v>533</v>
       </c>
-      <c r="Q23" s="246"/>
-      <c r="S23" s="229" t="n">
+      <c r="Q23" s="244"/>
+      <c r="S23" s="227" t="n">
         <v>2016</v>
       </c>
-      <c r="T23" s="236" t="n">
+      <c r="T23" s="234" t="n">
         <v>0.041</v>
       </c>
-      <c r="W23" s="229" t="s">
+      <c r="W23" s="227" t="s">
         <v>534</v>
       </c>
-      <c r="X23" s="229" t="s">
+      <c r="X23" s="227" t="s">
         <v>534</v>
       </c>
-      <c r="Z23" s="239"/>
-      <c r="AI23" s="229"/>
+      <c r="Z23" s="237"/>
+      <c r="AI23" s="227"/>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="229" t="s">
+      <c r="B24" s="227" t="s">
         <v>461</v>
       </c>
-      <c r="M24" s="229" t="s">
+      <c r="M24" s="227" t="s">
         <v>535</v>
       </c>
-      <c r="N24" s="229" t="s">
+      <c r="N24" s="227" t="s">
         <v>536</v>
       </c>
-      <c r="S24" s="229" t="n">
+      <c r="S24" s="227" t="n">
         <v>2017</v>
       </c>
-      <c r="T24" s="236" t="n">
+      <c r="T24" s="234" t="n">
         <v>0.042</v>
       </c>
-      <c r="W24" s="229" t="s">
+      <c r="W24" s="227" t="s">
         <v>537</v>
       </c>
-      <c r="X24" s="229" t="s">
+      <c r="X24" s="227" t="s">
         <v>537</v>
       </c>
-      <c r="Z24" s="239"/>
-      <c r="AI24" s="229"/>
+      <c r="Z24" s="237"/>
+      <c r="AI24" s="227"/>
     </row>
     <row r="25" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="229" t="s">
+      <c r="B25" s="227" t="s">
         <v>469</v>
       </c>
-      <c r="M25" s="229" t="s">
+      <c r="M25" s="227" t="s">
         <v>538</v>
       </c>
-      <c r="N25" s="229" t="s">
+      <c r="N25" s="227" t="s">
         <v>539</v>
       </c>
-      <c r="S25" s="229" t="n">
+      <c r="S25" s="227" t="n">
         <v>2018</v>
       </c>
-      <c r="T25" s="236" t="n">
+      <c r="T25" s="234" t="n">
         <v>0.043</v>
       </c>
-      <c r="W25" s="229" t="s">
+      <c r="W25" s="227" t="s">
         <v>540</v>
       </c>
-      <c r="X25" s="229" t="s">
+      <c r="X25" s="227" t="s">
         <v>540</v>
       </c>
-      <c r="Z25" s="239"/>
-      <c r="AI25" s="229"/>
+      <c r="Z25" s="237"/>
+      <c r="AI25" s="227"/>
     </row>
     <row r="26" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="229" t="s">
+      <c r="B26" s="227" t="s">
         <v>477</v>
       </c>
-      <c r="M26" s="229" t="s">
+      <c r="M26" s="227" t="s">
         <v>541</v>
       </c>
-      <c r="N26" s="229" t="s">
+      <c r="N26" s="227" t="s">
         <v>542</v>
       </c>
-      <c r="S26" s="229" t="n">
+      <c r="S26" s="227" t="n">
         <v>2019</v>
       </c>
-      <c r="T26" s="236" t="n">
+      <c r="T26" s="234" t="n">
         <v>0.044</v>
       </c>
-      <c r="W26" s="229" t="s">
+      <c r="W26" s="227" t="s">
         <v>543</v>
       </c>
-      <c r="X26" s="229" t="s">
+      <c r="X26" s="227" t="s">
         <v>543</v>
       </c>
-      <c r="Z26" s="239"/>
-      <c r="AI26" s="229"/>
+      <c r="Z26" s="237"/>
+      <c r="AI26" s="227"/>
     </row>
     <row r="27" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="229" t="s">
+      <c r="B27" s="227" t="s">
         <v>484</v>
       </c>
-      <c r="M27" s="229" t="s">
+      <c r="M27" s="227" t="s">
         <v>544</v>
       </c>
-      <c r="N27" s="229" t="s">
+      <c r="N27" s="227" t="s">
         <v>545</v>
       </c>
-      <c r="S27" s="229" t="n">
+      <c r="S27" s="227" t="n">
         <v>2020</v>
       </c>
-      <c r="T27" s="236" t="n">
+      <c r="T27" s="234" t="n">
         <v>0.045</v>
       </c>
-      <c r="W27" s="229" t="s">
+      <c r="W27" s="227" t="s">
         <v>546</v>
       </c>
-      <c r="X27" s="229" t="s">
+      <c r="X27" s="227" t="s">
         <v>546</v>
       </c>
-      <c r="Z27" s="239"/>
-      <c r="AI27" s="229"/>
+      <c r="Z27" s="237"/>
+      <c r="AI27" s="227"/>
     </row>
     <row r="28" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="229" t="s">
+      <c r="B28" s="227" t="s">
         <v>489</v>
       </c>
-      <c r="M28" s="229" t="s">
+      <c r="M28" s="227" t="s">
         <v>547</v>
       </c>
-      <c r="N28" s="229" t="s">
+      <c r="N28" s="227" t="s">
         <v>548</v>
       </c>
-      <c r="T28" s="236" t="n">
+      <c r="T28" s="234" t="n">
         <v>0.046</v>
       </c>
-      <c r="W28" s="229" t="s">
+      <c r="W28" s="227" t="s">
         <v>549</v>
       </c>
-      <c r="X28" s="229" t="s">
+      <c r="X28" s="227" t="s">
         <v>549</v>
       </c>
-      <c r="Z28" s="239"/>
-      <c r="AI28" s="229"/>
+      <c r="Z28" s="237"/>
+      <c r="AI28" s="227"/>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="229" t="s">
+      <c r="B29" s="227" t="s">
         <v>493</v>
       </c>
-      <c r="M29" s="229" t="s">
+      <c r="M29" s="227" t="s">
         <v>550</v>
       </c>
-      <c r="T29" s="236" t="n">
+      <c r="T29" s="234" t="n">
         <v>0.047</v>
       </c>
-      <c r="W29" s="229" t="s">
+      <c r="W29" s="227" t="s">
         <v>551</v>
       </c>
-      <c r="X29" s="229" t="s">
+      <c r="X29" s="227" t="s">
         <v>551</v>
       </c>
-      <c r="Z29" s="239"/>
-      <c r="AI29" s="229"/>
+      <c r="Z29" s="237"/>
+      <c r="AI29" s="227"/>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="229" t="s">
+      <c r="B30" s="227" t="s">
         <v>497</v>
       </c>
-      <c r="M30" s="246" t="s">
+      <c r="M30" s="244" t="s">
         <v>336</v>
       </c>
-      <c r="T30" s="236" t="n">
+      <c r="T30" s="234" t="n">
         <v>0.048</v>
       </c>
-      <c r="W30" s="229" t="s">
+      <c r="W30" s="227" t="s">
         <v>552</v>
       </c>
-      <c r="X30" s="229" t="s">
+      <c r="X30" s="227" t="s">
         <v>552</v>
       </c>
-      <c r="Z30" s="239"/>
-      <c r="AI30" s="229"/>
+      <c r="Z30" s="237"/>
+      <c r="AI30" s="227"/>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="229" t="s">
+      <c r="B31" s="227" t="s">
         <v>501</v>
       </c>
-      <c r="T31" s="236" t="n">
+      <c r="T31" s="234" t="n">
         <v>0.049</v>
       </c>
-      <c r="W31" s="229" t="s">
+      <c r="W31" s="227" t="s">
         <v>553</v>
       </c>
-      <c r="X31" s="229" t="s">
+      <c r="X31" s="227" t="s">
         <v>553</v>
       </c>
-      <c r="Z31" s="239"/>
-      <c r="AI31" s="229"/>
+      <c r="Z31" s="237"/>
+      <c r="AI31" s="227"/>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="229" t="s">
+      <c r="B32" s="227" t="s">
         <v>505</v>
       </c>
-      <c r="C32" s="237"/>
-      <c r="T32" s="236" t="n">
+      <c r="C32" s="235"/>
+      <c r="T32" s="234" t="n">
         <v>0.05</v>
       </c>
-      <c r="W32" s="229" t="s">
+      <c r="W32" s="227" t="s">
         <v>554</v>
       </c>
-      <c r="X32" s="229" t="s">
+      <c r="X32" s="227" t="s">
         <v>554</v>
       </c>
-      <c r="Z32" s="239"/>
-      <c r="AI32" s="229"/>
+      <c r="Z32" s="237"/>
+      <c r="AI32" s="227"/>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="229" t="s">
+      <c r="B33" s="227" t="s">
         <v>510</v>
       </c>
-      <c r="W33" s="229" t="s">
+      <c r="W33" s="227" t="s">
         <v>555</v>
       </c>
-      <c r="X33" s="229" t="s">
+      <c r="X33" s="227" t="s">
         <v>555</v>
       </c>
-      <c r="Z33" s="239"/>
-      <c r="AI33" s="229"/>
+      <c r="Z33" s="237"/>
+      <c r="AI33" s="227"/>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="255"/>
-      <c r="W34" s="229" t="s">
+      <c r="B34" s="253"/>
+      <c r="W34" s="227" t="s">
         <v>556</v>
       </c>
-      <c r="X34" s="229" t="s">
+      <c r="X34" s="227" t="s">
         <v>556</v>
       </c>
-      <c r="Z34" s="239"/>
-      <c r="AI34" s="229"/>
+      <c r="Z34" s="237"/>
+      <c r="AI34" s="227"/>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="255"/>
-      <c r="W35" s="229" t="s">
+      <c r="B35" s="253"/>
+      <c r="W35" s="227" t="s">
         <v>557</v>
       </c>
-      <c r="X35" s="229" t="s">
+      <c r="X35" s="227" t="s">
         <v>557</v>
       </c>
-      <c r="Z35" s="239"/>
-      <c r="AI35" s="229"/>
+      <c r="Z35" s="237"/>
+      <c r="AI35" s="227"/>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="255"/>
-      <c r="W36" s="229" t="s">
+      <c r="B36" s="253"/>
+      <c r="W36" s="227" t="s">
         <v>558</v>
       </c>
-      <c r="X36" s="229" t="s">
+      <c r="X36" s="227" t="s">
         <v>558</v>
       </c>
-      <c r="Z36" s="239"/>
-      <c r="AI36" s="229"/>
+      <c r="Z36" s="237"/>
+      <c r="AI36" s="227"/>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="255"/>
-      <c r="W37" s="229" t="s">
+      <c r="B37" s="253"/>
+      <c r="W37" s="227" t="s">
         <v>559</v>
       </c>
-      <c r="X37" s="229" t="s">
+      <c r="X37" s="227" t="s">
         <v>559</v>
       </c>
-      <c r="Z37" s="239"/>
-      <c r="AI37" s="229"/>
+      <c r="Z37" s="237"/>
+      <c r="AI37" s="227"/>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="255"/>
-      <c r="W38" s="229" t="s">
+      <c r="B38" s="253"/>
+      <c r="W38" s="227" t="s">
         <v>560</v>
       </c>
-      <c r="X38" s="229" t="s">
+      <c r="X38" s="227" t="s">
         <v>560</v>
       </c>
-      <c r="Z38" s="239"/>
-      <c r="AI38" s="229"/>
+      <c r="Z38" s="237"/>
+      <c r="AI38" s="227"/>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="255"/>
-      <c r="W39" s="229" t="s">
+      <c r="B39" s="253"/>
+      <c r="W39" s="227" t="s">
         <v>561</v>
       </c>
-      <c r="X39" s="229" t="s">
+      <c r="X39" s="227" t="s">
         <v>561</v>
       </c>
-      <c r="Z39" s="239"/>
-      <c r="AI39" s="229"/>
+      <c r="Z39" s="237"/>
+      <c r="AI39" s="227"/>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="255"/>
-      <c r="W40" s="229" t="s">
+      <c r="B40" s="253"/>
+      <c r="W40" s="227" t="s">
         <v>562</v>
       </c>
-      <c r="X40" s="229" t="s">
+      <c r="X40" s="227" t="s">
         <v>562</v>
       </c>
-      <c r="Z40" s="239"/>
-      <c r="AI40" s="229"/>
+      <c r="Z40" s="237"/>
+      <c r="AI40" s="227"/>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="255"/>
-      <c r="W41" s="229" t="s">
+      <c r="B41" s="253"/>
+      <c r="W41" s="227" t="s">
         <v>563</v>
       </c>
-      <c r="X41" s="229" t="s">
+      <c r="X41" s="227" t="s">
         <v>563</v>
       </c>
-      <c r="Z41" s="239"/>
-      <c r="AI41" s="229"/>
+      <c r="Z41" s="237"/>
+      <c r="AI41" s="227"/>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="255"/>
-      <c r="W42" s="229" t="s">
+      <c r="B42" s="253"/>
+      <c r="W42" s="227" t="s">
         <v>564</v>
       </c>
-      <c r="X42" s="229" t="s">
+      <c r="X42" s="227" t="s">
         <v>564</v>
       </c>
-      <c r="Z42" s="239"/>
-      <c r="AI42" s="229"/>
+      <c r="Z42" s="237"/>
+      <c r="AI42" s="227"/>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="255"/>
-      <c r="W43" s="229" t="s">
+      <c r="B43" s="253"/>
+      <c r="W43" s="227" t="s">
         <v>565</v>
       </c>
-      <c r="X43" s="229" t="s">
+      <c r="X43" s="227" t="s">
         <v>565</v>
       </c>
-      <c r="Z43" s="239"/>
-      <c r="AI43" s="229"/>
+      <c r="Z43" s="237"/>
+      <c r="AI43" s="227"/>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="255"/>
-      <c r="W44" s="229" t="s">
+      <c r="B44" s="253"/>
+      <c r="W44" s="227" t="s">
         <v>566</v>
       </c>
-      <c r="X44" s="229" t="s">
+      <c r="X44" s="227" t="s">
         <v>566</v>
       </c>
-      <c r="Z44" s="239"/>
-      <c r="AI44" s="229"/>
+      <c r="Z44" s="237"/>
+      <c r="AI44" s="227"/>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="255"/>
-      <c r="W45" s="229" t="s">
+      <c r="B45" s="253"/>
+      <c r="W45" s="227" t="s">
         <v>567</v>
       </c>
-      <c r="X45" s="229" t="s">
+      <c r="X45" s="227" t="s">
         <v>567</v>
       </c>
-      <c r="Z45" s="239"/>
-      <c r="AI45" s="229"/>
+      <c r="Z45" s="237"/>
+      <c r="AI45" s="227"/>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="255"/>
-      <c r="W46" s="229" t="s">
+      <c r="B46" s="253"/>
+      <c r="W46" s="227" t="s">
         <v>568</v>
       </c>
-      <c r="X46" s="229" t="s">
+      <c r="X46" s="227" t="s">
         <v>568</v>
       </c>
-      <c r="Z46" s="239"/>
+      <c r="Z46" s="237"/>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="255"/>
-      <c r="W47" s="229" t="s">
+      <c r="B47" s="253"/>
+      <c r="W47" s="227" t="s">
         <v>569</v>
       </c>
-      <c r="X47" s="229" t="s">
+      <c r="X47" s="227" t="s">
         <v>569</v>
       </c>
-      <c r="Z47" s="239"/>
+      <c r="Z47" s="237"/>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B48" s="255"/>
-      <c r="W48" s="229" t="s">
+      <c r="B48" s="253"/>
+      <c r="W48" s="227" t="s">
         <v>570</v>
       </c>
-      <c r="X48" s="229" t="s">
+      <c r="X48" s="227" t="s">
         <v>570</v>
       </c>
-      <c r="Z48" s="239"/>
+      <c r="Z48" s="237"/>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B49" s="255"/>
-      <c r="W49" s="229" t="s">
+      <c r="B49" s="253"/>
+      <c r="W49" s="227" t="s">
         <v>571</v>
       </c>
-      <c r="X49" s="229" t="s">
+      <c r="X49" s="227" t="s">
         <v>571</v>
       </c>
-      <c r="Z49" s="239"/>
+      <c r="Z49" s="237"/>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="255"/>
-      <c r="W50" s="229" t="s">
+      <c r="B50" s="253"/>
+      <c r="W50" s="227" t="s">
         <v>572</v>
       </c>
-      <c r="X50" s="229" t="s">
+      <c r="X50" s="227" t="s">
         <v>572</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B51" s="255"/>
-      <c r="W51" s="229" t="s">
+      <c r="B51" s="253"/>
+      <c r="W51" s="227" t="s">
         <v>573</v>
       </c>
-      <c r="X51" s="229" t="s">
+      <c r="X51" s="227" t="s">
         <v>573</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B52" s="255"/>
-      <c r="W52" s="229" t="s">
+      <c r="B52" s="253"/>
+      <c r="W52" s="227" t="s">
         <v>574</v>
       </c>
-      <c r="X52" s="229" t="s">
+      <c r="X52" s="227" t="s">
         <v>574</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B53" s="255"/>
-      <c r="W53" s="229" t="s">
+      <c r="B53" s="253"/>
+      <c r="W53" s="227" t="s">
         <v>575</v>
       </c>
-      <c r="X53" s="229" t="s">
+      <c r="X53" s="227" t="s">
         <v>575</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B54" s="255"/>
-      <c r="W54" s="229" t="s">
+      <c r="B54" s="253"/>
+      <c r="W54" s="227" t="s">
         <v>576</v>
       </c>
-      <c r="X54" s="229" t="s">
+      <c r="X54" s="227" t="s">
         <v>576</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B55" s="255"/>
-      <c r="W55" s="229" t="s">
+      <c r="B55" s="253"/>
+      <c r="W55" s="227" t="s">
         <v>577</v>
       </c>
-      <c r="X55" s="229" t="s">
+      <c r="X55" s="227" t="s">
         <v>577</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W56" s="229" t="s">
+      <c r="W56" s="227" t="s">
         <v>578</v>
       </c>
-      <c r="X56" s="229" t="s">
+      <c r="X56" s="227" t="s">
         <v>578</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W57" s="229" t="s">
+      <c r="W57" s="227" t="s">
         <v>579</v>
       </c>
-      <c r="X57" s="229" t="s">
+      <c r="X57" s="227" t="s">
         <v>579</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W58" s="229" t="s">
+      <c r="W58" s="227" t="s">
         <v>580</v>
       </c>
-      <c r="X58" s="229" t="s">
+      <c r="X58" s="227" t="s">
         <v>580</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W59" s="229" t="s">
+      <c r="W59" s="227" t="s">
         <v>581</v>
       </c>
-      <c r="X59" s="229" t="s">
+      <c r="X59" s="227" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W60" s="229" t="s">
+      <c r="W60" s="227" t="s">
         <v>582</v>
       </c>
-      <c r="X60" s="229" t="s">
+      <c r="X60" s="227" t="s">
         <v>582</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W61" s="229" t="s">
+      <c r="W61" s="227" t="s">
         <v>583</v>
       </c>
-      <c r="X61" s="229" t="s">
+      <c r="X61" s="227" t="s">
         <v>583</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W62" s="229" t="s">
+      <c r="W62" s="227" t="s">
         <v>584</v>
       </c>
-      <c r="X62" s="229" t="s">
+      <c r="X62" s="227" t="s">
         <v>584</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W63" s="229" t="s">
+      <c r="W63" s="227" t="s">
         <v>585</v>
       </c>
-      <c r="X63" s="229" t="s">
+      <c r="X63" s="227" t="s">
         <v>585</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W64" s="229" t="s">
+      <c r="W64" s="227" t="s">
         <v>586</v>
       </c>
-      <c r="X64" s="229" t="s">
+      <c r="X64" s="227" t="s">
         <v>586</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W65" s="229" t="s">
+      <c r="W65" s="227" t="s">
         <v>587</v>
       </c>
-      <c r="X65" s="229" t="s">
+      <c r="X65" s="227" t="s">
         <v>587</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W66" s="229" t="s">
+      <c r="W66" s="227" t="s">
         <v>588</v>
       </c>
-      <c r="X66" s="229" t="s">
+      <c r="X66" s="227" t="s">
         <v>588</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W67" s="229" t="s">
+      <c r="W67" s="227" t="s">
         <v>589</v>
       </c>
-      <c r="X67" s="229" t="s">
+      <c r="X67" s="227" t="s">
         <v>589</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W68" s="229" t="s">
+      <c r="W68" s="227" t="s">
         <v>590</v>
       </c>
-      <c r="X68" s="229" t="s">
+      <c r="X68" s="227" t="s">
         <v>590</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W69" s="229" t="s">
+      <c r="W69" s="227" t="s">
         <v>591</v>
       </c>
-      <c r="X69" s="229" t="s">
+      <c r="X69" s="227" t="s">
         <v>591</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W70" s="229" t="s">
+      <c r="W70" s="227" t="s">
         <v>592</v>
       </c>
-      <c r="X70" s="229" t="s">
+      <c r="X70" s="227" t="s">
         <v>592</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W71" s="229" t="s">
+      <c r="W71" s="227" t="s">
         <v>593</v>
       </c>
-      <c r="X71" s="229" t="s">
+      <c r="X71" s="227" t="s">
         <v>593</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W72" s="229" t="s">
+      <c r="W72" s="227" t="s">
         <v>594</v>
       </c>
-      <c r="X72" s="229" t="s">
+      <c r="X72" s="227" t="s">
         <v>594</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W73" s="229" t="s">
+      <c r="W73" s="227" t="s">
         <v>595</v>
       </c>
-      <c r="X73" s="229" t="s">
+      <c r="X73" s="227" t="s">
         <v>595</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W74" s="229" t="s">
+      <c r="W74" s="227" t="s">
         <v>596</v>
       </c>
-      <c r="X74" s="229" t="s">
+      <c r="X74" s="227" t="s">
         <v>596</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W75" s="229" t="s">
+      <c r="W75" s="227" t="s">
         <v>597</v>
       </c>
-      <c r="X75" s="229" t="s">
+      <c r="X75" s="227" t="s">
         <v>597</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W76" s="229" t="s">
+      <c r="W76" s="227" t="s">
         <v>598</v>
       </c>
-      <c r="X76" s="229" t="s">
+      <c r="X76" s="227" t="s">
         <v>598</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W77" s="229" t="s">
+      <c r="W77" s="227" t="s">
         <v>599</v>
       </c>
-      <c r="X77" s="229" t="s">
+      <c r="X77" s="227" t="s">
         <v>599</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W78" s="229" t="s">
+      <c r="W78" s="227" t="s">
         <v>600</v>
       </c>
-      <c r="X78" s="229" t="s">
+      <c r="X78" s="227" t="s">
         <v>600</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W79" s="229" t="s">
+      <c r="W79" s="227" t="s">
         <v>601</v>
       </c>
-      <c r="X79" s="229" t="s">
+      <c r="X79" s="227" t="s">
         <v>601</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W80" s="229" t="s">
+      <c r="W80" s="227" t="s">
         <v>602</v>
       </c>
-      <c r="X80" s="229" t="s">
+      <c r="X80" s="227" t="s">
         <v>602</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W81" s="229" t="s">
+      <c r="W81" s="227" t="s">
         <v>603</v>
       </c>
-      <c r="X81" s="229" t="s">
+      <c r="X81" s="227" t="s">
         <v>603</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W82" s="229" t="s">
+      <c r="W82" s="227" t="s">
         <v>604</v>
       </c>
-      <c r="X82" s="229" t="s">
+      <c r="X82" s="227" t="s">
         <v>604</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W83" s="229" t="s">
+      <c r="W83" s="227" t="s">
         <v>605</v>
       </c>
-      <c r="X83" s="229" t="s">
+      <c r="X83" s="227" t="s">
         <v>605</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W84" s="229" t="s">
+      <c r="W84" s="227" t="s">
         <v>606</v>
       </c>
-      <c r="X84" s="229" t="s">
+      <c r="X84" s="227" t="s">
         <v>606</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W85" s="229" t="s">
+      <c r="W85" s="227" t="s">
         <v>607</v>
       </c>
-      <c r="X85" s="229" t="s">
+      <c r="X85" s="227" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W86" s="229" t="s">
+      <c r="W86" s="227" t="s">
         <v>608</v>
       </c>
-      <c r="X86" s="229" t="s">
+      <c r="X86" s="227" t="s">
         <v>608</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W87" s="229" t="s">
+      <c r="W87" s="227" t="s">
         <v>609</v>
       </c>
-      <c r="X87" s="229" t="s">
+      <c r="X87" s="227" t="s">
         <v>609</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W88" s="229" t="s">
+      <c r="W88" s="227" t="s">
         <v>610</v>
       </c>
-      <c r="X88" s="229" t="s">
+      <c r="X88" s="227" t="s">
         <v>610</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W89" s="229" t="s">
+      <c r="W89" s="227" t="s">
         <v>611</v>
       </c>
-      <c r="X89" s="229" t="s">
+      <c r="X89" s="227" t="s">
         <v>611</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W90" s="229" t="s">
+      <c r="W90" s="227" t="s">
         <v>612</v>
       </c>
-      <c r="X90" s="229" t="s">
+      <c r="X90" s="227" t="s">
         <v>612</v>
       </c>
     </row>
@@ -14296,7 +14392,7 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="256" t="s">
+      <c r="A11" s="254" t="s">
         <v>622</v>
       </c>
     </row>
@@ -14360,7 +14456,7 @@
       <c r="A2" s="0" t="s">
         <v>627</v>
       </c>
-      <c r="B2" s="257" t="n">
+      <c r="B2" s="255" t="n">
         <v>42832</v>
       </c>
       <c r="C2" s="0" t="s">
@@ -14374,7 +14470,7 @@
       <c r="A3" s="0" t="s">
         <v>630</v>
       </c>
-      <c r="B3" s="257" t="n">
+      <c r="B3" s="255" t="n">
         <v>42835</v>
       </c>
       <c r="C3" s="0" t="s">
@@ -14388,7 +14484,7 @@
       <c r="A4" s="0" t="s">
         <v>632</v>
       </c>
-      <c r="B4" s="257" t="n">
+      <c r="B4" s="255" t="n">
         <v>42838</v>
       </c>
       <c r="C4" s="0" t="s">
@@ -14402,7 +14498,7 @@
       <c r="A5" s="0" t="s">
         <v>634</v>
       </c>
-      <c r="B5" s="257" t="n">
+      <c r="B5" s="255" t="n">
         <v>42872</v>
       </c>
       <c r="C5" s="0" t="s">
@@ -14454,61 +14550,61 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="76.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="258" t="s">
+      <c r="A2" s="256" t="s">
         <v>637</v>
       </c>
-      <c r="B2" s="259"/>
+      <c r="B2" s="257"/>
       <c r="C2" s="33" t="s">
         <v>638</v>
       </c>
-      <c r="E2" s="260" t="s">
+      <c r="E2" s="258" t="s">
         <v>639</v>
       </c>
-      <c r="F2" s="261"/>
+      <c r="F2" s="259"/>
       <c r="G2" s="33" t="s">
         <v>640</v>
       </c>
       <c r="H2" s="33"/>
-      <c r="I2" s="262" t="s">
+      <c r="I2" s="260" t="s">
         <v>641</v>
       </c>
-      <c r="J2" s="263"/>
+      <c r="J2" s="261"/>
       <c r="K2" s="33" t="s">
         <v>642</v>
       </c>
-      <c r="M2" s="262" t="s">
+      <c r="M2" s="260" t="s">
         <v>643</v>
       </c>
-      <c r="N2" s="264"/>
+      <c r="N2" s="262"/>
       <c r="O2" s="33" t="s">
         <v>644</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="256"/>
+      <c r="A3" s="254"/>
     </row>
     <row r="4" customFormat="false" ht="76.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="260" t="s">
+      <c r="A4" s="258" t="s">
         <v>645</v>
       </c>
-      <c r="B4" s="265"/>
+      <c r="B4" s="263"/>
       <c r="C4" s="33" t="s">
         <v>646</v>
       </c>
-      <c r="E4" s="262" t="s">
+      <c r="E4" s="260" t="s">
         <v>647</v>
       </c>
-      <c r="F4" s="266"/>
+      <c r="F4" s="264"/>
       <c r="G4" s="33" t="s">
         <v>648</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="260"/>
+      <c r="A5" s="258"/>
       <c r="C5" s="1"/>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="256" t="s">
+      <c r="A6" s="254" t="s">
         <v>649</v>
       </c>
       <c r="B6" s="0" t="s">
@@ -14516,10 +14612,10 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="256"/>
+      <c r="A7" s="254"/>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="256" t="s">
+      <c r="A8" s="254" t="s">
         <v>651</v>
       </c>
       <c r="B8" s="0" t="s">
@@ -14554,53 +14650,53 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="267" t="s">
+      <c r="A13" s="265" t="s">
         <v>660</v>
       </c>
-      <c r="B13" s="268" t="s">
+      <c r="B13" s="266" t="s">
         <v>661</v>
       </c>
-      <c r="C13" s="269" t="s">
+      <c r="C13" s="267" t="s">
         <v>662</v>
       </c>
-      <c r="D13" s="269"/>
+      <c r="D13" s="267"/>
     </row>
     <row r="14" customFormat="false" ht="60.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B14" s="268" t="s">
+      <c r="B14" s="266" t="s">
         <v>663</v>
       </c>
-      <c r="C14" s="269" t="s">
+      <c r="C14" s="267" t="s">
         <v>664</v>
       </c>
-      <c r="D14" s="269"/>
-      <c r="H14" s="270" t="s">
+      <c r="D14" s="267"/>
+      <c r="H14" s="268" t="s">
         <v>665</v>
       </c>
-      <c r="I14" s="270"/>
-      <c r="J14" s="270"/>
-      <c r="K14" s="270"/>
-      <c r="L14" s="270"/>
-      <c r="M14" s="270"/>
-      <c r="N14" s="270"/>
+      <c r="I14" s="268"/>
+      <c r="J14" s="268"/>
+      <c r="K14" s="268"/>
+      <c r="L14" s="268"/>
+      <c r="M14" s="268"/>
+      <c r="N14" s="268"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="268"/>
-      <c r="C15" s="269"/>
-      <c r="D15" s="269"/>
+      <c r="B15" s="266"/>
+      <c r="C15" s="267"/>
+      <c r="D15" s="267"/>
     </row>
     <row r="16" customFormat="false" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="271" t="s">
+      <c r="A16" s="269" t="s">
         <v>666</v>
       </c>
-      <c r="B16" s="272" t="s">
+      <c r="B16" s="270" t="s">
         <v>667</v>
       </c>
-      <c r="C16" s="272"/>
-      <c r="D16" s="272"/>
-      <c r="E16" s="272"/>
+      <c r="C16" s="270"/>
+      <c r="D16" s="270"/>
+      <c r="E16" s="270"/>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="256" t="s">
+      <c r="A18" s="254" t="s">
         <v>668</v>
       </c>
       <c r="B18" s="0" t="s">
@@ -14608,48 +14704,48 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="256"/>
+      <c r="A19" s="254"/>
     </row>
     <row r="20" customFormat="false" ht="78.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="273" t="s">
+      <c r="A20" s="271" t="s">
         <v>670</v>
       </c>
-      <c r="B20" s="274" t="s">
+      <c r="B20" s="272" t="s">
         <v>671</v>
       </c>
-      <c r="C20" s="274"/>
-      <c r="D20" s="274"/>
-      <c r="E20" s="274"/>
-      <c r="F20" s="274"/>
-      <c r="G20" s="274"/>
-      <c r="H20" s="274"/>
+      <c r="C20" s="272"/>
+      <c r="D20" s="272"/>
+      <c r="E20" s="272"/>
+      <c r="F20" s="272"/>
+      <c r="G20" s="272"/>
+      <c r="H20" s="272"/>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="273"/>
-      <c r="B21" s="275"/>
-      <c r="C21" s="275"/>
-      <c r="D21" s="275"/>
-      <c r="E21" s="275"/>
-      <c r="F21" s="275"/>
-      <c r="G21" s="275"/>
-      <c r="H21" s="275"/>
+      <c r="A21" s="271"/>
+      <c r="B21" s="273"/>
+      <c r="C21" s="273"/>
+      <c r="D21" s="273"/>
+      <c r="E21" s="273"/>
+      <c r="F21" s="273"/>
+      <c r="G21" s="273"/>
+      <c r="H21" s="273"/>
     </row>
     <row r="22" customFormat="false" ht="122.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="273" t="s">
+      <c r="A22" s="271" t="s">
         <v>672</v>
       </c>
-      <c r="B22" s="274" t="s">
+      <c r="B22" s="272" t="s">
         <v>673</v>
       </c>
-      <c r="C22" s="274"/>
-      <c r="D22" s="274"/>
-      <c r="E22" s="274"/>
-      <c r="F22" s="274"/>
-      <c r="G22" s="274"/>
-      <c r="H22" s="274"/>
+      <c r="C22" s="272"/>
+      <c r="D22" s="272"/>
+      <c r="E22" s="272"/>
+      <c r="F22" s="272"/>
+      <c r="G22" s="272"/>
+      <c r="H22" s="272"/>
     </row>
     <row r="24" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="260" t="s">
+      <c r="A24" s="258" t="s">
         <v>674</v>
       </c>
       <c r="B24" s="0" t="s">
@@ -14657,41 +14753,41 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="63" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="267" t="s">
+      <c r="A26" s="265" t="s">
         <v>676</v>
       </c>
-      <c r="B26" s="274" t="s">
+      <c r="B26" s="272" t="s">
         <v>677</v>
       </c>
-      <c r="C26" s="274"/>
-      <c r="D26" s="274"/>
-      <c r="E26" s="274"/>
-      <c r="F26" s="274" t="s">
+      <c r="C26" s="272"/>
+      <c r="D26" s="272"/>
+      <c r="E26" s="272"/>
+      <c r="F26" s="272" t="s">
         <v>678</v>
       </c>
-      <c r="G26" s="274"/>
-      <c r="H26" s="274"/>
-      <c r="I26" s="274"/>
-      <c r="J26" s="274"/>
-      <c r="K26" s="274"/>
+      <c r="G26" s="272"/>
+      <c r="H26" s="272"/>
+      <c r="I26" s="272"/>
+      <c r="J26" s="272"/>
+      <c r="K26" s="272"/>
     </row>
     <row r="28" customFormat="false" ht="120.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="276" t="s">
+      <c r="A28" s="274" t="s">
         <v>679</v>
       </c>
-      <c r="B28" s="274" t="s">
+      <c r="B28" s="272" t="s">
         <v>680</v>
       </c>
-      <c r="C28" s="274"/>
-      <c r="D28" s="274" t="s">
+      <c r="C28" s="272"/>
+      <c r="D28" s="272" t="s">
         <v>681</v>
       </c>
-      <c r="E28" s="274"/>
-      <c r="F28" s="274"/>
-      <c r="G28" s="274"/>
+      <c r="E28" s="272"/>
+      <c r="F28" s="272"/>
+      <c r="G28" s="272"/>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="256" t="s">
+      <c r="A30" s="254" t="s">
         <v>682</v>
       </c>
       <c r="B30" s="0" t="s">
@@ -14699,7 +14795,7 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="256" t="s">
+      <c r="A32" s="254" t="s">
         <v>684</v>
       </c>
       <c r="B32" s="0" t="s">

--- a/bicc_template.xlsx
+++ b/bicc_template.xlsx
@@ -92,20 +92,28 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0" vbProcedure="false">Summary!$A$1:$L$49</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0" vbProcedure="false">Summary!$A$1:$L$49</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0" vbProcedure="false">Summary!$A$1:$L$49</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0_0" vbProcedure="false">Summary!$A$1:$L$49</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0_0_0" vbProcedure="false">Summary!$A$1:$L$49</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area" vbProcedure="false">'Finance &amp; Benefits'!$A$1:$I$197</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area_0" vbProcedure="false">'Finance &amp; Benefits'!$A$1:$I$197</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area_0_0" vbProcedure="false">'Finance &amp; Benefits'!$A$1:$I$197</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area_0_0_0" vbProcedure="false">'Finance &amp; Benefits'!$A$1:$I$197</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area_0_0_0_0" vbProcedure="false">'Finance &amp; Benefits'!$A$1:$I$197</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area_0_0_0_0_0" vbProcedure="false">'Finance &amp; Benefits'!$A$1:$I$197</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Area" vbProcedure="false">Resource!$A$1:$M$39</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Area_0" vbProcedure="false">Resource!$A$1:$M$39</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Area_0_0" vbProcedure="false">Resource!$A$1:$M$39</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Area_0_0_0" vbProcedure="false">Resource!$A$1:$M$39</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Area_0_0_0_0" vbProcedure="false">Resource!$A$1:$M$39</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Area_0_0_0_0_0" vbProcedure="false">Resource!$A$1:$M$39</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="Concept" vbProcedure="false">Dropdown!$AD$2:$AD$19</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="Other" vbProcedure="false">Dropdown!$AD$2:$AD$19</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm.Print_Area" vbProcedure="false">'Approval &amp; Project milestones'!$A$1:$L$42</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm.Print_Area_0" vbProcedure="false">'Approval &amp; Project milestones'!$A$1:$L$42</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm.Print_Area_0_0" vbProcedure="false">'Approval &amp; Project milestones'!$A$1:$L$42</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm.Print_Area_0_0_0" vbProcedure="false">'Approval &amp; Project milestones'!$A$1:$L$42</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm.Print_Area_0_0_0_0" vbProcedure="false">'Approval &amp; Project milestones'!$A$1:$L$42</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm.Print_Area_0_0_0_0_0" vbProcedure="false">'Approval &amp; Project milestones'!$A$1:$L$42</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -3712,7 +3720,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="279">
+  <cellXfs count="277">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -4197,10 +4205,6 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="25" fillId="13" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
     <xf numFmtId="168" fontId="0" fillId="13" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
@@ -4368,10 +4372,6 @@
     <xf numFmtId="164" fontId="20" fillId="11" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="13" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="15" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
@@ -4940,9 +4940,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1882080</xdr:colOff>
+      <xdr:colOff>1881360</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>1033920</xdr:rowOff>
+      <xdr:rowOff>1033200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4956,7 +4956,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="322200" y="83880"/>
-          <a:ext cx="1559880" cy="950040"/>
+          <a:ext cx="1559160" cy="949320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4982,9 +4982,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1559880</xdr:colOff>
+      <xdr:colOff>1559160</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>997200</xdr:rowOff>
+      <xdr:rowOff>996480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4998,7 +4998,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="1559880" cy="997200"/>
+          <a:ext cx="1559160" cy="996480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5024,9 +5024,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1549440</xdr:colOff>
+      <xdr:colOff>1548720</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>959760</xdr:rowOff>
+      <xdr:rowOff>959040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5040,7 +5040,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="1549440" cy="959760"/>
+          <a:ext cx="1548720" cy="959040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5066,9 +5066,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1559880</xdr:colOff>
+      <xdr:colOff>1559160</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>959760</xdr:rowOff>
+      <xdr:rowOff>959040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5082,7 +5082,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="1559880" cy="959760"/>
+          <a:ext cx="1559160" cy="959040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5108,9 +5108,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1559880</xdr:colOff>
+      <xdr:colOff>1559160</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>959760</xdr:rowOff>
+      <xdr:rowOff>959040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5124,7 +5124,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="1559880" cy="959760"/>
+          <a:ext cx="1559160" cy="959040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6207,8 +6207,8 @@
   </sheetPr>
   <dimension ref="A1:L198"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A58" colorId="64" zoomScale="68" zoomScaleNormal="68" zoomScalePageLayoutView="68" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B77" activeCellId="0" sqref="B77"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A172" colorId="64" zoomScale="68" zoomScaleNormal="68" zoomScalePageLayoutView="68" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B197" activeCellId="0" sqref="B197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7472,14 +7472,14 @@
       <c r="A77" s="43" t="s">
         <v>132</v>
       </c>
-      <c r="B77" s="121"/>
-      <c r="C77" s="121"/>
-      <c r="D77" s="121"/>
-      <c r="E77" s="121"/>
-      <c r="F77" s="121"/>
-      <c r="G77" s="121"/>
-      <c r="H77" s="121"/>
-      <c r="I77" s="121"/>
+      <c r="B77" s="41"/>
+      <c r="C77" s="41"/>
+      <c r="D77" s="41"/>
+      <c r="E77" s="41"/>
+      <c r="F77" s="41"/>
+      <c r="G77" s="41"/>
+      <c r="H77" s="41"/>
+      <c r="I77" s="41"/>
     </row>
     <row r="78" customFormat="false" ht="6.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="10"/>
@@ -7707,14 +7707,14 @@
       <c r="B91" s="79" t="s">
         <v>107</v>
       </c>
-      <c r="C91" s="122"/>
-      <c r="D91" s="123"/>
-      <c r="E91" s="123"/>
-      <c r="F91" s="124" t="n">
+      <c r="C91" s="121"/>
+      <c r="D91" s="122"/>
+      <c r="E91" s="122"/>
+      <c r="F91" s="123" t="n">
         <f aca="false">SUM(C91:E91)</f>
         <v>0</v>
       </c>
-      <c r="G91" s="125" t="s">
+      <c r="G91" s="124" t="s">
         <v>138</v>
       </c>
       <c r="H91" s="10"/>
@@ -7725,14 +7725,14 @@
       <c r="B92" s="79" t="s">
         <v>112</v>
       </c>
-      <c r="C92" s="126"/>
+      <c r="C92" s="125"/>
       <c r="D92" s="80"/>
       <c r="E92" s="80"/>
       <c r="F92" s="97" t="n">
         <f aca="false">SUM(C92:E92)</f>
         <v>0</v>
       </c>
-      <c r="G92" s="125"/>
+      <c r="G92" s="124"/>
       <c r="H92" s="10"/>
       <c r="I92" s="10"/>
     </row>
@@ -7743,14 +7743,14 @@
       <c r="B93" s="79" t="s">
         <v>107</v>
       </c>
-      <c r="C93" s="126"/>
+      <c r="C93" s="125"/>
       <c r="D93" s="80"/>
       <c r="E93" s="80"/>
       <c r="F93" s="97" t="n">
         <f aca="false">SUM(C93:E93)</f>
         <v>0</v>
       </c>
-      <c r="G93" s="125"/>
+      <c r="G93" s="124"/>
       <c r="H93" s="10"/>
       <c r="I93" s="10"/>
     </row>
@@ -7759,14 +7759,14 @@
       <c r="B94" s="79" t="s">
         <v>112</v>
       </c>
-      <c r="C94" s="126"/>
+      <c r="C94" s="125"/>
       <c r="D94" s="80"/>
       <c r="E94" s="80"/>
       <c r="F94" s="97" t="n">
         <f aca="false">SUM(C94:E94)</f>
         <v>0</v>
       </c>
-      <c r="G94" s="125"/>
+      <c r="G94" s="124"/>
       <c r="H94" s="10"/>
       <c r="I94" s="10"/>
     </row>
@@ -7777,14 +7777,14 @@
       <c r="B95" s="79" t="s">
         <v>107</v>
       </c>
-      <c r="C95" s="126"/>
+      <c r="C95" s="125"/>
       <c r="D95" s="80"/>
       <c r="E95" s="80"/>
       <c r="F95" s="97" t="n">
         <f aca="false">SUM(C95:E95)</f>
         <v>0</v>
       </c>
-      <c r="G95" s="125"/>
+      <c r="G95" s="124"/>
       <c r="H95" s="10"/>
       <c r="I95" s="10"/>
     </row>
@@ -7793,14 +7793,14 @@
       <c r="B96" s="79" t="s">
         <v>112</v>
       </c>
-      <c r="C96" s="126"/>
+      <c r="C96" s="125"/>
       <c r="D96" s="80"/>
       <c r="E96" s="80"/>
       <c r="F96" s="97" t="n">
         <f aca="false">SUM(C96:E96)</f>
         <v>0</v>
       </c>
-      <c r="G96" s="125"/>
+      <c r="G96" s="124"/>
       <c r="H96" s="10"/>
       <c r="I96" s="10"/>
     </row>
@@ -7811,14 +7811,14 @@
       <c r="B97" s="79" t="s">
         <v>107</v>
       </c>
-      <c r="C97" s="126"/>
+      <c r="C97" s="125"/>
       <c r="D97" s="80"/>
       <c r="E97" s="80"/>
       <c r="F97" s="97" t="n">
         <f aca="false">SUM(C97:E97)</f>
         <v>0</v>
       </c>
-      <c r="G97" s="125"/>
+      <c r="G97" s="124"/>
       <c r="H97" s="10"/>
       <c r="I97" s="10"/>
     </row>
@@ -7827,14 +7827,14 @@
       <c r="B98" s="79" t="s">
         <v>112</v>
       </c>
-      <c r="C98" s="126"/>
+      <c r="C98" s="125"/>
       <c r="D98" s="80"/>
       <c r="E98" s="80"/>
       <c r="F98" s="97" t="n">
         <f aca="false">SUM(C98:E98)</f>
         <v>0</v>
       </c>
-      <c r="G98" s="125"/>
+      <c r="G98" s="124"/>
       <c r="H98" s="10"/>
       <c r="I98" s="10"/>
     </row>
@@ -7845,14 +7845,14 @@
       <c r="B99" s="79" t="s">
         <v>107</v>
       </c>
-      <c r="C99" s="126"/>
+      <c r="C99" s="125"/>
       <c r="D99" s="80"/>
       <c r="E99" s="80"/>
       <c r="F99" s="97" t="n">
         <f aca="false">SUM(C99:E99)</f>
         <v>0</v>
       </c>
-      <c r="G99" s="125"/>
+      <c r="G99" s="124"/>
       <c r="H99" s="10"/>
       <c r="I99" s="10"/>
     </row>
@@ -7861,14 +7861,14 @@
       <c r="B100" s="79" t="s">
         <v>112</v>
       </c>
-      <c r="C100" s="126"/>
+      <c r="C100" s="125"/>
       <c r="D100" s="80"/>
       <c r="E100" s="80"/>
       <c r="F100" s="97" t="n">
         <f aca="false">SUM(C100:E100)</f>
         <v>0</v>
       </c>
-      <c r="G100" s="125"/>
+      <c r="G100" s="124"/>
       <c r="H100" s="10"/>
       <c r="I100" s="10"/>
     </row>
@@ -7879,14 +7879,14 @@
       <c r="B101" s="79" t="s">
         <v>107</v>
       </c>
-      <c r="C101" s="126"/>
+      <c r="C101" s="125"/>
       <c r="D101" s="80"/>
       <c r="E101" s="80"/>
       <c r="F101" s="97" t="n">
         <f aca="false">SUM(C101:E101)</f>
         <v>0</v>
       </c>
-      <c r="G101" s="125"/>
+      <c r="G101" s="124"/>
       <c r="H101" s="10"/>
       <c r="I101" s="10"/>
     </row>
@@ -7895,14 +7895,14 @@
       <c r="B102" s="79" t="s">
         <v>112</v>
       </c>
-      <c r="C102" s="126"/>
+      <c r="C102" s="125"/>
       <c r="D102" s="80"/>
       <c r="E102" s="80"/>
       <c r="F102" s="97" t="n">
         <f aca="false">SUM(C102:E102)</f>
         <v>0</v>
       </c>
-      <c r="G102" s="125"/>
+      <c r="G102" s="124"/>
       <c r="H102" s="10"/>
       <c r="I102" s="10"/>
     </row>
@@ -7913,14 +7913,14 @@
       <c r="B103" s="79" t="s">
         <v>107</v>
       </c>
-      <c r="C103" s="126"/>
+      <c r="C103" s="125"/>
       <c r="D103" s="80"/>
       <c r="E103" s="80"/>
       <c r="F103" s="97" t="n">
         <f aca="false">SUM(C103:E103)</f>
         <v>0</v>
       </c>
-      <c r="G103" s="125"/>
+      <c r="G103" s="124"/>
       <c r="H103" s="10"/>
       <c r="I103" s="10"/>
     </row>
@@ -7929,14 +7929,14 @@
       <c r="B104" s="79" t="s">
         <v>112</v>
       </c>
-      <c r="C104" s="127"/>
-      <c r="D104" s="128"/>
-      <c r="E104" s="128"/>
-      <c r="F104" s="129" t="n">
+      <c r="C104" s="126"/>
+      <c r="D104" s="127"/>
+      <c r="E104" s="127"/>
+      <c r="F104" s="128" t="n">
         <f aca="false">SUM(C104:E104)</f>
         <v>0</v>
       </c>
-      <c r="G104" s="125"/>
+      <c r="G104" s="124"/>
       <c r="H104" s="10"/>
       <c r="I104" s="10"/>
     </row>
@@ -7947,10 +7947,10 @@
       <c r="B105" s="79" t="s">
         <v>107</v>
       </c>
-      <c r="C105" s="130"/>
-      <c r="D105" s="131"/>
-      <c r="E105" s="131"/>
-      <c r="F105" s="132" t="n">
+      <c r="C105" s="129"/>
+      <c r="D105" s="130"/>
+      <c r="E105" s="130"/>
+      <c r="F105" s="131" t="n">
         <f aca="false">SUM(C105:E105)</f>
         <v>0</v>
       </c>
@@ -7966,7 +7966,7 @@
       <c r="C106" s="80"/>
       <c r="D106" s="80"/>
       <c r="E106" s="80"/>
-      <c r="F106" s="132" t="n">
+      <c r="F106" s="131" t="n">
         <f aca="false">SUM(C106:E106)</f>
         <v>0</v>
       </c>
@@ -7984,7 +7984,7 @@
       <c r="C107" s="80"/>
       <c r="D107" s="80"/>
       <c r="E107" s="80"/>
-      <c r="F107" s="132" t="n">
+      <c r="F107" s="131" t="n">
         <f aca="false">SUM(C107:E107)</f>
         <v>0</v>
       </c>
@@ -8000,7 +8000,7 @@
       <c r="C108" s="80"/>
       <c r="D108" s="80"/>
       <c r="E108" s="80"/>
-      <c r="F108" s="132" t="n">
+      <c r="F108" s="131" t="n">
         <f aca="false">SUM(C108:E108)</f>
         <v>0</v>
       </c>
@@ -8018,7 +8018,7 @@
       <c r="C109" s="80"/>
       <c r="D109" s="80"/>
       <c r="E109" s="80"/>
-      <c r="F109" s="132" t="n">
+      <c r="F109" s="131" t="n">
         <f aca="false">SUM(C109:E109)</f>
         <v>0</v>
       </c>
@@ -8034,7 +8034,7 @@
       <c r="C110" s="80"/>
       <c r="D110" s="80"/>
       <c r="E110" s="80"/>
-      <c r="F110" s="132" t="n">
+      <c r="F110" s="131" t="n">
         <f aca="false">SUM(C110:E110)</f>
         <v>0</v>
       </c>
@@ -8052,7 +8052,7 @@
       <c r="C111" s="80"/>
       <c r="D111" s="80"/>
       <c r="E111" s="80"/>
-      <c r="F111" s="132" t="n">
+      <c r="F111" s="131" t="n">
         <f aca="false">SUM(C111:E111)</f>
         <v>0</v>
       </c>
@@ -8068,13 +8068,13 @@
       <c r="C112" s="80"/>
       <c r="D112" s="80"/>
       <c r="E112" s="80"/>
-      <c r="F112" s="132" t="n">
+      <c r="F112" s="131" t="n">
         <f aca="false">SUM(C112:E112)</f>
         <v>0</v>
       </c>
-      <c r="G112" s="133"/>
-      <c r="H112" s="133"/>
-      <c r="I112" s="133"/>
+      <c r="G112" s="132"/>
+      <c r="H112" s="132"/>
+      <c r="I112" s="132"/>
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A113" s="85" t="s">
@@ -8086,13 +8086,13 @@
       <c r="C113" s="80"/>
       <c r="D113" s="80"/>
       <c r="E113" s="80"/>
-      <c r="F113" s="132" t="n">
+      <c r="F113" s="131" t="n">
         <f aca="false">SUM(C113:E113)</f>
         <v>0</v>
       </c>
-      <c r="G113" s="134"/>
-      <c r="H113" s="133"/>
-      <c r="I113" s="133"/>
+      <c r="G113" s="133"/>
+      <c r="H113" s="132"/>
+      <c r="I113" s="132"/>
       <c r="J113" s="5"/>
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8103,13 +8103,13 @@
       <c r="C114" s="80"/>
       <c r="D114" s="80"/>
       <c r="E114" s="80"/>
-      <c r="F114" s="132" t="n">
+      <c r="F114" s="131" t="n">
         <f aca="false">SUM(C114:E114)</f>
         <v>0</v>
       </c>
-      <c r="G114" s="134"/>
-      <c r="H114" s="134"/>
-      <c r="I114" s="134"/>
+      <c r="G114" s="133"/>
+      <c r="H114" s="133"/>
+      <c r="I114" s="133"/>
       <c r="J114" s="5"/>
     </row>
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8122,13 +8122,13 @@
       <c r="C115" s="80"/>
       <c r="D115" s="80"/>
       <c r="E115" s="80"/>
-      <c r="F115" s="132" t="n">
+      <c r="F115" s="131" t="n">
         <f aca="false">SUM(C115:E115)</f>
         <v>0</v>
       </c>
-      <c r="G115" s="134"/>
-      <c r="H115" s="134"/>
-      <c r="I115" s="134"/>
+      <c r="G115" s="133"/>
+      <c r="H115" s="133"/>
+      <c r="I115" s="133"/>
       <c r="J115" s="5"/>
     </row>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8139,13 +8139,13 @@
       <c r="C116" s="80"/>
       <c r="D116" s="80"/>
       <c r="E116" s="80"/>
-      <c r="F116" s="132" t="n">
+      <c r="F116" s="131" t="n">
         <f aca="false">SUM(C116:E116)</f>
         <v>0</v>
       </c>
-      <c r="G116" s="134"/>
-      <c r="H116" s="134"/>
-      <c r="I116" s="134"/>
+      <c r="G116" s="133"/>
+      <c r="H116" s="133"/>
+      <c r="I116" s="133"/>
       <c r="J116" s="5"/>
     </row>
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8158,13 +8158,13 @@
       <c r="C117" s="80"/>
       <c r="D117" s="80"/>
       <c r="E117" s="80"/>
-      <c r="F117" s="132" t="n">
+      <c r="F117" s="131" t="n">
         <f aca="false">SUM(C117:E117)</f>
         <v>0</v>
       </c>
-      <c r="G117" s="133"/>
-      <c r="H117" s="134"/>
-      <c r="I117" s="134"/>
+      <c r="G117" s="132"/>
+      <c r="H117" s="133"/>
+      <c r="I117" s="133"/>
     </row>
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="85"/>
@@ -8174,7 +8174,7 @@
       <c r="C118" s="80"/>
       <c r="D118" s="80"/>
       <c r="E118" s="80"/>
-      <c r="F118" s="132" t="n">
+      <c r="F118" s="131" t="n">
         <f aca="false">SUM(C118:E118)</f>
         <v>0</v>
       </c>
@@ -8192,13 +8192,13 @@
       <c r="C119" s="80"/>
       <c r="D119" s="80"/>
       <c r="E119" s="80"/>
-      <c r="F119" s="132" t="n">
+      <c r="F119" s="131" t="n">
         <f aca="false">SUM(C119:E119)</f>
         <v>0</v>
       </c>
-      <c r="G119" s="135"/>
-      <c r="H119" s="135"/>
-      <c r="I119" s="135"/>
+      <c r="G119" s="134"/>
+      <c r="H119" s="134"/>
+      <c r="I119" s="134"/>
     </row>
     <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="85"/>
@@ -8208,7 +8208,7 @@
       <c r="C120" s="80"/>
       <c r="D120" s="80"/>
       <c r="E120" s="80"/>
-      <c r="F120" s="132" t="n">
+      <c r="F120" s="131" t="n">
         <f aca="false">SUM(C120:E120)</f>
         <v>0</v>
       </c>
@@ -8226,7 +8226,7 @@
       <c r="C121" s="80"/>
       <c r="D121" s="80"/>
       <c r="E121" s="80"/>
-      <c r="F121" s="132" t="n">
+      <c r="F121" s="131" t="n">
         <f aca="false">SUM(C121:E121)</f>
         <v>0</v>
       </c>
@@ -8242,7 +8242,7 @@
       <c r="C122" s="80"/>
       <c r="D122" s="80"/>
       <c r="E122" s="80"/>
-      <c r="F122" s="132" t="n">
+      <c r="F122" s="131" t="n">
         <f aca="false">SUM(C122:E122)</f>
         <v>0</v>
       </c>
@@ -8260,7 +8260,7 @@
       <c r="C123" s="80"/>
       <c r="D123" s="80"/>
       <c r="E123" s="80"/>
-      <c r="F123" s="132" t="n">
+      <c r="F123" s="131" t="n">
         <f aca="false">SUM(C123:E123)</f>
         <v>0</v>
       </c>
@@ -8276,7 +8276,7 @@
       <c r="C124" s="80"/>
       <c r="D124" s="80"/>
       <c r="E124" s="80"/>
-      <c r="F124" s="132" t="n">
+      <c r="F124" s="131" t="n">
         <f aca="false">SUM(C124:E124)</f>
         <v>0</v>
       </c>
@@ -8383,14 +8383,14 @@
       <c r="A130" s="43" t="s">
         <v>139</v>
       </c>
-      <c r="B130" s="121"/>
-      <c r="C130" s="121"/>
-      <c r="D130" s="121"/>
-      <c r="E130" s="121"/>
-      <c r="F130" s="121"/>
-      <c r="G130" s="121"/>
-      <c r="H130" s="121"/>
-      <c r="I130" s="121"/>
+      <c r="B130" s="41"/>
+      <c r="C130" s="41"/>
+      <c r="D130" s="41"/>
+      <c r="E130" s="41"/>
+      <c r="F130" s="41"/>
+      <c r="G130" s="41"/>
+      <c r="H130" s="41"/>
+      <c r="I130" s="41"/>
     </row>
     <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="10"/>
@@ -8406,133 +8406,133 @@
     <row r="132" s="19" customFormat="true" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A132" s="10"/>
       <c r="B132" s="10"/>
-      <c r="C132" s="136" t="s">
+      <c r="C132" s="135" t="s">
         <v>140</v>
       </c>
-      <c r="D132" s="136" t="s">
+      <c r="D132" s="135" t="s">
         <v>141</v>
       </c>
-      <c r="E132" s="136" t="s">
+      <c r="E132" s="135" t="s">
         <v>142</v>
       </c>
       <c r="F132" s="10"/>
-      <c r="G132" s="136" t="s">
+      <c r="G132" s="135" t="s">
         <v>143</v>
       </c>
-      <c r="H132" s="136" t="s">
+      <c r="H132" s="135" t="s">
         <v>140</v>
       </c>
-      <c r="I132" s="136" t="s">
+      <c r="I132" s="135" t="s">
         <v>112</v>
       </c>
-      <c r="J132" s="137"/>
-      <c r="K132" s="137"/>
-      <c r="L132" s="137"/>
+      <c r="J132" s="136"/>
+      <c r="K132" s="136"/>
+      <c r="L132" s="136"/>
     </row>
     <row r="133" s="19" customFormat="true" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A133" s="138" t="s">
+      <c r="A133" s="137" t="s">
         <v>144</v>
       </c>
-      <c r="B133" s="138"/>
-      <c r="C133" s="139" t="n">
+      <c r="B133" s="137"/>
+      <c r="C133" s="138" t="n">
         <f aca="false">F72</f>
         <v>0</v>
       </c>
-      <c r="D133" s="139" t="n">
+      <c r="D133" s="138" t="n">
         <f aca="false">F73</f>
         <v>0</v>
       </c>
-      <c r="E133" s="139" t="n">
+      <c r="E133" s="138" t="n">
         <f aca="false">D133-C133</f>
         <v>0</v>
       </c>
       <c r="F133" s="10"/>
-      <c r="G133" s="138" t="s">
+      <c r="G133" s="137" t="s">
         <v>144</v>
       </c>
-      <c r="H133" s="139" t="n">
+      <c r="H133" s="138" t="n">
         <f aca="false">SUM(F38,F42,F46)</f>
         <v>0</v>
       </c>
-      <c r="I133" s="139" t="n">
+      <c r="I133" s="138" t="n">
         <f aca="false">SUM(F39,F43,F47)</f>
         <v>0</v>
       </c>
-      <c r="J133" s="137"/>
-      <c r="K133" s="137"/>
-      <c r="L133" s="137"/>
+      <c r="J133" s="136"/>
+      <c r="K133" s="136"/>
+      <c r="L133" s="136"/>
     </row>
     <row r="134" s="19" customFormat="true" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A134" s="138" t="s">
+      <c r="A134" s="137" t="s">
         <v>145</v>
       </c>
-      <c r="B134" s="138"/>
-      <c r="C134" s="139" t="n">
+      <c r="B134" s="137"/>
+      <c r="C134" s="138" t="n">
         <f aca="false">F125</f>
         <v>0</v>
       </c>
-      <c r="D134" s="139" t="n">
+      <c r="D134" s="138" t="n">
         <f aca="false">F126</f>
         <v>0</v>
       </c>
-      <c r="E134" s="139" t="n">
+      <c r="E134" s="138" t="n">
         <f aca="false">D134-C134</f>
         <v>0</v>
       </c>
       <c r="F134" s="10"/>
-      <c r="G134" s="138" t="s">
+      <c r="G134" s="137" t="s">
         <v>145</v>
       </c>
-      <c r="H134" s="139" t="n">
+      <c r="H134" s="138" t="n">
         <f aca="false">SUM(F91,F95,F99,F103)</f>
         <v>0</v>
       </c>
-      <c r="I134" s="139" t="n">
+      <c r="I134" s="138" t="n">
         <f aca="false">SUM(F92,F96,F100,F104)</f>
         <v>0</v>
       </c>
-      <c r="J134" s="137"/>
-      <c r="K134" s="137"/>
-      <c r="L134" s="137"/>
+      <c r="J134" s="136"/>
+      <c r="K134" s="136"/>
+      <c r="L134" s="136"/>
     </row>
     <row r="135" s="19" customFormat="true" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A135" s="138" t="s">
+      <c r="A135" s="137" t="s">
         <v>146</v>
       </c>
-      <c r="B135" s="138"/>
-      <c r="C135" s="139" t="n">
+      <c r="B135" s="137"/>
+      <c r="C135" s="138" t="n">
         <f aca="false">H72</f>
         <v>0</v>
       </c>
-      <c r="D135" s="139" t="n">
+      <c r="D135" s="138" t="n">
         <f aca="false">H73</f>
         <v>0</v>
       </c>
-      <c r="E135" s="139" t="n">
+      <c r="E135" s="138" t="n">
         <f aca="false">D135-C135</f>
         <v>0</v>
       </c>
       <c r="F135" s="10"/>
-      <c r="G135" s="140" t="s">
+      <c r="G135" s="139" t="s">
         <v>146</v>
       </c>
-      <c r="H135" s="139" t="n">
+      <c r="H135" s="138" t="n">
         <f aca="false">SUM(H38,H42,H46,H50)</f>
         <v>0</v>
       </c>
-      <c r="I135" s="139" t="n">
+      <c r="I135" s="138" t="n">
         <f aca="false">SUM(H39,H43,H47,H51)</f>
         <v>0</v>
       </c>
-      <c r="J135" s="137"/>
-      <c r="K135" s="137"/>
-      <c r="L135" s="137"/>
+      <c r="J135" s="136"/>
+      <c r="K135" s="136"/>
+      <c r="L135" s="136"/>
     </row>
     <row r="136" s="19" customFormat="true" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A136" s="138" t="s">
+      <c r="A136" s="137" t="s">
         <v>147</v>
       </c>
-      <c r="B136" s="138"/>
+      <c r="B136" s="137"/>
       <c r="C136" s="115" t="n">
         <f aca="false">SUM(C133:C135)</f>
         <v>0</v>
@@ -8546,20 +8546,20 @@
         <v>0</v>
       </c>
       <c r="F136" s="10"/>
-      <c r="G136" s="138" t="s">
+      <c r="G136" s="137" t="s">
         <v>147</v>
       </c>
-      <c r="H136" s="139" t="n">
+      <c r="H136" s="138" t="n">
         <f aca="false">SUM(H133:H135)</f>
         <v>0</v>
       </c>
-      <c r="I136" s="139" t="n">
+      <c r="I136" s="138" t="n">
         <f aca="false">SUM(I133:I135)</f>
         <v>0</v>
       </c>
-      <c r="J136" s="137"/>
-      <c r="K136" s="137"/>
-      <c r="L136" s="137"/>
+      <c r="J136" s="136"/>
+      <c r="K136" s="136"/>
+      <c r="L136" s="136"/>
     </row>
     <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="10"/>
@@ -8573,7 +8573,7 @@
       <c r="I137" s="10"/>
     </row>
     <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="141" t="s">
+      <c r="A138" s="140" t="s">
         <v>148</v>
       </c>
       <c r="B138" s="10"/>
@@ -8586,7 +8586,7 @@
       <c r="I138" s="10"/>
     </row>
     <row r="139" s="19" customFormat="true" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A139" s="142" t="s">
+      <c r="A139" s="141" t="s">
         <v>149</v>
       </c>
       <c r="B139" s="10"/>
@@ -8595,7 +8595,7 @@
       <c r="E139" s="43" t="s">
         <v>150</v>
       </c>
-      <c r="F139" s="143"/>
+      <c r="F139" s="142"/>
       <c r="G139" s="31" t="str">
         <f aca="false">IF(F139="","Please complete using dropdown","")</f>
         <v>Please complete using dropdown</v>
@@ -8611,7 +8611,7 @@
       <c r="E140" s="43" t="s">
         <v>151</v>
       </c>
-      <c r="F140" s="143"/>
+      <c r="F140" s="142"/>
       <c r="G140" s="31" t="str">
         <f aca="false">IF(F140="","Please complete using dropdown","")</f>
         <v>Please complete using dropdown</v>
@@ -8620,10 +8620,10 @@
       <c r="I140" s="10"/>
     </row>
     <row r="141" s="19" customFormat="true" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A141" s="144" t="s">
+      <c r="A141" s="143" t="s">
         <v>152</v>
       </c>
-      <c r="B141" s="144"/>
+      <c r="B141" s="143"/>
       <c r="C141" s="18"/>
       <c r="D141" s="68" t="str">
         <f aca="false">IF(C141="","Please complete using dropdown","")</f>
@@ -8632,7 +8632,7 @@
       <c r="E141" s="43" t="s">
         <v>153</v>
       </c>
-      <c r="F141" s="143"/>
+      <c r="F141" s="142"/>
       <c r="G141" s="31" t="str">
         <f aca="false">IF(F141="","Please complete using dropdown","")</f>
         <v>Please complete using dropdown</v>
@@ -8680,7 +8680,7 @@
       <c r="A144" s="78" t="s">
         <v>100</v>
       </c>
-      <c r="B144" s="145" t="s">
+      <c r="B144" s="144" t="s">
         <v>101</v>
       </c>
       <c r="C144" s="80"/>
@@ -8696,7 +8696,7 @@
     </row>
     <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A145" s="78"/>
-      <c r="B145" s="145" t="s">
+      <c r="B145" s="144" t="s">
         <v>102</v>
       </c>
       <c r="C145" s="80"/>
@@ -8714,7 +8714,7 @@
       <c r="A146" s="78" t="s">
         <v>103</v>
       </c>
-      <c r="B146" s="145" t="s">
+      <c r="B146" s="144" t="s">
         <v>101</v>
       </c>
       <c r="C146" s="80"/>
@@ -8730,7 +8730,7 @@
     </row>
     <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A147" s="78"/>
-      <c r="B147" s="145" t="s">
+      <c r="B147" s="144" t="s">
         <v>102</v>
       </c>
       <c r="C147" s="80"/>
@@ -8748,7 +8748,7 @@
       <c r="A148" s="78" t="s">
         <v>104</v>
       </c>
-      <c r="B148" s="145" t="s">
+      <c r="B148" s="144" t="s">
         <v>101</v>
       </c>
       <c r="C148" s="80"/>
@@ -8764,7 +8764,7 @@
     </row>
     <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A149" s="78"/>
-      <c r="B149" s="145" t="s">
+      <c r="B149" s="144" t="s">
         <v>102</v>
       </c>
       <c r="C149" s="80"/>
@@ -8782,7 +8782,7 @@
       <c r="A150" s="78" t="s">
         <v>105</v>
       </c>
-      <c r="B150" s="145" t="s">
+      <c r="B150" s="144" t="s">
         <v>101</v>
       </c>
       <c r="C150" s="80"/>
@@ -8798,7 +8798,7 @@
     </row>
     <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A151" s="78"/>
-      <c r="B151" s="145" t="s">
+      <c r="B151" s="144" t="s">
         <v>102</v>
       </c>
       <c r="C151" s="80"/>
@@ -8816,7 +8816,7 @@
       <c r="A152" s="85" t="s">
         <v>106</v>
       </c>
-      <c r="B152" s="145" t="s">
+      <c r="B152" s="144" t="s">
         <v>101</v>
       </c>
       <c r="C152" s="80"/>
@@ -8832,7 +8832,7 @@
     </row>
     <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="85"/>
-      <c r="B153" s="145" t="s">
+      <c r="B153" s="144" t="s">
         <v>102</v>
       </c>
       <c r="C153" s="80"/>
@@ -8850,7 +8850,7 @@
       <c r="A154" s="85" t="s">
         <v>110</v>
       </c>
-      <c r="B154" s="145" t="s">
+      <c r="B154" s="144" t="s">
         <v>101</v>
       </c>
       <c r="C154" s="80"/>
@@ -8866,7 +8866,7 @@
     </row>
     <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="85"/>
-      <c r="B155" s="145" t="s">
+      <c r="B155" s="144" t="s">
         <v>112</v>
       </c>
       <c r="C155" s="80"/>
@@ -8884,7 +8884,7 @@
       <c r="A156" s="85" t="s">
         <v>113</v>
       </c>
-      <c r="B156" s="145" t="s">
+      <c r="B156" s="144" t="s">
         <v>107</v>
       </c>
       <c r="C156" s="80"/>
@@ -8900,7 +8900,7 @@
     </row>
     <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="85"/>
-      <c r="B157" s="145" t="s">
+      <c r="B157" s="144" t="s">
         <v>102</v>
       </c>
       <c r="C157" s="80"/>
@@ -8918,7 +8918,7 @@
       <c r="A158" s="85" t="s">
         <v>114</v>
       </c>
-      <c r="B158" s="145" t="s">
+      <c r="B158" s="144" t="s">
         <v>101</v>
       </c>
       <c r="C158" s="80"/>
@@ -8934,7 +8934,7 @@
     </row>
     <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="85"/>
-      <c r="B159" s="145" t="s">
+      <c r="B159" s="144" t="s">
         <v>112</v>
       </c>
       <c r="C159" s="80"/>
@@ -8952,7 +8952,7 @@
       <c r="A160" s="85" t="s">
         <v>115</v>
       </c>
-      <c r="B160" s="145" t="s">
+      <c r="B160" s="144" t="s">
         <v>107</v>
       </c>
       <c r="C160" s="80"/>
@@ -8968,7 +8968,7 @@
     </row>
     <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="85"/>
-      <c r="B161" s="145" t="s">
+      <c r="B161" s="144" t="s">
         <v>102</v>
       </c>
       <c r="C161" s="80"/>
@@ -8986,7 +8986,7 @@
       <c r="A162" s="85" t="s">
         <v>116</v>
       </c>
-      <c r="B162" s="145" t="s">
+      <c r="B162" s="144" t="s">
         <v>101</v>
       </c>
       <c r="C162" s="80"/>
@@ -9002,7 +9002,7 @@
     </row>
     <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="85"/>
-      <c r="B163" s="145" t="s">
+      <c r="B163" s="144" t="s">
         <v>112</v>
       </c>
       <c r="C163" s="80"/>
@@ -9020,13 +9020,13 @@
       <c r="A164" s="85" t="s">
         <v>117</v>
       </c>
-      <c r="B164" s="145" t="s">
+      <c r="B164" s="144" t="s">
         <v>107</v>
       </c>
-      <c r="C164" s="131"/>
-      <c r="D164" s="131"/>
-      <c r="E164" s="131"/>
-      <c r="F164" s="131"/>
+      <c r="C164" s="130"/>
+      <c r="D164" s="130"/>
+      <c r="E164" s="130"/>
+      <c r="F164" s="130"/>
       <c r="G164" s="81" t="n">
         <f aca="false">SUM(C164:E164)</f>
         <v>0</v>
@@ -9036,13 +9036,13 @@
     </row>
     <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="85"/>
-      <c r="B165" s="145" t="s">
+      <c r="B165" s="144" t="s">
         <v>102</v>
       </c>
-      <c r="C165" s="131"/>
-      <c r="D165" s="131"/>
-      <c r="E165" s="131"/>
-      <c r="F165" s="131"/>
+      <c r="C165" s="130"/>
+      <c r="D165" s="130"/>
+      <c r="E165" s="130"/>
+      <c r="F165" s="130"/>
       <c r="G165" s="81" t="n">
         <f aca="false">SUM(C165:E165)</f>
         <v>0</v>
@@ -9054,14 +9054,14 @@
       <c r="A166" s="85" t="s">
         <v>118</v>
       </c>
-      <c r="B166" s="145" t="s">
+      <c r="B166" s="144" t="s">
         <v>101</v>
       </c>
-      <c r="C166" s="131"/>
-      <c r="D166" s="131"/>
-      <c r="E166" s="131"/>
-      <c r="F166" s="131"/>
-      <c r="G166" s="146" t="n">
+      <c r="C166" s="130"/>
+      <c r="D166" s="130"/>
+      <c r="E166" s="130"/>
+      <c r="F166" s="130"/>
+      <c r="G166" s="145" t="n">
         <f aca="false">SUM(C166:E166)</f>
         <v>0</v>
       </c>
@@ -9070,7 +9070,7 @@
     </row>
     <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="85"/>
-      <c r="B167" s="145" t="s">
+      <c r="B167" s="144" t="s">
         <v>112</v>
       </c>
       <c r="C167" s="80"/>
@@ -9088,7 +9088,7 @@
       <c r="A168" s="85" t="s">
         <v>119</v>
       </c>
-      <c r="B168" s="145" t="s">
+      <c r="B168" s="144" t="s">
         <v>101</v>
       </c>
       <c r="C168" s="80"/>
@@ -9104,7 +9104,7 @@
     </row>
     <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="85"/>
-      <c r="B169" s="145" t="s">
+      <c r="B169" s="144" t="s">
         <v>102</v>
       </c>
       <c r="C169" s="80"/>
@@ -9122,7 +9122,7 @@
       <c r="A170" s="85" t="s">
         <v>120</v>
       </c>
-      <c r="B170" s="145" t="s">
+      <c r="B170" s="144" t="s">
         <v>101</v>
       </c>
       <c r="C170" s="80"/>
@@ -9138,7 +9138,7 @@
     </row>
     <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="85"/>
-      <c r="B171" s="145" t="s">
+      <c r="B171" s="144" t="s">
         <v>112</v>
       </c>
       <c r="C171" s="80"/>
@@ -9156,7 +9156,7 @@
       <c r="A172" s="85" t="s">
         <v>121</v>
       </c>
-      <c r="B172" s="145" t="s">
+      <c r="B172" s="144" t="s">
         <v>101</v>
       </c>
       <c r="C172" s="80"/>
@@ -9172,7 +9172,7 @@
     </row>
     <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="85"/>
-      <c r="B173" s="145" t="s">
+      <c r="B173" s="144" t="s">
         <v>102</v>
       </c>
       <c r="C173" s="80"/>
@@ -9190,7 +9190,7 @@
       <c r="A174" s="85" t="s">
         <v>122</v>
       </c>
-      <c r="B174" s="145" t="s">
+      <c r="B174" s="144" t="s">
         <v>101</v>
       </c>
       <c r="C174" s="80"/>
@@ -9206,7 +9206,7 @@
     </row>
     <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="85"/>
-      <c r="B175" s="145" t="s">
+      <c r="B175" s="144" t="s">
         <v>102</v>
       </c>
       <c r="C175" s="80"/>
@@ -9224,7 +9224,7 @@
       <c r="A176" s="85" t="s">
         <v>123</v>
       </c>
-      <c r="B176" s="145" t="s">
+      <c r="B176" s="144" t="s">
         <v>101</v>
       </c>
       <c r="C176" s="80"/>
@@ -9240,7 +9240,7 @@
     </row>
     <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="85"/>
-      <c r="B177" s="145" t="s">
+      <c r="B177" s="144" t="s">
         <v>112</v>
       </c>
       <c r="C177" s="80"/>
@@ -9258,7 +9258,7 @@
       <c r="A178" s="85" t="s">
         <v>124</v>
       </c>
-      <c r="B178" s="145" t="s">
+      <c r="B178" s="144" t="s">
         <v>101</v>
       </c>
       <c r="C178" s="80"/>
@@ -9274,7 +9274,7 @@
     </row>
     <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="85"/>
-      <c r="B179" s="145" t="s">
+      <c r="B179" s="144" t="s">
         <v>112</v>
       </c>
       <c r="C179" s="80"/>
@@ -9292,7 +9292,7 @@
       <c r="A180" s="85" t="s">
         <v>125</v>
       </c>
-      <c r="B180" s="145" t="s">
+      <c r="B180" s="144" t="s">
         <v>101</v>
       </c>
       <c r="C180" s="80"/>
@@ -9308,7 +9308,7 @@
     </row>
     <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="85"/>
-      <c r="B181" s="145" t="s">
+      <c r="B181" s="144" t="s">
         <v>112</v>
       </c>
       <c r="C181" s="80"/>
@@ -9326,7 +9326,7 @@
       <c r="A182" s="85" t="s">
         <v>126</v>
       </c>
-      <c r="B182" s="145" t="s">
+      <c r="B182" s="144" t="s">
         <v>101</v>
       </c>
       <c r="C182" s="80"/>
@@ -9342,7 +9342,7 @@
     </row>
     <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="85"/>
-      <c r="B183" s="145" t="s">
+      <c r="B183" s="144" t="s">
         <v>112</v>
       </c>
       <c r="C183" s="80"/>
@@ -9360,7 +9360,7 @@
       <c r="A184" s="85" t="s">
         <v>127</v>
       </c>
-      <c r="B184" s="145" t="s">
+      <c r="B184" s="144" t="s">
         <v>101</v>
       </c>
       <c r="C184" s="80"/>
@@ -9376,7 +9376,7 @@
     </row>
     <row r="185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="85"/>
-      <c r="B185" s="145" t="s">
+      <c r="B185" s="144" t="s">
         <v>112</v>
       </c>
       <c r="C185" s="80"/>
@@ -9394,7 +9394,7 @@
       <c r="A186" s="85" t="s">
         <v>160</v>
       </c>
-      <c r="B186" s="145" t="s">
+      <c r="B186" s="144" t="s">
         <v>101</v>
       </c>
       <c r="C186" s="80"/>
@@ -9410,7 +9410,7 @@
     </row>
     <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="85"/>
-      <c r="B187" s="145" t="s">
+      <c r="B187" s="144" t="s">
         <v>112</v>
       </c>
       <c r="C187" s="80"/>
@@ -9428,7 +9428,7 @@
       <c r="A188" s="113" t="s">
         <v>129</v>
       </c>
-      <c r="B188" s="147" t="s">
+      <c r="B188" s="146" t="s">
         <v>101</v>
       </c>
       <c r="C188" s="81" t="n">
@@ -9456,7 +9456,7 @@
     </row>
     <row r="189" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="113"/>
-      <c r="B189" s="148" t="s">
+      <c r="B189" s="147" t="s">
         <v>161</v>
       </c>
       <c r="C189" s="81" t="n">
@@ -9498,117 +9498,117 @@
         <v>162</v>
       </c>
       <c r="B191" s="13"/>
-      <c r="C191" s="149"/>
+      <c r="C191" s="148"/>
       <c r="D191" s="85" t="s">
         <v>163</v>
       </c>
       <c r="E191" s="112" t="s">
         <v>164</v>
       </c>
-      <c r="F191" s="150"/>
+      <c r="F191" s="149"/>
       <c r="G191" s="15"/>
-      <c r="H191" s="151" t="s">
+      <c r="H191" s="150" t="s">
         <v>165</v>
       </c>
-      <c r="I191" s="150"/>
+      <c r="I191" s="149"/>
     </row>
     <row r="192" s="19" customFormat="true" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A192" s="85" t="s">
         <v>166</v>
       </c>
-      <c r="B192" s="152"/>
+      <c r="B192" s="151"/>
       <c r="C192" s="31" t="str">
         <f aca="false">IF(AND(OR(C191="",B192="")),"Please complete using dropdown","")</f>
         <v>Please complete using dropdown</v>
       </c>
       <c r="D192" s="85"/>
-      <c r="E192" s="153" t="s">
+      <c r="E192" s="152" t="s">
         <v>167</v>
       </c>
-      <c r="F192" s="152"/>
+      <c r="F192" s="151"/>
       <c r="G192" s="15"/>
-      <c r="H192" s="151" t="s">
+      <c r="H192" s="150" t="s">
         <v>168</v>
       </c>
-      <c r="I192" s="152"/>
+      <c r="I192" s="151"/>
     </row>
     <row r="193" s="19" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A193" s="85"/>
-      <c r="B193" s="154"/>
+      <c r="B193" s="153"/>
       <c r="C193" s="10"/>
-      <c r="D193" s="155"/>
-      <c r="E193" s="156"/>
-      <c r="F193" s="157"/>
+      <c r="D193" s="154"/>
+      <c r="E193" s="155"/>
+      <c r="F193" s="156"/>
       <c r="G193" s="10"/>
-      <c r="H193" s="158"/>
-      <c r="I193" s="159"/>
+      <c r="H193" s="157"/>
+      <c r="I193" s="158"/>
     </row>
     <row r="194" s="19" customFormat="true" ht="47.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A194" s="160" t="s">
+      <c r="A194" s="159" t="s">
         <v>169</v>
       </c>
-      <c r="B194" s="161" t="s">
+      <c r="B194" s="160" t="s">
         <v>170</v>
       </c>
       <c r="C194" s="69"/>
-      <c r="D194" s="161" t="s">
+      <c r="D194" s="160" t="s">
         <v>171</v>
       </c>
       <c r="E194" s="69"/>
-      <c r="F194" s="161" t="s">
+      <c r="F194" s="160" t="s">
         <v>172</v>
       </c>
       <c r="G194" s="69"/>
-      <c r="H194" s="161" t="s">
+      <c r="H194" s="160" t="s">
         <v>173</v>
       </c>
       <c r="I194" s="69"/>
     </row>
     <row r="195" s="19" customFormat="true" ht="50.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A195" s="160"/>
-      <c r="B195" s="161" t="s">
+      <c r="A195" s="159"/>
+      <c r="B195" s="160" t="s">
         <v>174</v>
       </c>
       <c r="C195" s="69"/>
-      <c r="D195" s="161" t="s">
+      <c r="D195" s="160" t="s">
         <v>175</v>
       </c>
       <c r="E195" s="69"/>
-      <c r="F195" s="161" t="s">
+      <c r="F195" s="160" t="s">
         <v>176</v>
       </c>
       <c r="G195" s="69"/>
-      <c r="H195" s="161" t="s">
+      <c r="H195" s="160" t="s">
         <v>177</v>
       </c>
       <c r="I195" s="69"/>
     </row>
     <row r="196" s="19" customFormat="true" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A196" s="162"/>
+      <c r="A196" s="161"/>
       <c r="B196" s="35"/>
       <c r="C196" s="10"/>
-      <c r="D196" s="155"/>
-      <c r="E196" s="156"/>
-      <c r="F196" s="157"/>
+      <c r="D196" s="154"/>
+      <c r="E196" s="155"/>
+      <c r="F196" s="156"/>
       <c r="G196" s="10"/>
-      <c r="H196" s="158"/>
-      <c r="I196" s="159"/>
+      <c r="H196" s="157"/>
+      <c r="I196" s="158"/>
     </row>
     <row r="197" s="19" customFormat="true" ht="153.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A197" s="163" t="s">
+      <c r="A197" s="162" t="s">
         <v>178</v>
       </c>
-      <c r="B197" s="164"/>
-      <c r="C197" s="164"/>
-      <c r="D197" s="164"/>
-      <c r="E197" s="164"/>
-      <c r="F197" s="164"/>
-      <c r="G197" s="164"/>
-      <c r="H197" s="164"/>
-      <c r="I197" s="164"/>
+      <c r="B197" s="41"/>
+      <c r="C197" s="41"/>
+      <c r="D197" s="41"/>
+      <c r="E197" s="41"/>
+      <c r="F197" s="41"/>
+      <c r="G197" s="41"/>
+      <c r="H197" s="41"/>
+      <c r="I197" s="41"/>
     </row>
     <row r="198" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A198" s="151"/>
+      <c r="A198" s="150"/>
       <c r="B198" s="35"/>
       <c r="C198" s="35"/>
       <c r="D198" s="35"/>
@@ -9844,30 +9844,30 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="77.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="165" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="165"/>
-      <c r="C1" s="165"/>
-      <c r="D1" s="165"/>
-      <c r="E1" s="165"/>
-      <c r="F1" s="165"/>
-      <c r="G1" s="165"/>
-      <c r="H1" s="165"/>
-      <c r="I1" s="165"/>
-      <c r="J1" s="165"/>
-      <c r="K1" s="165"/>
-      <c r="L1" s="165"/>
+      <c r="A1" s="163" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="163"/>
+      <c r="C1" s="163"/>
+      <c r="D1" s="163"/>
+      <c r="E1" s="163"/>
+      <c r="F1" s="163"/>
+      <c r="G1" s="163"/>
+      <c r="H1" s="163"/>
+      <c r="I1" s="163"/>
+      <c r="J1" s="163"/>
+      <c r="K1" s="163"/>
+      <c r="L1" s="163"/>
       <c r="M1" s="60" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="166" t="s">
+      <c r="A2" s="164" t="s">
         <v>179</v>
       </c>
-      <c r="B2" s="166"/>
-      <c r="C2" s="166"/>
+      <c r="B2" s="164"/>
+      <c r="C2" s="164"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
@@ -9880,11 +9880,11 @@
       <c r="M2" s="5"/>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="167" t="s">
+      <c r="A3" s="165" t="s">
         <v>180</v>
       </c>
-      <c r="B3" s="167"/>
-      <c r="C3" s="167"/>
+      <c r="B3" s="165"/>
+      <c r="C3" s="165"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
@@ -9911,43 +9911,43 @@
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
     </row>
-    <row r="5" s="170" customFormat="true" ht="58.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="168" t="s">
+    <row r="5" s="168" customFormat="true" ht="58.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="166" t="s">
         <v>181</v>
       </c>
-      <c r="B5" s="169"/>
-      <c r="C5" s="168" t="s">
+      <c r="B5" s="167"/>
+      <c r="C5" s="166" t="s">
         <v>182</v>
       </c>
-      <c r="D5" s="169"/>
-      <c r="E5" s="168" t="s">
+      <c r="D5" s="167"/>
+      <c r="E5" s="166" t="s">
         <v>183</v>
       </c>
-      <c r="F5" s="169"/>
-      <c r="G5" s="168" t="s">
+      <c r="F5" s="167"/>
+      <c r="G5" s="166" t="s">
         <v>184</v>
       </c>
-      <c r="H5" s="169"/>
-      <c r="I5" s="140" t="s">
+      <c r="H5" s="167"/>
+      <c r="I5" s="139" t="s">
         <v>185</v>
       </c>
-      <c r="J5" s="169"/>
-      <c r="K5" s="169"/>
-      <c r="L5" s="169"/>
-      <c r="M5" s="169"/>
+      <c r="J5" s="167"/>
+      <c r="K5" s="167"/>
+      <c r="L5" s="167"/>
+      <c r="M5" s="167"/>
     </row>
     <row r="6" s="19" customFormat="true" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="168" t="s">
+      <c r="A6" s="166" t="s">
         <v>186</v>
       </c>
-      <c r="B6" s="171"/>
-      <c r="C6" s="172"/>
-      <c r="D6" s="171"/>
-      <c r="E6" s="172"/>
-      <c r="F6" s="171"/>
-      <c r="G6" s="172"/>
-      <c r="H6" s="171"/>
-      <c r="I6" s="173" t="n">
+      <c r="B6" s="169"/>
+      <c r="C6" s="170"/>
+      <c r="D6" s="169"/>
+      <c r="E6" s="170"/>
+      <c r="F6" s="169"/>
+      <c r="G6" s="170"/>
+      <c r="H6" s="169"/>
+      <c r="I6" s="171" t="n">
         <f aca="false">SUM(G6,E6,C6)</f>
         <v>0</v>
       </c>
@@ -9957,17 +9957,17 @@
       <c r="M6" s="4"/>
     </row>
     <row r="7" s="19" customFormat="true" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="168" t="s">
+      <c r="A7" s="166" t="s">
         <v>187</v>
       </c>
-      <c r="B7" s="171"/>
-      <c r="C7" s="172"/>
-      <c r="D7" s="171"/>
-      <c r="E7" s="172"/>
-      <c r="F7" s="171"/>
-      <c r="G7" s="172"/>
-      <c r="H7" s="171"/>
-      <c r="I7" s="173" t="n">
+      <c r="B7" s="169"/>
+      <c r="C7" s="170"/>
+      <c r="D7" s="169"/>
+      <c r="E7" s="170"/>
+      <c r="F7" s="169"/>
+      <c r="G7" s="170"/>
+      <c r="H7" s="169"/>
+      <c r="I7" s="171" t="n">
         <f aca="false">SUM(G7,E7,C7)</f>
         <v>0</v>
       </c>
@@ -9977,17 +9977,17 @@
       <c r="M7" s="4"/>
     </row>
     <row r="8" s="19" customFormat="true" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="168" t="s">
+      <c r="A8" s="166" t="s">
         <v>188</v>
       </c>
-      <c r="B8" s="171"/>
-      <c r="C8" s="172"/>
-      <c r="D8" s="171"/>
-      <c r="E8" s="172"/>
-      <c r="F8" s="171"/>
-      <c r="G8" s="172"/>
-      <c r="H8" s="171"/>
-      <c r="I8" s="173" t="n">
+      <c r="B8" s="169"/>
+      <c r="C8" s="170"/>
+      <c r="D8" s="169"/>
+      <c r="E8" s="170"/>
+      <c r="F8" s="169"/>
+      <c r="G8" s="170"/>
+      <c r="H8" s="169"/>
+      <c r="I8" s="171" t="n">
         <f aca="false">SUM(G8,E8,C8)</f>
         <v>0</v>
       </c>
@@ -9997,17 +9997,17 @@
       <c r="M8" s="4"/>
     </row>
     <row r="9" s="19" customFormat="true" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="168" t="s">
+      <c r="A9" s="166" t="s">
         <v>189</v>
       </c>
-      <c r="B9" s="171"/>
-      <c r="C9" s="172"/>
-      <c r="D9" s="171"/>
-      <c r="E9" s="172"/>
-      <c r="F9" s="171"/>
-      <c r="G9" s="172"/>
-      <c r="H9" s="171"/>
-      <c r="I9" s="173" t="n">
+      <c r="B9" s="169"/>
+      <c r="C9" s="170"/>
+      <c r="D9" s="169"/>
+      <c r="E9" s="170"/>
+      <c r="F9" s="169"/>
+      <c r="G9" s="170"/>
+      <c r="H9" s="169"/>
+      <c r="I9" s="171" t="n">
         <f aca="false">SUM(G9,E9,C9)</f>
         <v>0</v>
       </c>
@@ -10017,17 +10017,17 @@
       <c r="M9" s="4"/>
     </row>
     <row r="10" s="19" customFormat="true" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="168" t="s">
+      <c r="A10" s="166" t="s">
         <v>190</v>
       </c>
-      <c r="B10" s="171"/>
-      <c r="C10" s="172"/>
-      <c r="D10" s="171"/>
-      <c r="E10" s="172"/>
-      <c r="F10" s="171"/>
-      <c r="G10" s="172"/>
-      <c r="H10" s="171"/>
-      <c r="I10" s="173" t="n">
+      <c r="B10" s="169"/>
+      <c r="C10" s="170"/>
+      <c r="D10" s="169"/>
+      <c r="E10" s="170"/>
+      <c r="F10" s="169"/>
+      <c r="G10" s="170"/>
+      <c r="H10" s="169"/>
+      <c r="I10" s="171" t="n">
         <f aca="false">SUM(G10,E10,C10)</f>
         <v>0</v>
       </c>
@@ -10037,17 +10037,17 @@
       <c r="M10" s="4"/>
     </row>
     <row r="11" s="19" customFormat="true" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="168" t="s">
+      <c r="A11" s="166" t="s">
         <v>191</v>
       </c>
-      <c r="B11" s="171"/>
-      <c r="C11" s="172"/>
-      <c r="D11" s="171"/>
-      <c r="E11" s="172"/>
-      <c r="F11" s="171"/>
-      <c r="G11" s="172"/>
-      <c r="H11" s="171"/>
-      <c r="I11" s="173" t="n">
+      <c r="B11" s="169"/>
+      <c r="C11" s="170"/>
+      <c r="D11" s="169"/>
+      <c r="E11" s="170"/>
+      <c r="F11" s="169"/>
+      <c r="G11" s="170"/>
+      <c r="H11" s="169"/>
+      <c r="I11" s="171" t="n">
         <f aca="false">SUM(G11,E11,C11)</f>
         <v>0</v>
       </c>
@@ -10057,17 +10057,17 @@
       <c r="M11" s="4"/>
     </row>
     <row r="12" s="19" customFormat="true" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="168" t="s">
+      <c r="A12" s="166" t="s">
         <v>192</v>
       </c>
-      <c r="B12" s="171"/>
-      <c r="C12" s="172"/>
-      <c r="D12" s="171"/>
-      <c r="E12" s="172"/>
-      <c r="F12" s="171"/>
-      <c r="G12" s="172"/>
-      <c r="H12" s="171"/>
-      <c r="I12" s="173" t="n">
+      <c r="B12" s="169"/>
+      <c r="C12" s="170"/>
+      <c r="D12" s="169"/>
+      <c r="E12" s="170"/>
+      <c r="F12" s="169"/>
+      <c r="G12" s="170"/>
+      <c r="H12" s="169"/>
+      <c r="I12" s="171" t="n">
         <f aca="false">SUM(G12,E12,C12)</f>
         <v>0</v>
       </c>
@@ -10077,17 +10077,17 @@
       <c r="M12" s="4"/>
     </row>
     <row r="13" s="19" customFormat="true" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="168" t="s">
+      <c r="A13" s="166" t="s">
         <v>193</v>
       </c>
-      <c r="B13" s="171"/>
-      <c r="C13" s="172"/>
-      <c r="D13" s="171"/>
-      <c r="E13" s="172"/>
-      <c r="F13" s="171"/>
-      <c r="G13" s="172"/>
-      <c r="H13" s="171"/>
-      <c r="I13" s="173" t="n">
+      <c r="B13" s="169"/>
+      <c r="C13" s="170"/>
+      <c r="D13" s="169"/>
+      <c r="E13" s="170"/>
+      <c r="F13" s="169"/>
+      <c r="G13" s="170"/>
+      <c r="H13" s="169"/>
+      <c r="I13" s="171" t="n">
         <f aca="false">SUM(G13,E13,C13)</f>
         <v>0</v>
       </c>
@@ -10097,17 +10097,17 @@
       <c r="M13" s="4"/>
     </row>
     <row r="14" s="19" customFormat="true" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="168" t="s">
+      <c r="A14" s="166" t="s">
         <v>194</v>
       </c>
-      <c r="B14" s="171"/>
-      <c r="C14" s="172"/>
-      <c r="D14" s="171"/>
-      <c r="E14" s="172"/>
-      <c r="F14" s="171"/>
-      <c r="G14" s="172"/>
-      <c r="H14" s="171"/>
-      <c r="I14" s="173" t="n">
+      <c r="B14" s="169"/>
+      <c r="C14" s="170"/>
+      <c r="D14" s="169"/>
+      <c r="E14" s="170"/>
+      <c r="F14" s="169"/>
+      <c r="G14" s="170"/>
+      <c r="H14" s="169"/>
+      <c r="I14" s="171" t="n">
         <f aca="false">SUM(G14,E14,C14)</f>
         <v>0</v>
       </c>
@@ -10117,17 +10117,17 @@
       <c r="M14" s="4"/>
     </row>
     <row r="15" s="19" customFormat="true" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="168" t="s">
+      <c r="A15" s="166" t="s">
         <v>195</v>
       </c>
-      <c r="B15" s="171"/>
-      <c r="C15" s="172"/>
-      <c r="D15" s="171"/>
-      <c r="E15" s="172"/>
-      <c r="F15" s="171"/>
-      <c r="G15" s="172"/>
-      <c r="H15" s="171"/>
-      <c r="I15" s="173" t="n">
+      <c r="B15" s="169"/>
+      <c r="C15" s="170"/>
+      <c r="D15" s="169"/>
+      <c r="E15" s="170"/>
+      <c r="F15" s="169"/>
+      <c r="G15" s="170"/>
+      <c r="H15" s="169"/>
+      <c r="I15" s="171" t="n">
         <f aca="false">SUM(G15,E15,C15)</f>
         <v>0</v>
       </c>
@@ -10137,17 +10137,17 @@
       <c r="M15" s="4"/>
     </row>
     <row r="16" s="19" customFormat="true" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="168" t="s">
+      <c r="A16" s="166" t="s">
         <v>196</v>
       </c>
-      <c r="B16" s="171"/>
-      <c r="C16" s="172"/>
-      <c r="D16" s="171"/>
-      <c r="E16" s="172"/>
-      <c r="F16" s="171"/>
-      <c r="G16" s="172"/>
-      <c r="H16" s="171"/>
-      <c r="I16" s="173" t="n">
+      <c r="B16" s="169"/>
+      <c r="C16" s="170"/>
+      <c r="D16" s="169"/>
+      <c r="E16" s="170"/>
+      <c r="F16" s="169"/>
+      <c r="G16" s="170"/>
+      <c r="H16" s="169"/>
+      <c r="I16" s="171" t="n">
         <f aca="false">SUM(G16,E16,C16)</f>
         <v>0</v>
       </c>
@@ -10157,26 +10157,26 @@
       <c r="M16" s="4"/>
     </row>
     <row r="17" s="19" customFormat="true" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="174" t="s">
+      <c r="A17" s="172" t="s">
         <v>129</v>
       </c>
-      <c r="B17" s="171"/>
-      <c r="C17" s="173" t="n">
+      <c r="B17" s="169"/>
+      <c r="C17" s="171" t="n">
         <f aca="false">SUM(C6:C16)</f>
         <v>0</v>
       </c>
-      <c r="D17" s="171"/>
-      <c r="E17" s="173" t="n">
+      <c r="D17" s="169"/>
+      <c r="E17" s="171" t="n">
         <f aca="false">SUM(E6:E16)</f>
         <v>0</v>
       </c>
-      <c r="F17" s="171"/>
-      <c r="G17" s="173" t="n">
+      <c r="F17" s="169"/>
+      <c r="G17" s="171" t="n">
         <f aca="false">SUM(G6:G16)</f>
         <v>0</v>
       </c>
-      <c r="H17" s="171"/>
-      <c r="I17" s="175" t="n">
+      <c r="H17" s="169"/>
+      <c r="I17" s="173" t="n">
         <f aca="false">SUM(G17:H17,E17,C17)</f>
         <v>0</v>
       </c>
@@ -10196,18 +10196,18 @@
       <c r="M18" s="4"/>
     </row>
     <row r="19" s="19" customFormat="true" ht="260.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="168" t="s">
+      <c r="A19" s="166" t="s">
         <v>197</v>
       </c>
       <c r="B19" s="4"/>
-      <c r="C19" s="176"/>
-      <c r="D19" s="176"/>
-      <c r="E19" s="176"/>
-      <c r="F19" s="176"/>
-      <c r="G19" s="176"/>
-      <c r="H19" s="176"/>
-      <c r="I19" s="176"/>
-      <c r="J19" s="176"/>
+      <c r="C19" s="174"/>
+      <c r="D19" s="174"/>
+      <c r="E19" s="174"/>
+      <c r="F19" s="174"/>
+      <c r="G19" s="174"/>
+      <c r="H19" s="174"/>
+      <c r="I19" s="174"/>
+      <c r="J19" s="174"/>
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
@@ -10228,21 +10228,21 @@
       <c r="M20" s="4"/>
     </row>
     <row r="21" s="19" customFormat="true" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="177" t="s">
+      <c r="A21" s="175" t="s">
         <v>198</v>
       </c>
       <c r="B21" s="4"/>
-      <c r="C21" s="178" t="s">
+      <c r="C21" s="176" t="s">
         <v>199</v>
       </c>
-      <c r="D21" s="178"/>
-      <c r="E21" s="178"/>
-      <c r="F21" s="178"/>
-      <c r="G21" s="178"/>
-      <c r="I21" s="178" t="s">
+      <c r="D21" s="176"/>
+      <c r="E21" s="176"/>
+      <c r="F21" s="176"/>
+      <c r="G21" s="176"/>
+      <c r="I21" s="176" t="s">
         <v>200</v>
       </c>
-      <c r="J21" s="178"/>
+      <c r="J21" s="176"/>
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
       <c r="M21" s="4"/>
@@ -10254,25 +10254,25 @@
       <c r="M22" s="4"/>
     </row>
     <row r="23" s="19" customFormat="true" ht="50.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="179" t="s">
+      <c r="A23" s="177" t="s">
         <v>201</v>
       </c>
       <c r="B23" s="4"/>
-      <c r="C23" s="168" t="s">
+      <c r="C23" s="166" t="s">
         <v>182</v>
       </c>
-      <c r="D23" s="170"/>
-      <c r="E23" s="168" t="s">
+      <c r="D23" s="168"/>
+      <c r="E23" s="166" t="s">
         <v>183</v>
       </c>
-      <c r="F23" s="170"/>
-      <c r="G23" s="168" t="s">
+      <c r="F23" s="168"/>
+      <c r="G23" s="166" t="s">
         <v>202</v>
       </c>
-      <c r="I23" s="180" t="s">
+      <c r="I23" s="178" t="s">
         <v>203</v>
       </c>
-      <c r="J23" s="180" t="s">
+      <c r="J23" s="178" t="s">
         <v>204</v>
       </c>
       <c r="K23" s="4"/>
@@ -10295,247 +10295,247 @@
       <c r="M24" s="4"/>
     </row>
     <row r="25" s="19" customFormat="true" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="168" t="s">
+      <c r="A25" s="166" t="s">
         <v>205</v>
       </c>
       <c r="B25" s="4"/>
-      <c r="C25" s="172"/>
-      <c r="D25" s="171"/>
-      <c r="E25" s="172"/>
-      <c r="F25" s="171"/>
-      <c r="G25" s="172"/>
-      <c r="H25" s="171"/>
-      <c r="I25" s="172"/>
-      <c r="J25" s="181"/>
-      <c r="K25" s="182" t="s">
+      <c r="C25" s="170"/>
+      <c r="D25" s="169"/>
+      <c r="E25" s="170"/>
+      <c r="F25" s="169"/>
+      <c r="G25" s="170"/>
+      <c r="H25" s="169"/>
+      <c r="I25" s="170"/>
+      <c r="J25" s="179"/>
+      <c r="K25" s="180" t="s">
         <v>206</v>
       </c>
-      <c r="L25" s="183" t="s">
+      <c r="L25" s="181" t="s">
         <v>207</v>
       </c>
-      <c r="M25" s="183"/>
+      <c r="M25" s="181"/>
     </row>
     <row r="26" s="19" customFormat="true" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="168" t="s">
+      <c r="A26" s="166" t="s">
         <v>208</v>
       </c>
       <c r="B26" s="4"/>
-      <c r="C26" s="172"/>
-      <c r="D26" s="171"/>
-      <c r="E26" s="172"/>
-      <c r="F26" s="171"/>
-      <c r="G26" s="172"/>
-      <c r="H26" s="171"/>
-      <c r="I26" s="172"/>
-      <c r="J26" s="181"/>
-      <c r="K26" s="184" t="s">
+      <c r="C26" s="170"/>
+      <c r="D26" s="169"/>
+      <c r="E26" s="170"/>
+      <c r="F26" s="169"/>
+      <c r="G26" s="170"/>
+      <c r="H26" s="169"/>
+      <c r="I26" s="170"/>
+      <c r="J26" s="179"/>
+      <c r="K26" s="182" t="s">
         <v>209</v>
       </c>
-      <c r="L26" s="183" t="s">
+      <c r="L26" s="181" t="s">
         <v>210</v>
       </c>
-      <c r="M26" s="183"/>
+      <c r="M26" s="181"/>
     </row>
     <row r="27" s="19" customFormat="true" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="168" t="s">
+      <c r="A27" s="166" t="s">
         <v>211</v>
       </c>
       <c r="B27" s="4"/>
-      <c r="C27" s="172"/>
-      <c r="D27" s="171"/>
-      <c r="E27" s="172"/>
-      <c r="F27" s="171"/>
-      <c r="G27" s="172"/>
-      <c r="H27" s="171"/>
-      <c r="I27" s="172"/>
-      <c r="J27" s="181"/>
-      <c r="K27" s="185" t="s">
+      <c r="C27" s="170"/>
+      <c r="D27" s="169"/>
+      <c r="E27" s="170"/>
+      <c r="F27" s="169"/>
+      <c r="G27" s="170"/>
+      <c r="H27" s="169"/>
+      <c r="I27" s="170"/>
+      <c r="J27" s="179"/>
+      <c r="K27" s="183" t="s">
         <v>212</v>
       </c>
-      <c r="L27" s="183" t="s">
+      <c r="L27" s="181" t="s">
         <v>213</v>
       </c>
-      <c r="M27" s="183"/>
+      <c r="M27" s="181"/>
     </row>
     <row r="28" s="19" customFormat="true" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="168" t="s">
+      <c r="A28" s="166" t="s">
         <v>214</v>
       </c>
       <c r="B28" s="4"/>
-      <c r="C28" s="172"/>
-      <c r="D28" s="171"/>
-      <c r="E28" s="172"/>
-      <c r="F28" s="171"/>
-      <c r="G28" s="172"/>
-      <c r="H28" s="171"/>
-      <c r="I28" s="172"/>
-      <c r="J28" s="181"/>
-      <c r="K28" s="186" t="s">
+      <c r="C28" s="170"/>
+      <c r="D28" s="169"/>
+      <c r="E28" s="170"/>
+      <c r="F28" s="169"/>
+      <c r="G28" s="170"/>
+      <c r="H28" s="169"/>
+      <c r="I28" s="170"/>
+      <c r="J28" s="179"/>
+      <c r="K28" s="184" t="s">
         <v>215</v>
       </c>
-      <c r="L28" s="183" t="s">
+      <c r="L28" s="181" t="s">
         <v>216</v>
       </c>
-      <c r="M28" s="183"/>
+      <c r="M28" s="181"/>
     </row>
     <row r="29" s="19" customFormat="true" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="168" t="s">
+      <c r="A29" s="166" t="s">
         <v>217</v>
       </c>
       <c r="B29" s="4"/>
-      <c r="C29" s="172"/>
-      <c r="D29" s="171"/>
-      <c r="E29" s="172"/>
-      <c r="F29" s="171"/>
-      <c r="G29" s="172"/>
-      <c r="H29" s="171"/>
-      <c r="I29" s="172"/>
-      <c r="J29" s="172"/>
+      <c r="C29" s="170"/>
+      <c r="D29" s="169"/>
+      <c r="E29" s="170"/>
+      <c r="F29" s="169"/>
+      <c r="G29" s="170"/>
+      <c r="H29" s="169"/>
+      <c r="I29" s="170"/>
+      <c r="J29" s="170"/>
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
       <c r="M29" s="4"/>
     </row>
     <row r="30" s="19" customFormat="true" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="168" t="s">
+      <c r="A30" s="166" t="s">
         <v>218</v>
       </c>
       <c r="B30" s="4"/>
-      <c r="C30" s="172"/>
-      <c r="D30" s="171"/>
-      <c r="E30" s="172"/>
-      <c r="F30" s="171"/>
-      <c r="G30" s="172"/>
-      <c r="H30" s="171"/>
-      <c r="I30" s="172"/>
-      <c r="J30" s="172"/>
+      <c r="C30" s="170"/>
+      <c r="D30" s="169"/>
+      <c r="E30" s="170"/>
+      <c r="F30" s="169"/>
+      <c r="G30" s="170"/>
+      <c r="H30" s="169"/>
+      <c r="I30" s="170"/>
+      <c r="J30" s="170"/>
       <c r="K30" s="4"/>
       <c r="L30" s="4"/>
       <c r="M30" s="4"/>
     </row>
     <row r="31" s="19" customFormat="true" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="168" t="s">
+      <c r="A31" s="166" t="s">
         <v>219</v>
       </c>
       <c r="B31" s="4"/>
-      <c r="C31" s="172"/>
-      <c r="D31" s="171"/>
-      <c r="E31" s="172"/>
-      <c r="F31" s="171"/>
-      <c r="G31" s="172"/>
-      <c r="H31" s="171"/>
-      <c r="I31" s="172"/>
-      <c r="J31" s="172"/>
+      <c r="C31" s="170"/>
+      <c r="D31" s="169"/>
+      <c r="E31" s="170"/>
+      <c r="F31" s="169"/>
+      <c r="G31" s="170"/>
+      <c r="H31" s="169"/>
+      <c r="I31" s="170"/>
+      <c r="J31" s="170"/>
       <c r="K31" s="4"/>
       <c r="L31" s="4"/>
       <c r="M31" s="4"/>
     </row>
     <row r="32" s="19" customFormat="true" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="168" t="s">
+      <c r="A32" s="166" t="s">
         <v>220</v>
       </c>
       <c r="B32" s="4"/>
-      <c r="C32" s="172"/>
-      <c r="D32" s="171"/>
-      <c r="E32" s="172"/>
-      <c r="F32" s="171"/>
-      <c r="G32" s="172"/>
-      <c r="H32" s="171"/>
-      <c r="I32" s="172"/>
-      <c r="J32" s="172"/>
+      <c r="C32" s="170"/>
+      <c r="D32" s="169"/>
+      <c r="E32" s="170"/>
+      <c r="F32" s="169"/>
+      <c r="G32" s="170"/>
+      <c r="H32" s="169"/>
+      <c r="I32" s="170"/>
+      <c r="J32" s="170"/>
       <c r="K32" s="4"/>
       <c r="L32" s="4"/>
       <c r="M32" s="4"/>
     </row>
     <row r="33" s="19" customFormat="true" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="168" t="s">
+      <c r="A33" s="166" t="s">
         <v>221</v>
       </c>
       <c r="B33" s="4"/>
-      <c r="C33" s="172"/>
-      <c r="D33" s="171"/>
-      <c r="E33" s="172"/>
-      <c r="F33" s="171"/>
-      <c r="G33" s="172"/>
-      <c r="H33" s="171"/>
-      <c r="I33" s="172"/>
-      <c r="J33" s="172"/>
+      <c r="C33" s="170"/>
+      <c r="D33" s="169"/>
+      <c r="E33" s="170"/>
+      <c r="F33" s="169"/>
+      <c r="G33" s="170"/>
+      <c r="H33" s="169"/>
+      <c r="I33" s="170"/>
+      <c r="J33" s="170"/>
       <c r="K33" s="4"/>
       <c r="L33" s="4"/>
       <c r="M33" s="4"/>
     </row>
     <row r="34" s="19" customFormat="true" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="168" t="s">
+      <c r="A34" s="166" t="s">
         <v>222</v>
       </c>
       <c r="B34" s="4"/>
-      <c r="C34" s="172"/>
-      <c r="D34" s="171"/>
-      <c r="E34" s="172"/>
-      <c r="F34" s="171"/>
-      <c r="G34" s="172"/>
-      <c r="H34" s="171"/>
-      <c r="I34" s="172"/>
-      <c r="J34" s="172"/>
+      <c r="C34" s="170"/>
+      <c r="D34" s="169"/>
+      <c r="E34" s="170"/>
+      <c r="F34" s="169"/>
+      <c r="G34" s="170"/>
+      <c r="H34" s="169"/>
+      <c r="I34" s="170"/>
+      <c r="J34" s="170"/>
       <c r="K34" s="4"/>
       <c r="L34" s="4"/>
       <c r="M34" s="4"/>
     </row>
     <row r="35" s="19" customFormat="true" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="187" t="s">
+      <c r="A35" s="185" t="s">
         <v>223</v>
       </c>
       <c r="B35" s="4"/>
-      <c r="C35" s="172"/>
-      <c r="D35" s="171"/>
-      <c r="E35" s="172"/>
-      <c r="F35" s="171"/>
-      <c r="G35" s="172"/>
-      <c r="H35" s="171"/>
-      <c r="I35" s="172"/>
-      <c r="J35" s="172"/>
+      <c r="C35" s="170"/>
+      <c r="D35" s="169"/>
+      <c r="E35" s="170"/>
+      <c r="F35" s="169"/>
+      <c r="G35" s="170"/>
+      <c r="H35" s="169"/>
+      <c r="I35" s="170"/>
+      <c r="J35" s="170"/>
       <c r="K35" s="4"/>
       <c r="L35" s="4"/>
       <c r="M35" s="4"/>
     </row>
     <row r="36" s="19" customFormat="true" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="187" t="s">
+      <c r="A36" s="185" t="s">
         <v>223</v>
       </c>
       <c r="B36" s="4"/>
-      <c r="C36" s="172"/>
-      <c r="D36" s="171"/>
-      <c r="E36" s="172"/>
-      <c r="F36" s="171"/>
-      <c r="G36" s="172"/>
-      <c r="H36" s="171"/>
-      <c r="I36" s="172"/>
-      <c r="J36" s="172"/>
+      <c r="C36" s="170"/>
+      <c r="D36" s="169"/>
+      <c r="E36" s="170"/>
+      <c r="F36" s="169"/>
+      <c r="G36" s="170"/>
+      <c r="H36" s="169"/>
+      <c r="I36" s="170"/>
+      <c r="J36" s="170"/>
       <c r="K36" s="4"/>
       <c r="L36" s="4"/>
       <c r="M36" s="4"/>
     </row>
     <row r="37" s="19" customFormat="true" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="188" t="s">
+      <c r="A37" s="186" t="s">
         <v>129</v>
       </c>
       <c r="B37" s="4"/>
-      <c r="C37" s="189" t="n">
+      <c r="C37" s="187" t="n">
         <f aca="false">SUM(C25:C36)</f>
         <v>0</v>
       </c>
-      <c r="D37" s="171"/>
-      <c r="E37" s="189" t="n">
+      <c r="D37" s="169"/>
+      <c r="E37" s="187" t="n">
         <f aca="false">SUM(E25:E36)</f>
         <v>0</v>
       </c>
-      <c r="F37" s="171"/>
-      <c r="G37" s="190" t="n">
+      <c r="F37" s="169"/>
+      <c r="G37" s="188" t="n">
         <f aca="false">SUM(G25:G36)</f>
         <v>0</v>
       </c>
-      <c r="H37" s="171"/>
-      <c r="I37" s="171"/>
-      <c r="J37" s="171"/>
+      <c r="H37" s="169"/>
+      <c r="I37" s="169"/>
+      <c r="J37" s="169"/>
       <c r="K37" s="4"/>
       <c r="L37" s="4"/>
       <c r="M37" s="4"/>
@@ -10543,35 +10543,35 @@
     <row r="38" s="19" customFormat="true" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
-      <c r="C38" s="191" t="s">
+      <c r="C38" s="189" t="s">
         <v>224</v>
       </c>
-      <c r="D38" s="191"/>
-      <c r="E38" s="191"/>
+      <c r="D38" s="189"/>
+      <c r="E38" s="189"/>
       <c r="F38" s="4"/>
-      <c r="G38" s="180" t="s">
+      <c r="G38" s="178" t="s">
         <v>225</v>
       </c>
       <c r="H38" s="4"/>
-      <c r="I38" s="172"/>
-      <c r="J38" s="172"/>
+      <c r="I38" s="170"/>
+      <c r="J38" s="170"/>
       <c r="K38" s="4"/>
       <c r="L38" s="4"/>
       <c r="M38" s="4"/>
     </row>
     <row r="39" s="19" customFormat="true" ht="259.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="168" t="s">
+      <c r="A39" s="166" t="s">
         <v>197</v>
       </c>
       <c r="B39" s="4"/>
-      <c r="C39" s="192"/>
-      <c r="D39" s="192"/>
-      <c r="E39" s="192"/>
-      <c r="F39" s="192"/>
-      <c r="G39" s="192"/>
-      <c r="H39" s="192"/>
-      <c r="I39" s="192"/>
-      <c r="J39" s="192"/>
+      <c r="C39" s="190"/>
+      <c r="D39" s="190"/>
+      <c r="E39" s="190"/>
+      <c r="F39" s="190"/>
+      <c r="G39" s="190"/>
+      <c r="H39" s="190"/>
+      <c r="I39" s="190"/>
+      <c r="J39" s="190"/>
       <c r="K39" s="4"/>
       <c r="L39" s="4"/>
       <c r="M39" s="4"/>
@@ -10632,28 +10632,28 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="77.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="165" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="165"/>
-      <c r="C1" s="165"/>
-      <c r="D1" s="165"/>
-      <c r="E1" s="165"/>
-      <c r="F1" s="165"/>
-      <c r="G1" s="193" t="s">
+      <c r="A1" s="163" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="163"/>
+      <c r="C1" s="163"/>
+      <c r="D1" s="163"/>
+      <c r="E1" s="163"/>
+      <c r="F1" s="163"/>
+      <c r="G1" s="191" t="s">
         <v>64</v>
       </c>
-      <c r="H1" s="193"/>
-      <c r="I1" s="194"/>
-      <c r="J1" s="195"/>
-      <c r="K1" s="195"/>
+      <c r="H1" s="191"/>
+      <c r="I1" s="192"/>
+      <c r="J1" s="193"/>
+      <c r="K1" s="193"/>
     </row>
     <row r="2" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="166" t="s">
+      <c r="A2" s="164" t="s">
         <v>226</v>
       </c>
-      <c r="B2" s="166"/>
-      <c r="C2" s="166"/>
+      <c r="B2" s="164"/>
+      <c r="C2" s="164"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
@@ -10665,11 +10665,11 @@
       <c r="L2" s="5"/>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="196" t="s">
+      <c r="A3" s="194" t="s">
         <v>227</v>
       </c>
-      <c r="B3" s="196"/>
-      <c r="C3" s="196"/>
+      <c r="B3" s="194"/>
+      <c r="C3" s="194"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
@@ -10695,24 +10695,24 @@
       <c r="L4" s="5"/>
     </row>
     <row r="5" s="19" customFormat="true" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="180" t="s">
+      <c r="A5" s="178" t="s">
         <v>228</v>
       </c>
-      <c r="B5" s="197"/>
-      <c r="C5" s="180" t="s">
+      <c r="B5" s="195"/>
+      <c r="C5" s="178" t="s">
         <v>229</v>
       </c>
-      <c r="D5" s="198"/>
-      <c r="E5" s="199" t="str">
+      <c r="D5" s="196"/>
+      <c r="E5" s="197" t="str">
         <f aca="false">IF(B5="","Please refer to guidance and ensure that project stage is consistent with latest Business Case approval stage","")</f>
         <v>Please refer to guidance and ensure that project stage is consistent with latest Business Case approval stage</v>
       </c>
-      <c r="F5" s="199"/>
-      <c r="G5" s="199"/>
-      <c r="H5" s="199"/>
-      <c r="I5" s="199"/>
-      <c r="J5" s="199"/>
-      <c r="K5" s="199"/>
+      <c r="F5" s="197"/>
+      <c r="G5" s="197"/>
+      <c r="H5" s="197"/>
+      <c r="I5" s="197"/>
+      <c r="J5" s="197"/>
+      <c r="K5" s="197"/>
     </row>
     <row r="6" s="19" customFormat="true" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="4"/>
@@ -10728,41 +10728,41 @@
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
     </row>
-    <row r="7" s="201" customFormat="true" ht="64.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="180" t="s">
+    <row r="7" s="199" customFormat="true" ht="64.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="178" t="s">
         <v>230</v>
       </c>
-      <c r="B7" s="200" t="s">
+      <c r="B7" s="198" t="s">
         <v>231</v>
       </c>
-      <c r="C7" s="200" t="s">
+      <c r="C7" s="198" t="s">
         <v>232</v>
       </c>
-      <c r="D7" s="200" t="s">
+      <c r="D7" s="198" t="s">
         <v>233</v>
       </c>
-      <c r="E7" s="200" t="s">
+      <c r="E7" s="198" t="s">
         <v>234</v>
       </c>
-      <c r="F7" s="179" t="s">
+      <c r="F7" s="177" t="s">
         <v>235</v>
       </c>
-      <c r="G7" s="195"/>
-      <c r="H7" s="195"/>
-      <c r="I7" s="195"/>
-      <c r="J7" s="195"/>
-      <c r="K7" s="195"/>
-      <c r="L7" s="195"/>
+      <c r="G7" s="193"/>
+      <c r="H7" s="193"/>
+      <c r="I7" s="193"/>
+      <c r="J7" s="193"/>
+      <c r="K7" s="193"/>
+      <c r="L7" s="193"/>
     </row>
     <row r="8" s="19" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="202" t="s">
+      <c r="A8" s="200" t="s">
         <v>236</v>
       </c>
-      <c r="B8" s="203"/>
-      <c r="C8" s="204"/>
-      <c r="D8" s="204"/>
-      <c r="E8" s="204"/>
-      <c r="F8" s="205"/>
+      <c r="B8" s="201"/>
+      <c r="C8" s="202"/>
+      <c r="D8" s="202"/>
+      <c r="E8" s="202"/>
+      <c r="F8" s="203"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
@@ -10771,324 +10771,324 @@
       <c r="L8" s="4"/>
     </row>
     <row r="9" s="19" customFormat="true" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="206" t="s">
+      <c r="A9" s="204" t="s">
         <v>237</v>
       </c>
-      <c r="B9" s="207"/>
-      <c r="C9" s="207"/>
-      <c r="D9" s="207"/>
-      <c r="E9" s="208"/>
-      <c r="F9" s="209"/>
-      <c r="G9" s="210" t="str">
+      <c r="B9" s="205"/>
+      <c r="C9" s="205"/>
+      <c r="D9" s="205"/>
+      <c r="E9" s="206"/>
+      <c r="F9" s="207"/>
+      <c r="G9" s="208" t="str">
         <f aca="false">IF(OR(B9="",D9=""),"Please add Original Baseline and/or Forecast date if either is missing",IF(B9=C9,"Please delete Rebaseline as same as Original Baseline",IF(D9=B9,"",IF(AND(D9&lt;&gt;B9,G183=""),CONCATENATE(D9-B9," / ",IF(C9&lt;&gt;"",D9-C9,"-")," days change from the Original Baseline / Rebaseline - please provide reason if considered significant change. If Rebaselined, please provide reason"),IF(C9="",CONCATENATE(D9-B9," days change from the Original Baseline"),CONCATENATE(D9-B9," days change from the Original Baseline; ",D9-C9," days change from the rebaseline"))))))</f>
         <v>Please add Original Baseline and/or Forecast date if either is missing</v>
       </c>
-      <c r="H9" s="210"/>
-      <c r="I9" s="210"/>
-      <c r="J9" s="210"/>
-      <c r="K9" s="210"/>
-      <c r="L9" s="210"/>
+      <c r="H9" s="208"/>
+      <c r="I9" s="208"/>
+      <c r="J9" s="208"/>
+      <c r="K9" s="208"/>
+      <c r="L9" s="208"/>
     </row>
     <row r="10" s="19" customFormat="true" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="206" t="s">
+      <c r="A10" s="204" t="s">
         <v>238</v>
       </c>
-      <c r="B10" s="207"/>
-      <c r="C10" s="207"/>
-      <c r="D10" s="207"/>
-      <c r="E10" s="198" t="s">
+      <c r="B10" s="205"/>
+      <c r="C10" s="205"/>
+      <c r="D10" s="205"/>
+      <c r="E10" s="196" t="s">
         <v>239</v>
       </c>
-      <c r="F10" s="209"/>
-      <c r="G10" s="210" t="str">
+      <c r="F10" s="207"/>
+      <c r="G10" s="208" t="str">
         <f aca="false">IF(OR(B10="",D10=""),"Please add Original Baseline and/or Forecast date if either is missing",IF(B10=C10,"Please delete Rebaseline as same as Original Baseline",IF(D10=B10,"",IF(AND(D10&lt;&gt;B10,G184=""),CONCATENATE(D10-B10," / ",IF(C10&lt;&gt;"",D10-C10,"-")," days change from the Original Baseline / Rebaseline - please provide reason if considered significant change. If Rebaselined, please provide reason"),IF(C10="",CONCATENATE(D10-B10," days change from the Original Baseline"),CONCATENATE(D10-B10," days change from the Original Baseline; ",D10-C10," days change from the rebaseline"))))))</f>
         <v>Please add Original Baseline and/or Forecast date if either is missing</v>
       </c>
-      <c r="H10" s="210"/>
-      <c r="I10" s="210"/>
-      <c r="J10" s="210"/>
-      <c r="K10" s="210"/>
-      <c r="L10" s="210"/>
+      <c r="H10" s="208"/>
+      <c r="I10" s="208"/>
+      <c r="J10" s="208"/>
+      <c r="K10" s="208"/>
+      <c r="L10" s="208"/>
     </row>
     <row r="11" s="19" customFormat="true" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="206" t="s">
+      <c r="A11" s="204" t="s">
         <v>240</v>
       </c>
-      <c r="B11" s="207"/>
-      <c r="C11" s="207"/>
-      <c r="D11" s="207"/>
-      <c r="E11" s="208"/>
-      <c r="F11" s="209"/>
-      <c r="G11" s="210" t="str">
+      <c r="B11" s="205"/>
+      <c r="C11" s="205"/>
+      <c r="D11" s="205"/>
+      <c r="E11" s="206"/>
+      <c r="F11" s="207"/>
+      <c r="G11" s="208" t="str">
         <f aca="false">IF(OR(B11="",D11=""),"Please add Original Baseline and/or Forecast date if either is missing",IF(B11=C11,"Please delete Rebaseline as same as Original Baseline",IF(D11=B11,"",IF(AND(D11&lt;&gt;B11,G185=""),CONCATENATE(D11-B11," / ",IF(C11&lt;&gt;"",D11-C11,"-")," days change from the Original Baseline / Rebaseline - please provide reason if considered significant change. If Rebaselined, please provide reason"),IF(C11="",CONCATENATE(D11-B11," days change from the Original Baseline"),CONCATENATE(D11-B11," days change from the Original Baseline; ",D11-C11," days change from the rebaseline"))))))</f>
         <v>Please add Original Baseline and/or Forecast date if either is missing</v>
       </c>
-      <c r="H11" s="210"/>
-      <c r="I11" s="210"/>
-      <c r="J11" s="210"/>
-      <c r="K11" s="210"/>
-      <c r="L11" s="210"/>
+      <c r="H11" s="208"/>
+      <c r="I11" s="208"/>
+      <c r="J11" s="208"/>
+      <c r="K11" s="208"/>
+      <c r="L11" s="208"/>
     </row>
     <row r="12" s="19" customFormat="true" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="206" t="s">
+      <c r="A12" s="204" t="s">
         <v>241</v>
       </c>
-      <c r="B12" s="207"/>
-      <c r="C12" s="207"/>
-      <c r="D12" s="207"/>
-      <c r="E12" s="198" t="s">
+      <c r="B12" s="205"/>
+      <c r="C12" s="205"/>
+      <c r="D12" s="205"/>
+      <c r="E12" s="196" t="s">
         <v>242</v>
       </c>
-      <c r="F12" s="209"/>
-      <c r="G12" s="210" t="str">
+      <c r="F12" s="207"/>
+      <c r="G12" s="208" t="str">
         <f aca="false">IF(OR(B12="",D12=""),"Please add Original Baseline and/or Forecast date if either is missing",IF(B12=C12,"Please delete Rebaseline as same as Original Baseline",IF(D12=B12,"",IF(AND(D12&lt;&gt;B12,G186=""),CONCATENATE(D12-B12," / ",IF(C12&lt;&gt;"",D12-C12,"-")," days change from the Original Baseline / Rebaseline - please provide reason if considered significant change. If Rebaselined, please provide reason"),IF(C12="",CONCATENATE(D12-B12," days change from the Original Baseline"),CONCATENATE(D12-B12," days change from the Original Baseline; ",D12-C12," days change from the rebaseline"))))))</f>
         <v>Please add Original Baseline and/or Forecast date if either is missing</v>
       </c>
-      <c r="H12" s="210"/>
-      <c r="I12" s="210"/>
-      <c r="J12" s="210"/>
-      <c r="K12" s="210"/>
-      <c r="L12" s="210"/>
+      <c r="H12" s="208"/>
+      <c r="I12" s="208"/>
+      <c r="J12" s="208"/>
+      <c r="K12" s="208"/>
+      <c r="L12" s="208"/>
     </row>
     <row r="13" s="19" customFormat="true" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="206" t="s">
+      <c r="A13" s="204" t="s">
         <v>243</v>
       </c>
-      <c r="B13" s="207"/>
-      <c r="C13" s="207"/>
-      <c r="D13" s="207"/>
-      <c r="E13" s="208"/>
-      <c r="F13" s="209"/>
-      <c r="G13" s="210" t="str">
+      <c r="B13" s="205"/>
+      <c r="C13" s="205"/>
+      <c r="D13" s="205"/>
+      <c r="E13" s="206"/>
+      <c r="F13" s="207"/>
+      <c r="G13" s="208" t="str">
         <f aca="false">IF(OR(B13="",D13=""),"Please add Original Baseline and/or Forecast date if either is missing",IF(B13=C13,"Please delete Rebaseline as same as Original Baseline",IF(D13=B13,"",IF(AND(D13&lt;&gt;B13,G187=""),CONCATENATE(D13-B13," / ",IF(C13&lt;&gt;"",D13-C13,"-")," days change from the Original Baseline / Rebaseline - please provide reason if considered significant change. If Rebaselined, please provide reason"),IF(C13="",CONCATENATE(D13-B13," days change from the Original Baseline"),CONCATENATE(D13-B13," days change from the Original Baseline; ",D13-C13," days change from the rebaseline"))))))</f>
         <v>Please add Original Baseline and/or Forecast date if either is missing</v>
       </c>
-      <c r="H13" s="210"/>
-      <c r="I13" s="210"/>
-      <c r="J13" s="210"/>
-      <c r="K13" s="210"/>
-      <c r="L13" s="210"/>
+      <c r="H13" s="208"/>
+      <c r="I13" s="208"/>
+      <c r="J13" s="208"/>
+      <c r="K13" s="208"/>
+      <c r="L13" s="208"/>
     </row>
     <row r="14" s="19" customFormat="true" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="206" t="s">
+      <c r="A14" s="204" t="s">
         <v>244</v>
       </c>
-      <c r="B14" s="207"/>
-      <c r="C14" s="207"/>
-      <c r="D14" s="207"/>
-      <c r="E14" s="208"/>
-      <c r="F14" s="209"/>
-      <c r="G14" s="210" t="str">
+      <c r="B14" s="205"/>
+      <c r="C14" s="205"/>
+      <c r="D14" s="205"/>
+      <c r="E14" s="206"/>
+      <c r="F14" s="207"/>
+      <c r="G14" s="208" t="str">
         <f aca="false">IF(OR(B14="",D14=""),"Please add Original Baseline and/or Forecast date if either is missing",IF(B14=C14,"Please delete Rebaseline as same as Original Baseline",IF(D14=B14,"",IF(AND(D14&lt;&gt;B14,G188=""),CONCATENATE(D14-B14," / ",IF(C14&lt;&gt;"",D14-C14,"-")," days change from the Original Baseline / Rebaseline - please provide reason if considered significant change. If Rebaselined, please provide reason"),IF(C14="",CONCATENATE(D14-B14," days change from the Original Baseline"),CONCATENATE(D14-B14," days change from the Original Baseline; ",D14-C14," days change from the rebaseline"))))))</f>
         <v>Please add Original Baseline and/or Forecast date if either is missing</v>
       </c>
-      <c r="H14" s="210"/>
-      <c r="I14" s="210"/>
-      <c r="J14" s="210"/>
-      <c r="K14" s="210"/>
-      <c r="L14" s="210"/>
+      <c r="H14" s="208"/>
+      <c r="I14" s="208"/>
+      <c r="J14" s="208"/>
+      <c r="K14" s="208"/>
+      <c r="L14" s="208"/>
     </row>
     <row r="15" s="19" customFormat="true" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="206" t="s">
+      <c r="A15" s="204" t="s">
         <v>245</v>
       </c>
-      <c r="B15" s="207"/>
-      <c r="C15" s="207"/>
-      <c r="D15" s="207"/>
-      <c r="E15" s="208"/>
-      <c r="F15" s="209"/>
-      <c r="G15" s="210" t="str">
+      <c r="B15" s="205"/>
+      <c r="C15" s="205"/>
+      <c r="D15" s="205"/>
+      <c r="E15" s="206"/>
+      <c r="F15" s="207"/>
+      <c r="G15" s="208" t="str">
         <f aca="false">IF(OR(B15="",D15=""),"Please add Original Baseline and/or Forecast date if either is missing",IF(B15=C15,"Please delete Rebaseline as same as Original Baseline",IF(D15=B15,"",IF(AND(D15&lt;&gt;B15,G189=""),CONCATENATE(D15-B15," / ",IF(C15&lt;&gt;"",D15-C15,"-")," days change from the Original Baseline / Rebaseline - please provide reason if considered significant change. If Rebaselined, please provide reason"),IF(C15="",CONCATENATE(D15-B15," days change from the Original Baseline"),CONCATENATE(D15-B15," days change from the Original Baseline; ",D15-C15," days change from the rebaseline"))))))</f>
         <v>Please add Original Baseline and/or Forecast date if either is missing</v>
       </c>
-      <c r="H15" s="210"/>
-      <c r="I15" s="210"/>
-      <c r="J15" s="210"/>
-      <c r="K15" s="210"/>
-      <c r="L15" s="210"/>
+      <c r="H15" s="208"/>
+      <c r="I15" s="208"/>
+      <c r="J15" s="208"/>
+      <c r="K15" s="208"/>
+      <c r="L15" s="208"/>
     </row>
     <row r="16" s="19" customFormat="true" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="206" t="s">
+      <c r="A16" s="204" t="s">
         <v>246</v>
       </c>
-      <c r="B16" s="207"/>
-      <c r="C16" s="207"/>
-      <c r="D16" s="207"/>
-      <c r="E16" s="208"/>
-      <c r="F16" s="209"/>
-      <c r="G16" s="210" t="str">
+      <c r="B16" s="205"/>
+      <c r="C16" s="205"/>
+      <c r="D16" s="205"/>
+      <c r="E16" s="206"/>
+      <c r="F16" s="207"/>
+      <c r="G16" s="208" t="str">
         <f aca="false">IF(OR(B16="",D16=""),"Please add Original Baseline and/or Forecast date if either is missing",IF(B16=C16,"Please delete Rebaseline as same as Original Baseline",IF(D16=B16,"",IF(AND(D16&lt;&gt;B16,G190=""),CONCATENATE(D16-B16," / ",IF(C16&lt;&gt;"",D16-C16,"-")," days change from the Original Baseline / Rebaseline - please provide reason if considered significant change. If Rebaselined, please provide reason"),IF(C16="",CONCATENATE(D16-B16," days change from the Original Baseline"),CONCATENATE(D16-B16," days change from the Original Baseline; ",D16-C16," days change from the rebaseline"))))))</f>
         <v>Please add Original Baseline and/or Forecast date if either is missing</v>
       </c>
-      <c r="H16" s="210"/>
-      <c r="I16" s="210"/>
-      <c r="J16" s="210"/>
-      <c r="K16" s="210"/>
-      <c r="L16" s="210"/>
+      <c r="H16" s="208"/>
+      <c r="I16" s="208"/>
+      <c r="J16" s="208"/>
+      <c r="K16" s="208"/>
+      <c r="L16" s="208"/>
     </row>
     <row r="17" s="19" customFormat="true" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="206" t="s">
+      <c r="A17" s="204" t="s">
         <v>247</v>
       </c>
-      <c r="B17" s="207"/>
-      <c r="C17" s="207"/>
-      <c r="D17" s="207"/>
-      <c r="E17" s="208"/>
-      <c r="F17" s="209"/>
-      <c r="G17" s="210" t="str">
+      <c r="B17" s="205"/>
+      <c r="C17" s="205"/>
+      <c r="D17" s="205"/>
+      <c r="E17" s="206"/>
+      <c r="F17" s="207"/>
+      <c r="G17" s="208" t="str">
         <f aca="false">IF(OR(B17="",D17=""),"Please add Original Baseline and/or Forecast date if either is missing",IF(B17=C17,"Please delete Rebaseline as same as Original Baseline",IF(D17=B17,"",IF(AND(D17&lt;&gt;B17,G191=""),CONCATENATE(D17-B17," / ",IF(C17&lt;&gt;"",D17-C17,"-")," days change from the Original Baseline / Rebaseline - please provide reason if considered significant change. If Rebaselined, please provide reason"),IF(C17="",CONCATENATE(D17-B17," days change from the Original Baseline"),CONCATENATE(D17-B17," days change from the Original Baseline; ",D17-C17," days change from the rebaseline"))))))</f>
         <v>Please add Original Baseline and/or Forecast date if either is missing</v>
       </c>
-      <c r="H17" s="210"/>
-      <c r="I17" s="210"/>
-      <c r="J17" s="210"/>
-      <c r="K17" s="210"/>
-      <c r="L17" s="210"/>
+      <c r="H17" s="208"/>
+      <c r="I17" s="208"/>
+      <c r="J17" s="208"/>
+      <c r="K17" s="208"/>
+      <c r="L17" s="208"/>
     </row>
     <row r="18" s="19" customFormat="true" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="206" t="s">
+      <c r="A18" s="204" t="s">
         <v>248</v>
       </c>
-      <c r="B18" s="207"/>
-      <c r="C18" s="207"/>
-      <c r="D18" s="207"/>
-      <c r="E18" s="208"/>
-      <c r="F18" s="209"/>
-      <c r="G18" s="210" t="str">
+      <c r="B18" s="205"/>
+      <c r="C18" s="205"/>
+      <c r="D18" s="205"/>
+      <c r="E18" s="206"/>
+      <c r="F18" s="207"/>
+      <c r="G18" s="208" t="str">
         <f aca="false">IF(OR(B18="",D18=""),"Please add Original Baseline and/or Forecast date if either is missing",IF(B18=C18,"Please delete Rebaseline as same as Original Baseline",IF(D18=B18,"",IF(AND(D18&lt;&gt;B18,G192=""),CONCATENATE(D18-B18," / ",IF(C18&lt;&gt;"",D18-C18,"-")," days change from the Original Baseline / Rebaseline - please provide reason if considered significant change. If Rebaselined, please provide reason"),IF(C18="",CONCATENATE(D18-B18," days change from the Original Baseline"),CONCATENATE(D18-B18," days change from the Original Baseline; ",D18-C18," days change from the rebaseline"))))))</f>
         <v>Please add Original Baseline and/or Forecast date if either is missing</v>
       </c>
-      <c r="H18" s="210"/>
-      <c r="I18" s="210"/>
-      <c r="J18" s="210"/>
-      <c r="K18" s="210"/>
-      <c r="L18" s="210"/>
+      <c r="H18" s="208"/>
+      <c r="I18" s="208"/>
+      <c r="J18" s="208"/>
+      <c r="K18" s="208"/>
+      <c r="L18" s="208"/>
     </row>
     <row r="19" s="19" customFormat="true" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="206" t="s">
+      <c r="A19" s="204" t="s">
         <v>249</v>
       </c>
-      <c r="B19" s="207"/>
-      <c r="C19" s="207"/>
-      <c r="D19" s="207"/>
-      <c r="E19" s="198" t="s">
+      <c r="B19" s="205"/>
+      <c r="C19" s="205"/>
+      <c r="D19" s="205"/>
+      <c r="E19" s="196" t="s">
         <v>250</v>
       </c>
-      <c r="F19" s="209"/>
-      <c r="G19" s="210" t="str">
+      <c r="F19" s="207"/>
+      <c r="G19" s="208" t="str">
         <f aca="false">IF(OR(B19="",D19=""),"Please add Original Baseline and/or Forecast date if either is missing",IF(B19=C19,"Please delete Rebaseline as same as Original Baseline",IF(D19=B19,"",IF(AND(D19&lt;&gt;B19,G193=""),CONCATENATE(D19-B19," / ",IF(C19&lt;&gt;"",D19-C19,"-")," days change from the Original Baseline / Rebaseline - please provide reason if considered significant change. If Rebaselined, please provide reason"),IF(C19="",CONCATENATE(D19-B19," days change from the Original Baseline"),CONCATENATE(D19-B19," days change from the Original Baseline; ",D19-C19," days change from the rebaseline"))))))</f>
         <v>Please add Original Baseline and/or Forecast date if either is missing</v>
       </c>
-      <c r="H19" s="210"/>
-      <c r="I19" s="210"/>
-      <c r="J19" s="210"/>
-      <c r="K19" s="210"/>
-      <c r="L19" s="210"/>
+      <c r="H19" s="208"/>
+      <c r="I19" s="208"/>
+      <c r="J19" s="208"/>
+      <c r="K19" s="208"/>
+      <c r="L19" s="208"/>
     </row>
     <row r="20" s="19" customFormat="true" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="211" t="s">
+      <c r="A20" s="209" t="s">
         <v>251</v>
       </c>
-      <c r="B20" s="207"/>
-      <c r="C20" s="207"/>
-      <c r="D20" s="207"/>
-      <c r="E20" s="208"/>
-      <c r="F20" s="209"/>
-      <c r="G20" s="210" t="str">
+      <c r="B20" s="205"/>
+      <c r="C20" s="205"/>
+      <c r="D20" s="205"/>
+      <c r="E20" s="206"/>
+      <c r="F20" s="207"/>
+      <c r="G20" s="208" t="str">
         <f aca="false">IF(OR(B20="",D20=""),"Please add Original Baseline and/or Forecast date if either is missing",IF(B20=C20,"Please delete Rebaseline as same as Original Baseline",IF(D20=B20,"",IF(AND(D20&lt;&gt;B20,G194=""),CONCATENATE(D20-B20," / ",IF(C20&lt;&gt;"",D20-C20,"-")," days change from the Original Baseline / Rebaseline - please provide reason if considered significant change. If Rebaselined, please provide reason"),IF(C20="",CONCATENATE(D20-B20," days change from the Original Baseline"),CONCATENATE(D20-B20," days change from the Original Baseline; ",D20-C20," days change from the rebaseline"))))))</f>
         <v>Please add Original Baseline and/or Forecast date if either is missing</v>
       </c>
-      <c r="H20" s="210"/>
-      <c r="I20" s="210"/>
-      <c r="J20" s="210"/>
-      <c r="K20" s="210"/>
-      <c r="L20" s="210"/>
+      <c r="H20" s="208"/>
+      <c r="I20" s="208"/>
+      <c r="J20" s="208"/>
+      <c r="K20" s="208"/>
+      <c r="L20" s="208"/>
     </row>
     <row r="21" s="19" customFormat="true" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="211" t="s">
+      <c r="A21" s="209" t="s">
         <v>252</v>
       </c>
-      <c r="B21" s="207"/>
-      <c r="C21" s="207"/>
-      <c r="D21" s="207"/>
-      <c r="E21" s="208"/>
-      <c r="F21" s="209"/>
-      <c r="G21" s="210" t="str">
+      <c r="B21" s="205"/>
+      <c r="C21" s="205"/>
+      <c r="D21" s="205"/>
+      <c r="E21" s="206"/>
+      <c r="F21" s="207"/>
+      <c r="G21" s="208" t="str">
         <f aca="false">IF(OR(B21="",D21=""),"Please add Original Baseline and/or Forecast date if either is missing",IF(B21=C21,"Please delete Rebaseline as same as Original Baseline",IF(D21=B21,"",IF(AND(D21&lt;&gt;B21,G195=""),CONCATENATE(D21-B21," / ",IF(C21&lt;&gt;"",D21-C21,"-")," days change from the Original Baseline / Rebaseline - please provide reason if considered significant change. If Rebaselined, please provide reason"),IF(C21="",CONCATENATE(D21-B21," days change from the Original Baseline"),CONCATENATE(D21-B21," days change from the Original Baseline; ",D21-C21," days change from the rebaseline"))))))</f>
         <v>Please add Original Baseline and/or Forecast date if either is missing</v>
       </c>
-      <c r="H21" s="210"/>
-      <c r="I21" s="210"/>
-      <c r="J21" s="210"/>
-      <c r="K21" s="210"/>
-      <c r="L21" s="210"/>
+      <c r="H21" s="208"/>
+      <c r="I21" s="208"/>
+      <c r="J21" s="208"/>
+      <c r="K21" s="208"/>
+      <c r="L21" s="208"/>
     </row>
     <row r="22" s="19" customFormat="true" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="211" t="s">
+      <c r="A22" s="209" t="s">
         <v>253</v>
       </c>
-      <c r="B22" s="207"/>
-      <c r="C22" s="207"/>
-      <c r="D22" s="207"/>
-      <c r="E22" s="208"/>
-      <c r="F22" s="209"/>
-      <c r="G22" s="210" t="str">
+      <c r="B22" s="205"/>
+      <c r="C22" s="205"/>
+      <c r="D22" s="205"/>
+      <c r="E22" s="206"/>
+      <c r="F22" s="207"/>
+      <c r="G22" s="208" t="str">
         <f aca="false">IF(OR(B22="",D22=""),"Please add Original Baseline and/or Forecast date if either is missing",IF(B22=C22,"Please delete Rebaseline as same as Original Baseline",IF(D22=B22,"",IF(AND(D22&lt;&gt;B22,G196=""),CONCATENATE(D22-B22," / ",IF(C22&lt;&gt;"",D22-C22,"-")," days change from the Original Baseline / Rebaseline - please provide reason if considered significant change. If Rebaselined, please provide reason"),IF(C22="",CONCATENATE(D22-B22," days change from the Original Baseline"),CONCATENATE(D22-B22," days change from the Original Baseline; ",D22-C22," days change from the rebaseline"))))))</f>
         <v>Please add Original Baseline and/or Forecast date if either is missing</v>
       </c>
-      <c r="H22" s="210"/>
-      <c r="I22" s="210"/>
-      <c r="J22" s="210"/>
-      <c r="K22" s="210"/>
-      <c r="L22" s="210"/>
+      <c r="H22" s="208"/>
+      <c r="I22" s="208"/>
+      <c r="J22" s="208"/>
+      <c r="K22" s="208"/>
+      <c r="L22" s="208"/>
     </row>
     <row r="23" s="19" customFormat="true" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="211" t="s">
+      <c r="A23" s="209" t="s">
         <v>254</v>
       </c>
-      <c r="B23" s="207"/>
-      <c r="C23" s="207"/>
-      <c r="D23" s="207"/>
-      <c r="E23" s="208"/>
-      <c r="F23" s="209"/>
-      <c r="G23" s="210" t="str">
+      <c r="B23" s="205"/>
+      <c r="C23" s="205"/>
+      <c r="D23" s="205"/>
+      <c r="E23" s="206"/>
+      <c r="F23" s="207"/>
+      <c r="G23" s="208" t="str">
         <f aca="false">IF(OR(B23="",D23=""),"Please add Original Baseline and/or Forecast date if either is missing",IF(B23=C23,"Please delete Rebaseline as same as Original Baseline",IF(D23=B23,"",IF(AND(D23&lt;&gt;B23,G197=""),CONCATENATE(D23-B23," / ",IF(C23&lt;&gt;"",D23-C23,"-")," days change from the Original Baseline / Rebaseline - please provide reason if considered significant change. If Rebaselined, please provide reason"),IF(C23="",CONCATENATE(D23-B23," days change from the Original Baseline"),CONCATENATE(D23-B23," days change from the Original Baseline; ",D23-C23," days change from the rebaseline"))))))</f>
         <v>Please add Original Baseline and/or Forecast date if either is missing</v>
       </c>
-      <c r="H23" s="210"/>
-      <c r="I23" s="210"/>
-      <c r="J23" s="210"/>
-      <c r="K23" s="210"/>
-      <c r="L23" s="210"/>
+      <c r="H23" s="208"/>
+      <c r="I23" s="208"/>
+      <c r="J23" s="208"/>
+      <c r="K23" s="208"/>
+      <c r="L23" s="208"/>
     </row>
     <row r="24" s="19" customFormat="true" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="211" t="s">
+      <c r="A24" s="209" t="s">
         <v>255</v>
       </c>
-      <c r="B24" s="207"/>
-      <c r="C24" s="207"/>
-      <c r="D24" s="207"/>
-      <c r="E24" s="208"/>
-      <c r="F24" s="209"/>
-      <c r="G24" s="210" t="str">
+      <c r="B24" s="205"/>
+      <c r="C24" s="205"/>
+      <c r="D24" s="205"/>
+      <c r="E24" s="206"/>
+      <c r="F24" s="207"/>
+      <c r="G24" s="208" t="str">
         <f aca="false">IF(OR(B24="",D24=""),"Please add Original Baseline and/or Forecast date if either is missing",IF(B24=C24,"Please delete Rebaseline as same as Original Baseline",IF(D24=B24,"",IF(AND(D24&lt;&gt;B24,G198=""),CONCATENATE(D24-B24," / ",IF(C24&lt;&gt;"",D24-C24,"-")," days change from the Original Baseline / Rebaseline - please provide reason if considered significant change. If Rebaselined, please provide reason"),IF(C24="",CONCATENATE(D24-B24," days change from the Original Baseline"),CONCATENATE(D24-B24," days change from the Original Baseline; ",D24-C24," days change from the rebaseline"))))))</f>
         <v>Please add Original Baseline and/or Forecast date if either is missing</v>
       </c>
-      <c r="H24" s="210"/>
-      <c r="I24" s="210"/>
-      <c r="J24" s="210"/>
-      <c r="K24" s="210"/>
-      <c r="L24" s="210"/>
+      <c r="H24" s="208"/>
+      <c r="I24" s="208"/>
+      <c r="J24" s="208"/>
+      <c r="K24" s="208"/>
+      <c r="L24" s="208"/>
     </row>
     <row r="25" s="19" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="202" t="s">
+      <c r="A25" s="200" t="s">
         <v>256</v>
       </c>
-      <c r="B25" s="203"/>
-      <c r="C25" s="204"/>
-      <c r="D25" s="204"/>
-      <c r="E25" s="204"/>
-      <c r="F25" s="212"/>
+      <c r="B25" s="201"/>
+      <c r="C25" s="202"/>
+      <c r="D25" s="202"/>
+      <c r="E25" s="202"/>
+      <c r="F25" s="210"/>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
@@ -11097,295 +11097,295 @@
       <c r="L25" s="4"/>
     </row>
     <row r="26" s="19" customFormat="true" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="213" t="s">
+      <c r="A26" s="211" t="s">
         <v>257</v>
       </c>
-      <c r="B26" s="207"/>
-      <c r="C26" s="207"/>
-      <c r="D26" s="207"/>
-      <c r="E26" s="198" t="s">
+      <c r="B26" s="205"/>
+      <c r="C26" s="205"/>
+      <c r="D26" s="205"/>
+      <c r="E26" s="196" t="s">
         <v>258</v>
       </c>
-      <c r="F26" s="209"/>
-      <c r="G26" s="210" t="str">
+      <c r="F26" s="207"/>
+      <c r="G26" s="208" t="str">
         <f aca="false">IF(OR(B26="",D26=""),"Please add Original Baseline and/or Forecast date if either is missing",IF(B26=C26,"Please delete Rebaseline as same as Original Baseline",IF(D26=B26,"",IF(AND(D26&lt;&gt;B26,G200=""),CONCATENATE(D26-B26," / ",IF(C26&lt;&gt;"",D26-C26,"-")," days change from the Original Baseline / Rebaseline - please provide reason if considered significant change. If Rebaselined, please provide reason"),IF(C26="",CONCATENATE(D26-B26," days change from the Original Baseline"),CONCATENATE(D26-B26," days change from the Original Baseline; ",D26-C26," days change from the rebaseline"))))))</f>
         <v>Please add Original Baseline and/or Forecast date if either is missing</v>
       </c>
-      <c r="H26" s="210"/>
-      <c r="I26" s="210"/>
-      <c r="J26" s="210"/>
-      <c r="K26" s="210"/>
-      <c r="L26" s="210"/>
+      <c r="H26" s="208"/>
+      <c r="I26" s="208"/>
+      <c r="J26" s="208"/>
+      <c r="K26" s="208"/>
+      <c r="L26" s="208"/>
     </row>
     <row r="27" s="19" customFormat="true" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="213" t="s">
+      <c r="A27" s="211" t="s">
         <v>259</v>
       </c>
-      <c r="B27" s="207"/>
-      <c r="C27" s="207"/>
-      <c r="D27" s="207"/>
-      <c r="E27" s="208"/>
-      <c r="F27" s="209"/>
-      <c r="G27" s="210" t="str">
+      <c r="B27" s="205"/>
+      <c r="C27" s="205"/>
+      <c r="D27" s="205"/>
+      <c r="E27" s="206"/>
+      <c r="F27" s="207"/>
+      <c r="G27" s="208" t="str">
         <f aca="false">IF(OR(B27="",D27=""),"Please add Original Baseline and/or Forecast date if either is missing",IF(B27=C27,"Please delete Rebaseline as same as Original Baseline",IF(D27=B27,"",IF(AND(D27&lt;&gt;B27,G201=""),CONCATENATE(D27-B27," / ",IF(C27&lt;&gt;"",D27-C27,"-")," days change from the Original Baseline / Rebaseline - please provide reason if considered significant change. If Rebaselined, please provide reason"),IF(C27="",CONCATENATE(D27-B27," days change from the Original Baseline"),CONCATENATE(D27-B27," days change from the Original Baseline; ",D27-C27," days change from the rebaseline"))))))</f>
         <v>Please add Original Baseline and/or Forecast date if either is missing</v>
       </c>
-      <c r="H27" s="210"/>
-      <c r="I27" s="210"/>
-      <c r="J27" s="210"/>
-      <c r="K27" s="210"/>
-      <c r="L27" s="210"/>
+      <c r="H27" s="208"/>
+      <c r="I27" s="208"/>
+      <c r="J27" s="208"/>
+      <c r="K27" s="208"/>
+      <c r="L27" s="208"/>
     </row>
     <row r="28" s="19" customFormat="true" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="213" t="s">
+      <c r="A28" s="211" t="s">
         <v>260</v>
       </c>
-      <c r="B28" s="207"/>
-      <c r="C28" s="207"/>
-      <c r="D28" s="207"/>
-      <c r="E28" s="208"/>
-      <c r="F28" s="209"/>
-      <c r="G28" s="210" t="str">
+      <c r="B28" s="205"/>
+      <c r="C28" s="205"/>
+      <c r="D28" s="205"/>
+      <c r="E28" s="206"/>
+      <c r="F28" s="207"/>
+      <c r="G28" s="208" t="str">
         <f aca="false">IF(OR(B28="",D28=""),"Please add Original Baseline and/or Forecast date if either is missing",IF(B28=C28,"Please delete Rebaseline as same as Original Baseline",IF(D28=B28,"",IF(AND(D28&lt;&gt;B28,G202=""),CONCATENATE(D28-B28," / ",IF(C28&lt;&gt;"",D28-C28,"-")," days change from the Original Baseline / Rebaseline - please provide reason if considered significant change. If Rebaselined, please provide reason"),IF(C28="",CONCATENATE(D28-B28," days change from the Original Baseline"),CONCATENATE(D28-B28," days change from the Original Baseline; ",D28-C28," days change from the rebaseline"))))))</f>
         <v>Please add Original Baseline and/or Forecast date if either is missing</v>
       </c>
-      <c r="H28" s="210"/>
-      <c r="I28" s="210"/>
-      <c r="J28" s="210"/>
-      <c r="K28" s="210"/>
-      <c r="L28" s="210"/>
+      <c r="H28" s="208"/>
+      <c r="I28" s="208"/>
+      <c r="J28" s="208"/>
+      <c r="K28" s="208"/>
+      <c r="L28" s="208"/>
     </row>
     <row r="29" s="19" customFormat="true" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="213" t="s">
+      <c r="A29" s="211" t="s">
         <v>261</v>
       </c>
-      <c r="B29" s="207"/>
-      <c r="C29" s="207"/>
-      <c r="D29" s="207"/>
-      <c r="E29" s="198" t="s">
+      <c r="B29" s="205"/>
+      <c r="C29" s="205"/>
+      <c r="D29" s="205"/>
+      <c r="E29" s="196" t="s">
         <v>261</v>
       </c>
-      <c r="F29" s="209"/>
-      <c r="G29" s="210" t="str">
+      <c r="F29" s="207"/>
+      <c r="G29" s="208" t="str">
         <f aca="false">IF(OR(B29="",D29=""),"Please add Original Baseline and/or Forecast date if either is missing",IF(B29=C29,"Please delete Rebaseline as same as Original Baseline",IF(D29=B29,"",IF(AND(D29&lt;&gt;B29,G203=""),CONCATENATE(D29-B29," / ",IF(C29&lt;&gt;"",D29-C29,"-")," days change from the Original Baseline / Rebaseline - please provide reason if considered significant change. If Rebaselined, please provide reason"),IF(C29="",CONCATENATE(D29-B29," days change from the Original Baseline"),CONCATENATE(D29-B29," days change from the Original Baseline; ",D29-C29," days change from the rebaseline"))))))</f>
         <v>Please add Original Baseline and/or Forecast date if either is missing</v>
       </c>
-      <c r="H29" s="210"/>
-      <c r="I29" s="210"/>
-      <c r="J29" s="210"/>
-      <c r="K29" s="210"/>
-      <c r="L29" s="210"/>
+      <c r="H29" s="208"/>
+      <c r="I29" s="208"/>
+      <c r="J29" s="208"/>
+      <c r="K29" s="208"/>
+      <c r="L29" s="208"/>
     </row>
     <row r="30" s="19" customFormat="true" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="213" t="s">
+      <c r="A30" s="211" t="s">
         <v>262</v>
       </c>
-      <c r="B30" s="207"/>
-      <c r="C30" s="207"/>
-      <c r="D30" s="207"/>
-      <c r="E30" s="198" t="s">
+      <c r="B30" s="205"/>
+      <c r="C30" s="205"/>
+      <c r="D30" s="205"/>
+      <c r="E30" s="196" t="s">
         <v>262</v>
       </c>
-      <c r="F30" s="209"/>
-      <c r="G30" s="210" t="str">
+      <c r="F30" s="207"/>
+      <c r="G30" s="208" t="str">
         <f aca="false">IF(OR(B30="",D30=""),"Please add Original Baseline and/or Forecast date if either is missing",IF(B30=C30,"Please delete Rebaseline as same as Original Baseline",IF(D30=B30,"",IF(AND(D30&lt;&gt;B30,G204=""),CONCATENATE(D30-B30," / ",IF(C30&lt;&gt;"",D30-C30,"-")," days change from the Original Baseline / Rebaseline - please provide reason if considered significant change. If Rebaselined, please provide reason"),IF(C30="",CONCATENATE(D30-B30," days change from the Original Baseline"),CONCATENATE(D30-B30," days change from the Original Baseline; ",D30-C30," days change from the rebaseline"))))))</f>
         <v>Please add Original Baseline and/or Forecast date if either is missing</v>
       </c>
-      <c r="H30" s="210"/>
-      <c r="I30" s="210"/>
-      <c r="J30" s="210"/>
-      <c r="K30" s="210"/>
-      <c r="L30" s="210"/>
+      <c r="H30" s="208"/>
+      <c r="I30" s="208"/>
+      <c r="J30" s="208"/>
+      <c r="K30" s="208"/>
+      <c r="L30" s="208"/>
     </row>
     <row r="31" s="19" customFormat="true" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="214" t="s">
+      <c r="A31" s="212" t="s">
         <v>263</v>
       </c>
-      <c r="B31" s="207"/>
-      <c r="C31" s="207"/>
-      <c r="D31" s="207"/>
-      <c r="E31" s="208"/>
-      <c r="F31" s="209"/>
-      <c r="G31" s="210" t="str">
+      <c r="B31" s="205"/>
+      <c r="C31" s="205"/>
+      <c r="D31" s="205"/>
+      <c r="E31" s="206"/>
+      <c r="F31" s="207"/>
+      <c r="G31" s="208" t="str">
         <f aca="false">IF(OR(B31="",D31=""),"Please add Original Baseline and/or Forecast date if either is missing",IF(B31=C31,"Please delete Rebaseline as same as Original Baseline",IF(D31=B31,"",IF(AND(D31&lt;&gt;B31,G205=""),CONCATENATE(D31-B31," / ",IF(C31&lt;&gt;"",D31-C31,"-")," days change from the Original Baseline / Rebaseline - please provide reason if considered significant change. If Rebaselined, please provide reason"),IF(C31="",CONCATENATE(D31-B31," days change from the Original Baseline"),CONCATENATE(D31-B31," days change from the Original Baseline; ",D31-C31," days change from the rebaseline"))))))</f>
         <v>Please add Original Baseline and/or Forecast date if either is missing</v>
       </c>
-      <c r="H31" s="210"/>
-      <c r="I31" s="210"/>
-      <c r="J31" s="210"/>
-      <c r="K31" s="210"/>
-      <c r="L31" s="210"/>
+      <c r="H31" s="208"/>
+      <c r="I31" s="208"/>
+      <c r="J31" s="208"/>
+      <c r="K31" s="208"/>
+      <c r="L31" s="208"/>
     </row>
     <row r="32" s="19" customFormat="true" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="214" t="s">
+      <c r="A32" s="212" t="s">
         <v>264</v>
       </c>
-      <c r="B32" s="207"/>
-      <c r="C32" s="207"/>
-      <c r="D32" s="207"/>
-      <c r="E32" s="208"/>
-      <c r="F32" s="209"/>
-      <c r="G32" s="210" t="str">
+      <c r="B32" s="205"/>
+      <c r="C32" s="205"/>
+      <c r="D32" s="205"/>
+      <c r="E32" s="206"/>
+      <c r="F32" s="207"/>
+      <c r="G32" s="208" t="str">
         <f aca="false">IF(OR(B32="",D32=""),"Please add Original Baseline and/or Forecast date if either is missing",IF(B32=C32,"Please delete Rebaseline as same as Original Baseline",IF(D32=B32,"",IF(AND(D32&lt;&gt;B32,G206=""),CONCATENATE(D32-B32," / ",IF(C32&lt;&gt;"",D32-C32,"-")," days change from the Original Baseline / Rebaseline - please provide reason if considered significant change. If Rebaselined, please provide reason"),IF(C32="",CONCATENATE(D32-B32," days change from the Original Baseline"),CONCATENATE(D32-B32," days change from the Original Baseline; ",D32-C32," days change from the rebaseline"))))))</f>
         <v>Please add Original Baseline and/or Forecast date if either is missing</v>
       </c>
-      <c r="H32" s="210"/>
-      <c r="I32" s="210"/>
-      <c r="J32" s="210"/>
-      <c r="K32" s="210"/>
-      <c r="L32" s="210"/>
+      <c r="H32" s="208"/>
+      <c r="I32" s="208"/>
+      <c r="J32" s="208"/>
+      <c r="K32" s="208"/>
+      <c r="L32" s="208"/>
     </row>
     <row r="33" s="19" customFormat="true" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="214" t="s">
+      <c r="A33" s="212" t="s">
         <v>265</v>
       </c>
-      <c r="B33" s="207"/>
-      <c r="C33" s="207"/>
-      <c r="D33" s="207"/>
-      <c r="E33" s="208"/>
-      <c r="F33" s="209"/>
-      <c r="G33" s="210" t="str">
+      <c r="B33" s="205"/>
+      <c r="C33" s="205"/>
+      <c r="D33" s="205"/>
+      <c r="E33" s="206"/>
+      <c r="F33" s="207"/>
+      <c r="G33" s="208" t="str">
         <f aca="false">IF(OR(B33="",D33=""),"Please add Original Baseline and/or Forecast date if either is missing",IF(B33=C33,"Please delete Rebaseline as same as Original Baseline",IF(D33=B33,"",IF(AND(D33&lt;&gt;B33,G207=""),CONCATENATE(D33-B33," / ",IF(C33&lt;&gt;"",D33-C33,"-")," days change from the Original Baseline / Rebaseline - please provide reason if considered significant change. If Rebaselined, please provide reason"),IF(C33="",CONCATENATE(D33-B33," days change from the Original Baseline"),CONCATENATE(D33-B33," days change from the Original Baseline; ",D33-C33," days change from the rebaseline"))))))</f>
         <v>Please add Original Baseline and/or Forecast date if either is missing</v>
       </c>
-      <c r="H33" s="210"/>
-      <c r="I33" s="210"/>
-      <c r="J33" s="210"/>
-      <c r="K33" s="210"/>
-      <c r="L33" s="210"/>
+      <c r="H33" s="208"/>
+      <c r="I33" s="208"/>
+      <c r="J33" s="208"/>
+      <c r="K33" s="208"/>
+      <c r="L33" s="208"/>
     </row>
     <row r="34" s="19" customFormat="true" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="214" t="s">
+      <c r="A34" s="212" t="s">
         <v>266</v>
       </c>
-      <c r="B34" s="207"/>
-      <c r="C34" s="207"/>
-      <c r="D34" s="207"/>
-      <c r="E34" s="208"/>
-      <c r="F34" s="209"/>
-      <c r="G34" s="210" t="str">
+      <c r="B34" s="205"/>
+      <c r="C34" s="205"/>
+      <c r="D34" s="205"/>
+      <c r="E34" s="206"/>
+      <c r="F34" s="207"/>
+      <c r="G34" s="208" t="str">
         <f aca="false">IF(OR(B34="",D34=""),"Please add Original Baseline and/or Forecast date if either is missing",IF(B34=C34,"Please delete Rebaseline as same as Original Baseline",IF(D34=B34,"",IF(AND(D34&lt;&gt;B34,G208=""),CONCATENATE(D34-B34," / ",IF(C34&lt;&gt;"",D34-C34,"-")," days change from the Original Baseline / Rebaseline - please provide reason if considered significant change. If Rebaselined, please provide reason"),IF(C34="",CONCATENATE(D34-B34," days change from the Original Baseline"),CONCATENATE(D34-B34," days change from the Original Baseline; ",D34-C34," days change from the rebaseline"))))))</f>
         <v>Please add Original Baseline and/or Forecast date if either is missing</v>
       </c>
-      <c r="H34" s="210"/>
-      <c r="I34" s="210"/>
-      <c r="J34" s="210"/>
-      <c r="K34" s="210"/>
-      <c r="L34" s="210"/>
+      <c r="H34" s="208"/>
+      <c r="I34" s="208"/>
+      <c r="J34" s="208"/>
+      <c r="K34" s="208"/>
+      <c r="L34" s="208"/>
     </row>
     <row r="35" s="19" customFormat="true" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="214" t="s">
+      <c r="A35" s="212" t="s">
         <v>267</v>
       </c>
-      <c r="B35" s="207"/>
-      <c r="C35" s="207"/>
-      <c r="D35" s="207"/>
-      <c r="E35" s="208"/>
-      <c r="F35" s="209"/>
-      <c r="G35" s="210" t="str">
+      <c r="B35" s="205"/>
+      <c r="C35" s="205"/>
+      <c r="D35" s="205"/>
+      <c r="E35" s="206"/>
+      <c r="F35" s="207"/>
+      <c r="G35" s="208" t="str">
         <f aca="false">IF(OR(B35="",D35=""),"Please add Original Baseline and/or Forecast date if either is missing",IF(B35=C35,"Please delete Rebaseline as same as Original Baseline",IF(D35=B35,"",IF(AND(D35&lt;&gt;B35,G209=""),CONCATENATE(D35-B35," / ",IF(C35&lt;&gt;"",D35-C35,"-")," days change from the Original Baseline / Rebaseline - please provide reason if considered significant change. If Rebaselined, please provide reason"),IF(C35="",CONCATENATE(D35-B35," days change from the Original Baseline"),CONCATENATE(D35-B35," days change from the Original Baseline; ",D35-C35," days change from the rebaseline"))))))</f>
         <v>Please add Original Baseline and/or Forecast date if either is missing</v>
       </c>
-      <c r="H35" s="210"/>
-      <c r="I35" s="210"/>
-      <c r="J35" s="210"/>
-      <c r="K35" s="210"/>
-      <c r="L35" s="210"/>
+      <c r="H35" s="208"/>
+      <c r="I35" s="208"/>
+      <c r="J35" s="208"/>
+      <c r="K35" s="208"/>
+      <c r="L35" s="208"/>
     </row>
     <row r="36" s="19" customFormat="true" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="214" t="s">
+      <c r="A36" s="212" t="s">
         <v>268</v>
       </c>
-      <c r="B36" s="207"/>
-      <c r="C36" s="207"/>
-      <c r="D36" s="207"/>
-      <c r="E36" s="208"/>
-      <c r="F36" s="209"/>
-      <c r="G36" s="210" t="str">
+      <c r="B36" s="205"/>
+      <c r="C36" s="205"/>
+      <c r="D36" s="205"/>
+      <c r="E36" s="206"/>
+      <c r="F36" s="207"/>
+      <c r="G36" s="208" t="str">
         <f aca="false">IF(OR(B36="",D36=""),"Please add Original Baseline and/or Forecast date if either is missing",IF(B36=C36,"Please delete Rebaseline as same as Original Baseline",IF(D36=B36,"",IF(AND(D36&lt;&gt;B36,G210=""),CONCATENATE(D36-B36," / ",IF(C36&lt;&gt;"",D36-C36,"-")," days change from the Original Baseline / Rebaseline - please provide reason if considered significant change. If Rebaselined, please provide reason"),IF(C36="",CONCATENATE(D36-B36," days change from the Original Baseline"),CONCATENATE(D36-B36," days change from the Original Baseline; ",D36-C36," days change from the rebaseline"))))))</f>
         <v>Please add Original Baseline and/or Forecast date if either is missing</v>
       </c>
-      <c r="H36" s="210"/>
-      <c r="I36" s="210"/>
-      <c r="J36" s="210"/>
-      <c r="K36" s="210"/>
-      <c r="L36" s="210"/>
+      <c r="H36" s="208"/>
+      <c r="I36" s="208"/>
+      <c r="J36" s="208"/>
+      <c r="K36" s="208"/>
+      <c r="L36" s="208"/>
     </row>
     <row r="37" s="19" customFormat="true" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="214" t="s">
+      <c r="A37" s="212" t="s">
         <v>269</v>
       </c>
-      <c r="B37" s="207"/>
-      <c r="C37" s="207"/>
-      <c r="D37" s="207"/>
-      <c r="E37" s="208"/>
-      <c r="F37" s="209"/>
-      <c r="G37" s="210" t="str">
+      <c r="B37" s="205"/>
+      <c r="C37" s="205"/>
+      <c r="D37" s="205"/>
+      <c r="E37" s="206"/>
+      <c r="F37" s="207"/>
+      <c r="G37" s="208" t="str">
         <f aca="false">IF(OR(B37="",D37=""),"Please add Original Baseline and/or Forecast date if either is missing",IF(B37=C37,"Please delete Rebaseline as same as Original Baseline",IF(D37=B37,"",IF(AND(D37&lt;&gt;B37,G211=""),CONCATENATE(D37-B37," / ",IF(C37&lt;&gt;"",D37-C37,"-")," days change from the Original Baseline / Rebaseline - please provide reason if considered significant change. If Rebaselined, please provide reason"),IF(C37="",CONCATENATE(D37-B37," days change from the Original Baseline"),CONCATENATE(D37-B37," days change from the Original Baseline; ",D37-C37," days change from the rebaseline"))))))</f>
         <v>Please add Original Baseline and/or Forecast date if either is missing</v>
       </c>
-      <c r="H37" s="210"/>
-      <c r="I37" s="210"/>
-      <c r="J37" s="210"/>
-      <c r="K37" s="210"/>
-      <c r="L37" s="210"/>
+      <c r="H37" s="208"/>
+      <c r="I37" s="208"/>
+      <c r="J37" s="208"/>
+      <c r="K37" s="208"/>
+      <c r="L37" s="208"/>
     </row>
     <row r="38" s="19" customFormat="true" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="214" t="s">
+      <c r="A38" s="212" t="s">
         <v>270</v>
       </c>
-      <c r="B38" s="207"/>
-      <c r="C38" s="207"/>
-      <c r="D38" s="207"/>
-      <c r="E38" s="208"/>
-      <c r="F38" s="209"/>
-      <c r="G38" s="210" t="str">
+      <c r="B38" s="205"/>
+      <c r="C38" s="205"/>
+      <c r="D38" s="205"/>
+      <c r="E38" s="206"/>
+      <c r="F38" s="207"/>
+      <c r="G38" s="208" t="str">
         <f aca="false">IF(OR(B38="",D38=""),"Please add Original Baseline and/or Forecast date if either is missing",IF(B38=C38,"Please delete Rebaseline as same as Original Baseline",IF(D38=B38,"",IF(AND(D38&lt;&gt;B38,G212=""),CONCATENATE(D38-B38," / ",IF(C38&lt;&gt;"",D38-C38,"-")," days change from the Original Baseline / Rebaseline - please provide reason if considered significant change. If Rebaselined, please provide reason"),IF(C38="",CONCATENATE(D38-B38," days change from the Original Baseline"),CONCATENATE(D38-B38," days change from the Original Baseline; ",D38-C38," days change from the rebaseline"))))))</f>
         <v>Please add Original Baseline and/or Forecast date if either is missing</v>
       </c>
-      <c r="H38" s="210"/>
-      <c r="I38" s="210"/>
-      <c r="J38" s="210"/>
-      <c r="K38" s="210"/>
-      <c r="L38" s="210"/>
+      <c r="H38" s="208"/>
+      <c r="I38" s="208"/>
+      <c r="J38" s="208"/>
+      <c r="K38" s="208"/>
+      <c r="L38" s="208"/>
     </row>
     <row r="39" s="19" customFormat="true" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="214" t="s">
+      <c r="A39" s="212" t="s">
         <v>271</v>
       </c>
-      <c r="B39" s="207"/>
-      <c r="C39" s="207"/>
-      <c r="D39" s="207"/>
-      <c r="E39" s="208"/>
-      <c r="F39" s="209"/>
-      <c r="G39" s="210" t="str">
+      <c r="B39" s="205"/>
+      <c r="C39" s="205"/>
+      <c r="D39" s="205"/>
+      <c r="E39" s="206"/>
+      <c r="F39" s="207"/>
+      <c r="G39" s="208" t="str">
         <f aca="false">IF(OR(B39="",D39=""),"Please add Original Baseline and/or Forecast date if either is missing",IF(B39=C39,"Please delete Rebaseline as same as Original Baseline",IF(D39=B39,"",IF(AND(D39&lt;&gt;B39,G213=""),CONCATENATE(D39-B39," / ",IF(C39&lt;&gt;"",D39-C39,"-")," days change from the Original Baseline / Rebaseline - please provide reason if considered significant change. If Rebaselined, please provide reason"),IF(C39="",CONCATENATE(D39-B39," days change from the Original Baseline"),CONCATENATE(D39-B39," days change from the Original Baseline; ",D39-C39," days change from the rebaseline"))))))</f>
         <v>Please add Original Baseline and/or Forecast date if either is missing</v>
       </c>
-      <c r="H39" s="210"/>
-      <c r="I39" s="210"/>
-      <c r="J39" s="210"/>
-      <c r="K39" s="210"/>
-      <c r="L39" s="210"/>
+      <c r="H39" s="208"/>
+      <c r="I39" s="208"/>
+      <c r="J39" s="208"/>
+      <c r="K39" s="208"/>
+      <c r="L39" s="208"/>
     </row>
     <row r="40" s="19" customFormat="true" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="214" t="s">
+      <c r="A40" s="212" t="s">
         <v>272</v>
       </c>
-      <c r="B40" s="207"/>
-      <c r="C40" s="207"/>
-      <c r="D40" s="207"/>
-      <c r="E40" s="208"/>
-      <c r="F40" s="209"/>
-      <c r="G40" s="210" t="str">
+      <c r="B40" s="205"/>
+      <c r="C40" s="205"/>
+      <c r="D40" s="205"/>
+      <c r="E40" s="206"/>
+      <c r="F40" s="207"/>
+      <c r="G40" s="208" t="str">
         <f aca="false">IF(OR(B40="",D40=""),"Please add Original Baseline and/or Forecast date if either is missing",IF(B40=C40,"Please delete Rebaseline as same as Original Baseline",IF(D40=B40,"",IF(AND(D40&lt;&gt;B40,G214=""),CONCATENATE(D40-B40," / ",IF(C40&lt;&gt;"",D40-C40,"-")," days change from the Original Baseline / Rebaseline - please provide reason if considered significant change. If Rebaselined, please provide reason"),IF(C40="",CONCATENATE(D40-B40," days change from the Original Baseline"),CONCATENATE(D40-B40," days change from the Original Baseline; ",D40-C40," days change from the rebaseline"))))))</f>
         <v>Please add Original Baseline and/or Forecast date if either is missing</v>
       </c>
-      <c r="H40" s="210"/>
-      <c r="I40" s="210"/>
-      <c r="J40" s="210"/>
-      <c r="K40" s="210"/>
-      <c r="L40" s="210"/>
+      <c r="H40" s="208"/>
+      <c r="I40" s="208"/>
+      <c r="J40" s="208"/>
+      <c r="K40" s="208"/>
+      <c r="L40" s="208"/>
     </row>
     <row r="41" s="19" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="4"/>
@@ -11394,28 +11394,28 @@
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
-      <c r="G41" s="210"/>
-      <c r="H41" s="210"/>
-      <c r="I41" s="210"/>
-      <c r="J41" s="210"/>
-      <c r="K41" s="210"/>
-      <c r="L41" s="210"/>
+      <c r="G41" s="208"/>
+      <c r="H41" s="208"/>
+      <c r="I41" s="208"/>
+      <c r="J41" s="208"/>
+      <c r="K41" s="208"/>
+      <c r="L41" s="208"/>
     </row>
     <row r="42" s="19" customFormat="true" ht="190.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="180" t="s">
+      <c r="A42" s="178" t="s">
         <v>273</v>
       </c>
-      <c r="B42" s="209"/>
-      <c r="C42" s="209"/>
-      <c r="D42" s="209"/>
-      <c r="E42" s="209"/>
-      <c r="F42" s="209"/>
-      <c r="G42" s="210"/>
-      <c r="H42" s="210"/>
-      <c r="I42" s="210"/>
-      <c r="J42" s="210"/>
-      <c r="K42" s="210"/>
-      <c r="L42" s="210"/>
+      <c r="B42" s="207"/>
+      <c r="C42" s="207"/>
+      <c r="D42" s="207"/>
+      <c r="E42" s="207"/>
+      <c r="F42" s="207"/>
+      <c r="G42" s="208"/>
+      <c r="H42" s="208"/>
+      <c r="I42" s="208"/>
+      <c r="J42" s="208"/>
+      <c r="K42" s="208"/>
+      <c r="L42" s="208"/>
     </row>
   </sheetData>
   <mergeCells count="39">
@@ -11508,474 +11508,474 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="77.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="215" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="215"/>
-      <c r="C1" s="215"/>
-      <c r="D1" s="215"/>
-      <c r="E1" s="215"/>
-      <c r="F1" s="215"/>
-      <c r="G1" s="215"/>
-      <c r="H1" s="215"/>
-      <c r="I1" s="215"/>
-      <c r="J1" s="178" t="s">
+      <c r="A1" s="213" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="213"/>
+      <c r="C1" s="213"/>
+      <c r="D1" s="213"/>
+      <c r="E1" s="213"/>
+      <c r="F1" s="213"/>
+      <c r="G1" s="213"/>
+      <c r="H1" s="213"/>
+      <c r="I1" s="213"/>
+      <c r="J1" s="176" t="s">
         <v>64</v>
       </c>
-      <c r="K1" s="178"/>
+      <c r="K1" s="176"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="216" t="s">
+      <c r="A2" s="214" t="s">
         <v>274</v>
       </c>
-      <c r="B2" s="216"/>
-      <c r="C2" s="216"/>
+      <c r="B2" s="214"/>
+      <c r="C2" s="214"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="217" t="s">
+      <c r="A3" s="215" t="s">
         <v>275</v>
       </c>
-      <c r="B3" s="218"/>
-      <c r="C3" s="218"/>
+      <c r="B3" s="216"/>
+      <c r="C3" s="216"/>
     </row>
     <row r="4" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="180" t="s">
+      <c r="A4" s="178" t="s">
         <v>276</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>277</v>
       </c>
-      <c r="C4" s="219"/>
-      <c r="D4" s="180" t="s">
+      <c r="C4" s="217"/>
+      <c r="D4" s="178" t="s">
         <v>278</v>
       </c>
-      <c r="E4" s="197"/>
+      <c r="E4" s="195"/>
     </row>
     <row r="5" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B5" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="C5" s="219"/>
+      <c r="C5" s="217"/>
     </row>
     <row r="7" customFormat="false" ht="87" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="180" t="s">
+      <c r="A7" s="178" t="s">
         <v>230</v>
       </c>
-      <c r="B7" s="200" t="s">
+      <c r="B7" s="198" t="s">
         <v>280</v>
       </c>
-      <c r="C7" s="200" t="s">
+      <c r="C7" s="198" t="s">
         <v>232</v>
       </c>
-      <c r="D7" s="200" t="s">
+      <c r="D7" s="198" t="s">
         <v>233</v>
       </c>
-      <c r="E7" s="200" t="s">
+      <c r="E7" s="198" t="s">
         <v>281</v>
       </c>
-      <c r="F7" s="179" t="s">
+      <c r="F7" s="177" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="220" t="s">
+      <c r="A8" s="218" t="s">
         <v>282</v>
       </c>
-      <c r="B8" s="221"/>
-      <c r="C8" s="221"/>
-      <c r="D8" s="221"/>
-      <c r="E8" s="222"/>
-      <c r="F8" s="197"/>
-      <c r="G8" s="223" t="str">
+      <c r="B8" s="219"/>
+      <c r="C8" s="219"/>
+      <c r="D8" s="219"/>
+      <c r="E8" s="220"/>
+      <c r="F8" s="195"/>
+      <c r="G8" s="221" t="str">
         <f aca="false">IF(OR(B9="",D9=""),"Please add Original Baseline and/or Forecast date if either is missing",IF(B9=C9,"Please delete Rebaseline as same as Original Baseline",IF(D9=B9,"",IF(AND(D9&lt;&gt;B9,G141=""),CONCATENATE(D9-B9," / ",IF(C9&lt;&gt;"",D9-C9,"-")," days change from the Original Baseline / Rebaseline - please provide reason if considered significant change. If Rebaselined, please provide reason"),IF(C9="",CONCATENATE(D9-B9," days change from the Original Baseline"),CONCATENATE(D9-B9," days change from the Original Baseline; ",D9-C9," days change from the rebaseline"))))))</f>
         <v>Please add Original Baseline and/or Forecast date if either is missing</v>
       </c>
-      <c r="H8" s="223"/>
-      <c r="I8" s="223"/>
-      <c r="J8" s="223"/>
+      <c r="H8" s="221"/>
+      <c r="I8" s="221"/>
+      <c r="J8" s="221"/>
     </row>
     <row r="9" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="220" t="s">
+      <c r="A9" s="218" t="s">
         <v>283</v>
       </c>
-      <c r="B9" s="221"/>
-      <c r="C9" s="221"/>
-      <c r="D9" s="221"/>
-      <c r="E9" s="222"/>
-      <c r="F9" s="197"/>
-      <c r="G9" s="223" t="str">
+      <c r="B9" s="219"/>
+      <c r="C9" s="219"/>
+      <c r="D9" s="219"/>
+      <c r="E9" s="220"/>
+      <c r="F9" s="195"/>
+      <c r="G9" s="221" t="str">
         <f aca="false">IF(OR(B10="",D10=""),"Please add Original Baseline and/or Forecast date if either is missing",IF(B10=C10,"Please delete Rebaseline as same as Original Baseline",IF(D10=B10,"",IF(AND(D10&lt;&gt;B10,G142=""),CONCATENATE(D10-B10," / ",IF(C10&lt;&gt;"",D10-C10,"-")," days change from the Original Baseline / Rebaseline - please provide reason if considered significant change. If Rebaselined, please provide reason"),IF(C10="",CONCATENATE(D10-B10," days change from the Original Baseline"),CONCATENATE(D10-B10," days change from the Original Baseline; ",D10-C10," days change from the rebaseline"))))))</f>
         <v>Please add Original Baseline and/or Forecast date if either is missing</v>
       </c>
-      <c r="H9" s="223"/>
-      <c r="I9" s="223"/>
-      <c r="J9" s="223"/>
+      <c r="H9" s="221"/>
+      <c r="I9" s="221"/>
+      <c r="J9" s="221"/>
     </row>
     <row r="10" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="220" t="s">
+      <c r="A10" s="218" t="s">
         <v>284</v>
       </c>
-      <c r="B10" s="221"/>
-      <c r="C10" s="221"/>
-      <c r="D10" s="221"/>
-      <c r="E10" s="222"/>
-      <c r="F10" s="197"/>
-      <c r="G10" s="223" t="str">
+      <c r="B10" s="219"/>
+      <c r="C10" s="219"/>
+      <c r="D10" s="219"/>
+      <c r="E10" s="220"/>
+      <c r="F10" s="195"/>
+      <c r="G10" s="221" t="str">
         <f aca="false">IF(OR(B11="",D11=""),"Please add Original Baseline and/or Forecast date if either is missing",IF(B11=C11,"Please delete Rebaseline as same as Original Baseline",IF(D11=B11,"",IF(AND(D11&lt;&gt;B11,G143=""),CONCATENATE(D11-B11," / ",IF(C11&lt;&gt;"",D11-C11,"-")," days change from the Original Baseline / Rebaseline - please provide reason if considered significant change. If Rebaselined, please provide reason"),IF(C11="",CONCATENATE(D11-B11," days change from the Original Baseline"),CONCATENATE(D11-B11," days change from the Original Baseline; ",D11-C11," days change from the rebaseline"))))))</f>
         <v>Please add Original Baseline and/or Forecast date if either is missing</v>
       </c>
-      <c r="H10" s="223"/>
-      <c r="I10" s="223"/>
-      <c r="J10" s="223"/>
+      <c r="H10" s="221"/>
+      <c r="I10" s="221"/>
+      <c r="J10" s="221"/>
     </row>
     <row r="11" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="220" t="s">
+      <c r="A11" s="218" t="s">
         <v>285</v>
       </c>
-      <c r="B11" s="221"/>
-      <c r="C11" s="221"/>
-      <c r="D11" s="221"/>
-      <c r="E11" s="222"/>
-      <c r="F11" s="197"/>
-      <c r="G11" s="223" t="str">
+      <c r="B11" s="219"/>
+      <c r="C11" s="219"/>
+      <c r="D11" s="219"/>
+      <c r="E11" s="220"/>
+      <c r="F11" s="195"/>
+      <c r="G11" s="221" t="str">
         <f aca="false">IF(OR(B12="",D12=""),"Please add Original Baseline and/or Forecast date if either is missing",IF(B12=C12,"Please delete Rebaseline as same as Original Baseline",IF(D12=B12,"",IF(AND(D12&lt;&gt;B12,G144=""),CONCATENATE(D12-B12," / ",IF(C12&lt;&gt;"",D12-C12,"-")," days change from the Original Baseline / Rebaseline - please provide reason if considered significant change. If Rebaselined, please provide reason"),IF(C12="",CONCATENATE(D12-B12," days change from the Original Baseline"),CONCATENATE(D12-B12," days change from the Original Baseline; ",D12-C12," days change from the rebaseline"))))))</f>
         <v>Please add Original Baseline and/or Forecast date if either is missing</v>
       </c>
-      <c r="H11" s="223"/>
-      <c r="I11" s="223"/>
-      <c r="J11" s="223"/>
+      <c r="H11" s="221"/>
+      <c r="I11" s="221"/>
+      <c r="J11" s="221"/>
     </row>
     <row r="12" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="220" t="s">
+      <c r="A12" s="218" t="s">
         <v>286</v>
       </c>
-      <c r="B12" s="221"/>
-      <c r="C12" s="221"/>
-      <c r="D12" s="221"/>
-      <c r="E12" s="222"/>
-      <c r="F12" s="197"/>
-      <c r="G12" s="223" t="str">
+      <c r="B12" s="219"/>
+      <c r="C12" s="219"/>
+      <c r="D12" s="219"/>
+      <c r="E12" s="220"/>
+      <c r="F12" s="195"/>
+      <c r="G12" s="221" t="str">
         <f aca="false">IF(OR(B13="",D13=""),"Please add Original Baseline and/or Forecast date if either is missing",IF(B13=C13,"Please delete Rebaseline as same as Original Baseline",IF(D13=B13,"",IF(AND(D13&lt;&gt;B13,G145=""),CONCATENATE(D13-B13," / ",IF(C13&lt;&gt;"",D13-C13,"-")," days change from the Original Baseline / Rebaseline - please provide reason if considered significant change. If Rebaselined, please provide reason"),IF(C13="",CONCATENATE(D13-B13," days change from the Original Baseline"),CONCATENATE(D13-B13," days change from the Original Baseline; ",D13-C13," days change from the rebaseline"))))))</f>
         <v>Please add Original Baseline and/or Forecast date if either is missing</v>
       </c>
-      <c r="H12" s="223"/>
-      <c r="I12" s="223"/>
-      <c r="J12" s="223"/>
+      <c r="H12" s="221"/>
+      <c r="I12" s="221"/>
+      <c r="J12" s="221"/>
     </row>
     <row r="13" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="220" t="s">
+      <c r="A13" s="218" t="s">
         <v>287</v>
       </c>
-      <c r="B13" s="221"/>
-      <c r="C13" s="221"/>
-      <c r="D13" s="221"/>
-      <c r="E13" s="222"/>
-      <c r="F13" s="197"/>
-      <c r="G13" s="223" t="str">
+      <c r="B13" s="219"/>
+      <c r="C13" s="219"/>
+      <c r="D13" s="219"/>
+      <c r="E13" s="220"/>
+      <c r="F13" s="195"/>
+      <c r="G13" s="221" t="str">
         <f aca="false">IF(OR(B14="",D14=""),"Please add Original Baseline and/or Forecast date if either is missing",IF(B14=C14,"Please delete Rebaseline as same as Original Baseline",IF(D14=B14,"",IF(AND(D14&lt;&gt;B14,G146=""),CONCATENATE(D14-B14," / ",IF(C14&lt;&gt;"",D14-C14,"-")," days change from the Original Baseline / Rebaseline - please provide reason if considered significant change. If Rebaselined, please provide reason"),IF(C14="",CONCATENATE(D14-B14," days change from the Original Baseline"),CONCATENATE(D14-B14," days change from the Original Baseline; ",D14-C14," days change from the rebaseline"))))))</f>
         <v>Please add Original Baseline and/or Forecast date if either is missing</v>
       </c>
-      <c r="H13" s="223"/>
-      <c r="I13" s="223"/>
-      <c r="J13" s="223"/>
+      <c r="H13" s="221"/>
+      <c r="I13" s="221"/>
+      <c r="J13" s="221"/>
     </row>
     <row r="14" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="220" t="s">
+      <c r="A14" s="218" t="s">
         <v>288</v>
       </c>
-      <c r="B14" s="221"/>
-      <c r="C14" s="221"/>
-      <c r="D14" s="221"/>
-      <c r="E14" s="222"/>
-      <c r="F14" s="197"/>
-      <c r="G14" s="223" t="str">
+      <c r="B14" s="219"/>
+      <c r="C14" s="219"/>
+      <c r="D14" s="219"/>
+      <c r="E14" s="220"/>
+      <c r="F14" s="195"/>
+      <c r="G14" s="221" t="str">
         <f aca="false">IF(OR(B15="",D15=""),"Please add Original Baseline and/or Forecast date if either is missing",IF(B15=C15,"Please delete Rebaseline as same as Original Baseline",IF(D15=B15,"",IF(AND(D15&lt;&gt;B15,G147=""),CONCATENATE(D15-B15," / ",IF(C15&lt;&gt;"",D15-C15,"-")," days change from the Original Baseline / Rebaseline - please provide reason if considered significant change. If Rebaselined, please provide reason"),IF(C15="",CONCATENATE(D15-B15," days change from the Original Baseline"),CONCATENATE(D15-B15," days change from the Original Baseline; ",D15-C15," days change from the rebaseline"))))))</f>
         <v>Please add Original Baseline and/or Forecast date if either is missing</v>
       </c>
-      <c r="H14" s="223"/>
-      <c r="I14" s="223"/>
-      <c r="J14" s="223"/>
+      <c r="H14" s="221"/>
+      <c r="I14" s="221"/>
+      <c r="J14" s="221"/>
     </row>
     <row r="15" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="220" t="s">
+      <c r="A15" s="218" t="s">
         <v>289</v>
       </c>
-      <c r="B15" s="221"/>
-      <c r="C15" s="221"/>
-      <c r="D15" s="221"/>
-      <c r="E15" s="222"/>
-      <c r="F15" s="197"/>
-      <c r="G15" s="223" t="str">
+      <c r="B15" s="219"/>
+      <c r="C15" s="219"/>
+      <c r="D15" s="219"/>
+      <c r="E15" s="220"/>
+      <c r="F15" s="195"/>
+      <c r="G15" s="221" t="str">
         <f aca="false">IF(OR(B16="",D16=""),"Please add Original Baseline and/or Forecast date if either is missing",IF(B16=C16,"Please delete Rebaseline as same as Original Baseline",IF(D16=B16,"",IF(AND(D16&lt;&gt;B16,G148=""),CONCATENATE(D16-B16," / ",IF(C16&lt;&gt;"",D16-C16,"-")," days change from the Original Baseline / Rebaseline - please provide reason if considered significant change. If Rebaselined, please provide reason"),IF(C16="",CONCATENATE(D16-B16," days change from the Original Baseline"),CONCATENATE(D16-B16," days change from the Original Baseline; ",D16-C16," days change from the rebaseline"))))))</f>
         <v>Please add Original Baseline and/or Forecast date if either is missing</v>
       </c>
-      <c r="H15" s="223"/>
-      <c r="I15" s="223"/>
-      <c r="J15" s="223"/>
+      <c r="H15" s="221"/>
+      <c r="I15" s="221"/>
+      <c r="J15" s="221"/>
     </row>
     <row r="16" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="214" t="s">
+      <c r="A16" s="212" t="s">
         <v>290</v>
       </c>
-      <c r="B16" s="221"/>
-      <c r="C16" s="221"/>
-      <c r="D16" s="221"/>
-      <c r="E16" s="222"/>
-      <c r="F16" s="197"/>
-      <c r="G16" s="223" t="str">
+      <c r="B16" s="219"/>
+      <c r="C16" s="219"/>
+      <c r="D16" s="219"/>
+      <c r="E16" s="220"/>
+      <c r="F16" s="195"/>
+      <c r="G16" s="221" t="str">
         <f aca="false">IF(OR(B17="",D17=""),"Please add Original Baseline and/or Forecast date if either is missing",IF(B17=C17,"Please delete Rebaseline as same as Original Baseline",IF(D17=B17,"",IF(AND(D17&lt;&gt;B17,G149=""),CONCATENATE(D17-B17," / ",IF(C17&lt;&gt;"",D17-C17,"-")," days change from the Original Baseline / Rebaseline - please provide reason if considered significant change. If Rebaselined, please provide reason"),IF(C17="",CONCATENATE(D17-B17," days change from the Original Baseline"),CONCATENATE(D17-B17," days change from the Original Baseline; ",D17-C17," days change from the rebaseline"))))))</f>
         <v>Please add Original Baseline and/or Forecast date if either is missing</v>
       </c>
-      <c r="H16" s="223"/>
-      <c r="I16" s="223"/>
-      <c r="J16" s="223"/>
+      <c r="H16" s="221"/>
+      <c r="I16" s="221"/>
+      <c r="J16" s="221"/>
     </row>
     <row r="17" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="214" t="s">
+      <c r="A17" s="212" t="s">
         <v>291</v>
       </c>
-      <c r="B17" s="221"/>
-      <c r="C17" s="221"/>
-      <c r="D17" s="221"/>
-      <c r="E17" s="222"/>
-      <c r="F17" s="197"/>
-      <c r="G17" s="223" t="str">
+      <c r="B17" s="219"/>
+      <c r="C17" s="219"/>
+      <c r="D17" s="219"/>
+      <c r="E17" s="220"/>
+      <c r="F17" s="195"/>
+      <c r="G17" s="221" t="str">
         <f aca="false">IF(OR(B18="",D18=""),"Please add Original Baseline and/or Forecast date if either is missing",IF(B18=C18,"Please delete Rebaseline as same as Original Baseline",IF(D18=B18,"",IF(AND(D18&lt;&gt;B18,G150=""),CONCATENATE(D18-B18," / ",IF(C18&lt;&gt;"",D18-C18,"-")," days change from the Original Baseline / Rebaseline - please provide reason if considered significant change. If Rebaselined, please provide reason"),IF(C18="",CONCATENATE(D18-B18," days change from the Original Baseline"),CONCATENATE(D18-B18," days change from the Original Baseline; ",D18-C18," days change from the rebaseline"))))))</f>
         <v>Please add Original Baseline and/or Forecast date if either is missing</v>
       </c>
-      <c r="H17" s="223"/>
-      <c r="I17" s="223"/>
-      <c r="J17" s="223"/>
+      <c r="H17" s="221"/>
+      <c r="I17" s="221"/>
+      <c r="J17" s="221"/>
     </row>
     <row r="18" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="214" t="s">
+      <c r="A18" s="212" t="s">
         <v>292</v>
       </c>
-      <c r="B18" s="221"/>
-      <c r="C18" s="221"/>
-      <c r="D18" s="221"/>
-      <c r="E18" s="222"/>
-      <c r="F18" s="197"/>
-      <c r="G18" s="223" t="str">
+      <c r="B18" s="219"/>
+      <c r="C18" s="219"/>
+      <c r="D18" s="219"/>
+      <c r="E18" s="220"/>
+      <c r="F18" s="195"/>
+      <c r="G18" s="221" t="str">
         <f aca="false">IF(OR(B19="",D19=""),"Please add Original Baseline and/or Forecast date if either is missing",IF(B19=C19,"Please delete Rebaseline as same as Original Baseline",IF(D19=B19,"",IF(AND(D19&lt;&gt;B19,G151=""),CONCATENATE(D19-B19," / ",IF(C19&lt;&gt;"",D19-C19,"-")," days change from the Original Baseline / Rebaseline - please provide reason if considered significant change. If Rebaselined, please provide reason"),IF(C19="",CONCATENATE(D19-B19," days change from the Original Baseline"),CONCATENATE(D19-B19," days change from the Original Baseline; ",D19-C19," days change from the rebaseline"))))))</f>
         <v>Please add Original Baseline and/or Forecast date if either is missing</v>
       </c>
-      <c r="H18" s="223"/>
-      <c r="I18" s="223"/>
-      <c r="J18" s="223"/>
+      <c r="H18" s="221"/>
+      <c r="I18" s="221"/>
+      <c r="J18" s="221"/>
     </row>
     <row r="19" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="214" t="s">
+      <c r="A19" s="212" t="s">
         <v>293</v>
       </c>
-      <c r="B19" s="221"/>
-      <c r="C19" s="221"/>
-      <c r="D19" s="221"/>
-      <c r="E19" s="222"/>
-      <c r="F19" s="197"/>
-      <c r="G19" s="223" t="str">
+      <c r="B19" s="219"/>
+      <c r="C19" s="219"/>
+      <c r="D19" s="219"/>
+      <c r="E19" s="220"/>
+      <c r="F19" s="195"/>
+      <c r="G19" s="221" t="str">
         <f aca="false">IF(OR(B20="",D20=""),"Please add Original Baseline and/or Forecast date if either is missing",IF(B20=C20,"Please delete Rebaseline as same as Original Baseline",IF(D20=B20,"",IF(AND(D20&lt;&gt;B20,G152=""),CONCATENATE(D20-B20," / ",IF(C20&lt;&gt;"",D20-C20,"-")," days change from the Original Baseline / Rebaseline - please provide reason if considered significant change. If Rebaselined, please provide reason"),IF(C20="",CONCATENATE(D20-B20," days change from the Original Baseline"),CONCATENATE(D20-B20," days change from the Original Baseline; ",D20-C20," days change from the rebaseline"))))))</f>
         <v>Please add Original Baseline and/or Forecast date if either is missing</v>
       </c>
-      <c r="H19" s="223"/>
-      <c r="I19" s="223"/>
-      <c r="J19" s="223"/>
+      <c r="H19" s="221"/>
+      <c r="I19" s="221"/>
+      <c r="J19" s="221"/>
     </row>
     <row r="20" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="214" t="s">
+      <c r="A20" s="212" t="s">
         <v>294</v>
       </c>
-      <c r="B20" s="221"/>
-      <c r="C20" s="221"/>
-      <c r="D20" s="221"/>
-      <c r="E20" s="222"/>
-      <c r="F20" s="197"/>
-      <c r="G20" s="223" t="str">
+      <c r="B20" s="219"/>
+      <c r="C20" s="219"/>
+      <c r="D20" s="219"/>
+      <c r="E20" s="220"/>
+      <c r="F20" s="195"/>
+      <c r="G20" s="221" t="str">
         <f aca="false">IF(OR(B21="",D21=""),"Please add Original Baseline and/or Forecast date if either is missing",IF(B21=C21,"Please delete Rebaseline as same as Original Baseline",IF(D21=B21,"",IF(AND(D21&lt;&gt;B21,G153=""),CONCATENATE(D21-B21," / ",IF(C21&lt;&gt;"",D21-C21,"-")," days change from the Original Baseline / Rebaseline - please provide reason if considered significant change. If Rebaselined, please provide reason"),IF(C21="",CONCATENATE(D21-B21," days change from the Original Baseline"),CONCATENATE(D21-B21," days change from the Original Baseline; ",D21-C21," days change from the rebaseline"))))))</f>
         <v>Please add Original Baseline and/or Forecast date if either is missing</v>
       </c>
-      <c r="H20" s="223"/>
-      <c r="I20" s="223"/>
-      <c r="J20" s="223"/>
+      <c r="H20" s="221"/>
+      <c r="I20" s="221"/>
+      <c r="J20" s="221"/>
     </row>
     <row r="21" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="214" t="s">
+      <c r="A21" s="212" t="s">
         <v>295</v>
       </c>
-      <c r="B21" s="221"/>
-      <c r="C21" s="221"/>
-      <c r="D21" s="221"/>
-      <c r="E21" s="222"/>
-      <c r="F21" s="197"/>
-      <c r="G21" s="223" t="str">
+      <c r="B21" s="219"/>
+      <c r="C21" s="219"/>
+      <c r="D21" s="219"/>
+      <c r="E21" s="220"/>
+      <c r="F21" s="195"/>
+      <c r="G21" s="221" t="str">
         <f aca="false">IF(OR(B22="",D22=""),"Please add Original Baseline and/or Forecast date if either is missing",IF(B22=C22,"Please delete Rebaseline as same as Original Baseline",IF(D22=B22,"",IF(AND(D22&lt;&gt;B22,G154=""),CONCATENATE(D22-B22," / ",IF(C22&lt;&gt;"",D22-C22,"-")," days change from the Original Baseline / Rebaseline - please provide reason if considered significant change. If Rebaselined, please provide reason"),IF(C22="",CONCATENATE(D22-B22," days change from the Original Baseline"),CONCATENATE(D22-B22," days change from the Original Baseline; ",D22-C22," days change from the rebaseline"))))))</f>
         <v>Please add Original Baseline and/or Forecast date if either is missing</v>
       </c>
-      <c r="H21" s="223"/>
-      <c r="I21" s="223"/>
-      <c r="J21" s="223"/>
+      <c r="H21" s="221"/>
+      <c r="I21" s="221"/>
+      <c r="J21" s="221"/>
     </row>
     <row r="22" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="214" t="s">
+      <c r="A22" s="212" t="s">
         <v>296</v>
       </c>
-      <c r="B22" s="221"/>
-      <c r="C22" s="221"/>
-      <c r="D22" s="221"/>
-      <c r="E22" s="222"/>
-      <c r="F22" s="197"/>
-      <c r="G22" s="223" t="str">
+      <c r="B22" s="219"/>
+      <c r="C22" s="219"/>
+      <c r="D22" s="219"/>
+      <c r="E22" s="220"/>
+      <c r="F22" s="195"/>
+      <c r="G22" s="221" t="str">
         <f aca="false">IF(OR(B23="",D23=""),"Please add Original Baseline and/or Forecast date if either is missing",IF(B23=C23,"Please delete Rebaseline as same as Original Baseline",IF(D23=B23,"",IF(AND(D23&lt;&gt;B23,G155=""),CONCATENATE(D23-B23," / ",IF(C23&lt;&gt;"",D23-C23,"-")," days change from the Original Baseline / Rebaseline - please provide reason if considered significant change. If Rebaselined, please provide reason"),IF(C23="",CONCATENATE(D23-B23," days change from the Original Baseline"),CONCATENATE(D23-B23," days change from the Original Baseline; ",D23-C23," days change from the rebaseline"))))))</f>
         <v>Please add Original Baseline and/or Forecast date if either is missing</v>
       </c>
-      <c r="H22" s="223"/>
-      <c r="I22" s="223"/>
-      <c r="J22" s="223"/>
+      <c r="H22" s="221"/>
+      <c r="I22" s="221"/>
+      <c r="J22" s="221"/>
     </row>
     <row r="23" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="214" t="s">
+      <c r="A23" s="212" t="s">
         <v>297</v>
       </c>
-      <c r="B23" s="221"/>
-      <c r="C23" s="221"/>
-      <c r="D23" s="221"/>
-      <c r="E23" s="222"/>
-      <c r="F23" s="197"/>
-      <c r="G23" s="223" t="str">
+      <c r="B23" s="219"/>
+      <c r="C23" s="219"/>
+      <c r="D23" s="219"/>
+      <c r="E23" s="220"/>
+      <c r="F23" s="195"/>
+      <c r="G23" s="221" t="str">
         <f aca="false">IF(OR(B24="",D24=""),"Please add Original Baseline and/or Forecast date if either is missing",IF(B24=C24,"Please delete Rebaseline as same as Original Baseline",IF(D24=B24,"",IF(AND(D24&lt;&gt;B24,G156=""),CONCATENATE(D24-B24," / ",IF(C24&lt;&gt;"",D24-C24,"-")," days change from the Original Baseline / Rebaseline - please provide reason if considered significant change. If Rebaselined, please provide reason"),IF(C24="",CONCATENATE(D24-B24," days change from the Original Baseline"),CONCATENATE(D24-B24," days change from the Original Baseline; ",D24-C24," days change from the rebaseline"))))))</f>
         <v>Please add Original Baseline and/or Forecast date if either is missing</v>
       </c>
-      <c r="H23" s="223"/>
-      <c r="I23" s="223"/>
-      <c r="J23" s="223"/>
+      <c r="H23" s="221"/>
+      <c r="I23" s="221"/>
+      <c r="J23" s="221"/>
     </row>
     <row r="24" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="214" t="s">
+      <c r="A24" s="212" t="s">
         <v>298</v>
       </c>
-      <c r="B24" s="221"/>
-      <c r="C24" s="221"/>
-      <c r="D24" s="221"/>
-      <c r="E24" s="222"/>
-      <c r="F24" s="197"/>
-      <c r="G24" s="223" t="str">
+      <c r="B24" s="219"/>
+      <c r="C24" s="219"/>
+      <c r="D24" s="219"/>
+      <c r="E24" s="220"/>
+      <c r="F24" s="195"/>
+      <c r="G24" s="221" t="str">
         <f aca="false">IF(OR(B25="",D25=""),"Please add Original Baseline and/or Forecast date if either is missing",IF(B25=C25,"Please delete Rebaseline as same as Original Baseline",IF(D25=B25,"",IF(AND(D25&lt;&gt;B25,G157=""),CONCATENATE(D25-B25," / ",IF(C25&lt;&gt;"",D25-C25,"-")," days change from the Original Baseline / Rebaseline - please provide reason if considered significant change. If Rebaselined, please provide reason"),IF(C25="",CONCATENATE(D25-B25," days change from the Original Baseline"),CONCATENATE(D25-B25," days change from the Original Baseline; ",D25-C25," days change from the rebaseline"))))))</f>
         <v>Please add Original Baseline and/or Forecast date if either is missing</v>
       </c>
-      <c r="H24" s="223"/>
-      <c r="I24" s="223"/>
-      <c r="J24" s="223"/>
+      <c r="H24" s="221"/>
+      <c r="I24" s="221"/>
+      <c r="J24" s="221"/>
     </row>
     <row r="25" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="214" t="s">
+      <c r="A25" s="212" t="s">
         <v>299</v>
       </c>
-      <c r="B25" s="221"/>
-      <c r="C25" s="221"/>
-      <c r="D25" s="221"/>
-      <c r="E25" s="222"/>
-      <c r="F25" s="197"/>
-      <c r="G25" s="223" t="str">
+      <c r="B25" s="219"/>
+      <c r="C25" s="219"/>
+      <c r="D25" s="219"/>
+      <c r="E25" s="220"/>
+      <c r="F25" s="195"/>
+      <c r="G25" s="221" t="str">
         <f aca="false">IF(OR(B26="",D26=""),"Please add Original Baseline and/or Forecast date if either is missing",IF(B26=C26,"Please delete Rebaseline as same as Original Baseline",IF(D26=B26,"",IF(AND(D26&lt;&gt;B26,G158=""),CONCATENATE(D26-B26," / ",IF(C26&lt;&gt;"",D26-C26,"-")," days change from the Original Baseline / Rebaseline - please provide reason if considered significant change. If Rebaselined, please provide reason"),IF(C26="",CONCATENATE(D26-B26," days change from the Original Baseline"),CONCATENATE(D26-B26," days change from the Original Baseline; ",D26-C26," days change from the rebaseline"))))))</f>
         <v>Please add Original Baseline and/or Forecast date if either is missing</v>
       </c>
-      <c r="H25" s="223"/>
-      <c r="I25" s="223"/>
-      <c r="J25" s="223"/>
+      <c r="H25" s="221"/>
+      <c r="I25" s="221"/>
+      <c r="J25" s="221"/>
     </row>
     <row r="27" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="224" t="s">
+      <c r="A27" s="222" t="s">
         <v>300</v>
       </c>
-      <c r="B27" s="224"/>
-      <c r="C27" s="224"/>
+      <c r="B27" s="222"/>
+      <c r="C27" s="222"/>
     </row>
     <row r="28" customFormat="false" ht="47.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="225" t="s">
+      <c r="A28" s="223" t="s">
         <v>301</v>
       </c>
-      <c r="B28" s="225"/>
-      <c r="C28" s="225"/>
-      <c r="D28" s="225"/>
-      <c r="E28" s="225"/>
-      <c r="F28" s="225"/>
+      <c r="B28" s="223"/>
+      <c r="C28" s="223"/>
+      <c r="D28" s="223"/>
+      <c r="E28" s="223"/>
+      <c r="F28" s="223"/>
     </row>
     <row r="30" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B30" s="226" t="s">
+      <c r="B30" s="224" t="s">
         <v>302</v>
       </c>
-      <c r="C30" s="226"/>
-      <c r="D30" s="197"/>
-      <c r="E30" s="197"/>
-      <c r="F30" s="197"/>
+      <c r="C30" s="224"/>
+      <c r="D30" s="195"/>
+      <c r="E30" s="195"/>
+      <c r="F30" s="195"/>
     </row>
     <row r="31" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="180" t="s">
+      <c r="A31" s="178" t="s">
         <v>303</v>
       </c>
-      <c r="B31" s="180" t="s">
+      <c r="B31" s="178" t="s">
         <v>304</v>
       </c>
-      <c r="C31" s="222"/>
-      <c r="D31" s="197"/>
-      <c r="E31" s="197"/>
-      <c r="F31" s="197"/>
+      <c r="C31" s="220"/>
+      <c r="D31" s="195"/>
+      <c r="E31" s="195"/>
+      <c r="F31" s="195"/>
     </row>
     <row r="32" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="180"/>
-      <c r="B32" s="180" t="s">
+      <c r="A32" s="178"/>
+      <c r="B32" s="178" t="s">
         <v>305</v>
       </c>
-      <c r="C32" s="222"/>
-      <c r="D32" s="197"/>
-      <c r="E32" s="197"/>
-      <c r="F32" s="197"/>
+      <c r="C32" s="220"/>
+      <c r="D32" s="195"/>
+      <c r="E32" s="195"/>
+      <c r="F32" s="195"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D33" s="227"/>
-      <c r="E33" s="228"/>
-      <c r="F33" s="229"/>
+      <c r="D33" s="225"/>
+      <c r="E33" s="226"/>
+      <c r="F33" s="227"/>
     </row>
     <row r="34" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="225" t="s">
+      <c r="A34" s="223" t="s">
         <v>306</v>
       </c>
-      <c r="B34" s="225"/>
-      <c r="C34" s="225"/>
-      <c r="D34" s="225"/>
-      <c r="E34" s="225"/>
-      <c r="F34" s="225"/>
+      <c r="B34" s="223"/>
+      <c r="C34" s="223"/>
+      <c r="D34" s="223"/>
+      <c r="E34" s="223"/>
+      <c r="F34" s="223"/>
     </row>
     <row r="35" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B35" s="180" t="s">
+      <c r="B35" s="178" t="s">
         <v>302</v>
       </c>
-      <c r="C35" s="180"/>
-      <c r="D35" s="230"/>
-      <c r="E35" s="230"/>
-      <c r="F35" s="230"/>
+      <c r="C35" s="178"/>
+      <c r="D35" s="228"/>
+      <c r="E35" s="228"/>
+      <c r="F35" s="228"/>
     </row>
     <row r="36" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="180" t="s">
+      <c r="A36" s="178" t="s">
         <v>303</v>
       </c>
-      <c r="B36" s="180" t="s">
+      <c r="B36" s="178" t="s">
         <v>304</v>
       </c>
-      <c r="C36" s="222"/>
-      <c r="D36" s="230"/>
-      <c r="E36" s="230"/>
-      <c r="F36" s="230"/>
+      <c r="C36" s="220"/>
+      <c r="D36" s="228"/>
+      <c r="E36" s="228"/>
+      <c r="F36" s="228"/>
     </row>
     <row r="37" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="180"/>
-      <c r="B37" s="180" t="s">
+      <c r="A37" s="178"/>
+      <c r="B37" s="178" t="s">
         <v>305</v>
       </c>
-      <c r="C37" s="222"/>
-      <c r="D37" s="230"/>
-      <c r="E37" s="230"/>
-      <c r="F37" s="230"/>
+      <c r="C37" s="220"/>
+      <c r="D37" s="228"/>
+      <c r="E37" s="228"/>
+      <c r="F37" s="228"/>
     </row>
     <row r="38" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
@@ -12045,2186 +12045,2186 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="231" width="9.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="231" width="10.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="231" width="9.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="231" width="9.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="231" width="14.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="231" width="9.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="231" width="13.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="231" width="14.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="231" width="13.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="231" width="10.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="13" style="231" width="14.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="231" width="10.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="16" style="231" width="18.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="18" style="231" width="6.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="231" width="10.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="231" width="9.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="231" width="7.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="231" width="9.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="231" width="11.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="232" width="9.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="232" width="6.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="231" width="12.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="231" width="20.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="231" width="6.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="231" width="9.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="231" width="18.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="231" width="6.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="233" width="6.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="233" width="9.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="229" width="9.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="229" width="10.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="229" width="9.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="229" width="9.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="229" width="14.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="229" width="9.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="229" width="13.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="229" width="14.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="229" width="13.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="229" width="10.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="13" style="229" width="14.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="229" width="10.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="16" style="229" width="18.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="18" style="229" width="6.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="229" width="10.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="229" width="9.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="229" width="7.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="229" width="9.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="229" width="11.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="230" width="9.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="230" width="6.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="229" width="12.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="229" width="20.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="229" width="6.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="229" width="9.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="229" width="18.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="229" width="6.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="231" width="6.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="231" width="9.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="0" width="6.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="233" width="9.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="37" style="233" width="6.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="233" width="14.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="44" style="231" width="6.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="231" width="9.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="37" style="231" width="6.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="231" width="14.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="44" style="229" width="6.88"/>
   </cols>
   <sheetData>
-    <row r="1" s="234" customFormat="true" ht="97" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="234" t="s">
+    <row r="1" s="232" customFormat="true" ht="97" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="232" t="s">
         <v>307</v>
       </c>
-      <c r="B1" s="234" t="s">
+      <c r="B1" s="232" t="s">
         <v>308</v>
       </c>
-      <c r="C1" s="234" t="s">
+      <c r="C1" s="232" t="s">
         <v>309</v>
       </c>
-      <c r="D1" s="234" t="s">
+      <c r="D1" s="232" t="s">
         <v>310</v>
       </c>
-      <c r="E1" s="234" t="s">
+      <c r="E1" s="232" t="s">
         <v>311</v>
       </c>
-      <c r="F1" s="234" t="s">
+      <c r="F1" s="232" t="s">
         <v>312</v>
       </c>
-      <c r="G1" s="234" t="s">
+      <c r="G1" s="232" t="s">
         <v>313</v>
       </c>
-      <c r="H1" s="234" t="s">
+      <c r="H1" s="232" t="s">
         <v>314</v>
       </c>
-      <c r="I1" s="234" t="s">
+      <c r="I1" s="232" t="s">
         <v>315</v>
       </c>
-      <c r="J1" s="234" t="s">
+      <c r="J1" s="232" t="s">
         <v>316</v>
       </c>
-      <c r="K1" s="234" t="s">
+      <c r="K1" s="232" t="s">
         <v>317</v>
       </c>
-      <c r="L1" s="234" t="s">
+      <c r="L1" s="232" t="s">
         <v>318</v>
       </c>
-      <c r="M1" s="234" t="s">
+      <c r="M1" s="232" t="s">
         <v>319</v>
       </c>
-      <c r="N1" s="234" t="s">
+      <c r="N1" s="232" t="s">
         <v>320</v>
       </c>
-      <c r="O1" s="234" t="s">
+      <c r="O1" s="232" t="s">
         <v>321</v>
       </c>
-      <c r="P1" s="234" t="s">
+      <c r="P1" s="232" t="s">
         <v>322</v>
       </c>
-      <c r="Q1" s="234" t="s">
+      <c r="Q1" s="232" t="s">
         <v>323</v>
       </c>
-      <c r="R1" s="234" t="s">
+      <c r="R1" s="232" t="s">
         <v>324</v>
       </c>
-      <c r="S1" s="234" t="s">
+      <c r="S1" s="232" t="s">
         <v>325</v>
       </c>
-      <c r="T1" s="234" t="s">
+      <c r="T1" s="232" t="s">
         <v>326</v>
       </c>
-      <c r="U1" s="234" t="s">
+      <c r="U1" s="232" t="s">
         <v>327</v>
       </c>
-      <c r="V1" s="234" t="s">
+      <c r="V1" s="232" t="s">
         <v>109</v>
       </c>
-      <c r="W1" s="234" t="s">
+      <c r="W1" s="232" t="s">
         <v>328</v>
       </c>
-      <c r="X1" s="234" t="s">
+      <c r="X1" s="232" t="s">
         <v>329</v>
       </c>
-      <c r="Y1" s="234" t="s">
+      <c r="Y1" s="232" t="s">
         <v>330</v>
       </c>
-      <c r="Z1" s="234" t="s">
+      <c r="Z1" s="232" t="s">
         <v>331</v>
       </c>
-      <c r="AA1" s="234" t="s">
+      <c r="AA1" s="232" t="s">
         <v>332</v>
       </c>
-      <c r="AB1" s="234" t="s">
+      <c r="AB1" s="232" t="s">
         <v>333</v>
       </c>
-      <c r="AC1" s="234" t="s">
+      <c r="AC1" s="232" t="s">
         <v>334</v>
       </c>
-      <c r="AD1" s="234" t="s">
+      <c r="AD1" s="232" t="s">
         <v>335</v>
       </c>
-      <c r="AE1" s="234" t="s">
+      <c r="AE1" s="232" t="s">
         <v>336</v>
       </c>
-      <c r="AF1" s="234" t="s">
+      <c r="AF1" s="232" t="s">
         <v>337</v>
       </c>
-      <c r="AG1" s="235" t="s">
+      <c r="AG1" s="233" t="s">
         <v>338</v>
       </c>
-      <c r="AH1" s="236" t="s">
+      <c r="AH1" s="234" t="s">
         <v>12</v>
       </c>
-      <c r="AI1" s="235" t="s">
+      <c r="AI1" s="233" t="s">
         <v>15</v>
       </c>
-      <c r="AJ1" s="235" t="s">
+      <c r="AJ1" s="233" t="s">
         <v>339</v>
       </c>
-      <c r="AK1" s="236" t="s">
+      <c r="AK1" s="234" t="s">
         <v>340</v>
       </c>
-      <c r="AL1" s="235" t="s">
+      <c r="AL1" s="233" t="s">
         <v>341</v>
       </c>
-      <c r="AM1" s="235" t="s">
+      <c r="AM1" s="233" t="s">
         <v>342</v>
       </c>
-      <c r="AN1" s="235" t="s">
+      <c r="AN1" s="233" t="s">
         <v>343</v>
       </c>
-      <c r="AO1" s="235" t="s">
+      <c r="AO1" s="233" t="s">
         <v>344</v>
       </c>
-      <c r="AP1" s="235" t="s">
+      <c r="AP1" s="233" t="s">
         <v>345</v>
       </c>
-      <c r="AQ1" s="235" t="s">
+      <c r="AQ1" s="233" t="s">
         <v>346</v>
       </c>
-      <c r="AR1" s="237" t="s">
+      <c r="AR1" s="235" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="57" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="231" t="s">
+      <c r="A2" s="229" t="s">
         <v>348</v>
       </c>
-      <c r="B2" s="231" t="s">
+      <c r="B2" s="229" t="s">
         <v>349</v>
       </c>
-      <c r="C2" s="231" t="s">
+      <c r="C2" s="229" t="s">
         <v>350</v>
       </c>
-      <c r="D2" s="231" t="s">
+      <c r="D2" s="229" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="231" t="s">
+      <c r="E2" s="229" t="s">
         <v>55</v>
       </c>
-      <c r="F2" s="231" t="s">
+      <c r="F2" s="229" t="s">
         <v>351</v>
       </c>
-      <c r="G2" s="231" t="s">
+      <c r="G2" s="229" t="s">
         <v>352</v>
       </c>
-      <c r="H2" s="231" t="s">
+      <c r="H2" s="229" t="s">
         <v>353</v>
       </c>
-      <c r="I2" s="231" t="s">
+      <c r="I2" s="229" t="s">
         <v>212</v>
       </c>
-      <c r="J2" s="231" t="s">
+      <c r="J2" s="229" t="s">
         <v>212</v>
       </c>
-      <c r="K2" s="231" t="s">
+      <c r="K2" s="229" t="s">
         <v>354</v>
       </c>
-      <c r="L2" s="231" t="s">
+      <c r="L2" s="229" t="s">
         <v>212</v>
       </c>
-      <c r="M2" s="231" t="s">
+      <c r="M2" s="229" t="s">
         <v>355</v>
       </c>
-      <c r="N2" s="231" t="s">
+      <c r="N2" s="229" t="s">
         <v>356</v>
       </c>
-      <c r="O2" s="231" t="s">
+      <c r="O2" s="229" t="s">
         <v>357</v>
       </c>
-      <c r="P2" s="231" t="s">
+      <c r="P2" s="229" t="s">
         <v>358</v>
       </c>
-      <c r="Q2" s="231" t="s">
+      <c r="Q2" s="229" t="s">
         <v>50</v>
       </c>
-      <c r="R2" s="231" t="s">
+      <c r="R2" s="229" t="s">
         <v>82</v>
       </c>
-      <c r="S2" s="231" t="n">
+      <c r="S2" s="229" t="n">
         <v>1995</v>
       </c>
-      <c r="T2" s="238" t="n">
+      <c r="T2" s="236" t="n">
         <v>0.02</v>
       </c>
-      <c r="U2" s="231" t="s">
+      <c r="U2" s="229" t="s">
         <v>359</v>
       </c>
-      <c r="V2" s="231" t="s">
+      <c r="V2" s="229" t="s">
         <v>360</v>
       </c>
-      <c r="W2" s="239" t="s">
+      <c r="W2" s="237" t="s">
         <v>361</v>
       </c>
-      <c r="X2" s="239" t="s">
+      <c r="X2" s="237" t="s">
         <v>362</v>
       </c>
-      <c r="Y2" s="240" t="n">
+      <c r="Y2" s="238" t="n">
         <v>42551</v>
       </c>
-      <c r="Z2" s="241" t="n">
+      <c r="Z2" s="239" t="n">
         <v>0.05</v>
       </c>
-      <c r="AA2" s="231" t="s">
+      <c r="AA2" s="229" t="s">
         <v>363</v>
       </c>
-      <c r="AB2" s="231" t="s">
+      <c r="AB2" s="229" t="s">
         <v>357</v>
       </c>
-      <c r="AC2" s="231" t="s">
+      <c r="AC2" s="229" t="s">
         <v>364</v>
       </c>
-      <c r="AD2" s="231" t="s">
+      <c r="AD2" s="229" t="s">
         <v>357</v>
       </c>
-      <c r="AE2" s="242" t="n">
+      <c r="AE2" s="240" t="n">
         <v>42460</v>
       </c>
-      <c r="AF2" s="243" t="n">
+      <c r="AF2" s="241" t="n">
         <v>3</v>
       </c>
-      <c r="AG2" s="233" t="s">
+      <c r="AG2" s="231" t="s">
         <v>365</v>
       </c>
-      <c r="AH2" s="244" t="s">
+      <c r="AH2" s="242" t="s">
         <v>340</v>
       </c>
-      <c r="AI2" s="233" t="s">
+      <c r="AI2" s="231" t="s">
         <v>366</v>
       </c>
-      <c r="AJ2" s="233" t="s">
+      <c r="AJ2" s="231" t="s">
         <v>367</v>
       </c>
-      <c r="AK2" s="233" t="s">
+      <c r="AK2" s="231" t="s">
         <v>366</v>
       </c>
-      <c r="AL2" s="233" t="s">
+      <c r="AL2" s="231" t="s">
         <v>368</v>
       </c>
-      <c r="AM2" s="233" t="s">
+      <c r="AM2" s="231" t="s">
         <v>369</v>
       </c>
-      <c r="AN2" s="233" t="s">
+      <c r="AN2" s="231" t="s">
         <v>370</v>
       </c>
-      <c r="AO2" s="233" t="s">
+      <c r="AO2" s="231" t="s">
         <v>371</v>
       </c>
-      <c r="AQ2" s="233" t="s">
+      <c r="AQ2" s="231" t="s">
         <v>363</v>
       </c>
-      <c r="AR2" s="244" t="s">
+      <c r="AR2" s="242" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="231" t="s">
+      <c r="A3" s="229" t="s">
         <v>373</v>
       </c>
-      <c r="B3" s="245" t="s">
+      <c r="B3" s="243" t="s">
         <v>374</v>
       </c>
-      <c r="C3" s="231" t="s">
+      <c r="C3" s="229" t="s">
         <v>375</v>
       </c>
-      <c r="D3" s="231" t="s">
+      <c r="D3" s="229" t="s">
         <v>376</v>
       </c>
-      <c r="E3" s="231" t="s">
+      <c r="E3" s="229" t="s">
         <v>377</v>
       </c>
-      <c r="F3" s="231" t="s">
+      <c r="F3" s="229" t="s">
         <v>205</v>
       </c>
-      <c r="G3" s="231" t="s">
+      <c r="G3" s="229" t="s">
         <v>378</v>
       </c>
-      <c r="H3" s="231" t="s">
+      <c r="H3" s="229" t="s">
         <v>379</v>
       </c>
-      <c r="I3" s="231" t="s">
+      <c r="I3" s="229" t="s">
         <v>380</v>
       </c>
-      <c r="J3" s="231" t="s">
+      <c r="J3" s="229" t="s">
         <v>209</v>
       </c>
-      <c r="K3" s="231" t="s">
+      <c r="K3" s="229" t="s">
         <v>381</v>
       </c>
-      <c r="L3" s="231" t="s">
+      <c r="L3" s="229" t="s">
         <v>209</v>
       </c>
-      <c r="M3" s="231" t="s">
+      <c r="M3" s="229" t="s">
         <v>382</v>
       </c>
-      <c r="N3" s="231" t="s">
+      <c r="N3" s="229" t="s">
         <v>383</v>
       </c>
-      <c r="O3" s="231" t="s">
+      <c r="O3" s="229" t="s">
         <v>384</v>
       </c>
-      <c r="P3" s="231" t="s">
+      <c r="P3" s="229" t="s">
         <v>385</v>
       </c>
-      <c r="Q3" s="231" t="s">
+      <c r="Q3" s="229" t="s">
         <v>386</v>
       </c>
-      <c r="R3" s="231" t="s">
+      <c r="R3" s="229" t="s">
         <v>387</v>
       </c>
-      <c r="S3" s="231" t="n">
+      <c r="S3" s="229" t="n">
         <v>1996</v>
       </c>
-      <c r="T3" s="238" t="n">
+      <c r="T3" s="236" t="n">
         <v>0.021</v>
       </c>
-      <c r="U3" s="231" t="s">
+      <c r="U3" s="229" t="s">
         <v>388</v>
       </c>
-      <c r="V3" s="231" t="s">
+      <c r="V3" s="229" t="s">
         <v>352</v>
       </c>
-      <c r="W3" s="239" t="s">
+      <c r="W3" s="237" t="s">
         <v>389</v>
       </c>
-      <c r="X3" s="239" t="s">
+      <c r="X3" s="237" t="s">
         <v>390</v>
       </c>
-      <c r="Y3" s="240" t="n">
+      <c r="Y3" s="238" t="n">
         <v>42643</v>
       </c>
-      <c r="Z3" s="241" t="n">
+      <c r="Z3" s="239" t="n">
         <v>0.1</v>
       </c>
-      <c r="AA3" s="231" t="s">
+      <c r="AA3" s="229" t="s">
         <v>391</v>
       </c>
-      <c r="AB3" s="231" t="s">
+      <c r="AB3" s="229" t="s">
         <v>384</v>
       </c>
-      <c r="AC3" s="231" t="s">
+      <c r="AC3" s="229" t="s">
         <v>392</v>
       </c>
-      <c r="AD3" s="231" t="s">
+      <c r="AD3" s="229" t="s">
         <v>384</v>
       </c>
-      <c r="AE3" s="246" t="n">
+      <c r="AE3" s="244" t="n">
         <v>42461</v>
       </c>
-      <c r="AF3" s="247" t="n">
+      <c r="AF3" s="245" t="n">
         <v>4</v>
       </c>
-      <c r="AG3" s="233" t="s">
+      <c r="AG3" s="231" t="s">
         <v>393</v>
       </c>
-      <c r="AH3" s="244" t="s">
+      <c r="AH3" s="242" t="s">
         <v>341</v>
       </c>
-      <c r="AI3" s="233" t="s">
+      <c r="AI3" s="231" t="s">
         <v>394</v>
       </c>
-      <c r="AJ3" s="233" t="s">
+      <c r="AJ3" s="231" t="s">
         <v>395</v>
       </c>
-      <c r="AK3" s="233" t="s">
+      <c r="AK3" s="231" t="s">
         <v>394</v>
       </c>
-      <c r="AL3" s="233" t="s">
+      <c r="AL3" s="231" t="s">
         <v>396</v>
       </c>
-      <c r="AM3" s="233" t="s">
+      <c r="AM3" s="231" t="s">
         <v>397</v>
       </c>
-      <c r="AN3" s="233" t="s">
+      <c r="AN3" s="231" t="s">
         <v>398</v>
       </c>
-      <c r="AQ3" s="233" t="s">
+      <c r="AQ3" s="231" t="s">
         <v>391</v>
       </c>
-      <c r="AR3" s="244" t="s">
+      <c r="AR3" s="242" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="64.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="231" t="s">
+      <c r="A4" s="229" t="s">
         <v>400</v>
       </c>
-      <c r="B4" s="245" t="s">
+      <c r="B4" s="243" t="s">
         <v>401</v>
       </c>
-      <c r="C4" s="231" t="s">
+      <c r="C4" s="229" t="s">
         <v>402</v>
       </c>
-      <c r="D4" s="231" t="s">
+      <c r="D4" s="229" t="s">
         <v>335</v>
       </c>
-      <c r="E4" s="231" t="s">
+      <c r="E4" s="229" t="s">
         <v>403</v>
       </c>
-      <c r="F4" s="248" t="s">
+      <c r="F4" s="246" t="s">
         <v>404</v>
       </c>
-      <c r="G4" s="231" t="s">
+      <c r="G4" s="229" t="s">
         <v>405</v>
       </c>
-      <c r="H4" s="231" t="s">
+      <c r="H4" s="229" t="s">
         <v>215</v>
       </c>
-      <c r="I4" s="231" t="s">
+      <c r="I4" s="229" t="s">
         <v>209</v>
       </c>
-      <c r="J4" s="231" t="s">
+      <c r="J4" s="229" t="s">
         <v>206</v>
       </c>
-      <c r="K4" s="231" t="s">
+      <c r="K4" s="229" t="s">
         <v>406</v>
       </c>
-      <c r="L4" s="231" t="s">
+      <c r="L4" s="229" t="s">
         <v>206</v>
       </c>
-      <c r="M4" s="231" t="s">
+      <c r="M4" s="229" t="s">
         <v>407</v>
       </c>
-      <c r="N4" s="231" t="s">
+      <c r="N4" s="229" t="s">
         <v>408</v>
       </c>
-      <c r="O4" s="231" t="s">
+      <c r="O4" s="229" t="s">
         <v>409</v>
       </c>
-      <c r="P4" s="231" t="s">
+      <c r="P4" s="229" t="s">
         <v>410</v>
       </c>
-      <c r="Q4" s="231" t="s">
+      <c r="Q4" s="229" t="s">
         <v>411</v>
       </c>
-      <c r="S4" s="231" t="n">
+      <c r="S4" s="229" t="n">
         <v>1997</v>
       </c>
-      <c r="T4" s="238" t="n">
+      <c r="T4" s="236" t="n">
         <v>0.022</v>
       </c>
-      <c r="U4" s="231" t="s">
+      <c r="U4" s="229" t="s">
         <v>412</v>
       </c>
-      <c r="V4" s="231" t="s">
+      <c r="V4" s="229" t="s">
         <v>413</v>
       </c>
-      <c r="W4" s="239" t="s">
+      <c r="W4" s="237" t="s">
         <v>414</v>
       </c>
-      <c r="X4" s="239" t="s">
+      <c r="X4" s="237" t="s">
         <v>414</v>
       </c>
-      <c r="Y4" s="240" t="n">
+      <c r="Y4" s="238" t="n">
         <v>42735</v>
       </c>
-      <c r="Z4" s="241" t="n">
+      <c r="Z4" s="239" t="n">
         <v>0.15</v>
       </c>
-      <c r="AA4" s="231" t="s">
+      <c r="AA4" s="229" t="s">
         <v>415</v>
       </c>
-      <c r="AB4" s="231" t="s">
+      <c r="AB4" s="229" t="s">
         <v>409</v>
       </c>
-      <c r="AC4" s="231" t="s">
+      <c r="AC4" s="229" t="s">
         <v>416</v>
       </c>
-      <c r="AD4" s="231" t="s">
+      <c r="AD4" s="229" t="s">
         <v>409</v>
       </c>
-      <c r="AE4" s="249" t="n">
+      <c r="AE4" s="247" t="n">
         <v>42825</v>
       </c>
-      <c r="AF4" s="250" t="n">
+      <c r="AF4" s="248" t="n">
         <v>5</v>
       </c>
-      <c r="AG4" s="233" t="s">
+      <c r="AG4" s="231" t="s">
         <v>406</v>
       </c>
-      <c r="AH4" s="251" t="s">
+      <c r="AH4" s="249" t="s">
         <v>342</v>
       </c>
-      <c r="AI4" s="233" t="s">
+      <c r="AI4" s="231" t="s">
         <v>417</v>
       </c>
-      <c r="AJ4" s="252" t="s">
+      <c r="AJ4" s="250" t="s">
         <v>418</v>
       </c>
-      <c r="AK4" s="233" t="s">
+      <c r="AK4" s="231" t="s">
         <v>417</v>
       </c>
-      <c r="AL4" s="233" t="s">
+      <c r="AL4" s="231" t="s">
         <v>419</v>
       </c>
-      <c r="AM4" s="233" t="s">
+      <c r="AM4" s="231" t="s">
         <v>420</v>
       </c>
-      <c r="AN4" s="233" t="s">
+      <c r="AN4" s="231" t="s">
         <v>421</v>
       </c>
-      <c r="AQ4" s="233" t="s">
+      <c r="AQ4" s="231" t="s">
         <v>415</v>
       </c>
-      <c r="AR4" s="244" t="s">
+      <c r="AR4" s="242" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="57" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="231" t="s">
+      <c r="A5" s="229" t="s">
         <v>423</v>
       </c>
-      <c r="B5" s="231" t="s">
+      <c r="B5" s="229" t="s">
         <v>424</v>
       </c>
-      <c r="E5" s="231" t="s">
+      <c r="E5" s="229" t="s">
         <v>425</v>
       </c>
-      <c r="F5" s="248" t="s">
+      <c r="F5" s="246" t="s">
         <v>426</v>
       </c>
-      <c r="I5" s="231" t="s">
+      <c r="I5" s="229" t="s">
         <v>427</v>
       </c>
-      <c r="L5" s="231" t="s">
+      <c r="L5" s="229" t="s">
         <v>215</v>
       </c>
-      <c r="M5" s="231" t="s">
+      <c r="M5" s="229" t="s">
         <v>428</v>
       </c>
-      <c r="N5" s="231" t="s">
+      <c r="N5" s="229" t="s">
         <v>429</v>
       </c>
-      <c r="O5" s="231" t="s">
+      <c r="O5" s="229" t="s">
         <v>430</v>
       </c>
-      <c r="P5" s="231" t="s">
+      <c r="P5" s="229" t="s">
         <v>431</v>
       </c>
-      <c r="S5" s="231" t="n">
+      <c r="S5" s="229" t="n">
         <v>1998</v>
       </c>
-      <c r="T5" s="238" t="n">
+      <c r="T5" s="236" t="n">
         <v>0.023</v>
       </c>
-      <c r="U5" s="231" t="s">
+      <c r="U5" s="229" t="s">
         <v>432</v>
       </c>
-      <c r="W5" s="239" t="s">
+      <c r="W5" s="237" t="s">
         <v>104</v>
       </c>
-      <c r="X5" s="239" t="s">
+      <c r="X5" s="237" t="s">
         <v>104</v>
       </c>
-      <c r="Y5" s="240" t="n">
+      <c r="Y5" s="238" t="n">
         <v>42825</v>
       </c>
-      <c r="Z5" s="241" t="n">
+      <c r="Z5" s="239" t="n">
         <v>0.2</v>
       </c>
-      <c r="AA5" s="231" t="s">
+      <c r="AA5" s="229" t="s">
         <v>433</v>
       </c>
-      <c r="AB5" s="231" t="s">
+      <c r="AB5" s="229" t="s">
         <v>430</v>
       </c>
-      <c r="AC5" s="231" t="s">
+      <c r="AC5" s="229" t="s">
         <v>434</v>
       </c>
-      <c r="AD5" s="231" t="s">
+      <c r="AD5" s="229" t="s">
         <v>430</v>
       </c>
-      <c r="AE5" s="246" t="n">
+      <c r="AE5" s="244" t="n">
         <v>42826</v>
       </c>
-      <c r="AF5" s="247" t="n">
+      <c r="AF5" s="245" t="n">
         <v>6</v>
       </c>
-      <c r="AG5" s="233" t="s">
+      <c r="AG5" s="231" t="s">
         <v>381</v>
       </c>
-      <c r="AH5" s="244" t="s">
+      <c r="AH5" s="242" t="s">
         <v>343</v>
       </c>
-      <c r="AI5" s="233" t="s">
+      <c r="AI5" s="231" t="s">
         <v>368</v>
       </c>
-      <c r="AJ5" s="233" t="s">
+      <c r="AJ5" s="231" t="s">
         <v>435</v>
       </c>
-      <c r="AM5" s="233" t="s">
+      <c r="AM5" s="231" t="s">
         <v>436</v>
       </c>
-      <c r="AQ5" s="233" t="s">
+      <c r="AQ5" s="231" t="s">
         <v>433</v>
       </c>
-      <c r="AR5" s="244" t="s">
+      <c r="AR5" s="242" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="83.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="231" t="s">
+      <c r="A6" s="229" t="s">
         <v>438</v>
       </c>
-      <c r="B6" s="245" t="s">
+      <c r="B6" s="243" t="s">
         <v>439</v>
       </c>
-      <c r="E6" s="231" t="s">
+      <c r="E6" s="229" t="s">
         <v>440</v>
       </c>
-      <c r="F6" s="231" t="s">
+      <c r="F6" s="229" t="s">
         <v>441</v>
       </c>
-      <c r="I6" s="231" t="s">
+      <c r="I6" s="229" t="s">
         <v>206</v>
       </c>
-      <c r="M6" s="231" t="s">
+      <c r="M6" s="229" t="s">
         <v>442</v>
       </c>
-      <c r="N6" s="231" t="s">
+      <c r="N6" s="229" t="s">
         <v>443</v>
       </c>
-      <c r="O6" s="231" t="s">
+      <c r="O6" s="229" t="s">
         <v>444</v>
       </c>
-      <c r="P6" s="231" t="s">
+      <c r="P6" s="229" t="s">
         <v>445</v>
       </c>
-      <c r="S6" s="231" t="n">
+      <c r="S6" s="229" t="n">
         <v>1999</v>
       </c>
-      <c r="T6" s="238" t="n">
+      <c r="T6" s="236" t="n">
         <v>0.024</v>
       </c>
-      <c r="U6" s="231" t="s">
+      <c r="U6" s="229" t="s">
         <v>335</v>
       </c>
-      <c r="W6" s="239" t="s">
+      <c r="W6" s="237" t="s">
         <v>105</v>
       </c>
-      <c r="X6" s="239" t="s">
+      <c r="X6" s="237" t="s">
         <v>105</v>
       </c>
-      <c r="Y6" s="240" t="n">
+      <c r="Y6" s="238" t="n">
         <v>42916</v>
       </c>
-      <c r="Z6" s="241" t="n">
+      <c r="Z6" s="239" t="n">
         <v>0.25</v>
       </c>
-      <c r="AB6" s="231" t="s">
+      <c r="AB6" s="229" t="s">
         <v>446</v>
       </c>
-      <c r="AC6" s="231" t="s">
+      <c r="AC6" s="229" t="s">
         <v>447</v>
       </c>
-      <c r="AD6" s="231" t="s">
+      <c r="AD6" s="229" t="s">
         <v>446</v>
       </c>
-      <c r="AE6" s="249" t="n">
+      <c r="AE6" s="247" t="n">
         <v>43190</v>
       </c>
-      <c r="AF6" s="250" t="n">
+      <c r="AF6" s="248" t="n">
         <v>7</v>
       </c>
-      <c r="AG6" s="233" t="s">
+      <c r="AG6" s="231" t="s">
         <v>354</v>
       </c>
-      <c r="AH6" s="244" t="s">
+      <c r="AH6" s="242" t="s">
         <v>344</v>
       </c>
-      <c r="AI6" s="233" t="s">
+      <c r="AI6" s="231" t="s">
         <v>396</v>
       </c>
-      <c r="AJ6" s="233" t="s">
+      <c r="AJ6" s="231" t="s">
         <v>448</v>
       </c>
-      <c r="AR6" s="244"/>
+      <c r="AR6" s="242"/>
     </row>
     <row r="7" customFormat="false" ht="71.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="231" t="s">
+      <c r="A7" s="229" t="s">
         <v>449</v>
       </c>
-      <c r="B7" s="231" t="s">
+      <c r="B7" s="229" t="s">
         <v>450</v>
       </c>
-      <c r="E7" s="231" t="s">
+      <c r="E7" s="229" t="s">
         <v>451</v>
       </c>
-      <c r="F7" s="231" t="s">
+      <c r="F7" s="229" t="s">
         <v>452</v>
       </c>
-      <c r="I7" s="231" t="s">
+      <c r="I7" s="229" t="s">
         <v>453</v>
       </c>
-      <c r="M7" s="231" t="s">
+      <c r="M7" s="229" t="s">
         <v>454</v>
       </c>
-      <c r="N7" s="231" t="s">
+      <c r="N7" s="229" t="s">
         <v>455</v>
       </c>
-      <c r="O7" s="231" t="s">
+      <c r="O7" s="229" t="s">
         <v>456</v>
       </c>
-      <c r="P7" s="231" t="s">
+      <c r="P7" s="229" t="s">
         <v>457</v>
       </c>
-      <c r="S7" s="231" t="n">
+      <c r="S7" s="229" t="n">
         <v>2000</v>
       </c>
-      <c r="T7" s="238" t="n">
+      <c r="T7" s="236" t="n">
         <v>0.025</v>
       </c>
-      <c r="W7" s="239" t="s">
+      <c r="W7" s="237" t="s">
         <v>110</v>
       </c>
-      <c r="X7" s="239" t="s">
+      <c r="X7" s="237" t="s">
         <v>110</v>
       </c>
-      <c r="Y7" s="240" t="n">
+      <c r="Y7" s="238" t="n">
         <v>43008</v>
       </c>
-      <c r="Z7" s="241" t="n">
+      <c r="Z7" s="239" t="n">
         <v>0.3</v>
       </c>
-      <c r="AB7" s="231" t="s">
+      <c r="AB7" s="229" t="s">
         <v>456</v>
       </c>
-      <c r="AC7" s="231" t="s">
+      <c r="AC7" s="229" t="s">
         <v>335</v>
       </c>
-      <c r="AD7" s="231" t="s">
+      <c r="AD7" s="229" t="s">
         <v>456</v>
       </c>
-      <c r="AE7" s="246" t="n">
+      <c r="AE7" s="244" t="n">
         <v>43191</v>
       </c>
-      <c r="AF7" s="247" t="n">
+      <c r="AF7" s="245" t="n">
         <v>8</v>
       </c>
-      <c r="AG7" s="233" t="s">
+      <c r="AG7" s="231" t="s">
         <v>458</v>
       </c>
-      <c r="AH7" s="244" t="s">
+      <c r="AH7" s="242" t="s">
         <v>459</v>
       </c>
-      <c r="AI7" s="233" t="s">
+      <c r="AI7" s="231" t="s">
         <v>419</v>
       </c>
-      <c r="AJ7" s="233" t="s">
+      <c r="AJ7" s="231" t="s">
         <v>460</v>
       </c>
-      <c r="AR7" s="244"/>
+      <c r="AR7" s="242"/>
     </row>
     <row r="8" customFormat="false" ht="77.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="231" t="s">
+      <c r="A8" s="229" t="s">
         <v>461</v>
       </c>
-      <c r="B8" s="231" t="s">
+      <c r="B8" s="229" t="s">
         <v>462</v>
       </c>
-      <c r="E8" s="253"/>
-      <c r="F8" s="231" t="s">
+      <c r="E8" s="251"/>
+      <c r="F8" s="229" t="s">
         <v>433</v>
       </c>
-      <c r="M8" s="231" t="s">
+      <c r="M8" s="229" t="s">
         <v>463</v>
       </c>
-      <c r="N8" s="231" t="s">
+      <c r="N8" s="229" t="s">
         <v>464</v>
       </c>
-      <c r="O8" s="231" t="s">
+      <c r="O8" s="229" t="s">
         <v>465</v>
       </c>
-      <c r="P8" s="231" t="s">
+      <c r="P8" s="229" t="s">
         <v>466</v>
       </c>
-      <c r="S8" s="231" t="n">
+      <c r="S8" s="229" t="n">
         <v>2001</v>
       </c>
-      <c r="T8" s="238" t="n">
+      <c r="T8" s="236" t="n">
         <v>0.026</v>
       </c>
-      <c r="W8" s="239" t="s">
+      <c r="W8" s="237" t="s">
         <v>114</v>
       </c>
-      <c r="X8" s="239" t="s">
+      <c r="X8" s="237" t="s">
         <v>114</v>
       </c>
-      <c r="Y8" s="240" t="n">
+      <c r="Y8" s="238" t="n">
         <v>43100</v>
       </c>
-      <c r="Z8" s="241" t="n">
+      <c r="Z8" s="239" t="n">
         <v>0.35</v>
       </c>
-      <c r="AB8" s="231" t="s">
+      <c r="AB8" s="229" t="s">
         <v>465</v>
       </c>
-      <c r="AD8" s="231" t="s">
+      <c r="AD8" s="229" t="s">
         <v>465</v>
       </c>
-      <c r="AE8" s="249" t="n">
+      <c r="AE8" s="247" t="n">
         <v>43555</v>
       </c>
-      <c r="AF8" s="250" t="n">
+      <c r="AF8" s="248" t="n">
         <v>9</v>
       </c>
-      <c r="AG8" s="233" t="s">
+      <c r="AG8" s="231" t="s">
         <v>467</v>
       </c>
-      <c r="AI8" s="233" t="s">
+      <c r="AI8" s="231" t="s">
         <v>369</v>
       </c>
-      <c r="AJ8" s="233" t="s">
+      <c r="AJ8" s="231" t="s">
         <v>468</v>
       </c>
-      <c r="AQ8" s="244"/>
+      <c r="AQ8" s="242"/>
     </row>
     <row r="9" customFormat="false" ht="71.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="231" t="s">
+      <c r="A9" s="229" t="s">
         <v>469</v>
       </c>
-      <c r="B9" s="245" t="s">
+      <c r="B9" s="243" t="s">
         <v>470</v>
       </c>
-      <c r="F9" s="231" t="s">
+      <c r="F9" s="229" t="s">
         <v>386</v>
       </c>
-      <c r="M9" s="231" t="s">
+      <c r="M9" s="229" t="s">
         <v>471</v>
       </c>
-      <c r="N9" s="231" t="s">
+      <c r="N9" s="229" t="s">
         <v>472</v>
       </c>
-      <c r="O9" s="231" t="s">
+      <c r="O9" s="229" t="s">
         <v>473</v>
       </c>
-      <c r="P9" s="231" t="s">
+      <c r="P9" s="229" t="s">
         <v>474</v>
       </c>
-      <c r="Q9" s="248"/>
-      <c r="S9" s="231" t="n">
+      <c r="Q9" s="246"/>
+      <c r="S9" s="229" t="n">
         <v>2002</v>
       </c>
-      <c r="T9" s="238" t="n">
+      <c r="T9" s="236" t="n">
         <v>0.027</v>
       </c>
-      <c r="W9" s="239" t="s">
+      <c r="W9" s="237" t="s">
         <v>116</v>
       </c>
-      <c r="X9" s="239" t="s">
+      <c r="X9" s="237" t="s">
         <v>116</v>
       </c>
-      <c r="Y9" s="240" t="n">
+      <c r="Y9" s="238" t="n">
         <v>43190</v>
       </c>
-      <c r="Z9" s="241" t="n">
+      <c r="Z9" s="239" t="n">
         <v>0.4</v>
       </c>
-      <c r="AB9" s="231" t="s">
+      <c r="AB9" s="229" t="s">
         <v>473</v>
       </c>
-      <c r="AD9" s="231" t="s">
+      <c r="AD9" s="229" t="s">
         <v>473</v>
       </c>
-      <c r="AE9" s="246" t="n">
+      <c r="AE9" s="244" t="n">
         <v>43556</v>
       </c>
-      <c r="AF9" s="247" t="n">
+      <c r="AF9" s="245" t="n">
         <v>10</v>
       </c>
-      <c r="AG9" s="233" t="s">
+      <c r="AG9" s="231" t="s">
         <v>475</v>
       </c>
-      <c r="AI9" s="233" t="s">
+      <c r="AI9" s="231" t="s">
         <v>397</v>
       </c>
-      <c r="AJ9" s="233" t="s">
+      <c r="AJ9" s="231" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="69.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="231" t="s">
+      <c r="A10" s="229" t="s">
         <v>477</v>
       </c>
-      <c r="B10" s="231" t="s">
+      <c r="B10" s="229" t="s">
         <v>478</v>
       </c>
-      <c r="F10" s="248" t="s">
+      <c r="F10" s="246" t="s">
         <v>479</v>
       </c>
-      <c r="M10" s="231" t="s">
+      <c r="M10" s="229" t="s">
         <v>480</v>
       </c>
-      <c r="N10" s="231" t="s">
+      <c r="N10" s="229" t="s">
         <v>481</v>
       </c>
-      <c r="O10" s="231" t="s">
+      <c r="O10" s="229" t="s">
         <v>335</v>
       </c>
-      <c r="P10" s="231" t="s">
+      <c r="P10" s="229" t="s">
         <v>482</v>
       </c>
-      <c r="S10" s="231" t="n">
+      <c r="S10" s="229" t="n">
         <v>2003</v>
       </c>
-      <c r="T10" s="238" t="n">
+      <c r="T10" s="236" t="n">
         <v>0.028</v>
       </c>
-      <c r="W10" s="254" t="s">
+      <c r="W10" s="252" t="s">
         <v>118</v>
       </c>
-      <c r="X10" s="254" t="s">
+      <c r="X10" s="252" t="s">
         <v>118</v>
       </c>
-      <c r="Z10" s="241" t="n">
+      <c r="Z10" s="239" t="n">
         <v>0.45</v>
       </c>
-      <c r="AB10" s="231" t="s">
+      <c r="AB10" s="229" t="s">
         <v>335</v>
       </c>
-      <c r="AD10" s="231" t="s">
+      <c r="AD10" s="229" t="s">
         <v>364</v>
       </c>
-      <c r="AE10" s="249" t="n">
+      <c r="AE10" s="247" t="n">
         <v>43921</v>
       </c>
-      <c r="AF10" s="250" t="n">
+      <c r="AF10" s="248" t="n">
         <v>11</v>
       </c>
-      <c r="AG10" s="233" t="s">
+      <c r="AG10" s="231" t="s">
         <v>483</v>
       </c>
-      <c r="AI10" s="233" t="s">
+      <c r="AI10" s="231" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="231" t="s">
+      <c r="A11" s="229" t="s">
         <v>484</v>
       </c>
-      <c r="B11" s="231" t="s">
+      <c r="B11" s="229" t="s">
         <v>485</v>
       </c>
-      <c r="F11" s="231" t="s">
+      <c r="F11" s="229" t="s">
         <v>335</v>
       </c>
-      <c r="M11" s="231" t="s">
+      <c r="M11" s="229" t="s">
         <v>486</v>
       </c>
-      <c r="N11" s="231" t="s">
+      <c r="N11" s="229" t="s">
         <v>487</v>
       </c>
-      <c r="P11" s="231" t="s">
+      <c r="P11" s="229" t="s">
         <v>488</v>
       </c>
-      <c r="S11" s="231" t="n">
+      <c r="S11" s="229" t="n">
         <v>2004</v>
       </c>
-      <c r="T11" s="238" t="n">
+      <c r="T11" s="236" t="n">
         <v>0.029</v>
       </c>
-      <c r="W11" s="254" t="s">
+      <c r="W11" s="252" t="s">
         <v>120</v>
       </c>
-      <c r="X11" s="254" t="s">
+      <c r="X11" s="252" t="s">
         <v>120</v>
       </c>
-      <c r="Z11" s="241" t="n">
+      <c r="Z11" s="239" t="n">
         <v>0.5</v>
       </c>
-      <c r="AD11" s="231" t="s">
+      <c r="AD11" s="229" t="s">
         <v>392</v>
       </c>
-      <c r="AE11" s="246" t="n">
+      <c r="AE11" s="244" t="n">
         <v>43922</v>
       </c>
-      <c r="AF11" s="247" t="n">
+      <c r="AF11" s="245" t="n">
         <v>12</v>
       </c>
-      <c r="AG11" s="233" t="s">
+      <c r="AG11" s="231" t="s">
         <v>215</v>
       </c>
-      <c r="AI11" s="233" t="s">
+      <c r="AI11" s="231" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="231" t="s">
+      <c r="A12" s="229" t="s">
         <v>489</v>
       </c>
-      <c r="B12" s="231" t="s">
+      <c r="B12" s="229" t="s">
         <v>490</v>
       </c>
-      <c r="M12" s="231" t="s">
+      <c r="M12" s="229" t="s">
         <v>491</v>
       </c>
-      <c r="N12" s="231" t="s">
+      <c r="N12" s="229" t="s">
         <v>492</v>
       </c>
-      <c r="S12" s="231" t="n">
+      <c r="S12" s="229" t="n">
         <v>2005</v>
       </c>
-      <c r="T12" s="238" t="n">
+      <c r="T12" s="236" t="n">
         <v>0.03</v>
       </c>
-      <c r="W12" s="254" t="s">
+      <c r="W12" s="252" t="s">
         <v>122</v>
       </c>
-      <c r="X12" s="254" t="s">
+      <c r="X12" s="252" t="s">
         <v>122</v>
       </c>
-      <c r="Z12" s="241" t="n">
+      <c r="Z12" s="239" t="n">
         <v>0.55</v>
       </c>
-      <c r="AD12" s="231" t="s">
+      <c r="AD12" s="229" t="s">
         <v>416</v>
       </c>
-      <c r="AE12" s="249" t="n">
+      <c r="AE12" s="247" t="n">
         <v>44286</v>
       </c>
-      <c r="AF12" s="250" t="n">
+      <c r="AF12" s="248" t="n">
         <v>13</v>
       </c>
-      <c r="AI12" s="233" t="s">
+      <c r="AI12" s="231" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="231" t="s">
+      <c r="A13" s="229" t="s">
         <v>493</v>
       </c>
-      <c r="B13" s="245" t="s">
+      <c r="B13" s="243" t="s">
         <v>494</v>
       </c>
-      <c r="M13" s="231" t="s">
+      <c r="M13" s="229" t="s">
         <v>495</v>
       </c>
-      <c r="N13" s="231" t="s">
+      <c r="N13" s="229" t="s">
         <v>496</v>
       </c>
-      <c r="S13" s="231" t="n">
+      <c r="S13" s="229" t="n">
         <v>2006</v>
       </c>
-      <c r="T13" s="238" t="n">
+      <c r="T13" s="236" t="n">
         <v>0.031</v>
       </c>
-      <c r="W13" s="254" t="s">
+      <c r="W13" s="252" t="s">
         <v>123</v>
       </c>
-      <c r="X13" s="254" t="s">
+      <c r="X13" s="252" t="s">
         <v>123</v>
       </c>
-      <c r="Z13" s="241" t="n">
+      <c r="Z13" s="239" t="n">
         <v>0.6</v>
       </c>
-      <c r="AD13" s="231" t="s">
+      <c r="AD13" s="229" t="s">
         <v>434</v>
       </c>
-      <c r="AE13" s="246" t="n">
+      <c r="AE13" s="244" t="n">
         <v>44287</v>
       </c>
-      <c r="AF13" s="247" t="n">
+      <c r="AF13" s="245" t="n">
         <v>14</v>
       </c>
-      <c r="AI13" s="233" t="s">
+      <c r="AI13" s="231" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="64.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="231" t="s">
+      <c r="A14" s="229" t="s">
         <v>497</v>
       </c>
-      <c r="B14" s="254" t="s">
+      <c r="B14" s="252" t="s">
         <v>498</v>
       </c>
-      <c r="M14" s="231" t="s">
+      <c r="M14" s="229" t="s">
         <v>499</v>
       </c>
-      <c r="N14" s="231" t="s">
+      <c r="N14" s="229" t="s">
         <v>500</v>
       </c>
-      <c r="S14" s="231" t="n">
+      <c r="S14" s="229" t="n">
         <v>2007</v>
       </c>
-      <c r="T14" s="238" t="n">
+      <c r="T14" s="236" t="n">
         <v>0.032</v>
       </c>
-      <c r="W14" s="254" t="s">
+      <c r="W14" s="252" t="s">
         <v>124</v>
       </c>
-      <c r="X14" s="254" t="s">
+      <c r="X14" s="252" t="s">
         <v>124</v>
       </c>
-      <c r="Z14" s="241" t="n">
+      <c r="Z14" s="239" t="n">
         <v>0.65</v>
       </c>
-      <c r="AD14" s="231" t="s">
+      <c r="AD14" s="229" t="s">
         <v>447</v>
       </c>
-      <c r="AE14" s="249" t="n">
+      <c r="AE14" s="247" t="n">
         <v>44651</v>
       </c>
-      <c r="AF14" s="250" t="n">
+      <c r="AF14" s="248" t="n">
         <v>15</v>
       </c>
-      <c r="AI14" s="233" t="s">
+      <c r="AI14" s="231" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="51.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="231" t="s">
+      <c r="A15" s="229" t="s">
         <v>501</v>
       </c>
-      <c r="B15" s="254" t="s">
+      <c r="B15" s="252" t="s">
         <v>502</v>
       </c>
-      <c r="M15" s="231" t="s">
+      <c r="M15" s="229" t="s">
         <v>503</v>
       </c>
-      <c r="N15" s="231" t="s">
+      <c r="N15" s="229" t="s">
         <v>504</v>
       </c>
-      <c r="S15" s="231" t="n">
+      <c r="S15" s="229" t="n">
         <v>2008</v>
       </c>
-      <c r="T15" s="238" t="n">
+      <c r="T15" s="236" t="n">
         <v>0.033</v>
       </c>
-      <c r="W15" s="254" t="s">
+      <c r="W15" s="252" t="s">
         <v>125</v>
       </c>
-      <c r="X15" s="254" t="s">
+      <c r="X15" s="252" t="s">
         <v>125</v>
       </c>
-      <c r="Z15" s="241" t="n">
+      <c r="Z15" s="239" t="n">
         <v>0.7</v>
       </c>
-      <c r="AD15" s="231" t="s">
+      <c r="AD15" s="229" t="s">
         <v>335</v>
       </c>
-      <c r="AE15" s="246" t="n">
+      <c r="AE15" s="244" t="n">
         <v>44652</v>
       </c>
-      <c r="AF15" s="247" t="n">
+      <c r="AF15" s="245" t="n">
         <v>16</v>
       </c>
-      <c r="AI15" s="233" t="s">
+      <c r="AI15" s="231" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="231" t="s">
+      <c r="A16" s="229" t="s">
         <v>505</v>
       </c>
-      <c r="B16" s="255" t="s">
+      <c r="B16" s="253" t="s">
         <v>506</v>
       </c>
-      <c r="C16" s="239"/>
-      <c r="M16" s="231" t="s">
+      <c r="C16" s="237"/>
+      <c r="M16" s="229" t="s">
         <v>507</v>
       </c>
-      <c r="N16" s="231" t="s">
+      <c r="N16" s="229" t="s">
         <v>508</v>
       </c>
-      <c r="S16" s="231" t="n">
+      <c r="S16" s="229" t="n">
         <v>2009</v>
       </c>
-      <c r="T16" s="238" t="n">
+      <c r="T16" s="236" t="n">
         <v>0.034</v>
       </c>
-      <c r="W16" s="254" t="s">
+      <c r="W16" s="252" t="s">
         <v>126</v>
       </c>
-      <c r="X16" s="254" t="s">
+      <c r="X16" s="252" t="s">
         <v>126</v>
       </c>
-      <c r="Z16" s="241" t="n">
+      <c r="Z16" s="239" t="n">
         <v>0.75</v>
       </c>
-      <c r="AD16" s="231" t="s">
+      <c r="AD16" s="229" t="s">
         <v>509</v>
       </c>
-      <c r="AE16" s="249" t="n">
+      <c r="AE16" s="247" t="n">
         <v>45016</v>
       </c>
-      <c r="AF16" s="250" t="n">
+      <c r="AF16" s="248" t="n">
         <v>17</v>
       </c>
-      <c r="AI16" s="231"/>
+      <c r="AI16" s="229"/>
     </row>
     <row r="17" customFormat="false" ht="57" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="231" t="s">
+      <c r="A17" s="229" t="s">
         <v>510</v>
       </c>
-      <c r="B17" s="255" t="s">
+      <c r="B17" s="253" t="s">
         <v>511</v>
       </c>
-      <c r="M17" s="231" t="s">
+      <c r="M17" s="229" t="s">
         <v>512</v>
       </c>
-      <c r="N17" s="231" t="s">
+      <c r="N17" s="229" t="s">
         <v>513</v>
       </c>
-      <c r="S17" s="231" t="n">
+      <c r="S17" s="229" t="n">
         <v>2010</v>
       </c>
-      <c r="T17" s="238" t="n">
+      <c r="T17" s="236" t="n">
         <v>0.035</v>
       </c>
-      <c r="W17" s="254" t="s">
+      <c r="W17" s="252" t="s">
         <v>127</v>
       </c>
-      <c r="X17" s="254" t="s">
+      <c r="X17" s="252" t="s">
         <v>127</v>
       </c>
-      <c r="Z17" s="241" t="n">
+      <c r="Z17" s="239" t="n">
         <v>0.8</v>
       </c>
-      <c r="AD17" s="231" t="s">
+      <c r="AD17" s="229" t="s">
         <v>514</v>
       </c>
-      <c r="AE17" s="256" t="n">
+      <c r="AE17" s="254" t="n">
         <v>45017</v>
       </c>
-      <c r="AF17" s="231" t="n">
+      <c r="AF17" s="229" t="n">
         <v>18</v>
       </c>
-      <c r="AI17" s="231"/>
+      <c r="AI17" s="229"/>
     </row>
     <row r="18" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="231" t="s">
+      <c r="B18" s="229" t="s">
         <v>348</v>
       </c>
-      <c r="C18" s="239"/>
-      <c r="M18" s="231" t="s">
+      <c r="C18" s="237"/>
+      <c r="M18" s="229" t="s">
         <v>515</v>
       </c>
-      <c r="N18" s="231" t="s">
+      <c r="N18" s="229" t="s">
         <v>516</v>
       </c>
-      <c r="S18" s="231" t="n">
+      <c r="S18" s="229" t="n">
         <v>2011</v>
       </c>
-      <c r="T18" s="238" t="n">
+      <c r="T18" s="236" t="n">
         <v>0.036</v>
       </c>
-      <c r="W18" s="254" t="s">
+      <c r="W18" s="252" t="s">
         <v>517</v>
       </c>
-      <c r="X18" s="254" t="s">
+      <c r="X18" s="252" t="s">
         <v>517</v>
       </c>
-      <c r="Z18" s="241" t="n">
+      <c r="Z18" s="239" t="n">
         <v>0.85</v>
       </c>
-      <c r="AD18" s="231" t="s">
+      <c r="AD18" s="229" t="s">
         <v>518</v>
       </c>
-      <c r="AE18" s="256" t="n">
+      <c r="AE18" s="254" t="n">
         <v>45382</v>
       </c>
-      <c r="AF18" s="231" t="n">
+      <c r="AF18" s="229" t="n">
         <v>19</v>
       </c>
-      <c r="AI18" s="231"/>
+      <c r="AI18" s="229"/>
     </row>
     <row r="19" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="231" t="s">
+      <c r="B19" s="229" t="s">
         <v>373</v>
       </c>
-      <c r="M19" s="231" t="s">
+      <c r="M19" s="229" t="s">
         <v>519</v>
       </c>
-      <c r="N19" s="231" t="s">
+      <c r="N19" s="229" t="s">
         <v>520</v>
       </c>
-      <c r="S19" s="231" t="n">
+      <c r="S19" s="229" t="n">
         <v>2012</v>
       </c>
-      <c r="T19" s="238" t="n">
+      <c r="T19" s="236" t="n">
         <v>0.037</v>
       </c>
-      <c r="W19" s="254" t="s">
+      <c r="W19" s="252" t="s">
         <v>521</v>
       </c>
-      <c r="X19" s="254" t="s">
+      <c r="X19" s="252" t="s">
         <v>521</v>
       </c>
-      <c r="Z19" s="241" t="n">
+      <c r="Z19" s="239" t="n">
         <v>0.9</v>
       </c>
-      <c r="AD19" s="231" t="s">
+      <c r="AD19" s="229" t="s">
         <v>522</v>
       </c>
-      <c r="AE19" s="256" t="n">
+      <c r="AE19" s="254" t="n">
         <v>45383</v>
       </c>
-      <c r="AF19" s="231" t="n">
+      <c r="AF19" s="229" t="n">
         <v>20</v>
       </c>
-      <c r="AI19" s="231"/>
+      <c r="AI19" s="229"/>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="231" t="s">
+      <c r="B20" s="229" t="s">
         <v>400</v>
       </c>
-      <c r="M20" s="231" t="s">
+      <c r="M20" s="229" t="s">
         <v>523</v>
       </c>
-      <c r="N20" s="231" t="s">
+      <c r="N20" s="229" t="s">
         <v>524</v>
       </c>
-      <c r="S20" s="231" t="n">
+      <c r="S20" s="229" t="n">
         <v>2013</v>
       </c>
-      <c r="T20" s="238" t="n">
+      <c r="T20" s="236" t="n">
         <v>0.038</v>
       </c>
-      <c r="W20" s="254" t="s">
+      <c r="W20" s="252" t="s">
         <v>525</v>
       </c>
-      <c r="X20" s="254" t="s">
+      <c r="X20" s="252" t="s">
         <v>525</v>
       </c>
-      <c r="Z20" s="241" t="n">
+      <c r="Z20" s="239" t="n">
         <v>0.95</v>
       </c>
-      <c r="AE20" s="256" t="n">
+      <c r="AE20" s="254" t="n">
         <v>45747</v>
       </c>
-      <c r="AF20" s="231" t="n">
+      <c r="AF20" s="229" t="n">
         <v>21</v>
       </c>
-      <c r="AI20" s="231"/>
+      <c r="AI20" s="229"/>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="231" t="s">
+      <c r="B21" s="229" t="s">
         <v>423</v>
       </c>
-      <c r="M21" s="231" t="s">
+      <c r="M21" s="229" t="s">
         <v>526</v>
       </c>
-      <c r="N21" s="231" t="s">
+      <c r="N21" s="229" t="s">
         <v>527</v>
       </c>
-      <c r="S21" s="231" t="n">
+      <c r="S21" s="229" t="n">
         <v>2014</v>
       </c>
-      <c r="T21" s="238" t="n">
+      <c r="T21" s="236" t="n">
         <v>0.039</v>
       </c>
-      <c r="W21" s="254" t="s">
+      <c r="W21" s="252" t="s">
         <v>528</v>
       </c>
-      <c r="X21" s="254" t="s">
+      <c r="X21" s="252" t="s">
         <v>528</v>
       </c>
-      <c r="Z21" s="241" t="n">
+      <c r="Z21" s="239" t="n">
         <v>1</v>
       </c>
-      <c r="AE21" s="256" t="n">
+      <c r="AE21" s="254" t="n">
         <v>45748</v>
       </c>
-      <c r="AF21" s="231" t="n">
+      <c r="AF21" s="229" t="n">
         <v>22</v>
       </c>
-      <c r="AI21" s="231"/>
+      <c r="AI21" s="229"/>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="231" t="s">
+      <c r="B22" s="229" t="s">
         <v>438</v>
       </c>
-      <c r="M22" s="231" t="s">
+      <c r="M22" s="229" t="s">
         <v>529</v>
       </c>
-      <c r="N22" s="231" t="s">
+      <c r="N22" s="229" t="s">
         <v>530</v>
       </c>
-      <c r="S22" s="231" t="n">
+      <c r="S22" s="229" t="n">
         <v>2015</v>
       </c>
-      <c r="T22" s="238" t="n">
+      <c r="T22" s="236" t="n">
         <v>0.04</v>
       </c>
-      <c r="W22" s="231" t="s">
+      <c r="W22" s="229" t="s">
         <v>531</v>
       </c>
-      <c r="X22" s="231" t="s">
+      <c r="X22" s="229" t="s">
         <v>531</v>
       </c>
-      <c r="Z22" s="241"/>
-      <c r="AE22" s="256" t="n">
+      <c r="Z22" s="239"/>
+      <c r="AE22" s="254" t="n">
         <v>46112</v>
       </c>
-      <c r="AF22" s="231" t="n">
+      <c r="AF22" s="229" t="n">
         <v>23</v>
       </c>
-      <c r="AI22" s="231"/>
+      <c r="AI22" s="229"/>
     </row>
     <row r="23" customFormat="false" ht="57" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="231" t="s">
+      <c r="B23" s="229" t="s">
         <v>449</v>
       </c>
-      <c r="M23" s="231" t="s">
+      <c r="M23" s="229" t="s">
         <v>532</v>
       </c>
-      <c r="N23" s="231" t="s">
+      <c r="N23" s="229" t="s">
         <v>533</v>
       </c>
-      <c r="Q23" s="248"/>
-      <c r="S23" s="231" t="n">
+      <c r="Q23" s="246"/>
+      <c r="S23" s="229" t="n">
         <v>2016</v>
       </c>
-      <c r="T23" s="238" t="n">
+      <c r="T23" s="236" t="n">
         <v>0.041</v>
       </c>
-      <c r="W23" s="231" t="s">
+      <c r="W23" s="229" t="s">
         <v>534</v>
       </c>
-      <c r="X23" s="231" t="s">
+      <c r="X23" s="229" t="s">
         <v>534</v>
       </c>
-      <c r="Z23" s="241"/>
-      <c r="AI23" s="231"/>
+      <c r="Z23" s="239"/>
+      <c r="AI23" s="229"/>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="231" t="s">
+      <c r="B24" s="229" t="s">
         <v>461</v>
       </c>
-      <c r="M24" s="231" t="s">
+      <c r="M24" s="229" t="s">
         <v>535</v>
       </c>
-      <c r="N24" s="231" t="s">
+      <c r="N24" s="229" t="s">
         <v>536</v>
       </c>
-      <c r="S24" s="231" t="n">
+      <c r="S24" s="229" t="n">
         <v>2017</v>
       </c>
-      <c r="T24" s="238" t="n">
+      <c r="T24" s="236" t="n">
         <v>0.042</v>
       </c>
-      <c r="W24" s="231" t="s">
+      <c r="W24" s="229" t="s">
         <v>537</v>
       </c>
-      <c r="X24" s="231" t="s">
+      <c r="X24" s="229" t="s">
         <v>537</v>
       </c>
-      <c r="Z24" s="241"/>
-      <c r="AI24" s="231"/>
+      <c r="Z24" s="239"/>
+      <c r="AI24" s="229"/>
     </row>
     <row r="25" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="231" t="s">
+      <c r="B25" s="229" t="s">
         <v>469</v>
       </c>
-      <c r="M25" s="231" t="s">
+      <c r="M25" s="229" t="s">
         <v>538</v>
       </c>
-      <c r="N25" s="231" t="s">
+      <c r="N25" s="229" t="s">
         <v>539</v>
       </c>
-      <c r="S25" s="231" t="n">
+      <c r="S25" s="229" t="n">
         <v>2018</v>
       </c>
-      <c r="T25" s="238" t="n">
+      <c r="T25" s="236" t="n">
         <v>0.043</v>
       </c>
-      <c r="W25" s="231" t="s">
+      <c r="W25" s="229" t="s">
         <v>540</v>
       </c>
-      <c r="X25" s="231" t="s">
+      <c r="X25" s="229" t="s">
         <v>540</v>
       </c>
-      <c r="Z25" s="241"/>
-      <c r="AI25" s="231"/>
+      <c r="Z25" s="239"/>
+      <c r="AI25" s="229"/>
     </row>
     <row r="26" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="231" t="s">
+      <c r="B26" s="229" t="s">
         <v>477</v>
       </c>
-      <c r="M26" s="231" t="s">
+      <c r="M26" s="229" t="s">
         <v>541</v>
       </c>
-      <c r="N26" s="231" t="s">
+      <c r="N26" s="229" t="s">
         <v>542</v>
       </c>
-      <c r="S26" s="231" t="n">
+      <c r="S26" s="229" t="n">
         <v>2019</v>
       </c>
-      <c r="T26" s="238" t="n">
+      <c r="T26" s="236" t="n">
         <v>0.044</v>
       </c>
-      <c r="W26" s="231" t="s">
+      <c r="W26" s="229" t="s">
         <v>543</v>
       </c>
-      <c r="X26" s="231" t="s">
+      <c r="X26" s="229" t="s">
         <v>543</v>
       </c>
-      <c r="Z26" s="241"/>
-      <c r="AI26" s="231"/>
+      <c r="Z26" s="239"/>
+      <c r="AI26" s="229"/>
     </row>
     <row r="27" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="231" t="s">
+      <c r="B27" s="229" t="s">
         <v>484</v>
       </c>
-      <c r="M27" s="231" t="s">
+      <c r="M27" s="229" t="s">
         <v>544</v>
       </c>
-      <c r="N27" s="231" t="s">
+      <c r="N27" s="229" t="s">
         <v>545</v>
       </c>
-      <c r="S27" s="231" t="n">
+      <c r="S27" s="229" t="n">
         <v>2020</v>
       </c>
-      <c r="T27" s="238" t="n">
+      <c r="T27" s="236" t="n">
         <v>0.045</v>
       </c>
-      <c r="W27" s="231" t="s">
+      <c r="W27" s="229" t="s">
         <v>546</v>
       </c>
-      <c r="X27" s="231" t="s">
+      <c r="X27" s="229" t="s">
         <v>546</v>
       </c>
-      <c r="Z27" s="241"/>
-      <c r="AI27" s="231"/>
+      <c r="Z27" s="239"/>
+      <c r="AI27" s="229"/>
     </row>
     <row r="28" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="231" t="s">
+      <c r="B28" s="229" t="s">
         <v>489</v>
       </c>
-      <c r="M28" s="231" t="s">
+      <c r="M28" s="229" t="s">
         <v>547</v>
       </c>
-      <c r="N28" s="231" t="s">
+      <c r="N28" s="229" t="s">
         <v>548</v>
       </c>
-      <c r="T28" s="238" t="n">
+      <c r="T28" s="236" t="n">
         <v>0.046</v>
       </c>
-      <c r="W28" s="231" t="s">
+      <c r="W28" s="229" t="s">
         <v>549</v>
       </c>
-      <c r="X28" s="231" t="s">
+      <c r="X28" s="229" t="s">
         <v>549</v>
       </c>
-      <c r="Z28" s="241"/>
-      <c r="AI28" s="231"/>
+      <c r="Z28" s="239"/>
+      <c r="AI28" s="229"/>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="231" t="s">
+      <c r="B29" s="229" t="s">
         <v>493</v>
       </c>
-      <c r="M29" s="231" t="s">
+      <c r="M29" s="229" t="s">
         <v>550</v>
       </c>
-      <c r="T29" s="238" t="n">
+      <c r="T29" s="236" t="n">
         <v>0.047</v>
       </c>
-      <c r="W29" s="231" t="s">
+      <c r="W29" s="229" t="s">
         <v>551</v>
       </c>
-      <c r="X29" s="231" t="s">
+      <c r="X29" s="229" t="s">
         <v>551</v>
       </c>
-      <c r="Z29" s="241"/>
-      <c r="AI29" s="231"/>
+      <c r="Z29" s="239"/>
+      <c r="AI29" s="229"/>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="231" t="s">
+      <c r="B30" s="229" t="s">
         <v>497</v>
       </c>
-      <c r="M30" s="248" t="s">
+      <c r="M30" s="246" t="s">
         <v>335</v>
       </c>
-      <c r="T30" s="238" t="n">
+      <c r="T30" s="236" t="n">
         <v>0.048</v>
       </c>
-      <c r="W30" s="231" t="s">
+      <c r="W30" s="229" t="s">
         <v>552</v>
       </c>
-      <c r="X30" s="231" t="s">
+      <c r="X30" s="229" t="s">
         <v>552</v>
       </c>
-      <c r="Z30" s="241"/>
-      <c r="AI30" s="231"/>
+      <c r="Z30" s="239"/>
+      <c r="AI30" s="229"/>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="231" t="s">
+      <c r="B31" s="229" t="s">
         <v>501</v>
       </c>
-      <c r="T31" s="238" t="n">
+      <c r="T31" s="236" t="n">
         <v>0.049</v>
       </c>
-      <c r="W31" s="231" t="s">
+      <c r="W31" s="229" t="s">
         <v>553</v>
       </c>
-      <c r="X31" s="231" t="s">
+      <c r="X31" s="229" t="s">
         <v>553</v>
       </c>
-      <c r="Z31" s="241"/>
-      <c r="AI31" s="231"/>
+      <c r="Z31" s="239"/>
+      <c r="AI31" s="229"/>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="231" t="s">
+      <c r="B32" s="229" t="s">
         <v>505</v>
       </c>
-      <c r="C32" s="239"/>
-      <c r="T32" s="238" t="n">
+      <c r="C32" s="237"/>
+      <c r="T32" s="236" t="n">
         <v>0.05</v>
       </c>
-      <c r="W32" s="231" t="s">
+      <c r="W32" s="229" t="s">
         <v>554</v>
       </c>
-      <c r="X32" s="231" t="s">
+      <c r="X32" s="229" t="s">
         <v>554</v>
       </c>
-      <c r="Z32" s="241"/>
-      <c r="AI32" s="231"/>
+      <c r="Z32" s="239"/>
+      <c r="AI32" s="229"/>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="231" t="s">
+      <c r="B33" s="229" t="s">
         <v>510</v>
       </c>
-      <c r="W33" s="231" t="s">
+      <c r="W33" s="229" t="s">
         <v>555</v>
       </c>
-      <c r="X33" s="231" t="s">
+      <c r="X33" s="229" t="s">
         <v>555</v>
       </c>
-      <c r="Z33" s="241"/>
-      <c r="AI33" s="231"/>
+      <c r="Z33" s="239"/>
+      <c r="AI33" s="229"/>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="257"/>
-      <c r="W34" s="231" t="s">
+      <c r="B34" s="255"/>
+      <c r="W34" s="229" t="s">
         <v>556</v>
       </c>
-      <c r="X34" s="231" t="s">
+      <c r="X34" s="229" t="s">
         <v>556</v>
       </c>
-      <c r="Z34" s="241"/>
-      <c r="AI34" s="231"/>
+      <c r="Z34" s="239"/>
+      <c r="AI34" s="229"/>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="257"/>
-      <c r="W35" s="231" t="s">
+      <c r="B35" s="255"/>
+      <c r="W35" s="229" t="s">
         <v>557</v>
       </c>
-      <c r="X35" s="231" t="s">
+      <c r="X35" s="229" t="s">
         <v>557</v>
       </c>
-      <c r="Z35" s="241"/>
-      <c r="AI35" s="231"/>
+      <c r="Z35" s="239"/>
+      <c r="AI35" s="229"/>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="257"/>
-      <c r="W36" s="231" t="s">
+      <c r="B36" s="255"/>
+      <c r="W36" s="229" t="s">
         <v>558</v>
       </c>
-      <c r="X36" s="231" t="s">
+      <c r="X36" s="229" t="s">
         <v>558</v>
       </c>
-      <c r="Z36" s="241"/>
-      <c r="AI36" s="231"/>
+      <c r="Z36" s="239"/>
+      <c r="AI36" s="229"/>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="257"/>
-      <c r="W37" s="231" t="s">
+      <c r="B37" s="255"/>
+      <c r="W37" s="229" t="s">
         <v>559</v>
       </c>
-      <c r="X37" s="231" t="s">
+      <c r="X37" s="229" t="s">
         <v>559</v>
       </c>
-      <c r="Z37" s="241"/>
-      <c r="AI37" s="231"/>
+      <c r="Z37" s="239"/>
+      <c r="AI37" s="229"/>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="257"/>
-      <c r="W38" s="231" t="s">
+      <c r="B38" s="255"/>
+      <c r="W38" s="229" t="s">
         <v>560</v>
       </c>
-      <c r="X38" s="231" t="s">
+      <c r="X38" s="229" t="s">
         <v>560</v>
       </c>
-      <c r="Z38" s="241"/>
-      <c r="AI38" s="231"/>
+      <c r="Z38" s="239"/>
+      <c r="AI38" s="229"/>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="257"/>
-      <c r="W39" s="231" t="s">
+      <c r="B39" s="255"/>
+      <c r="W39" s="229" t="s">
         <v>561</v>
       </c>
-      <c r="X39" s="231" t="s">
+      <c r="X39" s="229" t="s">
         <v>561</v>
       </c>
-      <c r="Z39" s="241"/>
-      <c r="AI39" s="231"/>
+      <c r="Z39" s="239"/>
+      <c r="AI39" s="229"/>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="257"/>
-      <c r="W40" s="231" t="s">
+      <c r="B40" s="255"/>
+      <c r="W40" s="229" t="s">
         <v>562</v>
       </c>
-      <c r="X40" s="231" t="s">
+      <c r="X40" s="229" t="s">
         <v>562</v>
       </c>
-      <c r="Z40" s="241"/>
-      <c r="AI40" s="231"/>
+      <c r="Z40" s="239"/>
+      <c r="AI40" s="229"/>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="257"/>
-      <c r="W41" s="231" t="s">
+      <c r="B41" s="255"/>
+      <c r="W41" s="229" t="s">
         <v>563</v>
       </c>
-      <c r="X41" s="231" t="s">
+      <c r="X41" s="229" t="s">
         <v>563</v>
       </c>
-      <c r="Z41" s="241"/>
-      <c r="AI41" s="231"/>
+      <c r="Z41" s="239"/>
+      <c r="AI41" s="229"/>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="257"/>
-      <c r="W42" s="231" t="s">
+      <c r="B42" s="255"/>
+      <c r="W42" s="229" t="s">
         <v>564</v>
       </c>
-      <c r="X42" s="231" t="s">
+      <c r="X42" s="229" t="s">
         <v>564</v>
       </c>
-      <c r="Z42" s="241"/>
-      <c r="AI42" s="231"/>
+      <c r="Z42" s="239"/>
+      <c r="AI42" s="229"/>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="257"/>
-      <c r="W43" s="231" t="s">
+      <c r="B43" s="255"/>
+      <c r="W43" s="229" t="s">
         <v>565</v>
       </c>
-      <c r="X43" s="231" t="s">
+      <c r="X43" s="229" t="s">
         <v>565</v>
       </c>
-      <c r="Z43" s="241"/>
-      <c r="AI43" s="231"/>
+      <c r="Z43" s="239"/>
+      <c r="AI43" s="229"/>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="257"/>
-      <c r="W44" s="231" t="s">
+      <c r="B44" s="255"/>
+      <c r="W44" s="229" t="s">
         <v>566</v>
       </c>
-      <c r="X44" s="231" t="s">
+      <c r="X44" s="229" t="s">
         <v>566</v>
       </c>
-      <c r="Z44" s="241"/>
-      <c r="AI44" s="231"/>
+      <c r="Z44" s="239"/>
+      <c r="AI44" s="229"/>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="257"/>
-      <c r="W45" s="231" t="s">
+      <c r="B45" s="255"/>
+      <c r="W45" s="229" t="s">
         <v>567</v>
       </c>
-      <c r="X45" s="231" t="s">
+      <c r="X45" s="229" t="s">
         <v>567</v>
       </c>
-      <c r="Z45" s="241"/>
-      <c r="AI45" s="231"/>
+      <c r="Z45" s="239"/>
+      <c r="AI45" s="229"/>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="257"/>
-      <c r="W46" s="231" t="s">
+      <c r="B46" s="255"/>
+      <c r="W46" s="229" t="s">
         <v>568</v>
       </c>
-      <c r="X46" s="231" t="s">
+      <c r="X46" s="229" t="s">
         <v>568</v>
       </c>
-      <c r="Z46" s="241"/>
+      <c r="Z46" s="239"/>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="257"/>
-      <c r="W47" s="231" t="s">
+      <c r="B47" s="255"/>
+      <c r="W47" s="229" t="s">
         <v>569</v>
       </c>
-      <c r="X47" s="231" t="s">
+      <c r="X47" s="229" t="s">
         <v>569</v>
       </c>
-      <c r="Z47" s="241"/>
+      <c r="Z47" s="239"/>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B48" s="257"/>
-      <c r="W48" s="231" t="s">
+      <c r="B48" s="255"/>
+      <c r="W48" s="229" t="s">
         <v>570</v>
       </c>
-      <c r="X48" s="231" t="s">
+      <c r="X48" s="229" t="s">
         <v>570</v>
       </c>
-      <c r="Z48" s="241"/>
+      <c r="Z48" s="239"/>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B49" s="257"/>
-      <c r="W49" s="231" t="s">
+      <c r="B49" s="255"/>
+      <c r="W49" s="229" t="s">
         <v>571</v>
       </c>
-      <c r="X49" s="231" t="s">
+      <c r="X49" s="229" t="s">
         <v>571</v>
       </c>
-      <c r="Z49" s="241"/>
+      <c r="Z49" s="239"/>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="257"/>
-      <c r="W50" s="231" t="s">
+      <c r="B50" s="255"/>
+      <c r="W50" s="229" t="s">
         <v>572</v>
       </c>
-      <c r="X50" s="231" t="s">
+      <c r="X50" s="229" t="s">
         <v>572</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B51" s="257"/>
-      <c r="W51" s="231" t="s">
+      <c r="B51" s="255"/>
+      <c r="W51" s="229" t="s">
         <v>573</v>
       </c>
-      <c r="X51" s="231" t="s">
+      <c r="X51" s="229" t="s">
         <v>573</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B52" s="257"/>
-      <c r="W52" s="231" t="s">
+      <c r="B52" s="255"/>
+      <c r="W52" s="229" t="s">
         <v>574</v>
       </c>
-      <c r="X52" s="231" t="s">
+      <c r="X52" s="229" t="s">
         <v>574</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B53" s="257"/>
-      <c r="W53" s="231" t="s">
+      <c r="B53" s="255"/>
+      <c r="W53" s="229" t="s">
         <v>575</v>
       </c>
-      <c r="X53" s="231" t="s">
+      <c r="X53" s="229" t="s">
         <v>575</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B54" s="257"/>
-      <c r="W54" s="231" t="s">
+      <c r="B54" s="255"/>
+      <c r="W54" s="229" t="s">
         <v>576</v>
       </c>
-      <c r="X54" s="231" t="s">
+      <c r="X54" s="229" t="s">
         <v>576</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B55" s="257"/>
-      <c r="W55" s="231" t="s">
+      <c r="B55" s="255"/>
+      <c r="W55" s="229" t="s">
         <v>577</v>
       </c>
-      <c r="X55" s="231" t="s">
+      <c r="X55" s="229" t="s">
         <v>577</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W56" s="231" t="s">
+      <c r="W56" s="229" t="s">
         <v>578</v>
       </c>
-      <c r="X56" s="231" t="s">
+      <c r="X56" s="229" t="s">
         <v>578</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W57" s="231" t="s">
+      <c r="W57" s="229" t="s">
         <v>579</v>
       </c>
-      <c r="X57" s="231" t="s">
+      <c r="X57" s="229" t="s">
         <v>579</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W58" s="231" t="s">
+      <c r="W58" s="229" t="s">
         <v>580</v>
       </c>
-      <c r="X58" s="231" t="s">
+      <c r="X58" s="229" t="s">
         <v>580</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W59" s="231" t="s">
+      <c r="W59" s="229" t="s">
         <v>581</v>
       </c>
-      <c r="X59" s="231" t="s">
+      <c r="X59" s="229" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W60" s="231" t="s">
+      <c r="W60" s="229" t="s">
         <v>582</v>
       </c>
-      <c r="X60" s="231" t="s">
+      <c r="X60" s="229" t="s">
         <v>582</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W61" s="231" t="s">
+      <c r="W61" s="229" t="s">
         <v>583</v>
       </c>
-      <c r="X61" s="231" t="s">
+      <c r="X61" s="229" t="s">
         <v>583</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W62" s="231" t="s">
+      <c r="W62" s="229" t="s">
         <v>584</v>
       </c>
-      <c r="X62" s="231" t="s">
+      <c r="X62" s="229" t="s">
         <v>584</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W63" s="231" t="s">
+      <c r="W63" s="229" t="s">
         <v>585</v>
       </c>
-      <c r="X63" s="231" t="s">
+      <c r="X63" s="229" t="s">
         <v>585</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W64" s="231" t="s">
+      <c r="W64" s="229" t="s">
         <v>586</v>
       </c>
-      <c r="X64" s="231" t="s">
+      <c r="X64" s="229" t="s">
         <v>586</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W65" s="231" t="s">
+      <c r="W65" s="229" t="s">
         <v>587</v>
       </c>
-      <c r="X65" s="231" t="s">
+      <c r="X65" s="229" t="s">
         <v>587</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W66" s="231" t="s">
+      <c r="W66" s="229" t="s">
         <v>588</v>
       </c>
-      <c r="X66" s="231" t="s">
+      <c r="X66" s="229" t="s">
         <v>588</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W67" s="231" t="s">
+      <c r="W67" s="229" t="s">
         <v>589</v>
       </c>
-      <c r="X67" s="231" t="s">
+      <c r="X67" s="229" t="s">
         <v>589</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W68" s="231" t="s">
+      <c r="W68" s="229" t="s">
         <v>590</v>
       </c>
-      <c r="X68" s="231" t="s">
+      <c r="X68" s="229" t="s">
         <v>590</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W69" s="231" t="s">
+      <c r="W69" s="229" t="s">
         <v>591</v>
       </c>
-      <c r="X69" s="231" t="s">
+      <c r="X69" s="229" t="s">
         <v>591</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W70" s="231" t="s">
+      <c r="W70" s="229" t="s">
         <v>592</v>
       </c>
-      <c r="X70" s="231" t="s">
+      <c r="X70" s="229" t="s">
         <v>592</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W71" s="231" t="s">
+      <c r="W71" s="229" t="s">
         <v>593</v>
       </c>
-      <c r="X71" s="231" t="s">
+      <c r="X71" s="229" t="s">
         <v>593</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W72" s="231" t="s">
+      <c r="W72" s="229" t="s">
         <v>594</v>
       </c>
-      <c r="X72" s="231" t="s">
+      <c r="X72" s="229" t="s">
         <v>594</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W73" s="231" t="s">
+      <c r="W73" s="229" t="s">
         <v>595</v>
       </c>
-      <c r="X73" s="231" t="s">
+      <c r="X73" s="229" t="s">
         <v>595</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W74" s="231" t="s">
+      <c r="W74" s="229" t="s">
         <v>596</v>
       </c>
-      <c r="X74" s="231" t="s">
+      <c r="X74" s="229" t="s">
         <v>596</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W75" s="231" t="s">
+      <c r="W75" s="229" t="s">
         <v>597</v>
       </c>
-      <c r="X75" s="231" t="s">
+      <c r="X75" s="229" t="s">
         <v>597</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W76" s="231" t="s">
+      <c r="W76" s="229" t="s">
         <v>598</v>
       </c>
-      <c r="X76" s="231" t="s">
+      <c r="X76" s="229" t="s">
         <v>598</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W77" s="231" t="s">
+      <c r="W77" s="229" t="s">
         <v>599</v>
       </c>
-      <c r="X77" s="231" t="s">
+      <c r="X77" s="229" t="s">
         <v>599</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W78" s="231" t="s">
+      <c r="W78" s="229" t="s">
         <v>600</v>
       </c>
-      <c r="X78" s="231" t="s">
+      <c r="X78" s="229" t="s">
         <v>600</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W79" s="231" t="s">
+      <c r="W79" s="229" t="s">
         <v>601</v>
       </c>
-      <c r="X79" s="231" t="s">
+      <c r="X79" s="229" t="s">
         <v>601</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W80" s="231" t="s">
+      <c r="W80" s="229" t="s">
         <v>602</v>
       </c>
-      <c r="X80" s="231" t="s">
+      <c r="X80" s="229" t="s">
         <v>602</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W81" s="231" t="s">
+      <c r="W81" s="229" t="s">
         <v>603</v>
       </c>
-      <c r="X81" s="231" t="s">
+      <c r="X81" s="229" t="s">
         <v>603</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W82" s="231" t="s">
+      <c r="W82" s="229" t="s">
         <v>604</v>
       </c>
-      <c r="X82" s="231" t="s">
+      <c r="X82" s="229" t="s">
         <v>604</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W83" s="231" t="s">
+      <c r="W83" s="229" t="s">
         <v>605</v>
       </c>
-      <c r="X83" s="231" t="s">
+      <c r="X83" s="229" t="s">
         <v>605</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W84" s="231" t="s">
+      <c r="W84" s="229" t="s">
         <v>606</v>
       </c>
-      <c r="X84" s="231" t="s">
+      <c r="X84" s="229" t="s">
         <v>606</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W85" s="231" t="s">
+      <c r="W85" s="229" t="s">
         <v>607</v>
       </c>
-      <c r="X85" s="231" t="s">
+      <c r="X85" s="229" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W86" s="231" t="s">
+      <c r="W86" s="229" t="s">
         <v>608</v>
       </c>
-      <c r="X86" s="231" t="s">
+      <c r="X86" s="229" t="s">
         <v>608</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W87" s="231" t="s">
+      <c r="W87" s="229" t="s">
         <v>609</v>
       </c>
-      <c r="X87" s="231" t="s">
+      <c r="X87" s="229" t="s">
         <v>609</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W88" s="231" t="s">
+      <c r="W88" s="229" t="s">
         <v>610</v>
       </c>
-      <c r="X88" s="231" t="s">
+      <c r="X88" s="229" t="s">
         <v>610</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W89" s="231" t="s">
+      <c r="W89" s="229" t="s">
         <v>611</v>
       </c>
-      <c r="X89" s="231" t="s">
+      <c r="X89" s="229" t="s">
         <v>611</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W90" s="231" t="s">
+      <c r="W90" s="229" t="s">
         <v>612</v>
       </c>
-      <c r="X90" s="231" t="s">
+      <c r="X90" s="229" t="s">
         <v>612</v>
       </c>
     </row>
@@ -14305,7 +14305,7 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="258" t="s">
+      <c r="A11" s="256" t="s">
         <v>622</v>
       </c>
     </row>
@@ -14369,7 +14369,7 @@
       <c r="A2" s="0" t="s">
         <v>627</v>
       </c>
-      <c r="B2" s="259" t="n">
+      <c r="B2" s="257" t="n">
         <v>42832</v>
       </c>
       <c r="C2" s="0" t="s">
@@ -14383,7 +14383,7 @@
       <c r="A3" s="0" t="s">
         <v>630</v>
       </c>
-      <c r="B3" s="259" t="n">
+      <c r="B3" s="257" t="n">
         <v>42835</v>
       </c>
       <c r="C3" s="0" t="s">
@@ -14397,7 +14397,7 @@
       <c r="A4" s="0" t="s">
         <v>632</v>
       </c>
-      <c r="B4" s="259" t="n">
+      <c r="B4" s="257" t="n">
         <v>42838</v>
       </c>
       <c r="C4" s="0" t="s">
@@ -14411,7 +14411,7 @@
       <c r="A5" s="0" t="s">
         <v>634</v>
       </c>
-      <c r="B5" s="259" t="n">
+      <c r="B5" s="257" t="n">
         <v>42872</v>
       </c>
       <c r="C5" s="0" t="s">
@@ -14463,61 +14463,61 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="76.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="260" t="s">
+      <c r="A2" s="258" t="s">
         <v>637</v>
       </c>
-      <c r="B2" s="261"/>
+      <c r="B2" s="259"/>
       <c r="C2" s="35" t="s">
         <v>638</v>
       </c>
-      <c r="E2" s="262" t="s">
+      <c r="E2" s="260" t="s">
         <v>639</v>
       </c>
-      <c r="F2" s="263"/>
+      <c r="F2" s="261"/>
       <c r="G2" s="35" t="s">
         <v>640</v>
       </c>
       <c r="H2" s="35"/>
-      <c r="I2" s="264" t="s">
+      <c r="I2" s="262" t="s">
         <v>641</v>
       </c>
-      <c r="J2" s="265"/>
+      <c r="J2" s="263"/>
       <c r="K2" s="35" t="s">
         <v>642</v>
       </c>
-      <c r="M2" s="264" t="s">
+      <c r="M2" s="262" t="s">
         <v>643</v>
       </c>
-      <c r="N2" s="266"/>
+      <c r="N2" s="264"/>
       <c r="O2" s="35" t="s">
         <v>644</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="258"/>
+      <c r="A3" s="256"/>
     </row>
     <row r="4" customFormat="false" ht="76.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="262" t="s">
+      <c r="A4" s="260" t="s">
         <v>645</v>
       </c>
-      <c r="B4" s="267"/>
+      <c r="B4" s="265"/>
       <c r="C4" s="35" t="s">
         <v>646</v>
       </c>
-      <c r="E4" s="264" t="s">
+      <c r="E4" s="262" t="s">
         <v>647</v>
       </c>
-      <c r="F4" s="268"/>
+      <c r="F4" s="266"/>
       <c r="G4" s="35" t="s">
         <v>648</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="262"/>
+      <c r="A5" s="260"/>
       <c r="C5" s="1"/>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="258" t="s">
+      <c r="A6" s="256" t="s">
         <v>649</v>
       </c>
       <c r="B6" s="0" t="s">
@@ -14525,10 +14525,10 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="258"/>
+      <c r="A7" s="256"/>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="258" t="s">
+      <c r="A8" s="256" t="s">
         <v>651</v>
       </c>
       <c r="B8" s="0" t="s">
@@ -14563,53 +14563,53 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="269" t="s">
+      <c r="A13" s="267" t="s">
         <v>660</v>
       </c>
-      <c r="B13" s="270" t="s">
+      <c r="B13" s="268" t="s">
         <v>661</v>
       </c>
-      <c r="C13" s="271" t="s">
+      <c r="C13" s="269" t="s">
         <v>662</v>
       </c>
-      <c r="D13" s="271"/>
+      <c r="D13" s="269"/>
     </row>
     <row r="14" customFormat="false" ht="60.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B14" s="270" t="s">
+      <c r="B14" s="268" t="s">
         <v>663</v>
       </c>
-      <c r="C14" s="271" t="s">
+      <c r="C14" s="269" t="s">
         <v>664</v>
       </c>
-      <c r="D14" s="271"/>
-      <c r="H14" s="272" t="s">
+      <c r="D14" s="269"/>
+      <c r="H14" s="270" t="s">
         <v>665</v>
       </c>
-      <c r="I14" s="272"/>
-      <c r="J14" s="272"/>
-      <c r="K14" s="272"/>
-      <c r="L14" s="272"/>
-      <c r="M14" s="272"/>
-      <c r="N14" s="272"/>
+      <c r="I14" s="270"/>
+      <c r="J14" s="270"/>
+      <c r="K14" s="270"/>
+      <c r="L14" s="270"/>
+      <c r="M14" s="270"/>
+      <c r="N14" s="270"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="270"/>
-      <c r="C15" s="271"/>
-      <c r="D15" s="271"/>
+      <c r="B15" s="268"/>
+      <c r="C15" s="269"/>
+      <c r="D15" s="269"/>
     </row>
     <row r="16" customFormat="false" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="273" t="s">
+      <c r="A16" s="271" t="s">
         <v>666</v>
       </c>
-      <c r="B16" s="274" t="s">
+      <c r="B16" s="272" t="s">
         <v>667</v>
       </c>
-      <c r="C16" s="274"/>
-      <c r="D16" s="274"/>
-      <c r="E16" s="274"/>
+      <c r="C16" s="272"/>
+      <c r="D16" s="272"/>
+      <c r="E16" s="272"/>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="258" t="s">
+      <c r="A18" s="256" t="s">
         <v>668</v>
       </c>
       <c r="B18" s="0" t="s">
@@ -14617,48 +14617,48 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="258"/>
+      <c r="A19" s="256"/>
     </row>
     <row r="20" customFormat="false" ht="78.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="275" t="s">
+      <c r="A20" s="273" t="s">
         <v>670</v>
       </c>
-      <c r="B20" s="276" t="s">
+      <c r="B20" s="274" t="s">
         <v>671</v>
       </c>
-      <c r="C20" s="276"/>
-      <c r="D20" s="276"/>
-      <c r="E20" s="276"/>
-      <c r="F20" s="276"/>
-      <c r="G20" s="276"/>
-      <c r="H20" s="276"/>
+      <c r="C20" s="274"/>
+      <c r="D20" s="274"/>
+      <c r="E20" s="274"/>
+      <c r="F20" s="274"/>
+      <c r="G20" s="274"/>
+      <c r="H20" s="274"/>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="275"/>
-      <c r="B21" s="277"/>
-      <c r="C21" s="277"/>
-      <c r="D21" s="277"/>
-      <c r="E21" s="277"/>
-      <c r="F21" s="277"/>
-      <c r="G21" s="277"/>
-      <c r="H21" s="277"/>
+      <c r="A21" s="273"/>
+      <c r="B21" s="275"/>
+      <c r="C21" s="275"/>
+      <c r="D21" s="275"/>
+      <c r="E21" s="275"/>
+      <c r="F21" s="275"/>
+      <c r="G21" s="275"/>
+      <c r="H21" s="275"/>
     </row>
     <row r="22" customFormat="false" ht="122.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="275" t="s">
+      <c r="A22" s="273" t="s">
         <v>672</v>
       </c>
-      <c r="B22" s="276" t="s">
+      <c r="B22" s="274" t="s">
         <v>673</v>
       </c>
-      <c r="C22" s="276"/>
-      <c r="D22" s="276"/>
-      <c r="E22" s="276"/>
-      <c r="F22" s="276"/>
-      <c r="G22" s="276"/>
-      <c r="H22" s="276"/>
+      <c r="C22" s="274"/>
+      <c r="D22" s="274"/>
+      <c r="E22" s="274"/>
+      <c r="F22" s="274"/>
+      <c r="G22" s="274"/>
+      <c r="H22" s="274"/>
     </row>
     <row r="24" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="262" t="s">
+      <c r="A24" s="260" t="s">
         <v>674</v>
       </c>
       <c r="B24" s="0" t="s">
@@ -14666,41 +14666,41 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="63" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="269" t="s">
+      <c r="A26" s="267" t="s">
         <v>676</v>
       </c>
-      <c r="B26" s="276" t="s">
+      <c r="B26" s="274" t="s">
         <v>677</v>
       </c>
-      <c r="C26" s="276"/>
-      <c r="D26" s="276"/>
-      <c r="E26" s="276"/>
-      <c r="F26" s="276" t="s">
+      <c r="C26" s="274"/>
+      <c r="D26" s="274"/>
+      <c r="E26" s="274"/>
+      <c r="F26" s="274" t="s">
         <v>678</v>
       </c>
-      <c r="G26" s="276"/>
-      <c r="H26" s="276"/>
-      <c r="I26" s="276"/>
-      <c r="J26" s="276"/>
-      <c r="K26" s="276"/>
+      <c r="G26" s="274"/>
+      <c r="H26" s="274"/>
+      <c r="I26" s="274"/>
+      <c r="J26" s="274"/>
+      <c r="K26" s="274"/>
     </row>
     <row r="28" customFormat="false" ht="120.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="278" t="s">
+      <c r="A28" s="276" t="s">
         <v>679</v>
       </c>
-      <c r="B28" s="276" t="s">
+      <c r="B28" s="274" t="s">
         <v>680</v>
       </c>
-      <c r="C28" s="276"/>
-      <c r="D28" s="276" t="s">
+      <c r="C28" s="274"/>
+      <c r="D28" s="274" t="s">
         <v>681</v>
       </c>
-      <c r="E28" s="276"/>
-      <c r="F28" s="276"/>
-      <c r="G28" s="276"/>
+      <c r="E28" s="274"/>
+      <c r="F28" s="274"/>
+      <c r="G28" s="274"/>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="258" t="s">
+      <c r="A30" s="256" t="s">
         <v>682</v>
       </c>
       <c r="B30" s="0" t="s">
@@ -14708,7 +14708,7 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="258" t="s">
+      <c r="A32" s="256" t="s">
         <v>684</v>
       </c>
       <c r="B32" s="0" t="s">

--- a/bicc_template.xlsx
+++ b/bicc_template.xlsx
@@ -94,18 +94,24 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0" vbProcedure="false">Summary!$A$1:$L$49</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0_0" vbProcedure="false">Summary!$A$1:$L$49</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0_0_0" vbProcedure="false">Summary!$A$1:$L$49</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0_0_0_0" vbProcedure="false">Summary!$A$1:$L$49</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0_0_0_0_0" vbProcedure="false">Summary!$A$1:$L$49</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area" vbProcedure="false">'Finance &amp; Benefits'!$A$1:$I$197</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area_0" vbProcedure="false">'Finance &amp; Benefits'!$A$1:$I$197</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area_0_0" vbProcedure="false">'Finance &amp; Benefits'!$A$1:$I$197</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area_0_0_0" vbProcedure="false">'Finance &amp; Benefits'!$A$1:$I$197</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area_0_0_0_0" vbProcedure="false">'Finance &amp; Benefits'!$A$1:$I$197</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area_0_0_0_0_0" vbProcedure="false">'Finance &amp; Benefits'!$A$1:$I$197</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area_0_0_0_0_0_0" vbProcedure="false">'Finance &amp; Benefits'!$A$1:$I$197</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area_0_0_0_0_0_0_0" vbProcedure="false">'Finance &amp; Benefits'!$A$1:$I$197</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Area" vbProcedure="false">Resource!$A$1:$M$39</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Area_0" vbProcedure="false">Resource!$A$1:$M$39</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Area_0_0" vbProcedure="false">Resource!$A$1:$M$39</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Area_0_0_0" vbProcedure="false">Resource!$A$1:$M$39</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Area_0_0_0_0" vbProcedure="false">Resource!$A$1:$M$39</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Area_0_0_0_0_0" vbProcedure="false">Resource!$A$1:$M$39</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Area_0_0_0_0_0_0" vbProcedure="false">Resource!$A$1:$M$39</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Area_0_0_0_0_0_0_0" vbProcedure="false">Resource!$A$1:$M$39</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="Concept" vbProcedure="false">Dropdown!$AD$2:$AD$19</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="Other" vbProcedure="false">Dropdown!$AD$2:$AD$19</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm.Print_Area" vbProcedure="false">'Approval &amp; Project milestones'!$A$1:$L$42</definedName>
@@ -114,6 +120,8 @@
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm.Print_Area_0_0_0" vbProcedure="false">'Approval &amp; Project milestones'!$A$1:$L$42</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm.Print_Area_0_0_0_0" vbProcedure="false">'Approval &amp; Project milestones'!$A$1:$L$42</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm.Print_Area_0_0_0_0_0" vbProcedure="false">'Approval &amp; Project milestones'!$A$1:$L$42</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm.Print_Area_0_0_0_0_0_0" vbProcedure="false">'Approval &amp; Project milestones'!$A$1:$L$42</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm.Print_Area_0_0_0_0_0_0_0" vbProcedure="false">'Approval &amp; Project milestones'!$A$1:$L$42</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -4940,9 +4948,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1881360</xdr:colOff>
+      <xdr:colOff>1880640</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>1033200</xdr:rowOff>
+      <xdr:rowOff>1032480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4956,7 +4964,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="322200" y="83880"/>
-          <a:ext cx="1559160" cy="949320"/>
+          <a:ext cx="1558440" cy="948600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4982,9 +4990,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1559160</xdr:colOff>
+      <xdr:colOff>1558440</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>996480</xdr:rowOff>
+      <xdr:rowOff>995760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4998,7 +5006,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="1559160" cy="996480"/>
+          <a:ext cx="1558440" cy="995760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5024,9 +5032,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1548720</xdr:colOff>
+      <xdr:colOff>1548000</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>959040</xdr:rowOff>
+      <xdr:rowOff>958320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5040,7 +5048,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="1548720" cy="959040"/>
+          <a:ext cx="1548000" cy="958320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5066,9 +5074,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1559160</xdr:colOff>
+      <xdr:colOff>1558440</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>959040</xdr:rowOff>
+      <xdr:rowOff>958320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5082,7 +5090,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="1559160" cy="959040"/>
+          <a:ext cx="1558440" cy="958320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5108,9 +5116,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1559160</xdr:colOff>
+      <xdr:colOff>1558440</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>959040</xdr:rowOff>
+      <xdr:rowOff>958320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5124,7 +5132,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="1559160" cy="959040"/>
+          <a:ext cx="1558440" cy="958320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6207,8 +6215,8 @@
   </sheetPr>
   <dimension ref="A1:L198"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A172" colorId="64" zoomScale="68" zoomScaleNormal="68" zoomScalePageLayoutView="68" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B197" activeCellId="0" sqref="B197"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="68" zoomScaleNormal="68" zoomScalePageLayoutView="68" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A88" activeCellId="0" sqref="A88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6596,7 +6604,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="27" s="19" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="27" s="19" customFormat="true" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="78" t="s">
         <v>100</v>
       </c>
@@ -6614,7 +6622,7 @@
       <c r="H27" s="82"/>
       <c r="I27" s="82"/>
     </row>
-    <row r="28" s="19" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="28" s="19" customFormat="true" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="78"/>
       <c r="B28" s="79" t="s">
         <v>102</v>
@@ -6630,7 +6638,7 @@
       <c r="H28" s="83"/>
       <c r="I28" s="83"/>
     </row>
-    <row r="29" s="19" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="29" s="19" customFormat="true" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="78" t="s">
         <v>103</v>
       </c>
@@ -6648,7 +6656,7 @@
       <c r="H29" s="84"/>
       <c r="I29" s="84"/>
     </row>
-    <row r="30" s="19" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="30" s="19" customFormat="true" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="78"/>
       <c r="B30" s="79" t="s">
         <v>102</v>
@@ -6664,7 +6672,7 @@
       <c r="H30" s="83"/>
       <c r="I30" s="83"/>
     </row>
-    <row r="31" s="19" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="31" s="19" customFormat="true" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="78" t="s">
         <v>104</v>
       </c>
@@ -6682,7 +6690,7 @@
       <c r="H31" s="83"/>
       <c r="I31" s="83"/>
     </row>
-    <row r="32" s="19" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="32" s="19" customFormat="true" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="78"/>
       <c r="B32" s="79" t="s">
         <v>102</v>
@@ -6698,7 +6706,7 @@
       <c r="H32" s="83"/>
       <c r="I32" s="83"/>
     </row>
-    <row r="33" s="19" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="33" s="19" customFormat="true" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="78" t="s">
         <v>105</v>
       </c>
@@ -6716,7 +6724,7 @@
       <c r="H33" s="83"/>
       <c r="I33" s="83"/>
     </row>
-    <row r="34" s="19" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="34" s="19" customFormat="true" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="78"/>
       <c r="B34" s="79" t="s">
         <v>102</v>
@@ -7515,7 +7523,7 @@
       <c r="H79" s="10"/>
       <c r="I79" s="10"/>
     </row>
-    <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="78" t="s">
         <v>100</v>
       </c>
@@ -7533,7 +7541,7 @@
       <c r="H80" s="10"/>
       <c r="I80" s="10"/>
     </row>
-    <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="78"/>
       <c r="B81" s="79" t="s">
         <v>102</v>
@@ -7549,7 +7557,7 @@
       <c r="H81" s="10"/>
       <c r="I81" s="10"/>
     </row>
-    <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="78" t="s">
         <v>103</v>
       </c>
@@ -7567,7 +7575,7 @@
       <c r="H82" s="10"/>
       <c r="I82" s="10"/>
     </row>
-    <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="78"/>
       <c r="B83" s="79" t="s">
         <v>102</v>
@@ -7583,7 +7591,7 @@
       <c r="H83" s="10"/>
       <c r="I83" s="10"/>
     </row>
-    <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="78" t="s">
         <v>104</v>
       </c>
@@ -7601,7 +7609,7 @@
       <c r="H84" s="10"/>
       <c r="I84" s="10"/>
     </row>
-    <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="78"/>
       <c r="B85" s="79" t="s">
         <v>102</v>
@@ -7617,7 +7625,7 @@
       <c r="H85" s="10"/>
       <c r="I85" s="10"/>
     </row>
-    <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="78" t="s">
         <v>105</v>
       </c>
@@ -7635,7 +7643,7 @@
       <c r="H86" s="10"/>
       <c r="I86" s="10"/>
     </row>
-    <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="78"/>
       <c r="B87" s="79" t="s">
         <v>102</v>
@@ -8676,7 +8684,7 @@
       <c r="H143" s="10"/>
       <c r="I143" s="10"/>
     </row>
-    <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="144" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A144" s="78" t="s">
         <v>100</v>
       </c>
@@ -8694,7 +8702,7 @@
       <c r="H144" s="10"/>
       <c r="I144" s="10"/>
     </row>
-    <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="145" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A145" s="78"/>
       <c r="B145" s="144" t="s">
         <v>102</v>
@@ -8710,7 +8718,7 @@
       <c r="H145" s="10"/>
       <c r="I145" s="10"/>
     </row>
-    <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="146" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A146" s="78" t="s">
         <v>103</v>
       </c>
@@ -8728,7 +8736,7 @@
       <c r="H146" s="10"/>
       <c r="I146" s="10"/>
     </row>
-    <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="147" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A147" s="78"/>
       <c r="B147" s="144" t="s">
         <v>102</v>
@@ -8744,7 +8752,7 @@
       <c r="H147" s="10"/>
       <c r="I147" s="10"/>
     </row>
-    <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="148" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A148" s="78" t="s">
         <v>104</v>
       </c>
@@ -8762,7 +8770,7 @@
       <c r="H148" s="10"/>
       <c r="I148" s="10"/>
     </row>
-    <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="149" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A149" s="78"/>
       <c r="B149" s="144" t="s">
         <v>102</v>
@@ -8778,7 +8786,7 @@
       <c r="H149" s="10"/>
       <c r="I149" s="10"/>
     </row>
-    <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="150" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A150" s="78" t="s">
         <v>105</v>
       </c>
@@ -8796,7 +8804,7 @@
       <c r="H150" s="10"/>
       <c r="I150" s="10"/>
     </row>
-    <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="151" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A151" s="78"/>
       <c r="B151" s="144" t="s">
         <v>102</v>
@@ -9730,7 +9738,7 @@
     <cfRule type="beginsWith" priority="3" operator="beginsWith" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="Amber" dxfId="0"/>
     <cfRule type="beginsWith" priority="4" operator="beginsWith" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="Red" dxfId="0"/>
   </conditionalFormatting>
-  <dataValidations count="17">
+  <dataValidations count="18">
     <dataValidation allowBlank="true" operator="greaterThan" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C27:E36 H27:I28 H30:I31 H33:I34 H36:I36 C38:E71 H38:I71 C80:E89 C91:E124 C144:E187" type="decimal">
       <formula1>-1</formula1>
       <formula2>0</formula2>
@@ -9755,7 +9763,7 @@
       <formula1>Dropdown!$R$2:$R$3</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C6 C141" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C141" type="list">
       <formula1>Dropdown!$J$2:$J$4</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -9797,6 +9805,10 @@
     </dataValidation>
     <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B192" type="list">
       <formula1>Dropdown!$AG$2:$AG$11</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C6" type="none">
+      <formula1>Dropdown!$J$2:$J$4</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>

--- a/bicc_template.xlsx
+++ b/bicc_template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" state="visible" r:id="rId2"/>
@@ -133,7 +133,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1108" uniqueCount="690">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1110" uniqueCount="692">
   <si>
     <t xml:space="preserve">OFFICIAL SENSITIVE - WHEN COMPLETE</t>
   </si>
@@ -1165,6 +1165,12 @@
     <t xml:space="preserve">Approvals and Milestones</t>
   </si>
   <si>
+    <t xml:space="preserve">Last time at BICC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Next at BICC</t>
+  </si>
+  <si>
     <t xml:space="preserve">Project Stage</t>
   </si>
   <si>
@@ -2645,14 +2651,15 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="7">
+  <numFmts count="8">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="DD/MM/YYYY"/>
     <numFmt numFmtId="166" formatCode="0.00%"/>
     <numFmt numFmtId="167" formatCode="0.0"/>
     <numFmt numFmtId="168" formatCode="_-\£* #,##0.0_-;&quot;-£&quot;* #,##0.0_-;_-\£* \-?_-;_-@_-"/>
-    <numFmt numFmtId="169" formatCode="0%"/>
-    <numFmt numFmtId="170" formatCode="0.0%"/>
+    <numFmt numFmtId="169" formatCode="DD/MM/YY"/>
+    <numFmt numFmtId="170" formatCode="0%"/>
+    <numFmt numFmtId="171" formatCode="0.0%"/>
   </numFmts>
   <fonts count="40">
     <font>
@@ -3724,11 +3731,11 @@
     <xf numFmtId="164" fontId="12" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="277">
+  <cellXfs count="279">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -4509,6 +4516,14 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="14" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="16" fillId="13" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -4673,7 +4688,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="36" fillId="0" borderId="0" xfId="37" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="171" fontId="36" fillId="0" borderId="0" xfId="37" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4685,7 +4700,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="36" fillId="0" borderId="0" xfId="37" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="170" fontId="36" fillId="0" borderId="0" xfId="37" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -6215,7 +6230,7 @@
   </sheetPr>
   <dimension ref="A1:L198"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="68" zoomScaleNormal="68" zoomScalePageLayoutView="68" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="68" zoomScaleNormal="68" zoomScalePageLayoutView="68" workbookViewId="0">
       <selection pane="topLeft" activeCell="A88" activeCellId="0" sqref="A88"/>
     </sheetView>
   </sheetViews>
@@ -10631,8 +10646,8 @@
   </sheetPr>
   <dimension ref="A1:L42"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A19" colorId="64" zoomScale="77" zoomScaleNormal="71" zoomScalePageLayoutView="77" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G12" activeCellId="0" sqref="G12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="77" zoomScaleNormal="71" zoomScalePageLayoutView="77" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10682,7 +10697,7 @@
       </c>
       <c r="B3" s="194"/>
       <c r="C3" s="194"/>
-      <c r="D3" s="5"/>
+      <c r="D3" s="195"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
@@ -10692,11 +10707,15 @@
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
     </row>
-    <row r="4" customFormat="false" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
+    <row r="4" customFormat="false" ht="24.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="178" t="s">
+        <v>228</v>
+      </c>
+      <c r="B4" s="196"/>
+      <c r="C4" s="178" t="s">
+        <v>229</v>
+      </c>
+      <c r="D4" s="196"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
@@ -10708,23 +10727,23 @@
     </row>
     <row r="5" s="19" customFormat="true" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="178" t="s">
-        <v>228</v>
-      </c>
-      <c r="B5" s="195"/>
+        <v>230</v>
+      </c>
+      <c r="B5" s="197"/>
       <c r="C5" s="178" t="s">
-        <v>229</v>
-      </c>
-      <c r="D5" s="196"/>
-      <c r="E5" s="197" t="str">
+        <v>231</v>
+      </c>
+      <c r="D5" s="198"/>
+      <c r="E5" s="199" t="str">
         <f aca="false">IF(B5="","Please refer to guidance and ensure that project stage is consistent with latest Business Case approval stage","")</f>
         <v>Please refer to guidance and ensure that project stage is consistent with latest Business Case approval stage</v>
       </c>
-      <c r="F5" s="197"/>
-      <c r="G5" s="197"/>
-      <c r="H5" s="197"/>
-      <c r="I5" s="197"/>
-      <c r="J5" s="197"/>
-      <c r="K5" s="197"/>
+      <c r="F5" s="199"/>
+      <c r="G5" s="199"/>
+      <c r="H5" s="199"/>
+      <c r="I5" s="199"/>
+      <c r="J5" s="199"/>
+      <c r="K5" s="199"/>
     </row>
     <row r="6" s="19" customFormat="true" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="4"/>
@@ -10740,24 +10759,24 @@
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
     </row>
-    <row r="7" s="199" customFormat="true" ht="64.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" s="201" customFormat="true" ht="64.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="178" t="s">
-        <v>230</v>
-      </c>
-      <c r="B7" s="198" t="s">
-        <v>231</v>
-      </c>
-      <c r="C7" s="198" t="s">
         <v>232</v>
       </c>
-      <c r="D7" s="198" t="s">
+      <c r="B7" s="200" t="s">
         <v>233</v>
       </c>
-      <c r="E7" s="198" t="s">
+      <c r="C7" s="200" t="s">
         <v>234</v>
       </c>
+      <c r="D7" s="200" t="s">
+        <v>235</v>
+      </c>
+      <c r="E7" s="200" t="s">
+        <v>236</v>
+      </c>
       <c r="F7" s="177" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G7" s="193"/>
       <c r="H7" s="193"/>
@@ -10767,14 +10786,14 @@
       <c r="L7" s="193"/>
     </row>
     <row r="8" s="19" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="200" t="s">
-        <v>236</v>
-      </c>
-      <c r="B8" s="201"/>
-      <c r="C8" s="202"/>
-      <c r="D8" s="202"/>
-      <c r="E8" s="202"/>
-      <c r="F8" s="203"/>
+      <c r="A8" s="202" t="s">
+        <v>238</v>
+      </c>
+      <c r="B8" s="203"/>
+      <c r="C8" s="204"/>
+      <c r="D8" s="204"/>
+      <c r="E8" s="204"/>
+      <c r="F8" s="205"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
@@ -10783,324 +10802,324 @@
       <c r="L8" s="4"/>
     </row>
     <row r="9" s="19" customFormat="true" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="204" t="s">
-        <v>237</v>
-      </c>
-      <c r="B9" s="205"/>
-      <c r="C9" s="205"/>
-      <c r="D9" s="205"/>
-      <c r="E9" s="206"/>
-      <c r="F9" s="207"/>
-      <c r="G9" s="208" t="str">
+      <c r="A9" s="206" t="s">
+        <v>239</v>
+      </c>
+      <c r="B9" s="207"/>
+      <c r="C9" s="207"/>
+      <c r="D9" s="207"/>
+      <c r="E9" s="208"/>
+      <c r="F9" s="209"/>
+      <c r="G9" s="210" t="str">
         <f aca="false">IF(OR(B9="",D9=""),"Please add Original Baseline and/or Forecast date if either is missing",IF(B9=C9,"Please delete Rebaseline as same as Original Baseline",IF(D9=B9,"",IF(AND(D9&lt;&gt;B9,G183=""),CONCATENATE(D9-B9," / ",IF(C9&lt;&gt;"",D9-C9,"-")," days change from the Original Baseline / Rebaseline - please provide reason if considered significant change. If Rebaselined, please provide reason"),IF(C9="",CONCATENATE(D9-B9," days change from the Original Baseline"),CONCATENATE(D9-B9," days change from the Original Baseline; ",D9-C9," days change from the rebaseline"))))))</f>
         <v>Please add Original Baseline and/or Forecast date if either is missing</v>
       </c>
-      <c r="H9" s="208"/>
-      <c r="I9" s="208"/>
-      <c r="J9" s="208"/>
-      <c r="K9" s="208"/>
-      <c r="L9" s="208"/>
+      <c r="H9" s="210"/>
+      <c r="I9" s="210"/>
+      <c r="J9" s="210"/>
+      <c r="K9" s="210"/>
+      <c r="L9" s="210"/>
     </row>
     <row r="10" s="19" customFormat="true" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="204" t="s">
-        <v>238</v>
-      </c>
-      <c r="B10" s="205"/>
-      <c r="C10" s="205"/>
-      <c r="D10" s="205"/>
-      <c r="E10" s="196" t="s">
-        <v>239</v>
-      </c>
-      <c r="F10" s="207"/>
-      <c r="G10" s="208" t="str">
+      <c r="A10" s="206" t="s">
+        <v>240</v>
+      </c>
+      <c r="B10" s="207"/>
+      <c r="C10" s="207"/>
+      <c r="D10" s="207"/>
+      <c r="E10" s="198" t="s">
+        <v>241</v>
+      </c>
+      <c r="F10" s="209"/>
+      <c r="G10" s="210" t="str">
         <f aca="false">IF(OR(B10="",D10=""),"Please add Original Baseline and/or Forecast date if either is missing",IF(B10=C10,"Please delete Rebaseline as same as Original Baseline",IF(D10=B10,"",IF(AND(D10&lt;&gt;B10,G184=""),CONCATENATE(D10-B10," / ",IF(C10&lt;&gt;"",D10-C10,"-")," days change from the Original Baseline / Rebaseline - please provide reason if considered significant change. If Rebaselined, please provide reason"),IF(C10="",CONCATENATE(D10-B10," days change from the Original Baseline"),CONCATENATE(D10-B10," days change from the Original Baseline; ",D10-C10," days change from the rebaseline"))))))</f>
         <v>Please add Original Baseline and/or Forecast date if either is missing</v>
       </c>
-      <c r="H10" s="208"/>
-      <c r="I10" s="208"/>
-      <c r="J10" s="208"/>
-      <c r="K10" s="208"/>
-      <c r="L10" s="208"/>
+      <c r="H10" s="210"/>
+      <c r="I10" s="210"/>
+      <c r="J10" s="210"/>
+      <c r="K10" s="210"/>
+      <c r="L10" s="210"/>
     </row>
     <row r="11" s="19" customFormat="true" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="204" t="s">
-        <v>240</v>
-      </c>
-      <c r="B11" s="205"/>
-      <c r="C11" s="205"/>
-      <c r="D11" s="205"/>
-      <c r="E11" s="206"/>
-      <c r="F11" s="207"/>
-      <c r="G11" s="208" t="str">
+      <c r="A11" s="206" t="s">
+        <v>242</v>
+      </c>
+      <c r="B11" s="207"/>
+      <c r="C11" s="207"/>
+      <c r="D11" s="207"/>
+      <c r="E11" s="208"/>
+      <c r="F11" s="209"/>
+      <c r="G11" s="210" t="str">
         <f aca="false">IF(OR(B11="",D11=""),"Please add Original Baseline and/or Forecast date if either is missing",IF(B11=C11,"Please delete Rebaseline as same as Original Baseline",IF(D11=B11,"",IF(AND(D11&lt;&gt;B11,G185=""),CONCATENATE(D11-B11," / ",IF(C11&lt;&gt;"",D11-C11,"-")," days change from the Original Baseline / Rebaseline - please provide reason if considered significant change. If Rebaselined, please provide reason"),IF(C11="",CONCATENATE(D11-B11," days change from the Original Baseline"),CONCATENATE(D11-B11," days change from the Original Baseline; ",D11-C11," days change from the rebaseline"))))))</f>
         <v>Please add Original Baseline and/or Forecast date if either is missing</v>
       </c>
-      <c r="H11" s="208"/>
-      <c r="I11" s="208"/>
-      <c r="J11" s="208"/>
-      <c r="K11" s="208"/>
-      <c r="L11" s="208"/>
+      <c r="H11" s="210"/>
+      <c r="I11" s="210"/>
+      <c r="J11" s="210"/>
+      <c r="K11" s="210"/>
+      <c r="L11" s="210"/>
     </row>
     <row r="12" s="19" customFormat="true" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="204" t="s">
-        <v>241</v>
-      </c>
-      <c r="B12" s="205"/>
-      <c r="C12" s="205"/>
-      <c r="D12" s="205"/>
-      <c r="E12" s="196" t="s">
-        <v>242</v>
-      </c>
-      <c r="F12" s="207"/>
-      <c r="G12" s="208" t="str">
+      <c r="A12" s="206" t="s">
+        <v>243</v>
+      </c>
+      <c r="B12" s="207"/>
+      <c r="C12" s="207"/>
+      <c r="D12" s="207"/>
+      <c r="E12" s="198" t="s">
+        <v>244</v>
+      </c>
+      <c r="F12" s="209"/>
+      <c r="G12" s="210" t="str">
         <f aca="false">IF(OR(B12="",D12=""),"Please add Original Baseline and/or Forecast date if either is missing",IF(B12=C12,"Please delete Rebaseline as same as Original Baseline",IF(D12=B12,"",IF(AND(D12&lt;&gt;B12,G186=""),CONCATENATE(D12-B12," / ",IF(C12&lt;&gt;"",D12-C12,"-")," days change from the Original Baseline / Rebaseline - please provide reason if considered significant change. If Rebaselined, please provide reason"),IF(C12="",CONCATENATE(D12-B12," days change from the Original Baseline"),CONCATENATE(D12-B12," days change from the Original Baseline; ",D12-C12," days change from the rebaseline"))))))</f>
         <v>Please add Original Baseline and/or Forecast date if either is missing</v>
       </c>
-      <c r="H12" s="208"/>
-      <c r="I12" s="208"/>
-      <c r="J12" s="208"/>
-      <c r="K12" s="208"/>
-      <c r="L12" s="208"/>
+      <c r="H12" s="210"/>
+      <c r="I12" s="210"/>
+      <c r="J12" s="210"/>
+      <c r="K12" s="210"/>
+      <c r="L12" s="210"/>
     </row>
     <row r="13" s="19" customFormat="true" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="204" t="s">
-        <v>243</v>
-      </c>
-      <c r="B13" s="205"/>
-      <c r="C13" s="205"/>
-      <c r="D13" s="205"/>
-      <c r="E13" s="206"/>
-      <c r="F13" s="207"/>
-      <c r="G13" s="208" t="str">
+      <c r="A13" s="206" t="s">
+        <v>245</v>
+      </c>
+      <c r="B13" s="207"/>
+      <c r="C13" s="207"/>
+      <c r="D13" s="207"/>
+      <c r="E13" s="208"/>
+      <c r="F13" s="209"/>
+      <c r="G13" s="210" t="str">
         <f aca="false">IF(OR(B13="",D13=""),"Please add Original Baseline and/or Forecast date if either is missing",IF(B13=C13,"Please delete Rebaseline as same as Original Baseline",IF(D13=B13,"",IF(AND(D13&lt;&gt;B13,G187=""),CONCATENATE(D13-B13," / ",IF(C13&lt;&gt;"",D13-C13,"-")," days change from the Original Baseline / Rebaseline - please provide reason if considered significant change. If Rebaselined, please provide reason"),IF(C13="",CONCATENATE(D13-B13," days change from the Original Baseline"),CONCATENATE(D13-B13," days change from the Original Baseline; ",D13-C13," days change from the rebaseline"))))))</f>
         <v>Please add Original Baseline and/or Forecast date if either is missing</v>
       </c>
-      <c r="H13" s="208"/>
-      <c r="I13" s="208"/>
-      <c r="J13" s="208"/>
-      <c r="K13" s="208"/>
-      <c r="L13" s="208"/>
+      <c r="H13" s="210"/>
+      <c r="I13" s="210"/>
+      <c r="J13" s="210"/>
+      <c r="K13" s="210"/>
+      <c r="L13" s="210"/>
     </row>
     <row r="14" s="19" customFormat="true" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="204" t="s">
-        <v>244</v>
-      </c>
-      <c r="B14" s="205"/>
-      <c r="C14" s="205"/>
-      <c r="D14" s="205"/>
-      <c r="E14" s="206"/>
-      <c r="F14" s="207"/>
-      <c r="G14" s="208" t="str">
+      <c r="A14" s="206" t="s">
+        <v>246</v>
+      </c>
+      <c r="B14" s="207"/>
+      <c r="C14" s="207"/>
+      <c r="D14" s="207"/>
+      <c r="E14" s="208"/>
+      <c r="F14" s="209"/>
+      <c r="G14" s="210" t="str">
         <f aca="false">IF(OR(B14="",D14=""),"Please add Original Baseline and/or Forecast date if either is missing",IF(B14=C14,"Please delete Rebaseline as same as Original Baseline",IF(D14=B14,"",IF(AND(D14&lt;&gt;B14,G188=""),CONCATENATE(D14-B14," / ",IF(C14&lt;&gt;"",D14-C14,"-")," days change from the Original Baseline / Rebaseline - please provide reason if considered significant change. If Rebaselined, please provide reason"),IF(C14="",CONCATENATE(D14-B14," days change from the Original Baseline"),CONCATENATE(D14-B14," days change from the Original Baseline; ",D14-C14," days change from the rebaseline"))))))</f>
         <v>Please add Original Baseline and/or Forecast date if either is missing</v>
       </c>
-      <c r="H14" s="208"/>
-      <c r="I14" s="208"/>
-      <c r="J14" s="208"/>
-      <c r="K14" s="208"/>
-      <c r="L14" s="208"/>
+      <c r="H14" s="210"/>
+      <c r="I14" s="210"/>
+      <c r="J14" s="210"/>
+      <c r="K14" s="210"/>
+      <c r="L14" s="210"/>
     </row>
     <row r="15" s="19" customFormat="true" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="204" t="s">
-        <v>245</v>
-      </c>
-      <c r="B15" s="205"/>
-      <c r="C15" s="205"/>
-      <c r="D15" s="205"/>
-      <c r="E15" s="206"/>
-      <c r="F15" s="207"/>
-      <c r="G15" s="208" t="str">
+      <c r="A15" s="206" t="s">
+        <v>247</v>
+      </c>
+      <c r="B15" s="207"/>
+      <c r="C15" s="207"/>
+      <c r="D15" s="207"/>
+      <c r="E15" s="208"/>
+      <c r="F15" s="209"/>
+      <c r="G15" s="210" t="str">
         <f aca="false">IF(OR(B15="",D15=""),"Please add Original Baseline and/or Forecast date if either is missing",IF(B15=C15,"Please delete Rebaseline as same as Original Baseline",IF(D15=B15,"",IF(AND(D15&lt;&gt;B15,G189=""),CONCATENATE(D15-B15," / ",IF(C15&lt;&gt;"",D15-C15,"-")," days change from the Original Baseline / Rebaseline - please provide reason if considered significant change. If Rebaselined, please provide reason"),IF(C15="",CONCATENATE(D15-B15," days change from the Original Baseline"),CONCATENATE(D15-B15," days change from the Original Baseline; ",D15-C15," days change from the rebaseline"))))))</f>
         <v>Please add Original Baseline and/or Forecast date if either is missing</v>
       </c>
-      <c r="H15" s="208"/>
-      <c r="I15" s="208"/>
-      <c r="J15" s="208"/>
-      <c r="K15" s="208"/>
-      <c r="L15" s="208"/>
+      <c r="H15" s="210"/>
+      <c r="I15" s="210"/>
+      <c r="J15" s="210"/>
+      <c r="K15" s="210"/>
+      <c r="L15" s="210"/>
     </row>
     <row r="16" s="19" customFormat="true" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="204" t="s">
-        <v>246</v>
-      </c>
-      <c r="B16" s="205"/>
-      <c r="C16" s="205"/>
-      <c r="D16" s="205"/>
-      <c r="E16" s="206"/>
-      <c r="F16" s="207"/>
-      <c r="G16" s="208" t="str">
+      <c r="A16" s="206" t="s">
+        <v>248</v>
+      </c>
+      <c r="B16" s="207"/>
+      <c r="C16" s="207"/>
+      <c r="D16" s="207"/>
+      <c r="E16" s="208"/>
+      <c r="F16" s="209"/>
+      <c r="G16" s="210" t="str">
         <f aca="false">IF(OR(B16="",D16=""),"Please add Original Baseline and/or Forecast date if either is missing",IF(B16=C16,"Please delete Rebaseline as same as Original Baseline",IF(D16=B16,"",IF(AND(D16&lt;&gt;B16,G190=""),CONCATENATE(D16-B16," / ",IF(C16&lt;&gt;"",D16-C16,"-")," days change from the Original Baseline / Rebaseline - please provide reason if considered significant change. If Rebaselined, please provide reason"),IF(C16="",CONCATENATE(D16-B16," days change from the Original Baseline"),CONCATENATE(D16-B16," days change from the Original Baseline; ",D16-C16," days change from the rebaseline"))))))</f>
         <v>Please add Original Baseline and/or Forecast date if either is missing</v>
       </c>
-      <c r="H16" s="208"/>
-      <c r="I16" s="208"/>
-      <c r="J16" s="208"/>
-      <c r="K16" s="208"/>
-      <c r="L16" s="208"/>
+      <c r="H16" s="210"/>
+      <c r="I16" s="210"/>
+      <c r="J16" s="210"/>
+      <c r="K16" s="210"/>
+      <c r="L16" s="210"/>
     </row>
     <row r="17" s="19" customFormat="true" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="204" t="s">
-        <v>247</v>
-      </c>
-      <c r="B17" s="205"/>
-      <c r="C17" s="205"/>
-      <c r="D17" s="205"/>
-      <c r="E17" s="206"/>
-      <c r="F17" s="207"/>
-      <c r="G17" s="208" t="str">
+      <c r="A17" s="206" t="s">
+        <v>249</v>
+      </c>
+      <c r="B17" s="207"/>
+      <c r="C17" s="207"/>
+      <c r="D17" s="207"/>
+      <c r="E17" s="208"/>
+      <c r="F17" s="209"/>
+      <c r="G17" s="210" t="str">
         <f aca="false">IF(OR(B17="",D17=""),"Please add Original Baseline and/or Forecast date if either is missing",IF(B17=C17,"Please delete Rebaseline as same as Original Baseline",IF(D17=B17,"",IF(AND(D17&lt;&gt;B17,G191=""),CONCATENATE(D17-B17," / ",IF(C17&lt;&gt;"",D17-C17,"-")," days change from the Original Baseline / Rebaseline - please provide reason if considered significant change. If Rebaselined, please provide reason"),IF(C17="",CONCATENATE(D17-B17," days change from the Original Baseline"),CONCATENATE(D17-B17," days change from the Original Baseline; ",D17-C17," days change from the rebaseline"))))))</f>
         <v>Please add Original Baseline and/or Forecast date if either is missing</v>
       </c>
-      <c r="H17" s="208"/>
-      <c r="I17" s="208"/>
-      <c r="J17" s="208"/>
-      <c r="K17" s="208"/>
-      <c r="L17" s="208"/>
+      <c r="H17" s="210"/>
+      <c r="I17" s="210"/>
+      <c r="J17" s="210"/>
+      <c r="K17" s="210"/>
+      <c r="L17" s="210"/>
     </row>
     <row r="18" s="19" customFormat="true" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="204" t="s">
-        <v>248</v>
-      </c>
-      <c r="B18" s="205"/>
-      <c r="C18" s="205"/>
-      <c r="D18" s="205"/>
-      <c r="E18" s="206"/>
-      <c r="F18" s="207"/>
-      <c r="G18" s="208" t="str">
+      <c r="A18" s="206" t="s">
+        <v>250</v>
+      </c>
+      <c r="B18" s="207"/>
+      <c r="C18" s="207"/>
+      <c r="D18" s="207"/>
+      <c r="E18" s="208"/>
+      <c r="F18" s="209"/>
+      <c r="G18" s="210" t="str">
         <f aca="false">IF(OR(B18="",D18=""),"Please add Original Baseline and/or Forecast date if either is missing",IF(B18=C18,"Please delete Rebaseline as same as Original Baseline",IF(D18=B18,"",IF(AND(D18&lt;&gt;B18,G192=""),CONCATENATE(D18-B18," / ",IF(C18&lt;&gt;"",D18-C18,"-")," days change from the Original Baseline / Rebaseline - please provide reason if considered significant change. If Rebaselined, please provide reason"),IF(C18="",CONCATENATE(D18-B18," days change from the Original Baseline"),CONCATENATE(D18-B18," days change from the Original Baseline; ",D18-C18," days change from the rebaseline"))))))</f>
         <v>Please add Original Baseline and/or Forecast date if either is missing</v>
       </c>
-      <c r="H18" s="208"/>
-      <c r="I18" s="208"/>
-      <c r="J18" s="208"/>
-      <c r="K18" s="208"/>
-      <c r="L18" s="208"/>
+      <c r="H18" s="210"/>
+      <c r="I18" s="210"/>
+      <c r="J18" s="210"/>
+      <c r="K18" s="210"/>
+      <c r="L18" s="210"/>
     </row>
     <row r="19" s="19" customFormat="true" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="204" t="s">
-        <v>249</v>
-      </c>
-      <c r="B19" s="205"/>
-      <c r="C19" s="205"/>
-      <c r="D19" s="205"/>
-      <c r="E19" s="196" t="s">
-        <v>250</v>
-      </c>
-      <c r="F19" s="207"/>
-      <c r="G19" s="208" t="str">
+      <c r="A19" s="206" t="s">
+        <v>251</v>
+      </c>
+      <c r="B19" s="207"/>
+      <c r="C19" s="207"/>
+      <c r="D19" s="207"/>
+      <c r="E19" s="198" t="s">
+        <v>252</v>
+      </c>
+      <c r="F19" s="209"/>
+      <c r="G19" s="210" t="str">
         <f aca="false">IF(OR(B19="",D19=""),"Please add Original Baseline and/or Forecast date if either is missing",IF(B19=C19,"Please delete Rebaseline as same as Original Baseline",IF(D19=B19,"",IF(AND(D19&lt;&gt;B19,G193=""),CONCATENATE(D19-B19," / ",IF(C19&lt;&gt;"",D19-C19,"-")," days change from the Original Baseline / Rebaseline - please provide reason if considered significant change. If Rebaselined, please provide reason"),IF(C19="",CONCATENATE(D19-B19," days change from the Original Baseline"),CONCATENATE(D19-B19," days change from the Original Baseline; ",D19-C19," days change from the rebaseline"))))))</f>
         <v>Please add Original Baseline and/or Forecast date if either is missing</v>
       </c>
-      <c r="H19" s="208"/>
-      <c r="I19" s="208"/>
-      <c r="J19" s="208"/>
-      <c r="K19" s="208"/>
-      <c r="L19" s="208"/>
+      <c r="H19" s="210"/>
+      <c r="I19" s="210"/>
+      <c r="J19" s="210"/>
+      <c r="K19" s="210"/>
+      <c r="L19" s="210"/>
     </row>
     <row r="20" s="19" customFormat="true" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="209" t="s">
-        <v>251</v>
-      </c>
-      <c r="B20" s="205"/>
-      <c r="C20" s="205"/>
-      <c r="D20" s="205"/>
-      <c r="E20" s="206"/>
-      <c r="F20" s="207"/>
-      <c r="G20" s="208" t="str">
+      <c r="A20" s="211" t="s">
+        <v>253</v>
+      </c>
+      <c r="B20" s="207"/>
+      <c r="C20" s="207"/>
+      <c r="D20" s="207"/>
+      <c r="E20" s="208"/>
+      <c r="F20" s="209"/>
+      <c r="G20" s="210" t="str">
         <f aca="false">IF(OR(B20="",D20=""),"Please add Original Baseline and/or Forecast date if either is missing",IF(B20=C20,"Please delete Rebaseline as same as Original Baseline",IF(D20=B20,"",IF(AND(D20&lt;&gt;B20,G194=""),CONCATENATE(D20-B20," / ",IF(C20&lt;&gt;"",D20-C20,"-")," days change from the Original Baseline / Rebaseline - please provide reason if considered significant change. If Rebaselined, please provide reason"),IF(C20="",CONCATENATE(D20-B20," days change from the Original Baseline"),CONCATENATE(D20-B20," days change from the Original Baseline; ",D20-C20," days change from the rebaseline"))))))</f>
         <v>Please add Original Baseline and/or Forecast date if either is missing</v>
       </c>
-      <c r="H20" s="208"/>
-      <c r="I20" s="208"/>
-      <c r="J20" s="208"/>
-      <c r="K20" s="208"/>
-      <c r="L20" s="208"/>
+      <c r="H20" s="210"/>
+      <c r="I20" s="210"/>
+      <c r="J20" s="210"/>
+      <c r="K20" s="210"/>
+      <c r="L20" s="210"/>
     </row>
     <row r="21" s="19" customFormat="true" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="209" t="s">
-        <v>252</v>
-      </c>
-      <c r="B21" s="205"/>
-      <c r="C21" s="205"/>
-      <c r="D21" s="205"/>
-      <c r="E21" s="206"/>
-      <c r="F21" s="207"/>
-      <c r="G21" s="208" t="str">
+      <c r="A21" s="211" t="s">
+        <v>254</v>
+      </c>
+      <c r="B21" s="207"/>
+      <c r="C21" s="207"/>
+      <c r="D21" s="207"/>
+      <c r="E21" s="208"/>
+      <c r="F21" s="209"/>
+      <c r="G21" s="210" t="str">
         <f aca="false">IF(OR(B21="",D21=""),"Please add Original Baseline and/or Forecast date if either is missing",IF(B21=C21,"Please delete Rebaseline as same as Original Baseline",IF(D21=B21,"",IF(AND(D21&lt;&gt;B21,G195=""),CONCATENATE(D21-B21," / ",IF(C21&lt;&gt;"",D21-C21,"-")," days change from the Original Baseline / Rebaseline - please provide reason if considered significant change. If Rebaselined, please provide reason"),IF(C21="",CONCATENATE(D21-B21," days change from the Original Baseline"),CONCATENATE(D21-B21," days change from the Original Baseline; ",D21-C21," days change from the rebaseline"))))))</f>
         <v>Please add Original Baseline and/or Forecast date if either is missing</v>
       </c>
-      <c r="H21" s="208"/>
-      <c r="I21" s="208"/>
-      <c r="J21" s="208"/>
-      <c r="K21" s="208"/>
-      <c r="L21" s="208"/>
+      <c r="H21" s="210"/>
+      <c r="I21" s="210"/>
+      <c r="J21" s="210"/>
+      <c r="K21" s="210"/>
+      <c r="L21" s="210"/>
     </row>
     <row r="22" s="19" customFormat="true" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="209" t="s">
-        <v>253</v>
-      </c>
-      <c r="B22" s="205"/>
-      <c r="C22" s="205"/>
-      <c r="D22" s="205"/>
-      <c r="E22" s="206"/>
-      <c r="F22" s="207"/>
-      <c r="G22" s="208" t="str">
+      <c r="A22" s="211" t="s">
+        <v>255</v>
+      </c>
+      <c r="B22" s="207"/>
+      <c r="C22" s="207"/>
+      <c r="D22" s="207"/>
+      <c r="E22" s="208"/>
+      <c r="F22" s="209"/>
+      <c r="G22" s="210" t="str">
         <f aca="false">IF(OR(B22="",D22=""),"Please add Original Baseline and/or Forecast date if either is missing",IF(B22=C22,"Please delete Rebaseline as same as Original Baseline",IF(D22=B22,"",IF(AND(D22&lt;&gt;B22,G196=""),CONCATENATE(D22-B22," / ",IF(C22&lt;&gt;"",D22-C22,"-")," days change from the Original Baseline / Rebaseline - please provide reason if considered significant change. If Rebaselined, please provide reason"),IF(C22="",CONCATENATE(D22-B22," days change from the Original Baseline"),CONCATENATE(D22-B22," days change from the Original Baseline; ",D22-C22," days change from the rebaseline"))))))</f>
         <v>Please add Original Baseline and/or Forecast date if either is missing</v>
       </c>
-      <c r="H22" s="208"/>
-      <c r="I22" s="208"/>
-      <c r="J22" s="208"/>
-      <c r="K22" s="208"/>
-      <c r="L22" s="208"/>
+      <c r="H22" s="210"/>
+      <c r="I22" s="210"/>
+      <c r="J22" s="210"/>
+      <c r="K22" s="210"/>
+      <c r="L22" s="210"/>
     </row>
     <row r="23" s="19" customFormat="true" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="209" t="s">
-        <v>254</v>
-      </c>
-      <c r="B23" s="205"/>
-      <c r="C23" s="205"/>
-      <c r="D23" s="205"/>
-      <c r="E23" s="206"/>
-      <c r="F23" s="207"/>
-      <c r="G23" s="208" t="str">
+      <c r="A23" s="211" t="s">
+        <v>256</v>
+      </c>
+      <c r="B23" s="207"/>
+      <c r="C23" s="207"/>
+      <c r="D23" s="207"/>
+      <c r="E23" s="208"/>
+      <c r="F23" s="209"/>
+      <c r="G23" s="210" t="str">
         <f aca="false">IF(OR(B23="",D23=""),"Please add Original Baseline and/or Forecast date if either is missing",IF(B23=C23,"Please delete Rebaseline as same as Original Baseline",IF(D23=B23,"",IF(AND(D23&lt;&gt;B23,G197=""),CONCATENATE(D23-B23," / ",IF(C23&lt;&gt;"",D23-C23,"-")," days change from the Original Baseline / Rebaseline - please provide reason if considered significant change. If Rebaselined, please provide reason"),IF(C23="",CONCATENATE(D23-B23," days change from the Original Baseline"),CONCATENATE(D23-B23," days change from the Original Baseline; ",D23-C23," days change from the rebaseline"))))))</f>
         <v>Please add Original Baseline and/or Forecast date if either is missing</v>
       </c>
-      <c r="H23" s="208"/>
-      <c r="I23" s="208"/>
-      <c r="J23" s="208"/>
-      <c r="K23" s="208"/>
-      <c r="L23" s="208"/>
+      <c r="H23" s="210"/>
+      <c r="I23" s="210"/>
+      <c r="J23" s="210"/>
+      <c r="K23" s="210"/>
+      <c r="L23" s="210"/>
     </row>
     <row r="24" s="19" customFormat="true" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="209" t="s">
-        <v>255</v>
-      </c>
-      <c r="B24" s="205"/>
-      <c r="C24" s="205"/>
-      <c r="D24" s="205"/>
-      <c r="E24" s="206"/>
-      <c r="F24" s="207"/>
-      <c r="G24" s="208" t="str">
+      <c r="A24" s="211" t="s">
+        <v>257</v>
+      </c>
+      <c r="B24" s="207"/>
+      <c r="C24" s="207"/>
+      <c r="D24" s="207"/>
+      <c r="E24" s="208"/>
+      <c r="F24" s="209"/>
+      <c r="G24" s="210" t="str">
         <f aca="false">IF(OR(B24="",D24=""),"Please add Original Baseline and/or Forecast date if either is missing",IF(B24=C24,"Please delete Rebaseline as same as Original Baseline",IF(D24=B24,"",IF(AND(D24&lt;&gt;B24,G198=""),CONCATENATE(D24-B24," / ",IF(C24&lt;&gt;"",D24-C24,"-")," days change from the Original Baseline / Rebaseline - please provide reason if considered significant change. If Rebaselined, please provide reason"),IF(C24="",CONCATENATE(D24-B24," days change from the Original Baseline"),CONCATENATE(D24-B24," days change from the Original Baseline; ",D24-C24," days change from the rebaseline"))))))</f>
         <v>Please add Original Baseline and/or Forecast date if either is missing</v>
       </c>
-      <c r="H24" s="208"/>
-      <c r="I24" s="208"/>
-      <c r="J24" s="208"/>
-      <c r="K24" s="208"/>
-      <c r="L24" s="208"/>
+      <c r="H24" s="210"/>
+      <c r="I24" s="210"/>
+      <c r="J24" s="210"/>
+      <c r="K24" s="210"/>
+      <c r="L24" s="210"/>
     </row>
     <row r="25" s="19" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="200" t="s">
-        <v>256</v>
-      </c>
-      <c r="B25" s="201"/>
-      <c r="C25" s="202"/>
-      <c r="D25" s="202"/>
-      <c r="E25" s="202"/>
-      <c r="F25" s="210"/>
+      <c r="A25" s="202" t="s">
+        <v>258</v>
+      </c>
+      <c r="B25" s="203"/>
+      <c r="C25" s="204"/>
+      <c r="D25" s="204"/>
+      <c r="E25" s="204"/>
+      <c r="F25" s="212"/>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
@@ -11109,295 +11128,295 @@
       <c r="L25" s="4"/>
     </row>
     <row r="26" s="19" customFormat="true" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="211" t="s">
-        <v>257</v>
-      </c>
-      <c r="B26" s="205"/>
-      <c r="C26" s="205"/>
-      <c r="D26" s="205"/>
-      <c r="E26" s="196" t="s">
-        <v>258</v>
-      </c>
-      <c r="F26" s="207"/>
-      <c r="G26" s="208" t="str">
+      <c r="A26" s="213" t="s">
+        <v>259</v>
+      </c>
+      <c r="B26" s="207"/>
+      <c r="C26" s="207"/>
+      <c r="D26" s="207"/>
+      <c r="E26" s="198" t="s">
+        <v>260</v>
+      </c>
+      <c r="F26" s="209"/>
+      <c r="G26" s="210" t="str">
         <f aca="false">IF(OR(B26="",D26=""),"Please add Original Baseline and/or Forecast date if either is missing",IF(B26=C26,"Please delete Rebaseline as same as Original Baseline",IF(D26=B26,"",IF(AND(D26&lt;&gt;B26,G200=""),CONCATENATE(D26-B26," / ",IF(C26&lt;&gt;"",D26-C26,"-")," days change from the Original Baseline / Rebaseline - please provide reason if considered significant change. If Rebaselined, please provide reason"),IF(C26="",CONCATENATE(D26-B26," days change from the Original Baseline"),CONCATENATE(D26-B26," days change from the Original Baseline; ",D26-C26," days change from the rebaseline"))))))</f>
         <v>Please add Original Baseline and/or Forecast date if either is missing</v>
       </c>
-      <c r="H26" s="208"/>
-      <c r="I26" s="208"/>
-      <c r="J26" s="208"/>
-      <c r="K26" s="208"/>
-      <c r="L26" s="208"/>
+      <c r="H26" s="210"/>
+      <c r="I26" s="210"/>
+      <c r="J26" s="210"/>
+      <c r="K26" s="210"/>
+      <c r="L26" s="210"/>
     </row>
     <row r="27" s="19" customFormat="true" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="211" t="s">
-        <v>259</v>
-      </c>
-      <c r="B27" s="205"/>
-      <c r="C27" s="205"/>
-      <c r="D27" s="205"/>
-      <c r="E27" s="206"/>
-      <c r="F27" s="207"/>
-      <c r="G27" s="208" t="str">
+      <c r="A27" s="213" t="s">
+        <v>261</v>
+      </c>
+      <c r="B27" s="207"/>
+      <c r="C27" s="207"/>
+      <c r="D27" s="207"/>
+      <c r="E27" s="208"/>
+      <c r="F27" s="209"/>
+      <c r="G27" s="210" t="str">
         <f aca="false">IF(OR(B27="",D27=""),"Please add Original Baseline and/or Forecast date if either is missing",IF(B27=C27,"Please delete Rebaseline as same as Original Baseline",IF(D27=B27,"",IF(AND(D27&lt;&gt;B27,G201=""),CONCATENATE(D27-B27," / ",IF(C27&lt;&gt;"",D27-C27,"-")," days change from the Original Baseline / Rebaseline - please provide reason if considered significant change. If Rebaselined, please provide reason"),IF(C27="",CONCATENATE(D27-B27," days change from the Original Baseline"),CONCATENATE(D27-B27," days change from the Original Baseline; ",D27-C27," days change from the rebaseline"))))))</f>
         <v>Please add Original Baseline and/or Forecast date if either is missing</v>
       </c>
-      <c r="H27" s="208"/>
-      <c r="I27" s="208"/>
-      <c r="J27" s="208"/>
-      <c r="K27" s="208"/>
-      <c r="L27" s="208"/>
+      <c r="H27" s="210"/>
+      <c r="I27" s="210"/>
+      <c r="J27" s="210"/>
+      <c r="K27" s="210"/>
+      <c r="L27" s="210"/>
     </row>
     <row r="28" s="19" customFormat="true" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="211" t="s">
-        <v>260</v>
-      </c>
-      <c r="B28" s="205"/>
-      <c r="C28" s="205"/>
-      <c r="D28" s="205"/>
-      <c r="E28" s="206"/>
-      <c r="F28" s="207"/>
-      <c r="G28" s="208" t="str">
+      <c r="A28" s="213" t="s">
+        <v>262</v>
+      </c>
+      <c r="B28" s="207"/>
+      <c r="C28" s="207"/>
+      <c r="D28" s="207"/>
+      <c r="E28" s="208"/>
+      <c r="F28" s="209"/>
+      <c r="G28" s="210" t="str">
         <f aca="false">IF(OR(B28="",D28=""),"Please add Original Baseline and/or Forecast date if either is missing",IF(B28=C28,"Please delete Rebaseline as same as Original Baseline",IF(D28=B28,"",IF(AND(D28&lt;&gt;B28,G202=""),CONCATENATE(D28-B28," / ",IF(C28&lt;&gt;"",D28-C28,"-")," days change from the Original Baseline / Rebaseline - please provide reason if considered significant change. If Rebaselined, please provide reason"),IF(C28="",CONCATENATE(D28-B28," days change from the Original Baseline"),CONCATENATE(D28-B28," days change from the Original Baseline; ",D28-C28," days change from the rebaseline"))))))</f>
         <v>Please add Original Baseline and/or Forecast date if either is missing</v>
       </c>
-      <c r="H28" s="208"/>
-      <c r="I28" s="208"/>
-      <c r="J28" s="208"/>
-      <c r="K28" s="208"/>
-      <c r="L28" s="208"/>
+      <c r="H28" s="210"/>
+      <c r="I28" s="210"/>
+      <c r="J28" s="210"/>
+      <c r="K28" s="210"/>
+      <c r="L28" s="210"/>
     </row>
     <row r="29" s="19" customFormat="true" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="211" t="s">
-        <v>261</v>
-      </c>
-      <c r="B29" s="205"/>
-      <c r="C29" s="205"/>
-      <c r="D29" s="205"/>
-      <c r="E29" s="196" t="s">
-        <v>261</v>
-      </c>
-      <c r="F29" s="207"/>
-      <c r="G29" s="208" t="str">
+      <c r="A29" s="213" t="s">
+        <v>263</v>
+      </c>
+      <c r="B29" s="207"/>
+      <c r="C29" s="207"/>
+      <c r="D29" s="207"/>
+      <c r="E29" s="198" t="s">
+        <v>263</v>
+      </c>
+      <c r="F29" s="209"/>
+      <c r="G29" s="210" t="str">
         <f aca="false">IF(OR(B29="",D29=""),"Please add Original Baseline and/or Forecast date if either is missing",IF(B29=C29,"Please delete Rebaseline as same as Original Baseline",IF(D29=B29,"",IF(AND(D29&lt;&gt;B29,G203=""),CONCATENATE(D29-B29," / ",IF(C29&lt;&gt;"",D29-C29,"-")," days change from the Original Baseline / Rebaseline - please provide reason if considered significant change. If Rebaselined, please provide reason"),IF(C29="",CONCATENATE(D29-B29," days change from the Original Baseline"),CONCATENATE(D29-B29," days change from the Original Baseline; ",D29-C29," days change from the rebaseline"))))))</f>
         <v>Please add Original Baseline and/or Forecast date if either is missing</v>
       </c>
-      <c r="H29" s="208"/>
-      <c r="I29" s="208"/>
-      <c r="J29" s="208"/>
-      <c r="K29" s="208"/>
-      <c r="L29" s="208"/>
+      <c r="H29" s="210"/>
+      <c r="I29" s="210"/>
+      <c r="J29" s="210"/>
+      <c r="K29" s="210"/>
+      <c r="L29" s="210"/>
     </row>
     <row r="30" s="19" customFormat="true" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="211" t="s">
-        <v>262</v>
-      </c>
-      <c r="B30" s="205"/>
-      <c r="C30" s="205"/>
-      <c r="D30" s="205"/>
-      <c r="E30" s="196" t="s">
-        <v>262</v>
-      </c>
-      <c r="F30" s="207"/>
-      <c r="G30" s="208" t="str">
+      <c r="A30" s="213" t="s">
+        <v>264</v>
+      </c>
+      <c r="B30" s="207"/>
+      <c r="C30" s="207"/>
+      <c r="D30" s="207"/>
+      <c r="E30" s="198" t="s">
+        <v>264</v>
+      </c>
+      <c r="F30" s="209"/>
+      <c r="G30" s="210" t="str">
         <f aca="false">IF(OR(B30="",D30=""),"Please add Original Baseline and/or Forecast date if either is missing",IF(B30=C30,"Please delete Rebaseline as same as Original Baseline",IF(D30=B30,"",IF(AND(D30&lt;&gt;B30,G204=""),CONCATENATE(D30-B30," / ",IF(C30&lt;&gt;"",D30-C30,"-")," days change from the Original Baseline / Rebaseline - please provide reason if considered significant change. If Rebaselined, please provide reason"),IF(C30="",CONCATENATE(D30-B30," days change from the Original Baseline"),CONCATENATE(D30-B30," days change from the Original Baseline; ",D30-C30," days change from the rebaseline"))))))</f>
         <v>Please add Original Baseline and/or Forecast date if either is missing</v>
       </c>
-      <c r="H30" s="208"/>
-      <c r="I30" s="208"/>
-      <c r="J30" s="208"/>
-      <c r="K30" s="208"/>
-      <c r="L30" s="208"/>
+      <c r="H30" s="210"/>
+      <c r="I30" s="210"/>
+      <c r="J30" s="210"/>
+      <c r="K30" s="210"/>
+      <c r="L30" s="210"/>
     </row>
     <row r="31" s="19" customFormat="true" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="212" t="s">
-        <v>263</v>
-      </c>
-      <c r="B31" s="205"/>
-      <c r="C31" s="205"/>
-      <c r="D31" s="205"/>
-      <c r="E31" s="206"/>
-      <c r="F31" s="207"/>
-      <c r="G31" s="208" t="str">
+      <c r="A31" s="214" t="s">
+        <v>265</v>
+      </c>
+      <c r="B31" s="207"/>
+      <c r="C31" s="207"/>
+      <c r="D31" s="207"/>
+      <c r="E31" s="208"/>
+      <c r="F31" s="209"/>
+      <c r="G31" s="210" t="str">
         <f aca="false">IF(OR(B31="",D31=""),"Please add Original Baseline and/or Forecast date if either is missing",IF(B31=C31,"Please delete Rebaseline as same as Original Baseline",IF(D31=B31,"",IF(AND(D31&lt;&gt;B31,G205=""),CONCATENATE(D31-B31," / ",IF(C31&lt;&gt;"",D31-C31,"-")," days change from the Original Baseline / Rebaseline - please provide reason if considered significant change. If Rebaselined, please provide reason"),IF(C31="",CONCATENATE(D31-B31," days change from the Original Baseline"),CONCATENATE(D31-B31," days change from the Original Baseline; ",D31-C31," days change from the rebaseline"))))))</f>
         <v>Please add Original Baseline and/or Forecast date if either is missing</v>
       </c>
-      <c r="H31" s="208"/>
-      <c r="I31" s="208"/>
-      <c r="J31" s="208"/>
-      <c r="K31" s="208"/>
-      <c r="L31" s="208"/>
+      <c r="H31" s="210"/>
+      <c r="I31" s="210"/>
+      <c r="J31" s="210"/>
+      <c r="K31" s="210"/>
+      <c r="L31" s="210"/>
     </row>
     <row r="32" s="19" customFormat="true" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="212" t="s">
-        <v>264</v>
-      </c>
-      <c r="B32" s="205"/>
-      <c r="C32" s="205"/>
-      <c r="D32" s="205"/>
-      <c r="E32" s="206"/>
-      <c r="F32" s="207"/>
-      <c r="G32" s="208" t="str">
+      <c r="A32" s="214" t="s">
+        <v>266</v>
+      </c>
+      <c r="B32" s="207"/>
+      <c r="C32" s="207"/>
+      <c r="D32" s="207"/>
+      <c r="E32" s="208"/>
+      <c r="F32" s="209"/>
+      <c r="G32" s="210" t="str">
         <f aca="false">IF(OR(B32="",D32=""),"Please add Original Baseline and/or Forecast date if either is missing",IF(B32=C32,"Please delete Rebaseline as same as Original Baseline",IF(D32=B32,"",IF(AND(D32&lt;&gt;B32,G206=""),CONCATENATE(D32-B32," / ",IF(C32&lt;&gt;"",D32-C32,"-")," days change from the Original Baseline / Rebaseline - please provide reason if considered significant change. If Rebaselined, please provide reason"),IF(C32="",CONCATENATE(D32-B32," days change from the Original Baseline"),CONCATENATE(D32-B32," days change from the Original Baseline; ",D32-C32," days change from the rebaseline"))))))</f>
         <v>Please add Original Baseline and/or Forecast date if either is missing</v>
       </c>
-      <c r="H32" s="208"/>
-      <c r="I32" s="208"/>
-      <c r="J32" s="208"/>
-      <c r="K32" s="208"/>
-      <c r="L32" s="208"/>
+      <c r="H32" s="210"/>
+      <c r="I32" s="210"/>
+      <c r="J32" s="210"/>
+      <c r="K32" s="210"/>
+      <c r="L32" s="210"/>
     </row>
     <row r="33" s="19" customFormat="true" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="212" t="s">
-        <v>265</v>
-      </c>
-      <c r="B33" s="205"/>
-      <c r="C33" s="205"/>
-      <c r="D33" s="205"/>
-      <c r="E33" s="206"/>
-      <c r="F33" s="207"/>
-      <c r="G33" s="208" t="str">
+      <c r="A33" s="214" t="s">
+        <v>267</v>
+      </c>
+      <c r="B33" s="207"/>
+      <c r="C33" s="207"/>
+      <c r="D33" s="207"/>
+      <c r="E33" s="208"/>
+      <c r="F33" s="209"/>
+      <c r="G33" s="210" t="str">
         <f aca="false">IF(OR(B33="",D33=""),"Please add Original Baseline and/or Forecast date if either is missing",IF(B33=C33,"Please delete Rebaseline as same as Original Baseline",IF(D33=B33,"",IF(AND(D33&lt;&gt;B33,G207=""),CONCATENATE(D33-B33," / ",IF(C33&lt;&gt;"",D33-C33,"-")," days change from the Original Baseline / Rebaseline - please provide reason if considered significant change. If Rebaselined, please provide reason"),IF(C33="",CONCATENATE(D33-B33," days change from the Original Baseline"),CONCATENATE(D33-B33," days change from the Original Baseline; ",D33-C33," days change from the rebaseline"))))))</f>
         <v>Please add Original Baseline and/or Forecast date if either is missing</v>
       </c>
-      <c r="H33" s="208"/>
-      <c r="I33" s="208"/>
-      <c r="J33" s="208"/>
-      <c r="K33" s="208"/>
-      <c r="L33" s="208"/>
+      <c r="H33" s="210"/>
+      <c r="I33" s="210"/>
+      <c r="J33" s="210"/>
+      <c r="K33" s="210"/>
+      <c r="L33" s="210"/>
     </row>
     <row r="34" s="19" customFormat="true" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="212" t="s">
-        <v>266</v>
-      </c>
-      <c r="B34" s="205"/>
-      <c r="C34" s="205"/>
-      <c r="D34" s="205"/>
-      <c r="E34" s="206"/>
-      <c r="F34" s="207"/>
-      <c r="G34" s="208" t="str">
+      <c r="A34" s="214" t="s">
+        <v>268</v>
+      </c>
+      <c r="B34" s="207"/>
+      <c r="C34" s="207"/>
+      <c r="D34" s="207"/>
+      <c r="E34" s="208"/>
+      <c r="F34" s="209"/>
+      <c r="G34" s="210" t="str">
         <f aca="false">IF(OR(B34="",D34=""),"Please add Original Baseline and/or Forecast date if either is missing",IF(B34=C34,"Please delete Rebaseline as same as Original Baseline",IF(D34=B34,"",IF(AND(D34&lt;&gt;B34,G208=""),CONCATENATE(D34-B34," / ",IF(C34&lt;&gt;"",D34-C34,"-")," days change from the Original Baseline / Rebaseline - please provide reason if considered significant change. If Rebaselined, please provide reason"),IF(C34="",CONCATENATE(D34-B34," days change from the Original Baseline"),CONCATENATE(D34-B34," days change from the Original Baseline; ",D34-C34," days change from the rebaseline"))))))</f>
         <v>Please add Original Baseline and/or Forecast date if either is missing</v>
       </c>
-      <c r="H34" s="208"/>
-      <c r="I34" s="208"/>
-      <c r="J34" s="208"/>
-      <c r="K34" s="208"/>
-      <c r="L34" s="208"/>
+      <c r="H34" s="210"/>
+      <c r="I34" s="210"/>
+      <c r="J34" s="210"/>
+      <c r="K34" s="210"/>
+      <c r="L34" s="210"/>
     </row>
     <row r="35" s="19" customFormat="true" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="212" t="s">
-        <v>267</v>
-      </c>
-      <c r="B35" s="205"/>
-      <c r="C35" s="205"/>
-      <c r="D35" s="205"/>
-      <c r="E35" s="206"/>
-      <c r="F35" s="207"/>
-      <c r="G35" s="208" t="str">
+      <c r="A35" s="214" t="s">
+        <v>269</v>
+      </c>
+      <c r="B35" s="207"/>
+      <c r="C35" s="207"/>
+      <c r="D35" s="207"/>
+      <c r="E35" s="208"/>
+      <c r="F35" s="209"/>
+      <c r="G35" s="210" t="str">
         <f aca="false">IF(OR(B35="",D35=""),"Please add Original Baseline and/or Forecast date if either is missing",IF(B35=C35,"Please delete Rebaseline as same as Original Baseline",IF(D35=B35,"",IF(AND(D35&lt;&gt;B35,G209=""),CONCATENATE(D35-B35," / ",IF(C35&lt;&gt;"",D35-C35,"-")," days change from the Original Baseline / Rebaseline - please provide reason if considered significant change. If Rebaselined, please provide reason"),IF(C35="",CONCATENATE(D35-B35," days change from the Original Baseline"),CONCATENATE(D35-B35," days change from the Original Baseline; ",D35-C35," days change from the rebaseline"))))))</f>
         <v>Please add Original Baseline and/or Forecast date if either is missing</v>
       </c>
-      <c r="H35" s="208"/>
-      <c r="I35" s="208"/>
-      <c r="J35" s="208"/>
-      <c r="K35" s="208"/>
-      <c r="L35" s="208"/>
+      <c r="H35" s="210"/>
+      <c r="I35" s="210"/>
+      <c r="J35" s="210"/>
+      <c r="K35" s="210"/>
+      <c r="L35" s="210"/>
     </row>
     <row r="36" s="19" customFormat="true" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="212" t="s">
-        <v>268</v>
-      </c>
-      <c r="B36" s="205"/>
-      <c r="C36" s="205"/>
-      <c r="D36" s="205"/>
-      <c r="E36" s="206"/>
-      <c r="F36" s="207"/>
-      <c r="G36" s="208" t="str">
+      <c r="A36" s="214" t="s">
+        <v>270</v>
+      </c>
+      <c r="B36" s="207"/>
+      <c r="C36" s="207"/>
+      <c r="D36" s="207"/>
+      <c r="E36" s="208"/>
+      <c r="F36" s="209"/>
+      <c r="G36" s="210" t="str">
         <f aca="false">IF(OR(B36="",D36=""),"Please add Original Baseline and/or Forecast date if either is missing",IF(B36=C36,"Please delete Rebaseline as same as Original Baseline",IF(D36=B36,"",IF(AND(D36&lt;&gt;B36,G210=""),CONCATENATE(D36-B36," / ",IF(C36&lt;&gt;"",D36-C36,"-")," days change from the Original Baseline / Rebaseline - please provide reason if considered significant change. If Rebaselined, please provide reason"),IF(C36="",CONCATENATE(D36-B36," days change from the Original Baseline"),CONCATENATE(D36-B36," days change from the Original Baseline; ",D36-C36," days change from the rebaseline"))))))</f>
         <v>Please add Original Baseline and/or Forecast date if either is missing</v>
       </c>
-      <c r="H36" s="208"/>
-      <c r="I36" s="208"/>
-      <c r="J36" s="208"/>
-      <c r="K36" s="208"/>
-      <c r="L36" s="208"/>
+      <c r="H36" s="210"/>
+      <c r="I36" s="210"/>
+      <c r="J36" s="210"/>
+      <c r="K36" s="210"/>
+      <c r="L36" s="210"/>
     </row>
     <row r="37" s="19" customFormat="true" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="212" t="s">
-        <v>269</v>
-      </c>
-      <c r="B37" s="205"/>
-      <c r="C37" s="205"/>
-      <c r="D37" s="205"/>
-      <c r="E37" s="206"/>
-      <c r="F37" s="207"/>
-      <c r="G37" s="208" t="str">
+      <c r="A37" s="214" t="s">
+        <v>271</v>
+      </c>
+      <c r="B37" s="207"/>
+      <c r="C37" s="207"/>
+      <c r="D37" s="207"/>
+      <c r="E37" s="208"/>
+      <c r="F37" s="209"/>
+      <c r="G37" s="210" t="str">
         <f aca="false">IF(OR(B37="",D37=""),"Please add Original Baseline and/or Forecast date if either is missing",IF(B37=C37,"Please delete Rebaseline as same as Original Baseline",IF(D37=B37,"",IF(AND(D37&lt;&gt;B37,G211=""),CONCATENATE(D37-B37," / ",IF(C37&lt;&gt;"",D37-C37,"-")," days change from the Original Baseline / Rebaseline - please provide reason if considered significant change. If Rebaselined, please provide reason"),IF(C37="",CONCATENATE(D37-B37," days change from the Original Baseline"),CONCATENATE(D37-B37," days change from the Original Baseline; ",D37-C37," days change from the rebaseline"))))))</f>
         <v>Please add Original Baseline and/or Forecast date if either is missing</v>
       </c>
-      <c r="H37" s="208"/>
-      <c r="I37" s="208"/>
-      <c r="J37" s="208"/>
-      <c r="K37" s="208"/>
-      <c r="L37" s="208"/>
+      <c r="H37" s="210"/>
+      <c r="I37" s="210"/>
+      <c r="J37" s="210"/>
+      <c r="K37" s="210"/>
+      <c r="L37" s="210"/>
     </row>
     <row r="38" s="19" customFormat="true" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="212" t="s">
-        <v>270</v>
-      </c>
-      <c r="B38" s="205"/>
-      <c r="C38" s="205"/>
-      <c r="D38" s="205"/>
-      <c r="E38" s="206"/>
-      <c r="F38" s="207"/>
-      <c r="G38" s="208" t="str">
+      <c r="A38" s="214" t="s">
+        <v>272</v>
+      </c>
+      <c r="B38" s="207"/>
+      <c r="C38" s="207"/>
+      <c r="D38" s="207"/>
+      <c r="E38" s="208"/>
+      <c r="F38" s="209"/>
+      <c r="G38" s="210" t="str">
         <f aca="false">IF(OR(B38="",D38=""),"Please add Original Baseline and/or Forecast date if either is missing",IF(B38=C38,"Please delete Rebaseline as same as Original Baseline",IF(D38=B38,"",IF(AND(D38&lt;&gt;B38,G212=""),CONCATENATE(D38-B38," / ",IF(C38&lt;&gt;"",D38-C38,"-")," days change from the Original Baseline / Rebaseline - please provide reason if considered significant change. If Rebaselined, please provide reason"),IF(C38="",CONCATENATE(D38-B38," days change from the Original Baseline"),CONCATENATE(D38-B38," days change from the Original Baseline; ",D38-C38," days change from the rebaseline"))))))</f>
         <v>Please add Original Baseline and/or Forecast date if either is missing</v>
       </c>
-      <c r="H38" s="208"/>
-      <c r="I38" s="208"/>
-      <c r="J38" s="208"/>
-      <c r="K38" s="208"/>
-      <c r="L38" s="208"/>
+      <c r="H38" s="210"/>
+      <c r="I38" s="210"/>
+      <c r="J38" s="210"/>
+      <c r="K38" s="210"/>
+      <c r="L38" s="210"/>
     </row>
     <row r="39" s="19" customFormat="true" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="212" t="s">
-        <v>271</v>
-      </c>
-      <c r="B39" s="205"/>
-      <c r="C39" s="205"/>
-      <c r="D39" s="205"/>
-      <c r="E39" s="206"/>
-      <c r="F39" s="207"/>
-      <c r="G39" s="208" t="str">
+      <c r="A39" s="214" t="s">
+        <v>273</v>
+      </c>
+      <c r="B39" s="207"/>
+      <c r="C39" s="207"/>
+      <c r="D39" s="207"/>
+      <c r="E39" s="208"/>
+      <c r="F39" s="209"/>
+      <c r="G39" s="210" t="str">
         <f aca="false">IF(OR(B39="",D39=""),"Please add Original Baseline and/or Forecast date if either is missing",IF(B39=C39,"Please delete Rebaseline as same as Original Baseline",IF(D39=B39,"",IF(AND(D39&lt;&gt;B39,G213=""),CONCATENATE(D39-B39," / ",IF(C39&lt;&gt;"",D39-C39,"-")," days change from the Original Baseline / Rebaseline - please provide reason if considered significant change. If Rebaselined, please provide reason"),IF(C39="",CONCATENATE(D39-B39," days change from the Original Baseline"),CONCATENATE(D39-B39," days change from the Original Baseline; ",D39-C39," days change from the rebaseline"))))))</f>
         <v>Please add Original Baseline and/or Forecast date if either is missing</v>
       </c>
-      <c r="H39" s="208"/>
-      <c r="I39" s="208"/>
-      <c r="J39" s="208"/>
-      <c r="K39" s="208"/>
-      <c r="L39" s="208"/>
+      <c r="H39" s="210"/>
+      <c r="I39" s="210"/>
+      <c r="J39" s="210"/>
+      <c r="K39" s="210"/>
+      <c r="L39" s="210"/>
     </row>
     <row r="40" s="19" customFormat="true" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="212" t="s">
-        <v>272</v>
-      </c>
-      <c r="B40" s="205"/>
-      <c r="C40" s="205"/>
-      <c r="D40" s="205"/>
-      <c r="E40" s="206"/>
-      <c r="F40" s="207"/>
-      <c r="G40" s="208" t="str">
+      <c r="A40" s="214" t="s">
+        <v>274</v>
+      </c>
+      <c r="B40" s="207"/>
+      <c r="C40" s="207"/>
+      <c r="D40" s="207"/>
+      <c r="E40" s="208"/>
+      <c r="F40" s="209"/>
+      <c r="G40" s="210" t="str">
         <f aca="false">IF(OR(B40="",D40=""),"Please add Original Baseline and/or Forecast date if either is missing",IF(B40=C40,"Please delete Rebaseline as same as Original Baseline",IF(D40=B40,"",IF(AND(D40&lt;&gt;B40,G214=""),CONCATENATE(D40-B40," / ",IF(C40&lt;&gt;"",D40-C40,"-")," days change from the Original Baseline / Rebaseline - please provide reason if considered significant change. If Rebaselined, please provide reason"),IF(C40="",CONCATENATE(D40-B40," days change from the Original Baseline"),CONCATENATE(D40-B40," days change from the Original Baseline; ",D40-C40," days change from the rebaseline"))))))</f>
         <v>Please add Original Baseline and/or Forecast date if either is missing</v>
       </c>
-      <c r="H40" s="208"/>
-      <c r="I40" s="208"/>
-      <c r="J40" s="208"/>
-      <c r="K40" s="208"/>
-      <c r="L40" s="208"/>
+      <c r="H40" s="210"/>
+      <c r="I40" s="210"/>
+      <c r="J40" s="210"/>
+      <c r="K40" s="210"/>
+      <c r="L40" s="210"/>
     </row>
     <row r="41" s="19" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="4"/>
@@ -11406,28 +11425,28 @@
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
-      <c r="G41" s="208"/>
-      <c r="H41" s="208"/>
-      <c r="I41" s="208"/>
-      <c r="J41" s="208"/>
-      <c r="K41" s="208"/>
-      <c r="L41" s="208"/>
+      <c r="G41" s="210"/>
+      <c r="H41" s="210"/>
+      <c r="I41" s="210"/>
+      <c r="J41" s="210"/>
+      <c r="K41" s="210"/>
+      <c r="L41" s="210"/>
     </row>
     <row r="42" s="19" customFormat="true" ht="190.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="178" t="s">
-        <v>273</v>
-      </c>
-      <c r="B42" s="207"/>
-      <c r="C42" s="207"/>
-      <c r="D42" s="207"/>
-      <c r="E42" s="207"/>
-      <c r="F42" s="207"/>
-      <c r="G42" s="208"/>
-      <c r="H42" s="208"/>
-      <c r="I42" s="208"/>
-      <c r="J42" s="208"/>
-      <c r="K42" s="208"/>
-      <c r="L42" s="208"/>
+        <v>275</v>
+      </c>
+      <c r="B42" s="209"/>
+      <c r="C42" s="209"/>
+      <c r="D42" s="209"/>
+      <c r="E42" s="209"/>
+      <c r="F42" s="209"/>
+      <c r="G42" s="210"/>
+      <c r="H42" s="210"/>
+      <c r="I42" s="210"/>
+      <c r="J42" s="210"/>
+      <c r="K42" s="210"/>
+      <c r="L42" s="210"/>
     </row>
   </sheetData>
   <mergeCells count="39">
@@ -11520,474 +11539,474 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="77.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="213" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="213"/>
-      <c r="C1" s="213"/>
-      <c r="D1" s="213"/>
-      <c r="E1" s="213"/>
-      <c r="F1" s="213"/>
-      <c r="G1" s="213"/>
-      <c r="H1" s="213"/>
-      <c r="I1" s="213"/>
+      <c r="A1" s="215" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="215"/>
+      <c r="C1" s="215"/>
+      <c r="D1" s="215"/>
+      <c r="E1" s="215"/>
+      <c r="F1" s="215"/>
+      <c r="G1" s="215"/>
+      <c r="H1" s="215"/>
+      <c r="I1" s="215"/>
       <c r="J1" s="176" t="s">
         <v>64</v>
       </c>
       <c r="K1" s="176"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="214" t="s">
-        <v>274</v>
-      </c>
-      <c r="B2" s="214"/>
-      <c r="C2" s="214"/>
+      <c r="A2" s="216" t="s">
+        <v>276</v>
+      </c>
+      <c r="B2" s="216"/>
+      <c r="C2" s="216"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="215" t="s">
-        <v>275</v>
-      </c>
-      <c r="B3" s="216"/>
-      <c r="C3" s="216"/>
+      <c r="A3" s="217" t="s">
+        <v>277</v>
+      </c>
+      <c r="B3" s="218"/>
+      <c r="C3" s="218"/>
     </row>
     <row r="4" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="178" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>277</v>
-      </c>
-      <c r="C4" s="217"/>
+        <v>279</v>
+      </c>
+      <c r="C4" s="219"/>
       <c r="D4" s="178" t="s">
-        <v>278</v>
-      </c>
-      <c r="E4" s="195"/>
+        <v>280</v>
+      </c>
+      <c r="E4" s="197"/>
     </row>
     <row r="5" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B5" s="8" t="s">
-        <v>279</v>
-      </c>
-      <c r="C5" s="217"/>
+        <v>281</v>
+      </c>
+      <c r="C5" s="219"/>
     </row>
     <row r="7" customFormat="false" ht="87" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="178" t="s">
-        <v>230</v>
-      </c>
-      <c r="B7" s="198" t="s">
-        <v>280</v>
-      </c>
-      <c r="C7" s="198" t="s">
         <v>232</v>
       </c>
-      <c r="D7" s="198" t="s">
-        <v>233</v>
-      </c>
-      <c r="E7" s="198" t="s">
-        <v>281</v>
+      <c r="B7" s="200" t="s">
+        <v>282</v>
+      </c>
+      <c r="C7" s="200" t="s">
+        <v>234</v>
+      </c>
+      <c r="D7" s="200" t="s">
+        <v>235</v>
+      </c>
+      <c r="E7" s="200" t="s">
+        <v>283</v>
       </c>
       <c r="F7" s="177" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="218" t="s">
-        <v>282</v>
-      </c>
-      <c r="B8" s="219"/>
-      <c r="C8" s="219"/>
-      <c r="D8" s="219"/>
-      <c r="E8" s="220"/>
-      <c r="F8" s="195"/>
-      <c r="G8" s="221" t="str">
+      <c r="A8" s="220" t="s">
+        <v>284</v>
+      </c>
+      <c r="B8" s="221"/>
+      <c r="C8" s="221"/>
+      <c r="D8" s="221"/>
+      <c r="E8" s="222"/>
+      <c r="F8" s="197"/>
+      <c r="G8" s="223" t="str">
         <f aca="false">IF(OR(B9="",D9=""),"Please add Original Baseline and/or Forecast date if either is missing",IF(B9=C9,"Please delete Rebaseline as same as Original Baseline",IF(D9=B9,"",IF(AND(D9&lt;&gt;B9,G141=""),CONCATENATE(D9-B9," / ",IF(C9&lt;&gt;"",D9-C9,"-")," days change from the Original Baseline / Rebaseline - please provide reason if considered significant change. If Rebaselined, please provide reason"),IF(C9="",CONCATENATE(D9-B9," days change from the Original Baseline"),CONCATENATE(D9-B9," days change from the Original Baseline; ",D9-C9," days change from the rebaseline"))))))</f>
         <v>Please add Original Baseline and/or Forecast date if either is missing</v>
       </c>
-      <c r="H8" s="221"/>
-      <c r="I8" s="221"/>
-      <c r="J8" s="221"/>
+      <c r="H8" s="223"/>
+      <c r="I8" s="223"/>
+      <c r="J8" s="223"/>
     </row>
     <row r="9" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="218" t="s">
-        <v>283</v>
-      </c>
-      <c r="B9" s="219"/>
-      <c r="C9" s="219"/>
-      <c r="D9" s="219"/>
-      <c r="E9" s="220"/>
-      <c r="F9" s="195"/>
-      <c r="G9" s="221" t="str">
+      <c r="A9" s="220" t="s">
+        <v>285</v>
+      </c>
+      <c r="B9" s="221"/>
+      <c r="C9" s="221"/>
+      <c r="D9" s="221"/>
+      <c r="E9" s="222"/>
+      <c r="F9" s="197"/>
+      <c r="G9" s="223" t="str">
         <f aca="false">IF(OR(B10="",D10=""),"Please add Original Baseline and/or Forecast date if either is missing",IF(B10=C10,"Please delete Rebaseline as same as Original Baseline",IF(D10=B10,"",IF(AND(D10&lt;&gt;B10,G142=""),CONCATENATE(D10-B10," / ",IF(C10&lt;&gt;"",D10-C10,"-")," days change from the Original Baseline / Rebaseline - please provide reason if considered significant change. If Rebaselined, please provide reason"),IF(C10="",CONCATENATE(D10-B10," days change from the Original Baseline"),CONCATENATE(D10-B10," days change from the Original Baseline; ",D10-C10," days change from the rebaseline"))))))</f>
         <v>Please add Original Baseline and/or Forecast date if either is missing</v>
       </c>
-      <c r="H9" s="221"/>
-      <c r="I9" s="221"/>
-      <c r="J9" s="221"/>
+      <c r="H9" s="223"/>
+      <c r="I9" s="223"/>
+      <c r="J9" s="223"/>
     </row>
     <row r="10" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="218" t="s">
-        <v>284</v>
-      </c>
-      <c r="B10" s="219"/>
-      <c r="C10" s="219"/>
-      <c r="D10" s="219"/>
-      <c r="E10" s="220"/>
-      <c r="F10" s="195"/>
-      <c r="G10" s="221" t="str">
+      <c r="A10" s="220" t="s">
+        <v>286</v>
+      </c>
+      <c r="B10" s="221"/>
+      <c r="C10" s="221"/>
+      <c r="D10" s="221"/>
+      <c r="E10" s="222"/>
+      <c r="F10" s="197"/>
+      <c r="G10" s="223" t="str">
         <f aca="false">IF(OR(B11="",D11=""),"Please add Original Baseline and/or Forecast date if either is missing",IF(B11=C11,"Please delete Rebaseline as same as Original Baseline",IF(D11=B11,"",IF(AND(D11&lt;&gt;B11,G143=""),CONCATENATE(D11-B11," / ",IF(C11&lt;&gt;"",D11-C11,"-")," days change from the Original Baseline / Rebaseline - please provide reason if considered significant change. If Rebaselined, please provide reason"),IF(C11="",CONCATENATE(D11-B11," days change from the Original Baseline"),CONCATENATE(D11-B11," days change from the Original Baseline; ",D11-C11," days change from the rebaseline"))))))</f>
         <v>Please add Original Baseline and/or Forecast date if either is missing</v>
       </c>
-      <c r="H10" s="221"/>
-      <c r="I10" s="221"/>
-      <c r="J10" s="221"/>
+      <c r="H10" s="223"/>
+      <c r="I10" s="223"/>
+      <c r="J10" s="223"/>
     </row>
     <row r="11" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="218" t="s">
-        <v>285</v>
-      </c>
-      <c r="B11" s="219"/>
-      <c r="C11" s="219"/>
-      <c r="D11" s="219"/>
-      <c r="E11" s="220"/>
-      <c r="F11" s="195"/>
-      <c r="G11" s="221" t="str">
+      <c r="A11" s="220" t="s">
+        <v>287</v>
+      </c>
+      <c r="B11" s="221"/>
+      <c r="C11" s="221"/>
+      <c r="D11" s="221"/>
+      <c r="E11" s="222"/>
+      <c r="F11" s="197"/>
+      <c r="G11" s="223" t="str">
         <f aca="false">IF(OR(B12="",D12=""),"Please add Original Baseline and/or Forecast date if either is missing",IF(B12=C12,"Please delete Rebaseline as same as Original Baseline",IF(D12=B12,"",IF(AND(D12&lt;&gt;B12,G144=""),CONCATENATE(D12-B12," / ",IF(C12&lt;&gt;"",D12-C12,"-")," days change from the Original Baseline / Rebaseline - please provide reason if considered significant change. If Rebaselined, please provide reason"),IF(C12="",CONCATENATE(D12-B12," days change from the Original Baseline"),CONCATENATE(D12-B12," days change from the Original Baseline; ",D12-C12," days change from the rebaseline"))))))</f>
         <v>Please add Original Baseline and/or Forecast date if either is missing</v>
       </c>
-      <c r="H11" s="221"/>
-      <c r="I11" s="221"/>
-      <c r="J11" s="221"/>
+      <c r="H11" s="223"/>
+      <c r="I11" s="223"/>
+      <c r="J11" s="223"/>
     </row>
     <row r="12" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="218" t="s">
-        <v>286</v>
-      </c>
-      <c r="B12" s="219"/>
-      <c r="C12" s="219"/>
-      <c r="D12" s="219"/>
-      <c r="E12" s="220"/>
-      <c r="F12" s="195"/>
-      <c r="G12" s="221" t="str">
+      <c r="A12" s="220" t="s">
+        <v>288</v>
+      </c>
+      <c r="B12" s="221"/>
+      <c r="C12" s="221"/>
+      <c r="D12" s="221"/>
+      <c r="E12" s="222"/>
+      <c r="F12" s="197"/>
+      <c r="G12" s="223" t="str">
         <f aca="false">IF(OR(B13="",D13=""),"Please add Original Baseline and/or Forecast date if either is missing",IF(B13=C13,"Please delete Rebaseline as same as Original Baseline",IF(D13=B13,"",IF(AND(D13&lt;&gt;B13,G145=""),CONCATENATE(D13-B13," / ",IF(C13&lt;&gt;"",D13-C13,"-")," days change from the Original Baseline / Rebaseline - please provide reason if considered significant change. If Rebaselined, please provide reason"),IF(C13="",CONCATENATE(D13-B13," days change from the Original Baseline"),CONCATENATE(D13-B13," days change from the Original Baseline; ",D13-C13," days change from the rebaseline"))))))</f>
         <v>Please add Original Baseline and/or Forecast date if either is missing</v>
       </c>
-      <c r="H12" s="221"/>
-      <c r="I12" s="221"/>
-      <c r="J12" s="221"/>
+      <c r="H12" s="223"/>
+      <c r="I12" s="223"/>
+      <c r="J12" s="223"/>
     </row>
     <row r="13" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="218" t="s">
-        <v>287</v>
-      </c>
-      <c r="B13" s="219"/>
-      <c r="C13" s="219"/>
-      <c r="D13" s="219"/>
-      <c r="E13" s="220"/>
-      <c r="F13" s="195"/>
-      <c r="G13" s="221" t="str">
+      <c r="A13" s="220" t="s">
+        <v>289</v>
+      </c>
+      <c r="B13" s="221"/>
+      <c r="C13" s="221"/>
+      <c r="D13" s="221"/>
+      <c r="E13" s="222"/>
+      <c r="F13" s="197"/>
+      <c r="G13" s="223" t="str">
         <f aca="false">IF(OR(B14="",D14=""),"Please add Original Baseline and/or Forecast date if either is missing",IF(B14=C14,"Please delete Rebaseline as same as Original Baseline",IF(D14=B14,"",IF(AND(D14&lt;&gt;B14,G146=""),CONCATENATE(D14-B14," / ",IF(C14&lt;&gt;"",D14-C14,"-")," days change from the Original Baseline / Rebaseline - please provide reason if considered significant change. If Rebaselined, please provide reason"),IF(C14="",CONCATENATE(D14-B14," days change from the Original Baseline"),CONCATENATE(D14-B14," days change from the Original Baseline; ",D14-C14," days change from the rebaseline"))))))</f>
         <v>Please add Original Baseline and/or Forecast date if either is missing</v>
       </c>
-      <c r="H13" s="221"/>
-      <c r="I13" s="221"/>
-      <c r="J13" s="221"/>
+      <c r="H13" s="223"/>
+      <c r="I13" s="223"/>
+      <c r="J13" s="223"/>
     </row>
     <row r="14" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="218" t="s">
-        <v>288</v>
-      </c>
-      <c r="B14" s="219"/>
-      <c r="C14" s="219"/>
-      <c r="D14" s="219"/>
-      <c r="E14" s="220"/>
-      <c r="F14" s="195"/>
-      <c r="G14" s="221" t="str">
+      <c r="A14" s="220" t="s">
+        <v>290</v>
+      </c>
+      <c r="B14" s="221"/>
+      <c r="C14" s="221"/>
+      <c r="D14" s="221"/>
+      <c r="E14" s="222"/>
+      <c r="F14" s="197"/>
+      <c r="G14" s="223" t="str">
         <f aca="false">IF(OR(B15="",D15=""),"Please add Original Baseline and/or Forecast date if either is missing",IF(B15=C15,"Please delete Rebaseline as same as Original Baseline",IF(D15=B15,"",IF(AND(D15&lt;&gt;B15,G147=""),CONCATENATE(D15-B15," / ",IF(C15&lt;&gt;"",D15-C15,"-")," days change from the Original Baseline / Rebaseline - please provide reason if considered significant change. If Rebaselined, please provide reason"),IF(C15="",CONCATENATE(D15-B15," days change from the Original Baseline"),CONCATENATE(D15-B15," days change from the Original Baseline; ",D15-C15," days change from the rebaseline"))))))</f>
         <v>Please add Original Baseline and/or Forecast date if either is missing</v>
       </c>
-      <c r="H14" s="221"/>
-      <c r="I14" s="221"/>
-      <c r="J14" s="221"/>
+      <c r="H14" s="223"/>
+      <c r="I14" s="223"/>
+      <c r="J14" s="223"/>
     </row>
     <row r="15" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="218" t="s">
-        <v>289</v>
-      </c>
-      <c r="B15" s="219"/>
-      <c r="C15" s="219"/>
-      <c r="D15" s="219"/>
-      <c r="E15" s="220"/>
-      <c r="F15" s="195"/>
-      <c r="G15" s="221" t="str">
+      <c r="A15" s="220" t="s">
+        <v>291</v>
+      </c>
+      <c r="B15" s="221"/>
+      <c r="C15" s="221"/>
+      <c r="D15" s="221"/>
+      <c r="E15" s="222"/>
+      <c r="F15" s="197"/>
+      <c r="G15" s="223" t="str">
         <f aca="false">IF(OR(B16="",D16=""),"Please add Original Baseline and/or Forecast date if either is missing",IF(B16=C16,"Please delete Rebaseline as same as Original Baseline",IF(D16=B16,"",IF(AND(D16&lt;&gt;B16,G148=""),CONCATENATE(D16-B16," / ",IF(C16&lt;&gt;"",D16-C16,"-")," days change from the Original Baseline / Rebaseline - please provide reason if considered significant change. If Rebaselined, please provide reason"),IF(C16="",CONCATENATE(D16-B16," days change from the Original Baseline"),CONCATENATE(D16-B16," days change from the Original Baseline; ",D16-C16," days change from the rebaseline"))))))</f>
         <v>Please add Original Baseline and/or Forecast date if either is missing</v>
       </c>
-      <c r="H15" s="221"/>
-      <c r="I15" s="221"/>
-      <c r="J15" s="221"/>
+      <c r="H15" s="223"/>
+      <c r="I15" s="223"/>
+      <c r="J15" s="223"/>
     </row>
     <row r="16" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="212" t="s">
-        <v>290</v>
-      </c>
-      <c r="B16" s="219"/>
-      <c r="C16" s="219"/>
-      <c r="D16" s="219"/>
-      <c r="E16" s="220"/>
-      <c r="F16" s="195"/>
-      <c r="G16" s="221" t="str">
+      <c r="A16" s="214" t="s">
+        <v>292</v>
+      </c>
+      <c r="B16" s="221"/>
+      <c r="C16" s="221"/>
+      <c r="D16" s="221"/>
+      <c r="E16" s="222"/>
+      <c r="F16" s="197"/>
+      <c r="G16" s="223" t="str">
         <f aca="false">IF(OR(B17="",D17=""),"Please add Original Baseline and/or Forecast date if either is missing",IF(B17=C17,"Please delete Rebaseline as same as Original Baseline",IF(D17=B17,"",IF(AND(D17&lt;&gt;B17,G149=""),CONCATENATE(D17-B17," / ",IF(C17&lt;&gt;"",D17-C17,"-")," days change from the Original Baseline / Rebaseline - please provide reason if considered significant change. If Rebaselined, please provide reason"),IF(C17="",CONCATENATE(D17-B17," days change from the Original Baseline"),CONCATENATE(D17-B17," days change from the Original Baseline; ",D17-C17," days change from the rebaseline"))))))</f>
         <v>Please add Original Baseline and/or Forecast date if either is missing</v>
       </c>
-      <c r="H16" s="221"/>
-      <c r="I16" s="221"/>
-      <c r="J16" s="221"/>
+      <c r="H16" s="223"/>
+      <c r="I16" s="223"/>
+      <c r="J16" s="223"/>
     </row>
     <row r="17" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="212" t="s">
-        <v>291</v>
-      </c>
-      <c r="B17" s="219"/>
-      <c r="C17" s="219"/>
-      <c r="D17" s="219"/>
-      <c r="E17" s="220"/>
-      <c r="F17" s="195"/>
-      <c r="G17" s="221" t="str">
+      <c r="A17" s="214" t="s">
+        <v>293</v>
+      </c>
+      <c r="B17" s="221"/>
+      <c r="C17" s="221"/>
+      <c r="D17" s="221"/>
+      <c r="E17" s="222"/>
+      <c r="F17" s="197"/>
+      <c r="G17" s="223" t="str">
         <f aca="false">IF(OR(B18="",D18=""),"Please add Original Baseline and/or Forecast date if either is missing",IF(B18=C18,"Please delete Rebaseline as same as Original Baseline",IF(D18=B18,"",IF(AND(D18&lt;&gt;B18,G150=""),CONCATENATE(D18-B18," / ",IF(C18&lt;&gt;"",D18-C18,"-")," days change from the Original Baseline / Rebaseline - please provide reason if considered significant change. If Rebaselined, please provide reason"),IF(C18="",CONCATENATE(D18-B18," days change from the Original Baseline"),CONCATENATE(D18-B18," days change from the Original Baseline; ",D18-C18," days change from the rebaseline"))))))</f>
         <v>Please add Original Baseline and/or Forecast date if either is missing</v>
       </c>
-      <c r="H17" s="221"/>
-      <c r="I17" s="221"/>
-      <c r="J17" s="221"/>
+      <c r="H17" s="223"/>
+      <c r="I17" s="223"/>
+      <c r="J17" s="223"/>
     </row>
     <row r="18" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="212" t="s">
-        <v>292</v>
-      </c>
-      <c r="B18" s="219"/>
-      <c r="C18" s="219"/>
-      <c r="D18" s="219"/>
-      <c r="E18" s="220"/>
-      <c r="F18" s="195"/>
-      <c r="G18" s="221" t="str">
+      <c r="A18" s="214" t="s">
+        <v>294</v>
+      </c>
+      <c r="B18" s="221"/>
+      <c r="C18" s="221"/>
+      <c r="D18" s="221"/>
+      <c r="E18" s="222"/>
+      <c r="F18" s="197"/>
+      <c r="G18" s="223" t="str">
         <f aca="false">IF(OR(B19="",D19=""),"Please add Original Baseline and/or Forecast date if either is missing",IF(B19=C19,"Please delete Rebaseline as same as Original Baseline",IF(D19=B19,"",IF(AND(D19&lt;&gt;B19,G151=""),CONCATENATE(D19-B19," / ",IF(C19&lt;&gt;"",D19-C19,"-")," days change from the Original Baseline / Rebaseline - please provide reason if considered significant change. If Rebaselined, please provide reason"),IF(C19="",CONCATENATE(D19-B19," days change from the Original Baseline"),CONCATENATE(D19-B19," days change from the Original Baseline; ",D19-C19," days change from the rebaseline"))))))</f>
         <v>Please add Original Baseline and/or Forecast date if either is missing</v>
       </c>
-      <c r="H18" s="221"/>
-      <c r="I18" s="221"/>
-      <c r="J18" s="221"/>
+      <c r="H18" s="223"/>
+      <c r="I18" s="223"/>
+      <c r="J18" s="223"/>
     </row>
     <row r="19" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="212" t="s">
-        <v>293</v>
-      </c>
-      <c r="B19" s="219"/>
-      <c r="C19" s="219"/>
-      <c r="D19" s="219"/>
-      <c r="E19" s="220"/>
-      <c r="F19" s="195"/>
-      <c r="G19" s="221" t="str">
+      <c r="A19" s="214" t="s">
+        <v>295</v>
+      </c>
+      <c r="B19" s="221"/>
+      <c r="C19" s="221"/>
+      <c r="D19" s="221"/>
+      <c r="E19" s="222"/>
+      <c r="F19" s="197"/>
+      <c r="G19" s="223" t="str">
         <f aca="false">IF(OR(B20="",D20=""),"Please add Original Baseline and/or Forecast date if either is missing",IF(B20=C20,"Please delete Rebaseline as same as Original Baseline",IF(D20=B20,"",IF(AND(D20&lt;&gt;B20,G152=""),CONCATENATE(D20-B20," / ",IF(C20&lt;&gt;"",D20-C20,"-")," days change from the Original Baseline / Rebaseline - please provide reason if considered significant change. If Rebaselined, please provide reason"),IF(C20="",CONCATENATE(D20-B20," days change from the Original Baseline"),CONCATENATE(D20-B20," days change from the Original Baseline; ",D20-C20," days change from the rebaseline"))))))</f>
         <v>Please add Original Baseline and/or Forecast date if either is missing</v>
       </c>
-      <c r="H19" s="221"/>
-      <c r="I19" s="221"/>
-      <c r="J19" s="221"/>
+      <c r="H19" s="223"/>
+      <c r="I19" s="223"/>
+      <c r="J19" s="223"/>
     </row>
     <row r="20" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="212" t="s">
-        <v>294</v>
-      </c>
-      <c r="B20" s="219"/>
-      <c r="C20" s="219"/>
-      <c r="D20" s="219"/>
-      <c r="E20" s="220"/>
-      <c r="F20" s="195"/>
-      <c r="G20" s="221" t="str">
+      <c r="A20" s="214" t="s">
+        <v>296</v>
+      </c>
+      <c r="B20" s="221"/>
+      <c r="C20" s="221"/>
+      <c r="D20" s="221"/>
+      <c r="E20" s="222"/>
+      <c r="F20" s="197"/>
+      <c r="G20" s="223" t="str">
         <f aca="false">IF(OR(B21="",D21=""),"Please add Original Baseline and/or Forecast date if either is missing",IF(B21=C21,"Please delete Rebaseline as same as Original Baseline",IF(D21=B21,"",IF(AND(D21&lt;&gt;B21,G153=""),CONCATENATE(D21-B21," / ",IF(C21&lt;&gt;"",D21-C21,"-")," days change from the Original Baseline / Rebaseline - please provide reason if considered significant change. If Rebaselined, please provide reason"),IF(C21="",CONCATENATE(D21-B21," days change from the Original Baseline"),CONCATENATE(D21-B21," days change from the Original Baseline; ",D21-C21," days change from the rebaseline"))))))</f>
         <v>Please add Original Baseline and/or Forecast date if either is missing</v>
       </c>
-      <c r="H20" s="221"/>
-      <c r="I20" s="221"/>
-      <c r="J20" s="221"/>
+      <c r="H20" s="223"/>
+      <c r="I20" s="223"/>
+      <c r="J20" s="223"/>
     </row>
     <row r="21" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="212" t="s">
-        <v>295</v>
-      </c>
-      <c r="B21" s="219"/>
-      <c r="C21" s="219"/>
-      <c r="D21" s="219"/>
-      <c r="E21" s="220"/>
-      <c r="F21" s="195"/>
-      <c r="G21" s="221" t="str">
+      <c r="A21" s="214" t="s">
+        <v>297</v>
+      </c>
+      <c r="B21" s="221"/>
+      <c r="C21" s="221"/>
+      <c r="D21" s="221"/>
+      <c r="E21" s="222"/>
+      <c r="F21" s="197"/>
+      <c r="G21" s="223" t="str">
         <f aca="false">IF(OR(B22="",D22=""),"Please add Original Baseline and/or Forecast date if either is missing",IF(B22=C22,"Please delete Rebaseline as same as Original Baseline",IF(D22=B22,"",IF(AND(D22&lt;&gt;B22,G154=""),CONCATENATE(D22-B22," / ",IF(C22&lt;&gt;"",D22-C22,"-")," days change from the Original Baseline / Rebaseline - please provide reason if considered significant change. If Rebaselined, please provide reason"),IF(C22="",CONCATENATE(D22-B22," days change from the Original Baseline"),CONCATENATE(D22-B22," days change from the Original Baseline; ",D22-C22," days change from the rebaseline"))))))</f>
         <v>Please add Original Baseline and/or Forecast date if either is missing</v>
       </c>
-      <c r="H21" s="221"/>
-      <c r="I21" s="221"/>
-      <c r="J21" s="221"/>
+      <c r="H21" s="223"/>
+      <c r="I21" s="223"/>
+      <c r="J21" s="223"/>
     </row>
     <row r="22" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="212" t="s">
-        <v>296</v>
-      </c>
-      <c r="B22" s="219"/>
-      <c r="C22" s="219"/>
-      <c r="D22" s="219"/>
-      <c r="E22" s="220"/>
-      <c r="F22" s="195"/>
-      <c r="G22" s="221" t="str">
+      <c r="A22" s="214" t="s">
+        <v>298</v>
+      </c>
+      <c r="B22" s="221"/>
+      <c r="C22" s="221"/>
+      <c r="D22" s="221"/>
+      <c r="E22" s="222"/>
+      <c r="F22" s="197"/>
+      <c r="G22" s="223" t="str">
         <f aca="false">IF(OR(B23="",D23=""),"Please add Original Baseline and/or Forecast date if either is missing",IF(B23=C23,"Please delete Rebaseline as same as Original Baseline",IF(D23=B23,"",IF(AND(D23&lt;&gt;B23,G155=""),CONCATENATE(D23-B23," / ",IF(C23&lt;&gt;"",D23-C23,"-")," days change from the Original Baseline / Rebaseline - please provide reason if considered significant change. If Rebaselined, please provide reason"),IF(C23="",CONCATENATE(D23-B23," days change from the Original Baseline"),CONCATENATE(D23-B23," days change from the Original Baseline; ",D23-C23," days change from the rebaseline"))))))</f>
         <v>Please add Original Baseline and/or Forecast date if either is missing</v>
       </c>
-      <c r="H22" s="221"/>
-      <c r="I22" s="221"/>
-      <c r="J22" s="221"/>
+      <c r="H22" s="223"/>
+      <c r="I22" s="223"/>
+      <c r="J22" s="223"/>
     </row>
     <row r="23" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="212" t="s">
-        <v>297</v>
-      </c>
-      <c r="B23" s="219"/>
-      <c r="C23" s="219"/>
-      <c r="D23" s="219"/>
-      <c r="E23" s="220"/>
-      <c r="F23" s="195"/>
-      <c r="G23" s="221" t="str">
+      <c r="A23" s="214" t="s">
+        <v>299</v>
+      </c>
+      <c r="B23" s="221"/>
+      <c r="C23" s="221"/>
+      <c r="D23" s="221"/>
+      <c r="E23" s="222"/>
+      <c r="F23" s="197"/>
+      <c r="G23" s="223" t="str">
         <f aca="false">IF(OR(B24="",D24=""),"Please add Original Baseline and/or Forecast date if either is missing",IF(B24=C24,"Please delete Rebaseline as same as Original Baseline",IF(D24=B24,"",IF(AND(D24&lt;&gt;B24,G156=""),CONCATENATE(D24-B24," / ",IF(C24&lt;&gt;"",D24-C24,"-")," days change from the Original Baseline / Rebaseline - please provide reason if considered significant change. If Rebaselined, please provide reason"),IF(C24="",CONCATENATE(D24-B24," days change from the Original Baseline"),CONCATENATE(D24-B24," days change from the Original Baseline; ",D24-C24," days change from the rebaseline"))))))</f>
         <v>Please add Original Baseline and/or Forecast date if either is missing</v>
       </c>
-      <c r="H23" s="221"/>
-      <c r="I23" s="221"/>
-      <c r="J23" s="221"/>
+      <c r="H23" s="223"/>
+      <c r="I23" s="223"/>
+      <c r="J23" s="223"/>
     </row>
     <row r="24" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="212" t="s">
-        <v>298</v>
-      </c>
-      <c r="B24" s="219"/>
-      <c r="C24" s="219"/>
-      <c r="D24" s="219"/>
-      <c r="E24" s="220"/>
-      <c r="F24" s="195"/>
-      <c r="G24" s="221" t="str">
+      <c r="A24" s="214" t="s">
+        <v>300</v>
+      </c>
+      <c r="B24" s="221"/>
+      <c r="C24" s="221"/>
+      <c r="D24" s="221"/>
+      <c r="E24" s="222"/>
+      <c r="F24" s="197"/>
+      <c r="G24" s="223" t="str">
         <f aca="false">IF(OR(B25="",D25=""),"Please add Original Baseline and/or Forecast date if either is missing",IF(B25=C25,"Please delete Rebaseline as same as Original Baseline",IF(D25=B25,"",IF(AND(D25&lt;&gt;B25,G157=""),CONCATENATE(D25-B25," / ",IF(C25&lt;&gt;"",D25-C25,"-")," days change from the Original Baseline / Rebaseline - please provide reason if considered significant change. If Rebaselined, please provide reason"),IF(C25="",CONCATENATE(D25-B25," days change from the Original Baseline"),CONCATENATE(D25-B25," days change from the Original Baseline; ",D25-C25," days change from the rebaseline"))))))</f>
         <v>Please add Original Baseline and/or Forecast date if either is missing</v>
       </c>
-      <c r="H24" s="221"/>
-      <c r="I24" s="221"/>
-      <c r="J24" s="221"/>
+      <c r="H24" s="223"/>
+      <c r="I24" s="223"/>
+      <c r="J24" s="223"/>
     </row>
     <row r="25" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="212" t="s">
-        <v>299</v>
-      </c>
-      <c r="B25" s="219"/>
-      <c r="C25" s="219"/>
-      <c r="D25" s="219"/>
-      <c r="E25" s="220"/>
-      <c r="F25" s="195"/>
-      <c r="G25" s="221" t="str">
+      <c r="A25" s="214" t="s">
+        <v>301</v>
+      </c>
+      <c r="B25" s="221"/>
+      <c r="C25" s="221"/>
+      <c r="D25" s="221"/>
+      <c r="E25" s="222"/>
+      <c r="F25" s="197"/>
+      <c r="G25" s="223" t="str">
         <f aca="false">IF(OR(B26="",D26=""),"Please add Original Baseline and/or Forecast date if either is missing",IF(B26=C26,"Please delete Rebaseline as same as Original Baseline",IF(D26=B26,"",IF(AND(D26&lt;&gt;B26,G158=""),CONCATENATE(D26-B26," / ",IF(C26&lt;&gt;"",D26-C26,"-")," days change from the Original Baseline / Rebaseline - please provide reason if considered significant change. If Rebaselined, please provide reason"),IF(C26="",CONCATENATE(D26-B26," days change from the Original Baseline"),CONCATENATE(D26-B26," days change from the Original Baseline; ",D26-C26," days change from the rebaseline"))))))</f>
         <v>Please add Original Baseline and/or Forecast date if either is missing</v>
       </c>
-      <c r="H25" s="221"/>
-      <c r="I25" s="221"/>
-      <c r="J25" s="221"/>
+      <c r="H25" s="223"/>
+      <c r="I25" s="223"/>
+      <c r="J25" s="223"/>
     </row>
     <row r="27" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="222" t="s">
-        <v>300</v>
-      </c>
-      <c r="B27" s="222"/>
-      <c r="C27" s="222"/>
+      <c r="A27" s="224" t="s">
+        <v>302</v>
+      </c>
+      <c r="B27" s="224"/>
+      <c r="C27" s="224"/>
     </row>
     <row r="28" customFormat="false" ht="47.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="223" t="s">
-        <v>301</v>
-      </c>
-      <c r="B28" s="223"/>
-      <c r="C28" s="223"/>
-      <c r="D28" s="223"/>
-      <c r="E28" s="223"/>
-      <c r="F28" s="223"/>
+      <c r="A28" s="225" t="s">
+        <v>303</v>
+      </c>
+      <c r="B28" s="225"/>
+      <c r="C28" s="225"/>
+      <c r="D28" s="225"/>
+      <c r="E28" s="225"/>
+      <c r="F28" s="225"/>
     </row>
     <row r="30" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B30" s="224" t="s">
-        <v>302</v>
-      </c>
-      <c r="C30" s="224"/>
-      <c r="D30" s="195"/>
-      <c r="E30" s="195"/>
-      <c r="F30" s="195"/>
+      <c r="B30" s="226" t="s">
+        <v>304</v>
+      </c>
+      <c r="C30" s="226"/>
+      <c r="D30" s="197"/>
+      <c r="E30" s="197"/>
+      <c r="F30" s="197"/>
     </row>
     <row r="31" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="178" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B31" s="178" t="s">
-        <v>304</v>
-      </c>
-      <c r="C31" s="220"/>
-      <c r="D31" s="195"/>
-      <c r="E31" s="195"/>
-      <c r="F31" s="195"/>
+        <v>306</v>
+      </c>
+      <c r="C31" s="222"/>
+      <c r="D31" s="197"/>
+      <c r="E31" s="197"/>
+      <c r="F31" s="197"/>
     </row>
     <row r="32" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="178"/>
       <c r="B32" s="178" t="s">
-        <v>305</v>
-      </c>
-      <c r="C32" s="220"/>
-      <c r="D32" s="195"/>
-      <c r="E32" s="195"/>
-      <c r="F32" s="195"/>
+        <v>307</v>
+      </c>
+      <c r="C32" s="222"/>
+      <c r="D32" s="197"/>
+      <c r="E32" s="197"/>
+      <c r="F32" s="197"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D33" s="225"/>
-      <c r="E33" s="226"/>
-      <c r="F33" s="227"/>
+      <c r="D33" s="227"/>
+      <c r="E33" s="228"/>
+      <c r="F33" s="229"/>
     </row>
     <row r="34" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="223" t="s">
-        <v>306</v>
-      </c>
-      <c r="B34" s="223"/>
-      <c r="C34" s="223"/>
-      <c r="D34" s="223"/>
-      <c r="E34" s="223"/>
-      <c r="F34" s="223"/>
+      <c r="A34" s="225" t="s">
+        <v>308</v>
+      </c>
+      <c r="B34" s="225"/>
+      <c r="C34" s="225"/>
+      <c r="D34" s="225"/>
+      <c r="E34" s="225"/>
+      <c r="F34" s="225"/>
     </row>
     <row r="35" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B35" s="178" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C35" s="178"/>
-      <c r="D35" s="228"/>
-      <c r="E35" s="228"/>
-      <c r="F35" s="228"/>
+      <c r="D35" s="230"/>
+      <c r="E35" s="230"/>
+      <c r="F35" s="230"/>
     </row>
     <row r="36" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="178" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B36" s="178" t="s">
-        <v>304</v>
-      </c>
-      <c r="C36" s="220"/>
-      <c r="D36" s="228"/>
-      <c r="E36" s="228"/>
-      <c r="F36" s="228"/>
+        <v>306</v>
+      </c>
+      <c r="C36" s="222"/>
+      <c r="D36" s="230"/>
+      <c r="E36" s="230"/>
+      <c r="F36" s="230"/>
     </row>
     <row r="37" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="178"/>
       <c r="B37" s="178" t="s">
-        <v>305</v>
-      </c>
-      <c r="C37" s="220"/>
-      <c r="D37" s="228"/>
-      <c r="E37" s="228"/>
-      <c r="F37" s="228"/>
+        <v>307</v>
+      </c>
+      <c r="C37" s="222"/>
+      <c r="D37" s="230"/>
+      <c r="E37" s="230"/>
+      <c r="F37" s="230"/>
     </row>
     <row r="38" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
@@ -12057,2187 +12076,2187 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="229" width="9.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="229" width="10.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="229" width="9.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="229" width="9.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="229" width="14.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="229" width="9.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="229" width="13.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="229" width="14.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="229" width="13.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="229" width="10.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="13" style="229" width="14.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="229" width="10.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="16" style="229" width="18.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="18" style="229" width="6.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="229" width="10.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="229" width="9.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="229" width="7.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="229" width="9.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="229" width="11.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="230" width="9.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="230" width="6.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="229" width="12.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="229" width="20.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="229" width="6.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="229" width="9.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="229" width="18.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="229" width="6.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="231" width="6.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="231" width="9.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="231" width="9.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="231" width="10.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="231" width="9.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="231" width="9.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="231" width="14.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="231" width="9.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="231" width="13.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="231" width="14.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="231" width="13.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="231" width="10.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="13" style="231" width="14.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="231" width="10.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="16" style="231" width="18.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="18" style="231" width="6.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="231" width="10.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="231" width="9.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="231" width="7.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="231" width="9.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="231" width="11.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="232" width="9.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="232" width="6.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="231" width="12.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="231" width="20.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="231" width="6.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="231" width="9.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="231" width="18.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="231" width="6.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="233" width="6.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="233" width="9.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="0" width="6.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="231" width="9.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="37" style="231" width="6.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="231" width="14.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="44" style="229" width="6.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="233" width="9.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="37" style="233" width="6.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="233" width="14.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="44" style="231" width="6.88"/>
   </cols>
   <sheetData>
-    <row r="1" s="232" customFormat="true" ht="97" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="232" t="s">
-        <v>307</v>
-      </c>
-      <c r="B1" s="232" t="s">
-        <v>308</v>
-      </c>
-      <c r="C1" s="232" t="s">
+    <row r="1" s="234" customFormat="true" ht="97" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="234" t="s">
         <v>309</v>
       </c>
-      <c r="D1" s="232" t="s">
+      <c r="B1" s="234" t="s">
         <v>310</v>
       </c>
-      <c r="E1" s="232" t="s">
+      <c r="C1" s="234" t="s">
         <v>311</v>
       </c>
-      <c r="F1" s="232" t="s">
+      <c r="D1" s="234" t="s">
         <v>312</v>
       </c>
-      <c r="G1" s="232" t="s">
+      <c r="E1" s="234" t="s">
         <v>313</v>
       </c>
-      <c r="H1" s="232" t="s">
+      <c r="F1" s="234" t="s">
         <v>314</v>
       </c>
-      <c r="I1" s="232" t="s">
+      <c r="G1" s="234" t="s">
         <v>315</v>
       </c>
-      <c r="J1" s="232" t="s">
+      <c r="H1" s="234" t="s">
         <v>316</v>
       </c>
-      <c r="K1" s="232" t="s">
+      <c r="I1" s="234" t="s">
         <v>317</v>
       </c>
-      <c r="L1" s="232" t="s">
+      <c r="J1" s="234" t="s">
         <v>318</v>
       </c>
-      <c r="M1" s="232" t="s">
+      <c r="K1" s="234" t="s">
         <v>319</v>
       </c>
-      <c r="N1" s="232" t="s">
+      <c r="L1" s="234" t="s">
         <v>320</v>
       </c>
-      <c r="O1" s="232" t="s">
+      <c r="M1" s="234" t="s">
         <v>321</v>
       </c>
-      <c r="P1" s="232" t="s">
+      <c r="N1" s="234" t="s">
         <v>322</v>
       </c>
-      <c r="Q1" s="232" t="s">
+      <c r="O1" s="234" t="s">
         <v>323</v>
       </c>
-      <c r="R1" s="232" t="s">
+      <c r="P1" s="234" t="s">
         <v>324</v>
       </c>
-      <c r="S1" s="232" t="s">
+      <c r="Q1" s="234" t="s">
         <v>325</v>
       </c>
-      <c r="T1" s="232" t="s">
+      <c r="R1" s="234" t="s">
         <v>326</v>
       </c>
-      <c r="U1" s="232" t="s">
+      <c r="S1" s="234" t="s">
         <v>327</v>
       </c>
-      <c r="V1" s="232" t="s">
+      <c r="T1" s="234" t="s">
+        <v>328</v>
+      </c>
+      <c r="U1" s="234" t="s">
+        <v>329</v>
+      </c>
+      <c r="V1" s="234" t="s">
         <v>109</v>
       </c>
-      <c r="W1" s="232" t="s">
-        <v>328</v>
-      </c>
-      <c r="X1" s="232" t="s">
-        <v>329</v>
-      </c>
-      <c r="Y1" s="232" t="s">
+      <c r="W1" s="234" t="s">
         <v>330</v>
       </c>
-      <c r="Z1" s="232" t="s">
+      <c r="X1" s="234" t="s">
         <v>331</v>
       </c>
-      <c r="AA1" s="232" t="s">
+      <c r="Y1" s="234" t="s">
         <v>332</v>
       </c>
-      <c r="AB1" s="232" t="s">
+      <c r="Z1" s="234" t="s">
         <v>333</v>
       </c>
-      <c r="AC1" s="232" t="s">
+      <c r="AA1" s="234" t="s">
         <v>334</v>
       </c>
-      <c r="AD1" s="232" t="s">
+      <c r="AB1" s="234" t="s">
         <v>335</v>
       </c>
-      <c r="AE1" s="232" t="s">
+      <c r="AC1" s="234" t="s">
         <v>336</v>
       </c>
-      <c r="AF1" s="232" t="s">
+      <c r="AD1" s="234" t="s">
         <v>337</v>
       </c>
-      <c r="AG1" s="233" t="s">
+      <c r="AE1" s="234" t="s">
         <v>338</v>
       </c>
-      <c r="AH1" s="234" t="s">
+      <c r="AF1" s="234" t="s">
+        <v>339</v>
+      </c>
+      <c r="AG1" s="235" t="s">
+        <v>340</v>
+      </c>
+      <c r="AH1" s="236" t="s">
         <v>12</v>
       </c>
-      <c r="AI1" s="233" t="s">
+      <c r="AI1" s="235" t="s">
         <v>15</v>
       </c>
-      <c r="AJ1" s="233" t="s">
-        <v>339</v>
-      </c>
-      <c r="AK1" s="234" t="s">
-        <v>340</v>
-      </c>
-      <c r="AL1" s="233" t="s">
+      <c r="AJ1" s="235" t="s">
         <v>341</v>
       </c>
-      <c r="AM1" s="233" t="s">
+      <c r="AK1" s="236" t="s">
         <v>342</v>
       </c>
-      <c r="AN1" s="233" t="s">
+      <c r="AL1" s="235" t="s">
         <v>343</v>
       </c>
-      <c r="AO1" s="233" t="s">
+      <c r="AM1" s="235" t="s">
         <v>344</v>
       </c>
-      <c r="AP1" s="233" t="s">
+      <c r="AN1" s="235" t="s">
         <v>345</v>
       </c>
-      <c r="AQ1" s="233" t="s">
+      <c r="AO1" s="235" t="s">
         <v>346</v>
       </c>
-      <c r="AR1" s="235" t="s">
+      <c r="AP1" s="235" t="s">
         <v>347</v>
       </c>
+      <c r="AQ1" s="235" t="s">
+        <v>348</v>
+      </c>
+      <c r="AR1" s="237" t="s">
+        <v>349</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="57" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="229" t="s">
-        <v>348</v>
-      </c>
-      <c r="B2" s="229" t="s">
-        <v>349</v>
-      </c>
-      <c r="C2" s="229" t="s">
+      <c r="A2" s="231" t="s">
         <v>350</v>
       </c>
-      <c r="D2" s="229" t="s">
+      <c r="B2" s="231" t="s">
+        <v>351</v>
+      </c>
+      <c r="C2" s="231" t="s">
+        <v>352</v>
+      </c>
+      <c r="D2" s="231" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="229" t="s">
+      <c r="E2" s="231" t="s">
         <v>55</v>
       </c>
-      <c r="F2" s="229" t="s">
-        <v>351</v>
-      </c>
-      <c r="G2" s="229" t="s">
-        <v>352</v>
-      </c>
-      <c r="H2" s="229" t="s">
+      <c r="F2" s="231" t="s">
         <v>353</v>
       </c>
-      <c r="I2" s="229" t="s">
+      <c r="G2" s="231" t="s">
+        <v>354</v>
+      </c>
+      <c r="H2" s="231" t="s">
+        <v>355</v>
+      </c>
+      <c r="I2" s="231" t="s">
         <v>212</v>
       </c>
-      <c r="J2" s="229" t="s">
+      <c r="J2" s="231" t="s">
         <v>212</v>
       </c>
-      <c r="K2" s="229" t="s">
+      <c r="K2" s="231" t="s">
+        <v>356</v>
+      </c>
+      <c r="L2" s="231" t="s">
+        <v>212</v>
+      </c>
+      <c r="M2" s="231" t="s">
+        <v>357</v>
+      </c>
+      <c r="N2" s="231" t="s">
+        <v>358</v>
+      </c>
+      <c r="O2" s="231" t="s">
+        <v>359</v>
+      </c>
+      <c r="P2" s="231" t="s">
+        <v>360</v>
+      </c>
+      <c r="Q2" s="231" t="s">
+        <v>50</v>
+      </c>
+      <c r="R2" s="231" t="s">
+        <v>82</v>
+      </c>
+      <c r="S2" s="231" t="n">
+        <v>1995</v>
+      </c>
+      <c r="T2" s="238" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="U2" s="231" t="s">
+        <v>361</v>
+      </c>
+      <c r="V2" s="231" t="s">
+        <v>362</v>
+      </c>
+      <c r="W2" s="239" t="s">
+        <v>363</v>
+      </c>
+      <c r="X2" s="239" t="s">
+        <v>364</v>
+      </c>
+      <c r="Y2" s="240" t="n">
+        <v>42551</v>
+      </c>
+      <c r="Z2" s="241" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AA2" s="231" t="s">
+        <v>365</v>
+      </c>
+      <c r="AB2" s="231" t="s">
+        <v>359</v>
+      </c>
+      <c r="AC2" s="231" t="s">
+        <v>366</v>
+      </c>
+      <c r="AD2" s="231" t="s">
+        <v>359</v>
+      </c>
+      <c r="AE2" s="242" t="n">
+        <v>42460</v>
+      </c>
+      <c r="AF2" s="243" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG2" s="233" t="s">
+        <v>367</v>
+      </c>
+      <c r="AH2" s="244" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI2" s="233" t="s">
+        <v>368</v>
+      </c>
+      <c r="AJ2" s="233" t="s">
+        <v>369</v>
+      </c>
+      <c r="AK2" s="233" t="s">
+        <v>368</v>
+      </c>
+      <c r="AL2" s="233" t="s">
+        <v>370</v>
+      </c>
+      <c r="AM2" s="233" t="s">
+        <v>371</v>
+      </c>
+      <c r="AN2" s="233" t="s">
+        <v>372</v>
+      </c>
+      <c r="AO2" s="233" t="s">
+        <v>373</v>
+      </c>
+      <c r="AQ2" s="233" t="s">
+        <v>365</v>
+      </c>
+      <c r="AR2" s="244" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="231" t="s">
+        <v>375</v>
+      </c>
+      <c r="B3" s="245" t="s">
+        <v>376</v>
+      </c>
+      <c r="C3" s="231" t="s">
+        <v>377</v>
+      </c>
+      <c r="D3" s="231" t="s">
+        <v>378</v>
+      </c>
+      <c r="E3" s="231" t="s">
+        <v>379</v>
+      </c>
+      <c r="F3" s="231" t="s">
+        <v>205</v>
+      </c>
+      <c r="G3" s="231" t="s">
+        <v>380</v>
+      </c>
+      <c r="H3" s="231" t="s">
+        <v>381</v>
+      </c>
+      <c r="I3" s="231" t="s">
+        <v>382</v>
+      </c>
+      <c r="J3" s="231" t="s">
+        <v>209</v>
+      </c>
+      <c r="K3" s="231" t="s">
+        <v>383</v>
+      </c>
+      <c r="L3" s="231" t="s">
+        <v>209</v>
+      </c>
+      <c r="M3" s="231" t="s">
+        <v>384</v>
+      </c>
+      <c r="N3" s="231" t="s">
+        <v>385</v>
+      </c>
+      <c r="O3" s="231" t="s">
+        <v>386</v>
+      </c>
+      <c r="P3" s="231" t="s">
+        <v>387</v>
+      </c>
+      <c r="Q3" s="231" t="s">
+        <v>388</v>
+      </c>
+      <c r="R3" s="231" t="s">
+        <v>389</v>
+      </c>
+      <c r="S3" s="231" t="n">
+        <v>1996</v>
+      </c>
+      <c r="T3" s="238" t="n">
+        <v>0.021</v>
+      </c>
+      <c r="U3" s="231" t="s">
+        <v>390</v>
+      </c>
+      <c r="V3" s="231" t="s">
         <v>354</v>
       </c>
-      <c r="L2" s="229" t="s">
-        <v>212</v>
-      </c>
-      <c r="M2" s="229" t="s">
-        <v>355</v>
-      </c>
-      <c r="N2" s="229" t="s">
+      <c r="W3" s="239" t="s">
+        <v>391</v>
+      </c>
+      <c r="X3" s="239" t="s">
+        <v>392</v>
+      </c>
+      <c r="Y3" s="240" t="n">
+        <v>42643</v>
+      </c>
+      <c r="Z3" s="241" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AA3" s="231" t="s">
+        <v>393</v>
+      </c>
+      <c r="AB3" s="231" t="s">
+        <v>386</v>
+      </c>
+      <c r="AC3" s="231" t="s">
+        <v>394</v>
+      </c>
+      <c r="AD3" s="231" t="s">
+        <v>386</v>
+      </c>
+      <c r="AE3" s="246" t="n">
+        <v>42461</v>
+      </c>
+      <c r="AF3" s="247" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG3" s="233" t="s">
+        <v>395</v>
+      </c>
+      <c r="AH3" s="244" t="s">
+        <v>343</v>
+      </c>
+      <c r="AI3" s="233" t="s">
+        <v>396</v>
+      </c>
+      <c r="AJ3" s="233" t="s">
+        <v>397</v>
+      </c>
+      <c r="AK3" s="233" t="s">
+        <v>396</v>
+      </c>
+      <c r="AL3" s="233" t="s">
+        <v>398</v>
+      </c>
+      <c r="AM3" s="233" t="s">
+        <v>399</v>
+      </c>
+      <c r="AN3" s="233" t="s">
+        <v>400</v>
+      </c>
+      <c r="AQ3" s="233" t="s">
+        <v>393</v>
+      </c>
+      <c r="AR3" s="244" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="64.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="231" t="s">
+        <v>402</v>
+      </c>
+      <c r="B4" s="245" t="s">
+        <v>403</v>
+      </c>
+      <c r="C4" s="231" t="s">
+        <v>404</v>
+      </c>
+      <c r="D4" s="231" t="s">
+        <v>337</v>
+      </c>
+      <c r="E4" s="231" t="s">
+        <v>405</v>
+      </c>
+      <c r="F4" s="248" t="s">
+        <v>406</v>
+      </c>
+      <c r="G4" s="231" t="s">
+        <v>407</v>
+      </c>
+      <c r="H4" s="231" t="s">
+        <v>215</v>
+      </c>
+      <c r="I4" s="231" t="s">
+        <v>209</v>
+      </c>
+      <c r="J4" s="231" t="s">
+        <v>206</v>
+      </c>
+      <c r="K4" s="231" t="s">
+        <v>408</v>
+      </c>
+      <c r="L4" s="231" t="s">
+        <v>206</v>
+      </c>
+      <c r="M4" s="231" t="s">
+        <v>409</v>
+      </c>
+      <c r="N4" s="231" t="s">
+        <v>410</v>
+      </c>
+      <c r="O4" s="231" t="s">
+        <v>411</v>
+      </c>
+      <c r="P4" s="231" t="s">
+        <v>412</v>
+      </c>
+      <c r="Q4" s="231" t="s">
+        <v>413</v>
+      </c>
+      <c r="S4" s="231" t="n">
+        <v>1997</v>
+      </c>
+      <c r="T4" s="238" t="n">
+        <v>0.022</v>
+      </c>
+      <c r="U4" s="231" t="s">
+        <v>414</v>
+      </c>
+      <c r="V4" s="231" t="s">
+        <v>415</v>
+      </c>
+      <c r="W4" s="239" t="s">
+        <v>416</v>
+      </c>
+      <c r="X4" s="239" t="s">
+        <v>416</v>
+      </c>
+      <c r="Y4" s="240" t="n">
+        <v>42735</v>
+      </c>
+      <c r="Z4" s="241" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="AA4" s="231" t="s">
+        <v>417</v>
+      </c>
+      <c r="AB4" s="231" t="s">
+        <v>411</v>
+      </c>
+      <c r="AC4" s="231" t="s">
+        <v>418</v>
+      </c>
+      <c r="AD4" s="231" t="s">
+        <v>411</v>
+      </c>
+      <c r="AE4" s="249" t="n">
+        <v>42825</v>
+      </c>
+      <c r="AF4" s="250" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG4" s="233" t="s">
+        <v>408</v>
+      </c>
+      <c r="AH4" s="251" t="s">
+        <v>344</v>
+      </c>
+      <c r="AI4" s="233" t="s">
+        <v>419</v>
+      </c>
+      <c r="AJ4" s="252" t="s">
+        <v>420</v>
+      </c>
+      <c r="AK4" s="233" t="s">
+        <v>419</v>
+      </c>
+      <c r="AL4" s="233" t="s">
+        <v>421</v>
+      </c>
+      <c r="AM4" s="233" t="s">
+        <v>422</v>
+      </c>
+      <c r="AN4" s="233" t="s">
+        <v>423</v>
+      </c>
+      <c r="AQ4" s="233" t="s">
+        <v>417</v>
+      </c>
+      <c r="AR4" s="244" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="57" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="231" t="s">
+        <v>425</v>
+      </c>
+      <c r="B5" s="231" t="s">
+        <v>426</v>
+      </c>
+      <c r="E5" s="231" t="s">
+        <v>427</v>
+      </c>
+      <c r="F5" s="248" t="s">
+        <v>428</v>
+      </c>
+      <c r="I5" s="231" t="s">
+        <v>429</v>
+      </c>
+      <c r="L5" s="231" t="s">
+        <v>215</v>
+      </c>
+      <c r="M5" s="231" t="s">
+        <v>430</v>
+      </c>
+      <c r="N5" s="231" t="s">
+        <v>431</v>
+      </c>
+      <c r="O5" s="231" t="s">
+        <v>432</v>
+      </c>
+      <c r="P5" s="231" t="s">
+        <v>433</v>
+      </c>
+      <c r="S5" s="231" t="n">
+        <v>1998</v>
+      </c>
+      <c r="T5" s="238" t="n">
+        <v>0.023</v>
+      </c>
+      <c r="U5" s="231" t="s">
+        <v>434</v>
+      </c>
+      <c r="W5" s="239" t="s">
+        <v>104</v>
+      </c>
+      <c r="X5" s="239" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y5" s="240" t="n">
+        <v>42825</v>
+      </c>
+      <c r="Z5" s="241" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AA5" s="231" t="s">
+        <v>435</v>
+      </c>
+      <c r="AB5" s="231" t="s">
+        <v>432</v>
+      </c>
+      <c r="AC5" s="231" t="s">
+        <v>436</v>
+      </c>
+      <c r="AD5" s="231" t="s">
+        <v>432</v>
+      </c>
+      <c r="AE5" s="246" t="n">
+        <v>42826</v>
+      </c>
+      <c r="AF5" s="247" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG5" s="233" t="s">
+        <v>383</v>
+      </c>
+      <c r="AH5" s="244" t="s">
+        <v>345</v>
+      </c>
+      <c r="AI5" s="233" t="s">
+        <v>370</v>
+      </c>
+      <c r="AJ5" s="233" t="s">
+        <v>437</v>
+      </c>
+      <c r="AM5" s="233" t="s">
+        <v>438</v>
+      </c>
+      <c r="AQ5" s="233" t="s">
+        <v>435</v>
+      </c>
+      <c r="AR5" s="244" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="83.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="231" t="s">
+        <v>440</v>
+      </c>
+      <c r="B6" s="245" t="s">
+        <v>441</v>
+      </c>
+      <c r="E6" s="231" t="s">
+        <v>442</v>
+      </c>
+      <c r="F6" s="231" t="s">
+        <v>443</v>
+      </c>
+      <c r="I6" s="231" t="s">
+        <v>206</v>
+      </c>
+      <c r="M6" s="231" t="s">
+        <v>444</v>
+      </c>
+      <c r="N6" s="231" t="s">
+        <v>445</v>
+      </c>
+      <c r="O6" s="231" t="s">
+        <v>446</v>
+      </c>
+      <c r="P6" s="231" t="s">
+        <v>447</v>
+      </c>
+      <c r="S6" s="231" t="n">
+        <v>1999</v>
+      </c>
+      <c r="T6" s="238" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="U6" s="231" t="s">
+        <v>337</v>
+      </c>
+      <c r="W6" s="239" t="s">
+        <v>105</v>
+      </c>
+      <c r="X6" s="239" t="s">
+        <v>105</v>
+      </c>
+      <c r="Y6" s="240" t="n">
+        <v>42916</v>
+      </c>
+      <c r="Z6" s="241" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AB6" s="231" t="s">
+        <v>448</v>
+      </c>
+      <c r="AC6" s="231" t="s">
+        <v>449</v>
+      </c>
+      <c r="AD6" s="231" t="s">
+        <v>448</v>
+      </c>
+      <c r="AE6" s="249" t="n">
+        <v>43190</v>
+      </c>
+      <c r="AF6" s="250" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG6" s="233" t="s">
         <v>356</v>
       </c>
-      <c r="O2" s="229" t="s">
-        <v>357</v>
-      </c>
-      <c r="P2" s="229" t="s">
-        <v>358</v>
-      </c>
-      <c r="Q2" s="229" t="s">
-        <v>50</v>
-      </c>
-      <c r="R2" s="229" t="s">
-        <v>82</v>
-      </c>
-      <c r="S2" s="229" t="n">
-        <v>1995</v>
-      </c>
-      <c r="T2" s="236" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="U2" s="229" t="s">
-        <v>359</v>
-      </c>
-      <c r="V2" s="229" t="s">
-        <v>360</v>
-      </c>
-      <c r="W2" s="237" t="s">
-        <v>361</v>
-      </c>
-      <c r="X2" s="237" t="s">
-        <v>362</v>
-      </c>
-      <c r="Y2" s="238" t="n">
-        <v>42551</v>
-      </c>
-      <c r="Z2" s="239" t="n">
+      <c r="AH6" s="244" t="s">
+        <v>346</v>
+      </c>
+      <c r="AI6" s="233" t="s">
+        <v>398</v>
+      </c>
+      <c r="AJ6" s="233" t="s">
+        <v>450</v>
+      </c>
+      <c r="AR6" s="244"/>
+    </row>
+    <row r="7" customFormat="false" ht="71.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="231" t="s">
+        <v>451</v>
+      </c>
+      <c r="B7" s="231" t="s">
+        <v>452</v>
+      </c>
+      <c r="E7" s="231" t="s">
+        <v>453</v>
+      </c>
+      <c r="F7" s="231" t="s">
+        <v>454</v>
+      </c>
+      <c r="I7" s="231" t="s">
+        <v>455</v>
+      </c>
+      <c r="M7" s="231" t="s">
+        <v>456</v>
+      </c>
+      <c r="N7" s="231" t="s">
+        <v>457</v>
+      </c>
+      <c r="O7" s="231" t="s">
+        <v>458</v>
+      </c>
+      <c r="P7" s="231" t="s">
+        <v>459</v>
+      </c>
+      <c r="S7" s="231" t="n">
+        <v>2000</v>
+      </c>
+      <c r="T7" s="238" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="W7" s="239" t="s">
+        <v>110</v>
+      </c>
+      <c r="X7" s="239" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y7" s="240" t="n">
+        <v>43008</v>
+      </c>
+      <c r="Z7" s="241" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AB7" s="231" t="s">
+        <v>458</v>
+      </c>
+      <c r="AC7" s="231" t="s">
+        <v>337</v>
+      </c>
+      <c r="AD7" s="231" t="s">
+        <v>458</v>
+      </c>
+      <c r="AE7" s="246" t="n">
+        <v>43191</v>
+      </c>
+      <c r="AF7" s="247" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG7" s="233" t="s">
+        <v>460</v>
+      </c>
+      <c r="AH7" s="244" t="s">
+        <v>461</v>
+      </c>
+      <c r="AI7" s="233" t="s">
+        <v>421</v>
+      </c>
+      <c r="AJ7" s="233" t="s">
+        <v>462</v>
+      </c>
+      <c r="AR7" s="244"/>
+    </row>
+    <row r="8" customFormat="false" ht="77.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="231" t="s">
+        <v>463</v>
+      </c>
+      <c r="B8" s="231" t="s">
+        <v>464</v>
+      </c>
+      <c r="E8" s="253"/>
+      <c r="F8" s="231" t="s">
+        <v>435</v>
+      </c>
+      <c r="M8" s="231" t="s">
+        <v>465</v>
+      </c>
+      <c r="N8" s="231" t="s">
+        <v>466</v>
+      </c>
+      <c r="O8" s="231" t="s">
+        <v>467</v>
+      </c>
+      <c r="P8" s="231" t="s">
+        <v>468</v>
+      </c>
+      <c r="S8" s="231" t="n">
+        <v>2001</v>
+      </c>
+      <c r="T8" s="238" t="n">
+        <v>0.026</v>
+      </c>
+      <c r="W8" s="239" t="s">
+        <v>114</v>
+      </c>
+      <c r="X8" s="239" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y8" s="240" t="n">
+        <v>43100</v>
+      </c>
+      <c r="Z8" s="241" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="AB8" s="231" t="s">
+        <v>467</v>
+      </c>
+      <c r="AD8" s="231" t="s">
+        <v>467</v>
+      </c>
+      <c r="AE8" s="249" t="n">
+        <v>43555</v>
+      </c>
+      <c r="AF8" s="250" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG8" s="233" t="s">
+        <v>469</v>
+      </c>
+      <c r="AI8" s="233" t="s">
+        <v>371</v>
+      </c>
+      <c r="AJ8" s="233" t="s">
+        <v>470</v>
+      </c>
+      <c r="AQ8" s="244"/>
+    </row>
+    <row r="9" customFormat="false" ht="71.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="231" t="s">
+        <v>471</v>
+      </c>
+      <c r="B9" s="245" t="s">
+        <v>472</v>
+      </c>
+      <c r="F9" s="231" t="s">
+        <v>388</v>
+      </c>
+      <c r="M9" s="231" t="s">
+        <v>473</v>
+      </c>
+      <c r="N9" s="231" t="s">
+        <v>474</v>
+      </c>
+      <c r="O9" s="231" t="s">
+        <v>475</v>
+      </c>
+      <c r="P9" s="231" t="s">
+        <v>476</v>
+      </c>
+      <c r="Q9" s="248"/>
+      <c r="S9" s="231" t="n">
+        <v>2002</v>
+      </c>
+      <c r="T9" s="238" t="n">
+        <v>0.027</v>
+      </c>
+      <c r="W9" s="239" t="s">
+        <v>116</v>
+      </c>
+      <c r="X9" s="239" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y9" s="240" t="n">
+        <v>43190</v>
+      </c>
+      <c r="Z9" s="241" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AB9" s="231" t="s">
+        <v>475</v>
+      </c>
+      <c r="AD9" s="231" t="s">
+        <v>475</v>
+      </c>
+      <c r="AE9" s="246" t="n">
+        <v>43556</v>
+      </c>
+      <c r="AF9" s="247" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG9" s="233" t="s">
+        <v>477</v>
+      </c>
+      <c r="AI9" s="233" t="s">
+        <v>399</v>
+      </c>
+      <c r="AJ9" s="233" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="69.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="231" t="s">
+        <v>479</v>
+      </c>
+      <c r="B10" s="231" t="s">
+        <v>480</v>
+      </c>
+      <c r="F10" s="248" t="s">
+        <v>481</v>
+      </c>
+      <c r="M10" s="231" t="s">
+        <v>482</v>
+      </c>
+      <c r="N10" s="231" t="s">
+        <v>483</v>
+      </c>
+      <c r="O10" s="231" t="s">
+        <v>337</v>
+      </c>
+      <c r="P10" s="231" t="s">
+        <v>484</v>
+      </c>
+      <c r="S10" s="231" t="n">
+        <v>2003</v>
+      </c>
+      <c r="T10" s="238" t="n">
+        <v>0.028</v>
+      </c>
+      <c r="W10" s="254" t="s">
+        <v>118</v>
+      </c>
+      <c r="X10" s="254" t="s">
+        <v>118</v>
+      </c>
+      <c r="Z10" s="241" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="AB10" s="231" t="s">
+        <v>337</v>
+      </c>
+      <c r="AD10" s="231" t="s">
+        <v>366</v>
+      </c>
+      <c r="AE10" s="249" t="n">
+        <v>43921</v>
+      </c>
+      <c r="AF10" s="250" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG10" s="233" t="s">
+        <v>485</v>
+      </c>
+      <c r="AI10" s="233" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="231" t="s">
+        <v>486</v>
+      </c>
+      <c r="B11" s="231" t="s">
+        <v>487</v>
+      </c>
+      <c r="F11" s="231" t="s">
+        <v>337</v>
+      </c>
+      <c r="M11" s="231" t="s">
+        <v>488</v>
+      </c>
+      <c r="N11" s="231" t="s">
+        <v>489</v>
+      </c>
+      <c r="P11" s="231" t="s">
+        <v>490</v>
+      </c>
+      <c r="S11" s="231" t="n">
+        <v>2004</v>
+      </c>
+      <c r="T11" s="238" t="n">
+        <v>0.029</v>
+      </c>
+      <c r="W11" s="254" t="s">
+        <v>120</v>
+      </c>
+      <c r="X11" s="254" t="s">
+        <v>120</v>
+      </c>
+      <c r="Z11" s="241" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AD11" s="231" t="s">
+        <v>394</v>
+      </c>
+      <c r="AE11" s="246" t="n">
+        <v>43922</v>
+      </c>
+      <c r="AF11" s="247" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG11" s="233" t="s">
+        <v>215</v>
+      </c>
+      <c r="AI11" s="233" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="231" t="s">
+        <v>491</v>
+      </c>
+      <c r="B12" s="231" t="s">
+        <v>492</v>
+      </c>
+      <c r="M12" s="231" t="s">
+        <v>493</v>
+      </c>
+      <c r="N12" s="231" t="s">
+        <v>494</v>
+      </c>
+      <c r="S12" s="231" t="n">
+        <v>2005</v>
+      </c>
+      <c r="T12" s="238" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="W12" s="254" t="s">
+        <v>122</v>
+      </c>
+      <c r="X12" s="254" t="s">
+        <v>122</v>
+      </c>
+      <c r="Z12" s="241" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="AD12" s="231" t="s">
+        <v>418</v>
+      </c>
+      <c r="AE12" s="249" t="n">
+        <v>44286</v>
+      </c>
+      <c r="AF12" s="250" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI12" s="233" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="231" t="s">
+        <v>495</v>
+      </c>
+      <c r="B13" s="245" t="s">
+        <v>496</v>
+      </c>
+      <c r="M13" s="231" t="s">
+        <v>497</v>
+      </c>
+      <c r="N13" s="231" t="s">
+        <v>498</v>
+      </c>
+      <c r="S13" s="231" t="n">
+        <v>2006</v>
+      </c>
+      <c r="T13" s="238" t="n">
+        <v>0.031</v>
+      </c>
+      <c r="W13" s="254" t="s">
+        <v>123</v>
+      </c>
+      <c r="X13" s="254" t="s">
+        <v>123</v>
+      </c>
+      <c r="Z13" s="241" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AD13" s="231" t="s">
+        <v>436</v>
+      </c>
+      <c r="AE13" s="246" t="n">
+        <v>44287</v>
+      </c>
+      <c r="AF13" s="247" t="n">
+        <v>14</v>
+      </c>
+      <c r="AI13" s="233" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="64.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="231" t="s">
+        <v>499</v>
+      </c>
+      <c r="B14" s="254" t="s">
+        <v>500</v>
+      </c>
+      <c r="M14" s="231" t="s">
+        <v>501</v>
+      </c>
+      <c r="N14" s="231" t="s">
+        <v>502</v>
+      </c>
+      <c r="S14" s="231" t="n">
+        <v>2007</v>
+      </c>
+      <c r="T14" s="238" t="n">
+        <v>0.032</v>
+      </c>
+      <c r="W14" s="254" t="s">
+        <v>124</v>
+      </c>
+      <c r="X14" s="254" t="s">
+        <v>124</v>
+      </c>
+      <c r="Z14" s="241" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="AD14" s="231" t="s">
+        <v>449</v>
+      </c>
+      <c r="AE14" s="249" t="n">
+        <v>44651</v>
+      </c>
+      <c r="AF14" s="250" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI14" s="233" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="51.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="231" t="s">
+        <v>503</v>
+      </c>
+      <c r="B15" s="254" t="s">
+        <v>504</v>
+      </c>
+      <c r="M15" s="231" t="s">
+        <v>505</v>
+      </c>
+      <c r="N15" s="231" t="s">
+        <v>506</v>
+      </c>
+      <c r="S15" s="231" t="n">
+        <v>2008</v>
+      </c>
+      <c r="T15" s="238" t="n">
+        <v>0.033</v>
+      </c>
+      <c r="W15" s="254" t="s">
+        <v>125</v>
+      </c>
+      <c r="X15" s="254" t="s">
+        <v>125</v>
+      </c>
+      <c r="Z15" s="241" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AD15" s="231" t="s">
+        <v>337</v>
+      </c>
+      <c r="AE15" s="246" t="n">
+        <v>44652</v>
+      </c>
+      <c r="AF15" s="247" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI15" s="233" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="231" t="s">
+        <v>507</v>
+      </c>
+      <c r="B16" s="255" t="s">
+        <v>508</v>
+      </c>
+      <c r="C16" s="239"/>
+      <c r="M16" s="231" t="s">
+        <v>509</v>
+      </c>
+      <c r="N16" s="231" t="s">
+        <v>510</v>
+      </c>
+      <c r="S16" s="231" t="n">
+        <v>2009</v>
+      </c>
+      <c r="T16" s="238" t="n">
+        <v>0.034</v>
+      </c>
+      <c r="W16" s="254" t="s">
+        <v>126</v>
+      </c>
+      <c r="X16" s="254" t="s">
+        <v>126</v>
+      </c>
+      <c r="Z16" s="241" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AD16" s="231" t="s">
+        <v>511</v>
+      </c>
+      <c r="AE16" s="249" t="n">
+        <v>45016</v>
+      </c>
+      <c r="AF16" s="250" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI16" s="231"/>
+    </row>
+    <row r="17" customFormat="false" ht="57" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="231" t="s">
+        <v>512</v>
+      </c>
+      <c r="B17" s="255" t="s">
+        <v>513</v>
+      </c>
+      <c r="M17" s="231" t="s">
+        <v>514</v>
+      </c>
+      <c r="N17" s="231" t="s">
+        <v>515</v>
+      </c>
+      <c r="S17" s="231" t="n">
+        <v>2010</v>
+      </c>
+      <c r="T17" s="238" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="W17" s="254" t="s">
+        <v>127</v>
+      </c>
+      <c r="X17" s="254" t="s">
+        <v>127</v>
+      </c>
+      <c r="Z17" s="241" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AD17" s="231" t="s">
+        <v>516</v>
+      </c>
+      <c r="AE17" s="256" t="n">
+        <v>45017</v>
+      </c>
+      <c r="AF17" s="231" t="n">
+        <v>18</v>
+      </c>
+      <c r="AI17" s="231"/>
+    </row>
+    <row r="18" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="231" t="s">
+        <v>350</v>
+      </c>
+      <c r="C18" s="239"/>
+      <c r="M18" s="231" t="s">
+        <v>517</v>
+      </c>
+      <c r="N18" s="231" t="s">
+        <v>518</v>
+      </c>
+      <c r="S18" s="231" t="n">
+        <v>2011</v>
+      </c>
+      <c r="T18" s="238" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="W18" s="254" t="s">
+        <v>519</v>
+      </c>
+      <c r="X18" s="254" t="s">
+        <v>519</v>
+      </c>
+      <c r="Z18" s="241" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="AD18" s="231" t="s">
+        <v>520</v>
+      </c>
+      <c r="AE18" s="256" t="n">
+        <v>45382</v>
+      </c>
+      <c r="AF18" s="231" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI18" s="231"/>
+    </row>
+    <row r="19" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="231" t="s">
+        <v>375</v>
+      </c>
+      <c r="M19" s="231" t="s">
+        <v>521</v>
+      </c>
+      <c r="N19" s="231" t="s">
+        <v>522</v>
+      </c>
+      <c r="S19" s="231" t="n">
+        <v>2012</v>
+      </c>
+      <c r="T19" s="238" t="n">
+        <v>0.037</v>
+      </c>
+      <c r="W19" s="254" t="s">
+        <v>523</v>
+      </c>
+      <c r="X19" s="254" t="s">
+        <v>523</v>
+      </c>
+      <c r="Z19" s="241" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AD19" s="231" t="s">
+        <v>524</v>
+      </c>
+      <c r="AE19" s="256" t="n">
+        <v>45383</v>
+      </c>
+      <c r="AF19" s="231" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI19" s="231"/>
+    </row>
+    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="231" t="s">
+        <v>402</v>
+      </c>
+      <c r="M20" s="231" t="s">
+        <v>525</v>
+      </c>
+      <c r="N20" s="231" t="s">
+        <v>526</v>
+      </c>
+      <c r="S20" s="231" t="n">
+        <v>2013</v>
+      </c>
+      <c r="T20" s="238" t="n">
+        <v>0.038</v>
+      </c>
+      <c r="W20" s="254" t="s">
+        <v>527</v>
+      </c>
+      <c r="X20" s="254" t="s">
+        <v>527</v>
+      </c>
+      <c r="Z20" s="241" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="AE20" s="256" t="n">
+        <v>45747</v>
+      </c>
+      <c r="AF20" s="231" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI20" s="231"/>
+    </row>
+    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="231" t="s">
+        <v>425</v>
+      </c>
+      <c r="M21" s="231" t="s">
+        <v>528</v>
+      </c>
+      <c r="N21" s="231" t="s">
+        <v>529</v>
+      </c>
+      <c r="S21" s="231" t="n">
+        <v>2014</v>
+      </c>
+      <c r="T21" s="238" t="n">
+        <v>0.039</v>
+      </c>
+      <c r="W21" s="254" t="s">
+        <v>530</v>
+      </c>
+      <c r="X21" s="254" t="s">
+        <v>530</v>
+      </c>
+      <c r="Z21" s="241" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE21" s="256" t="n">
+        <v>45748</v>
+      </c>
+      <c r="AF21" s="231" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI21" s="231"/>
+    </row>
+    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="231" t="s">
+        <v>440</v>
+      </c>
+      <c r="M22" s="231" t="s">
+        <v>531</v>
+      </c>
+      <c r="N22" s="231" t="s">
+        <v>532</v>
+      </c>
+      <c r="S22" s="231" t="n">
+        <v>2015</v>
+      </c>
+      <c r="T22" s="238" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="W22" s="231" t="s">
+        <v>533</v>
+      </c>
+      <c r="X22" s="231" t="s">
+        <v>533</v>
+      </c>
+      <c r="Z22" s="241"/>
+      <c r="AE22" s="256" t="n">
+        <v>46112</v>
+      </c>
+      <c r="AF22" s="231" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI22" s="231"/>
+    </row>
+    <row r="23" customFormat="false" ht="57" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="231" t="s">
+        <v>451</v>
+      </c>
+      <c r="M23" s="231" t="s">
+        <v>534</v>
+      </c>
+      <c r="N23" s="231" t="s">
+        <v>535</v>
+      </c>
+      <c r="Q23" s="248"/>
+      <c r="S23" s="231" t="n">
+        <v>2016</v>
+      </c>
+      <c r="T23" s="238" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="W23" s="231" t="s">
+        <v>536</v>
+      </c>
+      <c r="X23" s="231" t="s">
+        <v>536</v>
+      </c>
+      <c r="Z23" s="241"/>
+      <c r="AI23" s="231"/>
+    </row>
+    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="231" t="s">
+        <v>463</v>
+      </c>
+      <c r="M24" s="231" t="s">
+        <v>537</v>
+      </c>
+      <c r="N24" s="231" t="s">
+        <v>538</v>
+      </c>
+      <c r="S24" s="231" t="n">
+        <v>2017</v>
+      </c>
+      <c r="T24" s="238" t="n">
+        <v>0.042</v>
+      </c>
+      <c r="W24" s="231" t="s">
+        <v>539</v>
+      </c>
+      <c r="X24" s="231" t="s">
+        <v>539</v>
+      </c>
+      <c r="Z24" s="241"/>
+      <c r="AI24" s="231"/>
+    </row>
+    <row r="25" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="231" t="s">
+        <v>471</v>
+      </c>
+      <c r="M25" s="231" t="s">
+        <v>540</v>
+      </c>
+      <c r="N25" s="231" t="s">
+        <v>541</v>
+      </c>
+      <c r="S25" s="231" t="n">
+        <v>2018</v>
+      </c>
+      <c r="T25" s="238" t="n">
+        <v>0.043</v>
+      </c>
+      <c r="W25" s="231" t="s">
+        <v>542</v>
+      </c>
+      <c r="X25" s="231" t="s">
+        <v>542</v>
+      </c>
+      <c r="Z25" s="241"/>
+      <c r="AI25" s="231"/>
+    </row>
+    <row r="26" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="231" t="s">
+        <v>479</v>
+      </c>
+      <c r="M26" s="231" t="s">
+        <v>543</v>
+      </c>
+      <c r="N26" s="231" t="s">
+        <v>544</v>
+      </c>
+      <c r="S26" s="231" t="n">
+        <v>2019</v>
+      </c>
+      <c r="T26" s="238" t="n">
+        <v>0.044</v>
+      </c>
+      <c r="W26" s="231" t="s">
+        <v>545</v>
+      </c>
+      <c r="X26" s="231" t="s">
+        <v>545</v>
+      </c>
+      <c r="Z26" s="241"/>
+      <c r="AI26" s="231"/>
+    </row>
+    <row r="27" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="231" t="s">
+        <v>486</v>
+      </c>
+      <c r="M27" s="231" t="s">
+        <v>546</v>
+      </c>
+      <c r="N27" s="231" t="s">
+        <v>547</v>
+      </c>
+      <c r="S27" s="231" t="n">
+        <v>2020</v>
+      </c>
+      <c r="T27" s="238" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="W27" s="231" t="s">
+        <v>548</v>
+      </c>
+      <c r="X27" s="231" t="s">
+        <v>548</v>
+      </c>
+      <c r="Z27" s="241"/>
+      <c r="AI27" s="231"/>
+    </row>
+    <row r="28" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="231" t="s">
+        <v>491</v>
+      </c>
+      <c r="M28" s="231" t="s">
+        <v>549</v>
+      </c>
+      <c r="N28" s="231" t="s">
+        <v>550</v>
+      </c>
+      <c r="T28" s="238" t="n">
+        <v>0.046</v>
+      </c>
+      <c r="W28" s="231" t="s">
+        <v>551</v>
+      </c>
+      <c r="X28" s="231" t="s">
+        <v>551</v>
+      </c>
+      <c r="Z28" s="241"/>
+      <c r="AI28" s="231"/>
+    </row>
+    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="231" t="s">
+        <v>495</v>
+      </c>
+      <c r="M29" s="231" t="s">
+        <v>552</v>
+      </c>
+      <c r="T29" s="238" t="n">
+        <v>0.047</v>
+      </c>
+      <c r="W29" s="231" t="s">
+        <v>553</v>
+      </c>
+      <c r="X29" s="231" t="s">
+        <v>553</v>
+      </c>
+      <c r="Z29" s="241"/>
+      <c r="AI29" s="231"/>
+    </row>
+    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="231" t="s">
+        <v>499</v>
+      </c>
+      <c r="M30" s="248" t="s">
+        <v>337</v>
+      </c>
+      <c r="T30" s="238" t="n">
+        <v>0.048</v>
+      </c>
+      <c r="W30" s="231" t="s">
+        <v>554</v>
+      </c>
+      <c r="X30" s="231" t="s">
+        <v>554</v>
+      </c>
+      <c r="Z30" s="241"/>
+      <c r="AI30" s="231"/>
+    </row>
+    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="231" t="s">
+        <v>503</v>
+      </c>
+      <c r="T31" s="238" t="n">
+        <v>0.049</v>
+      </c>
+      <c r="W31" s="231" t="s">
+        <v>555</v>
+      </c>
+      <c r="X31" s="231" t="s">
+        <v>555</v>
+      </c>
+      <c r="Z31" s="241"/>
+      <c r="AI31" s="231"/>
+    </row>
+    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="231" t="s">
+        <v>507</v>
+      </c>
+      <c r="C32" s="239"/>
+      <c r="T32" s="238" t="n">
         <v>0.05</v>
       </c>
-      <c r="AA2" s="229" t="s">
-        <v>363</v>
-      </c>
-      <c r="AB2" s="229" t="s">
-        <v>357</v>
-      </c>
-      <c r="AC2" s="229" t="s">
-        <v>364</v>
-      </c>
-      <c r="AD2" s="229" t="s">
-        <v>357</v>
-      </c>
-      <c r="AE2" s="240" t="n">
-        <v>42460</v>
-      </c>
-      <c r="AF2" s="241" t="n">
-        <v>3</v>
-      </c>
-      <c r="AG2" s="231" t="s">
-        <v>365</v>
-      </c>
-      <c r="AH2" s="242" t="s">
-        <v>340</v>
-      </c>
-      <c r="AI2" s="231" t="s">
-        <v>366</v>
-      </c>
-      <c r="AJ2" s="231" t="s">
-        <v>367</v>
-      </c>
-      <c r="AK2" s="231" t="s">
-        <v>366</v>
-      </c>
-      <c r="AL2" s="231" t="s">
-        <v>368</v>
-      </c>
-      <c r="AM2" s="231" t="s">
-        <v>369</v>
-      </c>
-      <c r="AN2" s="231" t="s">
-        <v>370</v>
-      </c>
-      <c r="AO2" s="231" t="s">
-        <v>371</v>
-      </c>
-      <c r="AQ2" s="231" t="s">
-        <v>363</v>
-      </c>
-      <c r="AR2" s="242" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="229" t="s">
-        <v>373</v>
-      </c>
-      <c r="B3" s="243" t="s">
-        <v>374</v>
-      </c>
-      <c r="C3" s="229" t="s">
-        <v>375</v>
-      </c>
-      <c r="D3" s="229" t="s">
-        <v>376</v>
-      </c>
-      <c r="E3" s="229" t="s">
-        <v>377</v>
-      </c>
-      <c r="F3" s="229" t="s">
-        <v>205</v>
-      </c>
-      <c r="G3" s="229" t="s">
-        <v>378</v>
-      </c>
-      <c r="H3" s="229" t="s">
-        <v>379</v>
-      </c>
-      <c r="I3" s="229" t="s">
-        <v>380</v>
-      </c>
-      <c r="J3" s="229" t="s">
-        <v>209</v>
-      </c>
-      <c r="K3" s="229" t="s">
-        <v>381</v>
-      </c>
-      <c r="L3" s="229" t="s">
-        <v>209</v>
-      </c>
-      <c r="M3" s="229" t="s">
-        <v>382</v>
-      </c>
-      <c r="N3" s="229" t="s">
-        <v>383</v>
-      </c>
-      <c r="O3" s="229" t="s">
-        <v>384</v>
-      </c>
-      <c r="P3" s="229" t="s">
-        <v>385</v>
-      </c>
-      <c r="Q3" s="229" t="s">
-        <v>386</v>
-      </c>
-      <c r="R3" s="229" t="s">
-        <v>387</v>
-      </c>
-      <c r="S3" s="229" t="n">
-        <v>1996</v>
-      </c>
-      <c r="T3" s="236" t="n">
-        <v>0.021</v>
-      </c>
-      <c r="U3" s="229" t="s">
-        <v>388</v>
-      </c>
-      <c r="V3" s="229" t="s">
-        <v>352</v>
-      </c>
-      <c r="W3" s="237" t="s">
-        <v>389</v>
-      </c>
-      <c r="X3" s="237" t="s">
-        <v>390</v>
-      </c>
-      <c r="Y3" s="238" t="n">
-        <v>42643</v>
-      </c>
-      <c r="Z3" s="239" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AA3" s="229" t="s">
-        <v>391</v>
-      </c>
-      <c r="AB3" s="229" t="s">
-        <v>384</v>
-      </c>
-      <c r="AC3" s="229" t="s">
-        <v>392</v>
-      </c>
-      <c r="AD3" s="229" t="s">
-        <v>384</v>
-      </c>
-      <c r="AE3" s="244" t="n">
-        <v>42461</v>
-      </c>
-      <c r="AF3" s="245" t="n">
-        <v>4</v>
-      </c>
-      <c r="AG3" s="231" t="s">
-        <v>393</v>
-      </c>
-      <c r="AH3" s="242" t="s">
-        <v>341</v>
-      </c>
-      <c r="AI3" s="231" t="s">
-        <v>394</v>
-      </c>
-      <c r="AJ3" s="231" t="s">
-        <v>395</v>
-      </c>
-      <c r="AK3" s="231" t="s">
-        <v>394</v>
-      </c>
-      <c r="AL3" s="231" t="s">
-        <v>396</v>
-      </c>
-      <c r="AM3" s="231" t="s">
-        <v>397</v>
-      </c>
-      <c r="AN3" s="231" t="s">
-        <v>398</v>
-      </c>
-      <c r="AQ3" s="231" t="s">
-        <v>391</v>
-      </c>
-      <c r="AR3" s="242" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="64.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="229" t="s">
-        <v>400</v>
-      </c>
-      <c r="B4" s="243" t="s">
-        <v>401</v>
-      </c>
-      <c r="C4" s="229" t="s">
-        <v>402</v>
-      </c>
-      <c r="D4" s="229" t="s">
-        <v>335</v>
-      </c>
-      <c r="E4" s="229" t="s">
-        <v>403</v>
-      </c>
-      <c r="F4" s="246" t="s">
-        <v>404</v>
-      </c>
-      <c r="G4" s="229" t="s">
-        <v>405</v>
-      </c>
-      <c r="H4" s="229" t="s">
-        <v>215</v>
-      </c>
-      <c r="I4" s="229" t="s">
-        <v>209</v>
-      </c>
-      <c r="J4" s="229" t="s">
-        <v>206</v>
-      </c>
-      <c r="K4" s="229" t="s">
-        <v>406</v>
-      </c>
-      <c r="L4" s="229" t="s">
-        <v>206</v>
-      </c>
-      <c r="M4" s="229" t="s">
-        <v>407</v>
-      </c>
-      <c r="N4" s="229" t="s">
-        <v>408</v>
-      </c>
-      <c r="O4" s="229" t="s">
-        <v>409</v>
-      </c>
-      <c r="P4" s="229" t="s">
-        <v>410</v>
-      </c>
-      <c r="Q4" s="229" t="s">
-        <v>411</v>
-      </c>
-      <c r="S4" s="229" t="n">
-        <v>1997</v>
-      </c>
-      <c r="T4" s="236" t="n">
-        <v>0.022</v>
-      </c>
-      <c r="U4" s="229" t="s">
-        <v>412</v>
-      </c>
-      <c r="V4" s="229" t="s">
-        <v>413</v>
-      </c>
-      <c r="W4" s="237" t="s">
-        <v>414</v>
-      </c>
-      <c r="X4" s="237" t="s">
-        <v>414</v>
-      </c>
-      <c r="Y4" s="238" t="n">
-        <v>42735</v>
-      </c>
-      <c r="Z4" s="239" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="AA4" s="229" t="s">
-        <v>415</v>
-      </c>
-      <c r="AB4" s="229" t="s">
-        <v>409</v>
-      </c>
-      <c r="AC4" s="229" t="s">
-        <v>416</v>
-      </c>
-      <c r="AD4" s="229" t="s">
-        <v>409</v>
-      </c>
-      <c r="AE4" s="247" t="n">
-        <v>42825</v>
-      </c>
-      <c r="AF4" s="248" t="n">
-        <v>5</v>
-      </c>
-      <c r="AG4" s="231" t="s">
-        <v>406</v>
-      </c>
-      <c r="AH4" s="249" t="s">
-        <v>342</v>
-      </c>
-      <c r="AI4" s="231" t="s">
-        <v>417</v>
-      </c>
-      <c r="AJ4" s="250" t="s">
-        <v>418</v>
-      </c>
-      <c r="AK4" s="231" t="s">
-        <v>417</v>
-      </c>
-      <c r="AL4" s="231" t="s">
-        <v>419</v>
-      </c>
-      <c r="AM4" s="231" t="s">
-        <v>420</v>
-      </c>
-      <c r="AN4" s="231" t="s">
-        <v>421</v>
-      </c>
-      <c r="AQ4" s="231" t="s">
-        <v>415</v>
-      </c>
-      <c r="AR4" s="242" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="57" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="229" t="s">
-        <v>423</v>
-      </c>
-      <c r="B5" s="229" t="s">
-        <v>424</v>
-      </c>
-      <c r="E5" s="229" t="s">
-        <v>425</v>
-      </c>
-      <c r="F5" s="246" t="s">
-        <v>426</v>
-      </c>
-      <c r="I5" s="229" t="s">
-        <v>427</v>
-      </c>
-      <c r="L5" s="229" t="s">
-        <v>215</v>
-      </c>
-      <c r="M5" s="229" t="s">
-        <v>428</v>
-      </c>
-      <c r="N5" s="229" t="s">
-        <v>429</v>
-      </c>
-      <c r="O5" s="229" t="s">
-        <v>430</v>
-      </c>
-      <c r="P5" s="229" t="s">
-        <v>431</v>
-      </c>
-      <c r="S5" s="229" t="n">
-        <v>1998</v>
-      </c>
-      <c r="T5" s="236" t="n">
-        <v>0.023</v>
-      </c>
-      <c r="U5" s="229" t="s">
-        <v>432</v>
-      </c>
-      <c r="W5" s="237" t="s">
-        <v>104</v>
-      </c>
-      <c r="X5" s="237" t="s">
-        <v>104</v>
-      </c>
-      <c r="Y5" s="238" t="n">
-        <v>42825</v>
-      </c>
-      <c r="Z5" s="239" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="AA5" s="229" t="s">
-        <v>433</v>
-      </c>
-      <c r="AB5" s="229" t="s">
-        <v>430</v>
-      </c>
-      <c r="AC5" s="229" t="s">
-        <v>434</v>
-      </c>
-      <c r="AD5" s="229" t="s">
-        <v>430</v>
-      </c>
-      <c r="AE5" s="244" t="n">
-        <v>42826</v>
-      </c>
-      <c r="AF5" s="245" t="n">
-        <v>6</v>
-      </c>
-      <c r="AG5" s="231" t="s">
-        <v>381</v>
-      </c>
-      <c r="AH5" s="242" t="s">
-        <v>343</v>
-      </c>
-      <c r="AI5" s="231" t="s">
-        <v>368</v>
-      </c>
-      <c r="AJ5" s="231" t="s">
-        <v>435</v>
-      </c>
-      <c r="AM5" s="231" t="s">
-        <v>436</v>
-      </c>
-      <c r="AQ5" s="231" t="s">
-        <v>433</v>
-      </c>
-      <c r="AR5" s="242" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="83.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="229" t="s">
-        <v>438</v>
-      </c>
-      <c r="B6" s="243" t="s">
-        <v>439</v>
-      </c>
-      <c r="E6" s="229" t="s">
-        <v>440</v>
-      </c>
-      <c r="F6" s="229" t="s">
-        <v>441</v>
-      </c>
-      <c r="I6" s="229" t="s">
-        <v>206</v>
-      </c>
-      <c r="M6" s="229" t="s">
-        <v>442</v>
-      </c>
-      <c r="N6" s="229" t="s">
-        <v>443</v>
-      </c>
-      <c r="O6" s="229" t="s">
-        <v>444</v>
-      </c>
-      <c r="P6" s="229" t="s">
-        <v>445</v>
-      </c>
-      <c r="S6" s="229" t="n">
-        <v>1999</v>
-      </c>
-      <c r="T6" s="236" t="n">
-        <v>0.024</v>
-      </c>
-      <c r="U6" s="229" t="s">
-        <v>335</v>
-      </c>
-      <c r="W6" s="237" t="s">
-        <v>105</v>
-      </c>
-      <c r="X6" s="237" t="s">
-        <v>105</v>
-      </c>
-      <c r="Y6" s="238" t="n">
-        <v>42916</v>
-      </c>
-      <c r="Z6" s="239" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="AB6" s="229" t="s">
-        <v>446</v>
-      </c>
-      <c r="AC6" s="229" t="s">
-        <v>447</v>
-      </c>
-      <c r="AD6" s="229" t="s">
-        <v>446</v>
-      </c>
-      <c r="AE6" s="247" t="n">
-        <v>43190</v>
-      </c>
-      <c r="AF6" s="248" t="n">
-        <v>7</v>
-      </c>
-      <c r="AG6" s="231" t="s">
-        <v>354</v>
-      </c>
-      <c r="AH6" s="242" t="s">
-        <v>344</v>
-      </c>
-      <c r="AI6" s="231" t="s">
-        <v>396</v>
-      </c>
-      <c r="AJ6" s="231" t="s">
-        <v>448</v>
-      </c>
-      <c r="AR6" s="242"/>
-    </row>
-    <row r="7" customFormat="false" ht="71.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="229" t="s">
-        <v>449</v>
-      </c>
-      <c r="B7" s="229" t="s">
-        <v>450</v>
-      </c>
-      <c r="E7" s="229" t="s">
-        <v>451</v>
-      </c>
-      <c r="F7" s="229" t="s">
-        <v>452</v>
-      </c>
-      <c r="I7" s="229" t="s">
-        <v>453</v>
-      </c>
-      <c r="M7" s="229" t="s">
-        <v>454</v>
-      </c>
-      <c r="N7" s="229" t="s">
-        <v>455</v>
-      </c>
-      <c r="O7" s="229" t="s">
-        <v>456</v>
-      </c>
-      <c r="P7" s="229" t="s">
-        <v>457</v>
-      </c>
-      <c r="S7" s="229" t="n">
-        <v>2000</v>
-      </c>
-      <c r="T7" s="236" t="n">
-        <v>0.025</v>
-      </c>
-      <c r="W7" s="237" t="s">
-        <v>110</v>
-      </c>
-      <c r="X7" s="237" t="s">
-        <v>110</v>
-      </c>
-      <c r="Y7" s="238" t="n">
-        <v>43008</v>
-      </c>
-      <c r="Z7" s="239" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="AB7" s="229" t="s">
-        <v>456</v>
-      </c>
-      <c r="AC7" s="229" t="s">
-        <v>335</v>
-      </c>
-      <c r="AD7" s="229" t="s">
-        <v>456</v>
-      </c>
-      <c r="AE7" s="244" t="n">
-        <v>43191</v>
-      </c>
-      <c r="AF7" s="245" t="n">
-        <v>8</v>
-      </c>
-      <c r="AG7" s="231" t="s">
-        <v>458</v>
-      </c>
-      <c r="AH7" s="242" t="s">
-        <v>459</v>
-      </c>
-      <c r="AI7" s="231" t="s">
-        <v>419</v>
-      </c>
-      <c r="AJ7" s="231" t="s">
-        <v>460</v>
-      </c>
-      <c r="AR7" s="242"/>
-    </row>
-    <row r="8" customFormat="false" ht="77.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="229" t="s">
-        <v>461</v>
-      </c>
-      <c r="B8" s="229" t="s">
-        <v>462</v>
-      </c>
-      <c r="E8" s="251"/>
-      <c r="F8" s="229" t="s">
-        <v>433</v>
-      </c>
-      <c r="M8" s="229" t="s">
-        <v>463</v>
-      </c>
-      <c r="N8" s="229" t="s">
-        <v>464</v>
-      </c>
-      <c r="O8" s="229" t="s">
-        <v>465</v>
-      </c>
-      <c r="P8" s="229" t="s">
-        <v>466</v>
-      </c>
-      <c r="S8" s="229" t="n">
-        <v>2001</v>
-      </c>
-      <c r="T8" s="236" t="n">
-        <v>0.026</v>
-      </c>
-      <c r="W8" s="237" t="s">
-        <v>114</v>
-      </c>
-      <c r="X8" s="237" t="s">
-        <v>114</v>
-      </c>
-      <c r="Y8" s="238" t="n">
-        <v>43100</v>
-      </c>
-      <c r="Z8" s="239" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="AB8" s="229" t="s">
-        <v>465</v>
-      </c>
-      <c r="AD8" s="229" t="s">
-        <v>465</v>
-      </c>
-      <c r="AE8" s="247" t="n">
-        <v>43555</v>
-      </c>
-      <c r="AF8" s="248" t="n">
-        <v>9</v>
-      </c>
-      <c r="AG8" s="231" t="s">
-        <v>467</v>
-      </c>
-      <c r="AI8" s="231" t="s">
-        <v>369</v>
-      </c>
-      <c r="AJ8" s="231" t="s">
-        <v>468</v>
-      </c>
-      <c r="AQ8" s="242"/>
-    </row>
-    <row r="9" customFormat="false" ht="71.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="229" t="s">
-        <v>469</v>
-      </c>
-      <c r="B9" s="243" t="s">
-        <v>470</v>
-      </c>
-      <c r="F9" s="229" t="s">
-        <v>386</v>
-      </c>
-      <c r="M9" s="229" t="s">
-        <v>471</v>
-      </c>
-      <c r="N9" s="229" t="s">
-        <v>472</v>
-      </c>
-      <c r="O9" s="229" t="s">
-        <v>473</v>
-      </c>
-      <c r="P9" s="229" t="s">
-        <v>474</v>
-      </c>
-      <c r="Q9" s="246"/>
-      <c r="S9" s="229" t="n">
-        <v>2002</v>
-      </c>
-      <c r="T9" s="236" t="n">
-        <v>0.027</v>
-      </c>
-      <c r="W9" s="237" t="s">
-        <v>116</v>
-      </c>
-      <c r="X9" s="237" t="s">
-        <v>116</v>
-      </c>
-      <c r="Y9" s="238" t="n">
-        <v>43190</v>
-      </c>
-      <c r="Z9" s="239" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="AB9" s="229" t="s">
-        <v>473</v>
-      </c>
-      <c r="AD9" s="229" t="s">
-        <v>473</v>
-      </c>
-      <c r="AE9" s="244" t="n">
-        <v>43556</v>
-      </c>
-      <c r="AF9" s="245" t="n">
-        <v>10</v>
-      </c>
-      <c r="AG9" s="231" t="s">
-        <v>475</v>
-      </c>
-      <c r="AI9" s="231" t="s">
-        <v>397</v>
-      </c>
-      <c r="AJ9" s="231" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="69.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="229" t="s">
-        <v>477</v>
-      </c>
-      <c r="B10" s="229" t="s">
-        <v>478</v>
-      </c>
-      <c r="F10" s="246" t="s">
-        <v>479</v>
-      </c>
-      <c r="M10" s="229" t="s">
-        <v>480</v>
-      </c>
-      <c r="N10" s="229" t="s">
-        <v>481</v>
-      </c>
-      <c r="O10" s="229" t="s">
-        <v>335</v>
-      </c>
-      <c r="P10" s="229" t="s">
-        <v>482</v>
-      </c>
-      <c r="S10" s="229" t="n">
-        <v>2003</v>
-      </c>
-      <c r="T10" s="236" t="n">
-        <v>0.028</v>
-      </c>
-      <c r="W10" s="252" t="s">
-        <v>118</v>
-      </c>
-      <c r="X10" s="252" t="s">
-        <v>118</v>
-      </c>
-      <c r="Z10" s="239" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="AB10" s="229" t="s">
-        <v>335</v>
-      </c>
-      <c r="AD10" s="229" t="s">
-        <v>364</v>
-      </c>
-      <c r="AE10" s="247" t="n">
-        <v>43921</v>
-      </c>
-      <c r="AF10" s="248" t="n">
-        <v>11</v>
-      </c>
-      <c r="AG10" s="231" t="s">
-        <v>483</v>
-      </c>
-      <c r="AI10" s="231" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="229" t="s">
-        <v>484</v>
-      </c>
-      <c r="B11" s="229" t="s">
-        <v>485</v>
-      </c>
-      <c r="F11" s="229" t="s">
-        <v>335</v>
-      </c>
-      <c r="M11" s="229" t="s">
-        <v>486</v>
-      </c>
-      <c r="N11" s="229" t="s">
-        <v>487</v>
-      </c>
-      <c r="P11" s="229" t="s">
-        <v>488</v>
-      </c>
-      <c r="S11" s="229" t="n">
-        <v>2004</v>
-      </c>
-      <c r="T11" s="236" t="n">
-        <v>0.029</v>
-      </c>
-      <c r="W11" s="252" t="s">
-        <v>120</v>
-      </c>
-      <c r="X11" s="252" t="s">
-        <v>120</v>
-      </c>
-      <c r="Z11" s="239" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AD11" s="229" t="s">
-        <v>392</v>
-      </c>
-      <c r="AE11" s="244" t="n">
-        <v>43922</v>
-      </c>
-      <c r="AF11" s="245" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG11" s="231" t="s">
-        <v>215</v>
-      </c>
-      <c r="AI11" s="231" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="229" t="s">
-        <v>489</v>
-      </c>
-      <c r="B12" s="229" t="s">
-        <v>490</v>
-      </c>
-      <c r="M12" s="229" t="s">
-        <v>491</v>
-      </c>
-      <c r="N12" s="229" t="s">
-        <v>492</v>
-      </c>
-      <c r="S12" s="229" t="n">
-        <v>2005</v>
-      </c>
-      <c r="T12" s="236" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="W12" s="252" t="s">
-        <v>122</v>
-      </c>
-      <c r="X12" s="252" t="s">
-        <v>122</v>
-      </c>
-      <c r="Z12" s="239" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="AD12" s="229" t="s">
-        <v>416</v>
-      </c>
-      <c r="AE12" s="247" t="n">
-        <v>44286</v>
-      </c>
-      <c r="AF12" s="248" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI12" s="231" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="229" t="s">
-        <v>493</v>
-      </c>
-      <c r="B13" s="243" t="s">
-        <v>494</v>
-      </c>
-      <c r="M13" s="229" t="s">
-        <v>495</v>
-      </c>
-      <c r="N13" s="229" t="s">
-        <v>496</v>
-      </c>
-      <c r="S13" s="229" t="n">
-        <v>2006</v>
-      </c>
-      <c r="T13" s="236" t="n">
-        <v>0.031</v>
-      </c>
-      <c r="W13" s="252" t="s">
-        <v>123</v>
-      </c>
-      <c r="X13" s="252" t="s">
-        <v>123</v>
-      </c>
-      <c r="Z13" s="239" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="AD13" s="229" t="s">
-        <v>434</v>
-      </c>
-      <c r="AE13" s="244" t="n">
-        <v>44287</v>
-      </c>
-      <c r="AF13" s="245" t="n">
-        <v>14</v>
-      </c>
-      <c r="AI13" s="231" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="64.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="229" t="s">
-        <v>497</v>
-      </c>
-      <c r="B14" s="252" t="s">
-        <v>498</v>
-      </c>
-      <c r="M14" s="229" t="s">
-        <v>499</v>
-      </c>
-      <c r="N14" s="229" t="s">
-        <v>500</v>
-      </c>
-      <c r="S14" s="229" t="n">
-        <v>2007</v>
-      </c>
-      <c r="T14" s="236" t="n">
-        <v>0.032</v>
-      </c>
-      <c r="W14" s="252" t="s">
-        <v>124</v>
-      </c>
-      <c r="X14" s="252" t="s">
-        <v>124</v>
-      </c>
-      <c r="Z14" s="239" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="AD14" s="229" t="s">
-        <v>447</v>
-      </c>
-      <c r="AE14" s="247" t="n">
-        <v>44651</v>
-      </c>
-      <c r="AF14" s="248" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI14" s="231" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="51.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="229" t="s">
-        <v>501</v>
-      </c>
-      <c r="B15" s="252" t="s">
-        <v>502</v>
-      </c>
-      <c r="M15" s="229" t="s">
-        <v>503</v>
-      </c>
-      <c r="N15" s="229" t="s">
-        <v>504</v>
-      </c>
-      <c r="S15" s="229" t="n">
-        <v>2008</v>
-      </c>
-      <c r="T15" s="236" t="n">
-        <v>0.033</v>
-      </c>
-      <c r="W15" s="252" t="s">
-        <v>125</v>
-      </c>
-      <c r="X15" s="252" t="s">
-        <v>125</v>
-      </c>
-      <c r="Z15" s="239" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="AD15" s="229" t="s">
-        <v>335</v>
-      </c>
-      <c r="AE15" s="244" t="n">
-        <v>44652</v>
-      </c>
-      <c r="AF15" s="245" t="n">
-        <v>16</v>
-      </c>
-      <c r="AI15" s="231" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="229" t="s">
-        <v>505</v>
-      </c>
-      <c r="B16" s="253" t="s">
-        <v>506</v>
-      </c>
-      <c r="C16" s="237"/>
-      <c r="M16" s="229" t="s">
-        <v>507</v>
-      </c>
-      <c r="N16" s="229" t="s">
-        <v>508</v>
-      </c>
-      <c r="S16" s="229" t="n">
-        <v>2009</v>
-      </c>
-      <c r="T16" s="236" t="n">
-        <v>0.034</v>
-      </c>
-      <c r="W16" s="252" t="s">
-        <v>126</v>
-      </c>
-      <c r="X16" s="252" t="s">
-        <v>126</v>
-      </c>
-      <c r="Z16" s="239" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="AD16" s="229" t="s">
-        <v>509</v>
-      </c>
-      <c r="AE16" s="247" t="n">
-        <v>45016</v>
-      </c>
-      <c r="AF16" s="248" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI16" s="229"/>
-    </row>
-    <row r="17" customFormat="false" ht="57" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="229" t="s">
-        <v>510</v>
-      </c>
-      <c r="B17" s="253" t="s">
-        <v>511</v>
-      </c>
-      <c r="M17" s="229" t="s">
+      <c r="W32" s="231" t="s">
+        <v>556</v>
+      </c>
+      <c r="X32" s="231" t="s">
+        <v>556</v>
+      </c>
+      <c r="Z32" s="241"/>
+      <c r="AI32" s="231"/>
+    </row>
+    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="231" t="s">
         <v>512</v>
       </c>
-      <c r="N17" s="229" t="s">
-        <v>513</v>
-      </c>
-      <c r="S17" s="229" t="n">
-        <v>2010</v>
-      </c>
-      <c r="T17" s="236" t="n">
-        <v>0.035</v>
-      </c>
-      <c r="W17" s="252" t="s">
-        <v>127</v>
-      </c>
-      <c r="X17" s="252" t="s">
-        <v>127</v>
-      </c>
-      <c r="Z17" s="239" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="AD17" s="229" t="s">
-        <v>514</v>
-      </c>
-      <c r="AE17" s="254" t="n">
-        <v>45017</v>
-      </c>
-      <c r="AF17" s="229" t="n">
-        <v>18</v>
-      </c>
-      <c r="AI17" s="229"/>
-    </row>
-    <row r="18" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="229" t="s">
-        <v>348</v>
-      </c>
-      <c r="C18" s="237"/>
-      <c r="M18" s="229" t="s">
-        <v>515</v>
-      </c>
-      <c r="N18" s="229" t="s">
-        <v>516</v>
-      </c>
-      <c r="S18" s="229" t="n">
-        <v>2011</v>
-      </c>
-      <c r="T18" s="236" t="n">
-        <v>0.036</v>
-      </c>
-      <c r="W18" s="252" t="s">
-        <v>517</v>
-      </c>
-      <c r="X18" s="252" t="s">
-        <v>517</v>
-      </c>
-      <c r="Z18" s="239" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="AD18" s="229" t="s">
-        <v>518</v>
-      </c>
-      <c r="AE18" s="254" t="n">
-        <v>45382</v>
-      </c>
-      <c r="AF18" s="229" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI18" s="229"/>
-    </row>
-    <row r="19" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="229" t="s">
-        <v>373</v>
-      </c>
-      <c r="M19" s="229" t="s">
-        <v>519</v>
-      </c>
-      <c r="N19" s="229" t="s">
-        <v>520</v>
-      </c>
-      <c r="S19" s="229" t="n">
-        <v>2012</v>
-      </c>
-      <c r="T19" s="236" t="n">
-        <v>0.037</v>
-      </c>
-      <c r="W19" s="252" t="s">
-        <v>521</v>
-      </c>
-      <c r="X19" s="252" t="s">
-        <v>521</v>
-      </c>
-      <c r="Z19" s="239" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="AD19" s="229" t="s">
-        <v>522</v>
-      </c>
-      <c r="AE19" s="254" t="n">
-        <v>45383</v>
-      </c>
-      <c r="AF19" s="229" t="n">
-        <v>20</v>
-      </c>
-      <c r="AI19" s="229"/>
-    </row>
-    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="229" t="s">
-        <v>400</v>
-      </c>
-      <c r="M20" s="229" t="s">
-        <v>523</v>
-      </c>
-      <c r="N20" s="229" t="s">
-        <v>524</v>
-      </c>
-      <c r="S20" s="229" t="n">
-        <v>2013</v>
-      </c>
-      <c r="T20" s="236" t="n">
-        <v>0.038</v>
-      </c>
-      <c r="W20" s="252" t="s">
-        <v>525</v>
-      </c>
-      <c r="X20" s="252" t="s">
-        <v>525</v>
-      </c>
-      <c r="Z20" s="239" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="AE20" s="254" t="n">
-        <v>45747</v>
-      </c>
-      <c r="AF20" s="229" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI20" s="229"/>
-    </row>
-    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="229" t="s">
-        <v>423</v>
-      </c>
-      <c r="M21" s="229" t="s">
-        <v>526</v>
-      </c>
-      <c r="N21" s="229" t="s">
-        <v>527</v>
-      </c>
-      <c r="S21" s="229" t="n">
-        <v>2014</v>
-      </c>
-      <c r="T21" s="236" t="n">
-        <v>0.039</v>
-      </c>
-      <c r="W21" s="252" t="s">
-        <v>528</v>
-      </c>
-      <c r="X21" s="252" t="s">
-        <v>528</v>
-      </c>
-      <c r="Z21" s="239" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE21" s="254" t="n">
-        <v>45748</v>
-      </c>
-      <c r="AF21" s="229" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI21" s="229"/>
-    </row>
-    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="229" t="s">
-        <v>438</v>
-      </c>
-      <c r="M22" s="229" t="s">
-        <v>529</v>
-      </c>
-      <c r="N22" s="229" t="s">
-        <v>530</v>
-      </c>
-      <c r="S22" s="229" t="n">
-        <v>2015</v>
-      </c>
-      <c r="T22" s="236" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="W22" s="229" t="s">
-        <v>531</v>
-      </c>
-      <c r="X22" s="229" t="s">
-        <v>531</v>
-      </c>
-      <c r="Z22" s="239"/>
-      <c r="AE22" s="254" t="n">
-        <v>46112</v>
-      </c>
-      <c r="AF22" s="229" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI22" s="229"/>
-    </row>
-    <row r="23" customFormat="false" ht="57" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="229" t="s">
-        <v>449</v>
-      </c>
-      <c r="M23" s="229" t="s">
-        <v>532</v>
-      </c>
-      <c r="N23" s="229" t="s">
-        <v>533</v>
-      </c>
-      <c r="Q23" s="246"/>
-      <c r="S23" s="229" t="n">
-        <v>2016</v>
-      </c>
-      <c r="T23" s="236" t="n">
-        <v>0.041</v>
-      </c>
-      <c r="W23" s="229" t="s">
-        <v>534</v>
-      </c>
-      <c r="X23" s="229" t="s">
-        <v>534</v>
-      </c>
-      <c r="Z23" s="239"/>
-      <c r="AI23" s="229"/>
-    </row>
-    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="229" t="s">
-        <v>461</v>
-      </c>
-      <c r="M24" s="229" t="s">
-        <v>535</v>
-      </c>
-      <c r="N24" s="229" t="s">
-        <v>536</v>
-      </c>
-      <c r="S24" s="229" t="n">
-        <v>2017</v>
-      </c>
-      <c r="T24" s="236" t="n">
-        <v>0.042</v>
-      </c>
-      <c r="W24" s="229" t="s">
-        <v>537</v>
-      </c>
-      <c r="X24" s="229" t="s">
-        <v>537</v>
-      </c>
-      <c r="Z24" s="239"/>
-      <c r="AI24" s="229"/>
-    </row>
-    <row r="25" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="229" t="s">
-        <v>469</v>
-      </c>
-      <c r="M25" s="229" t="s">
-        <v>538</v>
-      </c>
-      <c r="N25" s="229" t="s">
-        <v>539</v>
-      </c>
-      <c r="S25" s="229" t="n">
-        <v>2018</v>
-      </c>
-      <c r="T25" s="236" t="n">
-        <v>0.043</v>
-      </c>
-      <c r="W25" s="229" t="s">
-        <v>540</v>
-      </c>
-      <c r="X25" s="229" t="s">
-        <v>540</v>
-      </c>
-      <c r="Z25" s="239"/>
-      <c r="AI25" s="229"/>
-    </row>
-    <row r="26" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="229" t="s">
-        <v>477</v>
-      </c>
-      <c r="M26" s="229" t="s">
-        <v>541</v>
-      </c>
-      <c r="N26" s="229" t="s">
-        <v>542</v>
-      </c>
-      <c r="S26" s="229" t="n">
-        <v>2019</v>
-      </c>
-      <c r="T26" s="236" t="n">
-        <v>0.044</v>
-      </c>
-      <c r="W26" s="229" t="s">
-        <v>543</v>
-      </c>
-      <c r="X26" s="229" t="s">
-        <v>543</v>
-      </c>
-      <c r="Z26" s="239"/>
-      <c r="AI26" s="229"/>
-    </row>
-    <row r="27" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="229" t="s">
-        <v>484</v>
-      </c>
-      <c r="M27" s="229" t="s">
-        <v>544</v>
-      </c>
-      <c r="N27" s="229" t="s">
-        <v>545</v>
-      </c>
-      <c r="S27" s="229" t="n">
-        <v>2020</v>
-      </c>
-      <c r="T27" s="236" t="n">
-        <v>0.045</v>
-      </c>
-      <c r="W27" s="229" t="s">
-        <v>546</v>
-      </c>
-      <c r="X27" s="229" t="s">
-        <v>546</v>
-      </c>
-      <c r="Z27" s="239"/>
-      <c r="AI27" s="229"/>
-    </row>
-    <row r="28" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="229" t="s">
-        <v>489</v>
-      </c>
-      <c r="M28" s="229" t="s">
-        <v>547</v>
-      </c>
-      <c r="N28" s="229" t="s">
-        <v>548</v>
-      </c>
-      <c r="T28" s="236" t="n">
-        <v>0.046</v>
-      </c>
-      <c r="W28" s="229" t="s">
-        <v>549</v>
-      </c>
-      <c r="X28" s="229" t="s">
-        <v>549</v>
-      </c>
-      <c r="Z28" s="239"/>
-      <c r="AI28" s="229"/>
-    </row>
-    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="229" t="s">
-        <v>493</v>
-      </c>
-      <c r="M29" s="229" t="s">
-        <v>550</v>
-      </c>
-      <c r="T29" s="236" t="n">
-        <v>0.047</v>
-      </c>
-      <c r="W29" s="229" t="s">
-        <v>551</v>
-      </c>
-      <c r="X29" s="229" t="s">
-        <v>551</v>
-      </c>
-      <c r="Z29" s="239"/>
-      <c r="AI29" s="229"/>
-    </row>
-    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="229" t="s">
-        <v>497</v>
-      </c>
-      <c r="M30" s="246" t="s">
-        <v>335</v>
-      </c>
-      <c r="T30" s="236" t="n">
-        <v>0.048</v>
-      </c>
-      <c r="W30" s="229" t="s">
-        <v>552</v>
-      </c>
-      <c r="X30" s="229" t="s">
-        <v>552</v>
-      </c>
-      <c r="Z30" s="239"/>
-      <c r="AI30" s="229"/>
-    </row>
-    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="229" t="s">
-        <v>501</v>
-      </c>
-      <c r="T31" s="236" t="n">
-        <v>0.049</v>
-      </c>
-      <c r="W31" s="229" t="s">
-        <v>553</v>
-      </c>
-      <c r="X31" s="229" t="s">
-        <v>553</v>
-      </c>
-      <c r="Z31" s="239"/>
-      <c r="AI31" s="229"/>
-    </row>
-    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="229" t="s">
-        <v>505</v>
-      </c>
-      <c r="C32" s="237"/>
-      <c r="T32" s="236" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="W32" s="229" t="s">
-        <v>554</v>
-      </c>
-      <c r="X32" s="229" t="s">
-        <v>554</v>
-      </c>
-      <c r="Z32" s="239"/>
-      <c r="AI32" s="229"/>
-    </row>
-    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="229" t="s">
-        <v>510</v>
-      </c>
-      <c r="W33" s="229" t="s">
-        <v>555</v>
-      </c>
-      <c r="X33" s="229" t="s">
-        <v>555</v>
-      </c>
-      <c r="Z33" s="239"/>
-      <c r="AI33" s="229"/>
+      <c r="W33" s="231" t="s">
+        <v>557</v>
+      </c>
+      <c r="X33" s="231" t="s">
+        <v>557</v>
+      </c>
+      <c r="Z33" s="241"/>
+      <c r="AI33" s="231"/>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="255"/>
-      <c r="W34" s="229" t="s">
-        <v>556</v>
-      </c>
-      <c r="X34" s="229" t="s">
-        <v>556</v>
-      </c>
-      <c r="Z34" s="239"/>
-      <c r="AI34" s="229"/>
+      <c r="B34" s="257"/>
+      <c r="W34" s="231" t="s">
+        <v>558</v>
+      </c>
+      <c r="X34" s="231" t="s">
+        <v>558</v>
+      </c>
+      <c r="Z34" s="241"/>
+      <c r="AI34" s="231"/>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="255"/>
-      <c r="W35" s="229" t="s">
-        <v>557</v>
-      </c>
-      <c r="X35" s="229" t="s">
-        <v>557</v>
-      </c>
-      <c r="Z35" s="239"/>
-      <c r="AI35" s="229"/>
+      <c r="B35" s="257"/>
+      <c r="W35" s="231" t="s">
+        <v>559</v>
+      </c>
+      <c r="X35" s="231" t="s">
+        <v>559</v>
+      </c>
+      <c r="Z35" s="241"/>
+      <c r="AI35" s="231"/>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="255"/>
-      <c r="W36" s="229" t="s">
-        <v>558</v>
-      </c>
-      <c r="X36" s="229" t="s">
-        <v>558</v>
-      </c>
-      <c r="Z36" s="239"/>
-      <c r="AI36" s="229"/>
+      <c r="B36" s="257"/>
+      <c r="W36" s="231" t="s">
+        <v>560</v>
+      </c>
+      <c r="X36" s="231" t="s">
+        <v>560</v>
+      </c>
+      <c r="Z36" s="241"/>
+      <c r="AI36" s="231"/>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="255"/>
-      <c r="W37" s="229" t="s">
-        <v>559</v>
-      </c>
-      <c r="X37" s="229" t="s">
-        <v>559</v>
-      </c>
-      <c r="Z37" s="239"/>
-      <c r="AI37" s="229"/>
+      <c r="B37" s="257"/>
+      <c r="W37" s="231" t="s">
+        <v>561</v>
+      </c>
+      <c r="X37" s="231" t="s">
+        <v>561</v>
+      </c>
+      <c r="Z37" s="241"/>
+      <c r="AI37" s="231"/>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="255"/>
-      <c r="W38" s="229" t="s">
-        <v>560</v>
-      </c>
-      <c r="X38" s="229" t="s">
-        <v>560</v>
-      </c>
-      <c r="Z38" s="239"/>
-      <c r="AI38" s="229"/>
+      <c r="B38" s="257"/>
+      <c r="W38" s="231" t="s">
+        <v>562</v>
+      </c>
+      <c r="X38" s="231" t="s">
+        <v>562</v>
+      </c>
+      <c r="Z38" s="241"/>
+      <c r="AI38" s="231"/>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="255"/>
-      <c r="W39" s="229" t="s">
-        <v>561</v>
-      </c>
-      <c r="X39" s="229" t="s">
-        <v>561</v>
-      </c>
-      <c r="Z39" s="239"/>
-      <c r="AI39" s="229"/>
+      <c r="B39" s="257"/>
+      <c r="W39" s="231" t="s">
+        <v>563</v>
+      </c>
+      <c r="X39" s="231" t="s">
+        <v>563</v>
+      </c>
+      <c r="Z39" s="241"/>
+      <c r="AI39" s="231"/>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="255"/>
-      <c r="W40" s="229" t="s">
-        <v>562</v>
-      </c>
-      <c r="X40" s="229" t="s">
-        <v>562</v>
-      </c>
-      <c r="Z40" s="239"/>
-      <c r="AI40" s="229"/>
+      <c r="B40" s="257"/>
+      <c r="W40" s="231" t="s">
+        <v>564</v>
+      </c>
+      <c r="X40" s="231" t="s">
+        <v>564</v>
+      </c>
+      <c r="Z40" s="241"/>
+      <c r="AI40" s="231"/>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="255"/>
-      <c r="W41" s="229" t="s">
-        <v>563</v>
-      </c>
-      <c r="X41" s="229" t="s">
-        <v>563</v>
-      </c>
-      <c r="Z41" s="239"/>
-      <c r="AI41" s="229"/>
+      <c r="B41" s="257"/>
+      <c r="W41" s="231" t="s">
+        <v>565</v>
+      </c>
+      <c r="X41" s="231" t="s">
+        <v>565</v>
+      </c>
+      <c r="Z41" s="241"/>
+      <c r="AI41" s="231"/>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="255"/>
-      <c r="W42" s="229" t="s">
-        <v>564</v>
-      </c>
-      <c r="X42" s="229" t="s">
-        <v>564</v>
-      </c>
-      <c r="Z42" s="239"/>
-      <c r="AI42" s="229"/>
+      <c r="B42" s="257"/>
+      <c r="W42" s="231" t="s">
+        <v>566</v>
+      </c>
+      <c r="X42" s="231" t="s">
+        <v>566</v>
+      </c>
+      <c r="Z42" s="241"/>
+      <c r="AI42" s="231"/>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="255"/>
-      <c r="W43" s="229" t="s">
-        <v>565</v>
-      </c>
-      <c r="X43" s="229" t="s">
-        <v>565</v>
-      </c>
-      <c r="Z43" s="239"/>
-      <c r="AI43" s="229"/>
+      <c r="B43" s="257"/>
+      <c r="W43" s="231" t="s">
+        <v>567</v>
+      </c>
+      <c r="X43" s="231" t="s">
+        <v>567</v>
+      </c>
+      <c r="Z43" s="241"/>
+      <c r="AI43" s="231"/>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="255"/>
-      <c r="W44" s="229" t="s">
-        <v>566</v>
-      </c>
-      <c r="X44" s="229" t="s">
-        <v>566</v>
-      </c>
-      <c r="Z44" s="239"/>
-      <c r="AI44" s="229"/>
+      <c r="B44" s="257"/>
+      <c r="W44" s="231" t="s">
+        <v>568</v>
+      </c>
+      <c r="X44" s="231" t="s">
+        <v>568</v>
+      </c>
+      <c r="Z44" s="241"/>
+      <c r="AI44" s="231"/>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="255"/>
-      <c r="W45" s="229" t="s">
-        <v>567</v>
-      </c>
-      <c r="X45" s="229" t="s">
-        <v>567</v>
-      </c>
-      <c r="Z45" s="239"/>
-      <c r="AI45" s="229"/>
+      <c r="B45" s="257"/>
+      <c r="W45" s="231" t="s">
+        <v>569</v>
+      </c>
+      <c r="X45" s="231" t="s">
+        <v>569</v>
+      </c>
+      <c r="Z45" s="241"/>
+      <c r="AI45" s="231"/>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="255"/>
-      <c r="W46" s="229" t="s">
-        <v>568</v>
-      </c>
-      <c r="X46" s="229" t="s">
-        <v>568</v>
-      </c>
-      <c r="Z46" s="239"/>
+      <c r="B46" s="257"/>
+      <c r="W46" s="231" t="s">
+        <v>570</v>
+      </c>
+      <c r="X46" s="231" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z46" s="241"/>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="255"/>
-      <c r="W47" s="229" t="s">
-        <v>569</v>
-      </c>
-      <c r="X47" s="229" t="s">
-        <v>569</v>
-      </c>
-      <c r="Z47" s="239"/>
+      <c r="B47" s="257"/>
+      <c r="W47" s="231" t="s">
+        <v>571</v>
+      </c>
+      <c r="X47" s="231" t="s">
+        <v>571</v>
+      </c>
+      <c r="Z47" s="241"/>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B48" s="255"/>
-      <c r="W48" s="229" t="s">
-        <v>570</v>
-      </c>
-      <c r="X48" s="229" t="s">
-        <v>570</v>
-      </c>
-      <c r="Z48" s="239"/>
+      <c r="B48" s="257"/>
+      <c r="W48" s="231" t="s">
+        <v>572</v>
+      </c>
+      <c r="X48" s="231" t="s">
+        <v>572</v>
+      </c>
+      <c r="Z48" s="241"/>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B49" s="255"/>
-      <c r="W49" s="229" t="s">
-        <v>571</v>
-      </c>
-      <c r="X49" s="229" t="s">
-        <v>571</v>
-      </c>
-      <c r="Z49" s="239"/>
+      <c r="B49" s="257"/>
+      <c r="W49" s="231" t="s">
+        <v>573</v>
+      </c>
+      <c r="X49" s="231" t="s">
+        <v>573</v>
+      </c>
+      <c r="Z49" s="241"/>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="255"/>
-      <c r="W50" s="229" t="s">
-        <v>572</v>
-      </c>
-      <c r="X50" s="229" t="s">
-        <v>572</v>
+      <c r="B50" s="257"/>
+      <c r="W50" s="231" t="s">
+        <v>574</v>
+      </c>
+      <c r="X50" s="231" t="s">
+        <v>574</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B51" s="255"/>
-      <c r="W51" s="229" t="s">
-        <v>573</v>
-      </c>
-      <c r="X51" s="229" t="s">
-        <v>573</v>
+      <c r="B51" s="257"/>
+      <c r="W51" s="231" t="s">
+        <v>575</v>
+      </c>
+      <c r="X51" s="231" t="s">
+        <v>575</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B52" s="255"/>
-      <c r="W52" s="229" t="s">
-        <v>574</v>
-      </c>
-      <c r="X52" s="229" t="s">
-        <v>574</v>
+      <c r="B52" s="257"/>
+      <c r="W52" s="231" t="s">
+        <v>576</v>
+      </c>
+      <c r="X52" s="231" t="s">
+        <v>576</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B53" s="255"/>
-      <c r="W53" s="229" t="s">
-        <v>575</v>
-      </c>
-      <c r="X53" s="229" t="s">
-        <v>575</v>
+      <c r="B53" s="257"/>
+      <c r="W53" s="231" t="s">
+        <v>577</v>
+      </c>
+      <c r="X53" s="231" t="s">
+        <v>577</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B54" s="255"/>
-      <c r="W54" s="229" t="s">
-        <v>576</v>
-      </c>
-      <c r="X54" s="229" t="s">
-        <v>576</v>
+      <c r="B54" s="257"/>
+      <c r="W54" s="231" t="s">
+        <v>578</v>
+      </c>
+      <c r="X54" s="231" t="s">
+        <v>578</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B55" s="255"/>
-      <c r="W55" s="229" t="s">
-        <v>577</v>
-      </c>
-      <c r="X55" s="229" t="s">
-        <v>577</v>
+      <c r="B55" s="257"/>
+      <c r="W55" s="231" t="s">
+        <v>579</v>
+      </c>
+      <c r="X55" s="231" t="s">
+        <v>579</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W56" s="229" t="s">
-        <v>578</v>
-      </c>
-      <c r="X56" s="229" t="s">
-        <v>578</v>
+      <c r="W56" s="231" t="s">
+        <v>580</v>
+      </c>
+      <c r="X56" s="231" t="s">
+        <v>580</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W57" s="229" t="s">
-        <v>579</v>
-      </c>
-      <c r="X57" s="229" t="s">
-        <v>579</v>
+      <c r="W57" s="231" t="s">
+        <v>581</v>
+      </c>
+      <c r="X57" s="231" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W58" s="229" t="s">
-        <v>580</v>
-      </c>
-      <c r="X58" s="229" t="s">
-        <v>580</v>
+      <c r="W58" s="231" t="s">
+        <v>582</v>
+      </c>
+      <c r="X58" s="231" t="s">
+        <v>582</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W59" s="229" t="s">
-        <v>581</v>
-      </c>
-      <c r="X59" s="229" t="s">
-        <v>581</v>
+      <c r="W59" s="231" t="s">
+        <v>583</v>
+      </c>
+      <c r="X59" s="231" t="s">
+        <v>583</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W60" s="229" t="s">
-        <v>582</v>
-      </c>
-      <c r="X60" s="229" t="s">
-        <v>582</v>
+      <c r="W60" s="231" t="s">
+        <v>584</v>
+      </c>
+      <c r="X60" s="231" t="s">
+        <v>584</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W61" s="229" t="s">
-        <v>583</v>
-      </c>
-      <c r="X61" s="229" t="s">
-        <v>583</v>
+      <c r="W61" s="231" t="s">
+        <v>585</v>
+      </c>
+      <c r="X61" s="231" t="s">
+        <v>585</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W62" s="229" t="s">
-        <v>584</v>
-      </c>
-      <c r="X62" s="229" t="s">
-        <v>584</v>
+      <c r="W62" s="231" t="s">
+        <v>586</v>
+      </c>
+      <c r="X62" s="231" t="s">
+        <v>586</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W63" s="229" t="s">
-        <v>585</v>
-      </c>
-      <c r="X63" s="229" t="s">
-        <v>585</v>
+      <c r="W63" s="231" t="s">
+        <v>587</v>
+      </c>
+      <c r="X63" s="231" t="s">
+        <v>587</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W64" s="229" t="s">
-        <v>586</v>
-      </c>
-      <c r="X64" s="229" t="s">
-        <v>586</v>
+      <c r="W64" s="231" t="s">
+        <v>588</v>
+      </c>
+      <c r="X64" s="231" t="s">
+        <v>588</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W65" s="229" t="s">
-        <v>587</v>
-      </c>
-      <c r="X65" s="229" t="s">
-        <v>587</v>
+      <c r="W65" s="231" t="s">
+        <v>589</v>
+      </c>
+      <c r="X65" s="231" t="s">
+        <v>589</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W66" s="229" t="s">
-        <v>588</v>
-      </c>
-      <c r="X66" s="229" t="s">
-        <v>588</v>
+      <c r="W66" s="231" t="s">
+        <v>590</v>
+      </c>
+      <c r="X66" s="231" t="s">
+        <v>590</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W67" s="229" t="s">
-        <v>589</v>
-      </c>
-      <c r="X67" s="229" t="s">
-        <v>589</v>
+      <c r="W67" s="231" t="s">
+        <v>591</v>
+      </c>
+      <c r="X67" s="231" t="s">
+        <v>591</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W68" s="229" t="s">
-        <v>590</v>
-      </c>
-      <c r="X68" s="229" t="s">
-        <v>590</v>
+      <c r="W68" s="231" t="s">
+        <v>592</v>
+      </c>
+      <c r="X68" s="231" t="s">
+        <v>592</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W69" s="229" t="s">
-        <v>591</v>
-      </c>
-      <c r="X69" s="229" t="s">
-        <v>591</v>
+      <c r="W69" s="231" t="s">
+        <v>593</v>
+      </c>
+      <c r="X69" s="231" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W70" s="229" t="s">
-        <v>592</v>
-      </c>
-      <c r="X70" s="229" t="s">
-        <v>592</v>
+      <c r="W70" s="231" t="s">
+        <v>594</v>
+      </c>
+      <c r="X70" s="231" t="s">
+        <v>594</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W71" s="229" t="s">
-        <v>593</v>
-      </c>
-      <c r="X71" s="229" t="s">
-        <v>593</v>
+      <c r="W71" s="231" t="s">
+        <v>595</v>
+      </c>
+      <c r="X71" s="231" t="s">
+        <v>595</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W72" s="229" t="s">
-        <v>594</v>
-      </c>
-      <c r="X72" s="229" t="s">
-        <v>594</v>
+      <c r="W72" s="231" t="s">
+        <v>596</v>
+      </c>
+      <c r="X72" s="231" t="s">
+        <v>596</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W73" s="229" t="s">
-        <v>595</v>
-      </c>
-      <c r="X73" s="229" t="s">
-        <v>595</v>
+      <c r="W73" s="231" t="s">
+        <v>597</v>
+      </c>
+      <c r="X73" s="231" t="s">
+        <v>597</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W74" s="229" t="s">
-        <v>596</v>
-      </c>
-      <c r="X74" s="229" t="s">
-        <v>596</v>
+      <c r="W74" s="231" t="s">
+        <v>598</v>
+      </c>
+      <c r="X74" s="231" t="s">
+        <v>598</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W75" s="229" t="s">
-        <v>597</v>
-      </c>
-      <c r="X75" s="229" t="s">
-        <v>597</v>
+      <c r="W75" s="231" t="s">
+        <v>599</v>
+      </c>
+      <c r="X75" s="231" t="s">
+        <v>599</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W76" s="229" t="s">
-        <v>598</v>
-      </c>
-      <c r="X76" s="229" t="s">
-        <v>598</v>
+      <c r="W76" s="231" t="s">
+        <v>600</v>
+      </c>
+      <c r="X76" s="231" t="s">
+        <v>600</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W77" s="229" t="s">
-        <v>599</v>
-      </c>
-      <c r="X77" s="229" t="s">
-        <v>599</v>
+      <c r="W77" s="231" t="s">
+        <v>601</v>
+      </c>
+      <c r="X77" s="231" t="s">
+        <v>601</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W78" s="229" t="s">
-        <v>600</v>
-      </c>
-      <c r="X78" s="229" t="s">
-        <v>600</v>
+      <c r="W78" s="231" t="s">
+        <v>602</v>
+      </c>
+      <c r="X78" s="231" t="s">
+        <v>602</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W79" s="229" t="s">
-        <v>601</v>
-      </c>
-      <c r="X79" s="229" t="s">
-        <v>601</v>
+      <c r="W79" s="231" t="s">
+        <v>603</v>
+      </c>
+      <c r="X79" s="231" t="s">
+        <v>603</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W80" s="229" t="s">
-        <v>602</v>
-      </c>
-      <c r="X80" s="229" t="s">
-        <v>602</v>
+      <c r="W80" s="231" t="s">
+        <v>604</v>
+      </c>
+      <c r="X80" s="231" t="s">
+        <v>604</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W81" s="229" t="s">
-        <v>603</v>
-      </c>
-      <c r="X81" s="229" t="s">
-        <v>603</v>
+      <c r="W81" s="231" t="s">
+        <v>605</v>
+      </c>
+      <c r="X81" s="231" t="s">
+        <v>605</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W82" s="229" t="s">
-        <v>604</v>
-      </c>
-      <c r="X82" s="229" t="s">
-        <v>604</v>
+      <c r="W82" s="231" t="s">
+        <v>606</v>
+      </c>
+      <c r="X82" s="231" t="s">
+        <v>606</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W83" s="229" t="s">
-        <v>605</v>
-      </c>
-      <c r="X83" s="229" t="s">
-        <v>605</v>
+      <c r="W83" s="231" t="s">
+        <v>607</v>
+      </c>
+      <c r="X83" s="231" t="s">
+        <v>607</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W84" s="229" t="s">
-        <v>606</v>
-      </c>
-      <c r="X84" s="229" t="s">
-        <v>606</v>
+      <c r="W84" s="231" t="s">
+        <v>608</v>
+      </c>
+      <c r="X84" s="231" t="s">
+        <v>608</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W85" s="229" t="s">
-        <v>607</v>
-      </c>
-      <c r="X85" s="229" t="s">
-        <v>607</v>
+      <c r="W85" s="231" t="s">
+        <v>609</v>
+      </c>
+      <c r="X85" s="231" t="s">
+        <v>609</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W86" s="229" t="s">
-        <v>608</v>
-      </c>
-      <c r="X86" s="229" t="s">
-        <v>608</v>
+      <c r="W86" s="231" t="s">
+        <v>610</v>
+      </c>
+      <c r="X86" s="231" t="s">
+        <v>610</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W87" s="229" t="s">
-        <v>609</v>
-      </c>
-      <c r="X87" s="229" t="s">
-        <v>609</v>
+      <c r="W87" s="231" t="s">
+        <v>611</v>
+      </c>
+      <c r="X87" s="231" t="s">
+        <v>611</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W88" s="229" t="s">
-        <v>610</v>
-      </c>
-      <c r="X88" s="229" t="s">
-        <v>610</v>
+      <c r="W88" s="231" t="s">
+        <v>612</v>
+      </c>
+      <c r="X88" s="231" t="s">
+        <v>612</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W89" s="229" t="s">
-        <v>611</v>
-      </c>
-      <c r="X89" s="229" t="s">
-        <v>611</v>
+      <c r="W89" s="231" t="s">
+        <v>613</v>
+      </c>
+      <c r="X89" s="231" t="s">
+        <v>613</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W90" s="229" t="s">
-        <v>612</v>
-      </c>
-      <c r="X90" s="229" t="s">
-        <v>612</v>
+      <c r="W90" s="231" t="s">
+        <v>614</v>
+      </c>
+      <c r="X90" s="231" t="s">
+        <v>614</v>
       </c>
     </row>
   </sheetData>
@@ -14273,57 +14292,57 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="256" t="s">
-        <v>622</v>
+      <c r="A11" s="258" t="s">
+        <v>624</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
     </row>
   </sheetData>
@@ -14365,72 +14384,72 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>48</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>627</v>
-      </c>
-      <c r="B2" s="257" t="n">
+        <v>629</v>
+      </c>
+      <c r="B2" s="259" t="n">
         <v>42832</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="D2" s="35" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
+        <v>632</v>
+      </c>
+      <c r="B3" s="259" t="n">
+        <v>42835</v>
+      </c>
+      <c r="C3" s="0" t="s">
         <v>630</v>
       </c>
-      <c r="B3" s="257" t="n">
-        <v>42835</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>628</v>
-      </c>
       <c r="D3" s="0" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>632</v>
-      </c>
-      <c r="B4" s="257" t="n">
+        <v>634</v>
+      </c>
+      <c r="B4" s="259" t="n">
         <v>42838</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>634</v>
-      </c>
-      <c r="B5" s="257" t="n">
+        <v>636</v>
+      </c>
+      <c r="B5" s="259" t="n">
         <v>42872</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
     </row>
   </sheetData>
@@ -14471,278 +14490,278 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="76.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="258" t="s">
-        <v>637</v>
-      </c>
-      <c r="B2" s="259"/>
+      <c r="A2" s="260" t="s">
+        <v>639</v>
+      </c>
+      <c r="B2" s="261"/>
       <c r="C2" s="35" t="s">
-        <v>638</v>
-      </c>
-      <c r="E2" s="260" t="s">
-        <v>639</v>
-      </c>
-      <c r="F2" s="261"/>
+        <v>640</v>
+      </c>
+      <c r="E2" s="262" t="s">
+        <v>641</v>
+      </c>
+      <c r="F2" s="263"/>
       <c r="G2" s="35" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="H2" s="35"/>
-      <c r="I2" s="262" t="s">
-        <v>641</v>
-      </c>
-      <c r="J2" s="263"/>
+      <c r="I2" s="264" t="s">
+        <v>643</v>
+      </c>
+      <c r="J2" s="265"/>
       <c r="K2" s="35" t="s">
-        <v>642</v>
-      </c>
-      <c r="M2" s="262" t="s">
-        <v>643</v>
-      </c>
-      <c r="N2" s="264"/>
+        <v>644</v>
+      </c>
+      <c r="M2" s="264" t="s">
+        <v>645</v>
+      </c>
+      <c r="N2" s="266"/>
       <c r="O2" s="35" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="256"/>
+      <c r="A3" s="258"/>
     </row>
     <row r="4" customFormat="false" ht="76.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="260" t="s">
-        <v>645</v>
-      </c>
-      <c r="B4" s="265"/>
+      <c r="A4" s="262" t="s">
+        <v>647</v>
+      </c>
+      <c r="B4" s="267"/>
       <c r="C4" s="35" t="s">
-        <v>646</v>
-      </c>
-      <c r="E4" s="262" t="s">
-        <v>647</v>
-      </c>
-      <c r="F4" s="266"/>
+        <v>648</v>
+      </c>
+      <c r="E4" s="264" t="s">
+        <v>649</v>
+      </c>
+      <c r="F4" s="268"/>
       <c r="G4" s="35" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="260"/>
+      <c r="A5" s="262"/>
       <c r="C5" s="1"/>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="256" t="s">
-        <v>649</v>
+      <c r="A6" s="258" t="s">
+        <v>651</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="256"/>
+      <c r="A7" s="258"/>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="256" t="s">
-        <v>651</v>
+      <c r="A8" s="258" t="s">
+        <v>653</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="0" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="0" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="267" t="s">
-        <v>660</v>
-      </c>
-      <c r="B13" s="268" t="s">
-        <v>661</v>
-      </c>
-      <c r="C13" s="269" t="s">
+      <c r="A13" s="269" t="s">
         <v>662</v>
       </c>
-      <c r="D13" s="269"/>
+      <c r="B13" s="270" t="s">
+        <v>663</v>
+      </c>
+      <c r="C13" s="271" t="s">
+        <v>664</v>
+      </c>
+      <c r="D13" s="271"/>
     </row>
     <row r="14" customFormat="false" ht="60.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B14" s="268" t="s">
-        <v>663</v>
-      </c>
-      <c r="C14" s="269" t="s">
-        <v>664</v>
-      </c>
-      <c r="D14" s="269"/>
-      <c r="H14" s="270" t="s">
+      <c r="B14" s="270" t="s">
         <v>665</v>
       </c>
-      <c r="I14" s="270"/>
-      <c r="J14" s="270"/>
-      <c r="K14" s="270"/>
-      <c r="L14" s="270"/>
-      <c r="M14" s="270"/>
-      <c r="N14" s="270"/>
+      <c r="C14" s="271" t="s">
+        <v>666</v>
+      </c>
+      <c r="D14" s="271"/>
+      <c r="H14" s="272" t="s">
+        <v>667</v>
+      </c>
+      <c r="I14" s="272"/>
+      <c r="J14" s="272"/>
+      <c r="K14" s="272"/>
+      <c r="L14" s="272"/>
+      <c r="M14" s="272"/>
+      <c r="N14" s="272"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="268"/>
-      <c r="C15" s="269"/>
-      <c r="D15" s="269"/>
+      <c r="B15" s="270"/>
+      <c r="C15" s="271"/>
+      <c r="D15" s="271"/>
     </row>
     <row r="16" customFormat="false" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="271" t="s">
-        <v>666</v>
-      </c>
-      <c r="B16" s="272" t="s">
-        <v>667</v>
-      </c>
-      <c r="C16" s="272"/>
-      <c r="D16" s="272"/>
-      <c r="E16" s="272"/>
+      <c r="A16" s="273" t="s">
+        <v>668</v>
+      </c>
+      <c r="B16" s="274" t="s">
+        <v>669</v>
+      </c>
+      <c r="C16" s="274"/>
+      <c r="D16" s="274"/>
+      <c r="E16" s="274"/>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="256" t="s">
-        <v>668</v>
+      <c r="A18" s="258" t="s">
+        <v>670</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="256"/>
+      <c r="A19" s="258"/>
     </row>
     <row r="20" customFormat="false" ht="78.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="273" t="s">
-        <v>670</v>
-      </c>
-      <c r="B20" s="274" t="s">
-        <v>671</v>
-      </c>
-      <c r="C20" s="274"/>
-      <c r="D20" s="274"/>
-      <c r="E20" s="274"/>
-      <c r="F20" s="274"/>
-      <c r="G20" s="274"/>
-      <c r="H20" s="274"/>
+      <c r="A20" s="275" t="s">
+        <v>672</v>
+      </c>
+      <c r="B20" s="276" t="s">
+        <v>673</v>
+      </c>
+      <c r="C20" s="276"/>
+      <c r="D20" s="276"/>
+      <c r="E20" s="276"/>
+      <c r="F20" s="276"/>
+      <c r="G20" s="276"/>
+      <c r="H20" s="276"/>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="273"/>
-      <c r="B21" s="275"/>
-      <c r="C21" s="275"/>
-      <c r="D21" s="275"/>
-      <c r="E21" s="275"/>
-      <c r="F21" s="275"/>
-      <c r="G21" s="275"/>
-      <c r="H21" s="275"/>
+      <c r="A21" s="275"/>
+      <c r="B21" s="277"/>
+      <c r="C21" s="277"/>
+      <c r="D21" s="277"/>
+      <c r="E21" s="277"/>
+      <c r="F21" s="277"/>
+      <c r="G21" s="277"/>
+      <c r="H21" s="277"/>
     </row>
     <row r="22" customFormat="false" ht="122.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="273" t="s">
-        <v>672</v>
-      </c>
-      <c r="B22" s="274" t="s">
-        <v>673</v>
-      </c>
-      <c r="C22" s="274"/>
-      <c r="D22" s="274"/>
-      <c r="E22" s="274"/>
-      <c r="F22" s="274"/>
-      <c r="G22" s="274"/>
-      <c r="H22" s="274"/>
+      <c r="A22" s="275" t="s">
+        <v>674</v>
+      </c>
+      <c r="B22" s="276" t="s">
+        <v>675</v>
+      </c>
+      <c r="C22" s="276"/>
+      <c r="D22" s="276"/>
+      <c r="E22" s="276"/>
+      <c r="F22" s="276"/>
+      <c r="G22" s="276"/>
+      <c r="H22" s="276"/>
     </row>
     <row r="24" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="260" t="s">
-        <v>674</v>
+      <c r="A24" s="262" t="s">
+        <v>676</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="63" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="267" t="s">
-        <v>676</v>
-      </c>
-      <c r="B26" s="274" t="s">
-        <v>677</v>
-      </c>
-      <c r="C26" s="274"/>
-      <c r="D26" s="274"/>
-      <c r="E26" s="274"/>
-      <c r="F26" s="274" t="s">
+      <c r="A26" s="269" t="s">
         <v>678</v>
       </c>
-      <c r="G26" s="274"/>
-      <c r="H26" s="274"/>
-      <c r="I26" s="274"/>
-      <c r="J26" s="274"/>
-      <c r="K26" s="274"/>
+      <c r="B26" s="276" t="s">
+        <v>679</v>
+      </c>
+      <c r="C26" s="276"/>
+      <c r="D26" s="276"/>
+      <c r="E26" s="276"/>
+      <c r="F26" s="276" t="s">
+        <v>680</v>
+      </c>
+      <c r="G26" s="276"/>
+      <c r="H26" s="276"/>
+      <c r="I26" s="276"/>
+      <c r="J26" s="276"/>
+      <c r="K26" s="276"/>
     </row>
     <row r="28" customFormat="false" ht="120.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="276" t="s">
-        <v>679</v>
-      </c>
-      <c r="B28" s="274" t="s">
-        <v>680</v>
-      </c>
-      <c r="C28" s="274"/>
-      <c r="D28" s="274" t="s">
+      <c r="A28" s="278" t="s">
         <v>681</v>
       </c>
-      <c r="E28" s="274"/>
-      <c r="F28" s="274"/>
-      <c r="G28" s="274"/>
+      <c r="B28" s="276" t="s">
+        <v>682</v>
+      </c>
+      <c r="C28" s="276"/>
+      <c r="D28" s="276" t="s">
+        <v>683</v>
+      </c>
+      <c r="E28" s="276"/>
+      <c r="F28" s="276"/>
+      <c r="G28" s="276"/>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="256" t="s">
-        <v>682</v>
+      <c r="A30" s="258" t="s">
+        <v>684</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="256" t="s">
-        <v>684</v>
+      <c r="A32" s="258" t="s">
+        <v>686</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E33" s="0" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E34" s="0" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E35" s="0" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
     </row>
   </sheetData>

--- a/bicc_template.xlsx
+++ b/bicc_template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" state="visible" r:id="rId2"/>
@@ -96,6 +96,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0_0_0" vbProcedure="false">Summary!$A$1:$L$49</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0_0_0_0" vbProcedure="false">Summary!$A$1:$L$49</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0_0_0_0_0" vbProcedure="false">Summary!$A$1:$L$49</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0_0_0_0_0_0" vbProcedure="false">Summary!$A$1:$L$49</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area" vbProcedure="false">'Finance &amp; Benefits'!$A$1:$I$197</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area_0" vbProcedure="false">'Finance &amp; Benefits'!$A$1:$I$197</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area_0_0" vbProcedure="false">'Finance &amp; Benefits'!$A$1:$I$197</definedName>
@@ -104,6 +105,7 @@
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area_0_0_0_0_0" vbProcedure="false">'Finance &amp; Benefits'!$A$1:$I$197</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area_0_0_0_0_0_0" vbProcedure="false">'Finance &amp; Benefits'!$A$1:$I$197</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area_0_0_0_0_0_0_0" vbProcedure="false">'Finance &amp; Benefits'!$A$1:$I$197</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area_0_0_0_0_0_0_0_0" vbProcedure="false">'Finance &amp; Benefits'!$A$1:$I$197</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Area" vbProcedure="false">Resource!$A$1:$M$39</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Area_0" vbProcedure="false">Resource!$A$1:$M$39</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Area_0_0" vbProcedure="false">Resource!$A$1:$M$39</definedName>
@@ -112,6 +114,7 @@
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Area_0_0_0_0_0" vbProcedure="false">Resource!$A$1:$M$39</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Area_0_0_0_0_0_0" vbProcedure="false">Resource!$A$1:$M$39</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Area_0_0_0_0_0_0_0" vbProcedure="false">Resource!$A$1:$M$39</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Area_0_0_0_0_0_0_0_0" vbProcedure="false">Resource!$A$1:$M$39</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="Concept" vbProcedure="false">Dropdown!$AD$2:$AD$19</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="Other" vbProcedure="false">Dropdown!$AD$2:$AD$19</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm.Print_Area" vbProcedure="false">'Approval &amp; Project milestones'!$A$1:$L$42</definedName>
@@ -122,6 +125,7 @@
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm.Print_Area_0_0_0_0_0" vbProcedure="false">'Approval &amp; Project milestones'!$A$1:$L$42</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm.Print_Area_0_0_0_0_0_0" vbProcedure="false">'Approval &amp; Project milestones'!$A$1:$L$42</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm.Print_Area_0_0_0_0_0_0_0" vbProcedure="false">'Approval &amp; Project milestones'!$A$1:$L$42</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm.Print_Area_0_0_0_0_0_0_0_0" vbProcedure="false">'Approval &amp; Project milestones'!$A$1:$L$42</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -4963,9 +4967,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1880640</xdr:colOff>
+      <xdr:colOff>1880280</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>1032480</xdr:rowOff>
+      <xdr:rowOff>1032120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4979,7 +4983,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="322200" y="83880"/>
-          <a:ext cx="1558440" cy="948600"/>
+          <a:ext cx="1558080" cy="948240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5005,9 +5009,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1558440</xdr:colOff>
+      <xdr:colOff>1558080</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>995760</xdr:rowOff>
+      <xdr:rowOff>995400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5021,7 +5025,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="1558440" cy="995760"/>
+          <a:ext cx="1558080" cy="995400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5047,9 +5051,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1548000</xdr:colOff>
+      <xdr:colOff>1547640</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>958320</xdr:rowOff>
+      <xdr:rowOff>957960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5063,7 +5067,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="1548000" cy="958320"/>
+          <a:ext cx="1547640" cy="957960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5089,9 +5093,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1558440</xdr:colOff>
+      <xdr:colOff>1558080</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>958320</xdr:rowOff>
+      <xdr:rowOff>957960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5105,7 +5109,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="1558440" cy="958320"/>
+          <a:ext cx="1558080" cy="957960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5131,9 +5135,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1558440</xdr:colOff>
+      <xdr:colOff>1558080</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>958320</xdr:rowOff>
+      <xdr:rowOff>957960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5147,7 +5151,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="1558440" cy="958320"/>
+          <a:ext cx="1558080" cy="957960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6230,8 +6234,8 @@
   </sheetPr>
   <dimension ref="A1:L198"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="68" zoomScaleNormal="68" zoomScalePageLayoutView="68" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A88" activeCellId="0" sqref="A88"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A133" colorId="64" zoomScale="68" zoomScaleNormal="68" zoomScalePageLayoutView="68" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C141" activeCellId="0" sqref="C141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9753,7 +9757,7 @@
     <cfRule type="beginsWith" priority="3" operator="beginsWith" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="Amber" dxfId="0"/>
     <cfRule type="beginsWith" priority="4" operator="beginsWith" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="Red" dxfId="0"/>
   </conditionalFormatting>
-  <dataValidations count="18">
+  <dataValidations count="19">
     <dataValidation allowBlank="true" operator="greaterThan" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C27:E36 H27:I28 H30:I31 H33:I34 H36:I36 C38:E71 H38:I71 C80:E89 C91:E124 C144:E187" type="decimal">
       <formula1>-1</formula1>
       <formula2>0</formula2>
@@ -9776,10 +9780,6 @@
     </dataValidation>
     <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C18 E18" type="list">
       <formula1>Dropdown!$R$2:$R$3</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C141" type="list">
-      <formula1>Dropdown!$J$2:$J$4</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C9 E9:E10" type="list">
@@ -9810,7 +9810,7 @@
       <formula1>dropdown!#ref!</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="greaterThan" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="H29:I29 C37:F37 H37:I37 C90:F90 F139:F141" type="list">
+    <dataValidation allowBlank="true" operator="greaterThan" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="H29:I29 C37:F37 H37:I37 C90:F90" type="list">
       <formula1>Dropdown!$V$2:$V$3</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -9823,6 +9823,14 @@
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C6" type="none">
+      <formula1>Dropdown!$J$2:$J$4</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="greaterThan" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="F139:F141" type="none">
+      <formula1>Dropdown!$V$2:$V$3</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C141" type="none">
       <formula1>Dropdown!$J$2:$J$4</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -10646,7 +10654,7 @@
   </sheetPr>
   <dimension ref="A1:L42"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="77" zoomScaleNormal="71" zoomScalePageLayoutView="77" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="77" zoomScaleNormal="71" zoomScalePageLayoutView="77" workbookViewId="0">
       <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
     </sheetView>
   </sheetViews>

--- a/bicc_template.xlsx
+++ b/bicc_template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" state="visible" r:id="rId2"/>
@@ -97,6 +97,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0_0_0_0" vbProcedure="false">Summary!$A$1:$L$49</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0_0_0_0_0" vbProcedure="false">Summary!$A$1:$L$49</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0_0_0_0_0_0" vbProcedure="false">Summary!$A$1:$L$49</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0_0_0_0_0_0_0" vbProcedure="false">Summary!$A$1:$L$49</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area" vbProcedure="false">'Finance &amp; Benefits'!$A$1:$I$197</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area_0" vbProcedure="false">'Finance &amp; Benefits'!$A$1:$I$197</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area_0_0" vbProcedure="false">'Finance &amp; Benefits'!$A$1:$I$197</definedName>
@@ -106,6 +107,7 @@
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area_0_0_0_0_0_0" vbProcedure="false">'Finance &amp; Benefits'!$A$1:$I$197</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area_0_0_0_0_0_0_0" vbProcedure="false">'Finance &amp; Benefits'!$A$1:$I$197</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area_0_0_0_0_0_0_0_0" vbProcedure="false">'Finance &amp; Benefits'!$A$1:$I$197</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Finance &amp; Benefits'!$A$1:$I$197</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Area" vbProcedure="false">Resource!$A$1:$M$39</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Area_0" vbProcedure="false">Resource!$A$1:$M$39</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Area_0_0" vbProcedure="false">Resource!$A$1:$M$39</definedName>
@@ -115,6 +117,7 @@
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Area_0_0_0_0_0_0" vbProcedure="false">Resource!$A$1:$M$39</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Area_0_0_0_0_0_0_0" vbProcedure="false">Resource!$A$1:$M$39</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Area_0_0_0_0_0_0_0_0" vbProcedure="false">Resource!$A$1:$M$39</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Area_0_0_0_0_0_0_0_0_0" vbProcedure="false">Resource!$A$1:$M$39</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="Concept" vbProcedure="false">Dropdown!$AD$2:$AD$19</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="Other" vbProcedure="false">Dropdown!$AD$2:$AD$19</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm.Print_Area" vbProcedure="false">'Approval &amp; Project milestones'!$A$1:$L$42</definedName>
@@ -126,6 +129,7 @@
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm.Print_Area_0_0_0_0_0_0" vbProcedure="false">'Approval &amp; Project milestones'!$A$1:$L$42</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm.Print_Area_0_0_0_0_0_0_0" vbProcedure="false">'Approval &amp; Project milestones'!$A$1:$L$42</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm.Print_Area_0_0_0_0_0_0_0_0" vbProcedure="false">'Approval &amp; Project milestones'!$A$1:$L$42</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm.Print_Area_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Approval &amp; Project milestones'!$A$1:$L$42</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -2655,15 +2659,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="8">
+  <numFmts count="7">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="DD/MM/YYYY"/>
     <numFmt numFmtId="166" formatCode="0.00%"/>
     <numFmt numFmtId="167" formatCode="0.0"/>
     <numFmt numFmtId="168" formatCode="_-\£* #,##0.0_-;&quot;-£&quot;* #,##0.0_-;_-\£* \-?_-;_-@_-"/>
-    <numFmt numFmtId="169" formatCode="DD/MM/YY"/>
-    <numFmt numFmtId="170" formatCode="0%"/>
-    <numFmt numFmtId="171" formatCode="0.0%"/>
+    <numFmt numFmtId="169" formatCode="0%"/>
+    <numFmt numFmtId="170" formatCode="0.0%"/>
   </numFmts>
   <fonts count="40">
     <font>
@@ -3735,11 +3738,11 @@
     <xf numFmtId="164" fontId="12" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="279">
+  <cellXfs count="278">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -4524,10 +4527,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="16" fillId="13" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -4692,7 +4691,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="171" fontId="36" fillId="0" borderId="0" xfId="37" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="170" fontId="36" fillId="0" borderId="0" xfId="37" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4704,7 +4703,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="36" fillId="0" borderId="0" xfId="37" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="169" fontId="36" fillId="0" borderId="0" xfId="37" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4885,12 +4884,7 @@
   </cellStyles>
   <dxfs count="1">
     <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false" readingOrder="1"/>
     </dxf>
   </dxfs>
   <colors>
@@ -4967,9 +4961,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1880280</xdr:colOff>
+      <xdr:colOff>1879920</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>1032120</xdr:rowOff>
+      <xdr:rowOff>1031760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4983,7 +4977,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="322200" y="83880"/>
-          <a:ext cx="1558080" cy="948240"/>
+          <a:ext cx="1557720" cy="947880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5009,9 +5003,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1558080</xdr:colOff>
+      <xdr:colOff>1557720</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>995400</xdr:rowOff>
+      <xdr:rowOff>995040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5025,7 +5019,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="1558080" cy="995400"/>
+          <a:ext cx="1557720" cy="995040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5051,9 +5045,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1547640</xdr:colOff>
+      <xdr:colOff>1547280</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>957960</xdr:rowOff>
+      <xdr:rowOff>957600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5067,7 +5061,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="1547640" cy="957960"/>
+          <a:ext cx="1547280" cy="957600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5093,9 +5087,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1558080</xdr:colOff>
+      <xdr:colOff>1557720</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>957960</xdr:rowOff>
+      <xdr:rowOff>957600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5109,7 +5103,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="1558080" cy="957960"/>
+          <a:ext cx="1557720" cy="957600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5135,9 +5129,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1558080</xdr:colOff>
+      <xdr:colOff>1557720</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>957960</xdr:rowOff>
+      <xdr:rowOff>957600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5151,7 +5145,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="1558080" cy="957960"/>
+          <a:ext cx="1557720" cy="957600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5196,8 +5190,8 @@
   </sheetPr>
   <dimension ref="A1:L49"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="68" zoomScaleNormal="62" zoomScalePageLayoutView="68" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="68" zoomScaleNormal="62" zoomScalePageLayoutView="68" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B46" activeCellId="0" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5991,7 +5985,7 @@
       <c r="K45" s="10"/>
       <c r="L45" s="4"/>
     </row>
-    <row r="46" s="19" customFormat="true" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" s="19" customFormat="true" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="16" t="s">
         <v>61</v>
       </c>
@@ -6122,17 +6116,13 @@
     <cfRule type="beginsWith" priority="5" operator="beginsWith" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="Amber/Red" dxfId="0"/>
     <cfRule type="beginsWith" priority="6" operator="beginsWith" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="Red" dxfId="0"/>
   </conditionalFormatting>
-  <dataValidations count="22">
+  <dataValidations count="24">
     <dataValidation allowBlank="true" operator="lessThan" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="H35:K35 I36:K38 C47:K47" type="textLength">
       <formula1>7001</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" operator="lessThan" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B26:C26 G26:G27 K27" type="textLength">
       <formula1>5001</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="H18" type="list">
-      <formula1>$Z$2:$Z$21</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="H19" type="list">
@@ -6175,10 +6165,6 @@
       <formula1>Dropdown!$AR$2:$AR$5</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="H29" type="list">
-      <formula1>Dropdown!$K$2:$K$4</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
     <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="G32" type="list">
       <formula1>Dropdown!$D$2:$D$4</formula1>
       <formula2>0</formula2>
@@ -6195,20 +6181,36 @@
       <formula1>Dropdown!$E$2:$E$7</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="H41:H43" type="list">
-      <formula1>Dropdown!$F$2:$F$11</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B46" type="list">
-      <formula1>Dropdown!$I$2:$I$6</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
     <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B8:C8" type="list">
       <formula1>Dropdown!$AH$2:$AH$7</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B10:C10" type="list">
       <formula1>Dropdown!$AJ$2:$AJ$9</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="H18" type="none">
+      <formula1>$Z$2:$Z$21</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="H29" type="none">
+      <formula1>Dropdown!$K$2:$K$4</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="H41" type="none">
+      <formula1>Dropdown!$F$2:$F$11</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="H42" type="none">
+      <formula1>Dropdown!$F$2:$F$11</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="H43" type="none">
+      <formula1>Dropdown!$F$2:$F$11</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B46" type="none">
+      <formula1>Dropdown!$I$2:$I$6</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -6234,8 +6236,8 @@
   </sheetPr>
   <dimension ref="A1:L198"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A133" colorId="64" zoomScale="68" zoomScaleNormal="68" zoomScalePageLayoutView="68" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C141" activeCellId="0" sqref="C141"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A167" colorId="64" zoomScale="68" zoomScaleNormal="68" zoomScalePageLayoutView="68" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B192" activeCellId="0" sqref="B192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9757,7 +9759,7 @@
     <cfRule type="beginsWith" priority="3" operator="beginsWith" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="Amber" dxfId="0"/>
     <cfRule type="beginsWith" priority="4" operator="beginsWith" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="Red" dxfId="0"/>
   </conditionalFormatting>
-  <dataValidations count="19">
+  <dataValidations count="20">
     <dataValidation allowBlank="true" operator="greaterThan" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C27:E36 H27:I28 H30:I31 H33:I34 H36:I36 C38:E71 H38:I71 C80:E89 C91:E124 C144:E187" type="decimal">
       <formula1>-1</formula1>
       <formula2>0</formula2>
@@ -9818,20 +9820,24 @@
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B192" type="list">
-      <formula1>Dropdown!$AG$2:$AG$11</formula1>
+    <dataValidation allowBlank="true" operator="greaterThan" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="F140:F141" type="none">
+      <formula1>Dropdown!$V$2:$V$3</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C6" type="none">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C6:D6" type="none">
       <formula1>Dropdown!$J$2:$J$4</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="greaterThan" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="F139:F141" type="none">
+    <dataValidation allowBlank="true" operator="greaterThan" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="F139" type="none">
       <formula1>Dropdown!$V$2:$V$3</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C141" type="none">
       <formula1>Dropdown!$J$2:$J$4</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B192" type="none">
+      <formula1>Dropdown!$AG$2:$AG$11</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -9859,7 +9865,7 @@
   </sheetPr>
   <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A22" colorId="64" zoomScale="75" zoomScaleNormal="66" zoomScalePageLayoutView="75" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="66" zoomScalePageLayoutView="75" workbookViewId="0">
       <selection pane="topLeft" activeCell="K11" activeCellId="0" sqref="K11"/>
     </sheetView>
   </sheetViews>
@@ -10737,21 +10743,21 @@
       <c r="A5" s="178" t="s">
         <v>230</v>
       </c>
-      <c r="B5" s="197"/>
+      <c r="B5" s="196"/>
       <c r="C5" s="178" t="s">
         <v>231</v>
       </c>
-      <c r="D5" s="198"/>
-      <c r="E5" s="199" t="str">
+      <c r="D5" s="197"/>
+      <c r="E5" s="198" t="str">
         <f aca="false">IF(B5="","Please refer to guidance and ensure that project stage is consistent with latest Business Case approval stage","")</f>
         <v>Please refer to guidance and ensure that project stage is consistent with latest Business Case approval stage</v>
       </c>
-      <c r="F5" s="199"/>
-      <c r="G5" s="199"/>
-      <c r="H5" s="199"/>
-      <c r="I5" s="199"/>
-      <c r="J5" s="199"/>
-      <c r="K5" s="199"/>
+      <c r="F5" s="198"/>
+      <c r="G5" s="198"/>
+      <c r="H5" s="198"/>
+      <c r="I5" s="198"/>
+      <c r="J5" s="198"/>
+      <c r="K5" s="198"/>
     </row>
     <row r="6" s="19" customFormat="true" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="4"/>
@@ -10767,20 +10773,20 @@
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
     </row>
-    <row r="7" s="201" customFormat="true" ht="64.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" s="200" customFormat="true" ht="64.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="178" t="s">
         <v>232</v>
       </c>
-      <c r="B7" s="200" t="s">
+      <c r="B7" s="199" t="s">
         <v>233</v>
       </c>
-      <c r="C7" s="200" t="s">
+      <c r="C7" s="199" t="s">
         <v>234</v>
       </c>
-      <c r="D7" s="200" t="s">
+      <c r="D7" s="199" t="s">
         <v>235</v>
       </c>
-      <c r="E7" s="200" t="s">
+      <c r="E7" s="199" t="s">
         <v>236</v>
       </c>
       <c r="F7" s="177" t="s">
@@ -10794,14 +10800,14 @@
       <c r="L7" s="193"/>
     </row>
     <row r="8" s="19" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="202" t="s">
+      <c r="A8" s="201" t="s">
         <v>238</v>
       </c>
-      <c r="B8" s="203"/>
-      <c r="C8" s="204"/>
-      <c r="D8" s="204"/>
-      <c r="E8" s="204"/>
-      <c r="F8" s="205"/>
+      <c r="B8" s="202"/>
+      <c r="C8" s="203"/>
+      <c r="D8" s="203"/>
+      <c r="E8" s="203"/>
+      <c r="F8" s="204"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
@@ -10810,324 +10816,324 @@
       <c r="L8" s="4"/>
     </row>
     <row r="9" s="19" customFormat="true" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="206" t="s">
+      <c r="A9" s="205" t="s">
         <v>239</v>
       </c>
-      <c r="B9" s="207"/>
-      <c r="C9" s="207"/>
-      <c r="D9" s="207"/>
-      <c r="E9" s="208"/>
-      <c r="F9" s="209"/>
-      <c r="G9" s="210" t="str">
+      <c r="B9" s="206"/>
+      <c r="C9" s="206"/>
+      <c r="D9" s="206"/>
+      <c r="E9" s="207"/>
+      <c r="F9" s="208"/>
+      <c r="G9" s="209" t="str">
         <f aca="false">IF(OR(B9="",D9=""),"Please add Original Baseline and/or Forecast date if either is missing",IF(B9=C9,"Please delete Rebaseline as same as Original Baseline",IF(D9=B9,"",IF(AND(D9&lt;&gt;B9,G183=""),CONCATENATE(D9-B9," / ",IF(C9&lt;&gt;"",D9-C9,"-")," days change from the Original Baseline / Rebaseline - please provide reason if considered significant change. If Rebaselined, please provide reason"),IF(C9="",CONCATENATE(D9-B9," days change from the Original Baseline"),CONCATENATE(D9-B9," days change from the Original Baseline; ",D9-C9," days change from the rebaseline"))))))</f>
         <v>Please add Original Baseline and/or Forecast date if either is missing</v>
       </c>
-      <c r="H9" s="210"/>
-      <c r="I9" s="210"/>
-      <c r="J9" s="210"/>
-      <c r="K9" s="210"/>
-      <c r="L9" s="210"/>
+      <c r="H9" s="209"/>
+      <c r="I9" s="209"/>
+      <c r="J9" s="209"/>
+      <c r="K9" s="209"/>
+      <c r="L9" s="209"/>
     </row>
     <row r="10" s="19" customFormat="true" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="206" t="s">
+      <c r="A10" s="205" t="s">
         <v>240</v>
       </c>
-      <c r="B10" s="207"/>
-      <c r="C10" s="207"/>
-      <c r="D10" s="207"/>
-      <c r="E10" s="198" t="s">
+      <c r="B10" s="206"/>
+      <c r="C10" s="206"/>
+      <c r="D10" s="206"/>
+      <c r="E10" s="197" t="s">
         <v>241</v>
       </c>
-      <c r="F10" s="209"/>
-      <c r="G10" s="210" t="str">
+      <c r="F10" s="208"/>
+      <c r="G10" s="209" t="str">
         <f aca="false">IF(OR(B10="",D10=""),"Please add Original Baseline and/or Forecast date if either is missing",IF(B10=C10,"Please delete Rebaseline as same as Original Baseline",IF(D10=B10,"",IF(AND(D10&lt;&gt;B10,G184=""),CONCATENATE(D10-B10," / ",IF(C10&lt;&gt;"",D10-C10,"-")," days change from the Original Baseline / Rebaseline - please provide reason if considered significant change. If Rebaselined, please provide reason"),IF(C10="",CONCATENATE(D10-B10," days change from the Original Baseline"),CONCATENATE(D10-B10," days change from the Original Baseline; ",D10-C10," days change from the rebaseline"))))))</f>
         <v>Please add Original Baseline and/or Forecast date if either is missing</v>
       </c>
-      <c r="H10" s="210"/>
-      <c r="I10" s="210"/>
-      <c r="J10" s="210"/>
-      <c r="K10" s="210"/>
-      <c r="L10" s="210"/>
+      <c r="H10" s="209"/>
+      <c r="I10" s="209"/>
+      <c r="J10" s="209"/>
+      <c r="K10" s="209"/>
+      <c r="L10" s="209"/>
     </row>
     <row r="11" s="19" customFormat="true" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="206" t="s">
+      <c r="A11" s="205" t="s">
         <v>242</v>
       </c>
-      <c r="B11" s="207"/>
-      <c r="C11" s="207"/>
-      <c r="D11" s="207"/>
-      <c r="E11" s="208"/>
-      <c r="F11" s="209"/>
-      <c r="G11" s="210" t="str">
+      <c r="B11" s="206"/>
+      <c r="C11" s="206"/>
+      <c r="D11" s="206"/>
+      <c r="E11" s="207"/>
+      <c r="F11" s="208"/>
+      <c r="G11" s="209" t="str">
         <f aca="false">IF(OR(B11="",D11=""),"Please add Original Baseline and/or Forecast date if either is missing",IF(B11=C11,"Please delete Rebaseline as same as Original Baseline",IF(D11=B11,"",IF(AND(D11&lt;&gt;B11,G185=""),CONCATENATE(D11-B11," / ",IF(C11&lt;&gt;"",D11-C11,"-")," days change from the Original Baseline / Rebaseline - please provide reason if considered significant change. If Rebaselined, please provide reason"),IF(C11="",CONCATENATE(D11-B11," days change from the Original Baseline"),CONCATENATE(D11-B11," days change from the Original Baseline; ",D11-C11," days change from the rebaseline"))))))</f>
         <v>Please add Original Baseline and/or Forecast date if either is missing</v>
       </c>
-      <c r="H11" s="210"/>
-      <c r="I11" s="210"/>
-      <c r="J11" s="210"/>
-      <c r="K11" s="210"/>
-      <c r="L11" s="210"/>
+      <c r="H11" s="209"/>
+      <c r="I11" s="209"/>
+      <c r="J11" s="209"/>
+      <c r="K11" s="209"/>
+      <c r="L11" s="209"/>
     </row>
     <row r="12" s="19" customFormat="true" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="206" t="s">
+      <c r="A12" s="205" t="s">
         <v>243</v>
       </c>
-      <c r="B12" s="207"/>
-      <c r="C12" s="207"/>
-      <c r="D12" s="207"/>
-      <c r="E12" s="198" t="s">
+      <c r="B12" s="206"/>
+      <c r="C12" s="206"/>
+      <c r="D12" s="206"/>
+      <c r="E12" s="197" t="s">
         <v>244</v>
       </c>
-      <c r="F12" s="209"/>
-      <c r="G12" s="210" t="str">
+      <c r="F12" s="208"/>
+      <c r="G12" s="209" t="str">
         <f aca="false">IF(OR(B12="",D12=""),"Please add Original Baseline and/or Forecast date if either is missing",IF(B12=C12,"Please delete Rebaseline as same as Original Baseline",IF(D12=B12,"",IF(AND(D12&lt;&gt;B12,G186=""),CONCATENATE(D12-B12," / ",IF(C12&lt;&gt;"",D12-C12,"-")," days change from the Original Baseline / Rebaseline - please provide reason if considered significant change. If Rebaselined, please provide reason"),IF(C12="",CONCATENATE(D12-B12," days change from the Original Baseline"),CONCATENATE(D12-B12," days change from the Original Baseline; ",D12-C12," days change from the rebaseline"))))))</f>
         <v>Please add Original Baseline and/or Forecast date if either is missing</v>
       </c>
-      <c r="H12" s="210"/>
-      <c r="I12" s="210"/>
-      <c r="J12" s="210"/>
-      <c r="K12" s="210"/>
-      <c r="L12" s="210"/>
+      <c r="H12" s="209"/>
+      <c r="I12" s="209"/>
+      <c r="J12" s="209"/>
+      <c r="K12" s="209"/>
+      <c r="L12" s="209"/>
     </row>
     <row r="13" s="19" customFormat="true" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="206" t="s">
+      <c r="A13" s="205" t="s">
         <v>245</v>
       </c>
-      <c r="B13" s="207"/>
-      <c r="C13" s="207"/>
-      <c r="D13" s="207"/>
-      <c r="E13" s="208"/>
-      <c r="F13" s="209"/>
-      <c r="G13" s="210" t="str">
+      <c r="B13" s="206"/>
+      <c r="C13" s="206"/>
+      <c r="D13" s="206"/>
+      <c r="E13" s="207"/>
+      <c r="F13" s="208"/>
+      <c r="G13" s="209" t="str">
         <f aca="false">IF(OR(B13="",D13=""),"Please add Original Baseline and/or Forecast date if either is missing",IF(B13=C13,"Please delete Rebaseline as same as Original Baseline",IF(D13=B13,"",IF(AND(D13&lt;&gt;B13,G187=""),CONCATENATE(D13-B13," / ",IF(C13&lt;&gt;"",D13-C13,"-")," days change from the Original Baseline / Rebaseline - please provide reason if considered significant change. If Rebaselined, please provide reason"),IF(C13="",CONCATENATE(D13-B13," days change from the Original Baseline"),CONCATENATE(D13-B13," days change from the Original Baseline; ",D13-C13," days change from the rebaseline"))))))</f>
         <v>Please add Original Baseline and/or Forecast date if either is missing</v>
       </c>
-      <c r="H13" s="210"/>
-      <c r="I13" s="210"/>
-      <c r="J13" s="210"/>
-      <c r="K13" s="210"/>
-      <c r="L13" s="210"/>
+      <c r="H13" s="209"/>
+      <c r="I13" s="209"/>
+      <c r="J13" s="209"/>
+      <c r="K13" s="209"/>
+      <c r="L13" s="209"/>
     </row>
     <row r="14" s="19" customFormat="true" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="206" t="s">
+      <c r="A14" s="205" t="s">
         <v>246</v>
       </c>
-      <c r="B14" s="207"/>
-      <c r="C14" s="207"/>
-      <c r="D14" s="207"/>
-      <c r="E14" s="208"/>
-      <c r="F14" s="209"/>
-      <c r="G14" s="210" t="str">
+      <c r="B14" s="206"/>
+      <c r="C14" s="206"/>
+      <c r="D14" s="206"/>
+      <c r="E14" s="207"/>
+      <c r="F14" s="208"/>
+      <c r="G14" s="209" t="str">
         <f aca="false">IF(OR(B14="",D14=""),"Please add Original Baseline and/or Forecast date if either is missing",IF(B14=C14,"Please delete Rebaseline as same as Original Baseline",IF(D14=B14,"",IF(AND(D14&lt;&gt;B14,G188=""),CONCATENATE(D14-B14," / ",IF(C14&lt;&gt;"",D14-C14,"-")," days change from the Original Baseline / Rebaseline - please provide reason if considered significant change. If Rebaselined, please provide reason"),IF(C14="",CONCATENATE(D14-B14," days change from the Original Baseline"),CONCATENATE(D14-B14," days change from the Original Baseline; ",D14-C14," days change from the rebaseline"))))))</f>
         <v>Please add Original Baseline and/or Forecast date if either is missing</v>
       </c>
-      <c r="H14" s="210"/>
-      <c r="I14" s="210"/>
-      <c r="J14" s="210"/>
-      <c r="K14" s="210"/>
-      <c r="L14" s="210"/>
+      <c r="H14" s="209"/>
+      <c r="I14" s="209"/>
+      <c r="J14" s="209"/>
+      <c r="K14" s="209"/>
+      <c r="L14" s="209"/>
     </row>
     <row r="15" s="19" customFormat="true" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="206" t="s">
+      <c r="A15" s="205" t="s">
         <v>247</v>
       </c>
-      <c r="B15" s="207"/>
-      <c r="C15" s="207"/>
-      <c r="D15" s="207"/>
-      <c r="E15" s="208"/>
-      <c r="F15" s="209"/>
-      <c r="G15" s="210" t="str">
+      <c r="B15" s="206"/>
+      <c r="C15" s="206"/>
+      <c r="D15" s="206"/>
+      <c r="E15" s="207"/>
+      <c r="F15" s="208"/>
+      <c r="G15" s="209" t="str">
         <f aca="false">IF(OR(B15="",D15=""),"Please add Original Baseline and/or Forecast date if either is missing",IF(B15=C15,"Please delete Rebaseline as same as Original Baseline",IF(D15=B15,"",IF(AND(D15&lt;&gt;B15,G189=""),CONCATENATE(D15-B15," / ",IF(C15&lt;&gt;"",D15-C15,"-")," days change from the Original Baseline / Rebaseline - please provide reason if considered significant change. If Rebaselined, please provide reason"),IF(C15="",CONCATENATE(D15-B15," days change from the Original Baseline"),CONCATENATE(D15-B15," days change from the Original Baseline; ",D15-C15," days change from the rebaseline"))))))</f>
         <v>Please add Original Baseline and/or Forecast date if either is missing</v>
       </c>
-      <c r="H15" s="210"/>
-      <c r="I15" s="210"/>
-      <c r="J15" s="210"/>
-      <c r="K15" s="210"/>
-      <c r="L15" s="210"/>
+      <c r="H15" s="209"/>
+      <c r="I15" s="209"/>
+      <c r="J15" s="209"/>
+      <c r="K15" s="209"/>
+      <c r="L15" s="209"/>
     </row>
     <row r="16" s="19" customFormat="true" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="206" t="s">
+      <c r="A16" s="205" t="s">
         <v>248</v>
       </c>
-      <c r="B16" s="207"/>
-      <c r="C16" s="207"/>
-      <c r="D16" s="207"/>
-      <c r="E16" s="208"/>
-      <c r="F16" s="209"/>
-      <c r="G16" s="210" t="str">
+      <c r="B16" s="206"/>
+      <c r="C16" s="206"/>
+      <c r="D16" s="206"/>
+      <c r="E16" s="207"/>
+      <c r="F16" s="208"/>
+      <c r="G16" s="209" t="str">
         <f aca="false">IF(OR(B16="",D16=""),"Please add Original Baseline and/or Forecast date if either is missing",IF(B16=C16,"Please delete Rebaseline as same as Original Baseline",IF(D16=B16,"",IF(AND(D16&lt;&gt;B16,G190=""),CONCATENATE(D16-B16," / ",IF(C16&lt;&gt;"",D16-C16,"-")," days change from the Original Baseline / Rebaseline - please provide reason if considered significant change. If Rebaselined, please provide reason"),IF(C16="",CONCATENATE(D16-B16," days change from the Original Baseline"),CONCATENATE(D16-B16," days change from the Original Baseline; ",D16-C16," days change from the rebaseline"))))))</f>
         <v>Please add Original Baseline and/or Forecast date if either is missing</v>
       </c>
-      <c r="H16" s="210"/>
-      <c r="I16" s="210"/>
-      <c r="J16" s="210"/>
-      <c r="K16" s="210"/>
-      <c r="L16" s="210"/>
+      <c r="H16" s="209"/>
+      <c r="I16" s="209"/>
+      <c r="J16" s="209"/>
+      <c r="K16" s="209"/>
+      <c r="L16" s="209"/>
     </row>
     <row r="17" s="19" customFormat="true" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="206" t="s">
+      <c r="A17" s="205" t="s">
         <v>249</v>
       </c>
-      <c r="B17" s="207"/>
-      <c r="C17" s="207"/>
-      <c r="D17" s="207"/>
-      <c r="E17" s="208"/>
-      <c r="F17" s="209"/>
-      <c r="G17" s="210" t="str">
+      <c r="B17" s="206"/>
+      <c r="C17" s="206"/>
+      <c r="D17" s="206"/>
+      <c r="E17" s="207"/>
+      <c r="F17" s="208"/>
+      <c r="G17" s="209" t="str">
         <f aca="false">IF(OR(B17="",D17=""),"Please add Original Baseline and/or Forecast date if either is missing",IF(B17=C17,"Please delete Rebaseline as same as Original Baseline",IF(D17=B17,"",IF(AND(D17&lt;&gt;B17,G191=""),CONCATENATE(D17-B17," / ",IF(C17&lt;&gt;"",D17-C17,"-")," days change from the Original Baseline / Rebaseline - please provide reason if considered significant change. If Rebaselined, please provide reason"),IF(C17="",CONCATENATE(D17-B17," days change from the Original Baseline"),CONCATENATE(D17-B17," days change from the Original Baseline; ",D17-C17," days change from the rebaseline"))))))</f>
         <v>Please add Original Baseline and/or Forecast date if either is missing</v>
       </c>
-      <c r="H17" s="210"/>
-      <c r="I17" s="210"/>
-      <c r="J17" s="210"/>
-      <c r="K17" s="210"/>
-      <c r="L17" s="210"/>
+      <c r="H17" s="209"/>
+      <c r="I17" s="209"/>
+      <c r="J17" s="209"/>
+      <c r="K17" s="209"/>
+      <c r="L17" s="209"/>
     </row>
     <row r="18" s="19" customFormat="true" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="206" t="s">
+      <c r="A18" s="205" t="s">
         <v>250</v>
       </c>
-      <c r="B18" s="207"/>
-      <c r="C18" s="207"/>
-      <c r="D18" s="207"/>
-      <c r="E18" s="208"/>
-      <c r="F18" s="209"/>
-      <c r="G18" s="210" t="str">
+      <c r="B18" s="206"/>
+      <c r="C18" s="206"/>
+      <c r="D18" s="206"/>
+      <c r="E18" s="207"/>
+      <c r="F18" s="208"/>
+      <c r="G18" s="209" t="str">
         <f aca="false">IF(OR(B18="",D18=""),"Please add Original Baseline and/or Forecast date if either is missing",IF(B18=C18,"Please delete Rebaseline as same as Original Baseline",IF(D18=B18,"",IF(AND(D18&lt;&gt;B18,G192=""),CONCATENATE(D18-B18," / ",IF(C18&lt;&gt;"",D18-C18,"-")," days change from the Original Baseline / Rebaseline - please provide reason if considered significant change. If Rebaselined, please provide reason"),IF(C18="",CONCATENATE(D18-B18," days change from the Original Baseline"),CONCATENATE(D18-B18," days change from the Original Baseline; ",D18-C18," days change from the rebaseline"))))))</f>
         <v>Please add Original Baseline and/or Forecast date if either is missing</v>
       </c>
-      <c r="H18" s="210"/>
-      <c r="I18" s="210"/>
-      <c r="J18" s="210"/>
-      <c r="K18" s="210"/>
-      <c r="L18" s="210"/>
+      <c r="H18" s="209"/>
+      <c r="I18" s="209"/>
+      <c r="J18" s="209"/>
+      <c r="K18" s="209"/>
+      <c r="L18" s="209"/>
     </row>
     <row r="19" s="19" customFormat="true" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="206" t="s">
+      <c r="A19" s="205" t="s">
         <v>251</v>
       </c>
-      <c r="B19" s="207"/>
-      <c r="C19" s="207"/>
-      <c r="D19" s="207"/>
-      <c r="E19" s="198" t="s">
+      <c r="B19" s="206"/>
+      <c r="C19" s="206"/>
+      <c r="D19" s="206"/>
+      <c r="E19" s="197" t="s">
         <v>252</v>
       </c>
-      <c r="F19" s="209"/>
-      <c r="G19" s="210" t="str">
+      <c r="F19" s="208"/>
+      <c r="G19" s="209" t="str">
         <f aca="false">IF(OR(B19="",D19=""),"Please add Original Baseline and/or Forecast date if either is missing",IF(B19=C19,"Please delete Rebaseline as same as Original Baseline",IF(D19=B19,"",IF(AND(D19&lt;&gt;B19,G193=""),CONCATENATE(D19-B19," / ",IF(C19&lt;&gt;"",D19-C19,"-")," days change from the Original Baseline / Rebaseline - please provide reason if considered significant change. If Rebaselined, please provide reason"),IF(C19="",CONCATENATE(D19-B19," days change from the Original Baseline"),CONCATENATE(D19-B19," days change from the Original Baseline; ",D19-C19," days change from the rebaseline"))))))</f>
         <v>Please add Original Baseline and/or Forecast date if either is missing</v>
       </c>
-      <c r="H19" s="210"/>
-      <c r="I19" s="210"/>
-      <c r="J19" s="210"/>
-      <c r="K19" s="210"/>
-      <c r="L19" s="210"/>
+      <c r="H19" s="209"/>
+      <c r="I19" s="209"/>
+      <c r="J19" s="209"/>
+      <c r="K19" s="209"/>
+      <c r="L19" s="209"/>
     </row>
     <row r="20" s="19" customFormat="true" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="211" t="s">
+      <c r="A20" s="210" t="s">
         <v>253</v>
       </c>
-      <c r="B20" s="207"/>
-      <c r="C20" s="207"/>
-      <c r="D20" s="207"/>
-      <c r="E20" s="208"/>
-      <c r="F20" s="209"/>
-      <c r="G20" s="210" t="str">
+      <c r="B20" s="206"/>
+      <c r="C20" s="206"/>
+      <c r="D20" s="206"/>
+      <c r="E20" s="207"/>
+      <c r="F20" s="208"/>
+      <c r="G20" s="209" t="str">
         <f aca="false">IF(OR(B20="",D20=""),"Please add Original Baseline and/or Forecast date if either is missing",IF(B20=C20,"Please delete Rebaseline as same as Original Baseline",IF(D20=B20,"",IF(AND(D20&lt;&gt;B20,G194=""),CONCATENATE(D20-B20," / ",IF(C20&lt;&gt;"",D20-C20,"-")," days change from the Original Baseline / Rebaseline - please provide reason if considered significant change. If Rebaselined, please provide reason"),IF(C20="",CONCATENATE(D20-B20," days change from the Original Baseline"),CONCATENATE(D20-B20," days change from the Original Baseline; ",D20-C20," days change from the rebaseline"))))))</f>
         <v>Please add Original Baseline and/or Forecast date if either is missing</v>
       </c>
-      <c r="H20" s="210"/>
-      <c r="I20" s="210"/>
-      <c r="J20" s="210"/>
-      <c r="K20" s="210"/>
-      <c r="L20" s="210"/>
+      <c r="H20" s="209"/>
+      <c r="I20" s="209"/>
+      <c r="J20" s="209"/>
+      <c r="K20" s="209"/>
+      <c r="L20" s="209"/>
     </row>
     <row r="21" s="19" customFormat="true" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="211" t="s">
+      <c r="A21" s="210" t="s">
         <v>254</v>
       </c>
-      <c r="B21" s="207"/>
-      <c r="C21" s="207"/>
-      <c r="D21" s="207"/>
-      <c r="E21" s="208"/>
-      <c r="F21" s="209"/>
-      <c r="G21" s="210" t="str">
+      <c r="B21" s="206"/>
+      <c r="C21" s="206"/>
+      <c r="D21" s="206"/>
+      <c r="E21" s="207"/>
+      <c r="F21" s="208"/>
+      <c r="G21" s="209" t="str">
         <f aca="false">IF(OR(B21="",D21=""),"Please add Original Baseline and/or Forecast date if either is missing",IF(B21=C21,"Please delete Rebaseline as same as Original Baseline",IF(D21=B21,"",IF(AND(D21&lt;&gt;B21,G195=""),CONCATENATE(D21-B21," / ",IF(C21&lt;&gt;"",D21-C21,"-")," days change from the Original Baseline / Rebaseline - please provide reason if considered significant change. If Rebaselined, please provide reason"),IF(C21="",CONCATENATE(D21-B21," days change from the Original Baseline"),CONCATENATE(D21-B21," days change from the Original Baseline; ",D21-C21," days change from the rebaseline"))))))</f>
         <v>Please add Original Baseline and/or Forecast date if either is missing</v>
       </c>
-      <c r="H21" s="210"/>
-      <c r="I21" s="210"/>
-      <c r="J21" s="210"/>
-      <c r="K21" s="210"/>
-      <c r="L21" s="210"/>
+      <c r="H21" s="209"/>
+      <c r="I21" s="209"/>
+      <c r="J21" s="209"/>
+      <c r="K21" s="209"/>
+      <c r="L21" s="209"/>
     </row>
     <row r="22" s="19" customFormat="true" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="211" t="s">
+      <c r="A22" s="210" t="s">
         <v>255</v>
       </c>
-      <c r="B22" s="207"/>
-      <c r="C22" s="207"/>
-      <c r="D22" s="207"/>
-      <c r="E22" s="208"/>
-      <c r="F22" s="209"/>
-      <c r="G22" s="210" t="str">
+      <c r="B22" s="206"/>
+      <c r="C22" s="206"/>
+      <c r="D22" s="206"/>
+      <c r="E22" s="207"/>
+      <c r="F22" s="208"/>
+      <c r="G22" s="209" t="str">
         <f aca="false">IF(OR(B22="",D22=""),"Please add Original Baseline and/or Forecast date if either is missing",IF(B22=C22,"Please delete Rebaseline as same as Original Baseline",IF(D22=B22,"",IF(AND(D22&lt;&gt;B22,G196=""),CONCATENATE(D22-B22," / ",IF(C22&lt;&gt;"",D22-C22,"-")," days change from the Original Baseline / Rebaseline - please provide reason if considered significant change. If Rebaselined, please provide reason"),IF(C22="",CONCATENATE(D22-B22," days change from the Original Baseline"),CONCATENATE(D22-B22," days change from the Original Baseline; ",D22-C22," days change from the rebaseline"))))))</f>
         <v>Please add Original Baseline and/or Forecast date if either is missing</v>
       </c>
-      <c r="H22" s="210"/>
-      <c r="I22" s="210"/>
-      <c r="J22" s="210"/>
-      <c r="K22" s="210"/>
-      <c r="L22" s="210"/>
+      <c r="H22" s="209"/>
+      <c r="I22" s="209"/>
+      <c r="J22" s="209"/>
+      <c r="K22" s="209"/>
+      <c r="L22" s="209"/>
     </row>
     <row r="23" s="19" customFormat="true" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="211" t="s">
+      <c r="A23" s="210" t="s">
         <v>256</v>
       </c>
-      <c r="B23" s="207"/>
-      <c r="C23" s="207"/>
-      <c r="D23" s="207"/>
-      <c r="E23" s="208"/>
-      <c r="F23" s="209"/>
-      <c r="G23" s="210" t="str">
+      <c r="B23" s="206"/>
+      <c r="C23" s="206"/>
+      <c r="D23" s="206"/>
+      <c r="E23" s="207"/>
+      <c r="F23" s="208"/>
+      <c r="G23" s="209" t="str">
         <f aca="false">IF(OR(B23="",D23=""),"Please add Original Baseline and/or Forecast date if either is missing",IF(B23=C23,"Please delete Rebaseline as same as Original Baseline",IF(D23=B23,"",IF(AND(D23&lt;&gt;B23,G197=""),CONCATENATE(D23-B23," / ",IF(C23&lt;&gt;"",D23-C23,"-")," days change from the Original Baseline / Rebaseline - please provide reason if considered significant change. If Rebaselined, please provide reason"),IF(C23="",CONCATENATE(D23-B23," days change from the Original Baseline"),CONCATENATE(D23-B23," days change from the Original Baseline; ",D23-C23," days change from the rebaseline"))))))</f>
         <v>Please add Original Baseline and/or Forecast date if either is missing</v>
       </c>
-      <c r="H23" s="210"/>
-      <c r="I23" s="210"/>
-      <c r="J23" s="210"/>
-      <c r="K23" s="210"/>
-      <c r="L23" s="210"/>
+      <c r="H23" s="209"/>
+      <c r="I23" s="209"/>
+      <c r="J23" s="209"/>
+      <c r="K23" s="209"/>
+      <c r="L23" s="209"/>
     </row>
     <row r="24" s="19" customFormat="true" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="211" t="s">
+      <c r="A24" s="210" t="s">
         <v>257</v>
       </c>
-      <c r="B24" s="207"/>
-      <c r="C24" s="207"/>
-      <c r="D24" s="207"/>
-      <c r="E24" s="208"/>
-      <c r="F24" s="209"/>
-      <c r="G24" s="210" t="str">
+      <c r="B24" s="206"/>
+      <c r="C24" s="206"/>
+      <c r="D24" s="206"/>
+      <c r="E24" s="207"/>
+      <c r="F24" s="208"/>
+      <c r="G24" s="209" t="str">
         <f aca="false">IF(OR(B24="",D24=""),"Please add Original Baseline and/or Forecast date if either is missing",IF(B24=C24,"Please delete Rebaseline as same as Original Baseline",IF(D24=B24,"",IF(AND(D24&lt;&gt;B24,G198=""),CONCATENATE(D24-B24," / ",IF(C24&lt;&gt;"",D24-C24,"-")," days change from the Original Baseline / Rebaseline - please provide reason if considered significant change. If Rebaselined, please provide reason"),IF(C24="",CONCATENATE(D24-B24," days change from the Original Baseline"),CONCATENATE(D24-B24," days change from the Original Baseline; ",D24-C24," days change from the rebaseline"))))))</f>
         <v>Please add Original Baseline and/or Forecast date if either is missing</v>
       </c>
-      <c r="H24" s="210"/>
-      <c r="I24" s="210"/>
-      <c r="J24" s="210"/>
-      <c r="K24" s="210"/>
-      <c r="L24" s="210"/>
+      <c r="H24" s="209"/>
+      <c r="I24" s="209"/>
+      <c r="J24" s="209"/>
+      <c r="K24" s="209"/>
+      <c r="L24" s="209"/>
     </row>
     <row r="25" s="19" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="202" t="s">
+      <c r="A25" s="201" t="s">
         <v>258</v>
       </c>
-      <c r="B25" s="203"/>
-      <c r="C25" s="204"/>
-      <c r="D25" s="204"/>
-      <c r="E25" s="204"/>
-      <c r="F25" s="212"/>
+      <c r="B25" s="202"/>
+      <c r="C25" s="203"/>
+      <c r="D25" s="203"/>
+      <c r="E25" s="203"/>
+      <c r="F25" s="211"/>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
@@ -11136,295 +11142,295 @@
       <c r="L25" s="4"/>
     </row>
     <row r="26" s="19" customFormat="true" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="213" t="s">
+      <c r="A26" s="212" t="s">
         <v>259</v>
       </c>
-      <c r="B26" s="207"/>
-      <c r="C26" s="207"/>
-      <c r="D26" s="207"/>
-      <c r="E26" s="198" t="s">
+      <c r="B26" s="206"/>
+      <c r="C26" s="206"/>
+      <c r="D26" s="206"/>
+      <c r="E26" s="197" t="s">
         <v>260</v>
       </c>
-      <c r="F26" s="209"/>
-      <c r="G26" s="210" t="str">
+      <c r="F26" s="208"/>
+      <c r="G26" s="209" t="str">
         <f aca="false">IF(OR(B26="",D26=""),"Please add Original Baseline and/or Forecast date if either is missing",IF(B26=C26,"Please delete Rebaseline as same as Original Baseline",IF(D26=B26,"",IF(AND(D26&lt;&gt;B26,G200=""),CONCATENATE(D26-B26," / ",IF(C26&lt;&gt;"",D26-C26,"-")," days change from the Original Baseline / Rebaseline - please provide reason if considered significant change. If Rebaselined, please provide reason"),IF(C26="",CONCATENATE(D26-B26," days change from the Original Baseline"),CONCATENATE(D26-B26," days change from the Original Baseline; ",D26-C26," days change from the rebaseline"))))))</f>
         <v>Please add Original Baseline and/or Forecast date if either is missing</v>
       </c>
-      <c r="H26" s="210"/>
-      <c r="I26" s="210"/>
-      <c r="J26" s="210"/>
-      <c r="K26" s="210"/>
-      <c r="L26" s="210"/>
+      <c r="H26" s="209"/>
+      <c r="I26" s="209"/>
+      <c r="J26" s="209"/>
+      <c r="K26" s="209"/>
+      <c r="L26" s="209"/>
     </row>
     <row r="27" s="19" customFormat="true" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="213" t="s">
+      <c r="A27" s="212" t="s">
         <v>261</v>
       </c>
-      <c r="B27" s="207"/>
-      <c r="C27" s="207"/>
-      <c r="D27" s="207"/>
-      <c r="E27" s="208"/>
-      <c r="F27" s="209"/>
-      <c r="G27" s="210" t="str">
+      <c r="B27" s="206"/>
+      <c r="C27" s="206"/>
+      <c r="D27" s="206"/>
+      <c r="E27" s="207"/>
+      <c r="F27" s="208"/>
+      <c r="G27" s="209" t="str">
         <f aca="false">IF(OR(B27="",D27=""),"Please add Original Baseline and/or Forecast date if either is missing",IF(B27=C27,"Please delete Rebaseline as same as Original Baseline",IF(D27=B27,"",IF(AND(D27&lt;&gt;B27,G201=""),CONCATENATE(D27-B27," / ",IF(C27&lt;&gt;"",D27-C27,"-")," days change from the Original Baseline / Rebaseline - please provide reason if considered significant change. If Rebaselined, please provide reason"),IF(C27="",CONCATENATE(D27-B27," days change from the Original Baseline"),CONCATENATE(D27-B27," days change from the Original Baseline; ",D27-C27," days change from the rebaseline"))))))</f>
         <v>Please add Original Baseline and/or Forecast date if either is missing</v>
       </c>
-      <c r="H27" s="210"/>
-      <c r="I27" s="210"/>
-      <c r="J27" s="210"/>
-      <c r="K27" s="210"/>
-      <c r="L27" s="210"/>
+      <c r="H27" s="209"/>
+      <c r="I27" s="209"/>
+      <c r="J27" s="209"/>
+      <c r="K27" s="209"/>
+      <c r="L27" s="209"/>
     </row>
     <row r="28" s="19" customFormat="true" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="213" t="s">
+      <c r="A28" s="212" t="s">
         <v>262</v>
       </c>
-      <c r="B28" s="207"/>
-      <c r="C28" s="207"/>
-      <c r="D28" s="207"/>
-      <c r="E28" s="208"/>
-      <c r="F28" s="209"/>
-      <c r="G28" s="210" t="str">
+      <c r="B28" s="206"/>
+      <c r="C28" s="206"/>
+      <c r="D28" s="206"/>
+      <c r="E28" s="207"/>
+      <c r="F28" s="208"/>
+      <c r="G28" s="209" t="str">
         <f aca="false">IF(OR(B28="",D28=""),"Please add Original Baseline and/or Forecast date if either is missing",IF(B28=C28,"Please delete Rebaseline as same as Original Baseline",IF(D28=B28,"",IF(AND(D28&lt;&gt;B28,G202=""),CONCATENATE(D28-B28," / ",IF(C28&lt;&gt;"",D28-C28,"-")," days change from the Original Baseline / Rebaseline - please provide reason if considered significant change. If Rebaselined, please provide reason"),IF(C28="",CONCATENATE(D28-B28," days change from the Original Baseline"),CONCATENATE(D28-B28," days change from the Original Baseline; ",D28-C28," days change from the rebaseline"))))))</f>
         <v>Please add Original Baseline and/or Forecast date if either is missing</v>
       </c>
-      <c r="H28" s="210"/>
-      <c r="I28" s="210"/>
-      <c r="J28" s="210"/>
-      <c r="K28" s="210"/>
-      <c r="L28" s="210"/>
+      <c r="H28" s="209"/>
+      <c r="I28" s="209"/>
+      <c r="J28" s="209"/>
+      <c r="K28" s="209"/>
+      <c r="L28" s="209"/>
     </row>
     <row r="29" s="19" customFormat="true" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="213" t="s">
+      <c r="A29" s="212" t="s">
         <v>263</v>
       </c>
-      <c r="B29" s="207"/>
-      <c r="C29" s="207"/>
-      <c r="D29" s="207"/>
-      <c r="E29" s="198" t="s">
+      <c r="B29" s="206"/>
+      <c r="C29" s="206"/>
+      <c r="D29" s="206"/>
+      <c r="E29" s="197" t="s">
         <v>263</v>
       </c>
-      <c r="F29" s="209"/>
-      <c r="G29" s="210" t="str">
+      <c r="F29" s="208"/>
+      <c r="G29" s="209" t="str">
         <f aca="false">IF(OR(B29="",D29=""),"Please add Original Baseline and/or Forecast date if either is missing",IF(B29=C29,"Please delete Rebaseline as same as Original Baseline",IF(D29=B29,"",IF(AND(D29&lt;&gt;B29,G203=""),CONCATENATE(D29-B29," / ",IF(C29&lt;&gt;"",D29-C29,"-")," days change from the Original Baseline / Rebaseline - please provide reason if considered significant change. If Rebaselined, please provide reason"),IF(C29="",CONCATENATE(D29-B29," days change from the Original Baseline"),CONCATENATE(D29-B29," days change from the Original Baseline; ",D29-C29," days change from the rebaseline"))))))</f>
         <v>Please add Original Baseline and/or Forecast date if either is missing</v>
       </c>
-      <c r="H29" s="210"/>
-      <c r="I29" s="210"/>
-      <c r="J29" s="210"/>
-      <c r="K29" s="210"/>
-      <c r="L29" s="210"/>
+      <c r="H29" s="209"/>
+      <c r="I29" s="209"/>
+      <c r="J29" s="209"/>
+      <c r="K29" s="209"/>
+      <c r="L29" s="209"/>
     </row>
     <row r="30" s="19" customFormat="true" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="213" t="s">
+      <c r="A30" s="212" t="s">
         <v>264</v>
       </c>
-      <c r="B30" s="207"/>
-      <c r="C30" s="207"/>
-      <c r="D30" s="207"/>
-      <c r="E30" s="198" t="s">
+      <c r="B30" s="206"/>
+      <c r="C30" s="206"/>
+      <c r="D30" s="206"/>
+      <c r="E30" s="197" t="s">
         <v>264</v>
       </c>
-      <c r="F30" s="209"/>
-      <c r="G30" s="210" t="str">
+      <c r="F30" s="208"/>
+      <c r="G30" s="209" t="str">
         <f aca="false">IF(OR(B30="",D30=""),"Please add Original Baseline and/or Forecast date if either is missing",IF(B30=C30,"Please delete Rebaseline as same as Original Baseline",IF(D30=B30,"",IF(AND(D30&lt;&gt;B30,G204=""),CONCATENATE(D30-B30," / ",IF(C30&lt;&gt;"",D30-C30,"-")," days change from the Original Baseline / Rebaseline - please provide reason if considered significant change. If Rebaselined, please provide reason"),IF(C30="",CONCATENATE(D30-B30," days change from the Original Baseline"),CONCATENATE(D30-B30," days change from the Original Baseline; ",D30-C30," days change from the rebaseline"))))))</f>
         <v>Please add Original Baseline and/or Forecast date if either is missing</v>
       </c>
-      <c r="H30" s="210"/>
-      <c r="I30" s="210"/>
-      <c r="J30" s="210"/>
-      <c r="K30" s="210"/>
-      <c r="L30" s="210"/>
+      <c r="H30" s="209"/>
+      <c r="I30" s="209"/>
+      <c r="J30" s="209"/>
+      <c r="K30" s="209"/>
+      <c r="L30" s="209"/>
     </row>
     <row r="31" s="19" customFormat="true" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="214" t="s">
+      <c r="A31" s="213" t="s">
         <v>265</v>
       </c>
-      <c r="B31" s="207"/>
-      <c r="C31" s="207"/>
-      <c r="D31" s="207"/>
-      <c r="E31" s="208"/>
-      <c r="F31" s="209"/>
-      <c r="G31" s="210" t="str">
+      <c r="B31" s="206"/>
+      <c r="C31" s="206"/>
+      <c r="D31" s="206"/>
+      <c r="E31" s="207"/>
+      <c r="F31" s="208"/>
+      <c r="G31" s="209" t="str">
         <f aca="false">IF(OR(B31="",D31=""),"Please add Original Baseline and/or Forecast date if either is missing",IF(B31=C31,"Please delete Rebaseline as same as Original Baseline",IF(D31=B31,"",IF(AND(D31&lt;&gt;B31,G205=""),CONCATENATE(D31-B31," / ",IF(C31&lt;&gt;"",D31-C31,"-")," days change from the Original Baseline / Rebaseline - please provide reason if considered significant change. If Rebaselined, please provide reason"),IF(C31="",CONCATENATE(D31-B31," days change from the Original Baseline"),CONCATENATE(D31-B31," days change from the Original Baseline; ",D31-C31," days change from the rebaseline"))))))</f>
         <v>Please add Original Baseline and/or Forecast date if either is missing</v>
       </c>
-      <c r="H31" s="210"/>
-      <c r="I31" s="210"/>
-      <c r="J31" s="210"/>
-      <c r="K31" s="210"/>
-      <c r="L31" s="210"/>
+      <c r="H31" s="209"/>
+      <c r="I31" s="209"/>
+      <c r="J31" s="209"/>
+      <c r="K31" s="209"/>
+      <c r="L31" s="209"/>
     </row>
     <row r="32" s="19" customFormat="true" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="214" t="s">
+      <c r="A32" s="213" t="s">
         <v>266</v>
       </c>
-      <c r="B32" s="207"/>
-      <c r="C32" s="207"/>
-      <c r="D32" s="207"/>
-      <c r="E32" s="208"/>
-      <c r="F32" s="209"/>
-      <c r="G32" s="210" t="str">
+      <c r="B32" s="206"/>
+      <c r="C32" s="206"/>
+      <c r="D32" s="206"/>
+      <c r="E32" s="207"/>
+      <c r="F32" s="208"/>
+      <c r="G32" s="209" t="str">
         <f aca="false">IF(OR(B32="",D32=""),"Please add Original Baseline and/or Forecast date if either is missing",IF(B32=C32,"Please delete Rebaseline as same as Original Baseline",IF(D32=B32,"",IF(AND(D32&lt;&gt;B32,G206=""),CONCATENATE(D32-B32," / ",IF(C32&lt;&gt;"",D32-C32,"-")," days change from the Original Baseline / Rebaseline - please provide reason if considered significant change. If Rebaselined, please provide reason"),IF(C32="",CONCATENATE(D32-B32," days change from the Original Baseline"),CONCATENATE(D32-B32," days change from the Original Baseline; ",D32-C32," days change from the rebaseline"))))))</f>
         <v>Please add Original Baseline and/or Forecast date if either is missing</v>
       </c>
-      <c r="H32" s="210"/>
-      <c r="I32" s="210"/>
-      <c r="J32" s="210"/>
-      <c r="K32" s="210"/>
-      <c r="L32" s="210"/>
+      <c r="H32" s="209"/>
+      <c r="I32" s="209"/>
+      <c r="J32" s="209"/>
+      <c r="K32" s="209"/>
+      <c r="L32" s="209"/>
     </row>
     <row r="33" s="19" customFormat="true" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="214" t="s">
+      <c r="A33" s="213" t="s">
         <v>267</v>
       </c>
-      <c r="B33" s="207"/>
-      <c r="C33" s="207"/>
-      <c r="D33" s="207"/>
-      <c r="E33" s="208"/>
-      <c r="F33" s="209"/>
-      <c r="G33" s="210" t="str">
+      <c r="B33" s="206"/>
+      <c r="C33" s="206"/>
+      <c r="D33" s="206"/>
+      <c r="E33" s="207"/>
+      <c r="F33" s="208"/>
+      <c r="G33" s="209" t="str">
         <f aca="false">IF(OR(B33="",D33=""),"Please add Original Baseline and/or Forecast date if either is missing",IF(B33=C33,"Please delete Rebaseline as same as Original Baseline",IF(D33=B33,"",IF(AND(D33&lt;&gt;B33,G207=""),CONCATENATE(D33-B33," / ",IF(C33&lt;&gt;"",D33-C33,"-")," days change from the Original Baseline / Rebaseline - please provide reason if considered significant change. If Rebaselined, please provide reason"),IF(C33="",CONCATENATE(D33-B33," days change from the Original Baseline"),CONCATENATE(D33-B33," days change from the Original Baseline; ",D33-C33," days change from the rebaseline"))))))</f>
         <v>Please add Original Baseline and/or Forecast date if either is missing</v>
       </c>
-      <c r="H33" s="210"/>
-      <c r="I33" s="210"/>
-      <c r="J33" s="210"/>
-      <c r="K33" s="210"/>
-      <c r="L33" s="210"/>
+      <c r="H33" s="209"/>
+      <c r="I33" s="209"/>
+      <c r="J33" s="209"/>
+      <c r="K33" s="209"/>
+      <c r="L33" s="209"/>
     </row>
     <row r="34" s="19" customFormat="true" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="214" t="s">
+      <c r="A34" s="213" t="s">
         <v>268</v>
       </c>
-      <c r="B34" s="207"/>
-      <c r="C34" s="207"/>
-      <c r="D34" s="207"/>
-      <c r="E34" s="208"/>
-      <c r="F34" s="209"/>
-      <c r="G34" s="210" t="str">
+      <c r="B34" s="206"/>
+      <c r="C34" s="206"/>
+      <c r="D34" s="206"/>
+      <c r="E34" s="207"/>
+      <c r="F34" s="208"/>
+      <c r="G34" s="209" t="str">
         <f aca="false">IF(OR(B34="",D34=""),"Please add Original Baseline and/or Forecast date if either is missing",IF(B34=C34,"Please delete Rebaseline as same as Original Baseline",IF(D34=B34,"",IF(AND(D34&lt;&gt;B34,G208=""),CONCATENATE(D34-B34," / ",IF(C34&lt;&gt;"",D34-C34,"-")," days change from the Original Baseline / Rebaseline - please provide reason if considered significant change. If Rebaselined, please provide reason"),IF(C34="",CONCATENATE(D34-B34," days change from the Original Baseline"),CONCATENATE(D34-B34," days change from the Original Baseline; ",D34-C34," days change from the rebaseline"))))))</f>
         <v>Please add Original Baseline and/or Forecast date if either is missing</v>
       </c>
-      <c r="H34" s="210"/>
-      <c r="I34" s="210"/>
-      <c r="J34" s="210"/>
-      <c r="K34" s="210"/>
-      <c r="L34" s="210"/>
+      <c r="H34" s="209"/>
+      <c r="I34" s="209"/>
+      <c r="J34" s="209"/>
+      <c r="K34" s="209"/>
+      <c r="L34" s="209"/>
     </row>
     <row r="35" s="19" customFormat="true" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="214" t="s">
+      <c r="A35" s="213" t="s">
         <v>269</v>
       </c>
-      <c r="B35" s="207"/>
-      <c r="C35" s="207"/>
-      <c r="D35" s="207"/>
-      <c r="E35" s="208"/>
-      <c r="F35" s="209"/>
-      <c r="G35" s="210" t="str">
+      <c r="B35" s="206"/>
+      <c r="C35" s="206"/>
+      <c r="D35" s="206"/>
+      <c r="E35" s="207"/>
+      <c r="F35" s="208"/>
+      <c r="G35" s="209" t="str">
         <f aca="false">IF(OR(B35="",D35=""),"Please add Original Baseline and/or Forecast date if either is missing",IF(B35=C35,"Please delete Rebaseline as same as Original Baseline",IF(D35=B35,"",IF(AND(D35&lt;&gt;B35,G209=""),CONCATENATE(D35-B35," / ",IF(C35&lt;&gt;"",D35-C35,"-")," days change from the Original Baseline / Rebaseline - please provide reason if considered significant change. If Rebaselined, please provide reason"),IF(C35="",CONCATENATE(D35-B35," days change from the Original Baseline"),CONCATENATE(D35-B35," days change from the Original Baseline; ",D35-C35," days change from the rebaseline"))))))</f>
         <v>Please add Original Baseline and/or Forecast date if either is missing</v>
       </c>
-      <c r="H35" s="210"/>
-      <c r="I35" s="210"/>
-      <c r="J35" s="210"/>
-      <c r="K35" s="210"/>
-      <c r="L35" s="210"/>
+      <c r="H35" s="209"/>
+      <c r="I35" s="209"/>
+      <c r="J35" s="209"/>
+      <c r="K35" s="209"/>
+      <c r="L35" s="209"/>
     </row>
     <row r="36" s="19" customFormat="true" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="214" t="s">
+      <c r="A36" s="213" t="s">
         <v>270</v>
       </c>
-      <c r="B36" s="207"/>
-      <c r="C36" s="207"/>
-      <c r="D36" s="207"/>
-      <c r="E36" s="208"/>
-      <c r="F36" s="209"/>
-      <c r="G36" s="210" t="str">
+      <c r="B36" s="206"/>
+      <c r="C36" s="206"/>
+      <c r="D36" s="206"/>
+      <c r="E36" s="207"/>
+      <c r="F36" s="208"/>
+      <c r="G36" s="209" t="str">
         <f aca="false">IF(OR(B36="",D36=""),"Please add Original Baseline and/or Forecast date if either is missing",IF(B36=C36,"Please delete Rebaseline as same as Original Baseline",IF(D36=B36,"",IF(AND(D36&lt;&gt;B36,G210=""),CONCATENATE(D36-B36," / ",IF(C36&lt;&gt;"",D36-C36,"-")," days change from the Original Baseline / Rebaseline - please provide reason if considered significant change. If Rebaselined, please provide reason"),IF(C36="",CONCATENATE(D36-B36," days change from the Original Baseline"),CONCATENATE(D36-B36," days change from the Original Baseline; ",D36-C36," days change from the rebaseline"))))))</f>
         <v>Please add Original Baseline and/or Forecast date if either is missing</v>
       </c>
-      <c r="H36" s="210"/>
-      <c r="I36" s="210"/>
-      <c r="J36" s="210"/>
-      <c r="K36" s="210"/>
-      <c r="L36" s="210"/>
+      <c r="H36" s="209"/>
+      <c r="I36" s="209"/>
+      <c r="J36" s="209"/>
+      <c r="K36" s="209"/>
+      <c r="L36" s="209"/>
     </row>
     <row r="37" s="19" customFormat="true" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="214" t="s">
+      <c r="A37" s="213" t="s">
         <v>271</v>
       </c>
-      <c r="B37" s="207"/>
-      <c r="C37" s="207"/>
-      <c r="D37" s="207"/>
-      <c r="E37" s="208"/>
-      <c r="F37" s="209"/>
-      <c r="G37" s="210" t="str">
+      <c r="B37" s="206"/>
+      <c r="C37" s="206"/>
+      <c r="D37" s="206"/>
+      <c r="E37" s="207"/>
+      <c r="F37" s="208"/>
+      <c r="G37" s="209" t="str">
         <f aca="false">IF(OR(B37="",D37=""),"Please add Original Baseline and/or Forecast date if either is missing",IF(B37=C37,"Please delete Rebaseline as same as Original Baseline",IF(D37=B37,"",IF(AND(D37&lt;&gt;B37,G211=""),CONCATENATE(D37-B37," / ",IF(C37&lt;&gt;"",D37-C37,"-")," days change from the Original Baseline / Rebaseline - please provide reason if considered significant change. If Rebaselined, please provide reason"),IF(C37="",CONCATENATE(D37-B37," days change from the Original Baseline"),CONCATENATE(D37-B37," days change from the Original Baseline; ",D37-C37," days change from the rebaseline"))))))</f>
         <v>Please add Original Baseline and/or Forecast date if either is missing</v>
       </c>
-      <c r="H37" s="210"/>
-      <c r="I37" s="210"/>
-      <c r="J37" s="210"/>
-      <c r="K37" s="210"/>
-      <c r="L37" s="210"/>
+      <c r="H37" s="209"/>
+      <c r="I37" s="209"/>
+      <c r="J37" s="209"/>
+      <c r="K37" s="209"/>
+      <c r="L37" s="209"/>
     </row>
     <row r="38" s="19" customFormat="true" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="214" t="s">
+      <c r="A38" s="213" t="s">
         <v>272</v>
       </c>
-      <c r="B38" s="207"/>
-      <c r="C38" s="207"/>
-      <c r="D38" s="207"/>
-      <c r="E38" s="208"/>
-      <c r="F38" s="209"/>
-      <c r="G38" s="210" t="str">
+      <c r="B38" s="206"/>
+      <c r="C38" s="206"/>
+      <c r="D38" s="206"/>
+      <c r="E38" s="207"/>
+      <c r="F38" s="208"/>
+      <c r="G38" s="209" t="str">
         <f aca="false">IF(OR(B38="",D38=""),"Please add Original Baseline and/or Forecast date if either is missing",IF(B38=C38,"Please delete Rebaseline as same as Original Baseline",IF(D38=B38,"",IF(AND(D38&lt;&gt;B38,G212=""),CONCATENATE(D38-B38," / ",IF(C38&lt;&gt;"",D38-C38,"-")," days change from the Original Baseline / Rebaseline - please provide reason if considered significant change. If Rebaselined, please provide reason"),IF(C38="",CONCATENATE(D38-B38," days change from the Original Baseline"),CONCATENATE(D38-B38," days change from the Original Baseline; ",D38-C38," days change from the rebaseline"))))))</f>
         <v>Please add Original Baseline and/or Forecast date if either is missing</v>
       </c>
-      <c r="H38" s="210"/>
-      <c r="I38" s="210"/>
-      <c r="J38" s="210"/>
-      <c r="K38" s="210"/>
-      <c r="L38" s="210"/>
+      <c r="H38" s="209"/>
+      <c r="I38" s="209"/>
+      <c r="J38" s="209"/>
+      <c r="K38" s="209"/>
+      <c r="L38" s="209"/>
     </row>
     <row r="39" s="19" customFormat="true" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="214" t="s">
+      <c r="A39" s="213" t="s">
         <v>273</v>
       </c>
-      <c r="B39" s="207"/>
-      <c r="C39" s="207"/>
-      <c r="D39" s="207"/>
-      <c r="E39" s="208"/>
-      <c r="F39" s="209"/>
-      <c r="G39" s="210" t="str">
+      <c r="B39" s="206"/>
+      <c r="C39" s="206"/>
+      <c r="D39" s="206"/>
+      <c r="E39" s="207"/>
+      <c r="F39" s="208"/>
+      <c r="G39" s="209" t="str">
         <f aca="false">IF(OR(B39="",D39=""),"Please add Original Baseline and/or Forecast date if either is missing",IF(B39=C39,"Please delete Rebaseline as same as Original Baseline",IF(D39=B39,"",IF(AND(D39&lt;&gt;B39,G213=""),CONCATENATE(D39-B39," / ",IF(C39&lt;&gt;"",D39-C39,"-")," days change from the Original Baseline / Rebaseline - please provide reason if considered significant change. If Rebaselined, please provide reason"),IF(C39="",CONCATENATE(D39-B39," days change from the Original Baseline"),CONCATENATE(D39-B39," days change from the Original Baseline; ",D39-C39," days change from the rebaseline"))))))</f>
         <v>Please add Original Baseline and/or Forecast date if either is missing</v>
       </c>
-      <c r="H39" s="210"/>
-      <c r="I39" s="210"/>
-      <c r="J39" s="210"/>
-      <c r="K39" s="210"/>
-      <c r="L39" s="210"/>
+      <c r="H39" s="209"/>
+      <c r="I39" s="209"/>
+      <c r="J39" s="209"/>
+      <c r="K39" s="209"/>
+      <c r="L39" s="209"/>
     </row>
     <row r="40" s="19" customFormat="true" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="214" t="s">
+      <c r="A40" s="213" t="s">
         <v>274</v>
       </c>
-      <c r="B40" s="207"/>
-      <c r="C40" s="207"/>
-      <c r="D40" s="207"/>
-      <c r="E40" s="208"/>
-      <c r="F40" s="209"/>
-      <c r="G40" s="210" t="str">
+      <c r="B40" s="206"/>
+      <c r="C40" s="206"/>
+      <c r="D40" s="206"/>
+      <c r="E40" s="207"/>
+      <c r="F40" s="208"/>
+      <c r="G40" s="209" t="str">
         <f aca="false">IF(OR(B40="",D40=""),"Please add Original Baseline and/or Forecast date if either is missing",IF(B40=C40,"Please delete Rebaseline as same as Original Baseline",IF(D40=B40,"",IF(AND(D40&lt;&gt;B40,G214=""),CONCATENATE(D40-B40," / ",IF(C40&lt;&gt;"",D40-C40,"-")," days change from the Original Baseline / Rebaseline - please provide reason if considered significant change. If Rebaselined, please provide reason"),IF(C40="",CONCATENATE(D40-B40," days change from the Original Baseline"),CONCATENATE(D40-B40," days change from the Original Baseline; ",D40-C40," days change from the rebaseline"))))))</f>
         <v>Please add Original Baseline and/or Forecast date if either is missing</v>
       </c>
-      <c r="H40" s="210"/>
-      <c r="I40" s="210"/>
-      <c r="J40" s="210"/>
-      <c r="K40" s="210"/>
-      <c r="L40" s="210"/>
+      <c r="H40" s="209"/>
+      <c r="I40" s="209"/>
+      <c r="J40" s="209"/>
+      <c r="K40" s="209"/>
+      <c r="L40" s="209"/>
     </row>
     <row r="41" s="19" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="4"/>
@@ -11433,28 +11439,28 @@
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
-      <c r="G41" s="210"/>
-      <c r="H41" s="210"/>
-      <c r="I41" s="210"/>
-      <c r="J41" s="210"/>
-      <c r="K41" s="210"/>
-      <c r="L41" s="210"/>
+      <c r="G41" s="209"/>
+      <c r="H41" s="209"/>
+      <c r="I41" s="209"/>
+      <c r="J41" s="209"/>
+      <c r="K41" s="209"/>
+      <c r="L41" s="209"/>
     </row>
     <row r="42" s="19" customFormat="true" ht="190.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="178" t="s">
         <v>275</v>
       </c>
-      <c r="B42" s="209"/>
-      <c r="C42" s="209"/>
-      <c r="D42" s="209"/>
-      <c r="E42" s="209"/>
-      <c r="F42" s="209"/>
-      <c r="G42" s="210"/>
-      <c r="H42" s="210"/>
-      <c r="I42" s="210"/>
-      <c r="J42" s="210"/>
-      <c r="K42" s="210"/>
-      <c r="L42" s="210"/>
+      <c r="B42" s="208"/>
+      <c r="C42" s="208"/>
+      <c r="D42" s="208"/>
+      <c r="E42" s="208"/>
+      <c r="F42" s="208"/>
+      <c r="G42" s="209"/>
+      <c r="H42" s="209"/>
+      <c r="I42" s="209"/>
+      <c r="J42" s="209"/>
+      <c r="K42" s="209"/>
+      <c r="L42" s="209"/>
     </row>
   </sheetData>
   <mergeCells count="39">
@@ -11511,7 +11517,7 @@
       <formula1>Dropdown!$Q$2:$Q$4</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B5" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B4:B5 D4" type="list">
       <formula1>INDIRECT(Summary!G32)</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -11534,7 +11540,7 @@
   </sheetPr>
   <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="66" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="66" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D35" activeCellId="0" sqref="D35"/>
     </sheetView>
   </sheetViews>
@@ -11547,35 +11553,35 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="77.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="215" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="215"/>
-      <c r="C1" s="215"/>
-      <c r="D1" s="215"/>
-      <c r="E1" s="215"/>
-      <c r="F1" s="215"/>
-      <c r="G1" s="215"/>
-      <c r="H1" s="215"/>
-      <c r="I1" s="215"/>
+      <c r="A1" s="214" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="214"/>
+      <c r="C1" s="214"/>
+      <c r="D1" s="214"/>
+      <c r="E1" s="214"/>
+      <c r="F1" s="214"/>
+      <c r="G1" s="214"/>
+      <c r="H1" s="214"/>
+      <c r="I1" s="214"/>
       <c r="J1" s="176" t="s">
         <v>64</v>
       </c>
       <c r="K1" s="176"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="216" t="s">
+      <c r="A2" s="215" t="s">
         <v>276</v>
       </c>
-      <c r="B2" s="216"/>
-      <c r="C2" s="216"/>
+      <c r="B2" s="215"/>
+      <c r="C2" s="215"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="217" t="s">
+      <c r="A3" s="216" t="s">
         <v>277</v>
       </c>
-      <c r="B3" s="218"/>
-      <c r="C3" s="218"/>
+      <c r="B3" s="217"/>
+      <c r="C3" s="217"/>
     </row>
     <row r="4" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="178" t="s">
@@ -11584,32 +11590,32 @@
       <c r="B4" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="C4" s="219"/>
+      <c r="C4" s="218"/>
       <c r="D4" s="178" t="s">
         <v>280</v>
       </c>
-      <c r="E4" s="197"/>
+      <c r="E4" s="196"/>
     </row>
     <row r="5" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B5" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="C5" s="219"/>
+      <c r="C5" s="218"/>
     </row>
     <row r="7" customFormat="false" ht="87" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="178" t="s">
         <v>232</v>
       </c>
-      <c r="B7" s="200" t="s">
+      <c r="B7" s="199" t="s">
         <v>282</v>
       </c>
-      <c r="C7" s="200" t="s">
+      <c r="C7" s="199" t="s">
         <v>234</v>
       </c>
-      <c r="D7" s="200" t="s">
+      <c r="D7" s="199" t="s">
         <v>235</v>
       </c>
-      <c r="E7" s="200" t="s">
+      <c r="E7" s="199" t="s">
         <v>283</v>
       </c>
       <c r="F7" s="177" t="s">
@@ -11617,336 +11623,336 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="220" t="s">
+      <c r="A8" s="219" t="s">
         <v>284</v>
       </c>
-      <c r="B8" s="221"/>
-      <c r="C8" s="221"/>
-      <c r="D8" s="221"/>
-      <c r="E8" s="222"/>
-      <c r="F8" s="197"/>
-      <c r="G8" s="223" t="str">
+      <c r="B8" s="220"/>
+      <c r="C8" s="220"/>
+      <c r="D8" s="220"/>
+      <c r="E8" s="221"/>
+      <c r="F8" s="196"/>
+      <c r="G8" s="222" t="str">
         <f aca="false">IF(OR(B9="",D9=""),"Please add Original Baseline and/or Forecast date if either is missing",IF(B9=C9,"Please delete Rebaseline as same as Original Baseline",IF(D9=B9,"",IF(AND(D9&lt;&gt;B9,G141=""),CONCATENATE(D9-B9," / ",IF(C9&lt;&gt;"",D9-C9,"-")," days change from the Original Baseline / Rebaseline - please provide reason if considered significant change. If Rebaselined, please provide reason"),IF(C9="",CONCATENATE(D9-B9," days change from the Original Baseline"),CONCATENATE(D9-B9," days change from the Original Baseline; ",D9-C9," days change from the rebaseline"))))))</f>
         <v>Please add Original Baseline and/or Forecast date if either is missing</v>
       </c>
-      <c r="H8" s="223"/>
-      <c r="I8" s="223"/>
-      <c r="J8" s="223"/>
+      <c r="H8" s="222"/>
+      <c r="I8" s="222"/>
+      <c r="J8" s="222"/>
     </row>
     <row r="9" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="220" t="s">
+      <c r="A9" s="219" t="s">
         <v>285</v>
       </c>
-      <c r="B9" s="221"/>
-      <c r="C9" s="221"/>
-      <c r="D9" s="221"/>
-      <c r="E9" s="222"/>
-      <c r="F9" s="197"/>
-      <c r="G9" s="223" t="str">
+      <c r="B9" s="220"/>
+      <c r="C9" s="220"/>
+      <c r="D9" s="220"/>
+      <c r="E9" s="221"/>
+      <c r="F9" s="196"/>
+      <c r="G9" s="222" t="str">
         <f aca="false">IF(OR(B10="",D10=""),"Please add Original Baseline and/or Forecast date if either is missing",IF(B10=C10,"Please delete Rebaseline as same as Original Baseline",IF(D10=B10,"",IF(AND(D10&lt;&gt;B10,G142=""),CONCATENATE(D10-B10," / ",IF(C10&lt;&gt;"",D10-C10,"-")," days change from the Original Baseline / Rebaseline - please provide reason if considered significant change. If Rebaselined, please provide reason"),IF(C10="",CONCATENATE(D10-B10," days change from the Original Baseline"),CONCATENATE(D10-B10," days change from the Original Baseline; ",D10-C10," days change from the rebaseline"))))))</f>
         <v>Please add Original Baseline and/or Forecast date if either is missing</v>
       </c>
-      <c r="H9" s="223"/>
-      <c r="I9" s="223"/>
-      <c r="J9" s="223"/>
+      <c r="H9" s="222"/>
+      <c r="I9" s="222"/>
+      <c r="J9" s="222"/>
     </row>
     <row r="10" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="220" t="s">
+      <c r="A10" s="219" t="s">
         <v>286</v>
       </c>
-      <c r="B10" s="221"/>
-      <c r="C10" s="221"/>
-      <c r="D10" s="221"/>
-      <c r="E10" s="222"/>
-      <c r="F10" s="197"/>
-      <c r="G10" s="223" t="str">
+      <c r="B10" s="220"/>
+      <c r="C10" s="220"/>
+      <c r="D10" s="220"/>
+      <c r="E10" s="221"/>
+      <c r="F10" s="196"/>
+      <c r="G10" s="222" t="str">
         <f aca="false">IF(OR(B11="",D11=""),"Please add Original Baseline and/or Forecast date if either is missing",IF(B11=C11,"Please delete Rebaseline as same as Original Baseline",IF(D11=B11,"",IF(AND(D11&lt;&gt;B11,G143=""),CONCATENATE(D11-B11," / ",IF(C11&lt;&gt;"",D11-C11,"-")," days change from the Original Baseline / Rebaseline - please provide reason if considered significant change. If Rebaselined, please provide reason"),IF(C11="",CONCATENATE(D11-B11," days change from the Original Baseline"),CONCATENATE(D11-B11," days change from the Original Baseline; ",D11-C11," days change from the rebaseline"))))))</f>
         <v>Please add Original Baseline and/or Forecast date if either is missing</v>
       </c>
-      <c r="H10" s="223"/>
-      <c r="I10" s="223"/>
-      <c r="J10" s="223"/>
+      <c r="H10" s="222"/>
+      <c r="I10" s="222"/>
+      <c r="J10" s="222"/>
     </row>
     <row r="11" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="220" t="s">
+      <c r="A11" s="219" t="s">
         <v>287</v>
       </c>
-      <c r="B11" s="221"/>
-      <c r="C11" s="221"/>
-      <c r="D11" s="221"/>
-      <c r="E11" s="222"/>
-      <c r="F11" s="197"/>
-      <c r="G11" s="223" t="str">
+      <c r="B11" s="220"/>
+      <c r="C11" s="220"/>
+      <c r="D11" s="220"/>
+      <c r="E11" s="221"/>
+      <c r="F11" s="196"/>
+      <c r="G11" s="222" t="str">
         <f aca="false">IF(OR(B12="",D12=""),"Please add Original Baseline and/or Forecast date if either is missing",IF(B12=C12,"Please delete Rebaseline as same as Original Baseline",IF(D12=B12,"",IF(AND(D12&lt;&gt;B12,G144=""),CONCATENATE(D12-B12," / ",IF(C12&lt;&gt;"",D12-C12,"-")," days change from the Original Baseline / Rebaseline - please provide reason if considered significant change. If Rebaselined, please provide reason"),IF(C12="",CONCATENATE(D12-B12," days change from the Original Baseline"),CONCATENATE(D12-B12," days change from the Original Baseline; ",D12-C12," days change from the rebaseline"))))))</f>
         <v>Please add Original Baseline and/or Forecast date if either is missing</v>
       </c>
-      <c r="H11" s="223"/>
-      <c r="I11" s="223"/>
-      <c r="J11" s="223"/>
+      <c r="H11" s="222"/>
+      <c r="I11" s="222"/>
+      <c r="J11" s="222"/>
     </row>
     <row r="12" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="220" t="s">
+      <c r="A12" s="219" t="s">
         <v>288</v>
       </c>
-      <c r="B12" s="221"/>
-      <c r="C12" s="221"/>
-      <c r="D12" s="221"/>
-      <c r="E12" s="222"/>
-      <c r="F12" s="197"/>
-      <c r="G12" s="223" t="str">
+      <c r="B12" s="220"/>
+      <c r="C12" s="220"/>
+      <c r="D12" s="220"/>
+      <c r="E12" s="221"/>
+      <c r="F12" s="196"/>
+      <c r="G12" s="222" t="str">
         <f aca="false">IF(OR(B13="",D13=""),"Please add Original Baseline and/or Forecast date if either is missing",IF(B13=C13,"Please delete Rebaseline as same as Original Baseline",IF(D13=B13,"",IF(AND(D13&lt;&gt;B13,G145=""),CONCATENATE(D13-B13," / ",IF(C13&lt;&gt;"",D13-C13,"-")," days change from the Original Baseline / Rebaseline - please provide reason if considered significant change. If Rebaselined, please provide reason"),IF(C13="",CONCATENATE(D13-B13," days change from the Original Baseline"),CONCATENATE(D13-B13," days change from the Original Baseline; ",D13-C13," days change from the rebaseline"))))))</f>
         <v>Please add Original Baseline and/or Forecast date if either is missing</v>
       </c>
-      <c r="H12" s="223"/>
-      <c r="I12" s="223"/>
-      <c r="J12" s="223"/>
+      <c r="H12" s="222"/>
+      <c r="I12" s="222"/>
+      <c r="J12" s="222"/>
     </row>
     <row r="13" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="220" t="s">
+      <c r="A13" s="219" t="s">
         <v>289</v>
       </c>
-      <c r="B13" s="221"/>
-      <c r="C13" s="221"/>
-      <c r="D13" s="221"/>
-      <c r="E13" s="222"/>
-      <c r="F13" s="197"/>
-      <c r="G13" s="223" t="str">
+      <c r="B13" s="220"/>
+      <c r="C13" s="220"/>
+      <c r="D13" s="220"/>
+      <c r="E13" s="221"/>
+      <c r="F13" s="196"/>
+      <c r="G13" s="222" t="str">
         <f aca="false">IF(OR(B14="",D14=""),"Please add Original Baseline and/or Forecast date if either is missing",IF(B14=C14,"Please delete Rebaseline as same as Original Baseline",IF(D14=B14,"",IF(AND(D14&lt;&gt;B14,G146=""),CONCATENATE(D14-B14," / ",IF(C14&lt;&gt;"",D14-C14,"-")," days change from the Original Baseline / Rebaseline - please provide reason if considered significant change. If Rebaselined, please provide reason"),IF(C14="",CONCATENATE(D14-B14," days change from the Original Baseline"),CONCATENATE(D14-B14," days change from the Original Baseline; ",D14-C14," days change from the rebaseline"))))))</f>
         <v>Please add Original Baseline and/or Forecast date if either is missing</v>
       </c>
-      <c r="H13" s="223"/>
-      <c r="I13" s="223"/>
-      <c r="J13" s="223"/>
+      <c r="H13" s="222"/>
+      <c r="I13" s="222"/>
+      <c r="J13" s="222"/>
     </row>
     <row r="14" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="220" t="s">
+      <c r="A14" s="219" t="s">
         <v>290</v>
       </c>
-      <c r="B14" s="221"/>
-      <c r="C14" s="221"/>
-      <c r="D14" s="221"/>
-      <c r="E14" s="222"/>
-      <c r="F14" s="197"/>
-      <c r="G14" s="223" t="str">
+      <c r="B14" s="220"/>
+      <c r="C14" s="220"/>
+      <c r="D14" s="220"/>
+      <c r="E14" s="221"/>
+      <c r="F14" s="196"/>
+      <c r="G14" s="222" t="str">
         <f aca="false">IF(OR(B15="",D15=""),"Please add Original Baseline and/or Forecast date if either is missing",IF(B15=C15,"Please delete Rebaseline as same as Original Baseline",IF(D15=B15,"",IF(AND(D15&lt;&gt;B15,G147=""),CONCATENATE(D15-B15," / ",IF(C15&lt;&gt;"",D15-C15,"-")," days change from the Original Baseline / Rebaseline - please provide reason if considered significant change. If Rebaselined, please provide reason"),IF(C15="",CONCATENATE(D15-B15," days change from the Original Baseline"),CONCATENATE(D15-B15," days change from the Original Baseline; ",D15-C15," days change from the rebaseline"))))))</f>
         <v>Please add Original Baseline and/or Forecast date if either is missing</v>
       </c>
-      <c r="H14" s="223"/>
-      <c r="I14" s="223"/>
-      <c r="J14" s="223"/>
+      <c r="H14" s="222"/>
+      <c r="I14" s="222"/>
+      <c r="J14" s="222"/>
     </row>
     <row r="15" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="220" t="s">
+      <c r="A15" s="219" t="s">
         <v>291</v>
       </c>
-      <c r="B15" s="221"/>
-      <c r="C15" s="221"/>
-      <c r="D15" s="221"/>
-      <c r="E15" s="222"/>
-      <c r="F15" s="197"/>
-      <c r="G15" s="223" t="str">
+      <c r="B15" s="220"/>
+      <c r="C15" s="220"/>
+      <c r="D15" s="220"/>
+      <c r="E15" s="221"/>
+      <c r="F15" s="196"/>
+      <c r="G15" s="222" t="str">
         <f aca="false">IF(OR(B16="",D16=""),"Please add Original Baseline and/or Forecast date if either is missing",IF(B16=C16,"Please delete Rebaseline as same as Original Baseline",IF(D16=B16,"",IF(AND(D16&lt;&gt;B16,G148=""),CONCATENATE(D16-B16," / ",IF(C16&lt;&gt;"",D16-C16,"-")," days change from the Original Baseline / Rebaseline - please provide reason if considered significant change. If Rebaselined, please provide reason"),IF(C16="",CONCATENATE(D16-B16," days change from the Original Baseline"),CONCATENATE(D16-B16," days change from the Original Baseline; ",D16-C16," days change from the rebaseline"))))))</f>
         <v>Please add Original Baseline and/or Forecast date if either is missing</v>
       </c>
-      <c r="H15" s="223"/>
-      <c r="I15" s="223"/>
-      <c r="J15" s="223"/>
+      <c r="H15" s="222"/>
+      <c r="I15" s="222"/>
+      <c r="J15" s="222"/>
     </row>
     <row r="16" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="214" t="s">
+      <c r="A16" s="213" t="s">
         <v>292</v>
       </c>
-      <c r="B16" s="221"/>
-      <c r="C16" s="221"/>
-      <c r="D16" s="221"/>
-      <c r="E16" s="222"/>
-      <c r="F16" s="197"/>
-      <c r="G16" s="223" t="str">
+      <c r="B16" s="220"/>
+      <c r="C16" s="220"/>
+      <c r="D16" s="220"/>
+      <c r="E16" s="221"/>
+      <c r="F16" s="196"/>
+      <c r="G16" s="222" t="str">
         <f aca="false">IF(OR(B17="",D17=""),"Please add Original Baseline and/or Forecast date if either is missing",IF(B17=C17,"Please delete Rebaseline as same as Original Baseline",IF(D17=B17,"",IF(AND(D17&lt;&gt;B17,G149=""),CONCATENATE(D17-B17," / ",IF(C17&lt;&gt;"",D17-C17,"-")," days change from the Original Baseline / Rebaseline - please provide reason if considered significant change. If Rebaselined, please provide reason"),IF(C17="",CONCATENATE(D17-B17," days change from the Original Baseline"),CONCATENATE(D17-B17," days change from the Original Baseline; ",D17-C17," days change from the rebaseline"))))))</f>
         <v>Please add Original Baseline and/or Forecast date if either is missing</v>
       </c>
-      <c r="H16" s="223"/>
-      <c r="I16" s="223"/>
-      <c r="J16" s="223"/>
+      <c r="H16" s="222"/>
+      <c r="I16" s="222"/>
+      <c r="J16" s="222"/>
     </row>
     <row r="17" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="214" t="s">
+      <c r="A17" s="213" t="s">
         <v>293</v>
       </c>
-      <c r="B17" s="221"/>
-      <c r="C17" s="221"/>
-      <c r="D17" s="221"/>
-      <c r="E17" s="222"/>
-      <c r="F17" s="197"/>
-      <c r="G17" s="223" t="str">
+      <c r="B17" s="220"/>
+      <c r="C17" s="220"/>
+      <c r="D17" s="220"/>
+      <c r="E17" s="221"/>
+      <c r="F17" s="196"/>
+      <c r="G17" s="222" t="str">
         <f aca="false">IF(OR(B18="",D18=""),"Please add Original Baseline and/or Forecast date if either is missing",IF(B18=C18,"Please delete Rebaseline as same as Original Baseline",IF(D18=B18,"",IF(AND(D18&lt;&gt;B18,G150=""),CONCATENATE(D18-B18," / ",IF(C18&lt;&gt;"",D18-C18,"-")," days change from the Original Baseline / Rebaseline - please provide reason if considered significant change. If Rebaselined, please provide reason"),IF(C18="",CONCATENATE(D18-B18," days change from the Original Baseline"),CONCATENATE(D18-B18," days change from the Original Baseline; ",D18-C18," days change from the rebaseline"))))))</f>
         <v>Please add Original Baseline and/or Forecast date if either is missing</v>
       </c>
-      <c r="H17" s="223"/>
-      <c r="I17" s="223"/>
-      <c r="J17" s="223"/>
+      <c r="H17" s="222"/>
+      <c r="I17" s="222"/>
+      <c r="J17" s="222"/>
     </row>
     <row r="18" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="214" t="s">
+      <c r="A18" s="213" t="s">
         <v>294</v>
       </c>
-      <c r="B18" s="221"/>
-      <c r="C18" s="221"/>
-      <c r="D18" s="221"/>
-      <c r="E18" s="222"/>
-      <c r="F18" s="197"/>
-      <c r="G18" s="223" t="str">
+      <c r="B18" s="220"/>
+      <c r="C18" s="220"/>
+      <c r="D18" s="220"/>
+      <c r="E18" s="221"/>
+      <c r="F18" s="196"/>
+      <c r="G18" s="222" t="str">
         <f aca="false">IF(OR(B19="",D19=""),"Please add Original Baseline and/or Forecast date if either is missing",IF(B19=C19,"Please delete Rebaseline as same as Original Baseline",IF(D19=B19,"",IF(AND(D19&lt;&gt;B19,G151=""),CONCATENATE(D19-B19," / ",IF(C19&lt;&gt;"",D19-C19,"-")," days change from the Original Baseline / Rebaseline - please provide reason if considered significant change. If Rebaselined, please provide reason"),IF(C19="",CONCATENATE(D19-B19," days change from the Original Baseline"),CONCATENATE(D19-B19," days change from the Original Baseline; ",D19-C19," days change from the rebaseline"))))))</f>
         <v>Please add Original Baseline and/or Forecast date if either is missing</v>
       </c>
-      <c r="H18" s="223"/>
-      <c r="I18" s="223"/>
-      <c r="J18" s="223"/>
+      <c r="H18" s="222"/>
+      <c r="I18" s="222"/>
+      <c r="J18" s="222"/>
     </row>
     <row r="19" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="214" t="s">
+      <c r="A19" s="213" t="s">
         <v>295</v>
       </c>
-      <c r="B19" s="221"/>
-      <c r="C19" s="221"/>
-      <c r="D19" s="221"/>
-      <c r="E19" s="222"/>
-      <c r="F19" s="197"/>
-      <c r="G19" s="223" t="str">
+      <c r="B19" s="220"/>
+      <c r="C19" s="220"/>
+      <c r="D19" s="220"/>
+      <c r="E19" s="221"/>
+      <c r="F19" s="196"/>
+      <c r="G19" s="222" t="str">
         <f aca="false">IF(OR(B20="",D20=""),"Please add Original Baseline and/or Forecast date if either is missing",IF(B20=C20,"Please delete Rebaseline as same as Original Baseline",IF(D20=B20,"",IF(AND(D20&lt;&gt;B20,G152=""),CONCATENATE(D20-B20," / ",IF(C20&lt;&gt;"",D20-C20,"-")," days change from the Original Baseline / Rebaseline - please provide reason if considered significant change. If Rebaselined, please provide reason"),IF(C20="",CONCATENATE(D20-B20," days change from the Original Baseline"),CONCATENATE(D20-B20," days change from the Original Baseline; ",D20-C20," days change from the rebaseline"))))))</f>
         <v>Please add Original Baseline and/or Forecast date if either is missing</v>
       </c>
-      <c r="H19" s="223"/>
-      <c r="I19" s="223"/>
-      <c r="J19" s="223"/>
+      <c r="H19" s="222"/>
+      <c r="I19" s="222"/>
+      <c r="J19" s="222"/>
     </row>
     <row r="20" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="214" t="s">
+      <c r="A20" s="213" t="s">
         <v>296</v>
       </c>
-      <c r="B20" s="221"/>
-      <c r="C20" s="221"/>
-      <c r="D20" s="221"/>
-      <c r="E20" s="222"/>
-      <c r="F20" s="197"/>
-      <c r="G20" s="223" t="str">
+      <c r="B20" s="220"/>
+      <c r="C20" s="220"/>
+      <c r="D20" s="220"/>
+      <c r="E20" s="221"/>
+      <c r="F20" s="196"/>
+      <c r="G20" s="222" t="str">
         <f aca="false">IF(OR(B21="",D21=""),"Please add Original Baseline and/or Forecast date if either is missing",IF(B21=C21,"Please delete Rebaseline as same as Original Baseline",IF(D21=B21,"",IF(AND(D21&lt;&gt;B21,G153=""),CONCATENATE(D21-B21," / ",IF(C21&lt;&gt;"",D21-C21,"-")," days change from the Original Baseline / Rebaseline - please provide reason if considered significant change. If Rebaselined, please provide reason"),IF(C21="",CONCATENATE(D21-B21," days change from the Original Baseline"),CONCATENATE(D21-B21," days change from the Original Baseline; ",D21-C21," days change from the rebaseline"))))))</f>
         <v>Please add Original Baseline and/or Forecast date if either is missing</v>
       </c>
-      <c r="H20" s="223"/>
-      <c r="I20" s="223"/>
-      <c r="J20" s="223"/>
+      <c r="H20" s="222"/>
+      <c r="I20" s="222"/>
+      <c r="J20" s="222"/>
     </row>
     <row r="21" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="214" t="s">
+      <c r="A21" s="213" t="s">
         <v>297</v>
       </c>
-      <c r="B21" s="221"/>
-      <c r="C21" s="221"/>
-      <c r="D21" s="221"/>
-      <c r="E21" s="222"/>
-      <c r="F21" s="197"/>
-      <c r="G21" s="223" t="str">
+      <c r="B21" s="220"/>
+      <c r="C21" s="220"/>
+      <c r="D21" s="220"/>
+      <c r="E21" s="221"/>
+      <c r="F21" s="196"/>
+      <c r="G21" s="222" t="str">
         <f aca="false">IF(OR(B22="",D22=""),"Please add Original Baseline and/or Forecast date if either is missing",IF(B22=C22,"Please delete Rebaseline as same as Original Baseline",IF(D22=B22,"",IF(AND(D22&lt;&gt;B22,G154=""),CONCATENATE(D22-B22," / ",IF(C22&lt;&gt;"",D22-C22,"-")," days change from the Original Baseline / Rebaseline - please provide reason if considered significant change. If Rebaselined, please provide reason"),IF(C22="",CONCATENATE(D22-B22," days change from the Original Baseline"),CONCATENATE(D22-B22," days change from the Original Baseline; ",D22-C22," days change from the rebaseline"))))))</f>
         <v>Please add Original Baseline and/or Forecast date if either is missing</v>
       </c>
-      <c r="H21" s="223"/>
-      <c r="I21" s="223"/>
-      <c r="J21" s="223"/>
+      <c r="H21" s="222"/>
+      <c r="I21" s="222"/>
+      <c r="J21" s="222"/>
     </row>
     <row r="22" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="214" t="s">
+      <c r="A22" s="213" t="s">
         <v>298</v>
       </c>
-      <c r="B22" s="221"/>
-      <c r="C22" s="221"/>
-      <c r="D22" s="221"/>
-      <c r="E22" s="222"/>
-      <c r="F22" s="197"/>
-      <c r="G22" s="223" t="str">
+      <c r="B22" s="220"/>
+      <c r="C22" s="220"/>
+      <c r="D22" s="220"/>
+      <c r="E22" s="221"/>
+      <c r="F22" s="196"/>
+      <c r="G22" s="222" t="str">
         <f aca="false">IF(OR(B23="",D23=""),"Please add Original Baseline and/or Forecast date if either is missing",IF(B23=C23,"Please delete Rebaseline as same as Original Baseline",IF(D23=B23,"",IF(AND(D23&lt;&gt;B23,G155=""),CONCATENATE(D23-B23," / ",IF(C23&lt;&gt;"",D23-C23,"-")," days change from the Original Baseline / Rebaseline - please provide reason if considered significant change. If Rebaselined, please provide reason"),IF(C23="",CONCATENATE(D23-B23," days change from the Original Baseline"),CONCATENATE(D23-B23," days change from the Original Baseline; ",D23-C23," days change from the rebaseline"))))))</f>
         <v>Please add Original Baseline and/or Forecast date if either is missing</v>
       </c>
-      <c r="H22" s="223"/>
-      <c r="I22" s="223"/>
-      <c r="J22" s="223"/>
+      <c r="H22" s="222"/>
+      <c r="I22" s="222"/>
+      <c r="J22" s="222"/>
     </row>
     <row r="23" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="214" t="s">
+      <c r="A23" s="213" t="s">
         <v>299</v>
       </c>
-      <c r="B23" s="221"/>
-      <c r="C23" s="221"/>
-      <c r="D23" s="221"/>
-      <c r="E23" s="222"/>
-      <c r="F23" s="197"/>
-      <c r="G23" s="223" t="str">
+      <c r="B23" s="220"/>
+      <c r="C23" s="220"/>
+      <c r="D23" s="220"/>
+      <c r="E23" s="221"/>
+      <c r="F23" s="196"/>
+      <c r="G23" s="222" t="str">
         <f aca="false">IF(OR(B24="",D24=""),"Please add Original Baseline and/or Forecast date if either is missing",IF(B24=C24,"Please delete Rebaseline as same as Original Baseline",IF(D24=B24,"",IF(AND(D24&lt;&gt;B24,G156=""),CONCATENATE(D24-B24," / ",IF(C24&lt;&gt;"",D24-C24,"-")," days change from the Original Baseline / Rebaseline - please provide reason if considered significant change. If Rebaselined, please provide reason"),IF(C24="",CONCATENATE(D24-B24," days change from the Original Baseline"),CONCATENATE(D24-B24," days change from the Original Baseline; ",D24-C24," days change from the rebaseline"))))))</f>
         <v>Please add Original Baseline and/or Forecast date if either is missing</v>
       </c>
-      <c r="H23" s="223"/>
-      <c r="I23" s="223"/>
-      <c r="J23" s="223"/>
+      <c r="H23" s="222"/>
+      <c r="I23" s="222"/>
+      <c r="J23" s="222"/>
     </row>
     <row r="24" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="214" t="s">
+      <c r="A24" s="213" t="s">
         <v>300</v>
       </c>
-      <c r="B24" s="221"/>
-      <c r="C24" s="221"/>
-      <c r="D24" s="221"/>
-      <c r="E24" s="222"/>
-      <c r="F24" s="197"/>
-      <c r="G24" s="223" t="str">
+      <c r="B24" s="220"/>
+      <c r="C24" s="220"/>
+      <c r="D24" s="220"/>
+      <c r="E24" s="221"/>
+      <c r="F24" s="196"/>
+      <c r="G24" s="222" t="str">
         <f aca="false">IF(OR(B25="",D25=""),"Please add Original Baseline and/or Forecast date if either is missing",IF(B25=C25,"Please delete Rebaseline as same as Original Baseline",IF(D25=B25,"",IF(AND(D25&lt;&gt;B25,G157=""),CONCATENATE(D25-B25," / ",IF(C25&lt;&gt;"",D25-C25,"-")," days change from the Original Baseline / Rebaseline - please provide reason if considered significant change. If Rebaselined, please provide reason"),IF(C25="",CONCATENATE(D25-B25," days change from the Original Baseline"),CONCATENATE(D25-B25," days change from the Original Baseline; ",D25-C25," days change from the rebaseline"))))))</f>
         <v>Please add Original Baseline and/or Forecast date if either is missing</v>
       </c>
-      <c r="H24" s="223"/>
-      <c r="I24" s="223"/>
-      <c r="J24" s="223"/>
+      <c r="H24" s="222"/>
+      <c r="I24" s="222"/>
+      <c r="J24" s="222"/>
     </row>
     <row r="25" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="214" t="s">
+      <c r="A25" s="213" t="s">
         <v>301</v>
       </c>
-      <c r="B25" s="221"/>
-      <c r="C25" s="221"/>
-      <c r="D25" s="221"/>
-      <c r="E25" s="222"/>
-      <c r="F25" s="197"/>
-      <c r="G25" s="223" t="str">
+      <c r="B25" s="220"/>
+      <c r="C25" s="220"/>
+      <c r="D25" s="220"/>
+      <c r="E25" s="221"/>
+      <c r="F25" s="196"/>
+      <c r="G25" s="222" t="str">
         <f aca="false">IF(OR(B26="",D26=""),"Please add Original Baseline and/or Forecast date if either is missing",IF(B26=C26,"Please delete Rebaseline as same as Original Baseline",IF(D26=B26,"",IF(AND(D26&lt;&gt;B26,G158=""),CONCATENATE(D26-B26," / ",IF(C26&lt;&gt;"",D26-C26,"-")," days change from the Original Baseline / Rebaseline - please provide reason if considered significant change. If Rebaselined, please provide reason"),IF(C26="",CONCATENATE(D26-B26," days change from the Original Baseline"),CONCATENATE(D26-B26," days change from the Original Baseline; ",D26-C26," days change from the rebaseline"))))))</f>
         <v>Please add Original Baseline and/or Forecast date if either is missing</v>
       </c>
-      <c r="H25" s="223"/>
-      <c r="I25" s="223"/>
-      <c r="J25" s="223"/>
+      <c r="H25" s="222"/>
+      <c r="I25" s="222"/>
+      <c r="J25" s="222"/>
     </row>
     <row r="27" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="224" t="s">
+      <c r="A27" s="223" t="s">
         <v>302</v>
       </c>
-      <c r="B27" s="224"/>
-      <c r="C27" s="224"/>
+      <c r="B27" s="223"/>
+      <c r="C27" s="223"/>
     </row>
     <row r="28" customFormat="false" ht="47.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="225" t="s">
+      <c r="A28" s="224" t="s">
         <v>303</v>
       </c>
-      <c r="B28" s="225"/>
-      <c r="C28" s="225"/>
-      <c r="D28" s="225"/>
-      <c r="E28" s="225"/>
-      <c r="F28" s="225"/>
+      <c r="B28" s="224"/>
+      <c r="C28" s="224"/>
+      <c r="D28" s="224"/>
+      <c r="E28" s="224"/>
+      <c r="F28" s="224"/>
     </row>
     <row r="30" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B30" s="226" t="s">
+      <c r="B30" s="225" t="s">
         <v>304</v>
       </c>
-      <c r="C30" s="226"/>
-      <c r="D30" s="197"/>
-      <c r="E30" s="197"/>
-      <c r="F30" s="197"/>
+      <c r="C30" s="225"/>
+      <c r="D30" s="196"/>
+      <c r="E30" s="196"/>
+      <c r="F30" s="196"/>
     </row>
     <row r="31" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="178" t="s">
@@ -11955,44 +11961,44 @@
       <c r="B31" s="178" t="s">
         <v>306</v>
       </c>
-      <c r="C31" s="222"/>
-      <c r="D31" s="197"/>
-      <c r="E31" s="197"/>
-      <c r="F31" s="197"/>
+      <c r="C31" s="221"/>
+      <c r="D31" s="196"/>
+      <c r="E31" s="196"/>
+      <c r="F31" s="196"/>
     </row>
     <row r="32" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="178"/>
       <c r="B32" s="178" t="s">
         <v>307</v>
       </c>
-      <c r="C32" s="222"/>
-      <c r="D32" s="197"/>
-      <c r="E32" s="197"/>
-      <c r="F32" s="197"/>
+      <c r="C32" s="221"/>
+      <c r="D32" s="196"/>
+      <c r="E32" s="196"/>
+      <c r="F32" s="196"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D33" s="227"/>
-      <c r="E33" s="228"/>
-      <c r="F33" s="229"/>
+      <c r="D33" s="226"/>
+      <c r="E33" s="227"/>
+      <c r="F33" s="228"/>
     </row>
     <row r="34" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="225" t="s">
+      <c r="A34" s="224" t="s">
         <v>308</v>
       </c>
-      <c r="B34" s="225"/>
-      <c r="C34" s="225"/>
-      <c r="D34" s="225"/>
-      <c r="E34" s="225"/>
-      <c r="F34" s="225"/>
+      <c r="B34" s="224"/>
+      <c r="C34" s="224"/>
+      <c r="D34" s="224"/>
+      <c r="E34" s="224"/>
+      <c r="F34" s="224"/>
     </row>
     <row r="35" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B35" s="178" t="s">
         <v>304</v>
       </c>
       <c r="C35" s="178"/>
-      <c r="D35" s="230"/>
-      <c r="E35" s="230"/>
-      <c r="F35" s="230"/>
+      <c r="D35" s="229"/>
+      <c r="E35" s="229"/>
+      <c r="F35" s="229"/>
     </row>
     <row r="36" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="178" t="s">
@@ -12001,20 +12007,20 @@
       <c r="B36" s="178" t="s">
         <v>306</v>
       </c>
-      <c r="C36" s="222"/>
-      <c r="D36" s="230"/>
-      <c r="E36" s="230"/>
-      <c r="F36" s="230"/>
+      <c r="C36" s="221"/>
+      <c r="D36" s="229"/>
+      <c r="E36" s="229"/>
+      <c r="F36" s="229"/>
     </row>
     <row r="37" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="178"/>
       <c r="B37" s="178" t="s">
         <v>307</v>
       </c>
-      <c r="C37" s="222"/>
-      <c r="D37" s="230"/>
-      <c r="E37" s="230"/>
-      <c r="F37" s="230"/>
+      <c r="C37" s="221"/>
+      <c r="D37" s="229"/>
+      <c r="E37" s="229"/>
+      <c r="F37" s="229"/>
     </row>
     <row r="38" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
@@ -12084,2186 +12090,2186 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="231" width="9.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="231" width="10.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="231" width="9.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="231" width="9.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="231" width="14.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="231" width="9.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="231" width="13.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="231" width="14.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="231" width="13.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="231" width="10.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="13" style="231" width="14.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="231" width="10.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="16" style="231" width="18.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="18" style="231" width="6.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="231" width="10.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="231" width="9.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="231" width="7.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="231" width="9.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="231" width="11.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="232" width="9.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="232" width="6.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="231" width="12.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="231" width="20.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="231" width="6.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="231" width="9.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="231" width="18.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="231" width="6.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="233" width="6.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="233" width="9.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="230" width="9.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="230" width="10.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="230" width="9.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="230" width="9.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="230" width="14.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="230" width="9.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="230" width="13.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="230" width="14.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="230" width="13.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="230" width="10.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="13" style="230" width="14.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="230" width="10.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="16" style="230" width="18.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="18" style="230" width="6.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="230" width="10.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="230" width="9.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="230" width="7.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="230" width="9.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="230" width="11.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="231" width="9.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="231" width="6.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="230" width="12.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="230" width="20.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="230" width="6.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="230" width="9.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="230" width="18.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="230" width="6.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="232" width="6.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="232" width="9.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="0" width="6.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="233" width="9.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="37" style="233" width="6.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="233" width="14.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="44" style="231" width="6.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="232" width="9.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="37" style="232" width="6.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="232" width="14.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="44" style="230" width="6.88"/>
   </cols>
   <sheetData>
-    <row r="1" s="234" customFormat="true" ht="97" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="234" t="s">
+    <row r="1" s="233" customFormat="true" ht="97" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="233" t="s">
         <v>309</v>
       </c>
-      <c r="B1" s="234" t="s">
+      <c r="B1" s="233" t="s">
         <v>310</v>
       </c>
-      <c r="C1" s="234" t="s">
+      <c r="C1" s="233" t="s">
         <v>311</v>
       </c>
-      <c r="D1" s="234" t="s">
+      <c r="D1" s="233" t="s">
         <v>312</v>
       </c>
-      <c r="E1" s="234" t="s">
+      <c r="E1" s="233" t="s">
         <v>313</v>
       </c>
-      <c r="F1" s="234" t="s">
+      <c r="F1" s="233" t="s">
         <v>314</v>
       </c>
-      <c r="G1" s="234" t="s">
+      <c r="G1" s="233" t="s">
         <v>315</v>
       </c>
-      <c r="H1" s="234" t="s">
+      <c r="H1" s="233" t="s">
         <v>316</v>
       </c>
-      <c r="I1" s="234" t="s">
+      <c r="I1" s="233" t="s">
         <v>317</v>
       </c>
-      <c r="J1" s="234" t="s">
+      <c r="J1" s="233" t="s">
         <v>318</v>
       </c>
-      <c r="K1" s="234" t="s">
+      <c r="K1" s="233" t="s">
         <v>319</v>
       </c>
-      <c r="L1" s="234" t="s">
+      <c r="L1" s="233" t="s">
         <v>320</v>
       </c>
-      <c r="M1" s="234" t="s">
+      <c r="M1" s="233" t="s">
         <v>321</v>
       </c>
-      <c r="N1" s="234" t="s">
+      <c r="N1" s="233" t="s">
         <v>322</v>
       </c>
-      <c r="O1" s="234" t="s">
+      <c r="O1" s="233" t="s">
         <v>323</v>
       </c>
-      <c r="P1" s="234" t="s">
+      <c r="P1" s="233" t="s">
         <v>324</v>
       </c>
-      <c r="Q1" s="234" t="s">
+      <c r="Q1" s="233" t="s">
         <v>325</v>
       </c>
-      <c r="R1" s="234" t="s">
+      <c r="R1" s="233" t="s">
         <v>326</v>
       </c>
-      <c r="S1" s="234" t="s">
+      <c r="S1" s="233" t="s">
         <v>327</v>
       </c>
-      <c r="T1" s="234" t="s">
+      <c r="T1" s="233" t="s">
         <v>328</v>
       </c>
-      <c r="U1" s="234" t="s">
+      <c r="U1" s="233" t="s">
         <v>329</v>
       </c>
-      <c r="V1" s="234" t="s">
+      <c r="V1" s="233" t="s">
         <v>109</v>
       </c>
-      <c r="W1" s="234" t="s">
+      <c r="W1" s="233" t="s">
         <v>330</v>
       </c>
-      <c r="X1" s="234" t="s">
+      <c r="X1" s="233" t="s">
         <v>331</v>
       </c>
-      <c r="Y1" s="234" t="s">
+      <c r="Y1" s="233" t="s">
         <v>332</v>
       </c>
-      <c r="Z1" s="234" t="s">
+      <c r="Z1" s="233" t="s">
         <v>333</v>
       </c>
-      <c r="AA1" s="234" t="s">
+      <c r="AA1" s="233" t="s">
         <v>334</v>
       </c>
-      <c r="AB1" s="234" t="s">
+      <c r="AB1" s="233" t="s">
         <v>335</v>
       </c>
-      <c r="AC1" s="234" t="s">
+      <c r="AC1" s="233" t="s">
         <v>336</v>
       </c>
-      <c r="AD1" s="234" t="s">
+      <c r="AD1" s="233" t="s">
         <v>337</v>
       </c>
-      <c r="AE1" s="234" t="s">
+      <c r="AE1" s="233" t="s">
         <v>338</v>
       </c>
-      <c r="AF1" s="234" t="s">
+      <c r="AF1" s="233" t="s">
         <v>339</v>
       </c>
-      <c r="AG1" s="235" t="s">
+      <c r="AG1" s="234" t="s">
         <v>340</v>
       </c>
-      <c r="AH1" s="236" t="s">
+      <c r="AH1" s="235" t="s">
         <v>12</v>
       </c>
-      <c r="AI1" s="235" t="s">
+      <c r="AI1" s="234" t="s">
         <v>15</v>
       </c>
-      <c r="AJ1" s="235" t="s">
+      <c r="AJ1" s="234" t="s">
         <v>341</v>
       </c>
-      <c r="AK1" s="236" t="s">
+      <c r="AK1" s="235" t="s">
         <v>342</v>
       </c>
-      <c r="AL1" s="235" t="s">
+      <c r="AL1" s="234" t="s">
         <v>343</v>
       </c>
-      <c r="AM1" s="235" t="s">
+      <c r="AM1" s="234" t="s">
         <v>344</v>
       </c>
-      <c r="AN1" s="235" t="s">
+      <c r="AN1" s="234" t="s">
         <v>345</v>
       </c>
-      <c r="AO1" s="235" t="s">
+      <c r="AO1" s="234" t="s">
         <v>346</v>
       </c>
-      <c r="AP1" s="235" t="s">
+      <c r="AP1" s="234" t="s">
         <v>347</v>
       </c>
-      <c r="AQ1" s="235" t="s">
+      <c r="AQ1" s="234" t="s">
         <v>348</v>
       </c>
-      <c r="AR1" s="237" t="s">
+      <c r="AR1" s="236" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="57" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="231" t="s">
+      <c r="A2" s="230" t="s">
         <v>350</v>
       </c>
-      <c r="B2" s="231" t="s">
+      <c r="B2" s="230" t="s">
         <v>351</v>
       </c>
-      <c r="C2" s="231" t="s">
+      <c r="C2" s="230" t="s">
         <v>352</v>
       </c>
-      <c r="D2" s="231" t="s">
+      <c r="D2" s="230" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="231" t="s">
+      <c r="E2" s="230" t="s">
         <v>55</v>
       </c>
-      <c r="F2" s="231" t="s">
+      <c r="F2" s="230" t="s">
         <v>353</v>
       </c>
-      <c r="G2" s="231" t="s">
+      <c r="G2" s="230" t="s">
         <v>354</v>
       </c>
-      <c r="H2" s="231" t="s">
+      <c r="H2" s="230" t="s">
         <v>355</v>
       </c>
-      <c r="I2" s="231" t="s">
+      <c r="I2" s="230" t="s">
         <v>212</v>
       </c>
-      <c r="J2" s="231" t="s">
+      <c r="J2" s="230" t="s">
         <v>212</v>
       </c>
-      <c r="K2" s="231" t="s">
+      <c r="K2" s="230" t="s">
         <v>356</v>
       </c>
-      <c r="L2" s="231" t="s">
+      <c r="L2" s="230" t="s">
         <v>212</v>
       </c>
-      <c r="M2" s="231" t="s">
+      <c r="M2" s="230" t="s">
         <v>357</v>
       </c>
-      <c r="N2" s="231" t="s">
+      <c r="N2" s="230" t="s">
         <v>358</v>
       </c>
-      <c r="O2" s="231" t="s">
+      <c r="O2" s="230" t="s">
         <v>359</v>
       </c>
-      <c r="P2" s="231" t="s">
+      <c r="P2" s="230" t="s">
         <v>360</v>
       </c>
-      <c r="Q2" s="231" t="s">
+      <c r="Q2" s="230" t="s">
         <v>50</v>
       </c>
-      <c r="R2" s="231" t="s">
+      <c r="R2" s="230" t="s">
         <v>82</v>
       </c>
-      <c r="S2" s="231" t="n">
+      <c r="S2" s="230" t="n">
         <v>1995</v>
       </c>
-      <c r="T2" s="238" t="n">
+      <c r="T2" s="237" t="n">
         <v>0.02</v>
       </c>
-      <c r="U2" s="231" t="s">
+      <c r="U2" s="230" t="s">
         <v>361</v>
       </c>
-      <c r="V2" s="231" t="s">
+      <c r="V2" s="230" t="s">
         <v>362</v>
       </c>
-      <c r="W2" s="239" t="s">
+      <c r="W2" s="238" t="s">
         <v>363</v>
       </c>
-      <c r="X2" s="239" t="s">
+      <c r="X2" s="238" t="s">
         <v>364</v>
       </c>
-      <c r="Y2" s="240" t="n">
+      <c r="Y2" s="239" t="n">
         <v>42551</v>
       </c>
-      <c r="Z2" s="241" t="n">
+      <c r="Z2" s="240" t="n">
         <v>0.05</v>
       </c>
-      <c r="AA2" s="231" t="s">
+      <c r="AA2" s="230" t="s">
         <v>365</v>
       </c>
-      <c r="AB2" s="231" t="s">
+      <c r="AB2" s="230" t="s">
         <v>359</v>
       </c>
-      <c r="AC2" s="231" t="s">
+      <c r="AC2" s="230" t="s">
         <v>366</v>
       </c>
-      <c r="AD2" s="231" t="s">
+      <c r="AD2" s="230" t="s">
         <v>359</v>
       </c>
-      <c r="AE2" s="242" t="n">
+      <c r="AE2" s="241" t="n">
         <v>42460</v>
       </c>
-      <c r="AF2" s="243" t="n">
+      <c r="AF2" s="242" t="n">
         <v>3</v>
       </c>
-      <c r="AG2" s="233" t="s">
+      <c r="AG2" s="232" t="s">
         <v>367</v>
       </c>
-      <c r="AH2" s="244" t="s">
+      <c r="AH2" s="243" t="s">
         <v>342</v>
       </c>
-      <c r="AI2" s="233" t="s">
+      <c r="AI2" s="232" t="s">
         <v>368</v>
       </c>
-      <c r="AJ2" s="233" t="s">
+      <c r="AJ2" s="232" t="s">
         <v>369</v>
       </c>
-      <c r="AK2" s="233" t="s">
+      <c r="AK2" s="232" t="s">
         <v>368</v>
       </c>
-      <c r="AL2" s="233" t="s">
+      <c r="AL2" s="232" t="s">
         <v>370</v>
       </c>
-      <c r="AM2" s="233" t="s">
+      <c r="AM2" s="232" t="s">
         <v>371</v>
       </c>
-      <c r="AN2" s="233" t="s">
+      <c r="AN2" s="232" t="s">
         <v>372</v>
       </c>
-      <c r="AO2" s="233" t="s">
+      <c r="AO2" s="232" t="s">
         <v>373</v>
       </c>
-      <c r="AQ2" s="233" t="s">
+      <c r="AQ2" s="232" t="s">
         <v>365</v>
       </c>
-      <c r="AR2" s="244" t="s">
+      <c r="AR2" s="243" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="231" t="s">
+      <c r="A3" s="230" t="s">
         <v>375</v>
       </c>
-      <c r="B3" s="245" t="s">
+      <c r="B3" s="244" t="s">
         <v>376</v>
       </c>
-      <c r="C3" s="231" t="s">
+      <c r="C3" s="230" t="s">
         <v>377</v>
       </c>
-      <c r="D3" s="231" t="s">
+      <c r="D3" s="230" t="s">
         <v>378</v>
       </c>
-      <c r="E3" s="231" t="s">
+      <c r="E3" s="230" t="s">
         <v>379</v>
       </c>
-      <c r="F3" s="231" t="s">
+      <c r="F3" s="230" t="s">
         <v>205</v>
       </c>
-      <c r="G3" s="231" t="s">
+      <c r="G3" s="230" t="s">
         <v>380</v>
       </c>
-      <c r="H3" s="231" t="s">
+      <c r="H3" s="230" t="s">
         <v>381</v>
       </c>
-      <c r="I3" s="231" t="s">
+      <c r="I3" s="230" t="s">
         <v>382</v>
       </c>
-      <c r="J3" s="231" t="s">
+      <c r="J3" s="230" t="s">
         <v>209</v>
       </c>
-      <c r="K3" s="231" t="s">
+      <c r="K3" s="230" t="s">
         <v>383</v>
       </c>
-      <c r="L3" s="231" t="s">
+      <c r="L3" s="230" t="s">
         <v>209</v>
       </c>
-      <c r="M3" s="231" t="s">
+      <c r="M3" s="230" t="s">
         <v>384</v>
       </c>
-      <c r="N3" s="231" t="s">
+      <c r="N3" s="230" t="s">
         <v>385</v>
       </c>
-      <c r="O3" s="231" t="s">
+      <c r="O3" s="230" t="s">
         <v>386</v>
       </c>
-      <c r="P3" s="231" t="s">
+      <c r="P3" s="230" t="s">
         <v>387</v>
       </c>
-      <c r="Q3" s="231" t="s">
+      <c r="Q3" s="230" t="s">
         <v>388</v>
       </c>
-      <c r="R3" s="231" t="s">
+      <c r="R3" s="230" t="s">
         <v>389</v>
       </c>
-      <c r="S3" s="231" t="n">
+      <c r="S3" s="230" t="n">
         <v>1996</v>
       </c>
-      <c r="T3" s="238" t="n">
+      <c r="T3" s="237" t="n">
         <v>0.021</v>
       </c>
-      <c r="U3" s="231" t="s">
+      <c r="U3" s="230" t="s">
         <v>390</v>
       </c>
-      <c r="V3" s="231" t="s">
+      <c r="V3" s="230" t="s">
         <v>354</v>
       </c>
-      <c r="W3" s="239" t="s">
+      <c r="W3" s="238" t="s">
         <v>391</v>
       </c>
-      <c r="X3" s="239" t="s">
+      <c r="X3" s="238" t="s">
         <v>392</v>
       </c>
-      <c r="Y3" s="240" t="n">
+      <c r="Y3" s="239" t="n">
         <v>42643</v>
       </c>
-      <c r="Z3" s="241" t="n">
+      <c r="Z3" s="240" t="n">
         <v>0.1</v>
       </c>
-      <c r="AA3" s="231" t="s">
+      <c r="AA3" s="230" t="s">
         <v>393</v>
       </c>
-      <c r="AB3" s="231" t="s">
+      <c r="AB3" s="230" t="s">
         <v>386</v>
       </c>
-      <c r="AC3" s="231" t="s">
+      <c r="AC3" s="230" t="s">
         <v>394</v>
       </c>
-      <c r="AD3" s="231" t="s">
+      <c r="AD3" s="230" t="s">
         <v>386</v>
       </c>
-      <c r="AE3" s="246" t="n">
+      <c r="AE3" s="245" t="n">
         <v>42461</v>
       </c>
-      <c r="AF3" s="247" t="n">
+      <c r="AF3" s="246" t="n">
         <v>4</v>
       </c>
-      <c r="AG3" s="233" t="s">
+      <c r="AG3" s="232" t="s">
         <v>395</v>
       </c>
-      <c r="AH3" s="244" t="s">
+      <c r="AH3" s="243" t="s">
         <v>343</v>
       </c>
-      <c r="AI3" s="233" t="s">
+      <c r="AI3" s="232" t="s">
         <v>396</v>
       </c>
-      <c r="AJ3" s="233" t="s">
+      <c r="AJ3" s="232" t="s">
         <v>397</v>
       </c>
-      <c r="AK3" s="233" t="s">
+      <c r="AK3" s="232" t="s">
         <v>396</v>
       </c>
-      <c r="AL3" s="233" t="s">
+      <c r="AL3" s="232" t="s">
         <v>398</v>
       </c>
-      <c r="AM3" s="233" t="s">
+      <c r="AM3" s="232" t="s">
         <v>399</v>
       </c>
-      <c r="AN3" s="233" t="s">
+      <c r="AN3" s="232" t="s">
         <v>400</v>
       </c>
-      <c r="AQ3" s="233" t="s">
+      <c r="AQ3" s="232" t="s">
         <v>393</v>
       </c>
-      <c r="AR3" s="244" t="s">
+      <c r="AR3" s="243" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="64.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="231" t="s">
+      <c r="A4" s="230" t="s">
         <v>402</v>
       </c>
-      <c r="B4" s="245" t="s">
+      <c r="B4" s="244" t="s">
         <v>403</v>
       </c>
-      <c r="C4" s="231" t="s">
+      <c r="C4" s="230" t="s">
         <v>404</v>
       </c>
-      <c r="D4" s="231" t="s">
+      <c r="D4" s="230" t="s">
         <v>337</v>
       </c>
-      <c r="E4" s="231" t="s">
+      <c r="E4" s="230" t="s">
         <v>405</v>
       </c>
-      <c r="F4" s="248" t="s">
+      <c r="F4" s="247" t="s">
         <v>406</v>
       </c>
-      <c r="G4" s="231" t="s">
+      <c r="G4" s="230" t="s">
         <v>407</v>
       </c>
-      <c r="H4" s="231" t="s">
+      <c r="H4" s="230" t="s">
         <v>215</v>
       </c>
-      <c r="I4" s="231" t="s">
+      <c r="I4" s="230" t="s">
         <v>209</v>
       </c>
-      <c r="J4" s="231" t="s">
+      <c r="J4" s="230" t="s">
         <v>206</v>
       </c>
-      <c r="K4" s="231" t="s">
+      <c r="K4" s="230" t="s">
         <v>408</v>
       </c>
-      <c r="L4" s="231" t="s">
+      <c r="L4" s="230" t="s">
         <v>206</v>
       </c>
-      <c r="M4" s="231" t="s">
+      <c r="M4" s="230" t="s">
         <v>409</v>
       </c>
-      <c r="N4" s="231" t="s">
+      <c r="N4" s="230" t="s">
         <v>410</v>
       </c>
-      <c r="O4" s="231" t="s">
+      <c r="O4" s="230" t="s">
         <v>411</v>
       </c>
-      <c r="P4" s="231" t="s">
+      <c r="P4" s="230" t="s">
         <v>412</v>
       </c>
-      <c r="Q4" s="231" t="s">
+      <c r="Q4" s="230" t="s">
         <v>413</v>
       </c>
-      <c r="S4" s="231" t="n">
+      <c r="S4" s="230" t="n">
         <v>1997</v>
       </c>
-      <c r="T4" s="238" t="n">
+      <c r="T4" s="237" t="n">
         <v>0.022</v>
       </c>
-      <c r="U4" s="231" t="s">
+      <c r="U4" s="230" t="s">
         <v>414</v>
       </c>
-      <c r="V4" s="231" t="s">
+      <c r="V4" s="230" t="s">
         <v>415</v>
       </c>
-      <c r="W4" s="239" t="s">
+      <c r="W4" s="238" t="s">
         <v>416</v>
       </c>
-      <c r="X4" s="239" t="s">
+      <c r="X4" s="238" t="s">
         <v>416</v>
       </c>
-      <c r="Y4" s="240" t="n">
+      <c r="Y4" s="239" t="n">
         <v>42735</v>
       </c>
-      <c r="Z4" s="241" t="n">
+      <c r="Z4" s="240" t="n">
         <v>0.15</v>
       </c>
-      <c r="AA4" s="231" t="s">
+      <c r="AA4" s="230" t="s">
         <v>417</v>
       </c>
-      <c r="AB4" s="231" t="s">
+      <c r="AB4" s="230" t="s">
         <v>411</v>
       </c>
-      <c r="AC4" s="231" t="s">
+      <c r="AC4" s="230" t="s">
         <v>418</v>
       </c>
-      <c r="AD4" s="231" t="s">
+      <c r="AD4" s="230" t="s">
         <v>411</v>
       </c>
-      <c r="AE4" s="249" t="n">
+      <c r="AE4" s="248" t="n">
         <v>42825</v>
       </c>
-      <c r="AF4" s="250" t="n">
+      <c r="AF4" s="249" t="n">
         <v>5</v>
       </c>
-      <c r="AG4" s="233" t="s">
+      <c r="AG4" s="232" t="s">
         <v>408</v>
       </c>
-      <c r="AH4" s="251" t="s">
+      <c r="AH4" s="250" t="s">
         <v>344</v>
       </c>
-      <c r="AI4" s="233" t="s">
+      <c r="AI4" s="232" t="s">
         <v>419</v>
       </c>
-      <c r="AJ4" s="252" t="s">
+      <c r="AJ4" s="251" t="s">
         <v>420</v>
       </c>
-      <c r="AK4" s="233" t="s">
+      <c r="AK4" s="232" t="s">
         <v>419</v>
       </c>
-      <c r="AL4" s="233" t="s">
+      <c r="AL4" s="232" t="s">
         <v>421</v>
       </c>
-      <c r="AM4" s="233" t="s">
+      <c r="AM4" s="232" t="s">
         <v>422</v>
       </c>
-      <c r="AN4" s="233" t="s">
+      <c r="AN4" s="232" t="s">
         <v>423</v>
       </c>
-      <c r="AQ4" s="233" t="s">
+      <c r="AQ4" s="232" t="s">
         <v>417</v>
       </c>
-      <c r="AR4" s="244" t="s">
+      <c r="AR4" s="243" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="57" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="231" t="s">
+      <c r="A5" s="230" t="s">
         <v>425</v>
       </c>
-      <c r="B5" s="231" t="s">
+      <c r="B5" s="230" t="s">
         <v>426</v>
       </c>
-      <c r="E5" s="231" t="s">
+      <c r="E5" s="230" t="s">
         <v>427</v>
       </c>
-      <c r="F5" s="248" t="s">
+      <c r="F5" s="247" t="s">
         <v>428</v>
       </c>
-      <c r="I5" s="231" t="s">
+      <c r="I5" s="230" t="s">
         <v>429</v>
       </c>
-      <c r="L5" s="231" t="s">
+      <c r="L5" s="230" t="s">
         <v>215</v>
       </c>
-      <c r="M5" s="231" t="s">
+      <c r="M5" s="230" t="s">
         <v>430</v>
       </c>
-      <c r="N5" s="231" t="s">
+      <c r="N5" s="230" t="s">
         <v>431</v>
       </c>
-      <c r="O5" s="231" t="s">
+      <c r="O5" s="230" t="s">
         <v>432</v>
       </c>
-      <c r="P5" s="231" t="s">
+      <c r="P5" s="230" t="s">
         <v>433</v>
       </c>
-      <c r="S5" s="231" t="n">
+      <c r="S5" s="230" t="n">
         <v>1998</v>
       </c>
-      <c r="T5" s="238" t="n">
+      <c r="T5" s="237" t="n">
         <v>0.023</v>
       </c>
-      <c r="U5" s="231" t="s">
+      <c r="U5" s="230" t="s">
         <v>434</v>
       </c>
-      <c r="W5" s="239" t="s">
+      <c r="W5" s="238" t="s">
         <v>104</v>
       </c>
-      <c r="X5" s="239" t="s">
+      <c r="X5" s="238" t="s">
         <v>104</v>
       </c>
-      <c r="Y5" s="240" t="n">
+      <c r="Y5" s="239" t="n">
         <v>42825</v>
       </c>
-      <c r="Z5" s="241" t="n">
+      <c r="Z5" s="240" t="n">
         <v>0.2</v>
       </c>
-      <c r="AA5" s="231" t="s">
+      <c r="AA5" s="230" t="s">
         <v>435</v>
       </c>
-      <c r="AB5" s="231" t="s">
+      <c r="AB5" s="230" t="s">
         <v>432</v>
       </c>
-      <c r="AC5" s="231" t="s">
+      <c r="AC5" s="230" t="s">
         <v>436</v>
       </c>
-      <c r="AD5" s="231" t="s">
+      <c r="AD5" s="230" t="s">
         <v>432</v>
       </c>
-      <c r="AE5" s="246" t="n">
+      <c r="AE5" s="245" t="n">
         <v>42826</v>
       </c>
-      <c r="AF5" s="247" t="n">
+      <c r="AF5" s="246" t="n">
         <v>6</v>
       </c>
-      <c r="AG5" s="233" t="s">
+      <c r="AG5" s="232" t="s">
         <v>383</v>
       </c>
-      <c r="AH5" s="244" t="s">
+      <c r="AH5" s="243" t="s">
         <v>345</v>
       </c>
-      <c r="AI5" s="233" t="s">
+      <c r="AI5" s="232" t="s">
         <v>370</v>
       </c>
-      <c r="AJ5" s="233" t="s">
+      <c r="AJ5" s="232" t="s">
         <v>437</v>
       </c>
-      <c r="AM5" s="233" t="s">
+      <c r="AM5" s="232" t="s">
         <v>438</v>
       </c>
-      <c r="AQ5" s="233" t="s">
+      <c r="AQ5" s="232" t="s">
         <v>435</v>
       </c>
-      <c r="AR5" s="244" t="s">
+      <c r="AR5" s="243" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="83.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="231" t="s">
+      <c r="A6" s="230" t="s">
         <v>440</v>
       </c>
-      <c r="B6" s="245" t="s">
+      <c r="B6" s="244" t="s">
         <v>441</v>
       </c>
-      <c r="E6" s="231" t="s">
+      <c r="E6" s="230" t="s">
         <v>442</v>
       </c>
-      <c r="F6" s="231" t="s">
+      <c r="F6" s="230" t="s">
         <v>443</v>
       </c>
-      <c r="I6" s="231" t="s">
+      <c r="I6" s="230" t="s">
         <v>206</v>
       </c>
-      <c r="M6" s="231" t="s">
+      <c r="M6" s="230" t="s">
         <v>444</v>
       </c>
-      <c r="N6" s="231" t="s">
+      <c r="N6" s="230" t="s">
         <v>445</v>
       </c>
-      <c r="O6" s="231" t="s">
+      <c r="O6" s="230" t="s">
         <v>446</v>
       </c>
-      <c r="P6" s="231" t="s">
+      <c r="P6" s="230" t="s">
         <v>447</v>
       </c>
-      <c r="S6" s="231" t="n">
+      <c r="S6" s="230" t="n">
         <v>1999</v>
       </c>
-      <c r="T6" s="238" t="n">
+      <c r="T6" s="237" t="n">
         <v>0.024</v>
       </c>
-      <c r="U6" s="231" t="s">
+      <c r="U6" s="230" t="s">
         <v>337</v>
       </c>
-      <c r="W6" s="239" t="s">
+      <c r="W6" s="238" t="s">
         <v>105</v>
       </c>
-      <c r="X6" s="239" t="s">
+      <c r="X6" s="238" t="s">
         <v>105</v>
       </c>
-      <c r="Y6" s="240" t="n">
+      <c r="Y6" s="239" t="n">
         <v>42916</v>
       </c>
-      <c r="Z6" s="241" t="n">
+      <c r="Z6" s="240" t="n">
         <v>0.25</v>
       </c>
-      <c r="AB6" s="231" t="s">
+      <c r="AB6" s="230" t="s">
         <v>448</v>
       </c>
-      <c r="AC6" s="231" t="s">
+      <c r="AC6" s="230" t="s">
         <v>449</v>
       </c>
-      <c r="AD6" s="231" t="s">
+      <c r="AD6" s="230" t="s">
         <v>448</v>
       </c>
-      <c r="AE6" s="249" t="n">
+      <c r="AE6" s="248" t="n">
         <v>43190</v>
       </c>
-      <c r="AF6" s="250" t="n">
+      <c r="AF6" s="249" t="n">
         <v>7</v>
       </c>
-      <c r="AG6" s="233" t="s">
+      <c r="AG6" s="232" t="s">
         <v>356</v>
       </c>
-      <c r="AH6" s="244" t="s">
+      <c r="AH6" s="243" t="s">
         <v>346</v>
       </c>
-      <c r="AI6" s="233" t="s">
+      <c r="AI6" s="232" t="s">
         <v>398</v>
       </c>
-      <c r="AJ6" s="233" t="s">
+      <c r="AJ6" s="232" t="s">
         <v>450</v>
       </c>
-      <c r="AR6" s="244"/>
+      <c r="AR6" s="243"/>
     </row>
     <row r="7" customFormat="false" ht="71.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="231" t="s">
+      <c r="A7" s="230" t="s">
         <v>451</v>
       </c>
-      <c r="B7" s="231" t="s">
+      <c r="B7" s="230" t="s">
         <v>452</v>
       </c>
-      <c r="E7" s="231" t="s">
+      <c r="E7" s="230" t="s">
         <v>453</v>
       </c>
-      <c r="F7" s="231" t="s">
+      <c r="F7" s="230" t="s">
         <v>454</v>
       </c>
-      <c r="I7" s="231" t="s">
+      <c r="I7" s="230" t="s">
         <v>455</v>
       </c>
-      <c r="M7" s="231" t="s">
+      <c r="M7" s="230" t="s">
         <v>456</v>
       </c>
-      <c r="N7" s="231" t="s">
+      <c r="N7" s="230" t="s">
         <v>457</v>
       </c>
-      <c r="O7" s="231" t="s">
+      <c r="O7" s="230" t="s">
         <v>458</v>
       </c>
-      <c r="P7" s="231" t="s">
+      <c r="P7" s="230" t="s">
         <v>459</v>
       </c>
-      <c r="S7" s="231" t="n">
+      <c r="S7" s="230" t="n">
         <v>2000</v>
       </c>
-      <c r="T7" s="238" t="n">
+      <c r="T7" s="237" t="n">
         <v>0.025</v>
       </c>
-      <c r="W7" s="239" t="s">
+      <c r="W7" s="238" t="s">
         <v>110</v>
       </c>
-      <c r="X7" s="239" t="s">
+      <c r="X7" s="238" t="s">
         <v>110</v>
       </c>
-      <c r="Y7" s="240" t="n">
+      <c r="Y7" s="239" t="n">
         <v>43008</v>
       </c>
-      <c r="Z7" s="241" t="n">
+      <c r="Z7" s="240" t="n">
         <v>0.3</v>
       </c>
-      <c r="AB7" s="231" t="s">
+      <c r="AB7" s="230" t="s">
         <v>458</v>
       </c>
-      <c r="AC7" s="231" t="s">
+      <c r="AC7" s="230" t="s">
         <v>337</v>
       </c>
-      <c r="AD7" s="231" t="s">
+      <c r="AD7" s="230" t="s">
         <v>458</v>
       </c>
-      <c r="AE7" s="246" t="n">
+      <c r="AE7" s="245" t="n">
         <v>43191</v>
       </c>
-      <c r="AF7" s="247" t="n">
+      <c r="AF7" s="246" t="n">
         <v>8</v>
       </c>
-      <c r="AG7" s="233" t="s">
+      <c r="AG7" s="232" t="s">
         <v>460</v>
       </c>
-      <c r="AH7" s="244" t="s">
+      <c r="AH7" s="243" t="s">
         <v>461</v>
       </c>
-      <c r="AI7" s="233" t="s">
+      <c r="AI7" s="232" t="s">
         <v>421</v>
       </c>
-      <c r="AJ7" s="233" t="s">
+      <c r="AJ7" s="232" t="s">
         <v>462</v>
       </c>
-      <c r="AR7" s="244"/>
+      <c r="AR7" s="243"/>
     </row>
     <row r="8" customFormat="false" ht="77.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="231" t="s">
+      <c r="A8" s="230" t="s">
         <v>463</v>
       </c>
-      <c r="B8" s="231" t="s">
+      <c r="B8" s="230" t="s">
         <v>464</v>
       </c>
-      <c r="E8" s="253"/>
-      <c r="F8" s="231" t="s">
+      <c r="E8" s="252"/>
+      <c r="F8" s="230" t="s">
         <v>435</v>
       </c>
-      <c r="M8" s="231" t="s">
+      <c r="M8" s="230" t="s">
         <v>465</v>
       </c>
-      <c r="N8" s="231" t="s">
+      <c r="N8" s="230" t="s">
         <v>466</v>
       </c>
-      <c r="O8" s="231" t="s">
+      <c r="O8" s="230" t="s">
         <v>467</v>
       </c>
-      <c r="P8" s="231" t="s">
+      <c r="P8" s="230" t="s">
         <v>468</v>
       </c>
-      <c r="S8" s="231" t="n">
+      <c r="S8" s="230" t="n">
         <v>2001</v>
       </c>
-      <c r="T8" s="238" t="n">
+      <c r="T8" s="237" t="n">
         <v>0.026</v>
       </c>
-      <c r="W8" s="239" t="s">
+      <c r="W8" s="238" t="s">
         <v>114</v>
       </c>
-      <c r="X8" s="239" t="s">
+      <c r="X8" s="238" t="s">
         <v>114</v>
       </c>
-      <c r="Y8" s="240" t="n">
+      <c r="Y8" s="239" t="n">
         <v>43100</v>
       </c>
-      <c r="Z8" s="241" t="n">
+      <c r="Z8" s="240" t="n">
         <v>0.35</v>
       </c>
-      <c r="AB8" s="231" t="s">
+      <c r="AB8" s="230" t="s">
         <v>467</v>
       </c>
-      <c r="AD8" s="231" t="s">
+      <c r="AD8" s="230" t="s">
         <v>467</v>
       </c>
-      <c r="AE8" s="249" t="n">
+      <c r="AE8" s="248" t="n">
         <v>43555</v>
       </c>
-      <c r="AF8" s="250" t="n">
+      <c r="AF8" s="249" t="n">
         <v>9</v>
       </c>
-      <c r="AG8" s="233" t="s">
+      <c r="AG8" s="232" t="s">
         <v>469</v>
       </c>
-      <c r="AI8" s="233" t="s">
+      <c r="AI8" s="232" t="s">
         <v>371</v>
       </c>
-      <c r="AJ8" s="233" t="s">
+      <c r="AJ8" s="232" t="s">
         <v>470</v>
       </c>
-      <c r="AQ8" s="244"/>
+      <c r="AQ8" s="243"/>
     </row>
     <row r="9" customFormat="false" ht="71.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="231" t="s">
+      <c r="A9" s="230" t="s">
         <v>471</v>
       </c>
-      <c r="B9" s="245" t="s">
+      <c r="B9" s="244" t="s">
         <v>472</v>
       </c>
-      <c r="F9" s="231" t="s">
+      <c r="F9" s="230" t="s">
         <v>388</v>
       </c>
-      <c r="M9" s="231" t="s">
+      <c r="M9" s="230" t="s">
         <v>473</v>
       </c>
-      <c r="N9" s="231" t="s">
+      <c r="N9" s="230" t="s">
         <v>474</v>
       </c>
-      <c r="O9" s="231" t="s">
+      <c r="O9" s="230" t="s">
         <v>475</v>
       </c>
-      <c r="P9" s="231" t="s">
+      <c r="P9" s="230" t="s">
         <v>476</v>
       </c>
-      <c r="Q9" s="248"/>
-      <c r="S9" s="231" t="n">
+      <c r="Q9" s="247"/>
+      <c r="S9" s="230" t="n">
         <v>2002</v>
       </c>
-      <c r="T9" s="238" t="n">
+      <c r="T9" s="237" t="n">
         <v>0.027</v>
       </c>
-      <c r="W9" s="239" t="s">
+      <c r="W9" s="238" t="s">
         <v>116</v>
       </c>
-      <c r="X9" s="239" t="s">
+      <c r="X9" s="238" t="s">
         <v>116</v>
       </c>
-      <c r="Y9" s="240" t="n">
+      <c r="Y9" s="239" t="n">
         <v>43190</v>
       </c>
-      <c r="Z9" s="241" t="n">
+      <c r="Z9" s="240" t="n">
         <v>0.4</v>
       </c>
-      <c r="AB9" s="231" t="s">
+      <c r="AB9" s="230" t="s">
         <v>475</v>
       </c>
-      <c r="AD9" s="231" t="s">
+      <c r="AD9" s="230" t="s">
         <v>475</v>
       </c>
-      <c r="AE9" s="246" t="n">
+      <c r="AE9" s="245" t="n">
         <v>43556</v>
       </c>
-      <c r="AF9" s="247" t="n">
+      <c r="AF9" s="246" t="n">
         <v>10</v>
       </c>
-      <c r="AG9" s="233" t="s">
+      <c r="AG9" s="232" t="s">
         <v>477</v>
       </c>
-      <c r="AI9" s="233" t="s">
+      <c r="AI9" s="232" t="s">
         <v>399</v>
       </c>
-      <c r="AJ9" s="233" t="s">
+      <c r="AJ9" s="232" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="69.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="231" t="s">
+      <c r="A10" s="230" t="s">
         <v>479</v>
       </c>
-      <c r="B10" s="231" t="s">
+      <c r="B10" s="230" t="s">
         <v>480</v>
       </c>
-      <c r="F10" s="248" t="s">
+      <c r="F10" s="247" t="s">
         <v>481</v>
       </c>
-      <c r="M10" s="231" t="s">
+      <c r="M10" s="230" t="s">
         <v>482</v>
       </c>
-      <c r="N10" s="231" t="s">
+      <c r="N10" s="230" t="s">
         <v>483</v>
       </c>
-      <c r="O10" s="231" t="s">
+      <c r="O10" s="230" t="s">
         <v>337</v>
       </c>
-      <c r="P10" s="231" t="s">
+      <c r="P10" s="230" t="s">
         <v>484</v>
       </c>
-      <c r="S10" s="231" t="n">
+      <c r="S10" s="230" t="n">
         <v>2003</v>
       </c>
-      <c r="T10" s="238" t="n">
+      <c r="T10" s="237" t="n">
         <v>0.028</v>
       </c>
-      <c r="W10" s="254" t="s">
+      <c r="W10" s="253" t="s">
         <v>118</v>
       </c>
-      <c r="X10" s="254" t="s">
+      <c r="X10" s="253" t="s">
         <v>118</v>
       </c>
-      <c r="Z10" s="241" t="n">
+      <c r="Z10" s="240" t="n">
         <v>0.45</v>
       </c>
-      <c r="AB10" s="231" t="s">
+      <c r="AB10" s="230" t="s">
         <v>337</v>
       </c>
-      <c r="AD10" s="231" t="s">
+      <c r="AD10" s="230" t="s">
         <v>366</v>
       </c>
-      <c r="AE10" s="249" t="n">
+      <c r="AE10" s="248" t="n">
         <v>43921</v>
       </c>
-      <c r="AF10" s="250" t="n">
+      <c r="AF10" s="249" t="n">
         <v>11</v>
       </c>
-      <c r="AG10" s="233" t="s">
+      <c r="AG10" s="232" t="s">
         <v>485</v>
       </c>
-      <c r="AI10" s="233" t="s">
+      <c r="AI10" s="232" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="231" t="s">
+      <c r="A11" s="230" t="s">
         <v>486</v>
       </c>
-      <c r="B11" s="231" t="s">
+      <c r="B11" s="230" t="s">
         <v>487</v>
       </c>
-      <c r="F11" s="231" t="s">
+      <c r="F11" s="230" t="s">
         <v>337</v>
       </c>
-      <c r="M11" s="231" t="s">
+      <c r="M11" s="230" t="s">
         <v>488</v>
       </c>
-      <c r="N11" s="231" t="s">
+      <c r="N11" s="230" t="s">
         <v>489</v>
       </c>
-      <c r="P11" s="231" t="s">
+      <c r="P11" s="230" t="s">
         <v>490</v>
       </c>
-      <c r="S11" s="231" t="n">
+      <c r="S11" s="230" t="n">
         <v>2004</v>
       </c>
-      <c r="T11" s="238" t="n">
+      <c r="T11" s="237" t="n">
         <v>0.029</v>
       </c>
-      <c r="W11" s="254" t="s">
+      <c r="W11" s="253" t="s">
         <v>120</v>
       </c>
-      <c r="X11" s="254" t="s">
+      <c r="X11" s="253" t="s">
         <v>120</v>
       </c>
-      <c r="Z11" s="241" t="n">
+      <c r="Z11" s="240" t="n">
         <v>0.5</v>
       </c>
-      <c r="AD11" s="231" t="s">
+      <c r="AD11" s="230" t="s">
         <v>394</v>
       </c>
-      <c r="AE11" s="246" t="n">
+      <c r="AE11" s="245" t="n">
         <v>43922</v>
       </c>
-      <c r="AF11" s="247" t="n">
+      <c r="AF11" s="246" t="n">
         <v>12</v>
       </c>
-      <c r="AG11" s="233" t="s">
+      <c r="AG11" s="232" t="s">
         <v>215</v>
       </c>
-      <c r="AI11" s="233" t="s">
+      <c r="AI11" s="232" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="231" t="s">
+      <c r="A12" s="230" t="s">
         <v>491</v>
       </c>
-      <c r="B12" s="231" t="s">
+      <c r="B12" s="230" t="s">
         <v>492</v>
       </c>
-      <c r="M12" s="231" t="s">
+      <c r="M12" s="230" t="s">
         <v>493</v>
       </c>
-      <c r="N12" s="231" t="s">
+      <c r="N12" s="230" t="s">
         <v>494</v>
       </c>
-      <c r="S12" s="231" t="n">
+      <c r="S12" s="230" t="n">
         <v>2005</v>
       </c>
-      <c r="T12" s="238" t="n">
+      <c r="T12" s="237" t="n">
         <v>0.03</v>
       </c>
-      <c r="W12" s="254" t="s">
+      <c r="W12" s="253" t="s">
         <v>122</v>
       </c>
-      <c r="X12" s="254" t="s">
+      <c r="X12" s="253" t="s">
         <v>122</v>
       </c>
-      <c r="Z12" s="241" t="n">
+      <c r="Z12" s="240" t="n">
         <v>0.55</v>
       </c>
-      <c r="AD12" s="231" t="s">
+      <c r="AD12" s="230" t="s">
         <v>418</v>
       </c>
-      <c r="AE12" s="249" t="n">
+      <c r="AE12" s="248" t="n">
         <v>44286</v>
       </c>
-      <c r="AF12" s="250" t="n">
+      <c r="AF12" s="249" t="n">
         <v>13</v>
       </c>
-      <c r="AI12" s="233" t="s">
+      <c r="AI12" s="232" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="231" t="s">
+      <c r="A13" s="230" t="s">
         <v>495</v>
       </c>
-      <c r="B13" s="245" t="s">
+      <c r="B13" s="244" t="s">
         <v>496</v>
       </c>
-      <c r="M13" s="231" t="s">
+      <c r="M13" s="230" t="s">
         <v>497</v>
       </c>
-      <c r="N13" s="231" t="s">
+      <c r="N13" s="230" t="s">
         <v>498</v>
       </c>
-      <c r="S13" s="231" t="n">
+      <c r="S13" s="230" t="n">
         <v>2006</v>
       </c>
-      <c r="T13" s="238" t="n">
+      <c r="T13" s="237" t="n">
         <v>0.031</v>
       </c>
-      <c r="W13" s="254" t="s">
+      <c r="W13" s="253" t="s">
         <v>123</v>
       </c>
-      <c r="X13" s="254" t="s">
+      <c r="X13" s="253" t="s">
         <v>123</v>
       </c>
-      <c r="Z13" s="241" t="n">
+      <c r="Z13" s="240" t="n">
         <v>0.6</v>
       </c>
-      <c r="AD13" s="231" t="s">
+      <c r="AD13" s="230" t="s">
         <v>436</v>
       </c>
-      <c r="AE13" s="246" t="n">
+      <c r="AE13" s="245" t="n">
         <v>44287</v>
       </c>
-      <c r="AF13" s="247" t="n">
+      <c r="AF13" s="246" t="n">
         <v>14</v>
       </c>
-      <c r="AI13" s="233" t="s">
+      <c r="AI13" s="232" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="64.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="231" t="s">
+      <c r="A14" s="230" t="s">
         <v>499</v>
       </c>
-      <c r="B14" s="254" t="s">
+      <c r="B14" s="253" t="s">
         <v>500</v>
       </c>
-      <c r="M14" s="231" t="s">
+      <c r="M14" s="230" t="s">
         <v>501</v>
       </c>
-      <c r="N14" s="231" t="s">
+      <c r="N14" s="230" t="s">
         <v>502</v>
       </c>
-      <c r="S14" s="231" t="n">
+      <c r="S14" s="230" t="n">
         <v>2007</v>
       </c>
-      <c r="T14" s="238" t="n">
+      <c r="T14" s="237" t="n">
         <v>0.032</v>
       </c>
-      <c r="W14" s="254" t="s">
+      <c r="W14" s="253" t="s">
         <v>124</v>
       </c>
-      <c r="X14" s="254" t="s">
+      <c r="X14" s="253" t="s">
         <v>124</v>
       </c>
-      <c r="Z14" s="241" t="n">
+      <c r="Z14" s="240" t="n">
         <v>0.65</v>
       </c>
-      <c r="AD14" s="231" t="s">
+      <c r="AD14" s="230" t="s">
         <v>449</v>
       </c>
-      <c r="AE14" s="249" t="n">
+      <c r="AE14" s="248" t="n">
         <v>44651</v>
       </c>
-      <c r="AF14" s="250" t="n">
+      <c r="AF14" s="249" t="n">
         <v>15</v>
       </c>
-      <c r="AI14" s="233" t="s">
+      <c r="AI14" s="232" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="51.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="231" t="s">
+      <c r="A15" s="230" t="s">
         <v>503</v>
       </c>
-      <c r="B15" s="254" t="s">
+      <c r="B15" s="253" t="s">
         <v>504</v>
       </c>
-      <c r="M15" s="231" t="s">
+      <c r="M15" s="230" t="s">
         <v>505</v>
       </c>
-      <c r="N15" s="231" t="s">
+      <c r="N15" s="230" t="s">
         <v>506</v>
       </c>
-      <c r="S15" s="231" t="n">
+      <c r="S15" s="230" t="n">
         <v>2008</v>
       </c>
-      <c r="T15" s="238" t="n">
+      <c r="T15" s="237" t="n">
         <v>0.033</v>
       </c>
-      <c r="W15" s="254" t="s">
+      <c r="W15" s="253" t="s">
         <v>125</v>
       </c>
-      <c r="X15" s="254" t="s">
+      <c r="X15" s="253" t="s">
         <v>125</v>
       </c>
-      <c r="Z15" s="241" t="n">
+      <c r="Z15" s="240" t="n">
         <v>0.7</v>
       </c>
-      <c r="AD15" s="231" t="s">
+      <c r="AD15" s="230" t="s">
         <v>337</v>
       </c>
-      <c r="AE15" s="246" t="n">
+      <c r="AE15" s="245" t="n">
         <v>44652</v>
       </c>
-      <c r="AF15" s="247" t="n">
+      <c r="AF15" s="246" t="n">
         <v>16</v>
       </c>
-      <c r="AI15" s="233" t="s">
+      <c r="AI15" s="232" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="231" t="s">
+      <c r="A16" s="230" t="s">
         <v>507</v>
       </c>
-      <c r="B16" s="255" t="s">
+      <c r="B16" s="254" t="s">
         <v>508</v>
       </c>
-      <c r="C16" s="239"/>
-      <c r="M16" s="231" t="s">
+      <c r="C16" s="238"/>
+      <c r="M16" s="230" t="s">
         <v>509</v>
       </c>
-      <c r="N16" s="231" t="s">
+      <c r="N16" s="230" t="s">
         <v>510</v>
       </c>
-      <c r="S16" s="231" t="n">
+      <c r="S16" s="230" t="n">
         <v>2009</v>
       </c>
-      <c r="T16" s="238" t="n">
+      <c r="T16" s="237" t="n">
         <v>0.034</v>
       </c>
-      <c r="W16" s="254" t="s">
+      <c r="W16" s="253" t="s">
         <v>126</v>
       </c>
-      <c r="X16" s="254" t="s">
+      <c r="X16" s="253" t="s">
         <v>126</v>
       </c>
-      <c r="Z16" s="241" t="n">
+      <c r="Z16" s="240" t="n">
         <v>0.75</v>
       </c>
-      <c r="AD16" s="231" t="s">
+      <c r="AD16" s="230" t="s">
         <v>511</v>
       </c>
-      <c r="AE16" s="249" t="n">
+      <c r="AE16" s="248" t="n">
         <v>45016</v>
       </c>
-      <c r="AF16" s="250" t="n">
+      <c r="AF16" s="249" t="n">
         <v>17</v>
       </c>
-      <c r="AI16" s="231"/>
+      <c r="AI16" s="230"/>
     </row>
     <row r="17" customFormat="false" ht="57" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="231" t="s">
+      <c r="A17" s="230" t="s">
         <v>512</v>
       </c>
-      <c r="B17" s="255" t="s">
+      <c r="B17" s="254" t="s">
         <v>513</v>
       </c>
-      <c r="M17" s="231" t="s">
+      <c r="M17" s="230" t="s">
         <v>514</v>
       </c>
-      <c r="N17" s="231" t="s">
+      <c r="N17" s="230" t="s">
         <v>515</v>
       </c>
-      <c r="S17" s="231" t="n">
+      <c r="S17" s="230" t="n">
         <v>2010</v>
       </c>
-      <c r="T17" s="238" t="n">
+      <c r="T17" s="237" t="n">
         <v>0.035</v>
       </c>
-      <c r="W17" s="254" t="s">
+      <c r="W17" s="253" t="s">
         <v>127</v>
       </c>
-      <c r="X17" s="254" t="s">
+      <c r="X17" s="253" t="s">
         <v>127</v>
       </c>
-      <c r="Z17" s="241" t="n">
+      <c r="Z17" s="240" t="n">
         <v>0.8</v>
       </c>
-      <c r="AD17" s="231" t="s">
+      <c r="AD17" s="230" t="s">
         <v>516</v>
       </c>
-      <c r="AE17" s="256" t="n">
+      <c r="AE17" s="255" t="n">
         <v>45017</v>
       </c>
-      <c r="AF17" s="231" t="n">
+      <c r="AF17" s="230" t="n">
         <v>18</v>
       </c>
-      <c r="AI17" s="231"/>
+      <c r="AI17" s="230"/>
     </row>
     <row r="18" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="231" t="s">
+      <c r="B18" s="230" t="s">
         <v>350</v>
       </c>
-      <c r="C18" s="239"/>
-      <c r="M18" s="231" t="s">
+      <c r="C18" s="238"/>
+      <c r="M18" s="230" t="s">
         <v>517</v>
       </c>
-      <c r="N18" s="231" t="s">
+      <c r="N18" s="230" t="s">
         <v>518</v>
       </c>
-      <c r="S18" s="231" t="n">
+      <c r="S18" s="230" t="n">
         <v>2011</v>
       </c>
-      <c r="T18" s="238" t="n">
+      <c r="T18" s="237" t="n">
         <v>0.036</v>
       </c>
-      <c r="W18" s="254" t="s">
+      <c r="W18" s="253" t="s">
         <v>519</v>
       </c>
-      <c r="X18" s="254" t="s">
+      <c r="X18" s="253" t="s">
         <v>519</v>
       </c>
-      <c r="Z18" s="241" t="n">
+      <c r="Z18" s="240" t="n">
         <v>0.85</v>
       </c>
-      <c r="AD18" s="231" t="s">
+      <c r="AD18" s="230" t="s">
         <v>520</v>
       </c>
-      <c r="AE18" s="256" t="n">
+      <c r="AE18" s="255" t="n">
         <v>45382</v>
       </c>
-      <c r="AF18" s="231" t="n">
+      <c r="AF18" s="230" t="n">
         <v>19</v>
       </c>
-      <c r="AI18" s="231"/>
+      <c r="AI18" s="230"/>
     </row>
     <row r="19" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="231" t="s">
+      <c r="B19" s="230" t="s">
         <v>375</v>
       </c>
-      <c r="M19" s="231" t="s">
+      <c r="M19" s="230" t="s">
         <v>521</v>
       </c>
-      <c r="N19" s="231" t="s">
+      <c r="N19" s="230" t="s">
         <v>522</v>
       </c>
-      <c r="S19" s="231" t="n">
+      <c r="S19" s="230" t="n">
         <v>2012</v>
       </c>
-      <c r="T19" s="238" t="n">
+      <c r="T19" s="237" t="n">
         <v>0.037</v>
       </c>
-      <c r="W19" s="254" t="s">
+      <c r="W19" s="253" t="s">
         <v>523</v>
       </c>
-      <c r="X19" s="254" t="s">
+      <c r="X19" s="253" t="s">
         <v>523</v>
       </c>
-      <c r="Z19" s="241" t="n">
+      <c r="Z19" s="240" t="n">
         <v>0.9</v>
       </c>
-      <c r="AD19" s="231" t="s">
+      <c r="AD19" s="230" t="s">
         <v>524</v>
       </c>
-      <c r="AE19" s="256" t="n">
+      <c r="AE19" s="255" t="n">
         <v>45383</v>
       </c>
-      <c r="AF19" s="231" t="n">
+      <c r="AF19" s="230" t="n">
         <v>20</v>
       </c>
-      <c r="AI19" s="231"/>
+      <c r="AI19" s="230"/>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="231" t="s">
+      <c r="B20" s="230" t="s">
         <v>402</v>
       </c>
-      <c r="M20" s="231" t="s">
+      <c r="M20" s="230" t="s">
         <v>525</v>
       </c>
-      <c r="N20" s="231" t="s">
+      <c r="N20" s="230" t="s">
         <v>526</v>
       </c>
-      <c r="S20" s="231" t="n">
+      <c r="S20" s="230" t="n">
         <v>2013</v>
       </c>
-      <c r="T20" s="238" t="n">
+      <c r="T20" s="237" t="n">
         <v>0.038</v>
       </c>
-      <c r="W20" s="254" t="s">
+      <c r="W20" s="253" t="s">
         <v>527</v>
       </c>
-      <c r="X20" s="254" t="s">
+      <c r="X20" s="253" t="s">
         <v>527</v>
       </c>
-      <c r="Z20" s="241" t="n">
+      <c r="Z20" s="240" t="n">
         <v>0.95</v>
       </c>
-      <c r="AE20" s="256" t="n">
+      <c r="AE20" s="255" t="n">
         <v>45747</v>
       </c>
-      <c r="AF20" s="231" t="n">
+      <c r="AF20" s="230" t="n">
         <v>21</v>
       </c>
-      <c r="AI20" s="231"/>
+      <c r="AI20" s="230"/>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="231" t="s">
+      <c r="B21" s="230" t="s">
         <v>425</v>
       </c>
-      <c r="M21" s="231" t="s">
+      <c r="M21" s="230" t="s">
         <v>528</v>
       </c>
-      <c r="N21" s="231" t="s">
+      <c r="N21" s="230" t="s">
         <v>529</v>
       </c>
-      <c r="S21" s="231" t="n">
+      <c r="S21" s="230" t="n">
         <v>2014</v>
       </c>
-      <c r="T21" s="238" t="n">
+      <c r="T21" s="237" t="n">
         <v>0.039</v>
       </c>
-      <c r="W21" s="254" t="s">
+      <c r="W21" s="253" t="s">
         <v>530</v>
       </c>
-      <c r="X21" s="254" t="s">
+      <c r="X21" s="253" t="s">
         <v>530</v>
       </c>
-      <c r="Z21" s="241" t="n">
+      <c r="Z21" s="240" t="n">
         <v>1</v>
       </c>
-      <c r="AE21" s="256" t="n">
+      <c r="AE21" s="255" t="n">
         <v>45748</v>
       </c>
-      <c r="AF21" s="231" t="n">
+      <c r="AF21" s="230" t="n">
         <v>22</v>
       </c>
-      <c r="AI21" s="231"/>
+      <c r="AI21" s="230"/>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="231" t="s">
+      <c r="B22" s="230" t="s">
         <v>440</v>
       </c>
-      <c r="M22" s="231" t="s">
+      <c r="M22" s="230" t="s">
         <v>531</v>
       </c>
-      <c r="N22" s="231" t="s">
+      <c r="N22" s="230" t="s">
         <v>532</v>
       </c>
-      <c r="S22" s="231" t="n">
+      <c r="S22" s="230" t="n">
         <v>2015</v>
       </c>
-      <c r="T22" s="238" t="n">
+      <c r="T22" s="237" t="n">
         <v>0.04</v>
       </c>
-      <c r="W22" s="231" t="s">
+      <c r="W22" s="230" t="s">
         <v>533</v>
       </c>
-      <c r="X22" s="231" t="s">
+      <c r="X22" s="230" t="s">
         <v>533</v>
       </c>
-      <c r="Z22" s="241"/>
-      <c r="AE22" s="256" t="n">
+      <c r="Z22" s="240"/>
+      <c r="AE22" s="255" t="n">
         <v>46112</v>
       </c>
-      <c r="AF22" s="231" t="n">
+      <c r="AF22" s="230" t="n">
         <v>23</v>
       </c>
-      <c r="AI22" s="231"/>
+      <c r="AI22" s="230"/>
     </row>
     <row r="23" customFormat="false" ht="57" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="231" t="s">
+      <c r="B23" s="230" t="s">
         <v>451</v>
       </c>
-      <c r="M23" s="231" t="s">
+      <c r="M23" s="230" t="s">
         <v>534</v>
       </c>
-      <c r="N23" s="231" t="s">
+      <c r="N23" s="230" t="s">
         <v>535</v>
       </c>
-      <c r="Q23" s="248"/>
-      <c r="S23" s="231" t="n">
+      <c r="Q23" s="247"/>
+      <c r="S23" s="230" t="n">
         <v>2016</v>
       </c>
-      <c r="T23" s="238" t="n">
+      <c r="T23" s="237" t="n">
         <v>0.041</v>
       </c>
-      <c r="W23" s="231" t="s">
+      <c r="W23" s="230" t="s">
         <v>536</v>
       </c>
-      <c r="X23" s="231" t="s">
+      <c r="X23" s="230" t="s">
         <v>536</v>
       </c>
-      <c r="Z23" s="241"/>
-      <c r="AI23" s="231"/>
+      <c r="Z23" s="240"/>
+      <c r="AI23" s="230"/>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="231" t="s">
+      <c r="B24" s="230" t="s">
         <v>463</v>
       </c>
-      <c r="M24" s="231" t="s">
+      <c r="M24" s="230" t="s">
         <v>537</v>
       </c>
-      <c r="N24" s="231" t="s">
+      <c r="N24" s="230" t="s">
         <v>538</v>
       </c>
-      <c r="S24" s="231" t="n">
+      <c r="S24" s="230" t="n">
         <v>2017</v>
       </c>
-      <c r="T24" s="238" t="n">
+      <c r="T24" s="237" t="n">
         <v>0.042</v>
       </c>
-      <c r="W24" s="231" t="s">
+      <c r="W24" s="230" t="s">
         <v>539</v>
       </c>
-      <c r="X24" s="231" t="s">
+      <c r="X24" s="230" t="s">
         <v>539</v>
       </c>
-      <c r="Z24" s="241"/>
-      <c r="AI24" s="231"/>
+      <c r="Z24" s="240"/>
+      <c r="AI24" s="230"/>
     </row>
     <row r="25" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="231" t="s">
+      <c r="B25" s="230" t="s">
         <v>471</v>
       </c>
-      <c r="M25" s="231" t="s">
+      <c r="M25" s="230" t="s">
         <v>540</v>
       </c>
-      <c r="N25" s="231" t="s">
+      <c r="N25" s="230" t="s">
         <v>541</v>
       </c>
-      <c r="S25" s="231" t="n">
+      <c r="S25" s="230" t="n">
         <v>2018</v>
       </c>
-      <c r="T25" s="238" t="n">
+      <c r="T25" s="237" t="n">
         <v>0.043</v>
       </c>
-      <c r="W25" s="231" t="s">
+      <c r="W25" s="230" t="s">
         <v>542</v>
       </c>
-      <c r="X25" s="231" t="s">
+      <c r="X25" s="230" t="s">
         <v>542</v>
       </c>
-      <c r="Z25" s="241"/>
-      <c r="AI25" s="231"/>
+      <c r="Z25" s="240"/>
+      <c r="AI25" s="230"/>
     </row>
     <row r="26" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="231" t="s">
+      <c r="B26" s="230" t="s">
         <v>479</v>
       </c>
-      <c r="M26" s="231" t="s">
+      <c r="M26" s="230" t="s">
         <v>543</v>
       </c>
-      <c r="N26" s="231" t="s">
+      <c r="N26" s="230" t="s">
         <v>544</v>
       </c>
-      <c r="S26" s="231" t="n">
+      <c r="S26" s="230" t="n">
         <v>2019</v>
       </c>
-      <c r="T26" s="238" t="n">
+      <c r="T26" s="237" t="n">
         <v>0.044</v>
       </c>
-      <c r="W26" s="231" t="s">
+      <c r="W26" s="230" t="s">
         <v>545</v>
       </c>
-      <c r="X26" s="231" t="s">
+      <c r="X26" s="230" t="s">
         <v>545</v>
       </c>
-      <c r="Z26" s="241"/>
-      <c r="AI26" s="231"/>
+      <c r="Z26" s="240"/>
+      <c r="AI26" s="230"/>
     </row>
     <row r="27" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="231" t="s">
+      <c r="B27" s="230" t="s">
         <v>486</v>
       </c>
-      <c r="M27" s="231" t="s">
+      <c r="M27" s="230" t="s">
         <v>546</v>
       </c>
-      <c r="N27" s="231" t="s">
+      <c r="N27" s="230" t="s">
         <v>547</v>
       </c>
-      <c r="S27" s="231" t="n">
+      <c r="S27" s="230" t="n">
         <v>2020</v>
       </c>
-      <c r="T27" s="238" t="n">
+      <c r="T27" s="237" t="n">
         <v>0.045</v>
       </c>
-      <c r="W27" s="231" t="s">
+      <c r="W27" s="230" t="s">
         <v>548</v>
       </c>
-      <c r="X27" s="231" t="s">
+      <c r="X27" s="230" t="s">
         <v>548</v>
       </c>
-      <c r="Z27" s="241"/>
-      <c r="AI27" s="231"/>
+      <c r="Z27" s="240"/>
+      <c r="AI27" s="230"/>
     </row>
     <row r="28" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="231" t="s">
+      <c r="B28" s="230" t="s">
         <v>491</v>
       </c>
-      <c r="M28" s="231" t="s">
+      <c r="M28" s="230" t="s">
         <v>549</v>
       </c>
-      <c r="N28" s="231" t="s">
+      <c r="N28" s="230" t="s">
         <v>550</v>
       </c>
-      <c r="T28" s="238" t="n">
+      <c r="T28" s="237" t="n">
         <v>0.046</v>
       </c>
-      <c r="W28" s="231" t="s">
+      <c r="W28" s="230" t="s">
         <v>551</v>
       </c>
-      <c r="X28" s="231" t="s">
+      <c r="X28" s="230" t="s">
         <v>551</v>
       </c>
-      <c r="Z28" s="241"/>
-      <c r="AI28" s="231"/>
+      <c r="Z28" s="240"/>
+      <c r="AI28" s="230"/>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="231" t="s">
+      <c r="B29" s="230" t="s">
         <v>495</v>
       </c>
-      <c r="M29" s="231" t="s">
+      <c r="M29" s="230" t="s">
         <v>552</v>
       </c>
-      <c r="T29" s="238" t="n">
+      <c r="T29" s="237" t="n">
         <v>0.047</v>
       </c>
-      <c r="W29" s="231" t="s">
+      <c r="W29" s="230" t="s">
         <v>553</v>
       </c>
-      <c r="X29" s="231" t="s">
+      <c r="X29" s="230" t="s">
         <v>553</v>
       </c>
-      <c r="Z29" s="241"/>
-      <c r="AI29" s="231"/>
+      <c r="Z29" s="240"/>
+      <c r="AI29" s="230"/>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="231" t="s">
+      <c r="B30" s="230" t="s">
         <v>499</v>
       </c>
-      <c r="M30" s="248" t="s">
+      <c r="M30" s="247" t="s">
         <v>337</v>
       </c>
-      <c r="T30" s="238" t="n">
+      <c r="T30" s="237" t="n">
         <v>0.048</v>
       </c>
-      <c r="W30" s="231" t="s">
+      <c r="W30" s="230" t="s">
         <v>554</v>
       </c>
-      <c r="X30" s="231" t="s">
+      <c r="X30" s="230" t="s">
         <v>554</v>
       </c>
-      <c r="Z30" s="241"/>
-      <c r="AI30" s="231"/>
+      <c r="Z30" s="240"/>
+      <c r="AI30" s="230"/>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="231" t="s">
+      <c r="B31" s="230" t="s">
         <v>503</v>
       </c>
-      <c r="T31" s="238" t="n">
+      <c r="T31" s="237" t="n">
         <v>0.049</v>
       </c>
-      <c r="W31" s="231" t="s">
+      <c r="W31" s="230" t="s">
         <v>555</v>
       </c>
-      <c r="X31" s="231" t="s">
+      <c r="X31" s="230" t="s">
         <v>555</v>
       </c>
-      <c r="Z31" s="241"/>
-      <c r="AI31" s="231"/>
+      <c r="Z31" s="240"/>
+      <c r="AI31" s="230"/>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="231" t="s">
+      <c r="B32" s="230" t="s">
         <v>507</v>
       </c>
-      <c r="C32" s="239"/>
-      <c r="T32" s="238" t="n">
+      <c r="C32" s="238"/>
+      <c r="T32" s="237" t="n">
         <v>0.05</v>
       </c>
-      <c r="W32" s="231" t="s">
+      <c r="W32" s="230" t="s">
         <v>556</v>
       </c>
-      <c r="X32" s="231" t="s">
+      <c r="X32" s="230" t="s">
         <v>556</v>
       </c>
-      <c r="Z32" s="241"/>
-      <c r="AI32" s="231"/>
+      <c r="Z32" s="240"/>
+      <c r="AI32" s="230"/>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="231" t="s">
+      <c r="B33" s="230" t="s">
         <v>512</v>
       </c>
-      <c r="W33" s="231" t="s">
+      <c r="W33" s="230" t="s">
         <v>557</v>
       </c>
-      <c r="X33" s="231" t="s">
+      <c r="X33" s="230" t="s">
         <v>557</v>
       </c>
-      <c r="Z33" s="241"/>
-      <c r="AI33" s="231"/>
+      <c r="Z33" s="240"/>
+      <c r="AI33" s="230"/>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="257"/>
-      <c r="W34" s="231" t="s">
+      <c r="B34" s="256"/>
+      <c r="W34" s="230" t="s">
         <v>558</v>
       </c>
-      <c r="X34" s="231" t="s">
+      <c r="X34" s="230" t="s">
         <v>558</v>
       </c>
-      <c r="Z34" s="241"/>
-      <c r="AI34" s="231"/>
+      <c r="Z34" s="240"/>
+      <c r="AI34" s="230"/>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="257"/>
-      <c r="W35" s="231" t="s">
+      <c r="B35" s="256"/>
+      <c r="W35" s="230" t="s">
         <v>559</v>
       </c>
-      <c r="X35" s="231" t="s">
+      <c r="X35" s="230" t="s">
         <v>559</v>
       </c>
-      <c r="Z35" s="241"/>
-      <c r="AI35" s="231"/>
+      <c r="Z35" s="240"/>
+      <c r="AI35" s="230"/>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="257"/>
-      <c r="W36" s="231" t="s">
+      <c r="B36" s="256"/>
+      <c r="W36" s="230" t="s">
         <v>560</v>
       </c>
-      <c r="X36" s="231" t="s">
+      <c r="X36" s="230" t="s">
         <v>560</v>
       </c>
-      <c r="Z36" s="241"/>
-      <c r="AI36" s="231"/>
+      <c r="Z36" s="240"/>
+      <c r="AI36" s="230"/>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="257"/>
-      <c r="W37" s="231" t="s">
+      <c r="B37" s="256"/>
+      <c r="W37" s="230" t="s">
         <v>561</v>
       </c>
-      <c r="X37" s="231" t="s">
+      <c r="X37" s="230" t="s">
         <v>561</v>
       </c>
-      <c r="Z37" s="241"/>
-      <c r="AI37" s="231"/>
+      <c r="Z37" s="240"/>
+      <c r="AI37" s="230"/>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="257"/>
-      <c r="W38" s="231" t="s">
+      <c r="B38" s="256"/>
+      <c r="W38" s="230" t="s">
         <v>562</v>
       </c>
-      <c r="X38" s="231" t="s">
+      <c r="X38" s="230" t="s">
         <v>562</v>
       </c>
-      <c r="Z38" s="241"/>
-      <c r="AI38" s="231"/>
+      <c r="Z38" s="240"/>
+      <c r="AI38" s="230"/>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="257"/>
-      <c r="W39" s="231" t="s">
+      <c r="B39" s="256"/>
+      <c r="W39" s="230" t="s">
         <v>563</v>
       </c>
-      <c r="X39" s="231" t="s">
+      <c r="X39" s="230" t="s">
         <v>563</v>
       </c>
-      <c r="Z39" s="241"/>
-      <c r="AI39" s="231"/>
+      <c r="Z39" s="240"/>
+      <c r="AI39" s="230"/>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="257"/>
-      <c r="W40" s="231" t="s">
+      <c r="B40" s="256"/>
+      <c r="W40" s="230" t="s">
         <v>564</v>
       </c>
-      <c r="X40" s="231" t="s">
+      <c r="X40" s="230" t="s">
         <v>564</v>
       </c>
-      <c r="Z40" s="241"/>
-      <c r="AI40" s="231"/>
+      <c r="Z40" s="240"/>
+      <c r="AI40" s="230"/>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="257"/>
-      <c r="W41" s="231" t="s">
+      <c r="B41" s="256"/>
+      <c r="W41" s="230" t="s">
         <v>565</v>
       </c>
-      <c r="X41" s="231" t="s">
+      <c r="X41" s="230" t="s">
         <v>565</v>
       </c>
-      <c r="Z41" s="241"/>
-      <c r="AI41" s="231"/>
+      <c r="Z41" s="240"/>
+      <c r="AI41" s="230"/>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="257"/>
-      <c r="W42" s="231" t="s">
+      <c r="B42" s="256"/>
+      <c r="W42" s="230" t="s">
         <v>566</v>
       </c>
-      <c r="X42" s="231" t="s">
+      <c r="X42" s="230" t="s">
         <v>566</v>
       </c>
-      <c r="Z42" s="241"/>
-      <c r="AI42" s="231"/>
+      <c r="Z42" s="240"/>
+      <c r="AI42" s="230"/>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="257"/>
-      <c r="W43" s="231" t="s">
+      <c r="B43" s="256"/>
+      <c r="W43" s="230" t="s">
         <v>567</v>
       </c>
-      <c r="X43" s="231" t="s">
+      <c r="X43" s="230" t="s">
         <v>567</v>
       </c>
-      <c r="Z43" s="241"/>
-      <c r="AI43" s="231"/>
+      <c r="Z43" s="240"/>
+      <c r="AI43" s="230"/>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="257"/>
-      <c r="W44" s="231" t="s">
+      <c r="B44" s="256"/>
+      <c r="W44" s="230" t="s">
         <v>568</v>
       </c>
-      <c r="X44" s="231" t="s">
+      <c r="X44" s="230" t="s">
         <v>568</v>
       </c>
-      <c r="Z44" s="241"/>
-      <c r="AI44" s="231"/>
+      <c r="Z44" s="240"/>
+      <c r="AI44" s="230"/>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="257"/>
-      <c r="W45" s="231" t="s">
+      <c r="B45" s="256"/>
+      <c r="W45" s="230" t="s">
         <v>569</v>
       </c>
-      <c r="X45" s="231" t="s">
+      <c r="X45" s="230" t="s">
         <v>569</v>
       </c>
-      <c r="Z45" s="241"/>
-      <c r="AI45" s="231"/>
+      <c r="Z45" s="240"/>
+      <c r="AI45" s="230"/>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="257"/>
-      <c r="W46" s="231" t="s">
+      <c r="B46" s="256"/>
+      <c r="W46" s="230" t="s">
         <v>570</v>
       </c>
-      <c r="X46" s="231" t="s">
+      <c r="X46" s="230" t="s">
         <v>570</v>
       </c>
-      <c r="Z46" s="241"/>
+      <c r="Z46" s="240"/>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="257"/>
-      <c r="W47" s="231" t="s">
+      <c r="B47" s="256"/>
+      <c r="W47" s="230" t="s">
         <v>571</v>
       </c>
-      <c r="X47" s="231" t="s">
+      <c r="X47" s="230" t="s">
         <v>571</v>
       </c>
-      <c r="Z47" s="241"/>
+      <c r="Z47" s="240"/>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B48" s="257"/>
-      <c r="W48" s="231" t="s">
+      <c r="B48" s="256"/>
+      <c r="W48" s="230" t="s">
         <v>572</v>
       </c>
-      <c r="X48" s="231" t="s">
+      <c r="X48" s="230" t="s">
         <v>572</v>
       </c>
-      <c r="Z48" s="241"/>
+      <c r="Z48" s="240"/>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B49" s="257"/>
-      <c r="W49" s="231" t="s">
+      <c r="B49" s="256"/>
+      <c r="W49" s="230" t="s">
         <v>573</v>
       </c>
-      <c r="X49" s="231" t="s">
+      <c r="X49" s="230" t="s">
         <v>573</v>
       </c>
-      <c r="Z49" s="241"/>
+      <c r="Z49" s="240"/>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="257"/>
-      <c r="W50" s="231" t="s">
+      <c r="B50" s="256"/>
+      <c r="W50" s="230" t="s">
         <v>574</v>
       </c>
-      <c r="X50" s="231" t="s">
+      <c r="X50" s="230" t="s">
         <v>574</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B51" s="257"/>
-      <c r="W51" s="231" t="s">
+      <c r="B51" s="256"/>
+      <c r="W51" s="230" t="s">
         <v>575</v>
       </c>
-      <c r="X51" s="231" t="s">
+      <c r="X51" s="230" t="s">
         <v>575</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B52" s="257"/>
-      <c r="W52" s="231" t="s">
+      <c r="B52" s="256"/>
+      <c r="W52" s="230" t="s">
         <v>576</v>
       </c>
-      <c r="X52" s="231" t="s">
+      <c r="X52" s="230" t="s">
         <v>576</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B53" s="257"/>
-      <c r="W53" s="231" t="s">
+      <c r="B53" s="256"/>
+      <c r="W53" s="230" t="s">
         <v>577</v>
       </c>
-      <c r="X53" s="231" t="s">
+      <c r="X53" s="230" t="s">
         <v>577</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B54" s="257"/>
-      <c r="W54" s="231" t="s">
+      <c r="B54" s="256"/>
+      <c r="W54" s="230" t="s">
         <v>578</v>
       </c>
-      <c r="X54" s="231" t="s">
+      <c r="X54" s="230" t="s">
         <v>578</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B55" s="257"/>
-      <c r="W55" s="231" t="s">
+      <c r="B55" s="256"/>
+      <c r="W55" s="230" t="s">
         <v>579</v>
       </c>
-      <c r="X55" s="231" t="s">
+      <c r="X55" s="230" t="s">
         <v>579</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W56" s="231" t="s">
+      <c r="W56" s="230" t="s">
         <v>580</v>
       </c>
-      <c r="X56" s="231" t="s">
+      <c r="X56" s="230" t="s">
         <v>580</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W57" s="231" t="s">
+      <c r="W57" s="230" t="s">
         <v>581</v>
       </c>
-      <c r="X57" s="231" t="s">
+      <c r="X57" s="230" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W58" s="231" t="s">
+      <c r="W58" s="230" t="s">
         <v>582</v>
       </c>
-      <c r="X58" s="231" t="s">
+      <c r="X58" s="230" t="s">
         <v>582</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W59" s="231" t="s">
+      <c r="W59" s="230" t="s">
         <v>583</v>
       </c>
-      <c r="X59" s="231" t="s">
+      <c r="X59" s="230" t="s">
         <v>583</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W60" s="231" t="s">
+      <c r="W60" s="230" t="s">
         <v>584</v>
       </c>
-      <c r="X60" s="231" t="s">
+      <c r="X60" s="230" t="s">
         <v>584</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W61" s="231" t="s">
+      <c r="W61" s="230" t="s">
         <v>585</v>
       </c>
-      <c r="X61" s="231" t="s">
+      <c r="X61" s="230" t="s">
         <v>585</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W62" s="231" t="s">
+      <c r="W62" s="230" t="s">
         <v>586</v>
       </c>
-      <c r="X62" s="231" t="s">
+      <c r="X62" s="230" t="s">
         <v>586</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W63" s="231" t="s">
+      <c r="W63" s="230" t="s">
         <v>587</v>
       </c>
-      <c r="X63" s="231" t="s">
+      <c r="X63" s="230" t="s">
         <v>587</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W64" s="231" t="s">
+      <c r="W64" s="230" t="s">
         <v>588</v>
       </c>
-      <c r="X64" s="231" t="s">
+      <c r="X64" s="230" t="s">
         <v>588</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W65" s="231" t="s">
+      <c r="W65" s="230" t="s">
         <v>589</v>
       </c>
-      <c r="X65" s="231" t="s">
+      <c r="X65" s="230" t="s">
         <v>589</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W66" s="231" t="s">
+      <c r="W66" s="230" t="s">
         <v>590</v>
       </c>
-      <c r="X66" s="231" t="s">
+      <c r="X66" s="230" t="s">
         <v>590</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W67" s="231" t="s">
+      <c r="W67" s="230" t="s">
         <v>591</v>
       </c>
-      <c r="X67" s="231" t="s">
+      <c r="X67" s="230" t="s">
         <v>591</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W68" s="231" t="s">
+      <c r="W68" s="230" t="s">
         <v>592</v>
       </c>
-      <c r="X68" s="231" t="s">
+      <c r="X68" s="230" t="s">
         <v>592</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W69" s="231" t="s">
+      <c r="W69" s="230" t="s">
         <v>593</v>
       </c>
-      <c r="X69" s="231" t="s">
+      <c r="X69" s="230" t="s">
         <v>593</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W70" s="231" t="s">
+      <c r="W70" s="230" t="s">
         <v>594</v>
       </c>
-      <c r="X70" s="231" t="s">
+      <c r="X70" s="230" t="s">
         <v>594</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W71" s="231" t="s">
+      <c r="W71" s="230" t="s">
         <v>595</v>
       </c>
-      <c r="X71" s="231" t="s">
+      <c r="X71" s="230" t="s">
         <v>595</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W72" s="231" t="s">
+      <c r="W72" s="230" t="s">
         <v>596</v>
       </c>
-      <c r="X72" s="231" t="s">
+      <c r="X72" s="230" t="s">
         <v>596</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W73" s="231" t="s">
+      <c r="W73" s="230" t="s">
         <v>597</v>
       </c>
-      <c r="X73" s="231" t="s">
+      <c r="X73" s="230" t="s">
         <v>597</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W74" s="231" t="s">
+      <c r="W74" s="230" t="s">
         <v>598</v>
       </c>
-      <c r="X74" s="231" t="s">
+      <c r="X74" s="230" t="s">
         <v>598</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W75" s="231" t="s">
+      <c r="W75" s="230" t="s">
         <v>599</v>
       </c>
-      <c r="X75" s="231" t="s">
+      <c r="X75" s="230" t="s">
         <v>599</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W76" s="231" t="s">
+      <c r="W76" s="230" t="s">
         <v>600</v>
       </c>
-      <c r="X76" s="231" t="s">
+      <c r="X76" s="230" t="s">
         <v>600</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W77" s="231" t="s">
+      <c r="W77" s="230" t="s">
         <v>601</v>
       </c>
-      <c r="X77" s="231" t="s">
+      <c r="X77" s="230" t="s">
         <v>601</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W78" s="231" t="s">
+      <c r="W78" s="230" t="s">
         <v>602</v>
       </c>
-      <c r="X78" s="231" t="s">
+      <c r="X78" s="230" t="s">
         <v>602</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W79" s="231" t="s">
+      <c r="W79" s="230" t="s">
         <v>603</v>
       </c>
-      <c r="X79" s="231" t="s">
+      <c r="X79" s="230" t="s">
         <v>603</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W80" s="231" t="s">
+      <c r="W80" s="230" t="s">
         <v>604</v>
       </c>
-      <c r="X80" s="231" t="s">
+      <c r="X80" s="230" t="s">
         <v>604</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W81" s="231" t="s">
+      <c r="W81" s="230" t="s">
         <v>605</v>
       </c>
-      <c r="X81" s="231" t="s">
+      <c r="X81" s="230" t="s">
         <v>605</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W82" s="231" t="s">
+      <c r="W82" s="230" t="s">
         <v>606</v>
       </c>
-      <c r="X82" s="231" t="s">
+      <c r="X82" s="230" t="s">
         <v>606</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W83" s="231" t="s">
+      <c r="W83" s="230" t="s">
         <v>607</v>
       </c>
-      <c r="X83" s="231" t="s">
+      <c r="X83" s="230" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W84" s="231" t="s">
+      <c r="W84" s="230" t="s">
         <v>608</v>
       </c>
-      <c r="X84" s="231" t="s">
+      <c r="X84" s="230" t="s">
         <v>608</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W85" s="231" t="s">
+      <c r="W85" s="230" t="s">
         <v>609</v>
       </c>
-      <c r="X85" s="231" t="s">
+      <c r="X85" s="230" t="s">
         <v>609</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W86" s="231" t="s">
+      <c r="W86" s="230" t="s">
         <v>610</v>
       </c>
-      <c r="X86" s="231" t="s">
+      <c r="X86" s="230" t="s">
         <v>610</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W87" s="231" t="s">
+      <c r="W87" s="230" t="s">
         <v>611</v>
       </c>
-      <c r="X87" s="231" t="s">
+      <c r="X87" s="230" t="s">
         <v>611</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W88" s="231" t="s">
+      <c r="W88" s="230" t="s">
         <v>612</v>
       </c>
-      <c r="X88" s="231" t="s">
+      <c r="X88" s="230" t="s">
         <v>612</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W89" s="231" t="s">
+      <c r="W89" s="230" t="s">
         <v>613</v>
       </c>
-      <c r="X89" s="231" t="s">
+      <c r="X89" s="230" t="s">
         <v>613</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W90" s="231" t="s">
+      <c r="W90" s="230" t="s">
         <v>614</v>
       </c>
-      <c r="X90" s="231" t="s">
+      <c r="X90" s="230" t="s">
         <v>614</v>
       </c>
     </row>
@@ -14344,7 +14350,7 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="258" t="s">
+      <c r="A11" s="257" t="s">
         <v>624</v>
       </c>
     </row>
@@ -14408,7 +14414,7 @@
       <c r="A2" s="0" t="s">
         <v>629</v>
       </c>
-      <c r="B2" s="259" t="n">
+      <c r="B2" s="258" t="n">
         <v>42832</v>
       </c>
       <c r="C2" s="0" t="s">
@@ -14422,7 +14428,7 @@
       <c r="A3" s="0" t="s">
         <v>632</v>
       </c>
-      <c r="B3" s="259" t="n">
+      <c r="B3" s="258" t="n">
         <v>42835</v>
       </c>
       <c r="C3" s="0" t="s">
@@ -14436,7 +14442,7 @@
       <c r="A4" s="0" t="s">
         <v>634</v>
       </c>
-      <c r="B4" s="259" t="n">
+      <c r="B4" s="258" t="n">
         <v>42838</v>
       </c>
       <c r="C4" s="0" t="s">
@@ -14450,7 +14456,7 @@
       <c r="A5" s="0" t="s">
         <v>636</v>
       </c>
-      <c r="B5" s="259" t="n">
+      <c r="B5" s="258" t="n">
         <v>42872</v>
       </c>
       <c r="C5" s="0" t="s">
@@ -14502,61 +14508,61 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="76.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="260" t="s">
+      <c r="A2" s="259" t="s">
         <v>639</v>
       </c>
-      <c r="B2" s="261"/>
+      <c r="B2" s="260"/>
       <c r="C2" s="35" t="s">
         <v>640</v>
       </c>
-      <c r="E2" s="262" t="s">
+      <c r="E2" s="261" t="s">
         <v>641</v>
       </c>
-      <c r="F2" s="263"/>
+      <c r="F2" s="262"/>
       <c r="G2" s="35" t="s">
         <v>642</v>
       </c>
       <c r="H2" s="35"/>
-      <c r="I2" s="264" t="s">
+      <c r="I2" s="263" t="s">
         <v>643</v>
       </c>
-      <c r="J2" s="265"/>
+      <c r="J2" s="264"/>
       <c r="K2" s="35" t="s">
         <v>644</v>
       </c>
-      <c r="M2" s="264" t="s">
+      <c r="M2" s="263" t="s">
         <v>645</v>
       </c>
-      <c r="N2" s="266"/>
+      <c r="N2" s="265"/>
       <c r="O2" s="35" t="s">
         <v>646</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="258"/>
+      <c r="A3" s="257"/>
     </row>
     <row r="4" customFormat="false" ht="76.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="262" t="s">
+      <c r="A4" s="261" t="s">
         <v>647</v>
       </c>
-      <c r="B4" s="267"/>
+      <c r="B4" s="266"/>
       <c r="C4" s="35" t="s">
         <v>648</v>
       </c>
-      <c r="E4" s="264" t="s">
+      <c r="E4" s="263" t="s">
         <v>649</v>
       </c>
-      <c r="F4" s="268"/>
+      <c r="F4" s="267"/>
       <c r="G4" s="35" t="s">
         <v>650</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="262"/>
+      <c r="A5" s="261"/>
       <c r="C5" s="1"/>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="258" t="s">
+      <c r="A6" s="257" t="s">
         <v>651</v>
       </c>
       <c r="B6" s="0" t="s">
@@ -14564,10 +14570,10 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="258"/>
+      <c r="A7" s="257"/>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="258" t="s">
+      <c r="A8" s="257" t="s">
         <v>653</v>
       </c>
       <c r="B8" s="0" t="s">
@@ -14602,53 +14608,53 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="269" t="s">
+      <c r="A13" s="268" t="s">
         <v>662</v>
       </c>
-      <c r="B13" s="270" t="s">
+      <c r="B13" s="269" t="s">
         <v>663</v>
       </c>
-      <c r="C13" s="271" t="s">
+      <c r="C13" s="270" t="s">
         <v>664</v>
       </c>
-      <c r="D13" s="271"/>
+      <c r="D13" s="270"/>
     </row>
     <row r="14" customFormat="false" ht="60.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B14" s="270" t="s">
+      <c r="B14" s="269" t="s">
         <v>665</v>
       </c>
-      <c r="C14" s="271" t="s">
+      <c r="C14" s="270" t="s">
         <v>666</v>
       </c>
-      <c r="D14" s="271"/>
-      <c r="H14" s="272" t="s">
+      <c r="D14" s="270"/>
+      <c r="H14" s="271" t="s">
         <v>667</v>
       </c>
-      <c r="I14" s="272"/>
-      <c r="J14" s="272"/>
-      <c r="K14" s="272"/>
-      <c r="L14" s="272"/>
-      <c r="M14" s="272"/>
-      <c r="N14" s="272"/>
+      <c r="I14" s="271"/>
+      <c r="J14" s="271"/>
+      <c r="K14" s="271"/>
+      <c r="L14" s="271"/>
+      <c r="M14" s="271"/>
+      <c r="N14" s="271"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="270"/>
-      <c r="C15" s="271"/>
-      <c r="D15" s="271"/>
+      <c r="B15" s="269"/>
+      <c r="C15" s="270"/>
+      <c r="D15" s="270"/>
     </row>
     <row r="16" customFormat="false" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="273" t="s">
+      <c r="A16" s="272" t="s">
         <v>668</v>
       </c>
-      <c r="B16" s="274" t="s">
+      <c r="B16" s="273" t="s">
         <v>669</v>
       </c>
-      <c r="C16" s="274"/>
-      <c r="D16" s="274"/>
-      <c r="E16" s="274"/>
+      <c r="C16" s="273"/>
+      <c r="D16" s="273"/>
+      <c r="E16" s="273"/>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="258" t="s">
+      <c r="A18" s="257" t="s">
         <v>670</v>
       </c>
       <c r="B18" s="0" t="s">
@@ -14656,48 +14662,48 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="258"/>
+      <c r="A19" s="257"/>
     </row>
     <row r="20" customFormat="false" ht="78.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="275" t="s">
+      <c r="A20" s="274" t="s">
         <v>672</v>
       </c>
-      <c r="B20" s="276" t="s">
+      <c r="B20" s="275" t="s">
         <v>673</v>
       </c>
-      <c r="C20" s="276"/>
-      <c r="D20" s="276"/>
-      <c r="E20" s="276"/>
-      <c r="F20" s="276"/>
-      <c r="G20" s="276"/>
-      <c r="H20" s="276"/>
+      <c r="C20" s="275"/>
+      <c r="D20" s="275"/>
+      <c r="E20" s="275"/>
+      <c r="F20" s="275"/>
+      <c r="G20" s="275"/>
+      <c r="H20" s="275"/>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="275"/>
-      <c r="B21" s="277"/>
-      <c r="C21" s="277"/>
-      <c r="D21" s="277"/>
-      <c r="E21" s="277"/>
-      <c r="F21" s="277"/>
-      <c r="G21" s="277"/>
-      <c r="H21" s="277"/>
+      <c r="A21" s="274"/>
+      <c r="B21" s="276"/>
+      <c r="C21" s="276"/>
+      <c r="D21" s="276"/>
+      <c r="E21" s="276"/>
+      <c r="F21" s="276"/>
+      <c r="G21" s="276"/>
+      <c r="H21" s="276"/>
     </row>
     <row r="22" customFormat="false" ht="122.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="275" t="s">
+      <c r="A22" s="274" t="s">
         <v>674</v>
       </c>
-      <c r="B22" s="276" t="s">
+      <c r="B22" s="275" t="s">
         <v>675</v>
       </c>
-      <c r="C22" s="276"/>
-      <c r="D22" s="276"/>
-      <c r="E22" s="276"/>
-      <c r="F22" s="276"/>
-      <c r="G22" s="276"/>
-      <c r="H22" s="276"/>
+      <c r="C22" s="275"/>
+      <c r="D22" s="275"/>
+      <c r="E22" s="275"/>
+      <c r="F22" s="275"/>
+      <c r="G22" s="275"/>
+      <c r="H22" s="275"/>
     </row>
     <row r="24" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="262" t="s">
+      <c r="A24" s="261" t="s">
         <v>676</v>
       </c>
       <c r="B24" s="0" t="s">
@@ -14705,41 +14711,41 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="63" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="269" t="s">
+      <c r="A26" s="268" t="s">
         <v>678</v>
       </c>
-      <c r="B26" s="276" t="s">
+      <c r="B26" s="275" t="s">
         <v>679</v>
       </c>
-      <c r="C26" s="276"/>
-      <c r="D26" s="276"/>
-      <c r="E26" s="276"/>
-      <c r="F26" s="276" t="s">
+      <c r="C26" s="275"/>
+      <c r="D26" s="275"/>
+      <c r="E26" s="275"/>
+      <c r="F26" s="275" t="s">
         <v>680</v>
       </c>
-      <c r="G26" s="276"/>
-      <c r="H26" s="276"/>
-      <c r="I26" s="276"/>
-      <c r="J26" s="276"/>
-      <c r="K26" s="276"/>
+      <c r="G26" s="275"/>
+      <c r="H26" s="275"/>
+      <c r="I26" s="275"/>
+      <c r="J26" s="275"/>
+      <c r="K26" s="275"/>
     </row>
     <row r="28" customFormat="false" ht="120.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="278" t="s">
+      <c r="A28" s="277" t="s">
         <v>681</v>
       </c>
-      <c r="B28" s="276" t="s">
+      <c r="B28" s="275" t="s">
         <v>682</v>
       </c>
-      <c r="C28" s="276"/>
-      <c r="D28" s="276" t="s">
+      <c r="C28" s="275"/>
+      <c r="D28" s="275" t="s">
         <v>683</v>
       </c>
-      <c r="E28" s="276"/>
-      <c r="F28" s="276"/>
-      <c r="G28" s="276"/>
+      <c r="E28" s="275"/>
+      <c r="F28" s="275"/>
+      <c r="G28" s="275"/>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="258" t="s">
+      <c r="A30" s="257" t="s">
         <v>684</v>
       </c>
       <c r="B30" s="0" t="s">
@@ -14747,7 +14753,7 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="258" t="s">
+      <c r="A32" s="257" t="s">
         <v>686</v>
       </c>
       <c r="B32" s="0" t="s">
